--- a/Stochastic_engine/CA_hydropower/CA_hydro_daily.xlsx
+++ b/Stochastic_engine/CA_hydropower/CA_hydro_daily.xlsx
@@ -396,10 +396,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>71314.18665296024</v>
+        <v>76385.21944461808</v>
       </c>
       <c r="C2">
-        <v>7670.126563826861</v>
+        <v>5720.249583244926</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -407,10 +407,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>66918.44202170413</v>
+        <v>71989.47481336197</v>
       </c>
       <c r="C3">
-        <v>5184.026487054543</v>
+        <v>3234.149506472609</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>77271.45649167761</v>
+        <v>82342.48928333545</v>
       </c>
       <c r="C4">
-        <v>7718.458833910634</v>
+        <v>5768.581853328699</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>77830.43885488558</v>
+        <v>82901.47164654342</v>
       </c>
       <c r="C5">
-        <v>8261.207802357385</v>
+        <v>6311.330821775449</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>71250.32619526976</v>
+        <v>76321.3589869276</v>
       </c>
       <c r="C6">
-        <v>9820.864746695608</v>
+        <v>7870.987766113673</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>72471.27586166712</v>
+        <v>74644.94958752726</v>
       </c>
       <c r="C7">
-        <v>7925.837282349101</v>
+        <v>3368.287353150411</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>77635.83861664191</v>
+        <v>76912.15327670434</v>
       </c>
       <c r="C8">
-        <v>12817.42267703992</v>
+        <v>5652.199799224472</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>75835.86214897396</v>
+        <v>72214.81774323869</v>
       </c>
       <c r="C9">
-        <v>16552.02491488389</v>
+        <v>6779.129088451689</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>73862.56284544598</v>
+        <v>67344.159373913</v>
       </c>
       <c r="C10">
-        <v>14949.46085284526</v>
+        <v>2568.892077796309</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>69915.31868093525</v>
+        <v>60499.55614360457</v>
       </c>
       <c r="C11">
-        <v>22475.83096269859</v>
+        <v>7487.589239032879</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>76047.33317235764</v>
+        <v>63734.21156922926</v>
       </c>
       <c r="C12">
-        <v>23711.61512204966</v>
+        <v>6115.700449767195</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>74238.204786295</v>
+        <v>61925.08318316663</v>
       </c>
       <c r="C13">
-        <v>21142.25037517253</v>
+        <v>3546.335702890069</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>75283.61199676372</v>
+        <v>63239.18051887833</v>
       </c>
       <c r="C14">
-        <v>21687.12887816891</v>
+        <v>5279.031277772647</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>67282.9353346381</v>
+        <v>55507.1939819957</v>
       </c>
       <c r="C15">
-        <v>26066.27924155576</v>
+        <v>10845.99871304569</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>56309.44464549478</v>
+        <v>44802.39341809538</v>
       </c>
       <c r="C16">
-        <v>22650.91552592471</v>
+        <v>8618.452069300845</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>65293.27374156116</v>
+        <v>54054.91263940474</v>
       </c>
       <c r="C17">
-        <v>15520.60535773121</v>
+        <v>2675.958972993551</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -572,10 +572,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>60919.79792198633</v>
+        <v>49950.12694507289</v>
       </c>
       <c r="C18">
-        <v>15077.64986037792</v>
+        <v>3420.820547526464</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -583,10 +583,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>55048.26307793586</v>
+        <v>44347.28222626542</v>
       </c>
       <c r="C19">
-        <v>18457.66575471746</v>
+        <v>7988.653513752201</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -594,10 +594,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>58054.28576383214</v>
+        <v>47353.3049121617</v>
       </c>
       <c r="C20">
-        <v>14610.99604063649</v>
+        <v>4141.983799671228</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -605,10 +605,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>64841.40395746225</v>
+        <v>52249.81140649841</v>
       </c>
       <c r="C21">
-        <v>18440.77088835015</v>
+        <v>7706.047184558362</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -616,10 +616,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>62782.20996513562</v>
+        <v>48300.0057148784</v>
       </c>
       <c r="C22">
-        <v>17713.81538426696</v>
+        <v>6713.380217648643</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -627,10 +627,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>67220.78586205014</v>
+        <v>50847.96991249953</v>
       </c>
       <c r="C23">
-        <v>16562.79875359119</v>
+        <v>5296.652124146349</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -638,10 +638,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>74450.02373047567</v>
+        <v>56186.59608163167</v>
       </c>
       <c r="C24">
-        <v>18430.82488045573</v>
+        <v>6898.966788184357</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -649,10 +649,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>72793.10031223336</v>
+        <v>52639.06096409597</v>
       </c>
       <c r="C25">
-        <v>15306.81257853872</v>
+        <v>3509.243023440828</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -660,10 +660,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>79552.30413696857</v>
+        <v>57507.65308953779</v>
       </c>
       <c r="C26">
-        <v>17335.30868309987</v>
+        <v>5272.027665175436</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -671,10 +671,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>82724.18553881145</v>
+        <v>60679.53449138067</v>
       </c>
       <c r="C27">
-        <v>16911.99128504913</v>
+        <v>4848.710267124703</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -682,10 +682,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>78742.64564437854</v>
+        <v>60093.42441337507</v>
       </c>
       <c r="C28">
-        <v>18617.89225486778</v>
+        <v>7509.271320222885</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -693,10 +693,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>85714.92033132246</v>
+        <v>70461.12891674628</v>
       </c>
       <c r="C29">
-        <v>16646.84636735628</v>
+        <v>6492.885515990929</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -704,10 +704,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>87250.99268988389</v>
+        <v>75392.63109173501</v>
       </c>
       <c r="C30">
-        <v>16254.10554602661</v>
+        <v>7054.804777940795</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -715,10 +715,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>79629.86203497968</v>
+        <v>71166.93025325806</v>
       </c>
       <c r="C31">
-        <v>16711.96261763315</v>
+        <v>8467.321932826871</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -726,10 +726,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>84060.44243927512</v>
+        <v>78992.94047398081</v>
       </c>
       <c r="C32">
-        <v>13450.76606891808</v>
+        <v>6160.785467391345</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -737,10 +737,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>84265.40184918394</v>
+        <v>82593.3297003169</v>
       </c>
       <c r="C33">
-        <v>9906.988545423021</v>
+        <v>3571.668027175822</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -748,10 +748,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>83649.91608553092</v>
+        <v>81977.84393666388</v>
       </c>
       <c r="C34">
-        <v>10824.25312514803</v>
+        <v>4488.932606900837</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -759,10 +759,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>83751.01529539716</v>
+        <v>83155.77785554164</v>
       </c>
       <c r="C35">
-        <v>15733.04841790738</v>
+        <v>11934.72559445256</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -770,10 +770,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>87052.38846300291</v>
+        <v>87533.98573215894</v>
       </c>
       <c r="C36">
-        <v>11768.61515191536</v>
+        <v>10507.29002325292</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -781,10 +781,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>82955.2082961266</v>
+        <v>84513.64027429416</v>
       </c>
       <c r="C37">
-        <v>13017.32727709579</v>
+        <v>14292.99984322574</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -792,10 +792,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>92172.9979543378</v>
+        <v>94808.2646415169</v>
       </c>
       <c r="C38">
-        <v>7181.193985860683</v>
+        <v>10993.86424678301</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -803,10 +803,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>88681.13215669247</v>
+        <v>92393.23355288312</v>
       </c>
       <c r="C39">
-        <v>9900.873296890684</v>
+        <v>16250.54125260539</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -814,10 +814,10 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>90747.98340847403</v>
+        <v>95536.91951367621</v>
       </c>
       <c r="C40">
-        <v>12743.60611904247</v>
+        <v>21630.27176954956</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -825,10 +825,10 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>90911.59413531967</v>
+        <v>95700.53024052185</v>
       </c>
       <c r="C41">
-        <v>13069.77394451371</v>
+        <v>21956.4395950208</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -836,10 +836,10 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>90709.13632945913</v>
+        <v>92222.40175679544</v>
       </c>
       <c r="C42">
-        <v>10607.86734198329</v>
+        <v>18007.0386311088</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -847,10 +847,10 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>91287.99750048506</v>
+        <v>89525.5922499555</v>
       </c>
       <c r="C43">
-        <v>10071.00611506474</v>
+        <v>15982.68304280867</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -858,10 +858,10 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>95592.05830568328</v>
+        <v>90553.98237728784</v>
       </c>
       <c r="C44">
-        <v>15506.60394411543</v>
+        <v>19930.78651047777</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -869,10 +869,10 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>92991.40336304232</v>
+        <v>84677.65675678101</v>
       </c>
       <c r="C45">
-        <v>16215.12495590057</v>
+        <v>19151.81316088134</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -880,10 +880,10 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>97730.04294061731</v>
+        <v>86140.62565649013</v>
       </c>
       <c r="C46">
-        <v>11446.46063574974</v>
+        <v>12895.65447934893</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -891,10 +891,10 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>97651.01324362367</v>
+        <v>82785.92528163063</v>
       </c>
       <c r="C47">
-        <v>13517.47773206265</v>
+        <v>13479.17721428025</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -902,10 +902,10 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>92042.46486215293</v>
+        <v>77177.37690015988</v>
       </c>
       <c r="C48">
-        <v>16650.63908102958</v>
+        <v>16612.33856324718</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -913,10 +913,10 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>96012.03629346192</v>
+        <v>81374.79660221808</v>
       </c>
       <c r="C49">
-        <v>12407.72582076236</v>
+        <v>12988.25365348922</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -924,10 +924,10 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>92469.77949954444</v>
+        <v>78060.38807904979</v>
       </c>
       <c r="C50">
-        <v>10922.38219273788</v>
+        <v>12121.73837597398</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -935,10 +935,10 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>96065.27880866712</v>
+        <v>81883.73565892167</v>
       </c>
       <c r="C51">
-        <v>11683.24046419529</v>
+        <v>13501.42499794065</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -946,10 +946,10 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>95784.8957606875</v>
+        <v>81831.20088169124</v>
       </c>
       <c r="C52">
-        <v>13626.66850411086</v>
+        <v>16063.68138836546</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -957,10 +957,10 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>97896.07011825894</v>
+        <v>84170.22351001189</v>
       </c>
       <c r="C53">
-        <v>11552.24744309603</v>
+        <v>14608.08867785989</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -968,10 +968,10 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>92692.92154067699</v>
+        <v>79194.92320317912</v>
       </c>
       <c r="C54">
-        <v>9395.795890743622</v>
+        <v>13070.46547601673</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -979,10 +979,10 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>93392.46709820929</v>
+        <v>79894.46876071142</v>
       </c>
       <c r="C55">
-        <v>12708.18805355558</v>
+        <v>16382.85763882869</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -990,10 +990,10 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>94788.18422169982</v>
+        <v>82833.23360802513</v>
       </c>
       <c r="C56">
-        <v>12340.75830419234</v>
+        <v>15362.7610868776</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1001,10 +1001,10 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>89211.43607087838</v>
+        <v>78799.53318102687</v>
       </c>
       <c r="C57">
-        <v>12164.51883211327</v>
+        <v>14533.85481221069</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1012,10 +1012,10 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>82620.8058893275</v>
+        <v>73751.95072329916</v>
       </c>
       <c r="C58">
-        <v>8055.275615364299</v>
+        <v>9771.944792873865</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1023,10 +1023,10 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>80679.4216887458</v>
+        <v>73353.61424654064</v>
       </c>
       <c r="C59">
-        <v>10101.94714651678</v>
+        <v>11165.9495214385</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1034,10 +1034,10 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>78881.45305263919</v>
+        <v>73098.6933342572</v>
       </c>
       <c r="C60">
-        <v>9201.149245092271</v>
+        <v>9612.484817426146</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1045,10 +1045,10 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>77385.16432821366</v>
+        <v>73145.45233365483</v>
       </c>
       <c r="C61">
-        <v>9298.142346467313</v>
+        <v>9056.811116213345</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1056,10 +1056,10 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>75207.48755423103</v>
+        <v>70967.7755596722</v>
       </c>
       <c r="C62">
-        <v>9393.479955201065</v>
+        <v>9152.148724947096</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1067,10 +1067,10 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>68737.08676536191</v>
+        <v>67385.86105823707</v>
       </c>
       <c r="C63">
-        <v>4438.677766986603</v>
+        <v>4055.150219462617</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1078,10 +1078,10 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>76535.95634016967</v>
+        <v>78073.21692047879</v>
       </c>
       <c r="C64">
-        <v>9706.024432343047</v>
+        <v>9180.300567549042</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1089,10 +1089,10 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>73294.37468633753</v>
+        <v>77720.12155408064</v>
       </c>
       <c r="C65">
-        <v>7914.059117312958</v>
+        <v>7246.138935248935</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1100,10 +1100,10 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>71698.24367870038</v>
+        <v>79012.4768338775</v>
       </c>
       <c r="C66">
-        <v>5188.219883188132</v>
+        <v>4378.103383854092</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1111,10 +1111,10 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>70770.21291211047</v>
+        <v>80972.93235472155</v>
       </c>
       <c r="C67">
-        <v>9424.818091465364</v>
+        <v>8472.505274861305</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1122,10 +1122,10 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>72413.53522893997</v>
+        <v>85504.74095898504</v>
       </c>
       <c r="C68">
-        <v>9079.203106450102</v>
+        <v>7984.693972576023</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1133,10 +1133,10 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>63455.93731496136</v>
+        <v>76547.14304500644</v>
       </c>
       <c r="C69">
-        <v>4812.012025211206</v>
+        <v>3717.502891337128</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1144,10 +1144,10 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>73747.72785611538</v>
+        <v>88077.26779214508</v>
       </c>
       <c r="C70">
-        <v>4207.784916091416</v>
+        <v>2801.619803019641</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1155,10 +1155,10 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>62628.02138465536</v>
+        <v>78195.89552666969</v>
       </c>
       <c r="C71">
-        <v>11150.73065012829</v>
+        <v>9432.909557858817</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1166,10 +1166,10 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>67958.32050506418</v>
+        <v>84764.52885306315</v>
       </c>
       <c r="C72">
-        <v>7308.343869739776</v>
+        <v>5278.866798272612</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1177,10 +1177,10 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>61257.84072714805</v>
+        <v>79302.38328113167</v>
       </c>
       <c r="C73">
-        <v>9116.396637152946</v>
+        <v>6775.263586488087</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1188,10 +1188,10 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>58530.45134469203</v>
+        <v>77813.32810466029</v>
       </c>
       <c r="C74">
-        <v>7546.818344295729</v>
+        <v>4894.029314433174</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1199,10 +1199,10 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>62957.55979901556</v>
+        <v>83478.77076496847</v>
       </c>
       <c r="C75">
-        <v>10918.87127801418</v>
+        <v>7954.426268953929</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1210,10 +1210,10 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>60262.59563846371</v>
+        <v>80783.80660441663</v>
       </c>
       <c r="C76">
-        <v>10971.58768240227</v>
+        <v>8007.142673342018</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1221,10 +1221,10 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>65845.70751862078</v>
+        <v>85017.41056110834</v>
       </c>
       <c r="C77">
-        <v>11192.50586786253</v>
+        <v>6945.48608334265</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1232,10 +1232,10 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>73488.56277769651</v>
+        <v>91310.75789671871</v>
       </c>
       <c r="C78">
-        <v>11915.60620641153</v>
+        <v>6386.011646432029</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1243,10 +1243,10 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>72000.80701915936</v>
+        <v>88473.49421471621</v>
       </c>
       <c r="C79">
-        <v>15843.23624485649</v>
+        <v>9031.066909417365</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1254,10 +1254,10 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>71717.83686486108</v>
+        <v>86841.01613695256</v>
       </c>
       <c r="C80">
-        <v>17936.61505986576</v>
+        <v>9841.870948967005</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1265,10 +1265,10 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>68657.04389680269</v>
+        <v>82430.71524542882</v>
       </c>
       <c r="C81">
-        <v>19265.44388626224</v>
+        <v>9888.124999903854</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1276,10 +1276,10 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>72792.74712494652</v>
+        <v>85216.91055010729</v>
       </c>
       <c r="C82">
-        <v>18162.48072688454</v>
+        <v>7502.587065066536</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1287,10 +1287,10 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>78004.16041355251</v>
+        <v>90428.32383871329</v>
       </c>
       <c r="C83">
-        <v>19940.15759642806</v>
+        <v>9280.263934610051</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1298,10 +1298,10 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>75280.43836085168</v>
+        <v>86900.00080425788</v>
       </c>
       <c r="C84">
-        <v>19403.8067729227</v>
+        <v>9772.558026631637</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1309,10 +1309,10 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>76549.42993038773</v>
+        <v>87364.39139203935</v>
       </c>
       <c r="C85">
-        <v>16698.70220470099</v>
+        <v>8096.09837393687</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1320,10 +1320,10 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>74681.59622304724</v>
+        <v>84691.95670294427</v>
       </c>
       <c r="C86">
-        <v>16530.5049176134</v>
+        <v>8956.546002376223</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1331,10 +1331,10 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>75046.15418220875</v>
+        <v>84251.91368035119</v>
       </c>
       <c r="C87">
-        <v>15955.99740211268</v>
+        <v>9410.68340240245</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1342,10 +1342,10 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>78787.13766570567</v>
+        <v>87188.29618209353</v>
       </c>
       <c r="C88">
-        <v>14931.9729798941</v>
+        <v>9415.303895710806</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1353,10 +1353,10 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>77605.34562615784</v>
+        <v>85201.9031607911</v>
       </c>
       <c r="C89">
-        <v>16946.94956078448</v>
+        <v>12458.92539212814</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1364,10 +1364,10 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>82574.62913926414</v>
+        <v>90171.18667389741</v>
       </c>
       <c r="C90">
-        <v>19666.48663834751</v>
+        <v>15178.46246969116</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1375,10 +1375,10 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>77627.93435803635</v>
+        <v>85865.30028471604</v>
       </c>
       <c r="C91">
-        <v>15735.92770765032</v>
+        <v>11349.27551011019</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1386,10 +1386,10 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>73937.28471817366</v>
+        <v>82815.45903689977</v>
       </c>
       <c r="C92">
-        <v>22201.93792306419</v>
+        <v>17916.65769664026</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1397,10 +1397,10 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>82655.14582201646</v>
+        <v>92174.12853278901</v>
       </c>
       <c r="C93">
-        <v>15848.57645517413</v>
+        <v>11664.66819986642</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1408,10 +1408,10 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>82075.77324112688</v>
+        <v>92235.56434394584</v>
       </c>
       <c r="C94">
-        <v>17716.18945816764</v>
+        <v>13633.65317397612</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1419,10 +1419,10 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>89906.99252689087</v>
+        <v>100707.5920217563</v>
       </c>
       <c r="C95">
-        <v>18173.02315631714</v>
+        <v>14191.85884324184</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1430,10 +1430,10 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>90900.68927582672</v>
+        <v>102342.0971627385</v>
       </c>
       <c r="C96">
-        <v>22178.05480305524</v>
+        <v>18298.26246109615</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1441,10 +1441,10 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>88883.25825507902</v>
+        <v>100324.6661419908</v>
       </c>
       <c r="C97">
-        <v>22539.29807680052</v>
+        <v>18659.50573484143</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1452,10 +1452,10 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>87914.24049221045</v>
+        <v>99343.52025432358</v>
       </c>
       <c r="C98">
-        <v>19778.60529603607</v>
+        <v>15165.55176199388</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1463,10 +1463,10 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>89683.88103572752</v>
+        <v>101101.032673042</v>
       </c>
       <c r="C99">
-        <v>22754.45695814071</v>
+        <v>17408.14223201543</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1474,10 +1474,10 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>86470.20331282269</v>
+        <v>97875.22682533848</v>
       </c>
       <c r="C100">
-        <v>21167.28657397334</v>
+        <v>15087.71065576497</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1485,10 +1485,10 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>83513.62748759358</v>
+        <v>94906.52287531071</v>
       </c>
       <c r="C101">
-        <v>22311.15355852054</v>
+        <v>15498.31644822907</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1496,10 +1496,10 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>78472.3820749525</v>
+        <v>89853.14933787097</v>
       </c>
       <c r="C102">
-        <v>20560.24123355214</v>
+        <v>13014.14293117759</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1507,10 +1507,10 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>78342.74977538791</v>
+        <v>89711.38891350773</v>
       </c>
       <c r="C103">
-        <v>20292.97976481414</v>
+        <v>12013.62027035649</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1518,10 +1518,10 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>82613.17924245815</v>
+        <v>93981.81838057797</v>
       </c>
       <c r="C104">
-        <v>16449.15610692199</v>
+        <v>8169.796612464346</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1529,10 +1529,10 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>86236.61458647187</v>
+        <v>97111.14317983683</v>
       </c>
       <c r="C105">
-        <v>18704.7661794934</v>
+        <v>10359.20767601336</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1540,10 +1540,10 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>78659.50466974295</v>
+        <v>89039.92271835306</v>
       </c>
       <c r="C106">
-        <v>19110.16909110916</v>
+        <v>10698.41157860672</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1551,10 +1551,10 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>86112.7890173104</v>
+        <v>95999.09652116564</v>
       </c>
       <c r="C107">
-        <v>23745.84505159537</v>
+        <v>15267.88853007053</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1562,10 +1562,10 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>82502.13854021578</v>
+        <v>91894.33549931615</v>
       </c>
       <c r="C108">
-        <v>24244.42626716421</v>
+        <v>15700.27073661697</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1573,10 +1573,10 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>81097.32087009656</v>
+        <v>89995.40728444207</v>
       </c>
       <c r="C109">
-        <v>22280.72363165967</v>
+        <v>13670.36909209004</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1584,10 +1584,10 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>77163.90552107171</v>
+        <v>85567.88139066235</v>
       </c>
       <c r="C110">
-        <v>26242.98591437338</v>
+        <v>17566.43236578136</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1595,10 +1595,10 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>80872.29535451748</v>
+        <v>89276.27122410813</v>
       </c>
       <c r="C111">
-        <v>24001.9154688683</v>
+        <v>15325.36192027628</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1606,10 +1606,10 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>76644.79777740523</v>
+        <v>85485.64728814842</v>
       </c>
       <c r="C112">
-        <v>21895.65502142584</v>
+        <v>13152.07716665911</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1617,10 +1617,10 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>77695.86831942115</v>
+        <v>86973.59147131689</v>
       </c>
       <c r="C113">
-        <v>21594.58468010714</v>
+        <v>12783.98251916571</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1628,10 +1628,10 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>74807.50516697615</v>
+        <v>84522.1019600244</v>
       </c>
       <c r="C114">
-        <v>23725.07889875165</v>
+        <v>14847.45243163552</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1639,10 +1639,10 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>80864.36955038669</v>
+        <v>91015.83998458748</v>
       </c>
       <c r="C115">
-        <v>21127.24361911811</v>
+        <v>12182.59284582727</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1650,10 +1650,10 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>76451.64263412669</v>
+        <v>87039.98670948001</v>
       </c>
       <c r="C116">
-        <v>21026.15951813775</v>
+        <v>12014.48443867221</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1661,10 +1661,10 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>73622.83375779542</v>
+        <v>84648.05147430126</v>
       </c>
       <c r="C117">
-        <v>21452.31570906211</v>
+        <v>12373.61632342187</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1672,10 +1672,10 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>75123.97934093428</v>
+        <v>86149.19705744012</v>
       </c>
       <c r="C118">
-        <v>19403.5586406997</v>
+        <v>10324.85925505945</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1683,10 +1683,10 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>79673.77924789503</v>
+        <v>91534.57206337553</v>
       </c>
       <c r="C119">
-        <v>27221.05538779794</v>
+        <v>19655.47256643108</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1694,10 +1694,10 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>79794.87588127804</v>
+        <v>92491.24379573319</v>
       </c>
       <c r="C120">
-        <v>24882.11484920557</v>
+        <v>18829.64859211207</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1705,10 +1705,10 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>83696.86537311859</v>
+        <v>97228.80838654836</v>
       </c>
       <c r="C121">
-        <v>25894.18617138864</v>
+        <v>21354.83647856852</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1716,10 +1716,10 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>77142.81300663833</v>
+        <v>91510.33111904275</v>
       </c>
       <c r="C122">
-        <v>21573.88965421079</v>
+        <v>18547.65652566404</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1727,10 +1727,10 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>77521.97788302852</v>
+        <v>92725.07109440758</v>
       </c>
       <c r="C123">
-        <v>24798.17583957092</v>
+        <v>23285.05927529754</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1738,7 +1738,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>81065.60963752336</v>
+        <v>97104.27794787707</v>
       </c>
       <c r="C124">
         <v>18787.34720427925</v>
@@ -1749,7 +1749,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>84602.84598034206</v>
+        <v>100641.5142906958</v>
       </c>
       <c r="C125">
         <v>20268.86950368005</v>
@@ -1760,7 +1760,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>81831.4616873254</v>
+        <v>96776.53456974799</v>
       </c>
       <c r="C126">
         <v>19063.333982396</v>
@@ -1771,7 +1771,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>84392.99153286857</v>
+        <v>98244.46898736007</v>
       </c>
       <c r="C127">
         <v>18916.79555639708</v>
@@ -1782,7 +1782,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>82771.54031069795</v>
+        <v>95529.42233725832</v>
       </c>
       <c r="C128">
         <v>20866.75045973852</v>
@@ -1793,7 +1793,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>79394.74078311522</v>
+        <v>91059.02738174448</v>
       </c>
       <c r="C129">
         <v>22346.24881789789</v>
@@ -1804,7 +1804,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>79848.62150466179</v>
+        <v>90419.31267535992</v>
       </c>
       <c r="C130">
         <v>21560.90828433965</v>
@@ -1815,7 +1815,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>86818.09301384428</v>
+        <v>96295.18875661131</v>
       </c>
       <c r="C131">
         <v>26807.63703474589</v>
@@ -1826,7 +1826,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>88270.84347692583</v>
+        <v>97747.93921969287</v>
       </c>
       <c r="C132">
         <v>19014.01491155407</v>
@@ -1837,7 +1837,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>79737.79213216327</v>
+        <v>88830.78828621312</v>
       </c>
       <c r="C133">
         <v>24856.278103247</v>
@@ -1848,7 +1848,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>82731.96007908334</v>
+        <v>91440.856644416</v>
       </c>
       <c r="C134">
         <v>25446.04038432402</v>
@@ -1859,7 +1859,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>79308.17593666933</v>
+        <v>87632.9729132848</v>
       </c>
       <c r="C135">
         <v>22434.29390958688</v>
@@ -1870,7 +1870,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>72228.45514883047</v>
+        <v>80169.15253672875</v>
       </c>
       <c r="C136">
         <v>21752.0754257472</v>
@@ -1881,7 +1881,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>78513.16839162927</v>
+        <v>86069.76619081036</v>
       </c>
       <c r="C137">
         <v>25738.84103956778</v>
@@ -1892,7 +1892,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>78776.19873871074</v>
+        <v>85948.69694917463</v>
       </c>
       <c r="C138">
         <v>20850.60896397142</v>
@@ -1903,7 +1903,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>82947.44618294129</v>
+        <v>90119.94439340518</v>
       </c>
       <c r="C139">
         <v>20935.32885555282</v>
@@ -1914,7 +1914,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>78259.2281478824</v>
+        <v>85623.02378127893</v>
       </c>
       <c r="C140">
         <v>23511.01092613428</v>
@@ -1925,7 +1925,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>78936.86963176778</v>
+        <v>86491.96268809696</v>
       </c>
       <c r="C141">
         <v>23126.06336668285</v>
@@ -1936,7 +1936,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>77749.84392913182</v>
+        <v>85496.23440839362</v>
       </c>
       <c r="C142">
         <v>16959.24913915773</v>
@@ -1947,7 +1947,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>75627.94586667295</v>
+        <v>83565.63376886738</v>
       </c>
       <c r="C143">
         <v>23137.91529078795</v>
@@ -1958,7 +1958,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>80658.87278431043</v>
+        <v>88787.85810943751</v>
       </c>
       <c r="C144">
         <v>21862.12733922965</v>
@@ -1969,7 +1969,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>77786.90890167128</v>
+        <v>86107.19164973099</v>
       </c>
       <c r="C145">
         <v>23534.08555472572</v>
@@ -1980,7 +1980,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>76345.67680382886</v>
+        <v>84665.95955188856</v>
       </c>
       <c r="C146">
         <v>20147.49837808402</v>
@@ -1991,10 +1991,10 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>80593.62911282344</v>
+        <v>87810.46265520871</v>
       </c>
       <c r="C147">
-        <v>17631.11740420179</v>
+        <v>17540.28692291102</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2002,10 +2002,10 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>74277.8602024245</v>
+        <v>80391.24453913535</v>
       </c>
       <c r="C148">
-        <v>24361.09653111014</v>
+        <v>24179.4355685286</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2013,10 +2013,10 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>76643.57886798056</v>
+        <v>81653.51399901698</v>
       </c>
       <c r="C149">
-        <v>17463.2080333341</v>
+        <v>17190.7165894618</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2024,10 +2024,10 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>84894.18735359157</v>
+        <v>88800.67327895355</v>
       </c>
       <c r="C150">
-        <v>19941.03486665332</v>
+        <v>19577.71294149024</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2035,10 +2035,10 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>81599.50210181494</v>
+        <v>84402.5388215025</v>
       </c>
       <c r="C151">
-        <v>21446.51067876041</v>
+        <v>20992.35827230656</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2046,10 +2046,10 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>84367.63244674209</v>
+        <v>86067.21996075523</v>
       </c>
       <c r="C152">
-        <v>22125.57325877236</v>
+        <v>21580.59037102774</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2057,10 +2057,10 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>83999.66980786028</v>
+        <v>85699.25732187342</v>
       </c>
       <c r="C153">
-        <v>21195.379339832</v>
+        <v>20650.39645208738</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2068,10 +2068,10 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>88450.59432142151</v>
+        <v>89645.05369612291</v>
       </c>
       <c r="C154">
-        <v>18065.0780330044</v>
+        <v>17527.04866178187</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2079,10 +2079,10 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>82062.00693613412</v>
+        <v>82751.33817152378</v>
       </c>
       <c r="C155">
-        <v>25498.92888199536</v>
+        <v>24967.85302729491</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2090,10 +2090,10 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>83772.62033653897</v>
+        <v>83956.8234326169</v>
       </c>
       <c r="C156">
-        <v>20899.94214052758</v>
+        <v>20375.81980234922</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2101,10 +2101,10 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>90384.35862733585</v>
+        <v>90063.43358410205</v>
       </c>
       <c r="C157">
-        <v>22491.31609732888</v>
+        <v>21974.1472756726</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2112,10 +2112,10 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>93228.4009442298</v>
+        <v>92402.34776168427</v>
       </c>
       <c r="C158">
-        <v>24791.00912394377</v>
+        <v>24280.79381880958</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2123,10 +2123,10 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>89173.53064758463</v>
+        <v>87842.34932572737</v>
       </c>
       <c r="C159">
-        <v>22297.19531677388</v>
+        <v>21793.93352816177</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2134,10 +2134,10 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>82094.93245493251</v>
+        <v>80763.75113307525</v>
       </c>
       <c r="C160">
-        <v>22644.22984088857</v>
+        <v>22140.96805227646</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2145,10 +2145,10 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>90198.10748482271</v>
+        <v>89029.95348451326</v>
       </c>
       <c r="C161">
-        <v>20637.73399446289</v>
+        <v>20188.55814280153</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2156,10 +2156,10 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>95021.87069322956</v>
+        <v>94016.7440144679</v>
       </c>
       <c r="C162">
-        <v>22087.51128582752</v>
+        <v>21692.42137111693</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2167,10 +2167,10 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>87657.71751518988</v>
+        <v>86815.618157976</v>
       </c>
       <c r="C163">
-        <v>17471.10534218302</v>
+        <v>17130.10136442319</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2178,10 +2178,10 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>97314.83235329149</v>
+        <v>96635.76031762541</v>
       </c>
       <c r="C164">
-        <v>19595.08550535711</v>
+        <v>19308.16746454803</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2189,10 +2189,10 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>91995.72616630197</v>
+        <v>91479.68145218368</v>
       </c>
       <c r="C165">
-        <v>25187.4474277222</v>
+        <v>24954.61532386387</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2200,10 +2200,10 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>90048.08840056522</v>
+        <v>89695.07100799472</v>
       </c>
       <c r="C166">
-        <v>23933.30866778596</v>
+        <v>23754.56250087839</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2211,10 +2211,10 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>88863.98775644362</v>
+        <v>88510.97036387312</v>
       </c>
       <c r="C167">
-        <v>23058.20570883193</v>
+        <v>22879.45954192436</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2222,10 +2222,10 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>94016.4289034086</v>
+        <v>93219.58847815088</v>
       </c>
       <c r="C168">
-        <v>19925.14719398283</v>
+        <v>20464.81588075189</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2233,10 +2233,10 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>88808.51287535623</v>
+        <v>87567.84941741126</v>
       </c>
       <c r="C169">
-        <v>19889.20885220636</v>
+        <v>21147.29239265204</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2244,10 +2244,10 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>92370.47648713252</v>
+        <v>90685.98999650031</v>
       </c>
       <c r="C170">
-        <v>17950.24795082493</v>
+        <v>19926.74634494723</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2255,10 +2255,10 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>94194.96833030559</v>
+        <v>92066.65880698613</v>
       </c>
       <c r="C171">
-        <v>20132.34924542418</v>
+        <v>22827.26249322311</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2266,10 +2266,10 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>98847.79229047624</v>
+        <v>96275.65973446956</v>
       </c>
       <c r="C172">
-        <v>16285.94132677769</v>
+        <v>19699.26942825324</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2277,10 +2277,10 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>95052.27643358307</v>
+        <v>92036.32084488914</v>
       </c>
       <c r="C173">
-        <v>14716.84238394128</v>
+        <v>18848.58533909346</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2288,10 +2288,10 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>88153.37892845664</v>
+        <v>85137.42333976271</v>
       </c>
       <c r="C174">
-        <v>18100.82597246827</v>
+        <v>22232.56892762045</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2299,10 +2299,10 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>88661.91761319693</v>
+        <v>85015.17133099996</v>
       </c>
       <c r="C175">
-        <v>19307.453849393</v>
+        <v>23333.89612164041</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2310,10 +2310,10 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>92909.73203149709</v>
+        <v>88632.19505579706</v>
       </c>
       <c r="C176">
-        <v>18018.66539594769</v>
+        <v>21939.80698529032</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2321,10 +2321,10 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>95432.76218207199</v>
+        <v>90524.43451286895</v>
       </c>
       <c r="C177">
-        <v>12798.49418634438</v>
+        <v>16614.33509278223</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2332,10 +2332,10 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>87050.28413330001</v>
+        <v>81511.16577059394</v>
       </c>
       <c r="C178">
-        <v>9736.738181264447</v>
+        <v>13447.27840479752</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2343,10 +2343,10 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>91644.34017406144</v>
+        <v>85474.43111785233</v>
       </c>
       <c r="C179">
-        <v>18272.16274301889</v>
+        <v>21877.40228364719</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2354,10 +2354,10 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>91117.7816078109</v>
+        <v>84317.08185809877</v>
       </c>
       <c r="C180">
-        <v>17234.43343180249</v>
+        <v>20734.37228952601</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2365,10 +2365,10 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>91660.29697896878</v>
+        <v>84859.59722925664</v>
       </c>
       <c r="C181">
-        <v>18467.05777724979</v>
+        <v>21966.99663497331</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2376,10 +2376,10 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>88424.18387422146</v>
+        <v>81421.40164219822</v>
       </c>
       <c r="C182">
-        <v>16200.71107003342</v>
+        <v>19658.74147757572</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2387,10 +2387,10 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>95656.39781475329</v>
+        <v>88451.53310041894</v>
       </c>
       <c r="C183">
-        <v>18421.5556860403</v>
+        <v>21837.67764340138</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2398,10 +2398,10 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>93824.37193137544</v>
+        <v>86417.42473472995</v>
       </c>
       <c r="C184">
-        <v>17469.18408871117</v>
+        <v>20843.39759589102</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2409,10 +2409,10 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>90668.77801145549</v>
+        <v>83059.7483324989</v>
       </c>
       <c r="C185">
-        <v>21926.45811966881</v>
+        <v>25258.76317666744</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2420,10 +2420,10 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>92852.68334072392</v>
+        <v>85041.57117945622</v>
       </c>
       <c r="C186">
-        <v>13679.72958749324</v>
+        <v>16970.12619431064</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2431,10 +2431,10 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>94044.32023652787</v>
+        <v>86031.12559294904</v>
       </c>
       <c r="C187">
-        <v>19200.71960543634</v>
+        <v>22449.20776207252</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2442,10 +2442,10 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>92613.29058517478</v>
+        <v>84600.09594159595</v>
       </c>
       <c r="C188">
-        <v>15893.73779704116</v>
+        <v>19142.22595367735</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2453,10 +2453,10 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>88863.41292406734</v>
+        <v>81228.42367406345</v>
       </c>
       <c r="C189">
-        <v>18386.06855568175</v>
+        <v>21588.46744248153</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2464,10 +2464,10 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>99705.69998244393</v>
+        <v>92448.916126015</v>
       </c>
       <c r="C190">
-        <v>19111.72975637213</v>
+        <v>22268.03937333551</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2475,10 +2475,10 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>91049.22982750983</v>
+        <v>84170.65136465585</v>
       </c>
       <c r="C191">
-        <v>16929.75566349181</v>
+        <v>20039.9760106188</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2486,10 +2486,10 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>91267.6563216682</v>
+        <v>84767.28325238917</v>
       </c>
       <c r="C192">
-        <v>15501.95049869957</v>
+        <v>18566.08157599015</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2497,10 +2497,10 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>94471.9076177885</v>
+        <v>88349.7399420844</v>
       </c>
       <c r="C193">
-        <v>20123.48087678398</v>
+        <v>23141.52268423816</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2508,10 +2508,10 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>90505.634043436</v>
+        <v>84761.67176130685</v>
       </c>
       <c r="C194">
-        <v>11801.41880623833</v>
+        <v>14773.37134385611</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2519,10 +2519,10 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>91192.81850842937</v>
+        <v>85448.85622630021</v>
       </c>
       <c r="C195">
-        <v>19093.84106912087</v>
+        <v>22065.79360673865</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2530,10 +2530,10 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>89599.80530434469</v>
+        <v>83409.44363244012</v>
       </c>
       <c r="C196">
-        <v>18197.41115119641</v>
+        <v>21083.84382311649</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2541,10 +2541,10 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>88419.03304890011</v>
+        <v>81782.27198722011</v>
       </c>
       <c r="C197">
-        <v>17384.11844809003</v>
+        <v>20185.03125431239</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2552,10 +2552,10 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>87631.35687435795</v>
+        <v>80548.19642290253</v>
       </c>
       <c r="C198">
-        <v>18146.37420490133</v>
+        <v>20861.76714542599</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2563,10 +2563,10 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>84277.11598187838</v>
+        <v>76747.55614064755</v>
       </c>
       <c r="C199">
-        <v>20136.56336038646</v>
+        <v>22766.43643521342</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2574,10 +2574,10 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>87431.81686870006</v>
+        <v>79455.85763769381</v>
       </c>
       <c r="C200">
-        <v>16690.87388072439</v>
+        <v>19235.22708985365</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2585,10 +2585,10 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>90820.22968184789</v>
+        <v>82397.87106106624</v>
       </c>
       <c r="C201">
-        <v>15692.17543618649</v>
+        <v>18151.00877961805</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2596,10 +2596,10 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>89959.56569028707</v>
+        <v>81537.20706950541</v>
       </c>
       <c r="C202">
-        <v>15258.91406751849</v>
+        <v>17717.74741095004</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2607,10 +2607,10 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>87944.74706466307</v>
+        <v>79334.41554793355</v>
       </c>
       <c r="C203">
-        <v>20383.58767938548</v>
+        <v>22818.51927306039</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2618,10 +2618,10 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>83334.66278652901</v>
+        <v>74536.35837385163</v>
       </c>
       <c r="C204">
-        <v>17274.69125917384</v>
+        <v>19685.72110309209</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2629,10 +2629,10 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>88733.21746680011</v>
+        <v>79746.9401581749</v>
       </c>
       <c r="C205">
-        <v>20135.78470713653</v>
+        <v>22522.91280129813</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2640,10 +2640,10 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>84065.74195544409</v>
+        <v>74891.49175087102</v>
       </c>
       <c r="C206">
-        <v>16018.86776478146</v>
+        <v>18382.09410918642</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2651,10 +2651,10 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>88304.86968110799</v>
+        <v>78942.64658058705</v>
       </c>
       <c r="C207">
-        <v>17749.02695178425</v>
+        <v>20088.35154643255</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2662,10 +2662,10 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>88911.86746292761</v>
+        <v>79361.67146645884</v>
       </c>
       <c r="C208">
-        <v>17117.53968061564</v>
+        <v>19432.96252550728</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2673,10 +2673,10 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>91696.28476882596</v>
+        <v>82146.08877235719</v>
       </c>
       <c r="C209">
-        <v>17865.85581930823</v>
+        <v>20181.27866419988</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2684,10 +2684,10 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>81130.78903000473</v>
+        <v>71855.02534430078</v>
       </c>
       <c r="C210">
-        <v>15732.72175105266</v>
+        <v>18038.64209958903</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2695,10 +2695,10 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>84659.98789555783</v>
+        <v>75658.65652061875</v>
       </c>
       <c r="C211">
-        <v>13740.35836953287</v>
+        <v>16036.77622171396</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2706,10 +2706,10 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>81735.44524909035</v>
+        <v>73008.54618491611</v>
       </c>
       <c r="C212">
-        <v>19593.28743697311</v>
+        <v>21880.20279279892</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2717,10 +2717,10 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>81471.47637391675</v>
+        <v>73019.00962050735</v>
       </c>
       <c r="C213">
-        <v>13920.50024323276</v>
+        <v>16197.9131027033</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2728,10 +2728,10 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>87112.28547633036</v>
+        <v>78934.25103368581</v>
       </c>
       <c r="C214">
-        <v>14351.94287288091</v>
+        <v>16619.85323599616</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2739,10 +2739,10 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>89335.4324219346</v>
+        <v>81431.83029005489</v>
       </c>
       <c r="C215">
-        <v>15369.67361827788</v>
+        <v>17628.08148503786</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2750,10 +2750,10 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>78478.22321730095</v>
+        <v>70574.62108542124</v>
       </c>
       <c r="C216">
-        <v>12317.02283457447</v>
+        <v>14575.43070133444</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2761,10 +2761,10 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>83591.92166639153</v>
+        <v>75483.64402886356</v>
       </c>
       <c r="C217">
-        <v>13964.55909535502</v>
+        <v>16072.69875617292</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2772,10 +2772,10 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>75227.67353020121</v>
+        <v>66914.72038702499</v>
       </c>
       <c r="C218">
-        <v>12940.55382955655</v>
+        <v>14898.42528443239</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2783,10 +2783,10 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>78867.05878897934</v>
+        <v>70349.4301401549</v>
       </c>
       <c r="C219">
-        <v>16311.44576627151</v>
+        <v>18119.04901520528</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2794,10 +2794,10 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>75923.33694631726</v>
+        <v>67201.03279184455</v>
       </c>
       <c r="C220">
-        <v>13384.41929359696</v>
+        <v>15041.75433658867</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2805,10 +2805,10 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>81483.43479082517</v>
+        <v>72556.4551307042</v>
       </c>
       <c r="C221">
-        <v>18300.70320998322</v>
+        <v>19807.77004703287</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2816,10 +2816,10 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>81950.24809011805</v>
+        <v>72818.59292434886</v>
       </c>
       <c r="C222">
-        <v>19976.0114017726</v>
+        <v>21332.81003288018</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2827,10 +2827,10 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>82236.69358429142</v>
+        <v>73105.03841852224</v>
       </c>
       <c r="C223">
-        <v>18908.55105823271</v>
+        <v>20265.34968934028</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2838,10 +2838,10 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>78712.36192327421</v>
+        <v>69740.51708632418</v>
       </c>
       <c r="C224">
-        <v>17937.6033117096</v>
+        <v>18717.07679416439</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2849,10 +2849,10 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>83032.86961068575</v>
+        <v>74220.83510255489</v>
       </c>
       <c r="C225">
-        <v>17570.00148410483</v>
+        <v>17772.14981790684</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2860,10 +2860,10 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>81551.21217992505</v>
+        <v>72898.98800061338</v>
       </c>
       <c r="C226">
-        <v>17529.46985328409</v>
+        <v>17154.29303843331</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2871,10 +2871,10 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>80072.15702684336</v>
+        <v>71579.74317635085</v>
       </c>
       <c r="C227">
-        <v>18341.06622649948</v>
+        <v>17388.56426299592</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2882,10 +2882,10 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>78057.85448149619</v>
+        <v>69725.25095982286</v>
       </c>
       <c r="C228">
-        <v>19022.94426141545</v>
+        <v>17493.11714925911</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2893,10 +2893,10 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>81682.43724021525</v>
+        <v>73509.6440473611</v>
       </c>
       <c r="C229">
-        <v>16926.89711859783</v>
+        <v>14819.74485778869</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2904,10 +2904,10 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>80084.9236956793</v>
+        <v>71912.13050282515</v>
       </c>
       <c r="C230">
-        <v>16861.71166096624</v>
+        <v>14754.55940015711</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2915,10 +2915,10 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>70819.53538301271</v>
+        <v>61736.36445356903</v>
       </c>
       <c r="C231">
-        <v>19392.34786850856</v>
+        <v>16754.30160434154</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -2926,10 +2926,10 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>75877.2166759595</v>
+        <v>65883.6680099263</v>
       </c>
       <c r="C232">
-        <v>18434.74569108884</v>
+        <v>15265.80542356393</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -2937,10 +2937,10 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>77465.55902182455</v>
+        <v>66561.63261920183</v>
       </c>
       <c r="C233">
-        <v>19962.39135349386</v>
+        <v>16262.55708261106</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -2948,10 +2948,10 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>81988.43416257415</v>
+        <v>70174.13002336191</v>
       </c>
       <c r="C234">
-        <v>16430.80052272564</v>
+        <v>12200.07224848495</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -2959,10 +2959,10 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>76627.60109251473</v>
+        <v>63902.91921671297</v>
       </c>
       <c r="C235">
-        <v>15257.33747271821</v>
+        <v>10495.71519511964</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -2970,10 +2970,10 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>79442.55460676372</v>
+        <v>65807.49499437244</v>
       </c>
       <c r="C236">
-        <v>19251.86625640426</v>
+        <v>13959.3499754478</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -2981,10 +2981,10 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>78225.15797628327</v>
+        <v>64590.09836389198</v>
       </c>
       <c r="C237">
-        <v>18665.76088464872</v>
+        <v>13373.24460369226</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -2992,10 +2992,10 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>73531.79733008078</v>
+        <v>59991.35825636042</v>
       </c>
       <c r="C238">
-        <v>16274.54004631637</v>
+        <v>10919.33365098669</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3003,10 +3003,10 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>72801.22719244061</v>
+        <v>59355.40865739118</v>
       </c>
       <c r="C239">
-        <v>18048.95012602323</v>
+        <v>12631.05361632034</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3014,10 +3014,10 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>74752.78748031524</v>
+        <v>61401.58948393672</v>
       </c>
       <c r="C240">
-        <v>16409.98260046116</v>
+        <v>10929.39597638506</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3025,10 +3025,10 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>71992.75261650464</v>
+        <v>58736.17515879705</v>
       </c>
       <c r="C241">
-        <v>15606.82337009691</v>
+        <v>10063.5466316476</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3036,10 +3036,10 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>74991.68950336354</v>
+        <v>61829.73258432688</v>
       </c>
       <c r="C242">
-        <v>20825.71254274435</v>
+        <v>15219.74568992183</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3047,10 +3047,10 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>72471.55602051882</v>
+        <v>59404.21964015307</v>
       </c>
       <c r="C243">
-        <v>16753.03029763579</v>
+        <v>11084.37333044005</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3058,10 +3058,10 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>65646.85407941435</v>
+        <v>52579.51769904859</v>
       </c>
       <c r="C244">
-        <v>14511.48939072493</v>
+        <v>8842.832423529197</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3069,10 +3069,10 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>70050.8427599236</v>
+        <v>57130.36511362308</v>
       </c>
       <c r="C245">
-        <v>16257.13186731457</v>
+        <v>10468.57561519414</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3080,10 +3080,10 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>67323.46500862049</v>
+        <v>54549.84609638521</v>
       </c>
       <c r="C246">
-        <v>18286.80615161421</v>
+        <v>12378.35061456907</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3091,10 +3091,10 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>71961.06166027763</v>
+        <v>59334.3014821076</v>
       </c>
       <c r="C247">
-        <v>19963.28844922738</v>
+        <v>13934.93362725753</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3102,10 +3102,10 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>62127.10526059838</v>
+        <v>49647.20381649357</v>
       </c>
       <c r="C248">
-        <v>12537.05846690811</v>
+        <v>6388.804360013562</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3113,10 +3113,10 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>61347.67750667736</v>
+        <v>49014.63479663778</v>
       </c>
       <c r="C249">
-        <v>19729.25475002337</v>
+        <v>13461.10135820412</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3124,10 +3124,10 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>69207.62442078105</v>
+        <v>57021.44044480673</v>
       </c>
       <c r="C250">
-        <v>20701.47516876934</v>
+        <v>14313.42249202539</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3135,10 +3135,10 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>67022.87279399348</v>
+        <v>54836.68881801915</v>
       </c>
       <c r="C251">
-        <v>15069.17312399234</v>
+        <v>8681.120447248393</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3146,10 +3146,10 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>67724.54305906282</v>
+        <v>55709.89273603265</v>
       </c>
       <c r="C252">
-        <v>15856.79534842934</v>
+        <v>9446.782802330168</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3157,10 +3157,10 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>69555.02552974527</v>
+        <v>57711.9088596592</v>
       </c>
       <c r="C253">
-        <v>19237.51235939739</v>
+        <v>12805.539943943</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3168,10 +3168,10 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>67211.30473337325</v>
+        <v>55539.72171623132</v>
       </c>
       <c r="C254">
-        <v>11983.11653185202</v>
+        <v>5529.184247042408</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3179,10 +3179,10 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>65334.06579642311</v>
+        <v>53834.0164322253</v>
       </c>
       <c r="C255">
-        <v>18391.81906965376</v>
+        <v>11915.92691548893</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3190,10 +3190,10 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>65719.86349108584</v>
+        <v>54391.34777983216</v>
       </c>
       <c r="C256">
-        <v>19696.04222183155</v>
+        <v>13198.1901983115</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3201,10 +3201,10 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>68230.37566682702</v>
+        <v>57073.39360851746</v>
       </c>
       <c r="C257">
-        <v>18756.96073938677</v>
+        <v>12237.14884651149</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3212,10 +3212,10 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>62280.73922838007</v>
+        <v>51123.75717007051</v>
       </c>
       <c r="C258">
-        <v>16348.97535475611</v>
+        <v>9829.163461880835</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3223,10 +3223,10 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>62795.73553234609</v>
+        <v>50929.2722489583</v>
       </c>
       <c r="C259">
-        <v>16645.88631716403</v>
+        <v>9626.494234896245</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3234,10 +3234,10 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>54935.20157626442</v>
+        <v>42359.25706779842</v>
       </c>
       <c r="C260">
-        <v>16101.00975883982</v>
+        <v>8582.037487179536</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3245,10 +3245,10 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>60642.314097081</v>
+        <v>47356.88836353677</v>
       </c>
       <c r="C261">
-        <v>20094.64982608409</v>
+        <v>12076.0973650313</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3256,10 +3256,10 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>56592.39572064942</v>
+        <v>42597.48876202697</v>
       </c>
       <c r="C262">
-        <v>17602.85742344327</v>
+        <v>9084.724772997975</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3267,10 +3267,10 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>54672.07708222695</v>
+        <v>39967.68889852627</v>
       </c>
       <c r="C263">
-        <v>14973.09810970409</v>
+        <v>5955.385269866298</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3278,10 +3278,10 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>50717.1593911474</v>
+        <v>35303.28998236851</v>
       </c>
       <c r="C264">
-        <v>17366.07166718263</v>
+        <v>7848.77863795233</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3289,10 +3289,10 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>54261.85009728998</v>
+        <v>38847.98068851109</v>
       </c>
       <c r="C265">
-        <v>12924.5270871494</v>
+        <v>3407.234057919096</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3300,10 +3300,10 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>56897.1300024892</v>
+        <v>41244.96655322736</v>
       </c>
       <c r="C266">
-        <v>17867.48689308704</v>
+        <v>8041.360081995143</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3311,10 +3311,10 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>61083.13814266171</v>
+        <v>45192.6806529169</v>
       </c>
       <c r="C267">
-        <v>16603.06397782412</v>
+        <v>6468.103384870627</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3322,10 +3322,10 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>58077.10255736848</v>
+        <v>41948.35102714071</v>
       </c>
       <c r="C268">
-        <v>17514.36123460225</v>
+        <v>7070.566859787161</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3333,10 +3333,10 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>58411.60610221522</v>
+        <v>42044.56053150449</v>
       </c>
       <c r="C269">
-        <v>18072.0861358276</v>
+        <v>7319.457979150913</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3344,10 +3344,10 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>52317.04111181288</v>
+        <v>35711.70150061919</v>
       </c>
       <c r="C270">
-        <v>16604.13917846109</v>
+        <v>5542.677239922807</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3355,10 +3355,10 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>55667.17108744257</v>
+        <v>38823.53743576591</v>
       </c>
       <c r="C271">
-        <v>13939.37473605656</v>
+        <v>2569.079015656684</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3366,10 +3366,10 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>48669.32624653335</v>
+        <v>31825.69259485669</v>
       </c>
       <c r="C272">
-        <v>12540.85168678738</v>
+        <v>1170.555966387506</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3377,10 +3377,10 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>54315.32442777297</v>
+        <v>37470.33969787953</v>
       </c>
       <c r="C273">
-        <v>12619.73955158765</v>
+        <v>1145.768744369534</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3388,10 +3388,10 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>54626.37577968052</v>
+        <v>37780.0399715703</v>
       </c>
       <c r="C274">
-        <v>14672.66248042611</v>
+        <v>3095.016586389766</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3399,10 +3399,10 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>46204.65704046896</v>
+        <v>29356.97015414195</v>
       </c>
       <c r="C275">
-        <v>15864.51705923587</v>
+        <v>4183.196078381293</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3410,10 +3410,10 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>44150.93842860061</v>
+        <v>27301.90046405683</v>
       </c>
       <c r="C276">
-        <v>18550.69187059358</v>
+        <v>6765.695802920774</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3421,10 +3421,10 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>44071.80448258432</v>
+        <v>27221.41543982377</v>
       </c>
       <c r="C277">
-        <v>12689.27603291199</v>
+        <v>800.6048784209534</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3432,10 +3432,10 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>50139.52865697584</v>
+        <v>33287.78853599849</v>
       </c>
       <c r="C278">
-        <v>14578.54132321627</v>
+        <v>2586.195081907003</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3443,10 +3443,10 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>50366.39378744202</v>
+        <v>33514.65366646468</v>
       </c>
       <c r="C279">
-        <v>13849.18840617442</v>
+        <v>1856.842164865154</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3454,10 +3454,10 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>45782.79562873923</v>
+        <v>28447.2732301254</v>
       </c>
       <c r="C280">
-        <v>11908.37948643661</v>
+        <v>10.61211596706335</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3465,10 +3465,10 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>45672.13878660444</v>
+        <v>27852.83411035412</v>
       </c>
       <c r="C281">
-        <v>12011.86733200972</v>
+        <v>208.6788323798969</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3476,10 +3476,10 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>44343.71026796009</v>
+        <v>26040.6233140733</v>
       </c>
       <c r="C282">
-        <v>16552.63905663899</v>
+        <v>4844.029427848884</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3487,10 +3487,10 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>40413.25227912165</v>
+        <v>21626.38304759837</v>
       </c>
       <c r="C283">
-        <v>13781.83250313429</v>
+        <v>2167.80174518391</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3498,10 +3498,10 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>46054.69019372323</v>
+        <v>26784.03868456346</v>
       </c>
       <c r="C284">
-        <v>12936.71997638813</v>
+        <v>1417.268089277477</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3509,10 +3509,10 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>47565.45958858531</v>
+        <v>27811.02580178906</v>
       </c>
       <c r="C285">
-        <v>14644.64001906866</v>
+        <v>3219.767002797733</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3520,10 +3520,10 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>46300.88707203894</v>
+        <v>26546.4532852427</v>
       </c>
       <c r="C286">
-        <v>13803.8797715905</v>
+        <v>2379.006755319569</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3531,10 +3531,10 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>47580.57098600801</v>
+        <v>28854.91017349177</v>
       </c>
       <c r="C287">
-        <v>14110.02186348623</v>
+        <v>3125.206094906485</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3542,10 +3542,10 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>45772.20616818006</v>
+        <v>28075.31832994384</v>
       </c>
       <c r="C288">
-        <v>9388.071328095935</v>
+        <v>-1156.687192792622</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3553,10 +3553,10 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>45691.50553454486</v>
+        <v>29023.39067058865</v>
       </c>
       <c r="C289">
-        <v>13574.44314134645</v>
+        <v>3469.741868149086</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3564,10 +3564,10 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>44910.22979560856</v>
+        <v>29270.88790593236</v>
       </c>
       <c r="C290">
-        <v>14459.73215729717</v>
+        <v>4795.088131790988</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3575,10 +3575,10 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>41761.67556464602</v>
+        <v>27151.10664924983</v>
       </c>
       <c r="C291">
-        <v>13182.15029248718</v>
+        <v>3957.563514672187</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3586,10 +3586,10 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>45055.2918355061</v>
+        <v>31473.49589438993</v>
       </c>
       <c r="C292">
-        <v>12541.77768181267</v>
+        <v>3757.24815168886</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3597,10 +3597,10 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>45096.43622043914</v>
+        <v>31514.64027932296</v>
       </c>
       <c r="C293">
-        <v>13931.81971160892</v>
+        <v>5147.290181485118</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3608,10 +3608,10 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>44341.3495258903</v>
+        <v>31056.45733746759</v>
       </c>
       <c r="C294">
-        <v>9479.969691336071</v>
+        <v>670.3309546351163</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3619,10 +3619,10 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>43656.88693759451</v>
+        <v>30668.89850186527</v>
       </c>
       <c r="C295">
-        <v>7983.905412186052</v>
+        <v>-850.84253109205</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3630,10 +3630,10 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>43289.76896957166</v>
+        <v>30598.68428653588</v>
       </c>
       <c r="C296">
-        <v>11861.45708546716</v>
+        <v>3001.599935611913</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3641,10 +3641,10 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>48411.26702701653</v>
+        <v>36017.08609667422</v>
       </c>
       <c r="C297">
-        <v>6534.772617318564</v>
+        <v>-2350.193739113831</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -3652,10 +3652,10 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>41449.68582374754</v>
+        <v>29352.40864609869</v>
       </c>
       <c r="C298">
-        <v>11802.45212439939</v>
+        <v>2892.37656138985</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3663,10 +3663,10 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>43122.14963621456</v>
+        <v>31321.77621125918</v>
       </c>
       <c r="C299">
-        <v>12209.21088319053</v>
+        <v>3274.026113603844</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3674,10 +3674,10 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>38200.20849945881</v>
+        <v>26399.83507450343</v>
       </c>
       <c r="C300">
-        <v>11841.91791701107</v>
+        <v>2906.733147424377</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3685,10 +3685,10 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>41600.02492122054</v>
+        <v>30488.57789839189</v>
       </c>
       <c r="C301">
-        <v>11270.44290403538</v>
+        <v>2827.286114702784</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3696,10 +3696,10 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>42652.77932239289</v>
+        <v>32230.25870169097</v>
       </c>
       <c r="C302">
-        <v>7924.015046782059</v>
+        <v>-27.11376229643975</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3707,10 +3707,10 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>44013.23976985985</v>
+        <v>34279.64555128465</v>
       </c>
       <c r="C303">
-        <v>8241.93627174653</v>
+        <v>782.835442922126</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -3718,10 +3718,10 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>43570.95091717719</v>
+        <v>34526.28310072874</v>
       </c>
       <c r="C304">
-        <v>7355.715684310204</v>
+        <v>388.6428357398959</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -3729,10 +3729,10 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>45908.9366918909</v>
+        <v>37553.19527756917</v>
       </c>
       <c r="C305">
-        <v>12015.8126097994</v>
+        <v>5540.767741483181</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -3740,10 +3740,10 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>36695.50957915585</v>
+        <v>29028.69456696086</v>
       </c>
       <c r="C306">
-        <v>13947.10585678862</v>
+        <v>7964.088968726502</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -3751,10 +3751,10 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>42595.93767111278</v>
+        <v>34929.12265891779</v>
       </c>
       <c r="C307">
-        <v>10825.57321527315</v>
+        <v>4842.556327211036</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -3762,10 +3762,10 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>42626.80769115088</v>
+        <v>34576.33326381049</v>
       </c>
       <c r="C308">
-        <v>11352.83155163752</v>
+        <v>5138.75665685079</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -3773,10 +3773,10 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>38839.43683788115</v>
+        <v>30405.30299539536</v>
       </c>
       <c r="C309">
-        <v>7698.120943580821</v>
+        <v>1252.988042069492</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -3784,10 +3784,10 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>40321.37732138576</v>
+        <v>31503.58406375457</v>
       </c>
       <c r="C310">
-        <v>8865.636804672245</v>
+        <v>2189.44589643631</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -3795,10 +3795,10 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>42109.0400434473</v>
+        <v>32907.5873706707</v>
       </c>
       <c r="C311">
-        <v>7300.462608329432</v>
+        <v>393.2136933688939</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -3806,10 +3806,10 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>42208.49904798259</v>
+        <v>32623.38696006059</v>
       </c>
       <c r="C312">
-        <v>13754.7600732781</v>
+        <v>6616.453151592958</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -3817,10 +3817,10 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>39702.60562432309</v>
+        <v>29733.8341212557</v>
       </c>
       <c r="C313">
-        <v>12137.29387724638</v>
+        <v>4767.928948836633</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -3828,10 +3828,10 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>44167.87007180547</v>
+        <v>34199.09856873808</v>
       </c>
       <c r="C314">
-        <v>10340.12871843972</v>
+        <v>2970.763790029971</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -3839,10 +3839,10 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>39994.80208506308</v>
+        <v>30261.13964763147</v>
       </c>
       <c r="C315">
-        <v>13662.31179441276</v>
+        <v>6513.74811904089</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -3850,10 +3850,10 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>41664.03235480101</v>
+        <v>32165.47898300521</v>
       </c>
       <c r="C316">
-        <v>9552.351534448804</v>
+        <v>2624.589112114825</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -3861,10 +3861,10 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>35952.03698217049</v>
+        <v>26688.59267601048</v>
       </c>
       <c r="C317">
-        <v>8545.906561046886</v>
+        <v>1838.945391750792</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -3872,10 +3872,10 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>37235.22865774924</v>
+        <v>28206.89341722502</v>
       </c>
       <c r="C318">
-        <v>13053.85593370128</v>
+        <v>6567.696017443078</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -3883,10 +3883,10 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>46215.57271750095</v>
+        <v>37422.34654261252</v>
       </c>
       <c r="C319">
-        <v>11226.83764993074</v>
+        <v>4961.478986710416</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -3894,10 +3894,10 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>39399.38495922439</v>
+        <v>30841.26784997175</v>
       </c>
       <c r="C320">
-        <v>9683.993811122828</v>
+        <v>3639.436400940393</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -3905,10 +3905,10 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>40638.49102446811</v>
+        <v>32080.37391521548</v>
       </c>
       <c r="C321">
-        <v>11534.7032613738</v>
+        <v>5490.145851191369</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -3916,10 +3916,10 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>45133.62466275245</v>
+        <v>35142.84193302982</v>
       </c>
       <c r="C322">
-        <v>11512.60061082405</v>
+        <v>5558.118156001856</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -3927,10 +3927,10 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>52169.66781330526</v>
+        <v>40746.21946311266</v>
       </c>
       <c r="C323">
-        <v>8726.488480500382</v>
+        <v>2862.080981038427</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -3938,10 +3938,10 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>57775.59183654117</v>
+        <v>44919.4778658786</v>
       </c>
       <c r="C324">
-        <v>9734.651005078003</v>
+        <v>3960.318460976292</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -3949,10 +3949,10 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>57733.15812512569</v>
+        <v>43444.37853399316</v>
       </c>
       <c r="C325">
-        <v>5672.392717592811</v>
+        <v>-11.86487114866122</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -3960,10 +3960,10 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>67509.46589614851</v>
+        <v>51788.020684546</v>
       </c>
       <c r="C326">
-        <v>12216.11386735856</v>
+        <v>6621.931233977326</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -3971,10 +3971,10 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>69524.4050806368</v>
+        <v>52370.29424856429</v>
       </c>
       <c r="C327">
-        <v>12804.58727258227</v>
+        <v>7300.479594561284</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -3982,10 +3982,10 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>67524.1303451346</v>
+        <v>50370.01951306209</v>
       </c>
       <c r="C328">
-        <v>7647.626074069025</v>
+        <v>2143.518396048034</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -3993,10 +3993,10 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>65694.63446230922</v>
+        <v>48735.02354189767</v>
       </c>
       <c r="C329">
-        <v>6842.970542301535</v>
+        <v>1438.632753508705</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -4004,10 +4004,10 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>68216.30401891282</v>
+        <v>51451.19301016224</v>
       </c>
       <c r="C330">
-        <v>15804.57721731471</v>
+        <v>10500.00931775004</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -4015,10 +4015,10 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>64588.31581010414</v>
+        <v>48017.70471301451</v>
       </c>
       <c r="C331">
-        <v>10254.840578264</v>
+        <v>5050.042567927491</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -4026,10 +4026,10 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>64473.07097107579</v>
+        <v>48096.95978564713</v>
       </c>
       <c r="C332">
-        <v>7655.214274898615</v>
+        <v>2550.18615379027</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -4037,10 +4037,10 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>66781.57313063802</v>
+        <v>50599.96185687032</v>
       </c>
       <c r="C333">
-        <v>10537.62463397218</v>
+        <v>5532.366402091994</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -4048,10 +4048,10 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>65522.62993463679</v>
+        <v>49535.51857253004</v>
       </c>
       <c r="C334">
-        <v>8337.239921364553</v>
+        <v>3431.751578712531</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -4059,10 +4059,10 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>62413.16223425066</v>
+        <v>46426.05087214391</v>
       </c>
       <c r="C335">
-        <v>7623.127864955445</v>
+        <v>2717.639522303423</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -4070,10 +4070,10 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>61102.38163433</v>
+        <v>47397.63516546791</v>
       </c>
       <c r="C336">
-        <v>9451.766820395962</v>
+        <v>5205.072785460468</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -4081,10 +4081,10 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>48530.33732120337</v>
+        <v>37107.95574558595</v>
       </c>
       <c r="C337">
-        <v>7658.221289763913</v>
+        <v>4070.321562544947</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -4092,10 +4092,10 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>44035.58401711761</v>
+        <v>34895.56733474485</v>
       </c>
       <c r="C338">
-        <v>4989.065425590784</v>
+        <v>2059.960006088344</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -4103,10 +4103,10 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>41429.08258421702</v>
+        <v>34571.43079508891</v>
       </c>
       <c r="C339">
-        <v>6920.375143666222</v>
+        <v>4650.064031880311</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -4114,10 +4114,10 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>37451.84410806121</v>
+        <v>32876.55721217777</v>
       </c>
       <c r="C340">
-        <v>4093.384922641712</v>
+        <v>2481.868118572329</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -4125,10 +4125,10 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>19783.18210656268</v>
+        <v>17490.2601039239</v>
       </c>
       <c r="C341">
-        <v>4788.007267362256</v>
+        <v>3835.284771009401</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -4136,10 +4136,10 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>24709.51602728993</v>
+        <v>22416.59402465115</v>
       </c>
       <c r="C342">
-        <v>1167.445230764638</v>
+        <v>214.7227344117823</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -4147,10 +4147,10 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>26714.97894214799</v>
+        <v>23253.9782730588</v>
       </c>
       <c r="C343">
-        <v>2698.612863590588</v>
+        <v>1792.014012256605</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -4158,10 +4158,10 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>32784.42937337195</v>
+        <v>28155.35003783236</v>
       </c>
       <c r="C344">
-        <v>457.8826610374863</v>
+        <v>-402.5925452776246</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -4169,10 +4169,10 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>26782.70214874247</v>
+        <v>20985.54414675246</v>
       </c>
       <c r="C345">
-        <v>6470.984960741914</v>
+        <v>5656.633399445676</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -4180,10 +4180,10 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>28331.12476351505</v>
+        <v>21365.88809507462</v>
       </c>
       <c r="C346">
-        <v>3223.646567900207</v>
+        <v>2455.418651622842</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -4191,10 +4191,10 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>23918.36778955549</v>
+        <v>15785.05245466465</v>
       </c>
       <c r="C347">
-        <v>4357.212028140641</v>
+        <v>3635.107756882149</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -4202,10 +4202,10 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>36659.67414797332</v>
+        <v>27358.28014663207</v>
       </c>
       <c r="C348">
-        <v>2685.125257647943</v>
+        <v>2009.144631408323</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -4213,10 +4213,10 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>28558.40800997605</v>
+        <v>19257.0140086348</v>
       </c>
       <c r="C349">
-        <v>2662.802804027361</v>
+        <v>1986.822177787741</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -4224,10 +4224,10 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>32647.3370158209</v>
+        <v>22843.5985777678</v>
       </c>
       <c r="C350">
-        <v>3698.790079683973</v>
+        <v>1520.924124520415</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -4235,10 +4235,10 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>34904.58314982232</v>
+        <v>24598.50027505738</v>
       </c>
       <c r="C351">
-        <v>8148.468006985807</v>
+        <v>4468.716722898311</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -4246,10 +4246,10 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>38014.83657951513</v>
+        <v>27206.40926803835</v>
       </c>
       <c r="C352">
-        <v>7768.140265374015</v>
+        <v>2586.503652362581</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -4257,10 +4257,10 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>37838.29437348294</v>
+        <v>26527.52262529431</v>
       </c>
       <c r="C353">
-        <v>5922.518119138202</v>
+        <v>-761.0038227971704</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -4268,10 +4268,10 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>36927.88670550293</v>
+        <v>25114.77052060245</v>
       </c>
       <c r="C354">
-        <v>12892.04663270168</v>
+        <v>4706.639361842374</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -4279,10 +4279,10 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>38269.70810240581</v>
+        <v>25954.24748079348</v>
       </c>
       <c r="C355">
-        <v>10727.25015758985</v>
+        <v>1039.957557806602</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -4290,10 +4290,10 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>38238.46086924451</v>
+        <v>25923.00024763218</v>
       </c>
       <c r="C356">
-        <v>10771.5300063663</v>
+        <v>1084.237406583055</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -4301,10 +4301,10 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>37887.67265923639</v>
+        <v>23075.93360129261</v>
       </c>
       <c r="C357">
-        <v>9811.192466318278</v>
+        <v>426.7854072640453</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -4312,10 +4312,10 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>34823.08839918295</v>
+        <v>17515.07090490773</v>
       </c>
       <c r="C358">
-        <v>5980.520195337556</v>
+        <v>-3101.001322987659</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -4323,10 +4323,10 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>42168.18572319702</v>
+        <v>22363.88979259035</v>
       </c>
       <c r="C359">
-        <v>9822.788207071433</v>
+        <v>1044.152229475236</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -4334,10 +4334,10 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>51438.34705306058</v>
+        <v>29137.77268612247</v>
       </c>
       <c r="C360">
-        <v>11179.40202334044</v>
+        <v>2703.651586473261</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -4345,10 +4345,10 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>47349.74205767396</v>
+        <v>22552.88925440441</v>
       </c>
       <c r="C361">
-        <v>10068.70854934817</v>
+        <v>1895.843653210002</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -4356,10 +4356,10 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>55178.4420583395</v>
+        <v>27885.3108187385</v>
       </c>
       <c r="C362">
-        <v>9737.829088057179</v>
+        <v>1867.849732648031</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -4367,10 +4367,10 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>54752.88321409746</v>
+        <v>27459.75197449647</v>
       </c>
       <c r="C363">
-        <v>9937.951356779857</v>
+        <v>2067.972001370709</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -4378,10 +4378,10 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>53258.02286389465</v>
+        <v>25964.89162429366</v>
       </c>
       <c r="C364">
-        <v>8269.344177061637</v>
+        <v>399.3648216524898</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -4389,10 +4389,10 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>54354.5937933453</v>
+        <v>31918.33188996757</v>
       </c>
       <c r="C365">
-        <v>7423.575062829168</v>
+        <v>827.8474614381137</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -4400,10 +4400,10 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>55210.87393404669</v>
+        <v>37631.48136689222</v>
       </c>
       <c r="C366">
-        <v>4979.49929039482</v>
+        <v>-341.976556978143</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -4411,10 +4411,10 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>51245.16718745101</v>
+        <v>38522.64395651981</v>
       </c>
       <c r="C367">
-        <v>3969.625368254528</v>
+        <v>-77.59872510034256</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -4422,10 +4422,10 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>54679.48776524018</v>
+        <v>46813.83387053225</v>
       </c>
       <c r="C368">
-        <v>6758.491180522907</v>
+        <v>3985.518841186131</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -4433,10 +4433,10 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>53966.80557119866</v>
+        <v>50958.02101271398</v>
       </c>
       <c r="C369">
-        <v>4717.057890358758</v>
+        <v>3218.337305040074</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -4444,10 +4444,10 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>55445.42008994171</v>
+        <v>57293.50486768029</v>
       </c>
       <c r="C370">
-        <v>1720.023568427372</v>
+        <v>1495.554737126781</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -4455,10 +4455,10 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>64183.90802496052</v>
+        <v>66031.9928026991</v>
       </c>
       <c r="C371">
-        <v>6396.997346511944</v>
+        <v>6172.528515211352</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -4466,10 +4466,10 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>54038.39954663454</v>
+        <v>56014.46662051212</v>
       </c>
       <c r="C372">
-        <v>1022.650877547234</v>
+        <v>2513.505804405437</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -4477,10 +4477,10 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>56481.5499132133</v>
+        <v>58585.5992832299</v>
       </c>
       <c r="C373">
-        <v>4292.241570798363</v>
+        <v>7498.420255815359</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -4488,10 +4488,10 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>63522.95133740011</v>
+        <v>65754.9830035557</v>
       </c>
       <c r="C374">
-        <v>3946.141513667933</v>
+        <v>8867.643956843725</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -4499,10 +4499,10 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>57751.66880763451</v>
+        <v>60111.6827699291</v>
       </c>
       <c r="C375">
-        <v>6698.009454684734</v>
+        <v>13334.83565601932</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -4510,10 +4510,10 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>60134.32300281452</v>
+        <v>62622.31926124811</v>
       </c>
       <c r="C376">
-        <v>5454.140594392094</v>
+        <v>13806.29055388547</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -4521,10 +4521,10 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>61939.58512277553</v>
+        <v>64555.56367734814</v>
       </c>
       <c r="C377">
-        <v>6460.768850437143</v>
+        <v>16528.24256808931</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -4532,10 +4532,10 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>55254.59733369444</v>
+        <v>57870.57588826705</v>
       </c>
       <c r="C378">
-        <v>4864.728991471628</v>
+        <v>14932.2027091238</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -4543,10 +4543,10 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>60795.25381505876</v>
+        <v>59782.78769748663</v>
       </c>
       <c r="C379">
-        <v>4707.101454090793</v>
+        <v>13573.0941363131</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -4554,10 +4554,10 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>59839.93670259586</v>
+        <v>55199.025912879</v>
       </c>
       <c r="C380">
-        <v>1624.064707720438</v>
+        <v>9288.576354512881</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -4565,10 +4565,10 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>56469.78533224172</v>
+        <v>48200.42987038013</v>
       </c>
       <c r="C381">
-        <v>4274.628784811962</v>
+        <v>10737.65939617454</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -4576,10 +4576,10 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>62089.5566485758</v>
+        <v>50191.75651456946</v>
       </c>
       <c r="C382">
-        <v>6524.935729514581</v>
+        <v>11786.4853054473</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -4587,10 +4587,10 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>65347.66956372063</v>
+        <v>49821.42475756956</v>
       </c>
       <c r="C383">
-        <v>5532.459522469086</v>
+        <v>9592.528062971935</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -4598,10 +4598,10 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>61717.05956262613</v>
+        <v>42562.37008433033</v>
       </c>
       <c r="C384">
-        <v>2799.476640615233</v>
+        <v>5658.064145688219</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -4609,10 +4609,10 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>57485.13744682708</v>
+        <v>38330.44796853128</v>
       </c>
       <c r="C385">
-        <v>2298.668495118422</v>
+        <v>5157.256000191406</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -4620,10 +4620,10 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>59535.37492703603</v>
+        <v>41959.3812175005</v>
       </c>
       <c r="C386">
-        <v>4222.007372196933</v>
+        <v>7459.549071168226</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -4631,10 +4631,10 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>65102.61688836429</v>
+        <v>49105.31894758902</v>
       </c>
       <c r="C387">
-        <v>5258.176003149219</v>
+        <v>8874.671896018819</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -4642,10 +4642,10 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>65805.09242672831</v>
+        <v>51386.49025471333</v>
       </c>
       <c r="C388">
-        <v>4462.405603807817</v>
+        <v>8457.855690575725</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -4653,10 +4653,10 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>69345.93285784619</v>
+        <v>56506.02645459147</v>
       </c>
       <c r="C389">
-        <v>5273.152834915979</v>
+        <v>9647.557115582194</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -4664,10 +4664,10 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>70127.45293574389</v>
+        <v>58866.24230124944</v>
       </c>
       <c r="C390">
-        <v>2246.120451863312</v>
+        <v>6999.478926427834</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -4675,10 +4675,10 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>73387.27205286639</v>
+        <v>63704.75718713221</v>
       </c>
       <c r="C391">
-        <v>1453.424705628207</v>
+        <v>6585.737374091039</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -4686,10 +4686,10 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>69618.67346446366</v>
+        <v>59936.15859872948</v>
       </c>
       <c r="C392">
-        <v>5481.922164412192</v>
+        <v>10614.23483287502</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -4697,10 +4697,10 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>70197.042808913</v>
+        <v>56690.14086893375</v>
       </c>
       <c r="C393">
-        <v>1153.585406309295</v>
+        <v>4271.118712763655</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -4708,10 +4708,10 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>72602.23324053998</v>
+        <v>55270.94422631567</v>
       </c>
       <c r="C394">
-        <v>4200.542527220717</v>
+        <v>5303.296471666607</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -4719,10 +4719,10 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>72871.25112390543</v>
+        <v>51715.57503543606</v>
       </c>
       <c r="C395">
-        <v>7080.928007796285</v>
+        <v>6168.902590233706</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -4730,10 +4730,10 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>79022.71304774101</v>
+        <v>54042.64988502658</v>
       </c>
       <c r="C396">
-        <v>7739.246732302525</v>
+        <v>4812.441952731476</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -4741,10 +4741,10 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>81921.41041639776</v>
+        <v>53116.96017943825</v>
       </c>
       <c r="C397">
-        <v>8568.892551387022</v>
+        <v>3627.308409807501</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -4752,10 +4752,10 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>80059.27138523843</v>
+        <v>47430.43407403387</v>
       </c>
       <c r="C398">
-        <v>10777.3197138606</v>
+        <v>3820.956210272609</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -4763,10 +4763,10 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>76882.60381040294</v>
+        <v>44253.76649919836</v>
       </c>
       <c r="C399">
-        <v>10042.91653443142</v>
+        <v>3086.553030843432</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -4774,10 +4774,10 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>79979.41977517951</v>
+        <v>45558.65267551402</v>
       </c>
       <c r="C400">
-        <v>9385.942470323211</v>
+        <v>2602.411415509153</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -4785,10 +4785,10 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>84992.74848652478</v>
+        <v>48780.05159839836</v>
       </c>
       <c r="C401">
-        <v>10270.87107008207</v>
+        <v>3660.172464041946</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -4796,10 +4796,10 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>86193.14535589496</v>
+        <v>48188.51867930763</v>
       </c>
       <c r="C402">
-        <v>10139.75164177093</v>
+        <v>3701.885484504736</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -4807,10 +4807,10 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>85369.31806725785</v>
+        <v>45572.76160220959</v>
       </c>
       <c r="C403">
-        <v>8489.310574530606</v>
+        <v>2224.276866038349</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -4818,10 +4818,10 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>82810.24307161089</v>
+        <v>41221.75681810171</v>
       </c>
       <c r="C404">
-        <v>7339.815903230554</v>
+        <v>1247.614643512231</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -4829,10 +4829,10 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>87485.90234801287</v>
+        <v>44105.48630604277</v>
       </c>
       <c r="C405">
-        <v>7835.5836336088</v>
+        <v>1916.214822664411</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -4840,10 +4840,10 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>81648.20021944876</v>
+        <v>38267.78417747866</v>
       </c>
       <c r="C406">
-        <v>8921.56915397227</v>
+        <v>3002.200343027881</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -4851,10 +4851,10 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>87650.58401224995</v>
+        <v>42718.29139765766</v>
       </c>
       <c r="C407">
-        <v>4825.433897237873</v>
+        <v>-355.3788933570313</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -4862,10 +4862,10 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>90489.1721059175</v>
+        <v>44005.00291870301</v>
       </c>
       <c r="C408">
-        <v>7876.331906919417</v>
+        <v>3434.075136673998</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -4873,10 +4873,10 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>81810.23855638177</v>
+        <v>33774.1927965451</v>
       </c>
       <c r="C409">
-        <v>4773.972148599417</v>
+        <v>1070.271398703483</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -4884,10 +4884,10 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>89318.91357726787</v>
+        <v>39730.991244809</v>
       </c>
       <c r="C410">
-        <v>6979.454104378241</v>
+        <v>4014.309374831791</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -4895,10 +4895,10 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>91556.60699639746</v>
+        <v>40416.80809131642</v>
       </c>
       <c r="C411">
-        <v>8543.844873916794</v>
+        <v>6317.256164719831</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -4906,10 +4906,10 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>95189.32486043971</v>
+        <v>42497.64938273648</v>
       </c>
       <c r="C412">
-        <v>6214.10501058085</v>
+        <v>4726.072321733369</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -4917,10 +4917,10 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>86602.57319067618</v>
+        <v>33910.89771297295</v>
       </c>
       <c r="C413">
-        <v>5159.378755659959</v>
+        <v>3671.346066812478</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -4928,10 +4928,10 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>88668.88495850592</v>
+        <v>37290.2893642471</v>
       </c>
       <c r="C414">
-        <v>5093.618908139811</v>
+        <v>3745.237970815781</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -4939,10 +4939,10 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>81733.79354819468</v>
+        <v>31668.27783738029</v>
       </c>
       <c r="C415">
-        <v>6525.261531633106</v>
+        <v>5316.532345832527</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -4950,10 +4950,10 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>90956.12651479679</v>
+        <v>42203.69068742682</v>
       </c>
       <c r="C416">
-        <v>8654.247525612675</v>
+        <v>7585.170091335548</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -4961,10 +4961,10 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>81099.92771662741</v>
+        <v>33660.57177270184</v>
       </c>
       <c r="C417">
-        <v>4258.237120323211</v>
+        <v>3328.811437569538</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -4972,10 +4972,10 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>80890.01673653406</v>
+        <v>34763.74067605291</v>
       </c>
       <c r="C418">
-        <v>8218.227027011229</v>
+        <v>7428.453095781007</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -4983,10 +4983,10 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>84410.73264419453</v>
+        <v>39597.53646715779</v>
       </c>
       <c r="C419">
-        <v>6996.476604561939</v>
+        <v>6346.354424855169</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -4994,10 +4994,10 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>85635.69967311558</v>
+        <v>40822.50349607885</v>
       </c>
       <c r="C420">
-        <v>3193.86765762465</v>
+        <v>2543.74547791788</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -5005,10 +5005,10 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>81401.16340698891</v>
+        <v>38669.50563131274</v>
       </c>
       <c r="C421">
-        <v>3489.762003425553</v>
+        <v>2854.118753599913</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -5016,10 +5016,10 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>80011.1275518631</v>
+        <v>39361.00817754751</v>
       </c>
       <c r="C422">
-        <v>9358.435163799206</v>
+        <v>8737.270843854694</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -5027,10 +5027,10 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>84173.02468427841</v>
+        <v>45604.44371132339</v>
       </c>
       <c r="C423">
-        <v>8531.817611524353</v>
+        <v>7925.132221460975</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -5038,10 +5038,10 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>80954.63761751301</v>
+        <v>44467.59504591858</v>
       </c>
       <c r="C424">
-        <v>11622.79527467676</v>
+        <v>11030.58881449451</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -5049,10 +5049,10 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>85079.59250185287</v>
+        <v>50674.08833161902</v>
       </c>
       <c r="C425">
-        <v>8678.949746802389</v>
+        <v>8101.222216501269</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -5060,10 +5060,10 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>91745.67752492602</v>
+        <v>59421.71175605275</v>
       </c>
       <c r="C426">
-        <v>11619.58027234926</v>
+        <v>11056.33167192927</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -5071,10 +5071,10 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>84062.06682486742</v>
+        <v>51738.10105599414</v>
       </c>
       <c r="C427">
-        <v>7152.7690392365</v>
+        <v>6589.520438816511</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -5082,10 +5082,10 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>84996.136605194</v>
+        <v>55236.41596835763</v>
       </c>
       <c r="C428">
-        <v>12208.2961057639</v>
+        <v>12084.3128206128</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -5093,10 +5093,10 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>80656.55591829403</v>
+        <v>53461.08041349458</v>
       </c>
       <c r="C429">
-        <v>9838.020424498269</v>
+        <v>10153.30245461607</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -5104,10 +5104,10 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>89572.29512537835</v>
+        <v>64941.06475261579</v>
       </c>
       <c r="C430">
-        <v>5960.197362901845</v>
+        <v>6714.744708288543</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -5115,10 +5115,10 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>84027.74102003779</v>
+        <v>61960.75577931213</v>
       </c>
       <c r="C431">
-        <v>9829.084502742035</v>
+        <v>11022.89716339763</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -5126,10 +5126,10 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>83021.31983215871</v>
+        <v>63518.57972346995</v>
       </c>
       <c r="C432">
-        <v>10057.73822561369</v>
+        <v>11690.81620153818</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -5137,10 +5137,10 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>78893.77896760902</v>
+        <v>61955.28399095717</v>
       </c>
       <c r="C433">
-        <v>11117.58184409305</v>
+        <v>13189.92513528643</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -5148,10 +5148,10 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>82479.22126694005</v>
+        <v>65540.72629028819</v>
       </c>
       <c r="C434">
-        <v>6830.15330805451</v>
+        <v>8902.496599247892</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -5159,10 +5159,10 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>80229.37959975743</v>
+        <v>63496.76578737187</v>
       </c>
       <c r="C435">
-        <v>8043.949244050864</v>
+        <v>10492.60277248072</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -5170,10 +5170,10 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>84086.70016794519</v>
+        <v>67559.96751982592</v>
       </c>
       <c r="C436">
-        <v>10376.94227934396</v>
+        <v>13201.9060450103</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -5181,10 +5181,10 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>88189.2667212246</v>
+        <v>71868.41523737162</v>
       </c>
       <c r="C437">
-        <v>5995.281193735546</v>
+        <v>9196.555196638357</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -5192,10 +5192,10 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>77012.95527059099</v>
+        <v>60897.98495100431</v>
       </c>
       <c r="C438">
-        <v>10461.86299539949</v>
+        <v>14039.44723553878</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -5203,10 +5203,10 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>81123.76190973468</v>
+        <v>65214.67275441428</v>
       </c>
       <c r="C439">
-        <v>8489.237323143174</v>
+        <v>12443.13180051894</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -5214,10 +5214,10 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>91493.62140139636</v>
+        <v>75790.41341034224</v>
       </c>
       <c r="C440">
-        <v>6804.059192763192</v>
+        <v>11134.26390737544</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -5225,10 +5225,10 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>89148.12062407041</v>
+        <v>73444.91263301628</v>
       </c>
       <c r="C441">
-        <v>6358.94018857125</v>
+        <v>10689.14490318349</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -5236,10 +5236,10 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>92176.63829625695</v>
+        <v>76941.27975817479</v>
       </c>
       <c r="C442">
-        <v>11724.17924815393</v>
+        <v>16491.92485659858</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -5247,10 +5247,10 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>91068.54014081729</v>
+        <v>76301.03105570711</v>
       </c>
       <c r="C443">
-        <v>11826.97237980685</v>
+        <v>17032.2588820839</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -5258,10 +5258,10 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>89429.10380872583</v>
+        <v>75129.44417658761</v>
       </c>
       <c r="C444">
-        <v>7381.254473784647</v>
+        <v>13024.0818698941</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -5269,10 +5269,10 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>85302.59029221028</v>
+        <v>71470.78011304402</v>
       </c>
       <c r="C445">
-        <v>9321.410970275467</v>
+        <v>15401.77926021732</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -5280,10 +5280,10 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>86247.92641684785</v>
+        <v>72883.96569065357</v>
       </c>
       <c r="C446">
-        <v>7868.695263282232</v>
+        <v>14386.60444705649</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -5291,10 +5291,10 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>96269.30848873268</v>
+        <v>83373.19721551037</v>
       </c>
       <c r="C447">
-        <v>6873.750366024866</v>
+        <v>13829.20044363153</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -5302,10 +5302,10 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>85008.0801442244</v>
+        <v>72111.96887100209</v>
       </c>
       <c r="C448">
-        <v>9046.368960751392</v>
+        <v>16001.81903835805</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -5313,10 +5313,10 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>89540.88033296284</v>
+        <v>76953.52956466857</v>
       </c>
       <c r="C449">
-        <v>6783.39013410364</v>
+        <v>12591.61453160122</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -5324,10 +5324,10 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>91469.69623195978</v>
+        <v>79191.1059685935</v>
       </c>
       <c r="C450">
-        <v>9271.42626586613</v>
+        <v>13932.42498325463</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -5335,10 +5335,10 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>87936.58307430764</v>
+        <v>75966.75331586937</v>
       </c>
       <c r="C451">
-        <v>15697.5865125432</v>
+        <v>19211.35954982262</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -5346,10 +5346,10 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>81828.43214030811</v>
+        <v>70167.36288679787</v>
       </c>
       <c r="C452">
-        <v>9131.105442101752</v>
+        <v>11497.65279927209</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -5357,10 +5357,10 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>77177.99952844175</v>
+        <v>65825.69077985951</v>
       </c>
       <c r="C453">
-        <v>8830.774183356132</v>
+        <v>10050.0958604174</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -5368,10 +5368,10 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>90165.63236944856</v>
+        <v>79122.08412579434</v>
       </c>
       <c r="C454">
-        <v>13200.70926581036</v>
+        <v>13272.80526276254</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -5379,10 +5379,10 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>86045.00383466145</v>
+        <v>75001.45559100722</v>
       </c>
       <c r="C455">
-        <v>14247.02939955649</v>
+        <v>14319.12539650868</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -5390,10 +5390,10 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>88367.21127898298</v>
+        <v>78001.67964710541</v>
       </c>
       <c r="C456">
-        <v>9907.302987208233</v>
+        <v>10301.34547850669</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -5401,10 +5401,10 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>83992.33100145878</v>
+        <v>74304.81598135785</v>
       </c>
       <c r="C457">
-        <v>14698.56158811756</v>
+        <v>15414.5505737623</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -5412,10 +5412,10 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>83587.85072312702</v>
+        <v>74578.35231480275</v>
       </c>
       <c r="C458">
-        <v>12287.39964806381</v>
+        <v>13325.33512805482</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -5423,10 +5423,10 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>78734.96685669619</v>
+        <v>70403.48506014857</v>
       </c>
       <c r="C459">
-        <v>15440.8758951092</v>
+        <v>16800.75786944649</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -5434,10 +5434,10 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>85366.9963687647</v>
+        <v>77713.53118399371</v>
       </c>
       <c r="C460">
-        <v>14433.61586979101</v>
+        <v>16115.44433847457</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -5445,10 +5445,10 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>86777.24799656877</v>
+        <v>79801.79942357444</v>
       </c>
       <c r="C461">
-        <v>15824.15055879708</v>
+        <v>17827.92552182693</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -5456,10 +5456,10 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>88074.97352735182</v>
+        <v>81099.52495435749</v>
       </c>
       <c r="C462">
-        <v>12248.15084500514</v>
+        <v>14251.92580803499</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -5467,10 +5467,10 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>86272.37026480818</v>
+        <v>79271.74031266365</v>
       </c>
       <c r="C463">
-        <v>15614.52349400241</v>
+        <v>17357.8619770248</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -5478,10 +5478,10 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>91351.42866176197</v>
+        <v>84325.61733046723</v>
       </c>
       <c r="C464">
-        <v>11999.45324327986</v>
+        <v>13482.35524629479</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -5489,10 +5489,10 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>83704.77349578218</v>
+        <v>76653.78078533725</v>
       </c>
       <c r="C465">
-        <v>16078.55042205659</v>
+        <v>17301.01594506406</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -5500,10 +5500,10 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>87887.94439455948</v>
+        <v>80811.77030496433</v>
       </c>
       <c r="C466">
-        <v>14372.07547308613</v>
+        <v>15334.10451608615</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -5511,10 +5511,10 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>86699.12118310749</v>
+        <v>79597.76571436215</v>
       </c>
       <c r="C467">
-        <v>14997.53164875812</v>
+        <v>15699.12421175068</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -5522,10 +5522,10 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>82856.74467566641</v>
+        <v>75730.20782777085</v>
       </c>
       <c r="C468">
-        <v>14440.50694035749</v>
+        <v>14881.6630233426</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -5533,10 +5533,10 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>82273.22620269319</v>
+        <v>75146.68935479762</v>
       </c>
       <c r="C469">
-        <v>13657.04819168368</v>
+        <v>14098.20427466879</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -5544,10 +5544,10 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>84468.71146882969</v>
+        <v>77857.18322261937</v>
       </c>
       <c r="C470">
-        <v>11960.67863235826</v>
+        <v>12976.48535102194</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -5555,10 +5555,10 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>86433.14732065509</v>
+        <v>80336.62767613001</v>
       </c>
       <c r="C471">
-        <v>12654.18691440831</v>
+        <v>14244.64426875057</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -5566,10 +5566,10 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>90720.93154843242</v>
+        <v>85139.4205055926</v>
       </c>
       <c r="C472">
-        <v>15490.54652972932</v>
+        <v>17655.65451975014</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -5577,10 +5577,10 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>89620.80033293185</v>
+        <v>84554.2978917773</v>
       </c>
       <c r="C473">
-        <v>14223.30967935554</v>
+        <v>16963.06830505494</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -5588,10 +5588,10 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>91957.27434055158</v>
+        <v>87405.78050108228</v>
       </c>
       <c r="C474">
-        <v>18169.90518351651</v>
+        <v>21484.31444489448</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -5599,10 +5599,10 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>87529.39095251805</v>
+        <v>83492.90571473399</v>
       </c>
       <c r="C475">
-        <v>14837.09637139206</v>
+        <v>18726.15626844861</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -5610,10 +5610,10 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>86662.19440041923</v>
+        <v>82625.70916263518</v>
       </c>
       <c r="C476">
-        <v>12711.18525054866</v>
+        <v>16600.24514760521</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -5621,10 +5621,10 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>86410.84623029</v>
+        <v>83018.78685113249</v>
       </c>
       <c r="C477">
-        <v>14016.98016081379</v>
+        <v>17917.49537774794</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -5632,10 +5632,10 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>83464.25623095379</v>
+        <v>80716.62271042282</v>
       </c>
       <c r="C478">
-        <v>20636.78138244037</v>
+        <v>24548.75191925212</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -5643,10 +5643,10 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>84924.00447293463</v>
+        <v>82820.79681103019</v>
       </c>
       <c r="C479">
-        <v>12879.98877962984</v>
+        <v>16803.4146363192</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -5654,10 +5654,10 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>77673.29009725869</v>
+        <v>76214.50829398079</v>
       </c>
       <c r="C480">
-        <v>12772.62033417385</v>
+        <v>16707.50151074081</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -5665,10 +5665,10 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>75412.0966207686</v>
+        <v>74597.74067611725</v>
       </c>
       <c r="C481">
-        <v>17579.79535717745</v>
+        <v>21526.13185362201</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -5676,10 +5676,10 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>80690.41432172722</v>
+        <v>80520.48423570242</v>
       </c>
       <c r="C482">
-        <v>12888.75209134047</v>
+        <v>16846.54390766264</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -5687,10 +5687,10 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>81095.50727583973</v>
+        <v>80925.57718981493</v>
       </c>
       <c r="C483">
-        <v>14740.22699035787</v>
+        <v>18698.01880668004</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -5698,10 +5698,10 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>81267.92293280187</v>
+        <v>81991.42003797041</v>
       </c>
       <c r="C484">
-        <v>11936.93370053327</v>
+        <v>15697.39765501186</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -5709,10 +5709,10 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>75068.16750453721</v>
+        <v>76685.09180089911</v>
       </c>
       <c r="C485">
-        <v>16522.94239809862</v>
+        <v>20086.07849073363</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -5720,10 +5720,10 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>78136.51450453389</v>
+        <v>80646.86599208914</v>
       </c>
       <c r="C486">
-        <v>13977.46165337878</v>
+        <v>17343.26988417022</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -5731,10 +5731,10 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>76695.70653476458</v>
+        <v>80099.4852135132</v>
       </c>
       <c r="C487">
-        <v>15686.93198623666</v>
+        <v>18855.41235518453</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -5742,10 +5742,10 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>79133.10427979028</v>
+        <v>83430.31014973225</v>
       </c>
       <c r="C488">
-        <v>13957.11028343214</v>
+        <v>16928.26279053642</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -5753,10 +5753,10 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>77055.64509022911</v>
+        <v>82246.27815136441</v>
       </c>
       <c r="C489">
-        <v>18729.70272301638</v>
+        <v>21503.52736827709</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -5764,10 +5764,10 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>72387.58874126316</v>
+        <v>77578.22180239846</v>
       </c>
       <c r="C490">
-        <v>14428.78276584922</v>
+        <v>17202.60741110993</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -5775,10 +5775,10 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>75403.65412506602</v>
+        <v>82062.13116637367</v>
       </c>
       <c r="C491">
-        <v>19043.02936766832</v>
+        <v>21842.38419785676</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -5786,10 +5786,10 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>78121.26469449911</v>
+        <v>86247.58571597909</v>
       </c>
       <c r="C492">
-        <v>16522.34726322215</v>
+        <v>19347.23227833832</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -5797,10 +5797,10 @@
         <v>491</v>
       </c>
       <c r="B493">
-        <v>74501.52948410159</v>
+        <v>84095.69448575386</v>
       </c>
       <c r="C493">
-        <v>14662.19908036494</v>
+        <v>17512.61428040883</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -5808,10 +5808,10 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>80480.9256713791</v>
+        <v>91542.9346532037</v>
       </c>
       <c r="C494">
-        <v>16093.80639920997</v>
+        <v>18969.75178418159</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -5819,10 +5819,10 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>75952.76845470403</v>
+        <v>88482.62141670095</v>
       </c>
       <c r="C495">
-        <v>16365.19661687656</v>
+        <v>19266.67218677591</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -5830,10 +5830,10 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>75702.49149259328</v>
+        <v>89700.18843476253</v>
       </c>
       <c r="C496">
-        <v>16901.21807683873</v>
+        <v>19828.22383166581</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -5841,10 +5841,10 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>74511.33818474013</v>
+        <v>88509.03512690938</v>
       </c>
       <c r="C497">
-        <v>17904.4142452522</v>
+        <v>20831.42000007928</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -5852,10 +5852,10 @@
         <v>496</v>
       </c>
       <c r="B498">
-        <v>70417.06919878563</v>
+        <v>84129.65383440469</v>
       </c>
       <c r="C498">
-        <v>14717.37469930198</v>
+        <v>17626.55579946337</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -5863,10 +5863,10 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>73961.21470742278</v>
+        <v>87388.68703649167</v>
       </c>
       <c r="C499">
-        <v>14124.21324856529</v>
+        <v>17015.569694061</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -5874,10 +5874,10 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>68125.01501377317</v>
+        <v>81267.37503629187</v>
       </c>
       <c r="C500">
-        <v>17100.30441693605</v>
+        <v>19973.83620776606</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -5885,10 +5885,10 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>73612.66877146442</v>
+        <v>86469.91648743296</v>
       </c>
       <c r="C501">
-        <v>17054.64494882155</v>
+        <v>19910.35208498587</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -5896,10 +5896,10 @@
         <v>500</v>
       </c>
       <c r="B502">
-        <v>76339.28237328258</v>
+        <v>88911.41778270093</v>
       </c>
       <c r="C502">
-        <v>12771.50168046283</v>
+        <v>15609.38416196146</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -5907,10 +5907,10 @@
         <v>501</v>
       </c>
       <c r="B503">
-        <v>65159.66947685321</v>
+        <v>77446.69257972138</v>
       </c>
       <c r="C503">
-        <v>14130.21362735235</v>
+        <v>16950.27145418529</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -5918,10 +5918,10 @@
         <v>502</v>
       </c>
       <c r="B504">
-        <v>76285.69519843211</v>
+        <v>88572.71830130028</v>
       </c>
       <c r="C504">
-        <v>16354.65742154794</v>
+        <v>19174.71524838088</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -5929,10 +5929,10 @@
         <v>503</v>
       </c>
       <c r="B505">
-        <v>75622.94928631868</v>
+        <v>87841.3766860522</v>
       </c>
       <c r="C505">
-        <v>17588.76953951572</v>
+        <v>20326.50722090065</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -5940,10 +5940,10 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>71086.76438657923</v>
+        <v>83236.59608317813</v>
       </c>
       <c r="C506">
-        <v>13874.95712177623</v>
+        <v>16530.37465771315</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -5951,10 +5951,10 @@
         <v>505</v>
       </c>
       <c r="B507">
-        <v>75148.06076420739</v>
+        <v>87229.29675767162</v>
       </c>
       <c r="C507">
-        <v>17547.1767918313</v>
+        <v>20120.27418232021</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -5962,10 +5962,10 @@
         <v>506</v>
       </c>
       <c r="B508">
-        <v>68268.46400528036</v>
+        <v>80281.10429560994</v>
       </c>
       <c r="C508">
-        <v>15137.94858111738</v>
+        <v>17628.72582615829</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -5973,10 +5973,10 @@
         <v>507</v>
       </c>
       <c r="B509">
-        <v>72653.61211156644</v>
+        <v>84597.65669876139</v>
       </c>
       <c r="C509">
-        <v>15624.63951986399</v>
+        <v>18033.09661945688</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -5984,10 +5984,10 @@
         <v>508</v>
       </c>
       <c r="B510">
-        <v>70162.44413984771</v>
+        <v>82037.89302390799</v>
       </c>
       <c r="C510">
-        <v>15868.6770431041</v>
+        <v>18194.81399724899</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -5995,10 +5995,10 @@
         <v>509</v>
       </c>
       <c r="B511">
-        <v>73451.60844259486</v>
+        <v>85327.05732665515</v>
       </c>
       <c r="C511">
-        <v>18426.6127730319</v>
+        <v>20752.74972717679</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -6006,10 +6006,10 @@
         <v>510</v>
       </c>
       <c r="B512">
-        <v>68465.74673902855</v>
+        <v>80592.20832418503</v>
       </c>
       <c r="C512">
-        <v>15898.01982990551</v>
+        <v>18211.61960238847</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -6017,10 +6017,10 @@
         <v>511</v>
       </c>
       <c r="B513">
-        <v>73631.84490115159</v>
+        <v>86009.31918740427</v>
       </c>
       <c r="C513">
-        <v>17453.81876816617</v>
+        <v>19754.88135898719</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -6028,10 +6028,10 @@
         <v>512</v>
       </c>
       <c r="B514">
-        <v>69065.06621503821</v>
+        <v>81693.55320238705</v>
       </c>
       <c r="C514">
-        <v>15571.54109480949</v>
+        <v>17860.06650396859</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -6039,10 +6039,10 @@
         <v>513</v>
       </c>
       <c r="B515">
-        <v>70518.97634701447</v>
+        <v>83398.47603545948</v>
       </c>
       <c r="C515">
-        <v>14196.38063856464</v>
+        <v>16472.36886606181</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -6050,10 +6050,10 @@
         <v>514</v>
       </c>
       <c r="B516">
-        <v>66544.35535040899</v>
+        <v>79674.86773995016</v>
       </c>
       <c r="C516">
-        <v>12759.81681158866</v>
+        <v>15023.2678574239</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -6061,10 +6061,10 @@
         <v>515</v>
       </c>
       <c r="B517">
-        <v>69000.76889628795</v>
+        <v>82382.2939869253</v>
       </c>
       <c r="C517">
-        <v>15767.48741276691</v>
+        <v>18018.40127694021</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -6072,10 +6072,10 @@
         <v>516</v>
       </c>
       <c r="B518">
-        <v>70978.14548752795</v>
+        <v>84359.6705781653</v>
       </c>
       <c r="C518">
-        <v>21046.03818700469</v>
+        <v>23296.952051178</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -6083,10 +6083,10 @@
         <v>517</v>
       </c>
       <c r="B519">
-        <v>63977.71920207645</v>
+        <v>77595.72880190649</v>
       </c>
       <c r="C519">
-        <v>13860.43077000441</v>
+        <v>16908.77812003611</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -6094,10 +6094,10 @@
         <v>518</v>
       </c>
       <c r="B520">
-        <v>69256.84636716951</v>
+        <v>83111.34047619223</v>
       </c>
       <c r="C520">
-        <v>18482.6934687606</v>
+        <v>22328.47430465069</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -6105,10 +6105,10 @@
         <v>519</v>
       </c>
       <c r="B521">
-        <v>65297.02644567306</v>
+        <v>79388.00506388849</v>
       </c>
       <c r="C521">
-        <v>12064.17591429178</v>
+        <v>16707.39023604027</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -6116,10 +6116,10 @@
         <v>520</v>
       </c>
       <c r="B522">
-        <v>67784.9558712885</v>
+        <v>82112.41899869662</v>
       </c>
       <c r="C522">
-        <v>9657.019350706923</v>
+        <v>15097.6671583138</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -6127,10 +6127,10 @@
         <v>521</v>
       </c>
       <c r="B523">
-        <v>63397.98440700521</v>
+        <v>77961.93204360602</v>
       </c>
       <c r="C523">
-        <v>8317.257813317738</v>
+        <v>14555.33910678301</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -6138,10 +6138,10 @@
         <v>522</v>
       </c>
       <c r="B524">
-        <v>58200.82368364072</v>
+        <v>73001.25582943423</v>
       </c>
       <c r="C524">
-        <v>15692.79507081463</v>
+        <v>22728.3098501383</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -6149,10 +6149,10 @@
         <v>523</v>
       </c>
       <c r="B525">
-        <v>69709.54728567014</v>
+        <v>84509.97943146365</v>
       </c>
       <c r="C525">
-        <v>12904.20391767599</v>
+        <v>19939.71869699966</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -6160,10 +6160,10 @@
         <v>524</v>
       </c>
       <c r="B526">
-        <v>67042.60967063199</v>
+        <v>82142.85131529486</v>
       </c>
       <c r="C526">
-        <v>11016.69279627267</v>
+        <v>18072.07575923182</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -6171,10 +6171,10 @@
         <v>525</v>
       </c>
       <c r="B527">
-        <v>63256.38426311108</v>
+        <v>78656.43540664329</v>
       </c>
       <c r="C527">
-        <v>14310.1238200616</v>
+        <v>21385.37496665621</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -6182,10 +6182,10 @@
         <v>526</v>
       </c>
       <c r="B528">
-        <v>64957.06196477898</v>
+        <v>80656.9226071805</v>
       </c>
       <c r="C528">
-        <v>9932.255463048206</v>
+        <v>17027.3747932783</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -6193,10 +6193,10 @@
         <v>527</v>
       </c>
       <c r="B529">
-        <v>65674.24615896237</v>
+        <v>81673.91630023325</v>
       </c>
       <c r="C529">
-        <v>11793.04471792703</v>
+        <v>18908.0322317926</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -6204,10 +6204,10 @@
         <v>528</v>
       </c>
       <c r="B530">
-        <v>68095.4112663589</v>
+        <v>84394.8909064991</v>
       </c>
       <c r="C530">
-        <v>9550.415960003449</v>
+        <v>16685.27165750449</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -6215,10 +6215,10 @@
         <v>529</v>
       </c>
       <c r="B531">
-        <v>62770.64220540722</v>
+        <v>79369.93134441676</v>
       </c>
       <c r="C531">
-        <v>9189.110964462589</v>
+        <v>16343.83484559911</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -6226,10 +6226,10 @@
         <v>530</v>
       </c>
       <c r="B532">
-        <v>67060.57978378728</v>
+        <v>83659.86892279683</v>
       </c>
       <c r="C532">
-        <v>11869.37118959154</v>
+        <v>19024.09507072806</v>
       </c>
     </row>
     <row r="533" spans="1:3">
@@ -6237,10 +6237,10 @@
         <v>531</v>
       </c>
       <c r="B533">
-        <v>65005.03672761929</v>
+        <v>81946.96967356653</v>
       </c>
       <c r="C533">
-        <v>12437.97741697991</v>
+        <v>19589.15944085484</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -6248,10 +6248,10 @@
         <v>532</v>
       </c>
       <c r="B534">
-        <v>65680.86348730396</v>
+        <v>82965.44024018891</v>
       </c>
       <c r="C534">
-        <v>12601.15937959534</v>
+        <v>19748.79954620868</v>
       </c>
     </row>
     <row r="535" spans="1:3">
@@ -6259,10 +6259,10 @@
         <v>533</v>
       </c>
       <c r="B535">
-        <v>64203.29790165547</v>
+        <v>81830.51846147813</v>
       </c>
       <c r="C535">
-        <v>9422.870536060003</v>
+        <v>16566.96884541176</v>
       </c>
     </row>
     <row r="536" spans="1:3">
@@ -6270,10 +6270,10 @@
         <v>534</v>
       </c>
       <c r="B536">
-        <v>63064.11331112454</v>
+        <v>81033.97767788489</v>
       </c>
       <c r="C536">
-        <v>12578.68967548775</v>
+        <v>19719.24612757791</v>
       </c>
     </row>
     <row r="537" spans="1:3">
@@ -6281,10 +6281,10 @@
         <v>535</v>
       </c>
       <c r="B537">
-        <v>60593.50916226191</v>
+        <v>78906.01733595997</v>
       </c>
       <c r="C537">
-        <v>11211.73330045678</v>
+        <v>18348.74789528536</v>
       </c>
     </row>
     <row r="538" spans="1:3">
@@ -6292,10 +6292,10 @@
         <v>536</v>
       </c>
       <c r="B538">
-        <v>64093.51460993689</v>
+        <v>82748.66659057265</v>
       </c>
       <c r="C538">
-        <v>8368.830739954768</v>
+        <v>15502.30347752176</v>
       </c>
     </row>
     <row r="539" spans="1:3">
@@ -6303,10 +6303,10 @@
         <v>537</v>
       </c>
       <c r="B539">
-        <v>61526.84313201196</v>
+        <v>80181.99511264772</v>
       </c>
       <c r="C539">
-        <v>7560.295161185428</v>
+        <v>14693.76789875242</v>
       </c>
     </row>
     <row r="540" spans="1:3">
@@ -6314,10 +6314,10 @@
         <v>538</v>
       </c>
       <c r="B540">
-        <v>63298.49970295523</v>
+        <v>81991.7061625582</v>
       </c>
       <c r="C540">
-        <v>12774.16881109662</v>
+        <v>19926.60869082145</v>
       </c>
     </row>
     <row r="541" spans="1:3">
@@ -6325,10 +6325,10 @@
         <v>539</v>
       </c>
       <c r="B541">
-        <v>62703.74001026407</v>
+        <v>81435.00094883423</v>
       </c>
       <c r="C541">
-        <v>9729.436864710224</v>
+        <v>16900.84388659291</v>
       </c>
     </row>
     <row r="542" spans="1:3">
@@ -6336,10 +6336,10 @@
         <v>540</v>
       </c>
       <c r="B542">
-        <v>56614.07898599523</v>
+        <v>75383.3944035326</v>
       </c>
       <c r="C542">
-        <v>11701.4636105822</v>
+        <v>18891.83777462273</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -6347,10 +6347,10 @@
         <v>541</v>
       </c>
       <c r="B543">
-        <v>63680.0051274358</v>
+        <v>82487.37502394037</v>
       </c>
       <c r="C543">
-        <v>15374.21962842762</v>
+        <v>22583.56093462601</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -6358,10 +6358,10 @@
         <v>542</v>
       </c>
       <c r="B544">
-        <v>58350.16776722529</v>
+        <v>77195.59214269707</v>
       </c>
       <c r="C544">
-        <v>13614.34339011373</v>
+        <v>20842.65183846997</v>
       </c>
     </row>
     <row r="545" spans="1:3">
@@ -6369,10 +6369,10 @@
         <v>543</v>
       </c>
       <c r="B545">
-        <v>58715.23770209819</v>
+        <v>77598.71655653717</v>
       </c>
       <c r="C545">
-        <v>11760.32206560083</v>
+        <v>19007.59765611492</v>
       </c>
     </row>
     <row r="546" spans="1:3">
@@ -6380,10 +6380,10 @@
         <v>544</v>
       </c>
       <c r="B546">
-        <v>54000.45894110831</v>
+        <v>72883.93779554729</v>
       </c>
       <c r="C546">
-        <v>11911.16353464305</v>
+        <v>19158.43912515714</v>
       </c>
     </row>
     <row r="547" spans="1:3">
@@ -6391,10 +6391,10 @@
         <v>545</v>
       </c>
       <c r="B547">
-        <v>60234.42344906459</v>
+        <v>78308.74678183091</v>
       </c>
       <c r="C547">
-        <v>10730.03331763776</v>
+        <v>17991.55018268288</v>
       </c>
     </row>
     <row r="548" spans="1:3">
@@ -6402,10 +6402,10 @@
         <v>546</v>
       </c>
       <c r="B548">
-        <v>53615.58337388047</v>
+        <v>70880.75118497413</v>
       </c>
       <c r="C548">
-        <v>12179.16917169151</v>
+        <v>19454.92731126767</v>
       </c>
     </row>
     <row r="549" spans="1:3">
@@ -6413,10 +6413,10 @@
         <v>547</v>
       </c>
       <c r="B549">
-        <v>61898.1695984509</v>
+        <v>78354.18188787185</v>
       </c>
       <c r="C549">
-        <v>10760.25001766414</v>
+        <v>18050.24943177134</v>
       </c>
     </row>
     <row r="550" spans="1:3">
@@ -6424,10 +6424,10 @@
         <v>548</v>
       </c>
       <c r="B550">
-        <v>57805.38717986694</v>
+        <v>73452.24394761524</v>
       </c>
       <c r="C550">
-        <v>10663.79160658999</v>
+        <v>17968.03229522823</v>
       </c>
     </row>
     <row r="551" spans="1:3">
@@ -6435,10 +6435,10 @@
         <v>549</v>
       </c>
       <c r="B551">
-        <v>62980.03920218624</v>
+        <v>77817.74044826187</v>
       </c>
       <c r="C551">
-        <v>9971.532600758917</v>
+        <v>17290.01456392819</v>
       </c>
     </row>
     <row r="552" spans="1:3">
@@ -6446,10 +6446,10 @@
         <v>550</v>
       </c>
       <c r="B552">
-        <v>57512.3223563657</v>
+        <v>71540.86808076866</v>
       </c>
       <c r="C552">
-        <v>9385.831176224778</v>
+        <v>16718.5544139251</v>
       </c>
     </row>
     <row r="553" spans="1:3">
@@ -6457,10 +6457,10 @@
         <v>551</v>
       </c>
       <c r="B553">
-        <v>57997.28723188017</v>
+        <v>72025.83295628313</v>
       </c>
       <c r="C553">
-        <v>8959.688594446321</v>
+        <v>16292.41183214664</v>
       </c>
     </row>
     <row r="554" spans="1:3">
@@ -6468,10 +6468,10 @@
         <v>552</v>
       </c>
       <c r="B554">
-        <v>61784.88915434563</v>
+        <v>75430.48770852797</v>
       </c>
       <c r="C554">
-        <v>13266.27550593093</v>
+        <v>20598.41114386483</v>
       </c>
     </row>
     <row r="555" spans="1:3">
@@ -6479,10 +6479,10 @@
         <v>553</v>
       </c>
       <c r="B555">
-        <v>51591.34540085988</v>
+        <v>64853.99678482159</v>
       </c>
       <c r="C555">
-        <v>10826.33687657904</v>
+        <v>18157.88491474652</v>
       </c>
     </row>
     <row r="556" spans="1:3">
@@ -6490,10 +6490,10 @@
         <v>554</v>
       </c>
       <c r="B556">
-        <v>61466.28830039154</v>
+        <v>74345.99251413262</v>
       </c>
       <c r="C556">
-        <v>10680.23683558019</v>
+        <v>18011.19727398125</v>
       </c>
     </row>
     <row r="557" spans="1:3">
@@ -6501,10 +6501,10 @@
         <v>555</v>
       </c>
       <c r="B557">
-        <v>57599.66103543695</v>
+        <v>70096.41807895742</v>
       </c>
       <c r="C557">
-        <v>11503.37972117837</v>
+        <v>18833.75255981301</v>
       </c>
     </row>
     <row r="558" spans="1:3">
@@ -6512,10 +6512,10 @@
         <v>556</v>
       </c>
       <c r="B558">
-        <v>49614.11844389902</v>
+        <v>61727.92831719886</v>
       </c>
       <c r="C558">
-        <v>18646.61281181669</v>
+        <v>25976.39805068491</v>
       </c>
     </row>
     <row r="559" spans="1:3">
@@ -6523,10 +6523,10 @@
         <v>557</v>
       </c>
       <c r="B559">
-        <v>53794.44035051821</v>
+        <v>65525.3030535974</v>
       </c>
       <c r="C559">
-        <v>12377.33859145403</v>
+        <v>19706.53623055583</v>
       </c>
     </row>
     <row r="560" spans="1:3">
@@ -6534,10 +6534,10 @@
         <v>558</v>
       </c>
       <c r="B560">
-        <v>55841.78194932526</v>
+        <v>67572.64465240444</v>
       </c>
       <c r="C560">
-        <v>8595.623959351928</v>
+        <v>15924.82159845373</v>
       </c>
     </row>
     <row r="561" spans="1:3">
@@ -6545,10 +6545,10 @@
         <v>559</v>
       </c>
       <c r="B561">
-        <v>52833.01551028045</v>
+        <v>63456.2936300717</v>
       </c>
       <c r="C561">
-        <v>8264.706554848675</v>
+        <v>15540.11438131824</v>
       </c>
     </row>
     <row r="562" spans="1:3">
@@ -6556,10 +6556,10 @@
         <v>560</v>
       </c>
       <c r="B562">
-        <v>59738.9545737823</v>
+        <v>69254.64811028563</v>
       </c>
       <c r="C562">
-        <v>9410.947166121055</v>
+        <v>16632.56517995837</v>
       </c>
     </row>
     <row r="563" spans="1:3">
@@ -6567,10 +6567,10 @@
         <v>561</v>
       </c>
       <c r="B563">
-        <v>60845.55369451109</v>
+        <v>69253.66264772648</v>
       </c>
       <c r="C563">
-        <v>8515.654030046462</v>
+        <v>15683.48223125152</v>
       </c>
     </row>
     <row r="564" spans="1:3">
@@ -6578,10 +6578,10 @@
         <v>562</v>
       </c>
       <c r="B564">
-        <v>59288.63166743141</v>
+        <v>66589.15603735884</v>
       </c>
       <c r="C564">
-        <v>9550.106395253439</v>
+        <v>16664.14478382625</v>
       </c>
     </row>
     <row r="565" spans="1:3">
@@ -6589,10 +6589,10 @@
         <v>563</v>
       </c>
       <c r="B565">
-        <v>58323.70509478421</v>
+        <v>64516.64488142372</v>
       </c>
       <c r="C565">
-        <v>8822.462536588991</v>
+        <v>15882.71111252955</v>
       </c>
     </row>
     <row r="566" spans="1:3">
@@ -6600,10 +6600,10 @@
         <v>564</v>
       </c>
       <c r="B566">
-        <v>61775.41815891715</v>
+        <v>66860.77336226871</v>
       </c>
       <c r="C566">
-        <v>15956.99426894924</v>
+        <v>22963.45303225755</v>
       </c>
     </row>
     <row r="567" spans="1:3">
@@ -6611,10 +6611,10 @@
         <v>565</v>
       </c>
       <c r="B567">
-        <v>61879.07878336774</v>
+        <v>66964.4339867193</v>
       </c>
       <c r="C567">
-        <v>9814.960910894441</v>
+        <v>16821.41967420275</v>
       </c>
     </row>
     <row r="568" spans="1:3">
@@ -6622,10 +6622,10 @@
         <v>566</v>
       </c>
       <c r="B568">
-        <v>57392.91825686575</v>
+        <v>60046.18466515109</v>
       </c>
       <c r="C568">
-        <v>9688.884244006382</v>
+        <v>16692.09482823974</v>
       </c>
     </row>
     <row r="569" spans="1:3">
@@ -6633,10 +6633,10 @@
         <v>567</v>
       </c>
       <c r="B569">
-        <v>60708.78149597718</v>
+        <v>60929.9591091963</v>
       </c>
       <c r="C569">
-        <v>12410.96584819404</v>
+        <v>19410.92825335243</v>
       </c>
     </row>
     <row r="570" spans="1:3">
@@ -6644,10 +6644,10 @@
         <v>568</v>
       </c>
       <c r="B570">
-        <v>62497.62679052979</v>
+        <v>60286.71560868269</v>
       </c>
       <c r="C570">
-        <v>14122.45134791085</v>
+        <v>21119.16557399429</v>
       </c>
     </row>
     <row r="571" spans="1:3">
@@ -6655,10 +6655,10 @@
         <v>569</v>
       </c>
       <c r="B571">
-        <v>55898.68643452768</v>
+        <v>51255.68645761437</v>
       </c>
       <c r="C571">
-        <v>11505.59644898791</v>
+        <v>18499.06249599639</v>
       </c>
     </row>
     <row r="572" spans="1:3">
@@ -6666,10 +6666,10 @@
         <v>570</v>
       </c>
       <c r="B572">
-        <v>54903.82374217501</v>
+        <v>47828.73497019548</v>
       </c>
       <c r="C572">
-        <v>12012.97061896643</v>
+        <v>19003.18848689995</v>
       </c>
     </row>
     <row r="573" spans="1:3">
@@ -6677,10 +6677,10 @@
         <v>571</v>
       </c>
       <c r="B573">
-        <v>55111.12101964845</v>
+        <v>45603.9434526027</v>
       </c>
       <c r="C573">
-        <v>15827.52632799642</v>
+        <v>22814.49601685498</v>
       </c>
     </row>
     <row r="574" spans="1:3">
@@ -6688,10 +6688,10 @@
         <v>572</v>
       </c>
       <c r="B574">
-        <v>68088.62283099718</v>
+        <v>58581.44526395143</v>
       </c>
       <c r="C574">
-        <v>8489.601626801887</v>
+        <v>15476.57131566045</v>
       </c>
     </row>
     <row r="575" spans="1:3">
@@ -6699,10 +6699,10 @@
         <v>573</v>
       </c>
       <c r="B575">
-        <v>54305.04949791484</v>
+        <v>44761.90009398679</v>
       </c>
       <c r="C575">
-        <v>15075.53502110364</v>
+        <v>22068.55911481253</v>
       </c>
     </row>
     <row r="576" spans="1:3">
@@ -6710,10 +6710,10 @@
         <v>574</v>
       </c>
       <c r="B576">
-        <v>63320.72900386242</v>
+        <v>53741.60776305207</v>
       </c>
       <c r="C576">
-        <v>12634.76074845795</v>
+        <v>19633.83924701717</v>
       </c>
     </row>
     <row r="577" spans="1:3">
@@ -6721,10 +6721,10 @@
         <v>575</v>
       </c>
       <c r="B577">
-        <v>60121.11468505433</v>
+        <v>50506.02160736168</v>
       </c>
       <c r="C577">
-        <v>7170.08016255459</v>
+        <v>14175.21306596414</v>
       </c>
     </row>
     <row r="578" spans="1:3">
@@ -6732,10 +6732,10 @@
         <v>576</v>
       </c>
       <c r="B578">
-        <v>58486.23757080683</v>
+        <v>48835.17265623187</v>
       </c>
       <c r="C578">
-        <v>14763.34535395562</v>
+        <v>21774.5326622155</v>
       </c>
     </row>
     <row r="579" spans="1:3">
@@ -6743,10 +6743,10 @@
         <v>577</v>
       </c>
       <c r="B579">
-        <v>58828.48862758622</v>
+        <v>49141.45187612894</v>
       </c>
       <c r="C579">
-        <v>10580.55449565115</v>
+        <v>17597.79620876136</v>
       </c>
     </row>
     <row r="580" spans="1:3">
@@ -6754,10 +6754,10 @@
         <v>578</v>
       </c>
       <c r="B580">
-        <v>55306.3835237942</v>
+        <v>45583.37493545462</v>
       </c>
       <c r="C580">
-        <v>10967.22990873448</v>
+        <v>17990.52602669502</v>
       </c>
     </row>
     <row r="581" spans="1:3">
@@ -6765,10 +6765,10 @@
         <v>579</v>
       </c>
       <c r="B581">
-        <v>61129.04439157898</v>
+        <v>51406.0358032394</v>
       </c>
       <c r="C581">
-        <v>11902.03167828014</v>
+        <v>18925.32779624068</v>
       </c>
     </row>
     <row r="582" spans="1:3">
@@ -6776,10 +6776,10 @@
         <v>580</v>
       </c>
       <c r="B582">
-        <v>57100.47929848094</v>
+        <v>47144.55452353772</v>
       </c>
       <c r="C582">
-        <v>11901.14466633295</v>
+        <v>18955.52015969629</v>
       </c>
     </row>
     <row r="583" spans="1:3">
@@ -6787,10 +6787,10 @@
         <v>581</v>
       </c>
       <c r="B583">
-        <v>64072.42039093392</v>
+        <v>53883.57942938706</v>
       </c>
       <c r="C583">
-        <v>13020.98828572633</v>
+        <v>20106.44315449247</v>
       </c>
     </row>
     <row r="584" spans="1:3">
@@ -6798,10 +6798,10 @@
         <v>582</v>
       </c>
       <c r="B584">
-        <v>55607.701854504</v>
+        <v>45185.94470635351</v>
       </c>
       <c r="C584">
-        <v>14413.8195578566</v>
+        <v>21530.35380202555</v>
       </c>
     </row>
     <row r="585" spans="1:3">
@@ -6809,10 +6809,10 @@
         <v>583</v>
       </c>
       <c r="B585">
-        <v>56427.5836231487</v>
+        <v>45772.91028839457</v>
       </c>
       <c r="C585">
-        <v>13837.96011443569</v>
+        <v>20985.57373400744</v>
       </c>
     </row>
     <row r="586" spans="1:3">
@@ -6820,10 +6820,10 @@
         <v>584</v>
       </c>
       <c r="B586">
-        <v>56409.43505341889</v>
+        <v>45521.84553206112</v>
       </c>
       <c r="C586">
-        <v>15309.91700953288</v>
+        <v>22488.61000450743</v>
       </c>
     </row>
     <row r="587" spans="1:3">
@@ -6831,10 +6831,10 @@
         <v>585</v>
       </c>
       <c r="B587">
-        <v>54745.2949155415</v>
+        <v>43624.78920758009</v>
       </c>
       <c r="C587">
-        <v>13322.19780923041</v>
+        <v>20531.97017960777</v>
       </c>
     </row>
     <row r="588" spans="1:3">
@@ -6842,10 +6842,10 @@
         <v>586</v>
       </c>
       <c r="B588">
-        <v>46735.87181027605</v>
+        <v>35615.36610231464</v>
       </c>
       <c r="C588">
-        <v>11174.99701279031</v>
+        <v>18384.76938316767</v>
       </c>
     </row>
     <row r="589" spans="1:3">
@@ -6853,10 +6853,10 @@
         <v>587</v>
       </c>
       <c r="B589">
-        <v>55211.3808449959</v>
+        <v>44123.78713632026</v>
       </c>
       <c r="C589">
-        <v>8674.387676850482</v>
+        <v>15564.75744238575</v>
       </c>
     </row>
     <row r="590" spans="1:3">
@@ -6864,10 +6864,10 @@
         <v>588</v>
       </c>
       <c r="B590">
-        <v>53624.61264356378</v>
+        <v>42569.93093417391</v>
       </c>
       <c r="C590">
-        <v>16317.72094338269</v>
+        <v>22888.68810407587</v>
       </c>
     </row>
     <row r="591" spans="1:3">
@@ -6875,10 +6875,10 @@
         <v>589</v>
       </c>
       <c r="B591">
-        <v>51136.21854435795</v>
+        <v>40114.44883425387</v>
       </c>
       <c r="C591">
-        <v>17360.63370899919</v>
+        <v>23612.19826485028</v>
       </c>
     </row>
     <row r="592" spans="1:3">
@@ -6886,10 +6886,10 @@
         <v>590</v>
       </c>
       <c r="B592">
-        <v>54721.91448672059</v>
+        <v>43733.05677590227</v>
       </c>
       <c r="C592">
-        <v>14873.56150334824</v>
+        <v>20805.72345435724</v>
       </c>
     </row>
     <row r="593" spans="1:3">
@@ -6897,10 +6897,10 @@
         <v>591</v>
       </c>
       <c r="B593">
-        <v>57480.20599830068</v>
+        <v>46524.26028676813</v>
       </c>
       <c r="C593">
-        <v>16195.52953148333</v>
+        <v>21808.28887765024</v>
       </c>
     </row>
     <row r="594" spans="1:3">
@@ -6908,10 +6908,10 @@
         <v>592</v>
       </c>
       <c r="B594">
-        <v>54931.6692457742</v>
+        <v>44008.63553352744</v>
       </c>
       <c r="C594">
-        <v>11018.77592228399</v>
+        <v>16312.13266360881</v>
       </c>
     </row>
     <row r="595" spans="1:3">
@@ -6919,10 +6919,10 @@
         <v>593</v>
       </c>
       <c r="B595">
-        <v>58860.49328509054</v>
+        <v>47937.45957284378</v>
       </c>
       <c r="C595">
-        <v>11255.7065221551</v>
+        <v>16549.06326347992</v>
       </c>
     </row>
     <row r="596" spans="1:3">
@@ -6930,10 +6930,10 @@
         <v>594</v>
       </c>
       <c r="B596">
-        <v>49685.00492295229</v>
+        <v>37696.65790245424</v>
       </c>
       <c r="C596">
-        <v>11509.34026623954</v>
+        <v>16349.51383564251</v>
       </c>
     </row>
     <row r="597" spans="1:3">
@@ -6941,10 +6941,10 @@
         <v>595</v>
       </c>
       <c r="B597">
-        <v>52338.18786957784</v>
+        <v>39284.52754082849</v>
       </c>
       <c r="C597">
-        <v>12732.9401202672</v>
+        <v>17119.93051774832</v>
       </c>
     </row>
     <row r="598" spans="1:3">
@@ -6952,10 +6952,10 @@
         <v>596</v>
       </c>
       <c r="B598">
-        <v>52496.88627530079</v>
+        <v>38377.91263830016</v>
       </c>
       <c r="C598">
-        <v>14134.73603664273</v>
+        <v>18068.54326220201</v>
       </c>
     </row>
     <row r="599" spans="1:3">
@@ -6963,10 +6963,10 @@
         <v>597</v>
       </c>
       <c r="B599">
-        <v>51244.01114419116</v>
+        <v>36059.72419893924</v>
       </c>
       <c r="C599">
-        <v>12058.29454506041</v>
+        <v>15538.91859869783</v>
       </c>
     </row>
     <row r="600" spans="1:3">
@@ -6974,10 +6974,10 @@
         <v>598</v>
       </c>
       <c r="B600">
-        <v>58891.38858358728</v>
+        <v>42641.78833008408</v>
       </c>
       <c r="C600">
-        <v>15321.34724762364</v>
+        <v>18348.78812933921</v>
       </c>
     </row>
     <row r="601" spans="1:3">
@@ -6985,10 +6985,10 @@
         <v>599</v>
       </c>
       <c r="B601">
-        <v>54943.37379761611</v>
+        <v>37628.46023586162</v>
       </c>
       <c r="C601">
-        <v>13602.5246120375</v>
+        <v>16176.78232183122</v>
       </c>
     </row>
     <row r="602" spans="1:3">
@@ -6996,10 +6996,10 @@
         <v>600</v>
       </c>
       <c r="B602">
-        <v>49984.45119305354</v>
+        <v>32669.53763129906</v>
       </c>
       <c r="C602">
-        <v>13057.43752431392</v>
+        <v>15631.69523410764</v>
       </c>
     </row>
     <row r="603" spans="1:3">
@@ -7007,10 +7007,10 @@
         <v>601</v>
       </c>
       <c r="B603">
-        <v>41662.69578266115</v>
+        <v>24408.85616336503</v>
       </c>
       <c r="C603">
-        <v>14960.23736269553</v>
+        <v>17479.55506635517</v>
       </c>
     </row>
     <row r="604" spans="1:3">
@@ -7018,10 +7018,10 @@
         <v>602</v>
       </c>
       <c r="B604">
-        <v>51955.43816634292</v>
+        <v>34762.67248950517</v>
       </c>
       <c r="C604">
-        <v>12344.52069246593</v>
+        <v>14808.89838999149</v>
       </c>
     </row>
     <row r="605" spans="1:3">
@@ -7029,10 +7029,10 @@
         <v>603</v>
       </c>
       <c r="B605">
-        <v>60044.10567619922</v>
+        <v>42912.41394181986</v>
       </c>
       <c r="C605">
-        <v>15274.9134748934</v>
+        <v>17684.35116628488</v>
       </c>
     </row>
     <row r="606" spans="1:3">
@@ -7040,10 +7040,10 @@
         <v>604</v>
       </c>
       <c r="B606">
-        <v>59354.8388445267</v>
+        <v>42284.22105260572</v>
       </c>
       <c r="C606">
-        <v>12278.67968756016</v>
+        <v>14633.17737281757</v>
       </c>
     </row>
     <row r="607" spans="1:3">
@@ -7051,10 +7051,10 @@
         <v>605</v>
       </c>
       <c r="B607">
-        <v>50093.55628258151</v>
+        <v>33084.01243311889</v>
       </c>
       <c r="C607">
-        <v>12877.81928289102</v>
+        <v>15177.37696201436</v>
       </c>
     </row>
     <row r="608" spans="1:3">
@@ -7062,10 +7062,10 @@
         <v>606</v>
       </c>
       <c r="B608">
-        <v>57219.17541235567</v>
+        <v>40270.70550535145</v>
       </c>
       <c r="C608">
-        <v>7514.872874221772</v>
+        <v>9759.490547211026</v>
       </c>
     </row>
     <row r="609" spans="1:3">
@@ -7073,10 +7073,10 @@
         <v>607</v>
       </c>
       <c r="B609">
-        <v>56699.14136334235</v>
+        <v>39750.67145633812</v>
       </c>
       <c r="C609">
-        <v>10452.53644521883</v>
+        <v>12697.15411820809</v>
       </c>
     </row>
     <row r="610" spans="1:3">
@@ -7084,10 +7084,10 @@
         <v>608</v>
       </c>
       <c r="B610">
-        <v>50178.60352073283</v>
+        <v>34152.89197452489</v>
       </c>
       <c r="C610">
-        <v>10750.10130865606</v>
+        <v>12396.54441095894</v>
       </c>
     </row>
     <row r="611" spans="1:3">
@@ -7095,10 +7095,10 @@
         <v>609</v>
       </c>
       <c r="B611">
-        <v>43934.89665148617</v>
+        <v>28831.94346607451</v>
       </c>
       <c r="C611">
-        <v>11672.43952801151</v>
+        <v>12720.70805962801</v>
       </c>
     </row>
     <row r="612" spans="1:3">
@@ -7106,10 +7106,10 @@
         <v>610</v>
       </c>
       <c r="B612">
-        <v>46508.04373264965</v>
+        <v>32327.84890803429</v>
       </c>
       <c r="C612">
-        <v>11169.14709019321</v>
+        <v>11619.24105112333</v>
       </c>
     </row>
     <row r="613" spans="1:3">
@@ -7117,10 +7117,10 @@
         <v>611</v>
       </c>
       <c r="B613">
-        <v>44617.83667880893</v>
+        <v>31360.40021498984</v>
       </c>
       <c r="C613">
-        <v>8409.266384918432</v>
+        <v>8261.18577516217</v>
       </c>
     </row>
     <row r="614" spans="1:3">
@@ -7128,10 +7128,10 @@
         <v>612</v>
       </c>
       <c r="B614">
-        <v>40106.36955112514</v>
+        <v>27771.69144810233</v>
       </c>
       <c r="C614">
-        <v>7383.135048632849</v>
+        <v>6636.879868190207</v>
       </c>
     </row>
     <row r="615" spans="1:3">
@@ -7139,10 +7139,10 @@
         <v>613</v>
       </c>
       <c r="B615">
-        <v>35870.65052955745</v>
+        <v>24458.73078733093</v>
       </c>
       <c r="C615">
-        <v>9081.461235476247</v>
+        <v>7737.031484347225</v>
       </c>
     </row>
     <row r="616" spans="1:3">
@@ -7150,10 +7150,10 @@
         <v>614</v>
       </c>
       <c r="B616">
-        <v>40225.26679180038</v>
+        <v>28813.34704957385</v>
       </c>
       <c r="C616">
-        <v>9408.019905848041</v>
+        <v>8063.590154719021</v>
       </c>
     </row>
     <row r="617" spans="1:3">
@@ -7161,10 +7161,10 @@
         <v>615</v>
       </c>
       <c r="B617">
-        <v>35326.79882026439</v>
+        <v>23143.04083463765</v>
       </c>
       <c r="C617">
-        <v>9528.960736040208</v>
+        <v>8100.762872757052</v>
       </c>
     </row>
     <row r="618" spans="1:3">
@@ -7172,10 +7172,10 @@
         <v>616</v>
       </c>
       <c r="B618">
-        <v>39113.30150404392</v>
+        <v>26157.70527501697</v>
       </c>
       <c r="C618">
-        <v>13322.5752705662</v>
+        <v>11810.60929512891</v>
       </c>
     </row>
     <row r="619" spans="1:3">
@@ -7183,10 +7183,10 @@
         <v>617</v>
       </c>
       <c r="B619">
-        <v>39461.49567404275</v>
+        <v>25734.06120161559</v>
       </c>
       <c r="C619">
-        <v>8921.79574145701</v>
+        <v>7326.061653865581</v>
       </c>
     </row>
     <row r="620" spans="1:3">
@@ -7194,10 +7194,10 @@
         <v>618</v>
       </c>
       <c r="B620">
-        <v>36652.98817289632</v>
+        <v>22153.71545706894</v>
       </c>
       <c r="C620">
-        <v>11274.28805080172</v>
+        <v>9594.785851056153</v>
       </c>
     </row>
     <row r="621" spans="1:3">
@@ -7205,10 +7205,10 @@
         <v>619</v>
       </c>
       <c r="B621">
-        <v>39202.1721142515</v>
+        <v>23931.06115502391</v>
       </c>
       <c r="C621">
-        <v>7479.689490929663</v>
+        <v>5716.419179029966</v>
       </c>
     </row>
     <row r="622" spans="1:3">
@@ -7216,10 +7216,10 @@
         <v>620</v>
       </c>
       <c r="B622">
-        <v>37490.38389412922</v>
+        <v>21447.43469150142</v>
       </c>
       <c r="C622">
-        <v>10021.43551524133</v>
+        <v>8174.3970911875</v>
       </c>
     </row>
     <row r="623" spans="1:3">
@@ -7227,10 +7227,10 @@
         <v>621</v>
       </c>
       <c r="B623">
-        <v>41366.41064049817</v>
+        <v>25323.46143787038</v>
       </c>
       <c r="C623">
-        <v>10952.08602336123</v>
+        <v>9105.047599307392</v>
       </c>
     </row>
     <row r="624" spans="1:3">
@@ -7238,10 +7238,10 @@
         <v>622</v>
       </c>
       <c r="B624">
-        <v>39550.56982610262</v>
+        <v>23330.03555684228</v>
       </c>
       <c r="C624">
-        <v>4262.535500142199</v>
+        <v>2809.639937995418</v>
       </c>
     </row>
     <row r="625" spans="1:3">
@@ -7249,10 +7249,10 @@
         <v>623</v>
       </c>
       <c r="B625">
-        <v>41154.15240621598</v>
+        <v>24756.03307032312</v>
       </c>
       <c r="C625">
-        <v>3635.55359419959</v>
+        <v>2576.800893959863</v>
       </c>
     </row>
     <row r="626" spans="1:3">
@@ -7260,10 +7260,10 @@
         <v>624</v>
       </c>
       <c r="B626">
-        <v>41661.47822493516</v>
+        <v>25085.77382240977</v>
       </c>
       <c r="C626">
-        <v>8187.585547946767</v>
+        <v>7522.975709614092</v>
       </c>
     </row>
     <row r="627" spans="1:3">
@@ -7271,10 +7271,10 @@
         <v>625</v>
       </c>
       <c r="B627">
-        <v>41137.17892084208</v>
+        <v>24383.88945168416</v>
       </c>
       <c r="C627">
-        <v>5355.638006312742</v>
+        <v>5085.171029887119</v>
       </c>
     </row>
     <row r="628" spans="1:3">
@@ -7282,10 +7282,10 @@
         <v>626</v>
       </c>
       <c r="B628">
-        <v>40151.30978985411</v>
+        <v>23220.43525406367</v>
       </c>
       <c r="C628">
-        <v>4991.811882718348</v>
+        <v>5115.487768199778</v>
       </c>
     </row>
     <row r="629" spans="1:3">
@@ -7293,10 +7293,10 @@
         <v>627</v>
       </c>
       <c r="B629">
-        <v>37451.60875537279</v>
+        <v>20343.14915294983</v>
       </c>
       <c r="C629">
-        <v>7095.31562743308</v>
+        <v>7613.134374821563</v>
       </c>
     </row>
     <row r="630" spans="1:3">
@@ -7304,10 +7304,10 @@
         <v>628</v>
       </c>
       <c r="B630">
-        <v>38082.52357478326</v>
+        <v>20974.06397236029</v>
       </c>
       <c r="C630">
-        <v>6194.323846823896</v>
+        <v>6712.142594212379</v>
       </c>
     </row>
     <row r="631" spans="1:3">
@@ -7315,10 +7315,10 @@
         <v>629</v>
       </c>
       <c r="B631">
-        <v>40777.42863903655</v>
+        <v>22904.64557563218</v>
       </c>
       <c r="C631">
-        <v>4842.043031184398</v>
+        <v>5138.586771919974</v>
       </c>
     </row>
     <row r="632" spans="1:3">
@@ -7326,10 +7326,10 @@
         <v>630</v>
       </c>
       <c r="B632">
-        <v>35731.89745233592</v>
+        <v>17094.79092795014</v>
       </c>
       <c r="C632">
-        <v>10844.63562407018</v>
+        <v>10919.90435815285</v>
       </c>
     </row>
     <row r="633" spans="1:3">
@@ -7337,10 +7337,10 @@
         <v>631</v>
       </c>
       <c r="B633">
-        <v>39104.97598519596</v>
+        <v>19703.54599982878</v>
       </c>
       <c r="C633">
-        <v>4100.042283985586</v>
+        <v>3954.036011415346</v>
       </c>
     </row>
     <row r="634" spans="1:3">
@@ -7348,10 +7348,10 @@
         <v>632</v>
       </c>
       <c r="B634">
-        <v>36303.9534359395</v>
+        <v>16138.19998959091</v>
       </c>
       <c r="C634">
-        <v>3060.033740552231</v>
+        <v>2692.752461329084</v>
       </c>
     </row>
     <row r="635" spans="1:3">
@@ -7359,10 +7359,10 @@
         <v>633</v>
       </c>
       <c r="B635">
-        <v>44100.97400585055</v>
+        <v>23170.89709852055</v>
       </c>
       <c r="C635">
-        <v>5152.903749230962</v>
+        <v>4564.347463354908</v>
       </c>
     </row>
     <row r="636" spans="1:3">
@@ -7370,10 +7370,10 @@
         <v>634</v>
       </c>
       <c r="B636">
-        <v>42148.02963860985</v>
+        <v>20453.62927029845</v>
       </c>
       <c r="C636">
-        <v>1164.580313021394</v>
+        <v>354.7490204924329</v>
       </c>
     </row>
     <row r="637" spans="1:3">
@@ -7381,10 +7381,10 @@
         <v>635</v>
       </c>
       <c r="B637">
-        <v>41259.77989043939</v>
+        <v>19565.37952212799</v>
       </c>
       <c r="C637">
-        <v>7515.060774746574</v>
+        <v>6705.229482217612</v>
       </c>
     </row>
     <row r="638" spans="1:3">
@@ -7392,10 +7392,10 @@
         <v>636</v>
       </c>
       <c r="B638">
-        <v>37316.50787929087</v>
+        <v>15795.60289126771</v>
       </c>
       <c r="C638">
-        <v>5588.722068139199</v>
+        <v>4451.743033948997</v>
       </c>
     </row>
     <row r="639" spans="1:3">
@@ -7403,10 +7403,10 @@
         <v>637</v>
       </c>
       <c r="B639">
-        <v>39790.85999856891</v>
+        <v>18443.45039083398</v>
       </c>
       <c r="C639">
-        <v>9410.484356503437</v>
+        <v>7946.357580651991</v>
       </c>
     </row>
     <row r="640" spans="1:3">
@@ -7414,10 +7414,10 @@
         <v>638</v>
       </c>
       <c r="B640">
-        <v>43761.42055385844</v>
+        <v>22587.50632641173</v>
       </c>
       <c r="C640">
-        <v>6242.530800989908</v>
+        <v>4451.25628347722</v>
       </c>
     </row>
     <row r="641" spans="1:3">
@@ -7425,10 +7425,10 @@
         <v>639</v>
       </c>
       <c r="B641">
-        <v>37861.65975038513</v>
+        <v>16861.24090322665</v>
       </c>
       <c r="C641">
-        <v>6265.397122971193</v>
+        <v>4146.974863797263</v>
       </c>
     </row>
     <row r="642" spans="1:3">
@@ -7436,10 +7436,10 @@
         <v>640</v>
       </c>
       <c r="B642">
-        <v>43349.48295644703</v>
+        <v>22522.55948957679</v>
       </c>
       <c r="C642">
-        <v>3282.902667906554</v>
+        <v>837.3326670713809</v>
       </c>
     </row>
     <row r="643" spans="1:3">
@@ -7447,10 +7447,10 @@
         <v>641</v>
       </c>
       <c r="B643">
-        <v>46296.82970326662</v>
+        <v>25643.4016166846</v>
       </c>
       <c r="C643">
-        <v>5405.390035215576</v>
+        <v>2632.672292719162</v>
       </c>
     </row>
     <row r="644" spans="1:3">
@@ -7458,10 +7458,10 @@
         <v>642</v>
       </c>
       <c r="B644">
-        <v>42863.95593165311</v>
+        <v>22210.52784507109</v>
       </c>
       <c r="C644">
-        <v>8134.191386865212</v>
+        <v>5361.473644368796</v>
       </c>
     </row>
     <row r="645" spans="1:3">
@@ -7469,10 +7469,10 @@
         <v>643</v>
       </c>
       <c r="B645">
-        <v>34977.06109493809</v>
+        <v>13853.46203511227</v>
       </c>
       <c r="C645">
-        <v>5101.275547618946</v>
+        <v>2278.078839655385</v>
       </c>
     </row>
     <row r="646" spans="1:3">
@@ -7480,10 +7480,10 @@
         <v>644</v>
       </c>
       <c r="B646">
-        <v>45637.25720653113</v>
+        <v>24043.48717346149</v>
       </c>
       <c r="C646">
-        <v>5335.277401248934</v>
+        <v>2461.601727818229</v>
       </c>
     </row>
     <row r="647" spans="1:3">
@@ -7491,10 +7491,10 @@
         <v>645</v>
       </c>
       <c r="B647">
-        <v>41922.96032329235</v>
+        <v>19859.01931697888</v>
       </c>
       <c r="C647">
-        <v>8100.53004436099</v>
+        <v>5176.375405463137</v>
       </c>
     </row>
     <row r="648" spans="1:3">
@@ -7502,10 +7502,10 @@
         <v>646</v>
       </c>
       <c r="B648">
-        <v>42344.87098241592</v>
+        <v>19810.75900285865</v>
       </c>
       <c r="C648">
-        <v>8012.371098178926</v>
+        <v>5037.737493813929</v>
       </c>
     </row>
     <row r="649" spans="1:3">
@@ -7513,10 +7513,10 @@
         <v>647</v>
       </c>
       <c r="B649">
-        <v>40456.62170034411</v>
+        <v>17452.33874754303</v>
       </c>
       <c r="C649">
-        <v>7244.306790547063</v>
+        <v>4219.19422071492</v>
       </c>
     </row>
     <row r="650" spans="1:3">
@@ -7524,10 +7524,10 @@
         <v>648</v>
       </c>
       <c r="B650">
-        <v>40685.36065052589</v>
+        <v>17210.90672448101</v>
       </c>
       <c r="C650">
-        <v>9164.749983400639</v>
+        <v>6089.158448101352</v>
       </c>
     </row>
     <row r="651" spans="1:3">
@@ -7535,10 +7535,10 @@
         <v>649</v>
       </c>
       <c r="B651">
-        <v>40300.87938907545</v>
+        <v>16826.42546303056</v>
       </c>
       <c r="C651">
-        <v>5888.076739382414</v>
+        <v>2812.485204083126</v>
       </c>
     </row>
     <row r="652" spans="1:3">
@@ -7546,10 +7546,10 @@
         <v>650</v>
       </c>
       <c r="B652">
-        <v>39620.45788896667</v>
+        <v>16007.42636891049</v>
       </c>
       <c r="C652">
-        <v>2685.92364630651</v>
+        <v>-484.6903338025541</v>
       </c>
     </row>
     <row r="653" spans="1:3">
@@ -7557,10 +7557,10 @@
         <v>651</v>
       </c>
       <c r="B653">
-        <v>42617.62705666227</v>
+        <v>18866.0179425948</v>
       </c>
       <c r="C653">
-        <v>3235.56029948563</v>
+        <v>-30.07612543321056</v>
       </c>
     </row>
     <row r="654" spans="1:3">
@@ -7568,10 +7568,10 @@
         <v>652</v>
       </c>
       <c r="B654">
-        <v>42048.33633399173</v>
+        <v>18158.14962591296</v>
       </c>
       <c r="C654">
-        <v>8163.427122334299</v>
+        <v>4802.768252605681</v>
       </c>
     </row>
     <row r="655" spans="1:3">
@@ -7579,10 +7579,10 @@
         <v>653</v>
       </c>
       <c r="B655">
-        <v>47603.48301884926</v>
+        <v>23574.71871675921</v>
       </c>
       <c r="C655">
-        <v>8987.665683388163</v>
+        <v>5531.984368849768</v>
       </c>
     </row>
     <row r="656" spans="1:3">
@@ -7590,10 +7590,10 @@
         <v>654</v>
       </c>
       <c r="B656">
-        <v>44091.51662503366</v>
+        <v>19924.1747289323</v>
       </c>
       <c r="C656">
-        <v>6162.398013299086</v>
+        <v>2611.694253950912</v>
       </c>
     </row>
     <row r="657" spans="1:3">
@@ -7601,10 +7601,10 @@
         <v>655</v>
       </c>
       <c r="B657">
-        <v>39093.1742926091</v>
+        <v>14787.25480249644</v>
       </c>
       <c r="C657">
-        <v>7435.09428738205</v>
+        <v>3789.3680832241</v>
       </c>
     </row>
     <row r="658" spans="1:3">
@@ -7612,10 +7612,10 @@
         <v>656</v>
       </c>
       <c r="B658">
-        <v>40911.63968715152</v>
+        <v>16605.72019703887</v>
       </c>
       <c r="C658">
-        <v>3633.606371042997</v>
+        <v>-12.11983311495283</v>
       </c>
     </row>
     <row r="659" spans="1:3">
@@ -7623,10 +7623,10 @@
         <v>657</v>
       </c>
       <c r="B659">
-        <v>39555.04989521519</v>
+        <v>14553.1837561884</v>
       </c>
       <c r="C659">
-        <v>7446.55635798279</v>
+        <v>2969.807899881266</v>
       </c>
     </row>
     <row r="660" spans="1:3">
@@ -7634,10 +7634,10 @@
         <v>658</v>
       </c>
       <c r="B660">
-        <v>46531.20770577856</v>
+        <v>20833.39491783766</v>
       </c>
       <c r="C660">
-        <v>8036.065021193975</v>
+        <v>2728.294309148875</v>
       </c>
     </row>
     <row r="661" spans="1:3">
@@ -7645,10 +7645,10 @@
         <v>659</v>
       </c>
       <c r="B661">
-        <v>42101.37800954426</v>
+        <v>15707.61857268923</v>
       </c>
       <c r="C661">
-        <v>5228.398195609176</v>
+        <v>-910.3947703794988</v>
       </c>
     </row>
     <row r="662" spans="1:3">
@@ -7656,10 +7656,10 @@
         <v>660</v>
       </c>
       <c r="B662">
-        <v>44871.55528703396</v>
+        <v>17781.84920126481</v>
       </c>
       <c r="C662">
-        <v>6069.85989709358</v>
+        <v>-899.955322838669</v>
       </c>
     </row>
     <row r="663" spans="1:3">
@@ -7667,10 +7667,10 @@
         <v>661</v>
       </c>
       <c r="B663">
-        <v>46885.29969441808</v>
+        <v>19099.64695973481</v>
       </c>
       <c r="C663">
-        <v>9594.242717932295</v>
+        <v>1793.405244056471</v>
       </c>
     </row>
     <row r="664" spans="1:3">
@@ -7678,10 +7678,10 @@
         <v>662</v>
       </c>
       <c r="B664">
-        <v>45423.03961131691</v>
+        <v>16941.44022771951</v>
       </c>
       <c r="C664">
-        <v>5379.971733501437</v>
+        <v>-3251.88799431796</v>
       </c>
     </row>
     <row r="665" spans="1:3">
@@ -7689,10 +7689,10 @@
         <v>663</v>
       </c>
       <c r="B665">
-        <v>46133.14302580108</v>
+        <v>17651.54364220368</v>
       </c>
       <c r="C665">
-        <v>10963.05992436065</v>
+        <v>2331.200196541251</v>
       </c>
     </row>
     <row r="666" spans="1:3">
@@ -7700,10 +7700,10 @@
         <v>664</v>
       </c>
       <c r="B666">
-        <v>46749.92915922781</v>
+        <v>18361.25723075041</v>
       </c>
       <c r="C666">
-        <v>7381.622583424115</v>
+        <v>-830.9468410311486</v>
       </c>
     </row>
     <row r="667" spans="1:3">
@@ -7711,10 +7711,10 @@
         <v>665</v>
       </c>
       <c r="B667">
-        <v>44942.34679119058</v>
+        <v>16646.60231783318</v>
       </c>
       <c r="C667">
-        <v>10289.9880885866</v>
+        <v>2496.708967495476</v>
       </c>
     </row>
     <row r="668" spans="1:3">
@@ -7722,10 +7722,10 @@
         <v>666</v>
       </c>
       <c r="B668">
-        <v>46262.77941819108</v>
+        <v>18059.96239995369</v>
       </c>
       <c r="C668">
-        <v>6120.922576031408</v>
+        <v>-1253.066241695586</v>
       </c>
     </row>
     <row r="669" spans="1:3">
@@ -7733,10 +7733,10 @@
         <v>667</v>
       </c>
       <c r="B669">
-        <v>52425.40581310752</v>
+        <v>24315.51624999013</v>
       </c>
       <c r="C669">
-        <v>9189.862294755079</v>
+        <v>2235.163780392217</v>
       </c>
     </row>
     <row r="670" spans="1:3">
@@ -7744,10 +7744,10 @@
         <v>668</v>
       </c>
       <c r="B670">
-        <v>44161.05705365095</v>
+        <v>16144.09494565356</v>
       </c>
       <c r="C670">
-        <v>5052.104102216256</v>
+        <v>-1483.304108782469</v>
       </c>
     </row>
     <row r="671" spans="1:3">
@@ -7755,10 +7755,10 @@
         <v>669</v>
       </c>
       <c r="B671">
-        <v>51502.76109102362</v>
+        <v>23578.72643814623</v>
       </c>
       <c r="C671">
-        <v>684.1008862904473</v>
+        <v>-5432.017021344144</v>
       </c>
     </row>
     <row r="672" spans="1:3">
@@ -7766,10 +7766,10 @@
         <v>670</v>
       </c>
       <c r="B672">
-        <v>45258.03681411819</v>
+        <v>17334.00216124079</v>
       </c>
       <c r="C672">
-        <v>11161.94082249632</v>
+        <v>5045.822914861723</v>
       </c>
     </row>
     <row r="673" spans="1:3">
@@ -7777,10 +7777,10 @@
         <v>671</v>
       </c>
       <c r="B673">
-        <v>40149.24454272204</v>
+        <v>12979.08362457108</v>
       </c>
       <c r="C673">
-        <v>9325.703058982541</v>
+        <v>3374.029782274712</v>
       </c>
     </row>
     <row r="674" spans="1:3">
@@ -7788,10 +7788,10 @@
         <v>672</v>
       </c>
       <c r="B674">
-        <v>35081.2283493123</v>
+        <v>8664.941165887782</v>
       </c>
       <c r="C674">
-        <v>1524.378020308468</v>
+        <v>-4262.850625472598</v>
       </c>
     </row>
     <row r="675" spans="1:3">
@@ -7799,10 +7799,10 @@
         <v>673</v>
       </c>
       <c r="B675">
-        <v>42386.88556496946</v>
+        <v>16724.4721162714</v>
       </c>
       <c r="C675">
-        <v>8189.872724475363</v>
+        <v>2567.08870962106</v>
       </c>
     </row>
     <row r="676" spans="1:3">
@@ -7810,10 +7810,10 @@
         <v>674</v>
       </c>
       <c r="B676">
-        <v>38014.07518275372</v>
+        <v>13105.53546878209</v>
       </c>
       <c r="C676">
-        <v>10047.46465452039</v>
+        <v>4589.125270592854</v>
       </c>
     </row>
     <row r="677" spans="1:3">
@@ -7821,10 +7821,10 @@
         <v>675</v>
       </c>
       <c r="B677">
-        <v>45468.292657062</v>
+        <v>21313.62667781681</v>
       </c>
       <c r="C677">
-        <v>3895.286657952779</v>
+        <v>-1398.608095048</v>
       </c>
     </row>
     <row r="678" spans="1:3">
@@ -7832,10 +7832,10 @@
         <v>676</v>
       </c>
       <c r="B678">
-        <v>36300.27872474369</v>
+        <v>12899.48648022494</v>
       </c>
       <c r="C678">
-        <v>4118.315910667776</v>
+        <v>-1011.134211406239</v>
       </c>
     </row>
     <row r="679" spans="1:3">
@@ -7843,10 +7843,10 @@
         <v>677</v>
       </c>
       <c r="B679">
-        <v>42816.51061972045</v>
+        <v>19415.7183752017</v>
       </c>
       <c r="C679">
-        <v>11083.74855306501</v>
+        <v>5954.298430990999</v>
       </c>
     </row>
     <row r="680" spans="1:3">
@@ -7854,10 +7854,10 @@
         <v>678</v>
       </c>
       <c r="B680">
-        <v>43576.46988216356</v>
+        <v>20587.72233042366</v>
       </c>
       <c r="C680">
-        <v>7488.215797313972</v>
+        <v>2607.889814322736</v>
       </c>
     </row>
     <row r="681" spans="1:3">
@@ -7865,10 +7865,10 @@
         <v>679</v>
       </c>
       <c r="B681">
-        <v>42543.39105517159</v>
+        <v>19966.68819621055</v>
       </c>
       <c r="C681">
-        <v>6446.633815207791</v>
+        <v>1815.431971299333</v>
       </c>
     </row>
     <row r="682" spans="1:3">
@@ -7876,10 +7876,10 @@
         <v>680</v>
       </c>
       <c r="B682">
-        <v>39255.41745729484</v>
+        <v>17090.75929111266</v>
       </c>
       <c r="C682">
-        <v>3413.917836843242</v>
+        <v>-968.1598679824358</v>
       </c>
     </row>
     <row r="683" spans="1:3">
@@ -7887,10 +7887,10 @@
         <v>681</v>
       </c>
       <c r="B683">
-        <v>36883.18462319358</v>
+        <v>15130.57114979025</v>
       </c>
       <c r="C683">
-        <v>7409.622972677023</v>
+        <v>3276.669406934123</v>
       </c>
     </row>
     <row r="684" spans="1:3">
@@ -7898,10 +7898,10 @@
         <v>682</v>
       </c>
       <c r="B684">
-        <v>37617.19517503332</v>
+        <v>16276.62639440885</v>
       </c>
       <c r="C684">
-        <v>2217.23552459217</v>
+        <v>-1666.59390206795</v>
       </c>
     </row>
     <row r="685" spans="1:3">
@@ -7909,10 +7909,10 @@
         <v>683</v>
       </c>
       <c r="B685">
-        <v>34401.55417084264</v>
+        <v>13473.03008299703</v>
       </c>
       <c r="C685">
-        <v>6174.297014729415</v>
+        <v>2539.591727152073</v>
       </c>
     </row>
     <row r="686" spans="1:3">
@@ -7920,10 +7920,10 @@
         <v>684</v>
       </c>
       <c r="B686">
-        <v>38805.37453363192</v>
+        <v>17876.85044578631</v>
       </c>
       <c r="C686">
-        <v>1816.140952417333</v>
+        <v>-1818.564335160009</v>
       </c>
     </row>
     <row r="687" spans="1:3">
@@ -7931,10 +7931,10 @@
         <v>685</v>
       </c>
       <c r="B687">
-        <v>36403.92596196406</v>
+        <v>14241.22022563252</v>
       </c>
       <c r="C687">
-        <v>2572.643261729083</v>
+        <v>-1306.68312317677</v>
       </c>
     </row>
     <row r="688" spans="1:3">
@@ -7942,10 +7942,10 @@
         <v>686</v>
       </c>
       <c r="B688">
-        <v>44695.41563185087</v>
+        <v>21298.5282470334</v>
       </c>
       <c r="C688">
-        <v>2086.008056940925</v>
+        <v>-2037.939425293438</v>
       </c>
     </row>
     <row r="689" spans="1:3">
@@ -7953,10 +7953,10 @@
         <v>687</v>
       </c>
       <c r="B689">
-        <v>46399.421869744</v>
+        <v>21768.35283644059</v>
       </c>
       <c r="C689">
-        <v>7879.736118153452</v>
+        <v>3511.16753859058</v>
       </c>
     </row>
     <row r="690" spans="1:3">
@@ -7964,10 +7964,10 @@
         <v>688</v>
       </c>
       <c r="B690">
-        <v>52229.30592038581</v>
+        <v>26364.05523859648</v>
       </c>
       <c r="C690">
-        <v>4572.27897097992</v>
+        <v>-40.91070591146377</v>
       </c>
     </row>
     <row r="691" spans="1:3">
@@ -7975,10 +7975,10 @@
         <v>689</v>
       </c>
       <c r="B691">
-        <v>47013.57785823718</v>
+        <v>19914.14552796191</v>
       </c>
       <c r="C691">
-        <v>9151.773115539761</v>
+        <v>4293.962341319869</v>
       </c>
     </row>
     <row r="692" spans="1:3">
@@ -7986,10 +7986,10 @@
         <v>690</v>
       </c>
       <c r="B692">
-        <v>46650.31952391564</v>
+        <v>18316.70554515444</v>
       </c>
       <c r="C692">
-        <v>6786.655005448712</v>
+        <v>1684.223133900308</v>
       </c>
     </row>
     <row r="693" spans="1:3">
@@ -7997,10 +7997,10 @@
         <v>691</v>
       </c>
       <c r="B693">
-        <v>49932.41342416188</v>
+        <v>21598.79944540069</v>
       </c>
       <c r="C693">
-        <v>7907.511242552992</v>
+        <v>2805.07937100459</v>
       </c>
     </row>
     <row r="694" spans="1:3">
@@ -8008,10 +8008,10 @@
         <v>692</v>
       </c>
       <c r="B694">
-        <v>55283.149547644</v>
+        <v>27336.07262499839</v>
       </c>
       <c r="C694">
-        <v>4488.818957237416</v>
+        <v>-392.0988199184665</v>
       </c>
     </row>
     <row r="695" spans="1:3">
@@ -8019,10 +8019,10 @@
         <v>693</v>
       </c>
       <c r="B695">
-        <v>52762.85830849427</v>
+        <v>25202.31844196421</v>
       </c>
       <c r="C695">
-        <v>5210.975057769412</v>
+        <v>551.5713750060515</v>
       </c>
     </row>
     <row r="696" spans="1:3">
@@ -8030,10 +8030,10 @@
         <v>694</v>
       </c>
       <c r="B696">
-        <v>46135.23383258816</v>
+        <v>18961.23102217368</v>
       </c>
       <c r="C696">
-        <v>1240.717728143334</v>
+        <v>-3197.171860227505</v>
       </c>
     </row>
     <row r="697" spans="1:3">
@@ -8041,10 +8041,10 @@
         <v>695</v>
       </c>
       <c r="B697">
-        <v>48712.57419538868</v>
+        <v>21925.10844108977</v>
       </c>
       <c r="C697">
-        <v>6039.775570226914</v>
+        <v>1823.400076248598</v>
       </c>
     </row>
     <row r="698" spans="1:3">
@@ -8052,10 +8052,10 @@
         <v>696</v>
       </c>
       <c r="B698">
-        <v>53859.05656310525</v>
+        <v>27458.12786492189</v>
       </c>
       <c r="C698">
-        <v>6635.537565702888</v>
+        <v>2640.676166117093</v>
       </c>
     </row>
     <row r="699" spans="1:3">
@@ -8063,10 +8063,10 @@
         <v>697</v>
       </c>
       <c r="B699">
-        <v>47272.2070150096</v>
+        <v>21257.81537294183</v>
       </c>
       <c r="C699">
-        <v>7784.524363066961</v>
+        <v>4011.177057873689</v>
       </c>
     </row>
     <row r="700" spans="1:3">
@@ -8074,10 +8074,10 @@
         <v>698</v>
       </c>
       <c r="B700">
-        <v>50209.97841354898</v>
+        <v>24195.5867714812</v>
       </c>
       <c r="C700">
-        <v>2132.492312176819</v>
+        <v>-1640.854993016454</v>
       </c>
     </row>
     <row r="701" spans="1:3">
@@ -8085,10 +8085,10 @@
         <v>699</v>
       </c>
       <c r="B701">
-        <v>49709.31642847519</v>
+        <v>23838.88645554246</v>
       </c>
       <c r="C701">
-        <v>-1438.3810295091</v>
+        <v>-5072.854925616934</v>
       </c>
     </row>
     <row r="702" spans="1:3">
@@ -8096,10 +8096,10 @@
         <v>700</v>
       </c>
       <c r="B702">
-        <v>48176.26021157758</v>
+        <v>22449.79190777989</v>
       </c>
       <c r="C702">
-        <v>7910.123642943258</v>
+        <v>4414.523155920862</v>
       </c>
     </row>
     <row r="703" spans="1:3">
@@ -8107,10 +8107,10 @@
         <v>701</v>
       </c>
       <c r="B703">
-        <v>55385.33402230088</v>
+        <v>29802.82738763824</v>
       </c>
       <c r="C703">
-        <v>7898.93772029303</v>
+        <v>4542.210642356073</v>
       </c>
     </row>
     <row r="704" spans="1:3">
@@ -8118,10 +8118,10 @@
         <v>702</v>
       </c>
       <c r="B704">
-        <v>47142.53985848699</v>
+        <v>21703.9948929594</v>
       </c>
       <c r="C704">
-        <v>2936.08049130517</v>
+        <v>-281.773177546349</v>
       </c>
     </row>
     <row r="705" spans="1:3">
@@ -8129,10 +8129,10 @@
         <v>703</v>
       </c>
       <c r="B705">
-        <v>41413.74823305103</v>
+        <v>16119.16493665848</v>
       </c>
       <c r="C705">
-        <v>8005.232862738958</v>
+        <v>4926.252602972876</v>
       </c>
     </row>
     <row r="706" spans="1:3">
@@ -8140,10 +8140,10 @@
         <v>704</v>
       </c>
       <c r="B706">
-        <v>46433.55647825033</v>
+        <v>21282.93485099281</v>
       </c>
       <c r="C706">
-        <v>4970.076459261729</v>
+        <v>2029.969608581086</v>
       </c>
     </row>
     <row r="707" spans="1:3">
@@ -8151,10 +8151,10 @@
         <v>705</v>
       </c>
       <c r="B707">
-        <v>40649.86848193151</v>
+        <v>15499.24685467399</v>
       </c>
       <c r="C707">
-        <v>4721.023300656784</v>
+        <v>1780.91644997614</v>
       </c>
     </row>
     <row r="708" spans="1:3">
@@ -8162,10 +8162,10 @@
         <v>706</v>
       </c>
       <c r="B708">
-        <v>43346.87028226668</v>
+        <v>15612.49831523246</v>
       </c>
       <c r="C708">
-        <v>8389.113243910575</v>
+        <v>5446.688859010226</v>
       </c>
     </row>
     <row r="709" spans="1:3">
@@ -8173,10 +8173,10 @@
         <v>707</v>
       </c>
       <c r="B709">
-        <v>45001.60189927169</v>
+        <v>14683.47959246077</v>
       </c>
       <c r="C709">
-        <v>5121.238159743125</v>
+        <v>2176.496240623074</v>
       </c>
     </row>
     <row r="710" spans="1:3">
@@ -8184,10 +8184,10 @@
         <v>708</v>
       </c>
       <c r="B710">
-        <v>54524.12503362054</v>
+        <v>21622.25238703292</v>
       </c>
       <c r="C710">
-        <v>9253.101148759333</v>
+        <v>6306.041695419579</v>
       </c>
     </row>
     <row r="711" spans="1:3">
@@ -8195,10 +8195,10 @@
         <v>709</v>
       </c>
       <c r="B711">
-        <v>50897.94262467766</v>
+        <v>15412.31963831336</v>
       </c>
       <c r="C711">
-        <v>4775.652879339164</v>
+        <v>1826.275891779705</v>
       </c>
     </row>
     <row r="712" spans="1:3">
@@ -8206,10 +8206,10 @@
         <v>710</v>
       </c>
       <c r="B712">
-        <v>57705.2752013853</v>
+        <v>19635.90187524429</v>
       </c>
       <c r="C712">
-        <v>6156.351137838477</v>
+        <v>3204.656616059317</v>
       </c>
     </row>
     <row r="713" spans="1:3">
@@ -8217,10 +8217,10 @@
         <v>711</v>
       </c>
       <c r="B713">
-        <v>58275.23867906188</v>
+        <v>17622.11501314419</v>
       </c>
       <c r="C713">
-        <v>6706.729607741972</v>
+        <v>3752.717551743107</v>
       </c>
     </row>
     <row r="714" spans="1:3">
@@ -8228,10 +8228,10 @@
         <v>712</v>
       </c>
       <c r="B714">
-        <v>62031.97347581478</v>
+        <v>21378.84980989708</v>
       </c>
       <c r="C714">
-        <v>7560.657924758894</v>
+        <v>4606.64586876003</v>
       </c>
     </row>
     <row r="715" spans="1:3">
@@ -8239,10 +8239,10 @@
         <v>713</v>
       </c>
       <c r="B715">
-        <v>52087.35013854689</v>
+        <v>14364.31136786511</v>
       </c>
       <c r="C715">
-        <v>4947.866234040021</v>
+        <v>1637.77775796682</v>
       </c>
     </row>
     <row r="716" spans="1:3">
@@ -8250,10 +8250,10 @@
         <v>714</v>
       </c>
       <c r="B716">
-        <v>55866.58896151478</v>
+        <v>21073.63508606893</v>
       </c>
       <c r="C716">
-        <v>7786.600447647586</v>
+        <v>4120.43555150005</v>
       </c>
     </row>
     <row r="717" spans="1:3">
@@ -8261,10 +8261,10 @@
         <v>715</v>
       </c>
       <c r="B717">
-        <v>47872.80219107172</v>
+        <v>16009.9332108618</v>
       </c>
       <c r="C717">
-        <v>6391.3425080129</v>
+        <v>2369.101191791028</v>
       </c>
     </row>
     <row r="718" spans="1:3">
@@ -8272,10 +8272,10 @@
         <v>716</v>
       </c>
       <c r="B718">
-        <v>47043.41787758662</v>
+        <v>18110.63379261261</v>
       </c>
       <c r="C718">
-        <v>6613.411828103661</v>
+        <v>2235.094091807453</v>
       </c>
     </row>
     <row r="719" spans="1:3">
@@ -8283,10 +8283,10 @@
         <v>717</v>
       </c>
       <c r="B719">
-        <v>40770.85329491731</v>
+        <v>14768.15410517923</v>
       </c>
       <c r="C719">
-        <v>5068.736516688839</v>
+        <v>334.3423603182969</v>
       </c>
     </row>
     <row r="720" spans="1:3">
@@ -8294,10 +8294,10 @@
         <v>718</v>
       </c>
       <c r="B720">
-        <v>38552.76416800932</v>
+        <v>15480.14987350717</v>
       </c>
       <c r="C720">
-        <v>5339.918251519159</v>
+        <v>249.4476750742806</v>
       </c>
     </row>
     <row r="721" spans="1:3">
@@ -8305,10 +8305,10 @@
         <v>719</v>
       </c>
       <c r="B721">
-        <v>33408.0873057276</v>
+        <v>10335.47301122545</v>
       </c>
       <c r="C721">
-        <v>5170.967314366737</v>
+        <v>80.49673792185808</v>
       </c>
     </row>
     <row r="722" spans="1:3">
@@ -8316,10 +8316,10 @@
         <v>720</v>
       </c>
       <c r="B722">
-        <v>46103.54888717087</v>
+        <v>23031.83848608485</v>
       </c>
       <c r="C722">
-        <v>6033.240668164444</v>
+        <v>1124.779373364151</v>
       </c>
     </row>
     <row r="723" spans="1:3">
@@ -8327,10 +8327,10 @@
         <v>721</v>
       </c>
       <c r="B723">
-        <v>40297.87898504739</v>
+        <v>17227.0724773775</v>
       </c>
       <c r="C723">
-        <v>5079.037814788471</v>
+        <v>352.5858016327632</v>
       </c>
     </row>
     <row r="724" spans="1:3">
@@ -8338,10 +8338,10 @@
         <v>722</v>
       </c>
       <c r="B724">
-        <v>42607.77697522797</v>
+        <v>19537.87436097419</v>
       </c>
       <c r="C724">
-        <v>4384.015948781272</v>
+        <v>-160.4267827298499</v>
       </c>
     </row>
     <row r="725" spans="1:3">
@@ -8349,10 +8349,10 @@
         <v>723</v>
       </c>
       <c r="B725">
-        <v>47083.19438084803</v>
+        <v>24014.19566001038</v>
       </c>
       <c r="C725">
-        <v>6174.591306157354</v>
+        <v>1812.157856290817</v>
       </c>
     </row>
     <row r="726" spans="1:3">
@@ -8360,10 +8360,10 @@
         <v>724</v>
       </c>
       <c r="B726">
-        <v>50761.63232227481</v>
+        <v>27693.5374948533</v>
       </c>
       <c r="C726">
-        <v>6419.791194870468</v>
+        <v>2239.367026648518</v>
       </c>
     </row>
     <row r="727" spans="1:3">
@@ -8371,10 +8371,10 @@
         <v>725</v>
       </c>
       <c r="B727">
-        <v>44332.77834037937</v>
+        <v>21265.58740637398</v>
       </c>
       <c r="C727">
-        <v>4280.587151878221</v>
+        <v>282.1722653008562</v>
       </c>
     </row>
     <row r="728" spans="1:3">
@@ -8382,10 +8382,10 @@
         <v>726</v>
       </c>
       <c r="B728">
-        <v>45247.12213783841</v>
+        <v>22179.93120383304</v>
       </c>
       <c r="C728">
-        <v>4185.502933933102</v>
+        <v>187.0880473557369</v>
       </c>
     </row>
     <row r="729" spans="1:3">
@@ -8393,10 +8393,10 @@
         <v>727</v>
       </c>
       <c r="B729">
-        <v>44324.22425445844</v>
+        <v>21257.03332045307</v>
       </c>
       <c r="C729">
-        <v>2885.293671263345</v>
+        <v>-1113.121215314021</v>
       </c>
     </row>
     <row r="730" spans="1:3">
@@ -8404,10 +8404,10 @@
         <v>728</v>
       </c>
       <c r="B730">
-        <v>47657.08796897393</v>
+        <v>24589.89703496856</v>
       </c>
       <c r="C730">
-        <v>5612.408683537102</v>
+        <v>1613.993796959736</v>
       </c>
     </row>
     <row r="731" spans="1:3">
@@ -8415,10 +8415,10 @@
         <v>729</v>
       </c>
       <c r="B731">
-        <v>44334.87368131132</v>
+        <v>21267.68274730594</v>
       </c>
       <c r="C731">
-        <v>5903.366747263976</v>
+        <v>1904.951860686611</v>
       </c>
     </row>
   </sheetData>

--- a/Stochastic_engine/CA_hydropower/CA_hydro_daily.xlsx
+++ b/Stochastic_engine/CA_hydropower/CA_hydro_daily.xlsx
@@ -396,10 +396,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>76385.21944461808</v>
+        <v>41367.81378663747</v>
       </c>
       <c r="C2">
-        <v>5720.249583244926</v>
+        <v>570.5958582944269</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -407,10 +407,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>71989.47481336197</v>
+        <v>36972.06915538136</v>
       </c>
       <c r="C3">
-        <v>3234.149506472609</v>
+        <v>-1915.504218477891</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>82342.48928333545</v>
+        <v>47325.08362535484</v>
       </c>
       <c r="C4">
-        <v>5768.581853328699</v>
+        <v>618.9281283782002</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>82901.47164654342</v>
+        <v>47884.06598856281</v>
       </c>
       <c r="C5">
-        <v>6311.330821775449</v>
+        <v>1161.67709682495</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>76321.3589869276</v>
+        <v>41303.95332894699</v>
       </c>
       <c r="C6">
-        <v>7870.987766113673</v>
+        <v>2721.334041163174</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>74644.94958752726</v>
+        <v>40968.82739972037</v>
       </c>
       <c r="C7">
-        <v>3368.287353150411</v>
+        <v>-1418.065693324008</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>76912.15327670434</v>
+        <v>44577.31455907116</v>
       </c>
       <c r="C8">
-        <v>5652.199799224472</v>
+        <v>1229.147431226132</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>72214.81774323869</v>
+        <v>41221.26249577921</v>
       </c>
       <c r="C9">
-        <v>6779.129088451689</v>
+        <v>2719.377398929429</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>67344.159373913</v>
+        <v>37691.88759662726</v>
       </c>
       <c r="C10">
-        <v>2568.892077796309</v>
+        <v>-1127.558933249873</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>60499.55614360457</v>
+        <v>32188.56783649253</v>
       </c>
       <c r="C11">
-        <v>7487.589239032879</v>
+        <v>4154.438906462777</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>63734.21156922926</v>
+        <v>36764.50673229095</v>
       </c>
       <c r="C12">
-        <v>6115.700449767195</v>
+        <v>3145.850795673173</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>61925.08318316663</v>
+        <v>34955.37834622832</v>
       </c>
       <c r="C13">
-        <v>3546.335702890069</v>
+        <v>576.4860487960466</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>63239.18051887833</v>
+        <v>40824.87848782304</v>
       </c>
       <c r="C14">
-        <v>5279.031277772647</v>
+        <v>2298.023770618397</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>55507.1939819957</v>
+        <v>37648.29475682344</v>
       </c>
       <c r="C15">
-        <v>10845.99871304569</v>
+        <v>7853.833352831216</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>44802.39341809538</v>
+        <v>31498.89699880614</v>
       </c>
       <c r="C16">
-        <v>8618.452069300845</v>
+        <v>5615.128856026138</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>54054.91263940474</v>
+        <v>45306.81902599851</v>
       </c>
       <c r="C17">
-        <v>2675.958972993551</v>
+        <v>-338.5220933413848</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -572,10 +572,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>49950.12694507289</v>
+        <v>45757.43613754969</v>
       </c>
       <c r="C18">
-        <v>3420.820547526464</v>
+        <v>395.1816281312999</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -583,10 +583,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>44347.28222626542</v>
+        <v>44709.99422462523</v>
       </c>
       <c r="C19">
-        <v>7988.653513752201</v>
+        <v>4951.856741296808</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -594,10 +594,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>47353.3049121617</v>
+        <v>47716.01691052152</v>
       </c>
       <c r="C20">
-        <v>4141.983799671228</v>
+        <v>1105.187027215834</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -605,10 +605,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>52249.81140649841</v>
+        <v>51837.68167289093</v>
       </c>
       <c r="C21">
-        <v>7706.047184558362</v>
+        <v>4851.739521594553</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -616,10 +616,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>48300.0057148784</v>
+        <v>47113.03424930362</v>
       </c>
       <c r="C22">
-        <v>6713.380217648643</v>
+        <v>4041.561664176417</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -627,10 +627,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>50847.96991249953</v>
+        <v>48886.15671495745</v>
       </c>
       <c r="C23">
-        <v>5296.652124146349</v>
+        <v>2807.322680165706</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -638,10 +638,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>56186.59608163167</v>
+        <v>53449.94115212229</v>
       </c>
       <c r="C24">
-        <v>6898.966788184357</v>
+        <v>4592.126453695296</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -649,10 +649,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>52639.06096409597</v>
+        <v>49127.56430261929</v>
       </c>
       <c r="C25">
-        <v>3509.243023440828</v>
+        <v>1384.89179844335</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -660,10 +660,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>57507.65308953779</v>
+        <v>53221.31469609381</v>
       </c>
       <c r="C26">
-        <v>5272.027665175436</v>
+        <v>3330.165549669542</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -671,10 +671,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>60679.53449138067</v>
+        <v>56393.19609793669</v>
       </c>
       <c r="C27">
-        <v>4848.710267124703</v>
+        <v>2906.84815161881</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -682,10 +682,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>60093.42441337507</v>
+        <v>51706.67348786067</v>
       </c>
       <c r="C28">
-        <v>7509.271320222885</v>
+        <v>5232.550936491353</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -693,10 +693,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>70461.12891674628</v>
+        <v>57973.96545916145</v>
       </c>
       <c r="C29">
-        <v>6492.885515990929</v>
+        <v>3881.306864033759</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -704,10 +704,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>75392.63109173501</v>
+        <v>58805.05510207975</v>
       </c>
       <c r="C30">
-        <v>7054.804777940795</v>
+        <v>4108.367857757987</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -715,10 +715,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>71166.93025325806</v>
+        <v>50478.9417315324</v>
       </c>
       <c r="C31">
-        <v>8467.321932826871</v>
+        <v>5186.026744418426</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -726,10 +726,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>78992.94047398081</v>
+        <v>54204.53942018469</v>
       </c>
       <c r="C32">
-        <v>6160.785467391345</v>
+        <v>2544.632010757263</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -737,10 +737,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>82593.3297003169</v>
+        <v>53704.51611445038</v>
       </c>
       <c r="C33">
-        <v>3571.668027175822</v>
+        <v>-379.3436976838971</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -748,10 +748,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>81977.84393666388</v>
+        <v>53089.03035079735</v>
       </c>
       <c r="C34">
-        <v>4488.932606900837</v>
+        <v>537.9208820411168</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -759,10 +759,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>83155.77785554164</v>
+        <v>53393.37339444215</v>
       </c>
       <c r="C35">
-        <v>11934.72559445256</v>
+        <v>5704.856416666067</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -770,10 +770,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>87533.98573215894</v>
+        <v>56897.99039582649</v>
       </c>
       <c r="C36">
-        <v>10507.29002325292</v>
+        <v>1998.563392539652</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -781,10 +781,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>84513.64027429416</v>
+        <v>53004.05406272873</v>
       </c>
       <c r="C37">
-        <v>14292.99984322574</v>
+        <v>3505.415759585694</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -792,10 +792,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>94808.2646415169</v>
+        <v>62425.08755471851</v>
       </c>
       <c r="C38">
-        <v>10993.86424678301</v>
+        <v>-2072.577289783807</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -803,10 +803,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>92393.23355288312</v>
+        <v>59136.46559085177</v>
       </c>
       <c r="C39">
-        <v>16250.54125260539</v>
+        <v>905.2422631117993</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -814,10 +814,10 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>95536.91951367621</v>
+        <v>61406.56067641189</v>
       </c>
       <c r="C40">
-        <v>21630.27176954956</v>
+        <v>4006.115327129194</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -825,10 +825,10 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>95700.53024052185</v>
+        <v>61570.17140325754</v>
       </c>
       <c r="C41">
-        <v>21956.4395950208</v>
+        <v>4332.28315260043</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -836,10 +836,10 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>92222.40175679544</v>
+        <v>58993.84394771037</v>
       </c>
       <c r="C42">
-        <v>18007.0386311088</v>
+        <v>1714.138979903553</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -847,10 +847,10 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>89525.5922499555</v>
+        <v>57198.83546904967</v>
       </c>
       <c r="C43">
-        <v>15982.68304280867</v>
+        <v>1021.040182818535</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -858,10 +858,10 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>90553.98237728784</v>
+        <v>59129.02662456127</v>
       </c>
       <c r="C44">
-        <v>19930.78651047777</v>
+        <v>6300.400441702765</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -869,10 +869,10 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>84677.65675678101</v>
+        <v>54154.50203223366</v>
       </c>
       <c r="C45">
-        <v>19151.81316088134</v>
+        <v>6852.68388332144</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -880,10 +880,10 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>86140.62565649013</v>
+        <v>56519.271960122</v>
       </c>
       <c r="C46">
-        <v>12895.65447934893</v>
+        <v>1927.781993004154</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -891,10 +891,10 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>82785.92528163063</v>
+        <v>54066.37261344176</v>
       </c>
       <c r="C47">
-        <v>13479.17721428025</v>
+        <v>3842.561519150594</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -902,10 +902,10 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>77177.37690015988</v>
+        <v>48457.82423197101</v>
       </c>
       <c r="C48">
-        <v>16612.33856324718</v>
+        <v>6975.722868117526</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -913,10 +913,10 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>81374.79660221808</v>
+        <v>53329.03275405223</v>
       </c>
       <c r="C49">
-        <v>12988.25365348922</v>
+        <v>3086.756753283776</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -924,10 +924,10 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>78060.38807904979</v>
+        <v>50688.41305090697</v>
       </c>
       <c r="C50">
-        <v>12121.73837597398</v>
+        <v>1955.360270692767</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -935,10 +935,10 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>81883.73565892167</v>
+        <v>55185.54945080186</v>
       </c>
       <c r="C51">
-        <v>13501.42499794065</v>
+        <v>3070.165687583652</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -946,10 +946,10 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>81831.20088169124</v>
+        <v>55806.80349359447</v>
       </c>
       <c r="C52">
-        <v>16063.68138836546</v>
+        <v>5367.540872932686</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -957,10 +957,10 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>84170.22351001189</v>
+        <v>58819.61494193816</v>
       </c>
       <c r="C53">
-        <v>14608.08867785989</v>
+        <v>3647.066957351325</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -968,10 +968,10 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>79194.92320317912</v>
+        <v>54518.10345512842</v>
       </c>
       <c r="C54">
-        <v>13070.46547601673</v>
+        <v>1844.562550432386</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -979,10 +979,10 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>79894.46876071142</v>
+        <v>55217.64901266073</v>
       </c>
       <c r="C55">
-        <v>16382.85763882869</v>
+        <v>5156.954713244348</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -990,10 +990,10 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>82833.23360802513</v>
+        <v>63405.81900683946</v>
       </c>
       <c r="C56">
-        <v>15362.7610868776</v>
+        <v>6102.864658027364</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1001,10 +1001,10 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>78799.53318102687</v>
+        <v>64621.52372670623</v>
       </c>
       <c r="C57">
-        <v>14533.85481221069</v>
+        <v>7239.964880094564</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1012,10 +1012,10 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>73751.95072329916</v>
+        <v>64823.34641584354</v>
       </c>
       <c r="C58">
-        <v>9771.944792873865</v>
+        <v>4444.061357491848</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1023,10 +1023,10 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>73353.61424654064</v>
+        <v>69674.41508595004</v>
       </c>
       <c r="C59">
-        <v>11165.9495214385</v>
+        <v>7804.072582790597</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1034,10 +1034,10 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>73098.6933342572</v>
+        <v>74668.89932053162</v>
       </c>
       <c r="C60">
-        <v>9612.484817426146</v>
+        <v>8216.614375512347</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1045,10 +1045,10 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>73145.45233365483</v>
+        <v>79965.06346679426</v>
       </c>
       <c r="C61">
-        <v>9056.811116213345</v>
+        <v>9626.947171033653</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1056,10 +1056,10 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>70967.7755596722</v>
+        <v>77787.38669281163</v>
       </c>
       <c r="C62">
-        <v>9152.148724947096</v>
+        <v>9722.284779767404</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1067,10 +1067,10 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>67385.86105823707</v>
+        <v>70902.98109126577</v>
       </c>
       <c r="C63">
-        <v>4055.150219462617</v>
+        <v>4791.924390997237</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1078,10 +1078,10 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>78073.21692047879</v>
+        <v>78287.84585339678</v>
       </c>
       <c r="C64">
-        <v>9180.300567549042</v>
+        <v>10083.71285579797</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1089,10 +1089,10 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>77720.12155408064</v>
+        <v>74632.25938688788</v>
       </c>
       <c r="C65">
-        <v>7246.138935248935</v>
+        <v>8316.18934021218</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1100,10 +1100,10 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>79012.4768338775</v>
+        <v>72622.12356657398</v>
       </c>
       <c r="C66">
-        <v>4378.103383854092</v>
+        <v>5614.791905531649</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1111,10 +1111,10 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>80972.93235472155</v>
+        <v>71280.08798730731</v>
       </c>
       <c r="C67">
-        <v>8472.505274861305</v>
+        <v>9875.831913253174</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1122,10 +1122,10 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>85504.74095898504</v>
+        <v>72509.40549146007</v>
       </c>
       <c r="C68">
-        <v>7984.693972576023</v>
+        <v>9554.658727682207</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1133,10 +1133,10 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>76547.14304500644</v>
+        <v>63551.80757748146</v>
       </c>
       <c r="C69">
-        <v>3717.502891337128</v>
+        <v>5287.467646443311</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1144,10 +1144,10 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>88077.26779214508</v>
+        <v>73146.35781720126</v>
       </c>
       <c r="C70">
-        <v>2801.619803019641</v>
+        <v>4179.552582336742</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1155,10 +1155,10 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>78195.89552666969</v>
+        <v>61329.41104430702</v>
       </c>
       <c r="C71">
-        <v>9432.909557858817</v>
+        <v>10618.81036138684</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1166,10 +1166,10 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>84764.52885306315</v>
+        <v>65962.4698632816</v>
       </c>
       <c r="C72">
-        <v>5278.866798272612</v>
+        <v>6272.735626011548</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1177,10 +1177,10 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>79302.38328113167</v>
+        <v>58564.74978393126</v>
       </c>
       <c r="C73">
-        <v>6775.263586488087</v>
+        <v>7577.10043843794</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1188,10 +1188,10 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>77813.32810466029</v>
+        <v>55140.12010004102</v>
       </c>
       <c r="C74">
-        <v>4894.029314433174</v>
+        <v>5503.834190593945</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1199,10 +1199,10 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>83478.77076496847</v>
+        <v>58869.98825293032</v>
       </c>
       <c r="C75">
-        <v>7954.426268953929</v>
+        <v>8372.199169325619</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1210,10 +1210,10 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>80783.80660441663</v>
+        <v>56175.02409237847</v>
       </c>
       <c r="C76">
-        <v>8007.142673342018</v>
+        <v>8424.915573713706</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1221,10 +1221,10 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>85017.41056110834</v>
+        <v>63245.62152458891</v>
       </c>
       <c r="C77">
-        <v>6945.48608334265</v>
+        <v>7397.249153147174</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1232,10 +1232,10 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>91310.75789671871</v>
+        <v>72375.96233571802</v>
       </c>
       <c r="C78">
-        <v>6386.011646432029</v>
+        <v>6871.76488566939</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1243,10 +1243,10 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>88473.49421471621</v>
+        <v>72375.69212923424</v>
       </c>
       <c r="C79">
-        <v>9031.066909417365</v>
+        <v>9550.810318087561</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1254,10 +1254,10 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>86841.01613695256</v>
+        <v>73580.20752698934</v>
       </c>
       <c r="C80">
-        <v>9841.870948967005</v>
+        <v>10395.60452707004</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1265,10 +1265,10 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>82430.71524542882</v>
+        <v>72006.90011098434</v>
       </c>
       <c r="C81">
-        <v>9888.124999903854</v>
+        <v>10475.84874743973</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1276,10 +1276,10 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>85216.91055010729</v>
+        <v>77630.08889118156</v>
       </c>
       <c r="C82">
-        <v>7502.587065066536</v>
+        <v>8124.300982035243</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1287,10 +1287,10 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>90428.32383871329</v>
+        <v>82841.50217978755</v>
       </c>
       <c r="C83">
-        <v>9280.263934610051</v>
+        <v>9901.977851578758</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1298,10 +1298,10 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>86900.00080425788</v>
+        <v>80057.63609429971</v>
       </c>
       <c r="C84">
-        <v>9772.558026631637</v>
+        <v>9978.082880280546</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1309,10 +1309,10 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>87364.39139203935</v>
+        <v>81266.48363104876</v>
       </c>
       <c r="C85">
-        <v>8096.09837393687</v>
+        <v>7885.434164265981</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1320,10 +1320,10 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>84691.95670294427</v>
+        <v>79338.50589092127</v>
       </c>
       <c r="C86">
-        <v>8956.546002376223</v>
+        <v>8329.692729385539</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1331,10 +1331,10 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>84251.91368035119</v>
+        <v>79642.91981729578</v>
       </c>
       <c r="C87">
-        <v>9410.68340240245</v>
+        <v>8367.641066091968</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1342,10 +1342,10 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>87188.29618209353</v>
+        <v>83323.75926800568</v>
       </c>
       <c r="C88">
-        <v>9415.303895710806</v>
+        <v>7956.072496080527</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1353,10 +1353,10 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>85201.9031607911</v>
+        <v>82081.82319567086</v>
       </c>
       <c r="C89">
-        <v>12458.92539212814</v>
+        <v>10583.50492917806</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1364,10 +1364,10 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>90171.18667389741</v>
+        <v>87051.10670877717</v>
       </c>
       <c r="C90">
-        <v>15178.46246969116</v>
+        <v>13303.04200674108</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1375,10 +1375,10 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>85865.30028471604</v>
+        <v>76736.15403435356</v>
       </c>
       <c r="C91">
-        <v>11349.27551011019</v>
+        <v>9029.863460756837</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1386,10 +1386,10 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>82815.45903689977</v>
+        <v>67677.24650129506</v>
       </c>
       <c r="C92">
-        <v>17916.65769664026</v>
+        <v>15153.25406088364</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1397,10 +1397,10 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>92174.12853278901</v>
+        <v>71026.84971194205</v>
       </c>
       <c r="C93">
-        <v>11664.66819986642</v>
+        <v>8457.272977706507</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1408,10 +1408,10 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>92235.56434394584</v>
+        <v>65079.21923785664</v>
       </c>
       <c r="C94">
-        <v>13633.65317397612</v>
+        <v>9982.266365412941</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1419,10 +1419,10 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>100707.5920217563</v>
+        <v>67542.18063042483</v>
       </c>
       <c r="C95">
-        <v>14191.85884324184</v>
+        <v>10096.48044827538</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1430,10 +1430,10 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>102342.0971627385</v>
+        <v>63167.61948616485</v>
       </c>
       <c r="C96">
-        <v>18298.26246109615</v>
+        <v>13758.89247972641</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1441,10 +1441,10 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>100324.6661419908</v>
+        <v>61150.18846541717</v>
       </c>
       <c r="C97">
-        <v>18659.50573484143</v>
+        <v>14120.13575347169</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1452,10 +1452,10 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>99343.52025432358</v>
+        <v>60749.55191866541</v>
       </c>
       <c r="C98">
-        <v>15165.55176199388</v>
+        <v>11702.45076250621</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1463,10 +1463,10 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>101101.032673042</v>
+        <v>63087.57367829933</v>
       </c>
       <c r="C99">
-        <v>17408.14223201543</v>
+        <v>15021.31021440982</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1474,10 +1474,10 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>97875.22682533848</v>
+        <v>60442.2771715113</v>
       </c>
       <c r="C100">
-        <v>15087.71065576497</v>
+        <v>13777.14762004143</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1485,10 +1485,10 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>94906.52287531071</v>
+        <v>58054.08256239904</v>
       </c>
       <c r="C101">
-        <v>15498.31644822907</v>
+        <v>15264.02239438759</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1496,10 +1496,10 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>89853.14933787097</v>
+        <v>53581.21836587479</v>
       </c>
       <c r="C102">
-        <v>13014.14293117759</v>
+        <v>13856.11785921816</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1507,10 +1507,10 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>89711.38891350773</v>
+        <v>54019.96728242705</v>
       </c>
       <c r="C103">
-        <v>12013.62027035649</v>
+        <v>13931.86418027913</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1518,10 +1518,10 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>93981.81838057797</v>
+        <v>58290.39674949729</v>
       </c>
       <c r="C104">
-        <v>8169.796612464346</v>
+        <v>10088.04052238699</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1529,10 +1529,10 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>97111.14317983683</v>
+        <v>60867.32520586219</v>
       </c>
       <c r="C105">
-        <v>10359.20767601336</v>
+        <v>12052.89377624394</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1540,10 +1540,10 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>89039.92271835306</v>
+        <v>52243.70840148447</v>
       </c>
       <c r="C106">
-        <v>10698.41157860672</v>
+        <v>12167.53986914525</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1551,10 +1551,10 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>95999.09652116564</v>
+        <v>58650.48586140313</v>
       </c>
       <c r="C107">
-        <v>15267.88853007053</v>
+        <v>16512.45901091701</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1562,10 +1562,10 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>91894.33549931615</v>
+        <v>53993.32849665969</v>
       </c>
       <c r="C108">
-        <v>15700.27073661697</v>
+        <v>16720.28340777139</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1573,10 +1573,10 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>89995.40728444207</v>
+        <v>51542.00393889165</v>
       </c>
       <c r="C109">
-        <v>13670.36909209004</v>
+        <v>14465.82395355241</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1584,10 +1584,10 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>85567.88139066235</v>
+        <v>46562.08170221799</v>
       </c>
       <c r="C110">
-        <v>17566.43236578136</v>
+        <v>18137.32941755167</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1595,10 +1595,10 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>89276.27122410813</v>
+        <v>50270.47153566376</v>
       </c>
       <c r="C111">
-        <v>15325.36192027628</v>
+        <v>15896.25897204659</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1606,10 +1606,10 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>85485.64728814842</v>
+        <v>47141.14788159115</v>
       </c>
       <c r="C112">
-        <v>13152.07716665911</v>
+        <v>13759.23881577524</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1617,10 +1617,10 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>86973.59147131689</v>
+        <v>49290.39234664675</v>
       </c>
       <c r="C113">
-        <v>12783.98251916571</v>
+        <v>13427.40876562764</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1628,10 +1628,10 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>84522.1019600244</v>
+        <v>47500.20311724138</v>
       </c>
       <c r="C114">
-        <v>14847.45243163552</v>
+        <v>15527.14327544327</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1639,10 +1639,10 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>91015.83998458748</v>
+        <v>54655.24142369156</v>
       </c>
       <c r="C115">
-        <v>12182.59284582727</v>
+        <v>12898.54828698083</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1650,10 +1650,10 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>87039.98670948001</v>
+        <v>51340.68843047122</v>
       </c>
       <c r="C116">
-        <v>12014.48443867221</v>
+        <v>12766.70447717159</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1661,10 +1661,10 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>84648.05147430126</v>
+        <v>49610.05347717959</v>
       </c>
       <c r="C117">
-        <v>12373.61632342187</v>
+        <v>13162.10095926705</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1672,10 +1672,10 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>86149.19705744012</v>
+        <v>51111.19906031845</v>
       </c>
       <c r="C118">
-        <v>10324.85925505945</v>
+        <v>11113.34389090464</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1683,10 +1683,10 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>91534.57206337553</v>
+        <v>55094.8936217462</v>
       </c>
       <c r="C119">
-        <v>19655.47256643108</v>
+        <v>19038.12986253002</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1694,10 +1694,10 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>92491.24379573319</v>
+        <v>54649.88490959621</v>
       </c>
       <c r="C120">
-        <v>18829.64859211207</v>
+        <v>16806.47854846477</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1705,10 +1705,10 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>97228.80838654836</v>
+        <v>57985.76905590374</v>
       </c>
       <c r="C121">
-        <v>21354.83647856852</v>
+        <v>17925.83909517498</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1716,10 +1716,10 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>91510.33111904275</v>
+        <v>50865.61134389049</v>
       </c>
       <c r="C122">
-        <v>18547.65652566404</v>
+        <v>13712.83180252425</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1727,10 +1727,10 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>92725.07109440758</v>
+        <v>50678.6708747477</v>
       </c>
       <c r="C123">
-        <v>23285.05927529754</v>
+        <v>17044.40721241152</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1738,10 +1738,10 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>97104.27794787707</v>
+        <v>53656.19728370951</v>
       </c>
       <c r="C124">
-        <v>18787.34720427925</v>
+        <v>11140.86780164698</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1749,10 +1749,10 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>100641.5142906958</v>
+        <v>57193.43362652822</v>
       </c>
       <c r="C125">
-        <v>20268.86950368005</v>
+        <v>12622.39010104777</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1760,10 +1760,10 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>96776.53456974799</v>
+        <v>54990.44228522636</v>
       </c>
       <c r="C126">
-        <v>19063.333982396</v>
+        <v>11428.90889381255</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1771,10 +1771,10 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>98244.46898736007</v>
+        <v>58120.36508248433</v>
       </c>
       <c r="C127">
-        <v>18916.79555639708</v>
+        <v>11294.42478186244</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1782,10 +1782,10 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>95529.42233725832</v>
+        <v>57067.3068120285</v>
       </c>
       <c r="C128">
-        <v>20866.75045973852</v>
+        <v>13256.4339992527</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1793,10 +1793,10 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>91059.02738174448</v>
+        <v>54258.9002361606</v>
       </c>
       <c r="C129">
-        <v>22346.24881789789</v>
+        <v>14747.98667146089</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1804,10 +1804,10 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>90419.31267535992</v>
+        <v>55281.17390942194</v>
       </c>
       <c r="C130">
-        <v>21560.90828433965</v>
+        <v>13974.70045195147</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1815,10 +1815,10 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>96295.18875661131</v>
+        <v>62819.03837031926</v>
       </c>
       <c r="C131">
-        <v>26807.63703474589</v>
+        <v>19233.48351640654</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1826,10 +1826,10 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>97747.93921969287</v>
+        <v>64271.7888334008</v>
       </c>
       <c r="C132">
-        <v>19014.01491155407</v>
+        <v>11439.86139321471</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1837,10 +1837,10 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>88830.78828621312</v>
+        <v>56656.61540043658</v>
       </c>
       <c r="C133">
-        <v>24856.278103247</v>
+        <v>16601.07738335129</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1848,10 +1848,10 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>91440.856644416</v>
+        <v>60568.66125915499</v>
       </c>
       <c r="C134">
-        <v>25446.04038432402</v>
+        <v>16509.79246287196</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1859,10 +1859,10 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>87632.9729132848</v>
+        <v>58062.75502853932</v>
       </c>
       <c r="C135">
-        <v>22434.29390958688</v>
+        <v>12816.99878657846</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1870,10 +1870,10 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>80169.15253672875</v>
+        <v>51900.91215249878</v>
       </c>
       <c r="C136">
-        <v>21752.0754257472</v>
+        <v>11453.73310118242</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1881,10 +1881,10 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>86069.76619081036</v>
+        <v>59103.50330709591</v>
       </c>
       <c r="C137">
-        <v>25738.84103956778</v>
+        <v>14759.45151344664</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1892,10 +1892,10 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>85948.69694917463</v>
+        <v>60284.4115659757</v>
       </c>
       <c r="C138">
-        <v>20850.60896397142</v>
+        <v>9190.172236293925</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1903,10 +1903,10 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>90119.94439340518</v>
+        <v>64455.65901020625</v>
       </c>
       <c r="C139">
-        <v>20935.32885555282</v>
+        <v>9274.892127875333</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1914,10 +1914,10 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>85623.02378127893</v>
+        <v>61433.48942474894</v>
       </c>
       <c r="C140">
-        <v>23511.01092613428</v>
+        <v>11844.39597808505</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1925,10 +1925,10 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>86491.96268809696</v>
+        <v>63777.17935823588</v>
       </c>
       <c r="C141">
-        <v>23126.06336668285</v>
+        <v>11453.27019826188</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1936,10 +1936,10 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>85496.23440839362</v>
+        <v>64256.20210520145</v>
       </c>
       <c r="C142">
-        <v>16959.24913915773</v>
+        <v>5280.277750365019</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1947,10 +1947,10 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>83565.63376886738</v>
+        <v>63800.35249234413</v>
       </c>
       <c r="C143">
-        <v>23137.91529078795</v>
+        <v>11452.7656816235</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1958,10 +1958,10 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>88787.85810943751</v>
+        <v>70497.32785958319</v>
       </c>
       <c r="C144">
-        <v>21862.12733922965</v>
+        <v>10170.79950969346</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1969,10 +1969,10 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>86107.19164973099</v>
+        <v>69291.41242654559</v>
       </c>
       <c r="C145">
-        <v>23534.08555472572</v>
+        <v>11836.57950481779</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1980,10 +1980,10 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>84665.95955188856</v>
+        <v>67850.18032870317</v>
       </c>
       <c r="C146">
-        <v>20147.49837808402</v>
+        <v>8449.992328176086</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -1991,10 +1991,10 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>87810.46265520871</v>
+        <v>70533.48094879945</v>
       </c>
       <c r="C147">
-        <v>17540.28692291102</v>
+        <v>5944.311535513574</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2002,10 +2002,10 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>80391.24453913535</v>
+        <v>62653.06034950222</v>
       </c>
       <c r="C148">
-        <v>24179.4355685286</v>
+        <v>12684.99084364164</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2013,10 +2013,10 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>81653.51399901698</v>
+        <v>63454.12732615999</v>
       </c>
       <c r="C149">
-        <v>17190.7165894618</v>
+        <v>5797.802527085323</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2024,10 +2024,10 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>88800.67327895355</v>
+        <v>70140.08412287269</v>
       </c>
       <c r="C150">
-        <v>19577.71294149024</v>
+        <v>8286.32954162426</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2035,10 +2035,10 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>84402.5388215025</v>
+        <v>65280.74718219777</v>
       </c>
       <c r="C151">
-        <v>20992.35827230656</v>
+        <v>9802.505534951059</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2046,10 +2046,10 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>86067.21996075523</v>
+        <v>66484.22583822664</v>
       </c>
       <c r="C152">
-        <v>21580.59037102774</v>
+        <v>10492.26829618273</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2057,10 +2057,10 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>85699.25732187342</v>
+        <v>66116.26319934483</v>
       </c>
       <c r="C153">
-        <v>20650.39645208738</v>
+        <v>9562.07437724237</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2068,10 +2068,10 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>89645.05369612291</v>
+        <v>69058.85765894059</v>
       </c>
       <c r="C154">
-        <v>17527.04866178187</v>
+        <v>6433.534139034125</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2079,10 +2079,10 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>82751.33817152378</v>
+        <v>61161.94021968771</v>
       </c>
       <c r="C155">
-        <v>24967.85302729491</v>
+        <v>13869.14605664444</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2090,10 +2090,10 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>83956.8234326169</v>
+        <v>61364.22356612709</v>
       </c>
       <c r="C156">
-        <v>20375.81980234922</v>
+        <v>9271.920383796016</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2101,10 +2101,10 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>90063.43358410205</v>
+        <v>66467.63180295851</v>
       </c>
       <c r="C157">
-        <v>21974.1472756726</v>
+        <v>10865.05540921667</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2112,10 +2112,10 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>92402.34776168427</v>
+        <v>67803.34406588697</v>
       </c>
       <c r="C158">
-        <v>24280.79381880958</v>
+        <v>13166.50950445092</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2123,10 +2123,10 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>87842.34932572737</v>
+        <v>62240.14371527634</v>
       </c>
       <c r="C159">
-        <v>21793.93352816177</v>
+        <v>10674.45676590038</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2134,10 +2134,10 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>80763.75113307525</v>
+        <v>55161.5455226242</v>
       </c>
       <c r="C160">
-        <v>22140.96805227646</v>
+        <v>11021.49129001507</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2145,10 +2145,10 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>89029.95348451326</v>
+        <v>62828.04410212653</v>
       </c>
       <c r="C161">
-        <v>20188.55814280153</v>
+        <v>9086.971737011871</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2156,10 +2156,10 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>94016.7440144679</v>
+        <v>67215.13086014545</v>
       </c>
       <c r="C162">
-        <v>21692.42137111693</v>
+        <v>10608.72532179899</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2167,10 +2167,10 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>86815.618157976</v>
+        <v>59414.30123171787</v>
       </c>
       <c r="C163">
-        <v>17130.10136442319</v>
+        <v>6064.295671576972</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2178,10 +2178,10 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>96635.76031762541</v>
+        <v>68634.73961943158</v>
       </c>
       <c r="C164">
-        <v>19308.16746454803</v>
+        <v>8260.252128173544</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2189,10 +2189,10 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>91479.68145218368</v>
+        <v>62878.95698205414</v>
       </c>
       <c r="C165">
-        <v>24954.61532386387</v>
+        <v>13924.59034396111</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2200,10 +2200,10 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>89695.07100799472</v>
+        <v>60494.64276592949</v>
       </c>
       <c r="C166">
-        <v>23754.56250087839</v>
+        <v>12742.42787744735</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2211,10 +2211,10 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>88510.97036387312</v>
+        <v>59310.54212180789</v>
       </c>
       <c r="C167">
-        <v>22879.45954192436</v>
+        <v>11867.32491849333</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2222,10 +2222,10 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>93219.58847815088</v>
+        <v>64859.95367712962</v>
       </c>
       <c r="C168">
-        <v>20464.81588075189</v>
+        <v>9493.942988255596</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2233,10 +2233,10 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>87567.84941741126</v>
+        <v>60049.00805743398</v>
       </c>
       <c r="C169">
-        <v>21147.29239265204</v>
+        <v>10217.68123109049</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2244,10 +2244,10 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>90685.98999650031</v>
+        <v>64007.942077567</v>
       </c>
       <c r="C170">
-        <v>19926.74634494723</v>
+        <v>9038.39691432043</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2255,10 +2255,10 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>92066.65880698613</v>
+        <v>66229.40432909678</v>
       </c>
       <c r="C171">
-        <v>22827.26249322311</v>
+        <v>11980.17479353104</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2266,10 +2266,10 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>96275.65973446956</v>
+        <v>71279.19869762418</v>
       </c>
       <c r="C172">
-        <v>19699.26942825324</v>
+        <v>8893.44345949592</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2277,10 +2277,10 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>92036.32084488914</v>
+        <v>67880.65324908773</v>
       </c>
       <c r="C173">
-        <v>18848.58533909346</v>
+        <v>8084.021101270879</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2288,10 +2288,10 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>85137.42333976271</v>
+        <v>60981.75574396129</v>
       </c>
       <c r="C174">
-        <v>22232.56892762045</v>
+        <v>11468.00468979787</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2299,10 +2299,10 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>85015.17133099996</v>
+        <v>61906.04609348424</v>
       </c>
       <c r="C175">
-        <v>23333.89612164041</v>
+        <v>12666.13758266482</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2310,10 +2310,10 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>88632.19505579706</v>
+        <v>66569.61217656707</v>
       </c>
       <c r="C176">
-        <v>21939.80698529032</v>
+        <v>11368.85414516171</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2321,10 +2321,10 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>90524.43451286895</v>
+        <v>69508.39399192466</v>
       </c>
       <c r="C177">
-        <v>16614.33509278223</v>
+        <v>6140.187951500609</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2332,10 +2332,10 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>81511.16577059394</v>
+        <v>61541.66760793536</v>
       </c>
       <c r="C178">
-        <v>13447.27840479752</v>
+        <v>3069.936962362888</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2343,10 +2343,10 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>85474.43111785233</v>
+        <v>66551.47531347947</v>
       </c>
       <c r="C179">
-        <v>21877.40228364719</v>
+        <v>11596.86654005955</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2354,10 +2354,10 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>84317.08185809877</v>
+        <v>66440.66841201161</v>
       </c>
       <c r="C180">
-        <v>20734.37228952601</v>
+        <v>10550.64224478535</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2365,10 +2365,10 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>84859.59722925664</v>
+        <v>66983.18378316949</v>
       </c>
       <c r="C181">
-        <v>21966.99663497331</v>
+        <v>11783.26659023264</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2376,10 +2376,10 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>81421.40164219822</v>
+        <v>63533.49815701236</v>
       </c>
       <c r="C182">
-        <v>19658.74147757572</v>
+        <v>9515.650934472738</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2387,10 +2387,10 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>88451.53310041894</v>
+        <v>70552.13957613439</v>
       </c>
       <c r="C183">
-        <v>21837.67764340138</v>
+        <v>11735.22660193608</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2398,10 +2398,10 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>86417.42473472995</v>
+        <v>68506.5411713467</v>
       </c>
       <c r="C184">
-        <v>20843.39759589102</v>
+        <v>10781.58605606341</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2409,10 +2409,10 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>83059.7483324989</v>
+        <v>65137.37473001696</v>
       </c>
       <c r="C185">
-        <v>25258.76317666744</v>
+        <v>15237.59113847751</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2420,10 +2420,10 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>85041.57117945622</v>
+        <v>67107.70753787557</v>
       </c>
       <c r="C186">
-        <v>16970.12619431064</v>
+        <v>6989.5936577584</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2431,10 +2431,10 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>86031.12559294904</v>
+        <v>68085.77191226972</v>
       </c>
       <c r="C187">
-        <v>22449.20776207252</v>
+        <v>12509.31472715796</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2442,10 +2442,10 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>84600.09594159595</v>
+        <v>66654.74226091662</v>
       </c>
       <c r="C188">
-        <v>19142.22595367735</v>
+        <v>9202.33291876279</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2453,10 +2453,10 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>81228.42367406345</v>
+        <v>62981.53378834498</v>
       </c>
       <c r="C189">
-        <v>21588.46744248153</v>
+        <v>11697.12820812354</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2464,10 +2464,10 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>92448.916126015</v>
+        <v>73900.4900352574</v>
       </c>
       <c r="C190">
-        <v>22268.03937333551</v>
+        <v>12425.25393953408</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2475,10 +2475,10 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>84170.65136465585</v>
+        <v>65320.6890688591</v>
       </c>
       <c r="C191">
-        <v>20039.9760106188</v>
+        <v>10245.74437737393</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2486,10 +2486,10 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>84767.28325238917</v>
+        <v>65615.78475155331</v>
       </c>
       <c r="C192">
-        <v>18566.08157599015</v>
+        <v>8820.403743301857</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2497,10 +2497,10 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>88349.7399420844</v>
+        <v>68896.7052362094</v>
       </c>
       <c r="C193">
-        <v>23141.52268423816</v>
+        <v>13444.39865210643</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2508,10 +2508,10 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>84761.67176130685</v>
+        <v>65007.10085039272</v>
       </c>
       <c r="C194">
-        <v>14773.37134385611</v>
+        <v>5124.801112280942</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2519,10 +2519,10 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>85448.85622630021</v>
+        <v>65694.28531538609</v>
       </c>
       <c r="C195">
-        <v>22065.79360673865</v>
+        <v>12417.22337516349</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2530,10 +2530,10 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>83409.44363244012</v>
+        <v>63550.12513306041</v>
       </c>
       <c r="C196">
-        <v>21083.84382311649</v>
+        <v>11508.25587603889</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2541,10 +2541,10 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>81782.27198722011</v>
+        <v>61818.20589937483</v>
       </c>
       <c r="C197">
-        <v>20185.03125431239</v>
+        <v>10682.42559173236</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2552,10 +2552,10 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>80548.19642290253</v>
+        <v>60479.38274659168</v>
       </c>
       <c r="C198">
-        <v>20861.76714542599</v>
+        <v>11432.14376734353</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2563,10 +2563,10 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>76747.55614064755</v>
+        <v>56573.9948758711</v>
       </c>
       <c r="C199">
-        <v>22766.43643521342</v>
+        <v>13409.79534162852</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2574,10 +2574,10 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>79455.85763769381</v>
+        <v>59177.54878445178</v>
       </c>
       <c r="C200">
-        <v>19235.22708985365</v>
+        <v>9951.568280766312</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2585,10 +2585,10 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>82397.87106106624</v>
+        <v>62014.81461935862</v>
       </c>
       <c r="C201">
-        <v>18151.00877961805</v>
+        <v>8940.332255028272</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2596,10 +2596,10 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>81537.20706950541</v>
+        <v>61154.15062779779</v>
       </c>
       <c r="C202">
-        <v>17717.74741095004</v>
+        <v>8507.070886360269</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2607,10 +2607,10 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>79334.41554793355</v>
+        <v>59189.43237606699</v>
       </c>
       <c r="C203">
-        <v>22818.51927306039</v>
+        <v>13626.80192192988</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2618,10 +2618,10 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>74536.35837385163</v>
+        <v>54629.44847182614</v>
       </c>
       <c r="C204">
-        <v>19685.72110309209</v>
+        <v>10512.96292542084</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2629,10 +2629,10 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>79746.9401581749</v>
+        <v>60078.10352599046</v>
       </c>
       <c r="C205">
-        <v>22522.91280129813</v>
+        <v>13369.11379708614</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2640,10 +2640,10 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>74891.49175087102</v>
+        <v>55460.72838852766</v>
       </c>
       <c r="C206">
-        <v>18382.09410918642</v>
+        <v>9247.254278433677</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2651,10 +2651,10 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>78942.64658058705</v>
+        <v>59749.95648808476</v>
       </c>
       <c r="C207">
-        <v>20088.35154643255</v>
+        <v>10972.47088913907</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2662,10 +2662,10 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>79361.67146645884</v>
+        <v>60407.05464379761</v>
       </c>
       <c r="C208">
-        <v>19432.96252550728</v>
+        <v>10336.04104167306</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2673,10 +2673,10 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>82146.08877235719</v>
+        <v>63191.47194969597</v>
       </c>
       <c r="C209">
-        <v>20181.27866419988</v>
+        <v>11084.35718036566</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2684,10 +2684,10 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>71855.02534430078</v>
+        <v>52673.93604264772</v>
       </c>
       <c r="C210">
-        <v>18038.64209958903</v>
+        <v>8952.328641208525</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2695,10 +2695,10 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>75658.65652061875</v>
+        <v>56251.09473997384</v>
       </c>
       <c r="C211">
-        <v>16036.77622171396</v>
+        <v>6961.070788787174</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2706,10 +2706,10 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>73008.54618491611</v>
+        <v>53374.51192527934</v>
       </c>
       <c r="C212">
-        <v>21880.20279279892</v>
+        <v>12815.10538532585</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2717,10 +2717,10 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>73019.00962050735</v>
+        <v>53158.50288187875</v>
       </c>
       <c r="C213">
-        <v>16197.9131027033</v>
+        <v>7143.423720683948</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2728,10 +2728,10 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>78934.25103368581</v>
+        <v>58847.27181606537</v>
       </c>
       <c r="C214">
-        <v>16619.85323599616</v>
+        <v>7575.971879430539</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2739,10 +2739,10 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>81431.83029005489</v>
+        <v>61118.37859344262</v>
       </c>
       <c r="C215">
-        <v>17628.08148503786</v>
+        <v>8594.80815392594</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2750,10 +2750,10 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>70574.62108542124</v>
+        <v>50261.16938880897</v>
       </c>
       <c r="C216">
-        <v>14575.43070133444</v>
+        <v>5542.157370222528</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2761,10 +2761,10 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>75483.64402886356</v>
+        <v>55390.6031319739</v>
       </c>
       <c r="C217">
-        <v>16072.69875617292</v>
+        <v>6912.519556381985</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2772,10 +2772,10 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>66914.72038702499</v>
+        <v>47042.09028985797</v>
       </c>
       <c r="C218">
-        <v>14898.42528443239</v>
+        <v>5611.340215962426</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2783,10 +2783,10 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>70349.4301401549</v>
+        <v>50697.21084271047</v>
       </c>
       <c r="C219">
-        <v>18119.04901520528</v>
+        <v>8705.058078056289</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2794,10 +2794,10 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>67201.03279184455</v>
+        <v>47769.22429412276</v>
       </c>
       <c r="C220">
-        <v>15041.75433658867</v>
+        <v>5500.857530760648</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2805,10 +2805,10 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>72556.4551307042</v>
+        <v>53345.05743270502</v>
       </c>
       <c r="C221">
-        <v>19807.77004703287</v>
+        <v>10139.96737252581</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2816,10 +2816,10 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>72818.59292434886</v>
+        <v>53827.60602607228</v>
       </c>
       <c r="C222">
-        <v>21332.81003288018</v>
+        <v>11538.1014896941</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2827,10 +2827,10 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>73105.03841852224</v>
+        <v>54114.05152024566</v>
       </c>
       <c r="C223">
-        <v>20265.34968934028</v>
+        <v>10470.6411461542</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2838,10 +2838,10 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>69740.51708632418</v>
+        <v>50190.36262076264</v>
       </c>
       <c r="C224">
-        <v>18717.07679416439</v>
+        <v>9185.751769270206</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2849,10 +2849,10 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>74220.83510255489</v>
+        <v>54111.51306970838</v>
       </c>
       <c r="C225">
-        <v>17772.14981790684</v>
+        <v>8504.208311304541</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2860,10 +2860,10 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>72898.98800061338</v>
+        <v>52230.49840048188</v>
       </c>
       <c r="C226">
-        <v>17154.29303843331</v>
+        <v>8149.735050122905</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2871,10 +2871,10 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>71579.74317635085</v>
+        <v>50352.08600893439</v>
       </c>
       <c r="C227">
-        <v>17388.56426299592</v>
+        <v>8647.389792977403</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2882,10 +2882,10 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>69725.25095982286</v>
+        <v>47938.42622512143</v>
       </c>
       <c r="C228">
-        <v>17493.11714925911</v>
+        <v>9015.326197532482</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2893,10 +2893,10 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>73509.6440473611</v>
+        <v>51163.6517453747</v>
       </c>
       <c r="C229">
-        <v>14819.74485778869</v>
+        <v>6605.337424353961</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2904,10 +2904,10 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>71912.13050282515</v>
+        <v>49566.13820083876</v>
       </c>
       <c r="C230">
-        <v>14754.55940015711</v>
+        <v>6540.151966722382</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2915,10 +2915,10 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>61736.36445356903</v>
+        <v>40079.24621194934</v>
       </c>
       <c r="C231">
-        <v>16754.30160434154</v>
+        <v>8964.405990129961</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -2926,10 +2926,10 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>65883.6680099263</v>
+        <v>44915.42382867332</v>
       </c>
       <c r="C232">
-        <v>15265.80542356393</v>
+        <v>7900.421628575503</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -2937,10 +2937,10 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>66561.63261920183</v>
+        <v>46282.26249831555</v>
       </c>
       <c r="C233">
-        <v>16262.55708261106</v>
+        <v>9321.685106845795</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -2948,10 +2948,10 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>70174.13002336191</v>
+        <v>50583.63396284235</v>
       </c>
       <c r="C234">
-        <v>12200.07224848495</v>
+        <v>5683.71209194284</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -2959,10 +2959,10 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>63902.91921671297</v>
+        <v>45001.29721656011</v>
       </c>
       <c r="C235">
-        <v>10495.71519511964</v>
+        <v>4403.866857800675</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -2970,10 +2970,10 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>65807.49499437244</v>
+        <v>47594.74705458628</v>
       </c>
       <c r="C236">
-        <v>13959.3499754478</v>
+        <v>8292.013457351992</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -2981,10 +2981,10 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>64590.09836389198</v>
+        <v>46377.35042410583</v>
       </c>
       <c r="C237">
-        <v>13373.24460369226</v>
+        <v>7705.908085596453</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -2992,10 +2992,10 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>59991.35825636042</v>
+        <v>42156.54126012263</v>
       </c>
       <c r="C238">
-        <v>10919.33365098669</v>
+        <v>5227.544901419788</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3003,10 +3003,10 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>59355.40865739118</v>
+        <v>41898.52260470172</v>
       </c>
       <c r="C239">
-        <v>12631.05361632034</v>
+        <v>6914.812635282337</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3014,10 +3014,10 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>61401.58948393672</v>
+        <v>44322.63437479562</v>
       </c>
       <c r="C240">
-        <v>10929.39597638506</v>
+        <v>5188.702763875955</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3025,10 +3025,10 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>58736.17515879705</v>
+        <v>42035.15099320429</v>
       </c>
       <c r="C241">
-        <v>10063.5466316476</v>
+        <v>4298.401187667399</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3036,10 +3036,10 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>61829.73258432688</v>
+        <v>45506.63936228246</v>
       </c>
       <c r="C242">
-        <v>15219.74568992183</v>
+        <v>9430.148014470524</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3047,10 +3047,10 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>59404.21964015307</v>
+        <v>43459.05736165701</v>
       </c>
       <c r="C243">
-        <v>11084.37333044005</v>
+        <v>5270.323423517646</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3058,10 +3058,10 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>52579.51769904859</v>
+        <v>36634.35542055253</v>
       </c>
       <c r="C244">
-        <v>8842.832423529197</v>
+        <v>3028.782516606795</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3069,10 +3069,10 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>57130.36511362308</v>
+        <v>41557.36255840261</v>
       </c>
       <c r="C245">
-        <v>10468.57561519414</v>
+        <v>4712.260087982687</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3080,10 +3080,10 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>54549.84609638521</v>
+        <v>39349.00326444032</v>
       </c>
       <c r="C246">
-        <v>12378.35061456907</v>
+        <v>6679.769467068579</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3091,10 +3091,10 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>59334.3014821076</v>
+        <v>44505.61837343829</v>
       </c>
       <c r="C247">
-        <v>13934.93362725753</v>
+        <v>8294.086859467996</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3102,10 +3102,10 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>49647.20381649357</v>
+        <v>35190.68043109986</v>
       </c>
       <c r="C248">
-        <v>6388.804360013562</v>
+        <v>805.6919719349821</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3113,10 +3113,10 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>49014.63479663778</v>
+        <v>34930.27113451966</v>
       </c>
       <c r="C249">
-        <v>13461.10135820412</v>
+        <v>7935.723349836493</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3124,10 +3124,10 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>57021.44044480673</v>
+        <v>43309.2365059642</v>
       </c>
       <c r="C250">
-        <v>14313.42249202539</v>
+        <v>8845.778863368716</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3135,10 +3135,10 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>54836.68881801915</v>
+        <v>41124.48487917662</v>
       </c>
       <c r="C251">
-        <v>8681.120447248393</v>
+        <v>3213.476818591723</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3146,10 +3146,10 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>55709.89273603265</v>
+        <v>42239.06966450272</v>
       </c>
       <c r="C252">
-        <v>9446.782802330168</v>
+        <v>3582.536781607887</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3157,10 +3157,10 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>57711.9088596592</v>
+        <v>44482.4666554419</v>
       </c>
       <c r="C253">
-        <v>12805.539943943</v>
+        <v>6544.691531155109</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3168,10 +3168,10 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>55539.72171623132</v>
+        <v>42551.66037932663</v>
       </c>
       <c r="C254">
-        <v>5529.184247042408</v>
+        <v>-1128.26655781109</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3179,10 +3179,10 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>53834.0164322253</v>
+        <v>41087.33596263323</v>
       </c>
       <c r="C255">
-        <v>11915.92691548893</v>
+        <v>4861.873718569826</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3190,10 +3190,10 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>54391.34777983216</v>
+        <v>41886.0481775527</v>
       </c>
       <c r="C256">
-        <v>13198.1901983115</v>
+        <v>5747.534609326784</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3201,10 +3201,10 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>57073.39360851746</v>
+        <v>44809.47487355063</v>
       </c>
       <c r="C257">
-        <v>12237.14884651149</v>
+        <v>4389.890865461169</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3212,10 +3212,10 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>51123.75717007051</v>
+        <v>38859.83843510367</v>
       </c>
       <c r="C258">
-        <v>9829.163461880835</v>
+        <v>1981.905480830511</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3223,10 +3223,10 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>50929.2722489583</v>
+        <v>39660.14198287547</v>
       </c>
       <c r="C259">
-        <v>9626.494234896245</v>
+        <v>2271.1281165906</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3234,10 +3234,10 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>42359.25706779842</v>
+        <v>32084.91527059957</v>
       </c>
       <c r="C260">
-        <v>8582.037487179536</v>
+        <v>1718.563231618566</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3245,10 +3245,10 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>47356.88836353677</v>
+        <v>38077.33503522191</v>
       </c>
       <c r="C261">
-        <v>12076.0973650313</v>
+        <v>5704.514972215009</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3256,10 +3256,10 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>42597.48876202697</v>
+        <v>34312.7239025961</v>
       </c>
       <c r="C262">
-        <v>9084.724772997975</v>
+        <v>3205.034242926363</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3267,10 +3267,10 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>39967.68889852627</v>
+        <v>32677.7125079794</v>
       </c>
       <c r="C263">
-        <v>5955.385269866298</v>
+        <v>567.5866025393632</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3278,10 +3278,10 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>35303.28998236851</v>
+        <v>29008.10206070563</v>
       </c>
       <c r="C264">
-        <v>7848.77863795233</v>
+        <v>2952.871833370074</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3289,10 +3289,10 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>38847.98068851109</v>
+        <v>32552.7927668482</v>
       </c>
       <c r="C265">
-        <v>3407.234057919096</v>
+        <v>-1488.672746663159</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3300,10 +3300,10 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>41244.96655322736</v>
+        <v>35675.58689946078</v>
       </c>
       <c r="C266">
-        <v>8041.360081995143</v>
+        <v>3313.438652348471</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3311,10 +3311,10 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>45192.6806529169</v>
+        <v>40349.10926704663</v>
       </c>
       <c r="C267">
-        <v>6468.103384870627</v>
+        <v>1908.167330159539</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3322,10 +3322,10 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>41948.35102714071</v>
+        <v>37830.58790916676</v>
       </c>
       <c r="C268">
-        <v>7070.566859787161</v>
+        <v>2678.616180011656</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3333,10 +3333,10 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>42044.56053150449</v>
+        <v>38652.60568142684</v>
       </c>
       <c r="C269">
-        <v>7319.457979150913</v>
+        <v>3095.492674310993</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3344,10 +3344,10 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>35711.70150061919</v>
+        <v>33045.55491843786</v>
       </c>
       <c r="C270">
-        <v>5542.677239922807</v>
+        <v>1486.69731001847</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3355,10 +3355,10 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>38823.53743576591</v>
+        <v>36883.19912148089</v>
       </c>
       <c r="C271">
-        <v>2569.079015656684</v>
+        <v>-1318.915539312068</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3366,10 +3366,10 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>31825.69259485669</v>
+        <v>29885.35428057166</v>
       </c>
       <c r="C272">
-        <v>1170.555966387506</v>
+        <v>-2717.438588581246</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3377,10 +3377,10 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>37470.33969787953</v>
+        <v>36291.83440543574</v>
       </c>
       <c r="C273">
-        <v>1145.768744369534</v>
+        <v>-2341.310549970453</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3388,10 +3388,10 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>37780.0399715703</v>
+        <v>37363.36770096775</v>
       </c>
       <c r="C274">
-        <v>3095.016586389766</v>
+        <v>8.852552678541997</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3399,10 +3399,10 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>29356.97015414195</v>
+        <v>29702.13090538064</v>
       </c>
       <c r="C275">
-        <v>4183.196078381293</v>
+        <v>1497.947305298833</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3410,10 +3410,10 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>27301.90046405683</v>
+        <v>28408.89423713676</v>
       </c>
       <c r="C276">
-        <v>6765.695802920774</v>
+        <v>4481.36229046708</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3421,10 +3421,10 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>27221.41543982377</v>
+        <v>29090.24223474493</v>
       </c>
       <c r="C277">
-        <v>800.6048784209534</v>
+        <v>-1082.813373403977</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3432,10 +3432,10 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>33287.78853599849</v>
+        <v>35918.4483527609</v>
       </c>
       <c r="C278">
-        <v>2586.195081907003</v>
+        <v>1103.692090710837</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3443,10 +3443,10 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>33514.65366646468</v>
+        <v>36145.31348322708</v>
       </c>
       <c r="C279">
-        <v>1856.842164865154</v>
+        <v>374.3391736689882</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3454,10 +3454,10 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>28447.2732301254</v>
+        <v>31481.51979843648</v>
       </c>
       <c r="C280">
-        <v>10.61211596706335</v>
+        <v>-1362.452369633217</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3465,10 +3465,10 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>27852.83411035412</v>
+        <v>31290.66743021387</v>
       </c>
       <c r="C281">
-        <v>208.6788323798969</v>
+        <v>-1054.947147624498</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3476,10 +3476,10 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>26040.6233140733</v>
+        <v>29882.04338548173</v>
       </c>
       <c r="C282">
-        <v>4844.029427848884</v>
+        <v>3689.841953440374</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3487,10 +3487,10 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>21626.38304759837</v>
+        <v>25871.38987055547</v>
       </c>
       <c r="C283">
-        <v>2167.80174518391</v>
+        <v>1123.052776371285</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3498,10 +3498,10 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>26784.03868456346</v>
+        <v>31432.63225906924</v>
       </c>
       <c r="C284">
-        <v>1417.268089277477</v>
+        <v>481.9576260607383</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3509,10 +3509,10 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>27811.02580178906</v>
+        <v>32863.20612784351</v>
       </c>
       <c r="C285">
-        <v>3219.767002797733</v>
+        <v>2393.89504517688</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3520,10 +3520,10 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>26546.4532852427</v>
+        <v>31598.63361129715</v>
       </c>
       <c r="C286">
-        <v>2379.006755319569</v>
+        <v>1553.134797698716</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3531,10 +3531,10 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>28854.91017349177</v>
+        <v>32536.74480155521</v>
       </c>
       <c r="C287">
-        <v>3125.206094906485</v>
+        <v>2271.737349057265</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3542,10 +3542,10 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>28075.31832994384</v>
+        <v>30386.80726001626</v>
       </c>
       <c r="C288">
-        <v>-1156.687192792622</v>
+        <v>-2037.752726870209</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3553,10 +3553,10 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>29023.39067058865</v>
+        <v>29964.53390267006</v>
       </c>
       <c r="C289">
-        <v>3469.741868149086</v>
+        <v>2561.079545843133</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3564,10 +3564,10 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>29270.88790593236</v>
+        <v>28841.68544002276</v>
       </c>
       <c r="C290">
-        <v>4795.088131790988</v>
+        <v>3858.829021256667</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3575,10 +3575,10 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>27151.10664924983</v>
+        <v>25351.55848534921</v>
       </c>
       <c r="C291">
-        <v>3957.563514672187</v>
+        <v>2993.7076159095</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3586,10 +3586,10 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>31473.49589438993</v>
+        <v>28303.6020324983</v>
       </c>
       <c r="C292">
-        <v>3757.24815168886</v>
+        <v>2765.795464697806</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3597,10 +3597,10 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>31514.64027932296</v>
+        <v>28344.74641743133</v>
       </c>
       <c r="C293">
-        <v>5147.290181485118</v>
+        <v>4155.837494494064</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3608,10 +3608,10 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>31056.45733746759</v>
+        <v>27924.34391429514</v>
       </c>
       <c r="C294">
-        <v>670.3309546351163</v>
+        <v>-280.2457098147635</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3619,10 +3619,10 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>30668.89850186527</v>
+        <v>27574.56551741201</v>
       </c>
       <c r="C295">
-        <v>-850.84253109205</v>
+        <v>-1760.543173000756</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3630,10 +3630,10 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>30598.68428653588</v>
+        <v>27542.13174080181</v>
       </c>
       <c r="C296">
-        <v>3001.599935611913</v>
+        <v>2132.77531624438</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3641,10 +3641,10 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>36017.08609667422</v>
+        <v>32998.31398965933</v>
       </c>
       <c r="C297">
-        <v>-2350.193739113831</v>
+        <v>-3178.14233594019</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -3652,10 +3652,10 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>29352.40864609869</v>
+        <v>26371.416977803</v>
       </c>
       <c r="C298">
-        <v>2892.37656138985</v>
+        <v>2105.303987104665</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3663,10 +3663,10 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>31321.77621125918</v>
+        <v>28378.56498168267</v>
       </c>
       <c r="C299">
-        <v>3274.026113603844</v>
+        <v>2527.829561859833</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3674,10 +3674,10 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>26399.83507450343</v>
+        <v>23456.62384492692</v>
       </c>
       <c r="C300">
-        <v>2906.733147424377</v>
+        <v>2160.536595680366</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3685,10 +3685,10 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>30488.57789839189</v>
+        <v>26005.74638067882</v>
       </c>
       <c r="C301">
-        <v>2827.286114702784</v>
+        <v>1761.886254091398</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3696,10 +3696,10 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>32230.25870169097</v>
+        <v>26207.80689584134</v>
       </c>
       <c r="C302">
-        <v>-27.11376229643975</v>
+        <v>-1411.7169317752</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3707,10 +3707,10 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>34279.64555128465</v>
+        <v>26717.57345729847</v>
       </c>
       <c r="C303">
-        <v>782.835442922126</v>
+        <v>-920.9710354240085</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -3718,10 +3718,10 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>34526.28310072874</v>
+        <v>25424.59071860599</v>
       </c>
       <c r="C304">
-        <v>388.6428357398959</v>
+        <v>-1634.366951473613</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -3729,10 +3729,10 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>37553.19527756917</v>
+        <v>26911.88260730987</v>
       </c>
       <c r="C305">
-        <v>5540.767741483181</v>
+        <v>3198.554645402298</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -3740,10 +3740,10 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>29028.69456696086</v>
+        <v>16847.761608565</v>
       </c>
       <c r="C306">
-        <v>7964.088968726502</v>
+        <v>5302.672563778245</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -3751,10 +3751,10 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>34929.12265891779</v>
+        <v>22748.18970052193</v>
       </c>
       <c r="C307">
-        <v>4842.556327211036</v>
+        <v>2181.139922262779</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -3762,10 +3762,10 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>34576.33326381049</v>
+        <v>23053.53269579089</v>
       </c>
       <c r="C308">
-        <v>5138.75665685079</v>
+        <v>2424.855261727913</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -3773,10 +3773,10 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>30405.30299539536</v>
+        <v>19540.63481775201</v>
       </c>
       <c r="C309">
-        <v>1252.988042069492</v>
+        <v>-1513.398343228007</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -3784,10 +3784,10 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>31503.58406375457</v>
+        <v>21297.04827648748</v>
       </c>
       <c r="C310">
-        <v>2189.44589643631</v>
+        <v>-629.4254790358087</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -3795,10 +3795,10 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>32907.5873706707</v>
+        <v>23359.18397377987</v>
       </c>
       <c r="C311">
-        <v>393.2136933688939</v>
+        <v>-2478.142672277846</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -3806,10 +3806,10 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>32623.38696006059</v>
+        <v>23733.11595354602</v>
       </c>
       <c r="C312">
-        <v>6616.453151592958</v>
+        <v>3692.611795771596</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -3817,10 +3817,10 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>29733.8341212557</v>
+        <v>21501.69550511739</v>
       </c>
       <c r="C313">
-        <v>4767.928948836633</v>
+        <v>1791.602602840651</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -3828,10 +3828,10 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>34199.09856873808</v>
+        <v>25966.95995259977</v>
       </c>
       <c r="C314">
-        <v>2970.763790029971</v>
+        <v>-5.562555966010791</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -3839,10 +3839,10 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>30261.13964763147</v>
+        <v>21153.3116768248</v>
       </c>
       <c r="C315">
-        <v>6513.74811904089</v>
+        <v>3457.453069367059</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -3850,10 +3850,10 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>32165.47898300521</v>
+        <v>22181.96165753018</v>
       </c>
       <c r="C316">
-        <v>2624.589112114825</v>
+        <v>-511.6746412368537</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -3861,10 +3861,10 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>26688.59267601048</v>
+        <v>15829.3859958671</v>
       </c>
       <c r="C317">
-        <v>1838.945391750792</v>
+        <v>-1377.287065278736</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -3872,10 +3872,10 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>28206.89341722502</v>
+        <v>16471.99738241329</v>
       </c>
       <c r="C318">
-        <v>6567.696017443078</v>
+        <v>3271.494856735702</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -3883,10 +3883,10 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>37422.34654261252</v>
+        <v>24811.76115313244</v>
       </c>
       <c r="C319">
-        <v>4961.478986710416</v>
+        <v>1585.309122325192</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -3894,10 +3894,10 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>30841.26784997175</v>
+        <v>17354.99310582331</v>
       </c>
       <c r="C320">
-        <v>3639.436400940393</v>
+        <v>183.297832877321</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -3905,10 +3905,10 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>32080.37391521548</v>
+        <v>18594.09917106703</v>
       </c>
       <c r="C321">
-        <v>5490.145851191369</v>
+        <v>2034.007283128296</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -3916,10 +3916,10 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>35142.84193302982</v>
+        <v>21480.20485277129</v>
       </c>
       <c r="C322">
-        <v>5558.118156001856</v>
+        <v>1978.604121276574</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -3927,10 +3927,10 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>40746.21946311266</v>
+        <v>26907.22004674405</v>
       </c>
       <c r="C323">
-        <v>2862.080981038427</v>
+        <v>-840.8085203490642</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -3938,10 +3938,10 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>44919.4778658786</v>
+        <v>30904.11611339989</v>
       </c>
       <c r="C324">
-        <v>3960.318460976292</v>
+        <v>134.0534929265906</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -3949,10 +3949,10 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>43444.37853399316</v>
+        <v>29252.65444540435</v>
       </c>
       <c r="C325">
-        <v>-11.86487114866122</v>
+        <v>-3961.505305860572</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -3960,10 +3960,10 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>51788.020684546</v>
+        <v>37419.93425984711</v>
       </c>
       <c r="C326">
-        <v>6621.931233977326</v>
+        <v>2548.915332603207</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -3971,10 +3971,10 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>52370.29424856429</v>
+        <v>37825.84548775532</v>
       </c>
       <c r="C327">
-        <v>7300.479594561284</v>
+        <v>3104.088226524955</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -3982,10 +3982,10 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>50370.01951306209</v>
+        <v>35825.57075225312</v>
       </c>
       <c r="C328">
-        <v>2143.518396048034</v>
+        <v>-2052.872971988295</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -3993,10 +3993,10 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>48735.02354189767</v>
+        <v>35734.44121987969</v>
       </c>
       <c r="C329">
-        <v>1438.632753508705</v>
+        <v>-2474.875612794375</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -4004,10 +4004,10 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>51451.19301016224</v>
+        <v>39994.47712693522</v>
       </c>
       <c r="C330">
-        <v>10500.00931775004</v>
+        <v>6869.383953180209</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -4015,10 +4015,10 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>48017.70471301451</v>
+        <v>38104.85526857849</v>
       </c>
       <c r="C331">
-        <v>5050.042567927491</v>
+        <v>1702.300205090909</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -4026,10 +4026,10 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>48096.95978564713</v>
+        <v>39727.97678000208</v>
       </c>
       <c r="C332">
-        <v>2550.18615379027</v>
+        <v>-514.6732073130644</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -4037,10 +4037,10 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>50599.96185687032</v>
+        <v>43774.84529001624</v>
       </c>
       <c r="C333">
-        <v>5532.366402091994</v>
+        <v>2750.390042721908</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -4048,10 +4048,10 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>49535.51857253004</v>
+        <v>44254.26844446694</v>
       </c>
       <c r="C334">
-        <v>3431.751578712531</v>
+        <v>932.6582210756937</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -4059,10 +4059,10 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>46426.05087214391</v>
+        <v>41144.80074408081</v>
       </c>
       <c r="C335">
-        <v>2717.639522303423</v>
+        <v>218.5461646665851</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -4070,10 +4070,10 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>47397.63516546791</v>
+        <v>44520.62725015208</v>
       </c>
       <c r="C336">
-        <v>5205.072785460468</v>
+        <v>2776.05246131709</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -4081,10 +4081,10 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>37107.95574558595</v>
+        <v>36635.19004301739</v>
       </c>
       <c r="C337">
-        <v>4070.321562544947</v>
+        <v>1711.374271895028</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -4092,10 +4092,10 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>34895.56733474485</v>
+        <v>36827.04384492357</v>
       </c>
       <c r="C338">
-        <v>2059.960006088344</v>
+        <v>-228.9142510681148</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -4103,10 +4103,10 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>34571.43079508891</v>
+        <v>38907.14951801491</v>
       </c>
       <c r="C339">
-        <v>4650.064031880311</v>
+        <v>2431.262808217311</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -4114,10 +4114,10 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>32876.55721217777</v>
+        <v>39616.51814785104</v>
       </c>
       <c r="C340">
-        <v>2481.868118572329</v>
+        <v>333.139928402788</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -4125,10 +4125,10 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>17490.2601039239</v>
+        <v>26634.46325234445</v>
       </c>
       <c r="C341">
-        <v>3835.284771009401</v>
+        <v>1756.62961433332</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -4136,10 +4136,10 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>22416.59402465115</v>
+        <v>31560.7971730717</v>
       </c>
       <c r="C342">
-        <v>214.7227344117823</v>
+        <v>-1863.932422264299</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -4147,10 +4147,10 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>23253.9782730588</v>
+        <v>31580.32625758485</v>
       </c>
       <c r="C343">
-        <v>1792.014012256605</v>
+        <v>-199.0862113081922</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -4158,10 +4158,10 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>28155.35003783236</v>
+        <v>35663.8428584639</v>
       </c>
       <c r="C344">
-        <v>-402.5925452776246</v>
+        <v>-2306.137835731139</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -4169,10 +4169,10 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>20985.54414675246</v>
+        <v>27676.18180348949</v>
       </c>
       <c r="C345">
-        <v>5656.633399445676</v>
+        <v>3840.643042103445</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -4180,10 +4180,10 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>21365.88809507462</v>
+        <v>27238.67058791716</v>
       </c>
       <c r="C346">
-        <v>2455.418651622842</v>
+        <v>726.9832273918943</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -4191,10 +4191,10 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>15785.05245466465</v>
+        <v>20839.97978361267</v>
       </c>
       <c r="C347">
-        <v>3635.107756882149</v>
+        <v>1994.227265762484</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -4202,10 +4202,10 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>27358.28014663207</v>
+        <v>31595.35231168558</v>
       </c>
       <c r="C348">
-        <v>2009.144631408323</v>
+        <v>455.8190733999422</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -4213,10 +4213,10 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>19257.0140086348</v>
+        <v>23494.08617368832</v>
       </c>
       <c r="C349">
-        <v>1986.822177787741</v>
+        <v>433.49661977936</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -4224,10 +4224,10 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>22843.5985777678</v>
+        <v>26311.18609880832</v>
       </c>
       <c r="C350">
-        <v>1520.924124520415</v>
+        <v>172.6053120268364</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -4235,10 +4235,10 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>24598.50027505738</v>
+        <v>27296.6031520849</v>
       </c>
       <c r="C351">
-        <v>4468.716722898311</v>
+        <v>3325.404655919535</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -4246,10 +4246,10 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>27206.40926803835</v>
+        <v>29135.02750105286</v>
       </c>
       <c r="C352">
-        <v>2586.503652362581</v>
+        <v>1648.198330898608</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -4257,10 +4257,10 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>26527.52262529431</v>
+        <v>27686.65621429582</v>
       </c>
       <c r="C353">
-        <v>-761.0038227971704</v>
+        <v>-1494.302398746341</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -4268,10 +4268,10 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>25114.77052060245</v>
+        <v>25504.41946559096</v>
       </c>
       <c r="C354">
-        <v>4706.639361842374</v>
+        <v>4178.347531408006</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -4279,10 +4279,10 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>25954.24748079348</v>
+        <v>25574.41178176899</v>
       </c>
       <c r="C355">
-        <v>1039.957557806602</v>
+        <v>716.672472887037</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -4290,10 +4290,10 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>25923.00024763218</v>
+        <v>25543.16454860769</v>
       </c>
       <c r="C356">
-        <v>1084.237406583055</v>
+        <v>760.95232166349</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -4301,10 +4301,10 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>23075.93360129261</v>
+        <v>23065.4451834529</v>
       </c>
       <c r="C357">
-        <v>426.7854072640453</v>
+        <v>46.68116094077118</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -4312,10 +4312,10 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>17515.07090490773</v>
+        <v>17873.9297682528</v>
       </c>
       <c r="C358">
-        <v>-3101.001322987659</v>
+        <v>-3537.924730714642</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -4323,10 +4323,10 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>22363.88979259035</v>
+        <v>23092.0959371202</v>
       </c>
       <c r="C359">
-        <v>1044.152229475236</v>
+        <v>550.4096603445437</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -4334,10 +4334,10 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>29137.77268612247</v>
+        <v>30235.3261118371</v>
       </c>
       <c r="C360">
-        <v>2703.651586473261</v>
+        <v>2153.08985593886</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -4345,10 +4345,10 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>22552.88925440441</v>
+        <v>24019.78996130381</v>
       </c>
       <c r="C361">
-        <v>1895.843653210002</v>
+        <v>1288.462761271892</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -4356,10 +4356,10 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>27885.3108187385</v>
+        <v>29721.55880682268</v>
       </c>
       <c r="C362">
-        <v>1867.849732648031</v>
+        <v>1203.649679306212</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -4367,10 +4367,10 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>27459.75197449647</v>
+        <v>29295.99996258065</v>
       </c>
       <c r="C363">
-        <v>2067.972001370709</v>
+        <v>1403.77194802889</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -4378,10 +4378,10 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>25964.89162429366</v>
+        <v>27801.13961237784</v>
       </c>
       <c r="C364">
-        <v>399.3648216524898</v>
+        <v>-264.8352316893292</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -4389,10 +4389,10 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>31918.33188996757</v>
+        <v>30672.46605677098</v>
       </c>
       <c r="C365">
-        <v>827.8474614381137</v>
+        <v>29.54565398746809</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -4400,10 +4400,10 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>37631.48136689222</v>
+        <v>33303.50171241487</v>
       </c>
       <c r="C366">
-        <v>-341.976556978143</v>
+        <v>-1274.380118537614</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -4411,10 +4411,10 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>38522.64395651981</v>
+        <v>31112.55048076166</v>
       </c>
       <c r="C367">
-        <v>-77.59872510034256</v>
+        <v>-1144.104040768639</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -4422,10 +4422,10 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>46813.83387053225</v>
+        <v>36321.62657349334</v>
       </c>
       <c r="C368">
-        <v>3985.518841186131</v>
+        <v>2784.911771409008</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -4433,10 +4433,10 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>50958.02101271398</v>
+        <v>37383.6998943943</v>
       </c>
       <c r="C369">
-        <v>3218.337305040074</v>
+        <v>1883.628481154125</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -4444,10 +4444,10 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>57293.50486768029</v>
+        <v>40637.06992807984</v>
       </c>
       <c r="C370">
-        <v>1495.554737126781</v>
+        <v>26.74415913200619</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -4455,10 +4455,10 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>66031.9928026991</v>
+        <v>49375.55786309864</v>
       </c>
       <c r="C371">
-        <v>6172.528515211352</v>
+        <v>4703.717937216577</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -4466,10 +4466,10 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>56014.46662051212</v>
+        <v>38209.03542176858</v>
       </c>
       <c r="C372">
-        <v>2513.505804405437</v>
+        <v>-140.3732186562188</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -4477,10 +4477,10 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>58585.5992832299</v>
+        <v>39631.17182534326</v>
       </c>
       <c r="C373">
-        <v>7498.420255815359</v>
+        <v>3659.472787686822</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -4488,10 +4488,10 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>65754.9830035557</v>
+        <v>45651.55928652596</v>
       </c>
       <c r="C374">
-        <v>8867.643956843725</v>
+        <v>3843.628043648307</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -4499,10 +4499,10 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>60111.6827699291</v>
+        <v>38859.26279375627</v>
       </c>
       <c r="C375">
-        <v>13334.83565601932</v>
+        <v>7125.751297757019</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -4510,10 +4510,10 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>62622.31926124811</v>
+        <v>40220.90302593219</v>
       </c>
       <c r="C376">
-        <v>13806.29055388547</v>
+        <v>6412.137750556292</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -4521,10 +4521,10 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>64555.56367734814</v>
+        <v>41005.15118288911</v>
       </c>
       <c r="C377">
-        <v>16528.24256808931</v>
+        <v>7949.021319693254</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -4532,10 +4532,10 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>57870.57588826705</v>
+        <v>34320.16339380802</v>
       </c>
       <c r="C378">
-        <v>14932.2027091238</v>
+        <v>6352.981460727739</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -4543,10 +4543,10 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>59782.78769748663</v>
+        <v>41727.45447023433</v>
       </c>
       <c r="C379">
-        <v>13573.0941363131</v>
+        <v>6186.108425118777</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -4554,10 +4554,10 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>55199.025912879</v>
+        <v>42638.77195283343</v>
       </c>
       <c r="C380">
-        <v>9288.576354512881</v>
+        <v>3093.826180520297</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -4565,10 +4565,10 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>48200.42987038013</v>
+        <v>41135.25517754129</v>
       </c>
       <c r="C381">
-        <v>10737.65939617454</v>
+        <v>5735.144759383695</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -4576,10 +4576,10 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>50191.75651456946</v>
+        <v>48621.66108893736</v>
       </c>
       <c r="C382">
-        <v>11786.4853054473</v>
+        <v>7976.206205858188</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -4587,10 +4587,10 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>49821.42475756956</v>
+        <v>53746.40859914418</v>
       </c>
       <c r="C383">
-        <v>9592.528062971935</v>
+        <v>6974.484500584566</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -4598,10 +4598,10 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>42562.37008433033</v>
+        <v>51982.43319311169</v>
       </c>
       <c r="C384">
-        <v>5658.064145688219</v>
+        <v>4232.256120502589</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -4609,10 +4609,10 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>38330.44796853128</v>
+        <v>47750.51107731264</v>
       </c>
       <c r="C385">
-        <v>5157.256000191406</v>
+        <v>3731.447975005776</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -4620,10 +4620,10 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>41959.3812175005</v>
+        <v>49672.90118172166</v>
       </c>
       <c r="C386">
-        <v>7459.549071168226</v>
+        <v>5826.480671966618</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -4631,10 +4631,10 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>49105.31894758902</v>
+        <v>55112.29576724998</v>
       </c>
       <c r="C387">
-        <v>8874.671896018819</v>
+        <v>7034.343122801235</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -4642,10 +4642,10 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>51386.49025471333</v>
+        <v>55686.92392981409</v>
       </c>
       <c r="C388">
-        <v>8457.855690575725</v>
+        <v>6410.266543342163</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -4653,10 +4653,10 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>56506.02645459147</v>
+        <v>59099.91698513202</v>
       </c>
       <c r="C389">
-        <v>9647.557115582194</v>
+        <v>7392.707594332656</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -4664,10 +4664,10 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>58866.24230124944</v>
+        <v>59753.58968722978</v>
       </c>
       <c r="C390">
-        <v>6999.478926427834</v>
+        <v>4537.36903116232</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -4675,10 +4675,10 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>63704.75718713221</v>
+        <v>62885.56142855235</v>
       </c>
       <c r="C391">
-        <v>6585.737374091039</v>
+        <v>3916.367104809545</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -4686,10 +4686,10 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>59936.15859872948</v>
+        <v>59116.96284014962</v>
       </c>
       <c r="C392">
-        <v>10614.23483287502</v>
+        <v>7944.864563593528</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -4697,10 +4697,10 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>56690.14086893375</v>
+        <v>58084.12597524803</v>
       </c>
       <c r="C393">
-        <v>4271.118712763655</v>
+        <v>2283.067213041586</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -4708,10 +4708,10 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>55270.94422631567</v>
+        <v>58878.1101975241</v>
       </c>
       <c r="C394">
-        <v>5303.296471666607</v>
+        <v>3996.563741503963</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -4719,10 +4719,10 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>51715.57503543606</v>
+        <v>57535.92187153865</v>
       </c>
       <c r="C395">
-        <v>6168.902590233706</v>
+        <v>5543.488629630486</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -4730,10 +4730,10 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>54042.64988502658</v>
+        <v>62076.17758602331</v>
       </c>
       <c r="C396">
-        <v>4812.441952731476</v>
+        <v>4868.346761687681</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -4741,10 +4741,10 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>53116.96017943825</v>
+        <v>63363.66874532913</v>
       </c>
       <c r="C397">
-        <v>3627.308409807501</v>
+        <v>4364.531988323131</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -4752,10 +4752,10 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>47430.43407403387</v>
+        <v>59890.32350481891</v>
       </c>
       <c r="C398">
-        <v>3820.956210272609</v>
+        <v>5239.498558347664</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -4763,10 +4763,10 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>44253.76649919836</v>
+        <v>56713.6559299834</v>
       </c>
       <c r="C399">
-        <v>3086.553030843432</v>
+        <v>4505.095378918487</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -4774,10 +4774,10 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>45558.65267551402</v>
+        <v>59094.46301758173</v>
       </c>
       <c r="C400">
-        <v>2602.411415509153</v>
+        <v>3888.392012128198</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -4785,10 +4785,10 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>48780.05159839836</v>
+        <v>63391.78285174872</v>
       </c>
       <c r="C401">
-        <v>3660.172464041946</v>
+        <v>4813.591309204981</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -4796,10 +4796,10 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>48188.51867930763</v>
+        <v>63876.17084394065</v>
       </c>
       <c r="C402">
-        <v>3701.885484504736</v>
+        <v>4722.742578211761</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -4807,10 +4807,10 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>45572.76160220959</v>
+        <v>62336.33467812528</v>
       </c>
       <c r="C403">
-        <v>2224.276866038349</v>
+        <v>3112.572208289364</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -4818,10 +4818,10 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>41221.75681810171</v>
+        <v>59061.25080530006</v>
       </c>
       <c r="C404">
-        <v>1247.614643512231</v>
+        <v>2003.348234307237</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -4829,10 +4829,10 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>44105.48630604277</v>
+        <v>63020.90120452379</v>
       </c>
       <c r="C405">
-        <v>1916.214822664411</v>
+        <v>2539.386662003408</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -4840,10 +4840,10 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>38267.78417747866</v>
+        <v>57183.19907595968</v>
       </c>
       <c r="C406">
-        <v>3002.200343027881</v>
+        <v>3625.372182366878</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -4851,10 +4851,10 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>42718.29139765766</v>
+        <v>61984.11478059773</v>
       </c>
       <c r="C407">
-        <v>-355.3788933570313</v>
+        <v>61.64719517129106</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -4862,10 +4862,10 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>44005.00291870301</v>
+        <v>63621.23478610213</v>
       </c>
       <c r="C408">
-        <v>3434.075136673998</v>
+        <v>3644.955474391646</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -4873,10 +4873,10 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>33774.1927965451</v>
+        <v>53740.83314840326</v>
       </c>
       <c r="C409">
-        <v>1070.271398703483</v>
+        <v>1075.005985610457</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -4884,10 +4884,10 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>39730.991244809</v>
+        <v>60048.04008112622</v>
       </c>
       <c r="C410">
-        <v>4014.309374831791</v>
+        <v>3812.898210928091</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -4895,10 +4895,10 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>40416.80809131642</v>
+        <v>61084.2654120927</v>
       </c>
       <c r="C411">
-        <v>6317.256164719831</v>
+        <v>5909.699250005457</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -4906,10 +4906,10 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>42497.64938273648</v>
+        <v>63515.51518797181</v>
       </c>
       <c r="C412">
-        <v>4726.072321733369</v>
+        <v>4112.369656208321</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -4917,10 +4917,10 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>33910.89771297295</v>
+        <v>54928.76351820827</v>
       </c>
       <c r="C413">
-        <v>3671.346066812478</v>
+        <v>3057.64340128743</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -4928,10 +4928,10 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>37290.2893642471</v>
+        <v>57927.11576741051</v>
       </c>
       <c r="C414">
-        <v>3745.237970815781</v>
+        <v>3060.428916967393</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -4939,10 +4939,10 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>31668.27783738029</v>
+        <v>51924.06483847178</v>
       </c>
       <c r="C415">
-        <v>5316.532345832527</v>
+        <v>4560.616903660799</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -4950,10 +4950,10 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>42203.69068742682</v>
+        <v>62078.43828644638</v>
       </c>
       <c r="C416">
-        <v>7585.170091335548</v>
+        <v>6758.148260840479</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -4961,10 +4961,10 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>33660.57177270184</v>
+        <v>53154.27996964949</v>
       </c>
       <c r="C417">
-        <v>3328.811437569538</v>
+        <v>2430.683218751126</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -4972,10 +4972,10 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>34763.74067605291</v>
+        <v>53876.40947092864</v>
       </c>
       <c r="C418">
-        <v>7428.453095781007</v>
+        <v>6459.218488639255</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -4983,10 +4983,10 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>39597.53646715779</v>
+        <v>58329.16585996158</v>
       </c>
       <c r="C419">
-        <v>6346.354424855169</v>
+        <v>5306.013429390076</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -4994,10 +4994,10 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>40822.50349607885</v>
+        <v>59554.13288888264</v>
       </c>
       <c r="C420">
-        <v>2543.74547791788</v>
+        <v>1503.404482452787</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -5005,10 +5005,10 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>38669.50563131274</v>
+        <v>56588.39408625208</v>
       </c>
       <c r="C421">
-        <v>2854.118753599913</v>
+        <v>1362.480699290335</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -5016,10 +5016,10 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>39361.00817754751</v>
+        <v>56467.15569462239</v>
       </c>
       <c r="C422">
-        <v>8737.270843854694</v>
+        <v>6794.33573070063</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -5027,10 +5027,10 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>45604.44371132339</v>
+        <v>61897.8502905338</v>
       </c>
       <c r="C423">
-        <v>7925.132221460975</v>
+        <v>5530.900049462422</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -5038,10 +5038,10 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>44467.59504591858</v>
+        <v>59948.26068726454</v>
       </c>
       <c r="C424">
-        <v>11030.58881449451</v>
+        <v>8185.059583651468</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -5049,10 +5049,10 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>50674.08833161902</v>
+        <v>65342.01303510051</v>
       </c>
       <c r="C425">
-        <v>8101.222216501269</v>
+        <v>4804.395926813741</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -5060,10 +5060,10 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>59421.71175605275</v>
+        <v>73276.89552166979</v>
       </c>
       <c r="C426">
-        <v>11056.33167192927</v>
+        <v>7308.208323397256</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -5071,10 +5071,10 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>51738.10105599414</v>
+        <v>65593.28482161119</v>
       </c>
       <c r="C427">
-        <v>6589.520438816511</v>
+        <v>2841.397090284496</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -5082,10 +5082,10 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>55236.41596835763</v>
+        <v>65524.20573906788</v>
       </c>
       <c r="C428">
-        <v>12084.3128206128</v>
+        <v>8242.006471878174</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -5093,10 +5093,10 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>53461.08041349458</v>
+        <v>60181.47618929805</v>
       </c>
       <c r="C429">
-        <v>10153.30245461607</v>
+        <v>6216.813105678827</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -5104,10 +5104,10 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>64941.06475261579</v>
+        <v>68094.06653351245</v>
       </c>
       <c r="C430">
-        <v>6714.744708288543</v>
+        <v>2684.072359148683</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -5115,10 +5115,10 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>61960.75577931213</v>
+        <v>61546.363565302</v>
       </c>
       <c r="C431">
-        <v>11022.89716339763</v>
+        <v>6898.041814055153</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -5126,10 +5126,10 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>63518.57972346995</v>
+        <v>59536.79351455303</v>
       </c>
       <c r="C432">
-        <v>11690.81620153818</v>
+        <v>7471.777851993093</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -5137,10 +5137,10 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>61955.28399095717</v>
+        <v>54406.10378713346</v>
       </c>
       <c r="C433">
-        <v>13189.92513528643</v>
+        <v>8876.703785538733</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -5148,10 +5148,10 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>65540.72629028819</v>
+        <v>57991.54608646448</v>
       </c>
       <c r="C434">
-        <v>8902.496599247892</v>
+        <v>4589.27524950019</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -5159,10 +5159,10 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>63496.76578737187</v>
+        <v>55006.56251536043</v>
       </c>
       <c r="C435">
-        <v>10492.60277248072</v>
+        <v>5895.907183971893</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -5170,10 +5170,10 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>67559.96751982592</v>
+        <v>58128.74117962672</v>
       </c>
       <c r="C436">
-        <v>13201.9060450103</v>
+        <v>8321.736217740337</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -5181,10 +5181,10 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>71868.41523737162</v>
+        <v>61496.1658289847</v>
       </c>
       <c r="C437">
-        <v>9196.555196638357</v>
+        <v>4032.911130607272</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -5192,10 +5192,10 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>60897.98495100431</v>
+        <v>49584.71247442965</v>
       </c>
       <c r="C438">
-        <v>14039.44723553878</v>
+        <v>8592.328930746566</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -5203,10 +5203,10 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>65214.67275441428</v>
+        <v>52960.37720965187</v>
       </c>
       <c r="C439">
-        <v>12443.13180051894</v>
+        <v>6712.539256965601</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -5214,10 +5214,10 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>75790.41341034224</v>
+        <v>62595.09479739209</v>
       </c>
       <c r="C440">
-        <v>11134.26390737544</v>
+        <v>5120.197125060966</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -5225,10 +5225,10 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>73444.91263301628</v>
+        <v>60249.59402006613</v>
       </c>
       <c r="C441">
-        <v>10689.14490318349</v>
+        <v>4675.078120869024</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -5236,10 +5236,10 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>76941.27975817479</v>
+        <v>62452.76261491015</v>
       </c>
       <c r="C442">
-        <v>16491.92485659858</v>
+        <v>10258.19726187904</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -5247,10 +5247,10 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>76301.03105570711</v>
+        <v>60519.31538212797</v>
       </c>
       <c r="C443">
-        <v>17032.2588820839</v>
+        <v>10578.87047495929</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -5258,10 +5258,10 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>75129.44417658761</v>
+        <v>58054.52997269398</v>
       </c>
       <c r="C444">
-        <v>13024.0818698941</v>
+        <v>6351.032650364414</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -5269,10 +5269,10 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>71470.78011304402</v>
+        <v>53102.66737883591</v>
       </c>
       <c r="C445">
-        <v>15401.77926021732</v>
+        <v>8509.069228282564</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -5280,10 +5280,10 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>72883.96569065357</v>
+        <v>53222.65442613095</v>
       </c>
       <c r="C446">
-        <v>14386.60444705649</v>
+        <v>7274.233602716659</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -5291,10 +5291,10 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>83373.19721551037</v>
+        <v>62418.68742067326</v>
       </c>
       <c r="C447">
-        <v>13829.20044363153</v>
+        <v>6497.168786886625</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -5302,10 +5302,10 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>72111.96887100209</v>
+        <v>51157.45907616498</v>
       </c>
       <c r="C448">
-        <v>16001.81903835805</v>
+        <v>8669.787381613151</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -5313,10 +5313,10 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>76953.52956466857</v>
+        <v>57177.66613606983</v>
       </c>
       <c r="C449">
-        <v>12591.61453160122</v>
+        <v>5623.706372986051</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -5324,10 +5324,10 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>79191.1059685935</v>
+        <v>60593.88890623314</v>
       </c>
       <c r="C450">
-        <v>13932.42498325463</v>
+        <v>7328.640322769193</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -5335,10 +5335,10 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>75966.75331586937</v>
+        <v>58548.18261974738</v>
       </c>
       <c r="C451">
-        <v>19211.35954982262</v>
+        <v>12971.69838746691</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -5346,10 +5346,10 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>70167.36288679787</v>
+        <v>53927.43855691423</v>
       </c>
       <c r="C452">
-        <v>11497.65279927209</v>
+        <v>5622.115135046117</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -5357,10 +5357,10 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>65825.69077985951</v>
+        <v>50764.41281621427</v>
       </c>
       <c r="C453">
-        <v>10050.0958604174</v>
+        <v>4538.681694321145</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -5368,10 +5368,10 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>79122.08412579434</v>
+        <v>65239.45252838747</v>
       </c>
       <c r="C454">
-        <v>13272.80526276254</v>
+        <v>8125.514594796019</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -5379,10 +5379,10 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>75001.45559100722</v>
+        <v>61118.82399360036</v>
       </c>
       <c r="C455">
-        <v>14319.12539650868</v>
+        <v>9171.834728542159</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -5390,10 +5390,10 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>78001.67964710541</v>
+        <v>63048.93384115398</v>
       </c>
       <c r="C456">
-        <v>10301.34547850669</v>
+        <v>4896.897230022654</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -5401,10 +5401,10 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>74304.81598135785</v>
+        <v>58281.95596686185</v>
       </c>
       <c r="C457">
-        <v>15414.5505737623</v>
+        <v>9752.944744760742</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -5412,10 +5412,10 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>74578.35231480275</v>
+        <v>57485.37809176218</v>
       </c>
       <c r="C458">
-        <v>13325.33512805482</v>
+        <v>7406.571718535741</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -5423,10 +5423,10 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>70403.48506014857</v>
+        <v>52240.39662856345</v>
       </c>
       <c r="C459">
-        <v>16800.75786944649</v>
+        <v>10624.8368794099</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -5434,10 +5434,10 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>77713.53118399371</v>
+        <v>58480.32854386403</v>
       </c>
       <c r="C460">
-        <v>16115.44433847457</v>
+        <v>9682.365767920455</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -5445,10 +5445,10 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>79801.79942357444</v>
+        <v>59498.4825749002</v>
       </c>
       <c r="C461">
-        <v>17827.92552182693</v>
+        <v>11137.68937075529</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -5456,10 +5456,10 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>81099.52495435749</v>
+        <v>60796.20810568325</v>
       </c>
       <c r="C462">
-        <v>14251.92580803499</v>
+        <v>7561.68965696335</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -5467,10 +5467,10 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>79271.74031266365</v>
+        <v>58375.70922102054</v>
       </c>
       <c r="C463">
-        <v>17357.8619770248</v>
+        <v>10747.08968871438</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -5478,10 +5478,10 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>84325.61733046723</v>
+        <v>62836.87199585524</v>
       </c>
       <c r="C464">
-        <v>13482.35524629479</v>
+        <v>6951.046820745594</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -5489,10 +5489,10 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>76653.78078533725</v>
+        <v>54572.32120775638</v>
       </c>
       <c r="C465">
-        <v>17301.01594506406</v>
+        <v>10849.17138227608</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -5500,10 +5500,10 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>80811.77030496433</v>
+        <v>58137.59648441459</v>
       </c>
       <c r="C466">
-        <v>15334.10451608615</v>
+        <v>8961.723816059388</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -5511,10 +5511,10 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>79597.76571436215</v>
+        <v>56330.87765084353</v>
       </c>
       <c r="C467">
-        <v>15699.12421175068</v>
+        <v>9406.207374485137</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -5522,10 +5522,10 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>75730.20782777085</v>
+        <v>51870.60552128337</v>
       </c>
       <c r="C468">
-        <v>14881.6630233426</v>
+        <v>8668.210048838275</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -5533,10 +5533,10 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>75146.68935479762</v>
+        <v>51287.08704831014</v>
       </c>
       <c r="C469">
-        <v>14098.20427466879</v>
+        <v>7884.751300164464</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -5544,10 +5544,10 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>77857.18322261937</v>
+        <v>52974.46063879215</v>
       </c>
       <c r="C470">
-        <v>12976.48535102194</v>
+        <v>6550.973539697271</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -5555,10 +5555,10 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>80336.62767613001</v>
+        <v>54430.78481496309</v>
       </c>
       <c r="C471">
-        <v>14244.64426875057</v>
+        <v>7607.073620605561</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -5566,10 +5566,10 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>85139.4205055926</v>
+        <v>58210.45736708592</v>
       </c>
       <c r="C472">
-        <v>17655.65451975014</v>
+        <v>10806.02503478479</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -5577,10 +5577,10 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>84554.2978917773</v>
+        <v>56602.21447593089</v>
       </c>
       <c r="C473">
-        <v>16963.06830505494</v>
+        <v>9901.379983269248</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -5588,10 +5588,10 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>87405.78050108228</v>
+        <v>58430.57680789614</v>
       </c>
       <c r="C474">
-        <v>21484.31444489448</v>
+        <v>14210.56728628845</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -5599,10 +5599,10 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>83492.90571473399</v>
+        <v>53494.58174420814</v>
       </c>
       <c r="C475">
-        <v>18726.15626844861</v>
+        <v>11240.35027302223</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -5610,10 +5610,10 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>82625.70916263518</v>
+        <v>52627.38519210933</v>
       </c>
       <c r="C476">
-        <v>16600.24514760521</v>
+        <v>9114.439152178835</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -5621,10 +5621,10 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>83018.78685113249</v>
+        <v>53208.53971266622</v>
       </c>
       <c r="C477">
-        <v>17917.49537774794</v>
+        <v>10471.55783741253</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -5632,10 +5632,10 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>80716.62271042282</v>
+        <v>51094.45240401615</v>
       </c>
       <c r="C478">
-        <v>24548.75191925212</v>
+        <v>17142.68283400768</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -5643,10 +5643,10 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>82820.79681103019</v>
+        <v>53386.70333668311</v>
       </c>
       <c r="C479">
-        <v>16803.4146363192</v>
+        <v>9437.214006165719</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -5654,10 +5654,10 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>76214.50829398079</v>
+        <v>46968.4916516933</v>
       </c>
       <c r="C480">
-        <v>16707.50151074081</v>
+        <v>9381.169335678294</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -5665,10 +5665,10 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>74597.74067611725</v>
+        <v>45539.80086588932</v>
       </c>
       <c r="C481">
-        <v>21526.13185362201</v>
+        <v>14239.66813365046</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -5676,10 +5676,10 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>80520.48423570242</v>
+        <v>51650.62125753408</v>
       </c>
       <c r="C482">
-        <v>16846.54390766264</v>
+        <v>9599.94864278205</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -5687,10 +5687,10 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>80925.57718981493</v>
+        <v>52055.7142116466</v>
       </c>
       <c r="C483">
-        <v>18698.01880668004</v>
+        <v>11451.42354179945</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -5698,10 +5698,10 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>81991.42003797041</v>
+        <v>53375.61045116512</v>
       </c>
       <c r="C484">
-        <v>15697.39765501186</v>
+        <v>8820.011844367611</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -5709,10 +5709,10 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>76685.09180089911</v>
+        <v>48323.33560545687</v>
       </c>
       <c r="C485">
-        <v>20086.07849073363</v>
+        <v>13577.90213432573</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -5720,10 +5720,10 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>80646.86599208914</v>
+        <v>52539.16318800995</v>
       </c>
       <c r="C486">
-        <v>17343.26988417022</v>
+        <v>11204.30298199865</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -5731,10 +5731,10 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>80099.4852135132</v>
+        <v>52245.83580079704</v>
       </c>
       <c r="C487">
-        <v>18855.41235518453</v>
+        <v>13085.65490724929</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -5742,10 +5742,10 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>83430.31014973225</v>
+        <v>55830.71412837915</v>
       </c>
       <c r="C488">
-        <v>16928.26279053642</v>
+        <v>11527.71479683753</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -5753,10 +5753,10 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>82246.27815136441</v>
+        <v>54900.73552137436</v>
       </c>
       <c r="C489">
-        <v>21503.52736827709</v>
+        <v>16472.18882881453</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -5764,10 +5764,10 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>77578.22180239846</v>
+        <v>50232.6791724084</v>
       </c>
       <c r="C490">
-        <v>17202.60741110993</v>
+        <v>12171.26887164737</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -5775,10 +5775,10 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>82062.13116637367</v>
+        <v>53536.8462433955</v>
       </c>
       <c r="C491">
-        <v>21842.38419785676</v>
+        <v>16891.09835321725</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -5786,10 +5786,10 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>86247.58571597909</v>
+        <v>56542.55850001283</v>
       </c>
       <c r="C492">
-        <v>19347.23227833832</v>
+        <v>14475.99912852186</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -5797,10 +5797,10 @@
         <v>491</v>
       </c>
       <c r="B493">
-        <v>84095.69448575386</v>
+        <v>53210.92497679951</v>
       </c>
       <c r="C493">
-        <v>17512.61428040883</v>
+        <v>12721.43382541543</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -5808,10 +5808,10 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>91542.9346532037</v>
+        <v>59478.42285126126</v>
       </c>
       <c r="C494">
-        <v>18969.75178418159</v>
+        <v>14258.62402401124</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -5819,10 +5819,10 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>88482.62141670095</v>
+        <v>55238.36732177041</v>
       </c>
       <c r="C495">
-        <v>19266.67218677591</v>
+        <v>14635.59712142861</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -5830,10 +5830,10 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>89700.18843476253</v>
+        <v>55276.19204684389</v>
       </c>
       <c r="C496">
-        <v>19828.22383166581</v>
+        <v>15277.20146114156</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -5841,10 +5841,10 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>88509.03512690938</v>
+        <v>54085.03873899073</v>
       </c>
       <c r="C497">
-        <v>20831.42000007928</v>
+        <v>16280.39762955504</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -5852,10 +5852,10 @@
         <v>496</v>
       </c>
       <c r="B498">
-        <v>84129.65383440469</v>
+        <v>50576.0965644785</v>
       </c>
       <c r="C498">
-        <v>17626.55579946337</v>
+        <v>13039.14872400729</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -5863,10 +5863,10 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>87388.68703649167</v>
+        <v>54705.5688845579</v>
       </c>
       <c r="C499">
-        <v>17015.569694061</v>
+        <v>12391.77791367308</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -5874,10 +5874,10 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>81267.37503629187</v>
+        <v>49454.69600235055</v>
       </c>
       <c r="C500">
-        <v>19973.83620776606</v>
+        <v>15313.65972244631</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -5885,10 +5885,10 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>86469.91648743296</v>
+        <v>55527.67657148407</v>
       </c>
       <c r="C501">
-        <v>19910.35208498587</v>
+        <v>15213.79089473429</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -5896,10 +5896,10 @@
         <v>500</v>
       </c>
       <c r="B502">
-        <v>88911.41778270093</v>
+        <v>58839.61698474448</v>
       </c>
       <c r="C502">
-        <v>15609.38416196146</v>
+        <v>10876.43826677805</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -5907,10 +5907,10 @@
         <v>501</v>
       </c>
       <c r="B503">
-        <v>77446.69257972138</v>
+        <v>48245.33089975739</v>
       </c>
       <c r="C503">
-        <v>16950.27145418529</v>
+        <v>12180.94085407004</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -5918,10 +5918,10 @@
         <v>502</v>
       </c>
       <c r="B504">
-        <v>88572.71830130028</v>
+        <v>59371.35662133628</v>
       </c>
       <c r="C504">
-        <v>19174.71524838088</v>
+        <v>14405.38464826563</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -5929,10 +5929,10 @@
         <v>503</v>
       </c>
       <c r="B505">
-        <v>87841.3766860522</v>
+        <v>58850.38377562574</v>
       </c>
       <c r="C505">
-        <v>20326.50722090065</v>
+        <v>15576.12388443108</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -5940,10 +5940,10 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>83236.59608317813</v>
+        <v>54455.97194228919</v>
       </c>
       <c r="C506">
-        <v>16530.37465771315</v>
+        <v>11798.93858488925</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -5951,10 +5951,10 @@
         <v>505</v>
       </c>
       <c r="B507">
-        <v>87229.29675767162</v>
+        <v>58659.04138632023</v>
       </c>
       <c r="C507">
-        <v>20120.27418232021</v>
+        <v>15407.78537314199</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -5962,10 +5962,10 @@
         <v>506</v>
       </c>
       <c r="B508">
-        <v>80281.10429560994</v>
+        <v>51921.21769379611</v>
       </c>
       <c r="C508">
-        <v>17628.72582615829</v>
+        <v>12935.18428062574</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -5973,10 +5973,10 @@
         <v>507</v>
       </c>
       <c r="B509">
-        <v>84597.65669876139</v>
+        <v>56448.13886648508</v>
       </c>
       <c r="C509">
-        <v>18033.09661945688</v>
+        <v>13358.50233757001</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -5984,10 +5984,10 @@
         <v>508</v>
       </c>
       <c r="B510">
-        <v>82037.89302390799</v>
+        <v>54098.74396116922</v>
       </c>
       <c r="C510">
-        <v>18194.81399724899</v>
+        <v>13539.1669790078</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -5995,10 +5995,10 @@
         <v>509</v>
       </c>
       <c r="B511">
-        <v>85327.05732665515</v>
+        <v>57387.90826391638</v>
       </c>
       <c r="C511">
-        <v>20752.74972717679</v>
+        <v>16097.10270893559</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -6006,10 +6006,10 @@
         <v>510</v>
       </c>
       <c r="B512">
-        <v>80592.20832418503</v>
+        <v>53595.27270501351</v>
       </c>
       <c r="C512">
-        <v>18211.61960238847</v>
+        <v>13558.8476239851</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -6017,10 +6017,10 @@
         <v>511</v>
       </c>
       <c r="B513">
-        <v>86009.31918740427</v>
+        <v>59954.59701179997</v>
       </c>
       <c r="C513">
-        <v>19754.88135898719</v>
+        <v>15104.98442042166</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -6028,10 +6028,10 @@
         <v>512</v>
       </c>
       <c r="B514">
-        <v>81693.55320238705</v>
+        <v>56581.04447035</v>
       </c>
       <c r="C514">
-        <v>17860.06650396859</v>
+        <v>13213.04460524088</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -6039,10 +6039,10 @@
         <v>513</v>
       </c>
       <c r="B515">
-        <v>83398.47603545948</v>
+        <v>59228.18074698968</v>
       </c>
       <c r="C515">
-        <v>16472.36886606181</v>
+        <v>11828.22200717192</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -6050,10 +6050,10 @@
         <v>514</v>
       </c>
       <c r="B516">
-        <v>79674.86773995016</v>
+        <v>56446.78589504761</v>
       </c>
       <c r="C516">
-        <v>15023.2678574239</v>
+        <v>10381.99603837184</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -6061,10 +6061,10 @@
         <v>515</v>
       </c>
       <c r="B517">
-        <v>82382.2939869253</v>
+        <v>60096.42558559</v>
       </c>
       <c r="C517">
-        <v>18018.40127694021</v>
+        <v>13380.00449772598</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -6072,10 +6072,10 @@
         <v>516</v>
       </c>
       <c r="B518">
-        <v>84359.6705781653</v>
+        <v>62073.80217683</v>
       </c>
       <c r="C518">
-        <v>23296.952051178</v>
+        <v>18658.55527196377</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -6083,10 +6083,10 @@
         <v>517</v>
       </c>
       <c r="B519">
-        <v>77595.72880190649</v>
+        <v>54551.92900584241</v>
       </c>
       <c r="C519">
-        <v>16908.77812003611</v>
+        <v>12174.21529058292</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -6094,10 +6094,10 @@
         <v>518</v>
       </c>
       <c r="B520">
-        <v>83111.34047619223</v>
+        <v>59309.60928539938</v>
       </c>
       <c r="C520">
-        <v>22328.47430465069</v>
+        <v>17497.74542495854</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -6105,10 +6105,10 @@
         <v>519</v>
       </c>
       <c r="B521">
-        <v>79388.00506388849</v>
+        <v>54828.34247836686</v>
       </c>
       <c r="C521">
-        <v>16707.39023604027</v>
+        <v>11780.49530610916</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -6116,10 +6116,10 @@
         <v>520</v>
       </c>
       <c r="B522">
-        <v>82112.41899869662</v>
+        <v>56794.82501844624</v>
       </c>
       <c r="C522">
-        <v>15097.6671583138</v>
+        <v>10074.60617814373</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -6127,10 +6127,10 @@
         <v>521</v>
       </c>
       <c r="B523">
-        <v>77961.93204360602</v>
+        <v>51886.40666862687</v>
       </c>
       <c r="C523">
-        <v>14555.33910678301</v>
+        <v>9436.112076373975</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -6138,10 +6138,10 @@
         <v>522</v>
       </c>
       <c r="B524">
-        <v>73001.25582943423</v>
+        <v>46167.79905972631</v>
       </c>
       <c r="C524">
-        <v>22728.3098501383</v>
+        <v>17512.9167694903</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -6149,10 +6149,10 @@
         <v>523</v>
       </c>
       <c r="B525">
-        <v>84509.97943146365</v>
+        <v>57676.52266175572</v>
       </c>
       <c r="C525">
-        <v>19939.71869699966</v>
+        <v>14724.32561635167</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -6160,10 +6160,10 @@
         <v>524</v>
       </c>
       <c r="B526">
-        <v>82142.85131529486</v>
+        <v>55987.317809569</v>
       </c>
       <c r="C526">
-        <v>18072.07575923182</v>
+        <v>12211.00196927019</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -6171,10 +6171,10 @@
         <v>525</v>
       </c>
       <c r="B527">
-        <v>78656.43540664329</v>
+        <v>53178.82516489951</v>
       </c>
       <c r="C527">
-        <v>21385.37496665621</v>
+        <v>14878.62046738096</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -6182,10 +6182,10 @@
         <v>526</v>
       </c>
       <c r="B528">
-        <v>80656.9226071805</v>
+        <v>55857.23562941883</v>
       </c>
       <c r="C528">
-        <v>17027.3747932783</v>
+        <v>9874.939584689424</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -6193,10 +6193,10 @@
         <v>527</v>
       </c>
       <c r="B529">
-        <v>81673.91630023325</v>
+        <v>57552.15258645363</v>
       </c>
       <c r="C529">
-        <v>18908.0322317926</v>
+        <v>11109.9163138901</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -6204,10 +6204,10 @@
         <v>528</v>
       </c>
       <c r="B530">
-        <v>84394.8909064991</v>
+        <v>60951.05045670158</v>
       </c>
       <c r="C530">
-        <v>16685.27165750449</v>
+        <v>8241.475030288364</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -6215,10 +6215,10 @@
         <v>529</v>
       </c>
       <c r="B531">
-        <v>79369.93134441676</v>
+        <v>56604.01415860132</v>
       </c>
       <c r="C531">
-        <v>16343.83484559911</v>
+        <v>7254.35750906935</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -6226,10 +6226,10 @@
         <v>530</v>
       </c>
       <c r="B532">
-        <v>83659.86892279683</v>
+        <v>60893.95173698139</v>
       </c>
       <c r="C532">
-        <v>19024.09507072806</v>
+        <v>9934.617734198304</v>
       </c>
     </row>
     <row r="533" spans="1:3">
@@ -6237,10 +6237,10 @@
         <v>531</v>
       </c>
       <c r="B533">
-        <v>81946.96967356653</v>
+        <v>59442.14704196295</v>
       </c>
       <c r="C533">
-        <v>19589.15944085484</v>
+        <v>10497.70893361044</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -6248,10 +6248,10 @@
         <v>532</v>
       </c>
       <c r="B534">
-        <v>82965.44024018891</v>
+        <v>60721.71216279716</v>
       </c>
       <c r="C534">
-        <v>19748.79954620868</v>
+        <v>10655.37586824962</v>
       </c>
     </row>
     <row r="535" spans="1:3">
@@ -6259,10 +6259,10 @@
         <v>533</v>
       </c>
       <c r="B535">
-        <v>81830.51846147813</v>
+        <v>59847.88493829824</v>
       </c>
       <c r="C535">
-        <v>16566.96884541176</v>
+        <v>7471.571996738051</v>
       </c>
     </row>
     <row r="536" spans="1:3">
@@ -6270,10 +6270,10 @@
         <v>534</v>
       </c>
       <c r="B536">
-        <v>81033.97767788489</v>
+        <v>59312.43870891687</v>
       </c>
       <c r="C536">
-        <v>19719.24612757791</v>
+        <v>10621.87610818956</v>
       </c>
     </row>
     <row r="537" spans="1:3">
@@ -6281,10 +6281,10 @@
         <v>535</v>
       </c>
       <c r="B537">
-        <v>78906.01733595997</v>
+        <v>57445.57292120379</v>
       </c>
       <c r="C537">
-        <v>18348.74789528536</v>
+        <v>9249.404705182355</v>
       </c>
     </row>
     <row r="538" spans="1:3">
@@ -6292,10 +6292,10 @@
         <v>536</v>
       </c>
       <c r="B538">
-        <v>82748.66659057265</v>
+        <v>61549.31673002833</v>
       </c>
       <c r="C538">
-        <v>15502.30347752176</v>
+        <v>6400.987116704107</v>
       </c>
     </row>
     <row r="539" spans="1:3">
@@ -6303,10 +6303,10 @@
         <v>537</v>
       </c>
       <c r="B539">
-        <v>80181.99511264772</v>
+        <v>58982.6452521034</v>
       </c>
       <c r="C539">
-        <v>14693.76789875242</v>
+        <v>5592.451537934767</v>
       </c>
     </row>
     <row r="540" spans="1:3">
@@ -6314,10 +6314,10 @@
         <v>538</v>
       </c>
       <c r="B540">
-        <v>81991.7061625582</v>
+        <v>61766.8744047822</v>
       </c>
       <c r="C540">
-        <v>19926.60869082145</v>
+        <v>10818.38432237887</v>
       </c>
     </row>
     <row r="541" spans="1:3">
@@ -6325,10 +6325,10 @@
         <v>539</v>
       </c>
       <c r="B541">
-        <v>81435.00094883423</v>
+        <v>62184.68729382657</v>
       </c>
       <c r="C541">
-        <v>16900.84388659291</v>
+        <v>7785.711510525393</v>
       </c>
     </row>
     <row r="542" spans="1:3">
@@ -6336,10 +6336,10 @@
         <v>540</v>
       </c>
       <c r="B542">
-        <v>75383.3944035326</v>
+        <v>57107.59885129325</v>
       </c>
       <c r="C542">
-        <v>18891.83777462273</v>
+        <v>9769.79739093028</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -6347,10 +6347,10 @@
         <v>541</v>
       </c>
       <c r="B543">
-        <v>82487.37502394037</v>
+        <v>65186.09757446936</v>
       </c>
       <c r="C543">
-        <v>22583.56093462601</v>
+        <v>13454.61254330862</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -6358,10 +6358,10 @@
         <v>542</v>
       </c>
       <c r="B544">
-        <v>77195.59214269707</v>
+        <v>60868.83279599437</v>
       </c>
       <c r="C544">
-        <v>20842.65183846997</v>
+        <v>11706.79543952764</v>
       </c>
     </row>
     <row r="545" spans="1:3">
@@ -6369,10 +6369,10 @@
         <v>543</v>
       </c>
       <c r="B545">
-        <v>77598.71655653717</v>
+        <v>62246.47531260279</v>
       </c>
       <c r="C545">
-        <v>19007.59765611492</v>
+        <v>9864.833249547657</v>
       </c>
     </row>
     <row r="546" spans="1:3">
@@ -6380,10 +6380,10 @@
         <v>544</v>
       </c>
       <c r="B546">
-        <v>72883.93779554729</v>
+        <v>57531.69655161291</v>
       </c>
       <c r="C546">
-        <v>19158.43912515714</v>
+        <v>10015.67471858987</v>
       </c>
     </row>
     <row r="547" spans="1:3">
@@ -6391,10 +6391,10 @@
         <v>545</v>
       </c>
       <c r="B547">
-        <v>78308.74678183091</v>
+        <v>64176.36003734604</v>
       </c>
       <c r="C547">
-        <v>17991.55018268288</v>
+        <v>8838.131527708991</v>
       </c>
     </row>
     <row r="548" spans="1:3">
@@ -6402,10 +6402,10 @@
         <v>546</v>
       </c>
       <c r="B548">
-        <v>70880.75118497413</v>
+        <v>57968.21893993877</v>
       </c>
       <c r="C548">
-        <v>19454.92731126767</v>
+        <v>10290.85440788715</v>
       </c>
     </row>
     <row r="549" spans="1:3">
@@ -6413,10 +6413,10 @@
         <v>547</v>
       </c>
       <c r="B549">
-        <v>78354.18188787185</v>
+        <v>66661.50414228604</v>
       </c>
       <c r="C549">
-        <v>18050.24943177134</v>
+        <v>8875.522279984187</v>
       </c>
     </row>
     <row r="550" spans="1:3">
@@ -6424,10 +6424,10 @@
         <v>548</v>
       </c>
       <c r="B550">
-        <v>73452.24394761524</v>
+        <v>62979.42070147894</v>
       </c>
       <c r="C550">
-        <v>17968.03229522823</v>
+        <v>8782.650895034441</v>
       </c>
     </row>
     <row r="551" spans="1:3">
@@ -6435,10 +6435,10 @@
         <v>549</v>
       </c>
       <c r="B551">
-        <v>77817.74044826187</v>
+        <v>68564.77170157507</v>
       </c>
       <c r="C551">
-        <v>17290.01456392819</v>
+        <v>8093.978915327772</v>
       </c>
     </row>
     <row r="552" spans="1:3">
@@ -6446,10 +6446,10 @@
         <v>550</v>
       </c>
       <c r="B552">
-        <v>71540.86808076866</v>
+        <v>63507.75383353138</v>
       </c>
       <c r="C552">
-        <v>16718.5544139251</v>
+        <v>7511.86451691804</v>
       </c>
     </row>
     <row r="553" spans="1:3">
@@ -6457,10 +6457,10 @@
         <v>551</v>
       </c>
       <c r="B553">
-        <v>72025.83295628313</v>
+        <v>63992.71870904585</v>
       </c>
       <c r="C553">
-        <v>16292.41183214664</v>
+        <v>7085.721935139583</v>
       </c>
     </row>
     <row r="554" spans="1:3">
@@ -6468,10 +6468,10 @@
         <v>552</v>
       </c>
       <c r="B554">
-        <v>75430.48770852797</v>
+        <v>67424.18801707654</v>
       </c>
       <c r="C554">
-        <v>20598.41114386483</v>
+        <v>11389.15042353805</v>
       </c>
     </row>
     <row r="555" spans="1:3">
@@ -6479,10 +6479,10 @@
         <v>553</v>
       </c>
       <c r="B555">
-        <v>64853.99678482159</v>
+        <v>56874.511649156</v>
       </c>
       <c r="C555">
-        <v>18157.88491474652</v>
+        <v>8946.053371100012</v>
       </c>
     </row>
     <row r="556" spans="1:3">
@@ -6490,10 +6490,10 @@
         <v>554</v>
       </c>
       <c r="B556">
-        <v>74345.99251413262</v>
+        <v>66393.32193425289</v>
       </c>
       <c r="C556">
-        <v>18011.19727398125</v>
+        <v>8796.794907015017</v>
       </c>
     </row>
     <row r="557" spans="1:3">
@@ -6501,10 +6501,10 @@
         <v>555</v>
       </c>
       <c r="B557">
-        <v>70096.41807895742</v>
+        <v>62170.56205486353</v>
       </c>
       <c r="C557">
-        <v>18833.75255981301</v>
+        <v>9616.779369527048</v>
       </c>
     </row>
     <row r="558" spans="1:3">
@@ -6512,10 +6512,10 @@
         <v>556</v>
       </c>
       <c r="B558">
-        <v>61727.92831719886</v>
+        <v>53828.88684889083</v>
       </c>
       <c r="C558">
-        <v>25976.39805068491</v>
+        <v>16756.85403707923</v>
       </c>
     </row>
     <row r="559" spans="1:3">
@@ -6523,10 +6523,10 @@
         <v>557</v>
       </c>
       <c r="B559">
-        <v>65525.3030535974</v>
+        <v>57653.07614107523</v>
       </c>
       <c r="C559">
-        <v>19706.53623055583</v>
+        <v>10484.42139363042</v>
       </c>
     </row>
     <row r="560" spans="1:3">
@@ -6534,10 +6534,10 @@
         <v>558</v>
       </c>
       <c r="B560">
-        <v>67572.64465240444</v>
+        <v>59700.41773988229</v>
       </c>
       <c r="C560">
-        <v>15924.82159845373</v>
+        <v>6702.706761528317</v>
       </c>
     </row>
     <row r="561" spans="1:3">
@@ -6545,10 +6545,10 @@
         <v>559</v>
       </c>
       <c r="B561">
-        <v>63456.2936300717</v>
+        <v>56191.67506813698</v>
       </c>
       <c r="C561">
-        <v>15540.11438131824</v>
+        <v>6373.323583125826</v>
       </c>
     </row>
     <row r="562" spans="1:3">
@@ -6556,10 +6556,10 @@
         <v>560</v>
       </c>
       <c r="B562">
-        <v>69254.64811028563</v>
+        <v>62597.63789893834</v>
       </c>
       <c r="C562">
-        <v>16632.56517995837</v>
+        <v>7521.09842049897</v>
       </c>
     </row>
     <row r="563" spans="1:3">
@@ -6567,10 +6567,10 @@
         <v>561</v>
       </c>
       <c r="B563">
-        <v>69253.66264772648</v>
+        <v>63204.26078696662</v>
       </c>
       <c r="C563">
-        <v>15683.48223125152</v>
+        <v>6627.339510525138</v>
       </c>
     </row>
     <row r="564" spans="1:3">
@@ -6578,10 +6578,10 @@
         <v>562</v>
       </c>
       <c r="B564">
-        <v>66589.15603735884</v>
+        <v>61147.36252718643</v>
       </c>
       <c r="C564">
-        <v>16664.14478382625</v>
+        <v>7663.326101832875</v>
       </c>
     </row>
     <row r="565" spans="1:3">
@@ -6589,10 +6589,10 @@
         <v>563</v>
       </c>
       <c r="B565">
-        <v>64516.64488142372</v>
+        <v>59682.45972183875</v>
       </c>
       <c r="C565">
-        <v>15882.71111252955</v>
+        <v>6937.216469269188</v>
       </c>
     </row>
     <row r="566" spans="1:3">
@@ -6600,10 +6600,10 @@
         <v>564</v>
       </c>
       <c r="B566">
-        <v>66860.77336226871</v>
+        <v>62634.19655327118</v>
       </c>
       <c r="C566">
-        <v>22963.45303225755</v>
+        <v>14073.2824277302</v>
       </c>
     </row>
     <row r="567" spans="1:3">
@@ -6611,10 +6611,10 @@
         <v>565</v>
       </c>
       <c r="B567">
-        <v>66964.4339867193</v>
+        <v>62737.85717772177</v>
       </c>
       <c r="C567">
-        <v>16821.41967420275</v>
+        <v>7931.249069675401</v>
       </c>
     </row>
     <row r="568" spans="1:3">
@@ -6622,10 +6622,10 @@
         <v>566</v>
       </c>
       <c r="B568">
-        <v>60046.18466515109</v>
+        <v>57960.75210189554</v>
       </c>
       <c r="C568">
-        <v>16692.09482823974</v>
+        <v>7794.076500431912</v>
       </c>
     </row>
     <row r="569" spans="1:3">
@@ -6633,10 +6633,10 @@
         <v>567</v>
       </c>
       <c r="B569">
-        <v>60929.9591091963</v>
+        <v>60985.67079168273</v>
       </c>
       <c r="C569">
-        <v>19410.92825335243</v>
+        <v>10505.06220226414</v>
       </c>
     </row>
     <row r="570" spans="1:3">
@@ -6644,10 +6644,10 @@
         <v>568</v>
       </c>
       <c r="B570">
-        <v>60286.71560868269</v>
+        <v>62483.57153691108</v>
       </c>
       <c r="C570">
-        <v>21119.16557399429</v>
+        <v>12205.45179962552</v>
       </c>
     </row>
     <row r="571" spans="1:3">
@@ -6655,10 +6655,10 @@
         <v>569</v>
       </c>
       <c r="B571">
-        <v>51255.68645761437</v>
+        <v>55593.68663158474</v>
       </c>
       <c r="C571">
-        <v>18499.06249599639</v>
+        <v>9577.500998347148</v>
       </c>
     </row>
     <row r="572" spans="1:3">
@@ -6666,10 +6666,10 @@
         <v>570</v>
       </c>
       <c r="B572">
-        <v>47828.73497019548</v>
+        <v>54307.87938990783</v>
       </c>
       <c r="C572">
-        <v>19003.18848689995</v>
+        <v>10073.77926597024</v>
       </c>
     </row>
     <row r="573" spans="1:3">
@@ -6677,10 +6677,10 @@
         <v>571</v>
       </c>
       <c r="B573">
-        <v>45603.9434526027</v>
+        <v>54224.23211805701</v>
       </c>
       <c r="C573">
-        <v>22814.49601685498</v>
+        <v>13877.23907264479</v>
       </c>
     </row>
     <row r="574" spans="1:3">
@@ -6688,10 +6688,10 @@
         <v>572</v>
       </c>
       <c r="B574">
-        <v>58581.44526395143</v>
+        <v>67201.73392940575</v>
       </c>
       <c r="C574">
-        <v>15476.57131566045</v>
+        <v>6539.314371450263</v>
       </c>
     </row>
     <row r="575" spans="1:3">
@@ -6699,10 +6699,10 @@
         <v>573</v>
       </c>
       <c r="B575">
-        <v>44761.90009398679</v>
+        <v>53292.02857004776</v>
       </c>
       <c r="C575">
-        <v>22068.55911481253</v>
+        <v>13129.59908314246</v>
       </c>
     </row>
     <row r="576" spans="1:3">
@@ -6710,10 +6710,10 @@
         <v>574</v>
       </c>
       <c r="B576">
-        <v>53741.60776305207</v>
+        <v>62181.57604971968</v>
       </c>
       <c r="C576">
-        <v>19633.83924701717</v>
+        <v>10693.17612788721</v>
       </c>
     </row>
     <row r="577" spans="1:3">
@@ -6721,10 +6721,10 @@
         <v>575</v>
       </c>
       <c r="B577">
-        <v>50506.02160736168</v>
+        <v>58855.82970463594</v>
       </c>
       <c r="C577">
-        <v>14175.21306596414</v>
+        <v>5232.846859374296</v>
       </c>
     </row>
     <row r="578" spans="1:3">
@@ -6732,10 +6732,10 @@
         <v>576</v>
       </c>
       <c r="B578">
-        <v>48835.17265623187</v>
+        <v>57094.82056411276</v>
       </c>
       <c r="C578">
-        <v>21774.5326622155</v>
+        <v>12830.46336816577</v>
       </c>
     </row>
     <row r="579" spans="1:3">
@@ -6743,10 +6743,10 @@
         <v>577</v>
       </c>
       <c r="B579">
-        <v>49141.45187612894</v>
+        <v>57310.9395946165</v>
       </c>
       <c r="C579">
-        <v>17597.79620876136</v>
+        <v>8652.023827251744</v>
       </c>
     </row>
     <row r="580" spans="1:3">
@@ -6754,10 +6754,10 @@
         <v>578</v>
       </c>
       <c r="B580">
-        <v>45583.37493545462</v>
+        <v>53662.70246454881</v>
       </c>
       <c r="C580">
-        <v>17990.52602669502</v>
+        <v>9043.050557725519</v>
       </c>
     </row>
     <row r="581" spans="1:3">
@@ -6765,10 +6765,10 @@
         <v>579</v>
       </c>
       <c r="B581">
-        <v>51406.0358032394</v>
+        <v>59485.3633323336</v>
       </c>
       <c r="C581">
-        <v>18925.32779624068</v>
+        <v>9977.852327271179</v>
       </c>
     </row>
     <row r="582" spans="1:3">
@@ -6776,10 +6776,10 @@
         <v>580</v>
       </c>
       <c r="B582">
-        <v>47144.55452353772</v>
+        <v>55135.51652936886</v>
       </c>
       <c r="C582">
-        <v>18955.52015969629</v>
+        <v>10005.46904577517</v>
       </c>
     </row>
     <row r="583" spans="1:3">
@@ -6787,10 +6787,10 @@
         <v>581</v>
       </c>
       <c r="B583">
-        <v>53883.57942938706</v>
+        <v>61786.17591195516</v>
       </c>
       <c r="C583">
-        <v>20106.44315449247</v>
+        <v>11153.81639561974</v>
       </c>
     </row>
     <row r="584" spans="1:3">
@@ -6798,10 +6798,10 @@
         <v>582</v>
       </c>
       <c r="B584">
-        <v>45185.94470635351</v>
+        <v>53000.17566565856</v>
       </c>
       <c r="C584">
-        <v>21530.35380202555</v>
+        <v>12575.1513982012</v>
       </c>
     </row>
     <row r="585" spans="1:3">
@@ -6809,10 +6809,10 @@
         <v>583</v>
       </c>
       <c r="B585">
-        <v>45772.91028839457</v>
+        <v>53498.77572443656</v>
       </c>
       <c r="C585">
-        <v>20985.57373400744</v>
+        <v>12027.79568523148</v>
       </c>
     </row>
     <row r="586" spans="1:3">
@@ -6820,10 +6820,10 @@
         <v>584</v>
       </c>
       <c r="B586">
-        <v>45521.84553206112</v>
+        <v>53159.34544484007</v>
       </c>
       <c r="C586">
-        <v>22488.61000450743</v>
+        <v>13528.25631077986</v>
       </c>
     </row>
     <row r="587" spans="1:3">
@@ -6831,10 +6831,10 @@
         <v>585</v>
       </c>
       <c r="B587">
-        <v>43624.78920758009</v>
+        <v>51173.923597096</v>
       </c>
       <c r="C587">
-        <v>20531.97017960777</v>
+        <v>11569.04084092858</v>
       </c>
     </row>
     <row r="588" spans="1:3">
@@ -6842,10 +6842,10 @@
         <v>586</v>
       </c>
       <c r="B588">
-        <v>35615.36610231464</v>
+        <v>43164.50049183055</v>
       </c>
       <c r="C588">
-        <v>18384.76938316767</v>
+        <v>9421.840044488481</v>
       </c>
     </row>
     <row r="589" spans="1:3">
@@ -6853,10 +6853,10 @@
         <v>587</v>
       </c>
       <c r="B589">
-        <v>44123.78713632026</v>
+        <v>51159.19915946462</v>
       </c>
       <c r="C589">
-        <v>15564.75744238575</v>
+        <v>6473.082505564878</v>
       </c>
     </row>
     <row r="590" spans="1:3">
@@ -6864,10 +6864,10 @@
         <v>588</v>
       </c>
       <c r="B590">
-        <v>42569.93093417391</v>
+        <v>49091.62059094673</v>
       </c>
       <c r="C590">
-        <v>22888.68810407587</v>
+        <v>13668.26756911332</v>
       </c>
     </row>
     <row r="591" spans="1:3">
@@ -6875,10 +6875,10 @@
         <v>589</v>
       </c>
       <c r="B591">
-        <v>40114.44883425387</v>
+        <v>46122.41612465513</v>
       </c>
       <c r="C591">
-        <v>23612.19826485028</v>
+        <v>14263.03213174604</v>
       </c>
     </row>
     <row r="592" spans="1:3">
@@ -6886,10 +6886,10 @@
         <v>590</v>
       </c>
       <c r="B592">
-        <v>43733.05677590227</v>
+        <v>49227.30169993199</v>
       </c>
       <c r="C592">
-        <v>20805.72345435724</v>
+        <v>11327.81172311132</v>
       </c>
     </row>
     <row r="593" spans="1:3">
@@ -6897,10 +6897,10 @@
         <v>591</v>
       </c>
       <c r="B593">
-        <v>46524.26028676813</v>
+        <v>51504.7828444263</v>
       </c>
       <c r="C593">
-        <v>21808.28887765024</v>
+        <v>12201.63154826264</v>
       </c>
     </row>
     <row r="594" spans="1:3">
@@ -6908,10 +6908,10 @@
         <v>592</v>
       </c>
       <c r="B594">
-        <v>44008.63553352744</v>
+        <v>48475.43572481406</v>
       </c>
       <c r="C594">
-        <v>16312.13266360881</v>
+        <v>6576.729736079528</v>
       </c>
     </row>
     <row r="595" spans="1:3">
@@ -6919,10 +6919,10 @@
         <v>593</v>
       </c>
       <c r="B595">
-        <v>47937.45957284378</v>
+        <v>52404.25976413039</v>
       </c>
       <c r="C595">
-        <v>16549.06326347992</v>
+        <v>6813.660335950639</v>
       </c>
     </row>
     <row r="596" spans="1:3">
@@ -6930,10 +6930,10 @@
         <v>594</v>
       </c>
       <c r="B596">
-        <v>37696.65790245424</v>
+        <v>43108.9354182528</v>
       </c>
       <c r="C596">
-        <v>16349.51383564251</v>
+        <v>6714.239901972135</v>
       </c>
     </row>
     <row r="597" spans="1:3">
@@ -6941,10 +6941,10 @@
         <v>595</v>
       </c>
       <c r="B597">
-        <v>39284.52754082849</v>
+        <v>45642.28238113901</v>
       </c>
       <c r="C597">
-        <v>17119.93051774832</v>
+        <v>7584.785577936856</v>
       </c>
     </row>
     <row r="598" spans="1:3">
@@ -6952,10 +6952,10 @@
         <v>596</v>
       </c>
       <c r="B598">
-        <v>38377.91263830016</v>
+        <v>45681.14480312262</v>
       </c>
       <c r="C598">
-        <v>18068.54326220201</v>
+        <v>8633.527316249454</v>
       </c>
     </row>
     <row r="599" spans="1:3">
@@ -6963,10 +6963,10 @@
         <v>597</v>
       </c>
       <c r="B599">
-        <v>36059.72419893924</v>
+        <v>44308.43368827364</v>
       </c>
       <c r="C599">
-        <v>15538.91859869783</v>
+        <v>6204.03164660419</v>
       </c>
     </row>
     <row r="600" spans="1:3">
@@ -6974,10 +6974,10 @@
         <v>598</v>
       </c>
       <c r="B600">
-        <v>42641.78833008408</v>
+        <v>51835.97514393042</v>
       </c>
       <c r="C600">
-        <v>18348.78812933921</v>
+        <v>9114.030171104472</v>
       </c>
     </row>
     <row r="601" spans="1:3">
@@ -6985,10 +6985,10 @@
         <v>599</v>
       </c>
       <c r="B601">
-        <v>37628.46023586162</v>
+        <v>47768.1243742199</v>
       </c>
       <c r="C601">
-        <v>16176.78232183122</v>
+        <v>7042.153357455394</v>
       </c>
     </row>
     <row r="602" spans="1:3">
@@ -6996,10 +6996,10 @@
         <v>600</v>
       </c>
       <c r="B602">
-        <v>32669.53763129906</v>
+        <v>42809.20176965733</v>
       </c>
       <c r="C602">
-        <v>15631.69523410764</v>
+        <v>6497.066269731817</v>
       </c>
     </row>
     <row r="603" spans="1:3">
@@ -7007,10 +7007,10 @@
         <v>601</v>
       </c>
       <c r="B603">
-        <v>24408.85616336503</v>
+        <v>34165.68848551002</v>
       </c>
       <c r="C603">
-        <v>17479.55506635517</v>
+        <v>8178.448347947742</v>
       </c>
     </row>
     <row r="604" spans="1:3">
@@ -7018,10 +7018,10 @@
         <v>602</v>
       </c>
       <c r="B604">
-        <v>34762.67248950517</v>
+        <v>44136.67299543688</v>
       </c>
       <c r="C604">
-        <v>14808.89838999149</v>
+        <v>5341.313917552459</v>
       </c>
     </row>
     <row r="605" spans="1:3">
@@ -7029,10 +7029,10 @@
         <v>603</v>
       </c>
       <c r="B605">
-        <v>42912.41394181986</v>
+        <v>51903.58263153827</v>
       </c>
       <c r="C605">
-        <v>17684.35116628488</v>
+        <v>8050.288939814252</v>
       </c>
     </row>
     <row r="606" spans="1:3">
@@ -7040,10 +7040,10 @@
         <v>604</v>
       </c>
       <c r="B606">
-        <v>42284.22105260572</v>
+        <v>50892.55792611086</v>
       </c>
       <c r="C606">
-        <v>14633.17737281757</v>
+        <v>4832.637392315335</v>
       </c>
     </row>
     <row r="607" spans="1:3">
@@ -7051,10 +7051,10 @@
         <v>605</v>
       </c>
       <c r="B607">
-        <v>33084.01243311889</v>
+        <v>41309.51749041074</v>
       </c>
       <c r="C607">
-        <v>15177.37696201436</v>
+        <v>5210.35922748052</v>
       </c>
     </row>
     <row r="608" spans="1:3">
@@ -7062,10 +7062,10 @@
         <v>606</v>
       </c>
       <c r="B608">
-        <v>40270.70550535145</v>
+        <v>48113.37874643001</v>
       </c>
       <c r="C608">
-        <v>9759.490547211026</v>
+        <v>-374.0049413544134</v>
       </c>
     </row>
     <row r="609" spans="1:3">
@@ -7073,10 +7073,10 @@
         <v>607</v>
       </c>
       <c r="B609">
-        <v>39750.67145633812</v>
+        <v>47593.34469741669</v>
       </c>
       <c r="C609">
-        <v>12697.15411820809</v>
+        <v>2563.658629642647</v>
       </c>
     </row>
     <row r="610" spans="1:3">
@@ -7084,10 +7084,10 @@
         <v>608</v>
       </c>
       <c r="B610">
-        <v>34152.89197452489</v>
+        <v>42772.34354460121</v>
       </c>
       <c r="C610">
-        <v>12396.54441095894</v>
+        <v>2920.85819378268</v>
       </c>
     </row>
     <row r="611" spans="1:3">
@@ -7095,10 +7095,10 @@
         <v>609</v>
       </c>
       <c r="B611">
-        <v>28831.94346607451</v>
+        <v>38228.17336514858</v>
       </c>
       <c r="C611">
-        <v>12720.70805962801</v>
+        <v>3902.831113840934</v>
       </c>
     </row>
     <row r="612" spans="1:3">
@@ -7106,10 +7106,10 @@
         <v>610</v>
       </c>
       <c r="B612">
-        <v>32327.84890803429</v>
+        <v>42500.85713610611</v>
       </c>
       <c r="C612">
-        <v>11619.24105112333</v>
+        <v>3459.173376725439</v>
       </c>
     </row>
     <row r="613" spans="1:3">
@@ -7117,10 +7117,10 @@
         <v>611</v>
       </c>
       <c r="B613">
-        <v>31360.40021498984</v>
+        <v>42310.18677205942</v>
       </c>
       <c r="C613">
-        <v>8261.18577516217</v>
+        <v>758.9273721534673</v>
       </c>
     </row>
     <row r="614" spans="1:3">
@@ -7128,10 +7128,10 @@
         <v>612</v>
       </c>
       <c r="B614">
-        <v>27771.69144810233</v>
+        <v>39498.25633416967</v>
       </c>
       <c r="C614">
-        <v>6636.879868190207</v>
+        <v>-207.5692634293105</v>
       </c>
     </row>
     <row r="615" spans="1:3">
@@ -7139,10 +7139,10 @@
         <v>613</v>
       </c>
       <c r="B615">
-        <v>24458.73078733093</v>
+        <v>36962.07400239602</v>
       </c>
       <c r="C615">
-        <v>7737.031484347225</v>
+        <v>1550.391624116891</v>
       </c>
     </row>
     <row r="616" spans="1:3">
@@ -7150,10 +7150,10 @@
         <v>614</v>
       </c>
       <c r="B616">
-        <v>28813.34704957385</v>
+        <v>41316.69026463895</v>
       </c>
       <c r="C616">
-        <v>8063.590154719021</v>
+        <v>1876.950294488685</v>
       </c>
     </row>
     <row r="617" spans="1:3">
@@ -7161,10 +7161,10 @@
         <v>615</v>
       </c>
       <c r="B617">
-        <v>23143.04083463765</v>
+        <v>36065.45577472779</v>
       </c>
       <c r="C617">
-        <v>8100.762872757052</v>
+        <v>2223.212079202931</v>
       </c>
     </row>
     <row r="618" spans="1:3">
@@ -7172,10 +7172,10 @@
         <v>616</v>
       </c>
       <c r="B618">
-        <v>26157.70527501697</v>
+        <v>39499.19194013217</v>
       </c>
       <c r="C618">
-        <v>11810.60929512891</v>
+        <v>6242.147568251001</v>
       </c>
     </row>
     <row r="619" spans="1:3">
@@ -7183,10 +7183,10 @@
         <v>617</v>
       </c>
       <c r="B619">
-        <v>25734.06120161559</v>
+        <v>39494.61959175584</v>
       </c>
       <c r="C619">
-        <v>7326.061653865581</v>
+        <v>2066.688993663883</v>
       </c>
     </row>
     <row r="620" spans="1:3">
@@ -7194,10 +7194,10 @@
         <v>618</v>
       </c>
       <c r="B620">
-        <v>22153.71545706894</v>
+        <v>36333.34557223423</v>
       </c>
       <c r="C620">
-        <v>9594.785851056153</v>
+        <v>4644.502257530668</v>
       </c>
     </row>
     <row r="621" spans="1:3">
@@ -7205,10 +7205,10 @@
         <v>619</v>
       </c>
       <c r="B621">
-        <v>23931.06115502391</v>
+        <v>38529.76299521426</v>
       </c>
       <c r="C621">
-        <v>5716.419179029966</v>
+        <v>1075.224652180693</v>
       </c>
     </row>
     <row r="622" spans="1:3">
@@ -7216,10 +7216,10 @@
         <v>620</v>
       </c>
       <c r="B622">
-        <v>21447.43469150142</v>
+        <v>36465.20825671681</v>
       </c>
       <c r="C622">
-        <v>8174.3970911875</v>
+        <v>3842.29163101444</v>
       </c>
     </row>
     <row r="623" spans="1:3">
@@ -7227,10 +7227,10 @@
         <v>621</v>
       </c>
       <c r="B623">
-        <v>25323.46143787038</v>
+        <v>40341.23500308576</v>
       </c>
       <c r="C623">
-        <v>9105.047599307392</v>
+        <v>4772.942139134331</v>
       </c>
     </row>
     <row r="624" spans="1:3">
@@ -7238,10 +7238,10 @@
         <v>622</v>
       </c>
       <c r="B624">
-        <v>23330.03555684228</v>
+        <v>38305.50640480246</v>
       </c>
       <c r="C624">
-        <v>2809.639937995418</v>
+        <v>-1508.719095445254</v>
       </c>
     </row>
     <row r="625" spans="1:3">
@@ -7249,10 +7249,10 @@
         <v>623</v>
       </c>
       <c r="B625">
-        <v>24756.03307032312</v>
+        <v>39689.20120102806</v>
       </c>
       <c r="C625">
-        <v>2576.800893959863</v>
+        <v>-1727.811712748422</v>
       </c>
     </row>
     <row r="626" spans="1:3">
@@ -7260,10 +7260,10 @@
         <v>624</v>
       </c>
       <c r="B626">
-        <v>25085.77382240977</v>
+        <v>39976.63923585948</v>
       </c>
       <c r="C626">
-        <v>7522.975709614092</v>
+        <v>3232.109529638195</v>
       </c>
     </row>
     <row r="627" spans="1:3">
@@ -7271,10 +7271,10 @@
         <v>625</v>
       </c>
       <c r="B627">
-        <v>24383.88945168416</v>
+        <v>39232.45214787864</v>
       </c>
       <c r="C627">
-        <v>5085.171029887119</v>
+        <v>808.0512766436088</v>
       </c>
     </row>
     <row r="628" spans="1:3">
@@ -7282,10 +7282,10 @@
         <v>626</v>
       </c>
       <c r="B628">
-        <v>23220.43525406367</v>
+        <v>38026.69523300292</v>
       </c>
       <c r="C628">
-        <v>5115.487768199778</v>
+        <v>852.1144416886538</v>
       </c>
     </row>
     <row r="629" spans="1:3">
@@ -7293,10 +7293,10 @@
         <v>627</v>
       </c>
       <c r="B629">
-        <v>20343.14915294983</v>
+        <v>35107.10641463385</v>
       </c>
       <c r="C629">
-        <v>7613.134374821563</v>
+        <v>3363.507475042828</v>
       </c>
     </row>
     <row r="630" spans="1:3">
@@ -7304,10 +7304,10 @@
         <v>628</v>
       </c>
       <c r="B630">
-        <v>20974.06397236029</v>
+        <v>35738.02123404432</v>
       </c>
       <c r="C630">
-        <v>6712.142594212379</v>
+        <v>2462.515694433643</v>
       </c>
     </row>
     <row r="631" spans="1:3">
@@ -7315,10 +7315,10 @@
         <v>629</v>
       </c>
       <c r="B631">
-        <v>22904.64557563218</v>
+        <v>38140.59918780993</v>
       </c>
       <c r="C631">
-        <v>5138.586771919974</v>
+        <v>1145.695608607195</v>
       </c>
     </row>
     <row r="632" spans="1:3">
@@ -7326,10 +7326,10 @@
         <v>630</v>
       </c>
       <c r="B632">
-        <v>17094.79092795014</v>
+        <v>32802.74089062162</v>
       </c>
       <c r="C632">
-        <v>10919.90435815285</v>
+        <v>7183.748931306027</v>
       </c>
     </row>
     <row r="633" spans="1:3">
@@ -7337,10 +7337,10 @@
         <v>631</v>
       </c>
       <c r="B633">
-        <v>19703.54599982878</v>
+        <v>35883.49231299399</v>
       </c>
       <c r="C633">
-        <v>3954.036011415346</v>
+        <v>474.6163210344802</v>
       </c>
     </row>
     <row r="634" spans="1:3">
@@ -7348,10 +7348,10 @@
         <v>632</v>
       </c>
       <c r="B634">
-        <v>16138.19998959091</v>
+        <v>32790.14265324984</v>
       </c>
       <c r="C634">
-        <v>2692.752461329084</v>
+        <v>-529.9314925858259</v>
       </c>
     </row>
     <row r="635" spans="1:3">
@@ -7359,10 +7359,10 @@
         <v>633</v>
       </c>
       <c r="B635">
-        <v>23170.89709852055</v>
+        <v>40294.83611267322</v>
       </c>
       <c r="C635">
-        <v>4564.347463354908</v>
+        <v>1598.399245905954</v>
       </c>
     </row>
     <row r="636" spans="1:3">
@@ -7370,10 +7370,10 @@
         <v>634</v>
       </c>
       <c r="B636">
-        <v>20453.62927029845</v>
+        <v>38049.56463494484</v>
       </c>
       <c r="C636">
-        <v>354.7490204924329</v>
+        <v>-2354.463460490565</v>
       </c>
     </row>
     <row r="637" spans="1:3">
@@ -7381,10 +7381,10 @@
         <v>635</v>
       </c>
       <c r="B637">
-        <v>19565.37952212799</v>
+        <v>37161.31488677438</v>
       </c>
       <c r="C637">
-        <v>6705.229482217612</v>
+        <v>3996.017001234615</v>
       </c>
     </row>
     <row r="638" spans="1:3">
@@ -7392,10 +7392,10 @@
         <v>636</v>
       </c>
       <c r="B638">
-        <v>15795.60289126771</v>
+        <v>32605.95740214512</v>
       </c>
       <c r="C638">
-        <v>4451.743033948997</v>
+        <v>1846.343632311114</v>
       </c>
     </row>
     <row r="639" spans="1:3">
@@ -7403,10 +7403,10 @@
         <v>637</v>
       </c>
       <c r="B639">
-        <v>18443.45039083398</v>
+        <v>34468.22404794242</v>
       </c>
       <c r="C639">
-        <v>7946.357580651991</v>
+        <v>5444.771258359226</v>
       </c>
     </row>
     <row r="640" spans="1:3">
@@ -7414,10 +7414,10 @@
         <v>638</v>
       </c>
       <c r="B640">
-        <v>22587.50632641173</v>
+        <v>37826.69912975121</v>
       </c>
       <c r="C640">
-        <v>4451.25628347722</v>
+        <v>2053.48304052957</v>
       </c>
     </row>
     <row r="641" spans="1:3">
@@ -7425,10 +7425,10 @@
         <v>639</v>
       </c>
       <c r="B641">
-        <v>16861.24090322665</v>
+        <v>31314.85285279716</v>
       </c>
       <c r="C641">
-        <v>4146.974863797263</v>
+        <v>1853.014700194728</v>
       </c>
     </row>
     <row r="642" spans="1:3">
@@ -7436,10 +7436,10 @@
         <v>640</v>
       </c>
       <c r="B642">
-        <v>22522.55948957679</v>
+        <v>36190.59058537833</v>
       </c>
       <c r="C642">
-        <v>837.3326670713809</v>
+        <v>-1352.814417186037</v>
       </c>
     </row>
     <row r="643" spans="1:3">
@@ -7447,10 +7447,10 @@
         <v>641</v>
       </c>
       <c r="B643">
-        <v>25643.4016166846</v>
+        <v>38525.85185871718</v>
       </c>
       <c r="C643">
-        <v>2632.672292719162</v>
+        <v>546.3382878068594</v>
       </c>
     </row>
     <row r="644" spans="1:3">
@@ -7458,10 +7458,10 @@
         <v>642</v>
       </c>
       <c r="B644">
-        <v>22210.52784507109</v>
+        <v>35092.97808710366</v>
       </c>
       <c r="C644">
-        <v>5361.473644368796</v>
+        <v>3275.139639456494</v>
       </c>
     </row>
     <row r="645" spans="1:3">
@@ -7469,10 +7469,10 @@
         <v>643</v>
       </c>
       <c r="B645">
-        <v>13853.46203511227</v>
+        <v>26610.72125320356</v>
       </c>
       <c r="C645">
-        <v>2278.078839655385</v>
+        <v>374.5730764923896</v>
       </c>
     </row>
     <row r="646" spans="1:3">
@@ -7480,10 +7480,10 @@
         <v>644</v>
       </c>
       <c r="B646">
-        <v>24043.48717346149</v>
+        <v>36675.55536761149</v>
       </c>
       <c r="C646">
-        <v>2461.601727818229</v>
+        <v>740.9242064045403</v>
       </c>
     </row>
     <row r="647" spans="1:3">
@@ -7491,10 +7491,10 @@
         <v>645</v>
       </c>
       <c r="B647">
-        <v>19859.01931697888</v>
+        <v>32365.89648718761</v>
       </c>
       <c r="C647">
-        <v>5176.375405463137</v>
+        <v>3638.526125798756</v>
       </c>
     </row>
     <row r="648" spans="1:3">
@@ -7502,10 +7502,10 @@
         <v>646</v>
       </c>
       <c r="B648">
-        <v>19810.75900285865</v>
+        <v>32192.4451491261</v>
       </c>
       <c r="C648">
-        <v>5037.737493813929</v>
+        <v>3682.716455898855</v>
       </c>
     </row>
     <row r="649" spans="1:3">
@@ -7513,10 +7513,10 @@
         <v>647</v>
       </c>
       <c r="B649">
-        <v>17452.33874754303</v>
+        <v>29708.8338698692</v>
       </c>
       <c r="C649">
-        <v>4219.19422071492</v>
+        <v>3047.001424549152</v>
       </c>
     </row>
     <row r="650" spans="1:3">
@@ -7524,10 +7524,10 @@
         <v>648</v>
       </c>
       <c r="B650">
-        <v>17210.90672448101</v>
+        <v>29342.2108228659</v>
       </c>
       <c r="C650">
-        <v>6089.158448101352</v>
+        <v>5099.79389368489</v>
       </c>
     </row>
     <row r="651" spans="1:3">
@@ -7535,10 +7535,10 @@
         <v>649</v>
       </c>
       <c r="B651">
-        <v>16826.42546303056</v>
+        <v>28957.72956141545</v>
       </c>
       <c r="C651">
-        <v>2812.485204083126</v>
+        <v>1823.120649666664</v>
       </c>
     </row>
     <row r="652" spans="1:3">
@@ -7546,10 +7546,10 @@
         <v>650</v>
       </c>
       <c r="B652">
-        <v>16007.42636891049</v>
+        <v>28303.11057833956</v>
       </c>
       <c r="C652">
-        <v>-484.6903338025541</v>
+        <v>-1472.008893869816</v>
       </c>
     </row>
     <row r="653" spans="1:3">
@@ -7557,10 +7557,10 @@
         <v>651</v>
       </c>
       <c r="B653">
-        <v>18866.0179425948</v>
+        <v>31326.08226306804</v>
       </c>
       <c r="C653">
-        <v>-30.07612543321056</v>
+        <v>-1015.348691151273</v>
       </c>
     </row>
     <row r="654" spans="1:3">
@@ -7568,10 +7568,10 @@
         <v>652</v>
       </c>
       <c r="B654">
-        <v>18158.14962591296</v>
+        <v>30782.59405743038</v>
       </c>
       <c r="C654">
-        <v>4802.768252605681</v>
+        <v>3819.541681236818</v>
       </c>
     </row>
     <row r="655" spans="1:3">
@@ -7579,10 +7579,10 @@
         <v>653</v>
       </c>
       <c r="B655">
-        <v>23574.71871675921</v>
+        <v>36363.54325932079</v>
       </c>
       <c r="C655">
-        <v>5531.984368849768</v>
+        <v>4550.803791830104</v>
       </c>
     </row>
     <row r="656" spans="1:3">
@@ -7590,10 +7590,10 @@
         <v>654</v>
       </c>
       <c r="B656">
-        <v>19924.1747289323</v>
+        <v>32877.37938253806</v>
       </c>
       <c r="C656">
-        <v>2611.694253950912</v>
+        <v>1632.559671280449</v>
       </c>
     </row>
     <row r="657" spans="1:3">
@@ -7601,10 +7601,10 @@
         <v>655</v>
       </c>
       <c r="B657">
-        <v>14787.25480249644</v>
+        <v>27904.83956714637</v>
       </c>
       <c r="C657">
-        <v>3789.3680832241</v>
+        <v>2812.279494902838</v>
       </c>
     </row>
     <row r="658" spans="1:3">
@@ -7612,10 +7612,10 @@
         <v>656</v>
       </c>
       <c r="B658">
-        <v>16605.72019703887</v>
+        <v>29723.3049616888</v>
       </c>
       <c r="C658">
-        <v>-12.11983311495283</v>
+        <v>-989.2084214362158</v>
       </c>
     </row>
     <row r="659" spans="1:3">
@@ -7623,10 +7623,10 @@
         <v>657</v>
       </c>
       <c r="B659">
-        <v>14553.1837561884</v>
+        <v>27066.52432213628</v>
       </c>
       <c r="C659">
-        <v>2969.807899881266</v>
+        <v>2065.435291488029</v>
       </c>
     </row>
     <row r="660" spans="1:3">
@@ -7634,10 +7634,10 @@
         <v>658</v>
       </c>
       <c r="B660">
-        <v>20833.39491783766</v>
+        <v>32742.49128508348</v>
       </c>
       <c r="C660">
-        <v>2728.294309148875</v>
+        <v>1896.637680683663</v>
       </c>
     </row>
     <row r="661" spans="1:3">
@@ -7645,10 +7645,10 @@
         <v>659</v>
       </c>
       <c r="B661">
-        <v>15707.61857268923</v>
+        <v>27012.47074123301</v>
       </c>
       <c r="C661">
-        <v>-910.3947703794988</v>
+        <v>-1669.335418916685</v>
       </c>
     </row>
     <row r="662" spans="1:3">
@@ -7656,10 +7656,10 @@
         <v>660</v>
       </c>
       <c r="B662">
-        <v>17781.84920126481</v>
+        <v>28482.45717110654</v>
       </c>
       <c r="C662">
-        <v>-899.955322838669</v>
+        <v>-1586.17999144783</v>
       </c>
     </row>
     <row r="663" spans="1:3">
@@ -7667,10 +7667,10 @@
         <v>661</v>
       </c>
       <c r="B663">
-        <v>19099.64695973481</v>
+        <v>29196.01073087449</v>
       </c>
       <c r="C663">
-        <v>1793.405244056471</v>
+        <v>1179.896555375336</v>
       </c>
     </row>
     <row r="664" spans="1:3">
@@ -7678,10 +7678,10 @@
         <v>662</v>
       </c>
       <c r="B664">
-        <v>16941.44022771951</v>
+        <v>26433.55980015714</v>
       </c>
       <c r="C664">
-        <v>-3251.88799431796</v>
+        <v>-3792.68070307107</v>
       </c>
     </row>
     <row r="665" spans="1:3">
@@ -7689,10 +7689,10 @@
         <v>663</v>
       </c>
       <c r="B665">
-        <v>17651.54364220368</v>
+        <v>27143.66321464131</v>
       </c>
       <c r="C665">
-        <v>2331.200196541251</v>
+        <v>1790.407487788141</v>
       </c>
     </row>
     <row r="666" spans="1:3">
@@ -7700,10 +7700,10 @@
         <v>664</v>
       </c>
       <c r="B666">
-        <v>18361.25723075041</v>
+        <v>27545.87428030144</v>
       </c>
       <c r="C666">
-        <v>-830.9468410311486</v>
+        <v>-1294.939023447065</v>
       </c>
     </row>
     <row r="667" spans="1:3">
@@ -7711,10 +7711,10 @@
         <v>665</v>
       </c>
       <c r="B667">
-        <v>16646.60231783318</v>
+        <v>25523.7168444976</v>
       </c>
       <c r="C667">
-        <v>2496.708967495476</v>
+        <v>2109.517311416753</v>
       </c>
     </row>
     <row r="668" spans="1:3">
@@ -7722,10 +7722,10 @@
         <v>666</v>
       </c>
       <c r="B668">
-        <v>18059.96239995369</v>
+        <v>26629.57440373151</v>
       </c>
       <c r="C668">
-        <v>-1253.066241695586</v>
+        <v>-1563.457371437116</v>
       </c>
     </row>
     <row r="669" spans="1:3">
@@ -7733,10 +7733,10 @@
         <v>667</v>
       </c>
       <c r="B669">
-        <v>24315.51624999013</v>
+        <v>32577.62573088134</v>
       </c>
       <c r="C669">
-        <v>2235.163780392217</v>
+        <v>2001.573176987881</v>
       </c>
     </row>
     <row r="670" spans="1:3">
@@ -7744,10 +7744,10 @@
         <v>668</v>
       </c>
       <c r="B670">
-        <v>16144.09494565356</v>
+        <v>24098.70190365816</v>
       </c>
       <c r="C670">
-        <v>-1483.304108782469</v>
+        <v>-1640.094185849612</v>
       </c>
     </row>
     <row r="671" spans="1:3">
@@ -7755,10 +7755,10 @@
         <v>669</v>
       </c>
       <c r="B671">
-        <v>23578.72643814623</v>
+        <v>31225.83087326422</v>
       </c>
       <c r="C671">
-        <v>-5432.017021344144</v>
+        <v>-5512.006572074093</v>
       </c>
     </row>
     <row r="672" spans="1:3">
@@ -7766,10 +7766,10 @@
         <v>670</v>
       </c>
       <c r="B672">
-        <v>17334.00216124079</v>
+        <v>24981.10659635879</v>
       </c>
       <c r="C672">
-        <v>5045.822914861723</v>
+        <v>4965.833364131774</v>
       </c>
     </row>
     <row r="673" spans="1:3">
@@ -7777,10 +7777,10 @@
         <v>671</v>
       </c>
       <c r="B673">
-        <v>12979.08362457108</v>
+        <v>20787.44656716243</v>
       </c>
       <c r="C673">
-        <v>3374.029782274712</v>
+        <v>3397.890314245718</v>
       </c>
     </row>
     <row r="674" spans="1:3">
@@ -7788,10 +7788,10 @@
         <v>672</v>
       </c>
       <c r="B674">
-        <v>8664.941165887782</v>
+        <v>16634.56261595248</v>
       </c>
       <c r="C674">
-        <v>-4262.850625472598</v>
+        <v>-4135.140010800636</v>
       </c>
     </row>
     <row r="675" spans="1:3">
@@ -7799,10 +7799,10 @@
         <v>673</v>
       </c>
       <c r="B675">
-        <v>16724.4721162714</v>
+        <v>24855.35207380944</v>
       </c>
       <c r="C675">
-        <v>2567.08870962106</v>
+        <v>2798.649406993976</v>
       </c>
     </row>
     <row r="676" spans="1:3">
@@ -7810,10 +7810,10 @@
         <v>674</v>
       </c>
       <c r="B676">
-        <v>13105.53546878209</v>
+        <v>21397.67393379348</v>
       </c>
       <c r="C676">
-        <v>4589.125270592854</v>
+        <v>4924.536050666726</v>
       </c>
     </row>
     <row r="677" spans="1:3">
@@ -7821,10 +7821,10 @@
         <v>675</v>
       </c>
       <c r="B677">
-        <v>21313.62667781681</v>
+        <v>29767.02365030155</v>
       </c>
       <c r="C677">
-        <v>-1398.608095048</v>
+        <v>-959.3472322731734</v>
       </c>
     </row>
     <row r="678" spans="1:3">
@@ -7832,10 +7832,10 @@
         <v>676</v>
       </c>
       <c r="B678">
-        <v>12899.48648022494</v>
+        <v>21514.14196018303</v>
       </c>
       <c r="C678">
-        <v>-1011.134211406239</v>
+        <v>-468.0232659304568</v>
       </c>
     </row>
     <row r="679" spans="1:3">
@@ -7843,10 +7843,10 @@
         <v>677</v>
       </c>
       <c r="B679">
-        <v>19415.7183752017</v>
+        <v>28030.37385515979</v>
       </c>
       <c r="C679">
-        <v>5954.298430990999</v>
+        <v>6497.40937646678</v>
       </c>
     </row>
     <row r="680" spans="1:3">
@@ -7854,10 +7854,10 @@
         <v>678</v>
       </c>
       <c r="B680">
-        <v>20587.72233042366</v>
+        <v>28750.3658224936</v>
       </c>
       <c r="C680">
-        <v>2607.889814322736</v>
+        <v>2996.586405783935</v>
       </c>
     </row>
     <row r="681" spans="1:3">
@@ -7865,10 +7865,10 @@
         <v>679</v>
       </c>
       <c r="B681">
-        <v>19966.68819621055</v>
+        <v>27677.31970039234</v>
       </c>
       <c r="C681">
-        <v>1815.431971299333</v>
+        <v>2049.71420874595</v>
       </c>
     </row>
     <row r="682" spans="1:3">
@@ -7876,10 +7876,10 @@
         <v>680</v>
       </c>
       <c r="B682">
-        <v>17090.75929111266</v>
+        <v>24349.3788074063</v>
       </c>
       <c r="C682">
-        <v>-968.1598679824358</v>
+        <v>-888.2919845504023</v>
       </c>
     </row>
     <row r="683" spans="1:3">
@@ -7887,10 +7887,10 @@
         <v>681</v>
       </c>
       <c r="B683">
-        <v>15130.57114979025</v>
+        <v>21937.17867819575</v>
       </c>
       <c r="C683">
-        <v>3276.669406934123</v>
+        <v>3202.122936351574</v>
       </c>
     </row>
     <row r="684" spans="1:3">
@@ -7898,10 +7898,10 @@
         <v>682</v>
       </c>
       <c r="B684">
-        <v>16276.62639440885</v>
+        <v>22631.2219349262</v>
       </c>
       <c r="C684">
-        <v>-1666.59390206795</v>
+        <v>-1895.554726665082</v>
       </c>
     </row>
     <row r="685" spans="1:3">
@@ -7909,10 +7909,10 @@
         <v>683</v>
       </c>
       <c r="B685">
-        <v>13473.03008299703</v>
+        <v>19375.61363562623</v>
       </c>
       <c r="C685">
-        <v>2539.591727152073</v>
+        <v>2156.216548540358</v>
       </c>
     </row>
     <row r="686" spans="1:3">
@@ -7920,10 +7920,10 @@
         <v>684</v>
       </c>
       <c r="B686">
-        <v>17876.85044578631</v>
+        <v>23779.43399841551</v>
       </c>
       <c r="C686">
-        <v>-1818.564335160009</v>
+        <v>-2201.939513771724</v>
       </c>
     </row>
     <row r="687" spans="1:3">
@@ -7931,10 +7931,10 @@
         <v>685</v>
       </c>
       <c r="B687">
-        <v>14241.22022563252</v>
+        <v>20796.05920251819</v>
       </c>
       <c r="C687">
-        <v>-1306.68312317677</v>
+        <v>-1607.590392057899</v>
       </c>
     </row>
     <row r="688" spans="1:3">
@@ -7942,10 +7942,10 @@
         <v>686</v>
       </c>
       <c r="B688">
-        <v>21298.5282470334</v>
+        <v>28505.62264817553</v>
       </c>
       <c r="C688">
-        <v>-2037.939425293438</v>
+        <v>-2256.378784443981</v>
       </c>
     </row>
     <row r="689" spans="1:3">
@@ -7953,10 +7953,10 @@
         <v>687</v>
       </c>
       <c r="B689">
-        <v>21768.35283644059</v>
+        <v>29627.70266183919</v>
       </c>
       <c r="C689">
-        <v>3511.16753859058</v>
+        <v>3375.196089170624</v>
       </c>
     </row>
     <row r="690" spans="1:3">
@@ -7964,10 +7964,10 @@
         <v>688</v>
       </c>
       <c r="B690">
-        <v>26364.05523859648</v>
+        <v>34875.66048825154</v>
       </c>
       <c r="C690">
-        <v>-40.91070591146377</v>
+        <v>-94.41424560083465</v>
       </c>
     </row>
     <row r="691" spans="1:3">
@@ -7975,10 +7975,10 @@
         <v>689</v>
       </c>
       <c r="B691">
-        <v>19914.14552796191</v>
+        <v>29078.00620187345</v>
       </c>
       <c r="C691">
-        <v>4293.962341319869</v>
+        <v>4322.926711361083</v>
       </c>
     </row>
     <row r="692" spans="1:3">
@@ -7986,10 +7986,10 @@
         <v>690</v>
       </c>
       <c r="B692">
-        <v>18316.70554515444</v>
+        <v>28132.82164332244</v>
       </c>
       <c r="C692">
-        <v>1684.223133900308</v>
+        <v>1795.65541367211</v>
       </c>
     </row>
     <row r="693" spans="1:3">
@@ -7997,10 +7997,10 @@
         <v>691</v>
       </c>
       <c r="B693">
-        <v>21598.79944540069</v>
+        <v>31414.91554356868</v>
       </c>
       <c r="C693">
-        <v>2805.07937100459</v>
+        <v>2916.511650776391</v>
       </c>
     </row>
     <row r="694" spans="1:3">
@@ -8008,10 +8008,10 @@
         <v>692</v>
       </c>
       <c r="B694">
-        <v>27336.07262499839</v>
+        <v>37524.96673298463</v>
       </c>
       <c r="C694">
-        <v>-392.0988199184665</v>
+        <v>-400.2199379083665</v>
       </c>
     </row>
     <row r="695" spans="1:3">
@@ -8019,10 +8019,10 @@
         <v>693</v>
       </c>
       <c r="B695">
-        <v>25202.31844196421</v>
+        <v>35763.9905597687</v>
       </c>
       <c r="C695">
-        <v>551.5713750060515</v>
+        <v>423.8968592544504</v>
       </c>
     </row>
     <row r="696" spans="1:3">
@@ -8030,10 +8030,10 @@
         <v>694</v>
       </c>
       <c r="B696">
-        <v>18961.23102217368</v>
+        <v>29895.68114979642</v>
       </c>
       <c r="C696">
-        <v>-3197.171860227505</v>
+        <v>-3444.399773740807</v>
       </c>
     </row>
     <row r="697" spans="1:3">
@@ -8041,10 +8041,10 @@
         <v>695</v>
       </c>
       <c r="B697">
-        <v>21925.10844108977</v>
+        <v>33232.33657853076</v>
       </c>
       <c r="C697">
-        <v>1823.400076248598</v>
+        <v>1456.618764973594</v>
       </c>
     </row>
     <row r="698" spans="1:3">
@@ -8052,10 +8052,10 @@
         <v>696</v>
       </c>
       <c r="B698">
-        <v>27458.12786492189</v>
+        <v>39138.13401218113</v>
       </c>
       <c r="C698">
-        <v>2640.676166117093</v>
+        <v>2154.341457080388</v>
       </c>
     </row>
     <row r="699" spans="1:3">
@@ -8063,10 +8063,10 @@
         <v>697</v>
       </c>
       <c r="B699">
-        <v>21257.81537294183</v>
+        <v>33310.59953001931</v>
       </c>
       <c r="C699">
-        <v>4011.177057873689</v>
+        <v>3405.288951075283</v>
       </c>
     </row>
     <row r="700" spans="1:3">
@@ -8074,10 +8074,10 @@
         <v>698</v>
       </c>
       <c r="B700">
-        <v>24195.5867714812</v>
+        <v>36248.37092855869</v>
       </c>
       <c r="C700">
-        <v>-1640.854993016454</v>
+        <v>-2246.74309981486</v>
       </c>
     </row>
     <row r="701" spans="1:3">
@@ -8085,10 +8085,10 @@
         <v>699</v>
       </c>
       <c r="B701">
-        <v>23838.88645554246</v>
+        <v>35958.24695991402</v>
       </c>
       <c r="C701">
-        <v>-5072.854925616934</v>
+        <v>-5761.499279945242</v>
       </c>
     </row>
     <row r="702" spans="1:3">
@@ -8096,10 +8096,10 @@
         <v>700</v>
       </c>
       <c r="B702">
-        <v>22449.79190777989</v>
+        <v>34635.72875944553</v>
       </c>
       <c r="C702">
-        <v>4414.523155920862</v>
+        <v>3643.122554062653</v>
       </c>
     </row>
     <row r="703" spans="1:3">
@@ -8107,10 +8107,10 @@
         <v>701</v>
       </c>
       <c r="B703">
-        <v>29802.82738763824</v>
+        <v>42055.34058659796</v>
       </c>
       <c r="C703">
-        <v>4542.210642356073</v>
+        <v>3688.053792967961</v>
       </c>
     </row>
     <row r="704" spans="1:3">
@@ -8118,10 +8118,10 @@
         <v>702</v>
       </c>
       <c r="B704">
-        <v>21703.9948929594</v>
+        <v>34023.08443921318</v>
       </c>
       <c r="C704">
-        <v>-281.773177546349</v>
+        <v>-1218.686274464362</v>
       </c>
     </row>
     <row r="705" spans="1:3">
@@ -8129,10 +8129,10 @@
         <v>703</v>
       </c>
       <c r="B705">
-        <v>16119.16493665848</v>
+        <v>28504.83083020635</v>
       </c>
       <c r="C705">
-        <v>4926.252602972876</v>
+        <v>3906.583258524962</v>
       </c>
     </row>
     <row r="706" spans="1:3">
@@ -8140,10 +8140,10 @@
         <v>704</v>
       </c>
       <c r="B706">
-        <v>21282.93485099281</v>
+        <v>33735.17709183476</v>
       </c>
       <c r="C706">
-        <v>2029.969608581086</v>
+        <v>927.5440166032693</v>
       </c>
     </row>
     <row r="707" spans="1:3">
@@ -8151,10 +8151,10 @@
         <v>705</v>
       </c>
       <c r="B707">
-        <v>15499.24685467399</v>
+        <v>27951.48909551595</v>
       </c>
       <c r="C707">
-        <v>1780.91644997614</v>
+        <v>678.4908579983243</v>
       </c>
     </row>
     <row r="708" spans="1:3">
@@ -8162,10 +8162,10 @@
         <v>706</v>
       </c>
       <c r="B708">
-        <v>15612.49831523246</v>
+        <v>28310.38437972677</v>
       </c>
       <c r="C708">
-        <v>5446.688859010226</v>
+        <v>4379.765860030952</v>
       </c>
     </row>
     <row r="709" spans="1:3">
@@ -8173,10 +8173,10 @@
         <v>707</v>
       </c>
       <c r="B709">
-        <v>14683.47959246077</v>
+        <v>27627.00948060743</v>
       </c>
       <c r="C709">
-        <v>2176.496240623074</v>
+        <v>1145.075834642342</v>
       </c>
     </row>
     <row r="710" spans="1:3">
@@ -8184,10 +8184,10 @@
         <v>708</v>
       </c>
       <c r="B710">
-        <v>21622.25238703292</v>
+        <v>34811.42609883193</v>
       </c>
       <c r="C710">
-        <v>6306.041695419579</v>
+        <v>5310.123882437389</v>
       </c>
     </row>
     <row r="711" spans="1:3">
@@ -8195,10 +8195,10 @@
         <v>709</v>
       </c>
       <c r="B711">
-        <v>15412.31963831336</v>
+        <v>28847.13717376472</v>
       </c>
       <c r="C711">
-        <v>1826.275891779705</v>
+        <v>865.8606717960565</v>
       </c>
     </row>
     <row r="712" spans="1:3">
@@ -8206,10 +8206,10 @@
         <v>710</v>
       </c>
       <c r="B712">
-        <v>19635.90187524429</v>
+        <v>33316.36323434801</v>
       </c>
       <c r="C712">
-        <v>3204.656616059317</v>
+        <v>2279.74398907421</v>
       </c>
     </row>
     <row r="713" spans="1:3">
@@ -8217,10 +8217,10 @@
         <v>711</v>
       </c>
       <c r="B713">
-        <v>17622.11501314419</v>
+        <v>31548.22019590025</v>
       </c>
       <c r="C713">
-        <v>3752.717551743107</v>
+        <v>2863.307517756542</v>
       </c>
     </row>
     <row r="714" spans="1:3">
@@ -8228,10 +8228,10 @@
         <v>712</v>
       </c>
       <c r="B714">
-        <v>21378.84980989708</v>
+        <v>35304.95499265315</v>
       </c>
       <c r="C714">
-        <v>4606.64586876003</v>
+        <v>3717.235834773464</v>
       </c>
     </row>
     <row r="715" spans="1:3">
@@ -8239,10 +8239,10 @@
         <v>713</v>
       </c>
       <c r="B715">
-        <v>14364.31136786511</v>
+        <v>26985.15208856015</v>
       </c>
       <c r="C715">
-        <v>1637.77775796682</v>
+        <v>856.5413429491579</v>
       </c>
     </row>
     <row r="716" spans="1:3">
@@ -8250,10 +8250,10 @@
         <v>714</v>
       </c>
       <c r="B716">
-        <v>21073.63508606893</v>
+        <v>32389.21134470293</v>
       </c>
       <c r="C716">
-        <v>4120.43555150005</v>
+        <v>3447.372755451293</v>
       </c>
     </row>
     <row r="717" spans="1:3">
@@ -8261,10 +8261,10 @@
         <v>715</v>
       </c>
       <c r="B717">
-        <v>16009.9332108618</v>
+        <v>26020.24500743476</v>
       </c>
       <c r="C717">
-        <v>2369.101191791028</v>
+        <v>1804.212014711173</v>
       </c>
     </row>
     <row r="718" spans="1:3">
@@ -8272,10 +8272,10 @@
         <v>716</v>
       </c>
       <c r="B718">
-        <v>18110.63379261261</v>
+        <v>26815.68112712454</v>
       </c>
       <c r="C718">
-        <v>2235.094091807453</v>
+        <v>1778.378533696502</v>
       </c>
     </row>
     <row r="719" spans="1:3">
@@ -8283,10 +8283,10 @@
         <v>717</v>
       </c>
       <c r="B719">
-        <v>14768.15410517923</v>
+        <v>22167.93697763012</v>
       </c>
       <c r="C719">
-        <v>334.3423603182969</v>
+        <v>-14.19957882375024</v>
       </c>
     </row>
     <row r="720" spans="1:3">
@@ -8294,10 +8294,10 @@
         <v>718</v>
       </c>
       <c r="B720">
-        <v>15480.14987350717</v>
+        <v>21574.66828389703</v>
       </c>
       <c r="C720">
-        <v>249.4476750742806</v>
+        <v>9.079354901137322</v>
       </c>
     </row>
     <row r="721" spans="1:3">
@@ -8305,10 +8305,10 @@
         <v>719</v>
       </c>
       <c r="B721">
-        <v>10335.47301122545</v>
+        <v>16429.99142161531</v>
       </c>
       <c r="C721">
-        <v>80.49673792185808</v>
+        <v>-159.8715822512852</v>
       </c>
     </row>
     <row r="722" spans="1:3">
@@ -8316,10 +8316,10 @@
         <v>720</v>
       </c>
       <c r="B722">
-        <v>23031.83848608485</v>
+        <v>30164.4570228112</v>
       </c>
       <c r="C722">
-        <v>1124.779373364151</v>
+        <v>975.0637914601659</v>
       </c>
     </row>
     <row r="723" spans="1:3">
@@ -8327,10 +8327,10 @@
         <v>721</v>
       </c>
       <c r="B723">
-        <v>17227.0724773775</v>
+        <v>25397.79114044033</v>
       </c>
       <c r="C723">
-        <v>352.5858016327632</v>
+        <v>293.5229579979357</v>
       </c>
     </row>
     <row r="724" spans="1:3">
@@ -8338,10 +8338,10 @@
         <v>722</v>
       </c>
       <c r="B724">
-        <v>19537.87436097419</v>
+        <v>28746.69315037352</v>
       </c>
       <c r="C724">
-        <v>-160.4267827298499</v>
+        <v>-128.8368880955195</v>
       </c>
     </row>
     <row r="725" spans="1:3">
@@ -8349,10 +8349,10 @@
         <v>723</v>
       </c>
       <c r="B725">
-        <v>24014.19566001038</v>
+        <v>34261.1145757462</v>
       </c>
       <c r="C725">
-        <v>1812.157856290817</v>
+        <v>1934.400489194306</v>
       </c>
     </row>
     <row r="726" spans="1:3">
@@ -8360,10 +8360,10 @@
         <v>724</v>
       </c>
       <c r="B726">
-        <v>27693.5374948533</v>
+        <v>38978.5565369256</v>
       </c>
       <c r="C726">
-        <v>2239.367026648518</v>
+        <v>2452.262397821164</v>
       </c>
     </row>
     <row r="727" spans="1:3">
@@ -8371,10 +8371,10 @@
         <v>725</v>
       </c>
       <c r="B727">
-        <v>21265.58740637398</v>
+        <v>33588.70657478277</v>
       </c>
       <c r="C727">
-        <v>282.1722653008562</v>
+        <v>585.7203747426604</v>
       </c>
     </row>
     <row r="728" spans="1:3">
@@ -8382,10 +8382,10 @@
         <v>726</v>
       </c>
       <c r="B728">
-        <v>22179.93120383304</v>
+        <v>34503.05037224182</v>
       </c>
       <c r="C728">
-        <v>187.0880473557369</v>
+        <v>490.636156797541</v>
       </c>
     </row>
     <row r="729" spans="1:3">
@@ -8393,10 +8393,10 @@
         <v>727</v>
       </c>
       <c r="B729">
-        <v>21257.03332045307</v>
+        <v>33580.15248886185</v>
       </c>
       <c r="C729">
-        <v>-1113.121215314021</v>
+        <v>-809.5731058722165</v>
       </c>
     </row>
     <row r="730" spans="1:3">
@@ -8404,10 +8404,10 @@
         <v>728</v>
       </c>
       <c r="B730">
-        <v>24589.89703496856</v>
+        <v>36913.01620337734</v>
       </c>
       <c r="C730">
-        <v>1613.993796959736</v>
+        <v>1917.54190640154</v>
       </c>
     </row>
     <row r="731" spans="1:3">
@@ -8415,10 +8415,10 @@
         <v>729</v>
       </c>
       <c r="B731">
-        <v>21267.68274730594</v>
+        <v>33590.80191571473</v>
       </c>
       <c r="C731">
-        <v>1904.951860686611</v>
+        <v>2208.499970128415</v>
       </c>
     </row>
   </sheetData>

--- a/Stochastic_engine/CA_hydropower/CA_hydro_daily.xlsx
+++ b/Stochastic_engine/CA_hydropower/CA_hydro_daily.xlsx
@@ -396,10 +396,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>41367.81378663747</v>
+        <v>67618.4954368195</v>
       </c>
       <c r="C2">
-        <v>570.5958582944269</v>
+        <v>1956.717624981809</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -407,10 +407,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>36972.06915538136</v>
+        <v>63222.75080556339</v>
       </c>
       <c r="C3">
-        <v>-1915.504218477891</v>
+        <v>-529.3824517905091</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>47325.08362535484</v>
+        <v>73575.76527553688</v>
       </c>
       <c r="C4">
-        <v>618.9281283782002</v>
+        <v>2005.049895065582</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>47884.06598856281</v>
+        <v>74134.74763874484</v>
       </c>
       <c r="C5">
-        <v>1161.67709682495</v>
+        <v>2547.798863512332</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>41303.95332894699</v>
+        <v>67554.63497912901</v>
       </c>
       <c r="C6">
-        <v>2721.334041163174</v>
+        <v>4107.455807850556</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>40968.82739972037</v>
+        <v>66477.07880125611</v>
       </c>
       <c r="C7">
-        <v>-1418.065693324008</v>
+        <v>1386.106812354712</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>44577.31455907116</v>
+        <v>69343.13571196064</v>
       </c>
       <c r="C8">
-        <v>1229.147431226132</v>
+        <v>5451.37067589619</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>41221.26249577921</v>
+        <v>65244.65340002241</v>
       </c>
       <c r="C9">
-        <v>2719.377398929429</v>
+        <v>8359.651382590824</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>37691.88759662726</v>
+        <v>60972.84825222418</v>
       </c>
       <c r="C10">
-        <v>-1127.558933249873</v>
+        <v>5930.765789402861</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32188.56783649253</v>
+        <v>54727.09824344316</v>
       </c>
       <c r="C11">
-        <v>4154.438906462777</v>
+        <v>12630.81436810685</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>36764.50673229095</v>
+        <v>58560.6068905953</v>
       </c>
       <c r="C12">
-        <v>3145.850795673173</v>
+        <v>13040.27699630858</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34955.37834622832</v>
+        <v>56751.47850453267</v>
       </c>
       <c r="C13">
-        <v>576.4860487960466</v>
+        <v>10470.91224943146</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>40824.87848782304</v>
+        <v>56925.41064395574</v>
       </c>
       <c r="C14">
-        <v>2298.023770618397</v>
+        <v>10931.94688167971</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>37648.29475682344</v>
+        <v>48053.25891078448</v>
       </c>
       <c r="C15">
-        <v>7853.833352831216</v>
+        <v>15227.25337431843</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31498.89699880614</v>
+        <v>36208.29315059553</v>
       </c>
       <c r="C16">
-        <v>5615.128856026138</v>
+        <v>11728.04578793925</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>45306.81902599851</v>
+        <v>44320.64717561626</v>
       </c>
       <c r="C17">
-        <v>-338.5220933413848</v>
+        <v>4513.891748997634</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -572,10 +572,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>45757.43613754969</v>
+        <v>39075.69628499579</v>
       </c>
       <c r="C18">
-        <v>395.1816281312999</v>
+        <v>3987.092380896221</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -583,10 +583,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>44709.99422462523</v>
+        <v>32332.68636989967</v>
       </c>
       <c r="C19">
-        <v>4951.856741296808</v>
+        <v>7283.264404487631</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -594,10 +594,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>47716.01691052152</v>
+        <v>35338.70905579596</v>
       </c>
       <c r="C20">
-        <v>1105.187027215834</v>
+        <v>3436.594690406658</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -605,10 +605,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>51837.68167289093</v>
+        <v>40640.33942745476</v>
       </c>
       <c r="C21">
-        <v>4851.739521594553</v>
+        <v>7050.50907439432</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -616,10 +616,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>47113.03424930362</v>
+        <v>37095.65761315684</v>
       </c>
       <c r="C22">
-        <v>4041.561664176417</v>
+        <v>6107.693106585126</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -627,10 +627,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>48886.15671495745</v>
+        <v>40048.74568810008</v>
       </c>
       <c r="C23">
-        <v>2807.322680165706</v>
+        <v>4740.816012183358</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -638,10 +638,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>53449.94115212229</v>
+        <v>45792.49573455431</v>
       </c>
       <c r="C24">
-        <v>4592.126453695296</v>
+        <v>6392.981675321892</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -649,10 +649,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>49127.56430261929</v>
+        <v>42650.08449434071</v>
       </c>
       <c r="C25">
-        <v>1384.89179844335</v>
+        <v>3053.108909678889</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -660,10 +660,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>53221.31469609381</v>
+        <v>47923.80049710461</v>
       </c>
       <c r="C26">
-        <v>3330.165549669542</v>
+        <v>4865.744550514024</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -671,10 +671,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>56393.19609793669</v>
+        <v>51095.68189894749</v>
       </c>
       <c r="C27">
-        <v>2906.84815161881</v>
+        <v>4442.427152463291</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -682,10 +682,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>51706.67348786067</v>
+        <v>47843.46662833841</v>
       </c>
       <c r="C28">
-        <v>5232.550936491353</v>
+        <v>6519.069928602451</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -693,10 +693,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>57973.96545916145</v>
+        <v>55545.06593910616</v>
       </c>
       <c r="C29">
-        <v>3881.306864033759</v>
+        <v>4918.765847411471</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -704,10 +704,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>58805.05510207975</v>
+        <v>57810.46292149141</v>
       </c>
       <c r="C30">
-        <v>4108.367857757987</v>
+        <v>4896.766832402314</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -715,10 +715,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>50478.9417315324</v>
+        <v>50918.656890411</v>
       </c>
       <c r="C31">
-        <v>5186.026744418426</v>
+        <v>5725.365710329369</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -726,10 +726,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>54204.53942018469</v>
+        <v>56078.56191853026</v>
       </c>
       <c r="C32">
-        <v>2544.632010757263</v>
+        <v>2834.910967934821</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -737,10 +737,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>53704.51611445038</v>
+        <v>57012.8459522629</v>
       </c>
       <c r="C33">
-        <v>-379.3436976838971</v>
+        <v>-338.1247492397238</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -748,10 +748,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>53089.03035079735</v>
+        <v>56397.36018860987</v>
       </c>
       <c r="C34">
-        <v>537.9208820411168</v>
+        <v>579.1398304852901</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -759,10 +759,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>53393.37339444215</v>
+        <v>56689.92775113631</v>
       </c>
       <c r="C35">
-        <v>5704.856416666067</v>
+        <v>6457.999976894326</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -770,10 +770,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>56897.99039582649</v>
+        <v>60182.76927140227</v>
       </c>
       <c r="C36">
-        <v>1998.563392539652</v>
+        <v>3463.631564551997</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -781,10 +781,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>53004.05406272873</v>
+        <v>56277.05745718615</v>
       </c>
       <c r="C37">
-        <v>3505.415759585694</v>
+        <v>5682.408543382126</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -792,10 +792,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>62425.08755471851</v>
+        <v>65686.31546805755</v>
       </c>
       <c r="C38">
-        <v>-2072.577289783807</v>
+        <v>816.3401057967094</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -803,10 +803,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>59136.46559085177</v>
+        <v>62385.91802307244</v>
       </c>
       <c r="C39">
-        <v>905.2422631117993</v>
+        <v>4506.084270476402</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -814,10 +814,10 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>61406.56067641189</v>
+        <v>64644.23762751419</v>
       </c>
       <c r="C40">
-        <v>4006.115327129194</v>
+        <v>8318.881946277883</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -825,10 +825,10 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>61570.17140325754</v>
+        <v>64807.84835435983</v>
       </c>
       <c r="C41">
-        <v>4332.28315260043</v>
+        <v>8645.049771749118</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -836,10 +836,10 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>58993.84394771037</v>
+        <v>63825.62258727467</v>
       </c>
       <c r="C42">
-        <v>1714.138979903553</v>
+        <v>5558.136060580772</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -847,10 +847,10 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>57198.83546904967</v>
+        <v>63624.71579707597</v>
       </c>
       <c r="C43">
-        <v>1021.040182818535</v>
+        <v>4396.267725024285</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -858,10 +858,10 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>59129.02662456127</v>
+        <v>67149.00864104957</v>
       </c>
       <c r="C44">
-        <v>6300.400441702765</v>
+        <v>9206.858445437043</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -869,10 +869,10 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>54154.50203223366</v>
+        <v>63768.58573718397</v>
       </c>
       <c r="C45">
-        <v>6852.68388332144</v>
+        <v>9290.372348584249</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -880,10 +880,10 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>56519.271960122</v>
+        <v>67727.45735353431</v>
       </c>
       <c r="C46">
-        <v>1927.781993004154</v>
+        <v>3896.700919795494</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -891,10 +891,10 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>54066.37261344176</v>
+        <v>66868.65969531606</v>
       </c>
       <c r="C47">
-        <v>3842.561519150594</v>
+        <v>5342.710907470463</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -902,10 +902,10 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>48457.82423197101</v>
+        <v>61260.11131384532</v>
       </c>
       <c r="C48">
-        <v>6975.722868117526</v>
+        <v>8475.872256437395</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -913,10 +913,10 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>53329.03275405223</v>
+        <v>64734.20207520662</v>
       </c>
       <c r="C49">
-        <v>3086.756753283776</v>
+        <v>4424.225445355669</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -924,10 +924,10 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>50688.41305090697</v>
+        <v>60696.46461134145</v>
       </c>
       <c r="C50">
-        <v>1955.360270692767</v>
+        <v>3130.148266516686</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -935,10 +935,10 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>55185.54945080186</v>
+        <v>63796.48325051644</v>
       </c>
       <c r="C51">
-        <v>3070.165687583652</v>
+        <v>4082.272987159596</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -946,10 +946,10 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>55806.80349359447</v>
+        <v>63020.61953258913</v>
       </c>
       <c r="C52">
-        <v>5367.540872932686</v>
+        <v>6216.967476260654</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -957,10 +957,10 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>58819.61494193816</v>
+        <v>64636.31322021292</v>
       </c>
       <c r="C53">
-        <v>3647.066957351325</v>
+        <v>4333.812864431319</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -968,10 +968,10 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>54518.10345512842</v>
+        <v>58937.68397268327</v>
       </c>
       <c r="C54">
-        <v>1844.562550432386</v>
+        <v>2368.627761264403</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -979,10 +979,10 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>55217.64901266073</v>
+        <v>59637.22953021558</v>
       </c>
       <c r="C55">
-        <v>5156.954713244348</v>
+        <v>5681.019924076365</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -990,10 +990,10 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>63405.81900683946</v>
+        <v>64745.42717327526</v>
       </c>
       <c r="C56">
-        <v>6102.864658027364</v>
+        <v>6197.577250935795</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1001,10 +1001,10 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>64621.52372670623</v>
+        <v>62881.159542023</v>
       </c>
       <c r="C57">
-        <v>7239.964880094564</v>
+        <v>6905.324855079409</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1012,10 +1012,10 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>64823.34641584354</v>
+        <v>60003.00988004127</v>
       </c>
       <c r="C58">
-        <v>4444.061357491848</v>
+        <v>3680.068714553109</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1023,10 +1023,10 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>69674.41508595004</v>
+        <v>61774.10619902874</v>
       </c>
       <c r="C59">
-        <v>7804.072582790597</v>
+        <v>6610.727321928271</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1034,10 +1034,10 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>74668.89932053162</v>
+        <v>63688.61808249129</v>
       </c>
       <c r="C60">
-        <v>8216.614375512347</v>
+        <v>6593.916496726435</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1045,10 +1045,10 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>79965.06346679426</v>
+        <v>65904.80987763492</v>
       </c>
       <c r="C61">
-        <v>9626.947171033653</v>
+        <v>7574.896674324154</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1056,10 +1056,10 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>77787.38669281163</v>
+        <v>63727.13310365227</v>
       </c>
       <c r="C62">
-        <v>9722.284779767404</v>
+        <v>7670.234283057907</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1067,10 +1067,10 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>70902.98109126577</v>
+        <v>60781.37104606142</v>
       </c>
       <c r="C63">
-        <v>4791.924390997237</v>
+        <v>2884.548686780381</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1078,10 +1078,10 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>78287.84585339678</v>
+        <v>72104.87935214744</v>
       </c>
       <c r="C64">
-        <v>10083.71285579797</v>
+        <v>8321.011944073758</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1089,10 +1089,10 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>74632.25938688788</v>
+        <v>72387.93642959357</v>
       </c>
       <c r="C65">
-        <v>8316.18934021218</v>
+        <v>6698.163220980605</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1100,10 +1100,10 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>72622.12356657398</v>
+        <v>74316.44415323471</v>
       </c>
       <c r="C66">
-        <v>5614.791905531649</v>
+        <v>4141.440578792715</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1111,10 +1111,10 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>71280.08798730731</v>
+        <v>76913.05211792304</v>
       </c>
       <c r="C67">
-        <v>9875.831913253174</v>
+        <v>8547.155379006883</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1122,10 +1122,10 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>72509.40549146007</v>
+        <v>82081.01316603083</v>
       </c>
       <c r="C68">
-        <v>9554.658727682207</v>
+        <v>8370.656985928556</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1133,10 +1133,10 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>63551.80757748146</v>
+        <v>73123.41525205222</v>
       </c>
       <c r="C69">
-        <v>5287.467646443311</v>
+        <v>4103.46590468966</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1144,10 +1144,10 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>73146.35781720126</v>
+        <v>83865.65202291906</v>
       </c>
       <c r="C70">
-        <v>4179.552582336742</v>
+        <v>3168.92285345157</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1155,10 +1155,10 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>61329.41104430702</v>
+        <v>73196.39178117184</v>
       </c>
       <c r="C71">
-        <v>10618.81036138684</v>
+        <v>9781.552645370142</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1166,10 +1166,10 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>65962.4698632816</v>
+        <v>78977.13713129348</v>
       </c>
       <c r="C72">
-        <v>6272.735626011548</v>
+        <v>5608.849922863333</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1177,10 +1177,10 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>58564.74978393126</v>
+        <v>72727.10358309017</v>
       </c>
       <c r="C73">
-        <v>7577.10043843794</v>
+        <v>7086.586748158205</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1188,10 +1188,10 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>55140.12010004102</v>
+        <v>70450.16043034696</v>
       </c>
       <c r="C74">
-        <v>5503.834190593945</v>
+        <v>5186.692513182688</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1199,10 +1199,10 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>58869.98825293032</v>
+        <v>75327.71511438332</v>
       </c>
       <c r="C75">
-        <v>8372.199169325619</v>
+        <v>8228.42950478284</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1210,10 +1210,10 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>56175.02409237847</v>
+        <v>72632.75095383148</v>
       </c>
       <c r="C76">
-        <v>8424.915573713706</v>
+        <v>8281.145909170928</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1221,10 +1221,10 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>63245.62152458891</v>
+        <v>76047.54507260352</v>
       </c>
       <c r="C77">
-        <v>7397.249153147174</v>
+        <v>7427.402289995148</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1232,10 +1232,10 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>72375.96233571802</v>
+        <v>81522.08257029424</v>
       </c>
       <c r="C78">
-        <v>6871.76488566939</v>
+        <v>7075.840823908112</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1243,10 +1243,10 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>72375.69212923424</v>
+        <v>77866.00905037207</v>
       </c>
       <c r="C79">
-        <v>9550.810318087561</v>
+        <v>9928.809057717035</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1254,10 +1254,10 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>73580.20752698934</v>
+        <v>75414.72113468875</v>
       </c>
       <c r="C80">
-        <v>10395.60452707004</v>
+        <v>10947.52606809026</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1265,10 +1265,10 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>72006.90011098434</v>
+        <v>70185.61040524534</v>
       </c>
       <c r="C81">
-        <v>10475.84874743973</v>
+        <v>11201.6930898507</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1276,10 +1276,10 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>77630.08889118156</v>
+        <v>72152.99587200415</v>
       </c>
       <c r="C82">
-        <v>8124.300982035243</v>
+        <v>9024.068125836966</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1287,10 +1287,10 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>82841.50217978755</v>
+        <v>77364.40916061014</v>
       </c>
       <c r="C83">
-        <v>9901.977851578758</v>
+        <v>10801.74499538048</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1298,10 +1298,10 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>80057.63609429971</v>
+        <v>72432.27546296113</v>
       </c>
       <c r="C84">
-        <v>9978.082880280546</v>
+        <v>10541.14717908077</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1309,10 +1309,10 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>81266.48363104876</v>
+        <v>71492.85538754899</v>
       </c>
       <c r="C85">
-        <v>7885.434164265981</v>
+        <v>8111.795618064699</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1320,10 +1320,10 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>79338.50589092127</v>
+        <v>67416.6100352603</v>
       </c>
       <c r="C86">
-        <v>8329.692729385539</v>
+        <v>8219.351338182752</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1331,10 +1331,10 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>79642.91981729578</v>
+        <v>65572.75634947362</v>
       </c>
       <c r="C87">
-        <v>8367.641066091968</v>
+        <v>7920.596829887676</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1342,10 +1342,10 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>83323.75926800568</v>
+        <v>67105.32818802235</v>
       </c>
       <c r="C88">
-        <v>7956.072496080527</v>
+        <v>7172.325414874733</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1353,10 +1353,10 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>82081.82319567086</v>
+        <v>63715.12450352634</v>
       </c>
       <c r="C89">
-        <v>10583.50492917806</v>
+        <v>9463.055002970759</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1364,10 +1364,10 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>87051.10670877717</v>
+        <v>68684.40801663263</v>
       </c>
       <c r="C90">
-        <v>13303.04200674108</v>
+        <v>12182.59208053378</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1375,10 +1375,10 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>76736.15403435356</v>
+        <v>63359.19130710927</v>
       </c>
       <c r="C91">
-        <v>9029.863460756837</v>
+        <v>7464.178908854702</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1386,10 +1386,10 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>67677.24650129506</v>
+        <v>59290.01973895102</v>
       </c>
       <c r="C92">
-        <v>15153.25406088364</v>
+        <v>13142.33488328667</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1397,10 +1397,10 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>71026.84971194205</v>
+        <v>67629.35891449824</v>
       </c>
       <c r="C93">
-        <v>8457.272977706507</v>
+        <v>6001.119174414705</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1408,10 +1408,10 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>65079.21923785664</v>
+        <v>66671.46440531309</v>
       </c>
       <c r="C94">
-        <v>9982.266365412941</v>
+        <v>7080.877936426304</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1419,10 +1419,10 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>67542.18063042483</v>
+        <v>74124.1617627815</v>
       </c>
       <c r="C95">
-        <v>10096.48044827538</v>
+        <v>6749.857393593906</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1430,10 +1430,10 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>63167.61948616485</v>
+        <v>74739.33658342177</v>
       </c>
       <c r="C96">
-        <v>13758.89247972641</v>
+        <v>9967.034799350105</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1441,10 +1441,10 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>61150.18846541717</v>
+        <v>72721.90556267407</v>
       </c>
       <c r="C97">
-        <v>14120.13575347169</v>
+        <v>10328.27807309539</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1452,10 +1452,10 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>60749.55191866541</v>
+        <v>72328.81444429378</v>
       </c>
       <c r="C98">
-        <v>11702.45076250621</v>
+        <v>7679.336181846911</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1463,10 +1463,10 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>63087.57367829933</v>
+        <v>74674.38163229913</v>
       </c>
       <c r="C99">
-        <v>15021.31021440982</v>
+        <v>10766.93873346753</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1474,10 +1474,10 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>60442.2771715113</v>
+        <v>72036.63055388257</v>
       </c>
       <c r="C100">
-        <v>13777.14762004143</v>
+        <v>9291.519238816138</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1485,10 +1485,10 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>58054.08256239904</v>
+        <v>69655.98137314177</v>
       </c>
       <c r="C101">
-        <v>15264.02239438759</v>
+        <v>10547.13711287931</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1496,10 +1496,10 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>53581.21836587479</v>
+        <v>65190.66260498897</v>
       </c>
       <c r="C102">
-        <v>13856.11785921816</v>
+        <v>8907.975677426886</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1507,10 +1507,10 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>54019.96728242705</v>
+        <v>65636.95694991267</v>
       </c>
       <c r="C103">
-        <v>13931.86418027913</v>
+        <v>8752.465098204853</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1518,10 +1518,10 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>58290.39674949729</v>
+        <v>69907.3864169829</v>
       </c>
       <c r="C104">
-        <v>10088.04052238699</v>
+        <v>4908.641440312713</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1529,10 +1529,10 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>60867.32520586219</v>
+        <v>72999.03602310506</v>
       </c>
       <c r="C105">
-        <v>12052.89377624394</v>
+        <v>7262.87303749021</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1540,10 +1540,10 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>52243.70840148447</v>
+        <v>64890.14036848457</v>
       </c>
       <c r="C106">
-        <v>12167.53986914525</v>
+        <v>7766.897473712063</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1551,10 +1551,10 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>58650.48586140313</v>
+        <v>71811.63897816045</v>
       </c>
       <c r="C107">
-        <v>16512.45901091701</v>
+        <v>12501.19495880436</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1562,10 +1562,10 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>53993.32849665969</v>
+        <v>67669.20276317425</v>
       </c>
       <c r="C108">
-        <v>16720.28340777139</v>
+        <v>13098.39769897928</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1573,10 +1573,10 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>51542.00393889165</v>
+        <v>65732.59935516345</v>
       </c>
       <c r="C109">
-        <v>14465.82395355241</v>
+        <v>11233.31658808084</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1584,10 +1584,10 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>46562.08170221799</v>
+        <v>61267.39826824702</v>
       </c>
       <c r="C110">
-        <v>18137.32941755167</v>
+        <v>15294.20039540064</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1595,10 +1595,10 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>50270.47153566376</v>
+        <v>64975.78810169279</v>
       </c>
       <c r="C111">
-        <v>15896.25897204659</v>
+        <v>13053.12994989556</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1606,10 +1606,10 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>47141.14788159115</v>
+        <v>61205.67811445301</v>
       </c>
       <c r="C112">
-        <v>13759.23881577524</v>
+        <v>10862.09536112815</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1617,10 +1617,10 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>49290.39234664675</v>
+        <v>62714.13624634142</v>
       </c>
       <c r="C113">
-        <v>13427.40876562764</v>
+        <v>10476.25087848451</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1628,10 +1628,10 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>47500.20311724138</v>
+        <v>60283.16068376888</v>
       </c>
       <c r="C114">
-        <v>15527.14327544327</v>
+        <v>12521.97095580408</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1639,10 +1639,10 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>54655.24142369156</v>
+        <v>66797.4126570519</v>
       </c>
       <c r="C115">
-        <v>12898.54828698083</v>
+        <v>9839.361534845599</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1650,10 +1650,10 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>51340.68843047122</v>
+        <v>62842.07333066439</v>
       </c>
       <c r="C116">
-        <v>12766.70447717159</v>
+        <v>9653.503292540303</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1661,10 +1661,10 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>49610.05347717959</v>
+        <v>60470.65204420559</v>
       </c>
       <c r="C117">
-        <v>13162.10095926705</v>
+        <v>9994.885342139716</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1672,10 +1672,10 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>51111.19906031845</v>
+        <v>61971.79762734444</v>
       </c>
       <c r="C118">
-        <v>11113.34389090464</v>
+        <v>7946.128273777302</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1683,10 +1683,10 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>55094.8936217462</v>
+        <v>67786.86960890319</v>
       </c>
       <c r="C119">
-        <v>19038.12986253002</v>
+        <v>16972.20566427452</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1694,10 +1694,10 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>54649.88490959621</v>
+        <v>69173.23831688419</v>
       </c>
       <c r="C120">
-        <v>16806.47854846477</v>
+        <v>15841.8457690811</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1705,10 +1705,10 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>57985.76905590374</v>
+        <v>74340.49988332273</v>
       </c>
       <c r="C121">
-        <v>17925.83909517498</v>
+        <v>18062.49773466315</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1716,10 +1716,10 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>50865.61134389049</v>
+        <v>69051.71959144049</v>
       </c>
       <c r="C122">
-        <v>13712.83180252425</v>
+        <v>14950.78186088426</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1727,10 +1727,10 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>50678.6708747477</v>
+        <v>70696.15654242867</v>
       </c>
       <c r="C123">
-        <v>17044.40721241152</v>
+        <v>19383.64868964335</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1738,10 +1738,10 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>53656.19728370951</v>
+        <v>75505.06037152151</v>
       </c>
       <c r="C124">
-        <v>11140.86780164698</v>
+        <v>14581.40069775065</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1749,10 +1749,10 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>57193.43362652822</v>
+        <v>79042.29671434021</v>
       </c>
       <c r="C125">
-        <v>12622.39010104777</v>
+        <v>16062.92299715144</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1760,10 +1760,10 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>54990.44228522636</v>
+        <v>76417.95908598932</v>
       </c>
       <c r="C126">
-        <v>11428.90889381255</v>
+        <v>14722.1513983457</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1771,10 +1771,10 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>58120.36508248433</v>
+        <v>79126.53559619827</v>
       </c>
       <c r="C127">
-        <v>11294.42478186244</v>
+        <v>14440.37689482509</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1782,10 +1782,10 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>57067.3068120285</v>
+        <v>77652.13103869342</v>
       </c>
       <c r="C128">
-        <v>13256.4339992527</v>
+        <v>16255.09572064484</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1793,10 +1793,10 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>54258.9002361606</v>
+        <v>74422.37817577648</v>
       </c>
       <c r="C129">
-        <v>14747.98667146089</v>
+        <v>17599.35800128251</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1804,10 +1804,10 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>55281.17390942194</v>
+        <v>75023.3055619888</v>
       </c>
       <c r="C130">
-        <v>13974.70045195147</v>
+        <v>16678.78139020258</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1815,10 +1815,10 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>62819.03837031926</v>
+        <v>82139.8237358371</v>
       </c>
       <c r="C131">
-        <v>19233.48351640654</v>
+        <v>21790.27406308713</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1826,10 +1826,10 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>64271.7888334008</v>
+        <v>83592.57419891865</v>
       </c>
       <c r="C132">
-        <v>11439.86139321471</v>
+        <v>13996.65193989531</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1837,10 +1837,10 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>56656.61540043658</v>
+        <v>75165.65562282919</v>
       </c>
       <c r="C133">
-        <v>16601.07738335129</v>
+        <v>19838.91513158824</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1848,10 +1848,10 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>60568.66125915499</v>
+        <v>78265.95633842234</v>
       </c>
       <c r="C134">
-        <v>16509.79246287196</v>
+        <v>20428.67741266526</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1859,10 +1859,10 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>58062.75502853932</v>
+        <v>74948.30496468146</v>
       </c>
       <c r="C135">
-        <v>12816.99878657846</v>
+        <v>17416.93093792812</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1870,10 +1870,10 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>51900.91215249878</v>
+        <v>67974.71694551567</v>
       </c>
       <c r="C136">
-        <v>11453.73310118242</v>
+        <v>16734.71245408844</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1881,10 +1881,10 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>59103.50330709591</v>
+        <v>74365.56295698759</v>
       </c>
       <c r="C137">
-        <v>14759.45151344664</v>
+        <v>20721.47806790902</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1892,10 +1892,10 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>60284.4115659757</v>
+        <v>74734.72607274214</v>
       </c>
       <c r="C138">
-        <v>9190.172236293925</v>
+        <v>15833.24599231266</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1903,10 +1903,10 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>64455.65901020625</v>
+        <v>78905.97351697269</v>
       </c>
       <c r="C139">
-        <v>9274.892127875333</v>
+        <v>15917.96588389406</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1914,10 +1914,10 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>61433.48942474894</v>
+        <v>75676.81532377719</v>
       </c>
       <c r="C140">
-        <v>11844.39597808505</v>
+        <v>18493.64795447552</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1925,10 +1925,10 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>63777.17935823588</v>
+        <v>77813.51664952596</v>
       </c>
       <c r="C141">
-        <v>11453.27019826188</v>
+        <v>18108.70039502409</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1936,10 +1936,10 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>64256.20210520145</v>
+        <v>78085.55078875337</v>
       </c>
       <c r="C142">
-        <v>5280.277750365019</v>
+        <v>11941.88616749897</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1947,10 +1947,10 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>63800.35249234413</v>
+        <v>77422.71256815791</v>
       </c>
       <c r="C143">
-        <v>11452.7656816235</v>
+        <v>18120.55231912919</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1958,10 +1958,10 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>70497.32785958319</v>
+        <v>83912.69932765877</v>
       </c>
       <c r="C144">
-        <v>10170.79950969346</v>
+        <v>16844.76436757089</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1969,10 +1969,10 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>69291.41242654559</v>
+        <v>82499.795286883</v>
       </c>
       <c r="C145">
-        <v>11836.57950481779</v>
+        <v>18516.72258306696</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1980,10 +1980,10 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>67850.18032870317</v>
+        <v>81058.56318904058</v>
       </c>
       <c r="C146">
-        <v>8449.992328176086</v>
+        <v>15130.13540642526</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -1991,10 +1991,10 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>70533.48094879945</v>
+        <v>84162.66112621299</v>
       </c>
       <c r="C147">
-        <v>5944.311535513574</v>
+        <v>12613.75443254303</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2002,10 +2002,10 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>62653.06034950222</v>
+        <v>76703.03784399189</v>
       </c>
       <c r="C148">
-        <v>12684.99084364164</v>
+        <v>19343.73355945138</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2013,10 +2013,10 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>63454.12732615999</v>
+        <v>77924.90213772577</v>
       </c>
       <c r="C149">
-        <v>5797.802527085323</v>
+        <v>12445.84506167534</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2024,10 +2024,10 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>70140.08412287269</v>
+        <v>85031.65625151461</v>
       </c>
       <c r="C150">
-        <v>8286.32954162426</v>
+        <v>14923.67189499456</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2035,10 +2035,10 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>65280.74718219777</v>
+        <v>80593.11662791582</v>
       </c>
       <c r="C151">
-        <v>9802.505534951059</v>
+        <v>16429.14770710165</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2046,10 +2046,10 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>66484.22583822664</v>
+        <v>82217.39260102081</v>
       </c>
       <c r="C152">
-        <v>10492.26829618273</v>
+        <v>17108.2102871136</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2057,10 +2057,10 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>66116.26319934483</v>
+        <v>81849.42996213899</v>
       </c>
       <c r="C153">
-        <v>9562.07437724237</v>
+        <v>16178.01636817324</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2068,10 +2068,10 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>69058.85765894059</v>
+        <v>84416.12840880769</v>
       </c>
       <c r="C154">
-        <v>6433.534139034125</v>
+        <v>13047.71506134564</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2079,10 +2079,10 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>61161.94021968771</v>
+        <v>76143.31495662779</v>
       </c>
       <c r="C155">
-        <v>13869.14605664444</v>
+        <v>20481.5659103366</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2090,10 +2090,10 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>61364.22356612709</v>
+        <v>75969.70229014012</v>
       </c>
       <c r="C156">
-        <v>9271.920383796016</v>
+        <v>15882.57916886882</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2101,10 +2101,10 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>66467.63180295851</v>
+        <v>80697.21451404448</v>
       </c>
       <c r="C157">
-        <v>10865.05540921667</v>
+        <v>17473.95312567012</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2112,10 +2112,10 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>67803.34406588697</v>
+        <v>81657.03076404589</v>
       </c>
       <c r="C158">
-        <v>13166.50950445092</v>
+        <v>19773.64615228501</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2123,10 +2123,10 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>62240.14371527634</v>
+        <v>75717.93440050821</v>
       </c>
       <c r="C159">
-        <v>10674.45676590038</v>
+        <v>17279.83234511512</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2134,10 +2134,10 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>55161.5455226242</v>
+        <v>68639.33620785607</v>
       </c>
       <c r="C160">
-        <v>11021.49129001507</v>
+        <v>17626.86686922981</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2145,10 +2145,10 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>62828.04410212653</v>
+        <v>75812.02089492636</v>
       </c>
       <c r="C161">
-        <v>9086.971737011871</v>
+        <v>15713.0593173494</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2156,10 +2156,10 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>67215.13086014545</v>
+        <v>79705.29376051326</v>
       </c>
       <c r="C162">
-        <v>10608.72532179899</v>
+        <v>17255.52490325931</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2167,10 +2167,10 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>59414.30123171787</v>
+        <v>71410.65023965364</v>
       </c>
       <c r="C163">
-        <v>6064.295671576972</v>
+        <v>12731.80725416009</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2178,10 +2178,10 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>68634.73961943158</v>
+        <v>80137.2747349353</v>
       </c>
       <c r="C164">
-        <v>8260.252128173544</v>
+        <v>14948.47571187945</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2189,10 +2189,10 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>62878.95698205414</v>
+        <v>73887.67820512583</v>
       </c>
       <c r="C165">
-        <v>13924.59034396111</v>
+        <v>20633.52592878981</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2200,10 +2200,10 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>60494.64276592949</v>
+        <v>71009.55009656913</v>
       </c>
       <c r="C166">
-        <v>12742.42787744735</v>
+        <v>19472.07546339884</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2211,10 +2211,10 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>59310.54212180789</v>
+        <v>69825.44945244753</v>
       </c>
       <c r="C167">
-        <v>11867.32491849333</v>
+        <v>18596.97250444482</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2222,10 +2222,10 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>64859.95367712962</v>
+        <v>74044.87306122811</v>
       </c>
       <c r="C168">
-        <v>9493.942988255596</v>
+        <v>16226.98045891597</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2233,10 +2233,10 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>60049.00805743398</v>
+        <v>67903.93949499133</v>
       </c>
       <c r="C169">
-        <v>10217.68123109049</v>
+        <v>16954.10858645974</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2244,10 +2244,10 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>64007.942077567</v>
+        <v>70532.88556858318</v>
       </c>
       <c r="C170">
-        <v>9038.39691432043</v>
+        <v>15778.21415439856</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2255,10 +2255,10 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>66229.40432909678</v>
+        <v>71424.35987357184</v>
       </c>
       <c r="C171">
-        <v>11980.17479353104</v>
+        <v>18723.38191831805</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2266,10 +2266,10 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>71279.19869762418</v>
+        <v>75144.16629555807</v>
       </c>
       <c r="C172">
-        <v>8893.44345949592</v>
+        <v>15640.04046899181</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2277,10 +2277,10 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>67880.65324908773</v>
+        <v>70415.63290048047</v>
       </c>
       <c r="C173">
-        <v>8084.021101270879</v>
+        <v>14834.00799547564</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2288,10 +2288,10 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>60981.75574396129</v>
+        <v>63516.73539535404</v>
       </c>
       <c r="C174">
-        <v>11468.00468979787</v>
+        <v>18217.99158400263</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2299,10 +2299,10 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>61906.04609348424</v>
+        <v>64559.18379618224</v>
       </c>
       <c r="C175">
-        <v>12666.13758266482</v>
+        <v>19424.61946092737</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2310,10 +2310,10 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>66569.61217656707</v>
+        <v>69340.90793057031</v>
       </c>
       <c r="C176">
-        <v>11368.85414516171</v>
+        <v>18135.83100748205</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2321,10 +2321,10 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>69508.39399192466</v>
+        <v>72397.84779723315</v>
       </c>
       <c r="C177">
-        <v>6140.187951500609</v>
+        <v>12915.65979787874</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2332,10 +2332,10 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>61541.66760793536</v>
+        <v>64549.27946454906</v>
       </c>
       <c r="C178">
-        <v>3069.936962362888</v>
+        <v>9853.903792798812</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2343,10 +2343,10 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>66551.47531347947</v>
+        <v>69677.24522139842</v>
       </c>
       <c r="C179">
-        <v>11596.86654005955</v>
+        <v>18389.32835455326</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2354,10 +2354,10 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>66440.66841201161</v>
+        <v>69684.59637123582</v>
       </c>
       <c r="C180">
-        <v>10550.64224478535</v>
+        <v>17351.59904333685</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2365,10 +2365,10 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>66983.18378316949</v>
+        <v>70227.1117423937</v>
       </c>
       <c r="C181">
-        <v>11783.26659023264</v>
+        <v>18584.22338878415</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2376,10 +2376,10 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>63533.49815701236</v>
+        <v>66851.62805871265</v>
       </c>
       <c r="C182">
-        <v>9515.650934472738</v>
+        <v>16317.87668156778</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2387,10 +2387,10 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>70552.13957613439</v>
+        <v>73944.47142031076</v>
       </c>
       <c r="C183">
-        <v>11735.22660193608</v>
+        <v>18538.72129757466</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2398,10 +2398,10 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>68506.5411713467</v>
+        <v>71973.07495799917</v>
       </c>
       <c r="C184">
-        <v>10781.58605606341</v>
+        <v>17586.34970024553</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2409,10 +2409,10 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>65137.37473001696</v>
+        <v>68678.11045914549</v>
       </c>
       <c r="C185">
-        <v>15237.59113847751</v>
+        <v>22043.62373120318</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2420,10 +2420,10 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>67107.70753787557</v>
+        <v>70722.64520948019</v>
       </c>
       <c r="C186">
-        <v>6989.5936577584</v>
+        <v>13796.8951990276</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2431,10 +2431,10 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>68085.77191226972</v>
+        <v>71774.91152635041</v>
       </c>
       <c r="C187">
-        <v>12509.31472715796</v>
+        <v>19317.8852169707</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2442,10 +2442,10 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>66654.74226091662</v>
+        <v>70343.88187499731</v>
       </c>
       <c r="C188">
-        <v>9202.33291876279</v>
+        <v>16010.90340857553</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2453,10 +2453,10 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>62981.53378834498</v>
+        <v>65782.89747932462</v>
       </c>
       <c r="C189">
-        <v>11697.12820812354</v>
+        <v>18304.40283170792</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2464,10 +2464,10 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>73900.4900352574</v>
+        <v>75814.07780313597</v>
       </c>
       <c r="C190">
-        <v>12425.25393953408</v>
+        <v>18831.2326968901</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2475,10 +2475,10 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>65320.6890688591</v>
+        <v>66346.5009136366</v>
       </c>
       <c r="C191">
-        <v>10245.74437737393</v>
+        <v>16450.42726850159</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2486,10 +2486,10 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>65615.78475155331</v>
+        <v>65753.82067322974</v>
       </c>
       <c r="C192">
-        <v>8820.403743301857</v>
+        <v>14823.79076820115</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2497,10 +2497,10 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>68896.7052362094</v>
+        <v>68146.96523478476</v>
       </c>
       <c r="C193">
-        <v>13444.39865210643</v>
+        <v>19246.48981077737</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2508,10 +2508,10 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>65007.10085039272</v>
+        <v>63369.58492586702</v>
       </c>
       <c r="C194">
-        <v>5124.801112280942</v>
+        <v>10725.59640472352</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2519,10 +2519,10 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>65694.28531538609</v>
+        <v>64056.76939086039</v>
       </c>
       <c r="C195">
-        <v>12417.22337516349</v>
+        <v>18018.01866760606</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2530,10 +2530,10 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>63550.12513306041</v>
+        <v>62338.20543110128</v>
       </c>
       <c r="C196">
-        <v>11508.25587603889</v>
+        <v>16752.57263067807</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2541,10 +2541,10 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>61818.20589937483</v>
+        <v>61031.88241998227</v>
       </c>
       <c r="C197">
-        <v>10682.42559173236</v>
+        <v>15570.26380856816</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2552,10 +2552,10 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>60479.38274659168</v>
+        <v>60118.6554897657</v>
       </c>
       <c r="C198">
-        <v>11432.14376734353</v>
+        <v>15963.50344637593</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2563,10 +2563,10 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>56573.9948758711</v>
+        <v>56638.86384161169</v>
       </c>
       <c r="C199">
-        <v>13409.79534162852</v>
+        <v>17584.67648285753</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2574,10 +2574,10 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>59177.54878445178</v>
+        <v>59668.01397275894</v>
       </c>
       <c r="C200">
-        <v>9951.568280766312</v>
+        <v>13769.97088419193</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2585,10 +2585,10 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>62014.81461935862</v>
+        <v>62930.87603023235</v>
       </c>
       <c r="C201">
-        <v>8940.332255028272</v>
+        <v>12402.2563206505</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2596,10 +2596,10 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>61154.15062779779</v>
+        <v>62070.21203867152</v>
       </c>
       <c r="C202">
-        <v>8507.070886360269</v>
+        <v>11968.9949519825</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2607,10 +2607,10 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>59189.43237606699</v>
+        <v>59655.39333877966</v>
       </c>
       <c r="C203">
-        <v>13626.80192192988</v>
+        <v>17093.6685638495</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2618,10 +2618,10 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>54629.44847182614</v>
+        <v>54645.30898637773</v>
       </c>
       <c r="C204">
-        <v>10512.96292542084</v>
+        <v>13984.77214363785</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2629,10 +2629,10 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>60078.10352599046</v>
+        <v>59643.86359238099</v>
       </c>
       <c r="C205">
-        <v>13369.11379708614</v>
+        <v>16845.86559160054</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2640,10 +2640,10 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>55460.72838852766</v>
+        <v>54576.38800675712</v>
       </c>
       <c r="C206">
-        <v>9247.254278433677</v>
+        <v>12728.94864924547</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2651,10 +2651,10 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>59749.95648808476</v>
+        <v>58415.51565815315</v>
       </c>
       <c r="C207">
-        <v>10972.47088913907</v>
+        <v>14459.10783624826</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2662,10 +2662,10 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>60407.05464379761</v>
+        <v>58622.51336570492</v>
       </c>
       <c r="C208">
-        <v>10336.04104167306</v>
+        <v>13827.62056507965</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2673,10 +2673,10 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>63191.47194969597</v>
+        <v>61406.93067160329</v>
       </c>
       <c r="C209">
-        <v>11084.35718036566</v>
+        <v>14575.93670377224</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2684,10 +2684,10 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>52673.93604264772</v>
+        <v>51219.28831207388</v>
       </c>
       <c r="C210">
-        <v>8952.328641208525</v>
+        <v>12442.80263551667</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2695,10 +2695,10 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>56251.09473997384</v>
+        <v>55126.34055691883</v>
       </c>
       <c r="C211">
-        <v>6961.070788787174</v>
+        <v>10450.43925399688</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2706,10 +2706,10 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>53374.51192527934</v>
+        <v>52579.65128974318</v>
       </c>
       <c r="C212">
-        <v>12815.10538532585</v>
+        <v>16303.36832143712</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2717,10 +2717,10 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>53158.50288187875</v>
+        <v>52693.53579386143</v>
       </c>
       <c r="C213">
-        <v>7143.423720683948</v>
+        <v>10630.58112769677</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2728,10 +2728,10 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>58847.27181606537</v>
+        <v>58712.19827556688</v>
       </c>
       <c r="C214">
-        <v>7575.971879430539</v>
+        <v>11062.02375734492</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2739,10 +2739,10 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>61118.37859344262</v>
+        <v>61313.19860046298</v>
       </c>
       <c r="C215">
-        <v>8594.80815392594</v>
+        <v>12079.75450274189</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2750,10 +2750,10 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>50261.16938880897</v>
+        <v>50455.98939582933</v>
       </c>
       <c r="C216">
-        <v>5542.157370222528</v>
+        <v>9027.103719038478</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2761,10 +2761,10 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>55390.6031319739</v>
+        <v>55629.06588829206</v>
       </c>
       <c r="C217">
-        <v>6912.519556381985</v>
+        <v>10572.43558041897</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2772,10 +2772,10 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>47042.09028985797</v>
+        <v>47324.19579547393</v>
       </c>
       <c r="C218">
-        <v>5611.340215962426</v>
+        <v>9446.225915220448</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2783,10 +2783,10 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>50697.21084271047</v>
+        <v>51022.95909762423</v>
       </c>
       <c r="C219">
-        <v>8705.058078056289</v>
+        <v>12714.91345253535</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2794,10 +2794,10 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>47769.22429412276</v>
+        <v>48138.61529833432</v>
       </c>
       <c r="C220">
-        <v>5500.857530760648</v>
+        <v>9685.682580460743</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2805,10 +2805,10 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>53345.05743270502</v>
+        <v>53758.09118621439</v>
       </c>
       <c r="C221">
-        <v>10139.96737252581</v>
+        <v>14499.76209744695</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2816,10 +2816,10 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>53827.60602607228</v>
+        <v>54284.28252887946</v>
       </c>
       <c r="C222">
-        <v>11538.1014896941</v>
+        <v>16072.86588983626</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2827,10 +2827,10 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>54114.05152024566</v>
+        <v>54570.72802305283</v>
       </c>
       <c r="C223">
-        <v>10470.6411461542</v>
+        <v>15005.40554629637</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2838,10 +2838,10 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>50190.36262076264</v>
+        <v>51202.26325662358</v>
       </c>
       <c r="C224">
-        <v>9185.751769270206</v>
+        <v>13763.05676934848</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2849,10 +2849,10 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>54111.51306970838</v>
+        <v>55678.6378386231</v>
       </c>
       <c r="C225">
-        <v>8504.208311304541</v>
+        <v>13124.05391131891</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2860,10 +2860,10 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>52230.49840048188</v>
+        <v>54352.84730245038</v>
       </c>
       <c r="C226">
-        <v>8149.735050122905</v>
+        <v>12812.12125007338</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2871,10 +2871,10 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>50352.08600893439</v>
+        <v>53029.65904395667</v>
       </c>
       <c r="C227">
-        <v>8647.389792977403</v>
+        <v>13352.31659286398</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2882,10 +2882,10 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>47938.42622512143</v>
+        <v>51171.22339319749</v>
       </c>
       <c r="C228">
-        <v>9015.326197532482</v>
+        <v>13762.79359735516</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2893,10 +2893,10 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>51163.6517453747</v>
+        <v>54951.67304650453</v>
       </c>
       <c r="C229">
-        <v>6605.337424353961</v>
+        <v>11395.34542411274</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2904,10 +2904,10 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>49566.13820083876</v>
+        <v>53354.15950196858</v>
       </c>
       <c r="C230">
-        <v>6540.151966722382</v>
+        <v>11330.15996648116</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2915,10 +2915,10 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>40079.24621194934</v>
+        <v>44181.07653342489</v>
       </c>
       <c r="C231">
-        <v>8964.405990129961</v>
+        <v>13236.70966917669</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -2926,10 +2926,10 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>44915.42382867332</v>
+        <v>49331.06317049459</v>
       </c>
       <c r="C232">
-        <v>7900.421628575503</v>
+        <v>11655.02098691018</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -2937,10 +2937,10 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>46282.26249831555</v>
+        <v>51011.71086048254</v>
       </c>
       <c r="C233">
-        <v>9321.685106845795</v>
+        <v>12558.58014446842</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -2948,10 +2948,10 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>50583.63396284235</v>
+        <v>55626.89134535506</v>
       </c>
       <c r="C234">
-        <v>5683.71209194284</v>
+        <v>8402.902808853414</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -2959,10 +2959,10 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>45001.29721656011</v>
+        <v>50358.36361941855</v>
       </c>
       <c r="C235">
-        <v>4403.866857800675</v>
+        <v>6605.3532539992</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -2970,10 +2970,10 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>47594.74705458628</v>
+        <v>53265.62247779045</v>
       </c>
       <c r="C236">
-        <v>8292.013457351992</v>
+        <v>9975.795532838467</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -2981,10 +2981,10 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>46377.35042410583</v>
+        <v>52048.22584731</v>
       </c>
       <c r="C237">
-        <v>7705.908085596453</v>
+        <v>9389.690161082928</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -2992,10 +2992,10 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>42156.54126012263</v>
+        <v>47731.2701804173</v>
       </c>
       <c r="C238">
-        <v>5227.544901419788</v>
+        <v>7019.962538936374</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3003,10 +3003,10 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>41898.52260470172</v>
+        <v>47377.10502208693</v>
       </c>
       <c r="C239">
-        <v>6914.812635282337</v>
+        <v>8815.865834829032</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3014,10 +3014,10 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>44322.63437479562</v>
+        <v>49705.07028927135</v>
       </c>
       <c r="C240">
-        <v>5188.702763875955</v>
+        <v>7198.391525452759</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3025,10 +3025,10 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>42035.15099320429</v>
+        <v>47321.44040477054</v>
       </c>
       <c r="C241">
-        <v>4298.401187667399</v>
+        <v>6416.725511274311</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3036,10 +3036,10 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>45506.63936228246</v>
+        <v>50696.78227093923</v>
       </c>
       <c r="C242">
-        <v>9430.148014470524</v>
+        <v>11657.10790010755</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3047,10 +3047,10 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>43459.05736165701</v>
+        <v>48553.05376740429</v>
       </c>
       <c r="C243">
-        <v>5270.323423517646</v>
+        <v>7605.918871184779</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3058,10 +3058,10 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>36634.35542055253</v>
+        <v>41728.35182629981</v>
       </c>
       <c r="C244">
-        <v>3028.782516606795</v>
+        <v>5364.377964273928</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3069,10 +3069,10 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>41557.36255840261</v>
+        <v>46728.86021459247</v>
       </c>
       <c r="C245">
-        <v>4712.260087982687</v>
+        <v>6800.872538073062</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3080,10 +3080,10 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>39349.00326444032</v>
+        <v>44598.00217107276</v>
       </c>
       <c r="C246">
-        <v>6679.769467068579</v>
+        <v>8521.398919582194</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3091,10 +3091,10 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>44505.61837343829</v>
+        <v>49832.11853051331</v>
       </c>
       <c r="C247">
-        <v>8294.086859467996</v>
+        <v>9888.733314404853</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3102,10 +3102,10 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>35190.68043109986</v>
+        <v>40594.68183861746</v>
       </c>
       <c r="C248">
-        <v>805.6919719349821</v>
+        <v>2153.355429295083</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3113,10 +3113,10 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>34930.27113451966</v>
+        <v>40411.77379247983</v>
       </c>
       <c r="C249">
-        <v>7935.723349836493</v>
+        <v>9036.403809619835</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3124,10 +3124,10 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>43309.2365059642</v>
+        <v>48868.24041436693</v>
       </c>
       <c r="C250">
-        <v>8845.778863368716</v>
+        <v>9699.476325575299</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3135,10 +3135,10 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>41124.48487917662</v>
+        <v>46683.48878757936</v>
       </c>
       <c r="C251">
-        <v>3213.476818591723</v>
+        <v>4067.174280798308</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3146,10 +3146,10 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>42239.06966450272</v>
+        <v>47721.65162226988</v>
       </c>
       <c r="C252">
-        <v>3582.536781607887</v>
+        <v>4851.869036128772</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3157,10 +3157,10 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>44482.4666554419</v>
+        <v>49888.62666257346</v>
       </c>
       <c r="C253">
-        <v>6544.691531155109</v>
+        <v>8229.658577990294</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3168,10 +3168,10 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>42551.66037932663</v>
+        <v>47881.39843582262</v>
       </c>
       <c r="C254">
-        <v>-1128.26655781109</v>
+        <v>972.3352813383972</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3179,10 +3179,10 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>41087.33596263323</v>
+        <v>46340.65206849363</v>
       </c>
       <c r="C255">
-        <v>4861.873718569826</v>
+        <v>7378.110350033613</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3190,10 +3190,10 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>41886.0481775527</v>
+        <v>47062.94233277751</v>
       </c>
       <c r="C256">
-        <v>5747.534609326784</v>
+        <v>8679.406033104871</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3201,10 +3201,10 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>44809.47487355063</v>
+        <v>49909.94707813986</v>
       </c>
       <c r="C257">
-        <v>4389.890865461169</v>
+        <v>7737.397081553558</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3212,10 +3212,10 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>38859.83843510367</v>
+        <v>43960.3106396929</v>
       </c>
       <c r="C258">
-        <v>1981.905480830511</v>
+        <v>5329.411696922899</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3223,10 +3223,10 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>39660.14198287547</v>
+        <v>44895.12898013656</v>
       </c>
       <c r="C259">
-        <v>2271.1281165906</v>
+        <v>5624.513535860699</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3234,10 +3234,10 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>32084.91527059957</v>
+        <v>37454.41706053253</v>
       </c>
       <c r="C260">
-        <v>1718.563231618566</v>
+        <v>5077.827854066374</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3245,10 +3245,10 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>38077.33503522191</v>
+        <v>43581.35161782676</v>
       </c>
       <c r="C261">
-        <v>5704.514972215009</v>
+        <v>9069.658797840528</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3256,10 +3256,10 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>34312.7239025961</v>
+        <v>39951.25527787283</v>
       </c>
       <c r="C262">
-        <v>3205.034242926363</v>
+        <v>6576.057271729591</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3267,10 +3267,10 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>32677.7125079794</v>
+        <v>38450.75867592799</v>
       </c>
       <c r="C263">
-        <v>567.5866025393632</v>
+        <v>3944.488834520302</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3278,10 +3278,10 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>29008.10206070563</v>
+        <v>34915.66302132609</v>
       </c>
       <c r="C264">
-        <v>2952.871833370074</v>
+        <v>6335.653268528722</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3289,10 +3289,10 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>32552.7927668482</v>
+        <v>38460.35372746867</v>
       </c>
       <c r="C265">
-        <v>-1488.672746663159</v>
+        <v>1894.108688495489</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3300,10 +3300,10 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>35675.58689946078</v>
+        <v>41231.6748714838</v>
       </c>
       <c r="C266">
-        <v>3313.438652348471</v>
+        <v>6834.351646058631</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3311,10 +3311,10 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>40349.10926704663</v>
+        <v>45553.72425047219</v>
       </c>
       <c r="C267">
-        <v>1908.167330159539</v>
+        <v>5567.211882421211</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3322,10 +3322,10 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>37830.58790916676</v>
+        <v>42683.72990399488</v>
       </c>
       <c r="C268">
-        <v>2678.616180011656</v>
+        <v>6475.79229082484</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3333,10 +3333,10 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>38652.60568142684</v>
+        <v>43154.27468765751</v>
       </c>
       <c r="C269">
-        <v>3095.492674310993</v>
+        <v>7030.800343675689</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3344,10 +3344,10 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>33045.55491843786</v>
+        <v>37195.75093607108</v>
       </c>
       <c r="C270">
-        <v>1486.69731001847</v>
+        <v>5560.136537934677</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3355,10 +3355,10 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>36883.19912148089</v>
+        <v>40681.92215051666</v>
       </c>
       <c r="C271">
-        <v>-1318.915539312068</v>
+        <v>2892.655247155652</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3366,10 +3366,10 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>29885.35428057166</v>
+        <v>33684.07730960743</v>
       </c>
       <c r="C272">
-        <v>-2717.438588581246</v>
+        <v>1494.132197886474</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3377,10 +3377,10 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>36291.83440543574</v>
+        <v>38677.92802219551</v>
       </c>
       <c r="C273">
-        <v>-2341.310549970453</v>
+        <v>1813.032319436911</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3388,10 +3388,10 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>37363.36770096775</v>
+        <v>38336.83190545153</v>
       </c>
       <c r="C274">
-        <v>8.852552678541997</v>
+        <v>4105.96750502555</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3399,10 +3399,10 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>29702.13090538064</v>
+        <v>29262.96569758842</v>
       </c>
       <c r="C275">
-        <v>1497.947305298833</v>
+        <v>5537.834340585487</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3410,10 +3410,10 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>28408.89423713676</v>
+        <v>26557.09961706854</v>
       </c>
       <c r="C276">
-        <v>4481.36229046708</v>
+        <v>8464.021408693377</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3421,10 +3421,10 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>29090.24223474493</v>
+        <v>25825.81820240071</v>
       </c>
       <c r="C277">
-        <v>-1082.813373403977</v>
+        <v>2842.617827761964</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3432,10 +3432,10 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>35918.4483527609</v>
+        <v>31241.39490814068</v>
       </c>
       <c r="C278">
-        <v>1103.692090710837</v>
+        <v>4971.895374816422</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3443,10 +3443,10 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>36145.31348322708</v>
+        <v>31468.26003860687</v>
       </c>
       <c r="C279">
-        <v>374.3391736689882</v>
+        <v>4242.542457774573</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3454,10 +3454,10 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>31481.51979843648</v>
+        <v>26328.62047416825</v>
       </c>
       <c r="C280">
-        <v>-1362.452369633217</v>
+        <v>2270.670947281661</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3465,10 +3465,10 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>31290.66743021387</v>
+        <v>25661.92222629763</v>
       </c>
       <c r="C281">
-        <v>-1054.947147624498</v>
+        <v>2343.096202099673</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3476,10 +3476,10 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>29882.04338548173</v>
+        <v>23777.45230191747</v>
       </c>
       <c r="C282">
-        <v>3689.841953440374</v>
+        <v>6852.805335973839</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3487,10 +3487,10 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>25871.38987055547</v>
+        <v>19290.95290734321</v>
       </c>
       <c r="C283">
-        <v>1123.052776371285</v>
+        <v>4050.936191714043</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3498,10 +3498,10 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>31432.63225906924</v>
+        <v>24376.34941620896</v>
       </c>
       <c r="C284">
-        <v>481.9576260607383</v>
+        <v>3174.761074212789</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3509,10 +3509,10 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>32863.20612784351</v>
+        <v>25331.07740533523</v>
       </c>
       <c r="C285">
-        <v>2393.89504517688</v>
+        <v>4851.618526138223</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3520,10 +3520,10 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>31598.63361129715</v>
+        <v>24066.50488878886</v>
       </c>
       <c r="C286">
-        <v>1553.134797698716</v>
+        <v>4010.85827866006</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3531,10 +3531,10 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>32536.74480155521</v>
+        <v>26005.03605347401</v>
       </c>
       <c r="C287">
-        <v>2271.737349057265</v>
+        <v>4766.048428383297</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3542,10 +3542,10 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>30386.80726001626</v>
+        <v>24855.51848636215</v>
       </c>
       <c r="C288">
-        <v>-2037.752726870209</v>
+        <v>493.1459508205112</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3553,10 +3553,10 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>29964.53390267006</v>
+        <v>25433.66510344304</v>
       </c>
       <c r="C289">
-        <v>2561.079545843133</v>
+        <v>5128.565821898541</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3564,10 +3564,10 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>28841.68544002276</v>
+        <v>25311.23661522281</v>
       </c>
       <c r="C290">
-        <v>3858.829021256667</v>
+        <v>6462.902895676764</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3575,10 +3575,10 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>25351.55848534921</v>
+        <v>22821.52963497635</v>
       </c>
       <c r="C291">
-        <v>2993.7076159095</v>
+        <v>5634.369088694285</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3586,10 +3586,10 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>28303.6020324983</v>
+        <v>26773.99315655253</v>
       </c>
       <c r="C292">
-        <v>2765.795464697806</v>
+        <v>5443.04453584728</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3597,10 +3597,10 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>28344.74641743133</v>
+        <v>26815.13754148556</v>
       </c>
       <c r="C293">
-        <v>4155.837494494064</v>
+        <v>6833.086565643537</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3608,10 +3608,10 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>27924.34391429514</v>
+        <v>25564.70383743526</v>
       </c>
       <c r="C294">
-        <v>-280.2457098147635</v>
+        <v>2046.906755759494</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3619,10 +3619,10 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>27574.56551741201</v>
+        <v>24384.89423963802</v>
       </c>
       <c r="C295">
-        <v>-1760.543173000756</v>
+        <v>216.5126869982851</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3630,10 +3630,10 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>27542.13174080181</v>
+        <v>23522.42926211371</v>
       </c>
       <c r="C296">
-        <v>2132.77531624438</v>
+        <v>3759.734570668205</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3641,10 +3641,10 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>32998.31398965933</v>
+        <v>28148.58031005713</v>
       </c>
       <c r="C297">
-        <v>-3178.14233594019</v>
+        <v>-1901.27968709158</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -3652,10 +3652,10 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>26371.416977803</v>
+        <v>20691.65209728668</v>
       </c>
       <c r="C298">
-        <v>2105.303987104665</v>
+        <v>3032.070030378058</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3663,10 +3663,10 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>28378.56498168267</v>
+        <v>21868.76890025224</v>
       </c>
       <c r="C299">
-        <v>2527.829561859833</v>
+        <v>3104.498999558009</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3674,10 +3674,10 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>23456.62384492692</v>
+        <v>16946.8277634965</v>
       </c>
       <c r="C300">
-        <v>2160.536595680366</v>
+        <v>2737.206033378543</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3685,10 +3685,10 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>26005.74638067882</v>
+        <v>20346.77224460665</v>
       </c>
       <c r="C301">
-        <v>1761.886254091398</v>
+        <v>2241.54421468304</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3696,10 +3696,10 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>26207.80689584134</v>
+        <v>21399.65470512743</v>
       </c>
       <c r="C302">
-        <v>-1411.7169317752</v>
+        <v>-1029.070448290094</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3707,10 +3707,10 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>26717.57345729847</v>
+        <v>22760.24321194282</v>
       </c>
       <c r="C303">
-        <v>-920.9710354240085</v>
+        <v>-635.3360290454375</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -3718,10 +3718,10 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>25424.59071860599</v>
+        <v>22318.08241860859</v>
       </c>
       <c r="C304">
-        <v>-1634.366951473613</v>
+        <v>-1445.743422201578</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -3729,10 +3729,10 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>26911.88260730987</v>
+        <v>24656.19625267072</v>
       </c>
       <c r="C305">
-        <v>3198.554645402298</v>
+        <v>3290.166697567799</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -3740,10 +3740,10 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>16847.761608565</v>
+        <v>15442.89719928411</v>
       </c>
       <c r="C306">
-        <v>5302.672563778245</v>
+        <v>5297.273138837209</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -3751,10 +3751,10 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>22748.18970052193</v>
+        <v>21343.32529124104</v>
       </c>
       <c r="C307">
-        <v>2181.139922262779</v>
+        <v>2175.740497321744</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -3762,10 +3762,10 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>23053.53269579089</v>
+        <v>21222.35302845127</v>
       </c>
       <c r="C308">
-        <v>2424.855261727913</v>
+        <v>2499.719291050618</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -3773,10 +3773,10 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>19540.63481775201</v>
+        <v>17283.13989235366</v>
       </c>
       <c r="C309">
-        <v>-1513.398343228007</v>
+        <v>-1358.270859641561</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -3784,10 +3784,10 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>21297.04827648748</v>
+        <v>18613.2380930304</v>
       </c>
       <c r="C310">
-        <v>-629.4254790358087</v>
+        <v>-394.0345411856231</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -3795,10 +3795,10 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>23359.18397377987</v>
+        <v>20249.05853226407</v>
       </c>
       <c r="C311">
-        <v>-2478.142672277846</v>
+        <v>-2162.48828016392</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -3806,10 +3806,10 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>23733.11595354602</v>
+        <v>20196.67525397149</v>
       </c>
       <c r="C312">
-        <v>3692.611795771596</v>
+        <v>4088.529642149262</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -3817,10 +3817,10 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>21501.69550511739</v>
+        <v>17538.93954748413</v>
       </c>
       <c r="C313">
-        <v>1791.602602840651</v>
+        <v>2267.783903482057</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -3828,10 +3828,10 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>25966.95995259977</v>
+        <v>22004.2039949665</v>
       </c>
       <c r="C314">
-        <v>-5.562555966010791</v>
+        <v>470.6187446753952</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -3839,10 +3839,10 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>21153.3116768248</v>
+        <v>17464.37861264417</v>
       </c>
       <c r="C315">
-        <v>3457.453069367059</v>
+        <v>3869.278773597367</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -3850,10 +3850,10 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>22181.96165753018</v>
+        <v>18766.85148680218</v>
       </c>
       <c r="C316">
-        <v>-511.6746412368537</v>
+        <v>-164.2045334176448</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -3861,10 +3861,10 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>15829.3859958671</v>
+        <v>12688.09871859173</v>
       </c>
       <c r="C317">
-        <v>-1377.287065278736</v>
+        <v>-1094.172553870625</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -3872,10 +3872,10 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>16471.99738241329</v>
+        <v>13604.53299859055</v>
       </c>
       <c r="C318">
-        <v>3271.494856735702</v>
+        <v>3490.253771732715</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -3883,10 +3883,10 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>24811.76115313244</v>
+        <v>22218.11966276232</v>
       </c>
       <c r="C319">
-        <v>1585.309122325192</v>
+        <v>1739.712440911105</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -3894,10 +3894,10 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>17354.99310582331</v>
+        <v>15035.17450890582</v>
       </c>
       <c r="C320">
-        <v>183.297832877321</v>
+        <v>273.3455550521359</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -3905,10 +3905,10 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>18594.09917106703</v>
+        <v>16274.28057414954</v>
       </c>
       <c r="C321">
-        <v>2034.007283128296</v>
+        <v>2124.055005303111</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -3916,10 +3916,10 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>21480.20485277129</v>
+        <v>17583.45259193582</v>
       </c>
       <c r="C322">
-        <v>1978.604121276574</v>
+        <v>2061.554929957858</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -3927,10 +3927,10 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>26907.22004674405</v>
+        <v>21433.53412199059</v>
       </c>
       <c r="C323">
-        <v>-840.8085203490642</v>
+        <v>-764.9546251613118</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -3938,10 +3938,10 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>30904.11611339989</v>
+        <v>23853.49652472845</v>
       </c>
       <c r="C324">
-        <v>134.0534929265906</v>
+        <v>202.8104746208118</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -3949,10 +3949,10 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>29252.65444540435</v>
+        <v>20625.10119281492</v>
       </c>
       <c r="C325">
-        <v>-3961.505305860572</v>
+        <v>-3899.845237659882</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -3960,10 +3960,10 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>37419.93425984711</v>
+        <v>27215.44734333969</v>
       </c>
       <c r="C326">
-        <v>2548.915332603207</v>
+        <v>2603.478487310366</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -3971,10 +3971,10 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>37825.84548775532</v>
+        <v>26044.42490732991</v>
       </c>
       <c r="C327">
-        <v>3104.088226524955</v>
+        <v>3151.554467738582</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -3982,10 +3982,10 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>35825.57075225312</v>
+        <v>24044.1501718277</v>
       </c>
       <c r="C328">
-        <v>-2052.872971988295</v>
+        <v>-2005.406730774667</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -3993,10 +3993,10 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>35734.44121987969</v>
+        <v>23964.58144482928</v>
       </c>
       <c r="C329">
-        <v>-2474.875612794375</v>
+        <v>-2426.596122366818</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -4004,10 +4004,10 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>39994.47712693522</v>
+        <v>28236.17815725983</v>
       </c>
       <c r="C330">
-        <v>6869.383953180209</v>
+        <v>6918.476692821694</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -4015,10 +4015,10 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>38104.85526857849</v>
+        <v>26358.1171042781</v>
       </c>
       <c r="C331">
-        <v>1702.300205090909</v>
+        <v>1752.206193946323</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -4026,10 +4026,10 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>39727.97678000208</v>
+        <v>27992.7994210767</v>
       </c>
       <c r="C332">
-        <v>-514.6732073130644</v>
+        <v>-463.9539692437211</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -4037,10 +4037,10 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>43774.84529001624</v>
+        <v>32051.22873646587</v>
       </c>
       <c r="C333">
-        <v>2750.390042721908</v>
+        <v>2801.92253000518</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -4048,10 +4048,10 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>44254.26844446694</v>
+        <v>32542.21269629159</v>
       </c>
       <c r="C334">
-        <v>932.6582210756937</v>
+        <v>985.0039575728952</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -4059,10 +4059,10 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>41144.80074408081</v>
+        <v>29432.74499590545</v>
       </c>
       <c r="C335">
-        <v>218.5461646665851</v>
+        <v>270.8919011637865</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -4070,10 +4070,10 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>44520.62725015208</v>
+        <v>37768.18493512245</v>
       </c>
       <c r="C336">
-        <v>2776.05246131709</v>
+        <v>3161.20489246659</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -4081,10 +4081,10 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>36635.19004301739</v>
+        <v>34842.3611611335</v>
       </c>
       <c r="C337">
-        <v>1711.374271895028</v>
+        <v>2429.333397696827</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -4092,10 +4092,10 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>36827.04384492357</v>
+        <v>39993.8283961854</v>
       </c>
       <c r="C338">
-        <v>-228.9142510681148</v>
+        <v>821.8515693859822</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -4103,10 +4103,10 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>38907.14951801491</v>
+        <v>47033.54750242248</v>
       </c>
       <c r="C339">
-        <v>2431.262808217311</v>
+        <v>3814.835323323707</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -4114,10 +4114,10 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>39616.51814785104</v>
+        <v>52702.52956540434</v>
       </c>
       <c r="C340">
-        <v>333.139928402788</v>
+        <v>2049.519138161482</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -4125,10 +4125,10 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>26634.46325234445</v>
+        <v>44680.08810304348</v>
       </c>
       <c r="C341">
-        <v>1756.62961433332</v>
+        <v>3805.815518744313</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -4136,10 +4136,10 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>31560.7971730717</v>
+        <v>49606.42202377073</v>
       </c>
       <c r="C342">
-        <v>-1863.932422264299</v>
+        <v>185.2534821466943</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -4147,10 +4147,10 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>31580.32625758485</v>
+        <v>53423.23772053423</v>
       </c>
       <c r="C343">
-        <v>-199.0862113081922</v>
+        <v>2105.059142707425</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -4158,10 +4158,10 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>35663.8428584639</v>
+        <v>61304.04093366365</v>
       </c>
       <c r="C344">
-        <v>-2306.137835731139</v>
+        <v>252.9669678891041</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -4169,10 +4169,10 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>27676.18180348949</v>
+        <v>57113.66649093962</v>
       </c>
       <c r="C345">
-        <v>3840.643042103445</v>
+        <v>6654.707295328313</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -4180,10 +4180,10 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>27238.67058791716</v>
+        <v>60473.44188761765</v>
       </c>
       <c r="C346">
-        <v>726.9832273918943</v>
+        <v>3796.006930221387</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -4191,10 +4191,10 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>20839.97978361267</v>
+        <v>57872.03769556354</v>
       </c>
       <c r="C347">
-        <v>1994.227265762484</v>
+        <v>5318.210418196601</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -4202,10 +4202,10 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>31595.35231168558</v>
+        <v>72424.6968358868</v>
       </c>
       <c r="C348">
-        <v>455.8190733999422</v>
+        <v>4034.761675438685</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -4213,10 +4213,10 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>23494.08617368832</v>
+        <v>64323.43069788953</v>
       </c>
       <c r="C349">
-        <v>433.49661977936</v>
+        <v>4012.439221818103</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -4224,10 +4224,10 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>26311.18609880832</v>
+        <v>65367.90027114335</v>
       </c>
       <c r="C350">
-        <v>172.6053120268364</v>
+        <v>3512.597458148275</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -4235,10 +4235,10 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>27296.6031520849</v>
+        <v>64580.68697255373</v>
       </c>
       <c r="C351">
-        <v>3325.404655919535</v>
+        <v>6426.446346123668</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -4246,10 +4246,10 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>29135.02750105286</v>
+        <v>64646.48096965549</v>
       </c>
       <c r="C352">
-        <v>1648.198330898608</v>
+        <v>4510.289565185436</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -4257,10 +4257,10 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>27686.65621429582</v>
+        <v>61425.47933103226</v>
       </c>
       <c r="C353">
-        <v>-1494.302398746341</v>
+        <v>1128.838379623181</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -4268,10 +4268,10 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>25504.41946559096</v>
+        <v>57470.61223046121</v>
       </c>
       <c r="C354">
-        <v>4178.347531408006</v>
+        <v>6562.537853860223</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -4279,10 +4279,10 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>25574.41178176899</v>
+        <v>55767.97419477304</v>
       </c>
       <c r="C355">
-        <v>716.672472887037</v>
+        <v>2861.912339421949</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -4290,10 +4290,10 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>25543.16454860769</v>
+        <v>55736.72696161174</v>
       </c>
       <c r="C356">
-        <v>760.95232166349</v>
+        <v>2906.192188198402</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -4301,10 +4301,10 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>23065.4451834529</v>
+        <v>55915.1147781643</v>
       </c>
       <c r="C357">
-        <v>46.68116094077118</v>
+        <v>2428.022386957739</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -4312,10 +4312,10 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>17873.9297682528</v>
+        <v>53379.70654467154</v>
       </c>
       <c r="C358">
-        <v>-3537.924730714642</v>
+        <v>-920.4821452156184</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -4323,10 +4323,10 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>23092.0959371202</v>
+        <v>61253.97989524629</v>
       </c>
       <c r="C359">
-        <v>550.4096603445437</v>
+        <v>3403.953605325623</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -4334,10 +4334,10 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>30235.3261118371</v>
+        <v>71053.31725167052</v>
       </c>
       <c r="C360">
-        <v>2153.08985593886</v>
+        <v>5242.735160401996</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -4345,10 +4345,10 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>24019.78996130381</v>
+        <v>67493.88828284458</v>
       </c>
       <c r="C361">
-        <v>1288.462761271892</v>
+        <v>4614.209425217082</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -4356,10 +4356,10 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>29721.55880682268</v>
+        <v>75851.76431007079</v>
       </c>
       <c r="C362">
-        <v>1203.649679306212</v>
+        <v>4765.497702733458</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -4367,10 +4367,10 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>29295.99996258065</v>
+        <v>75426.20546582875</v>
       </c>
       <c r="C363">
-        <v>1403.77194802889</v>
+        <v>4965.619971456136</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -4378,10 +4378,10 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>27801.13961237784</v>
+        <v>73931.34511562594</v>
       </c>
       <c r="C364">
-        <v>-264.8352316893292</v>
+        <v>3297.012791737917</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -4389,10 +4389,10 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>30672.46605677098</v>
+        <v>70716.73930065436</v>
       </c>
       <c r="C365">
-        <v>29.54565398746809</v>
+        <v>3123.476290283646</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -4400,10 +4400,10 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>33303.50171241487</v>
+        <v>67261.8426969335</v>
       </c>
       <c r="C366">
-        <v>-1274.380118537614</v>
+        <v>1351.633130627496</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -4411,10 +4411,10 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>31112.55048076166</v>
+        <v>58984.95920591557</v>
       </c>
       <c r="C367">
-        <v>-1144.104040768639</v>
+        <v>1013.991821265402</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -4422,10 +4422,10 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>36321.62657349334</v>
+        <v>58108.10303928249</v>
       </c>
       <c r="C368">
-        <v>2784.911771409008</v>
+        <v>4475.090246311981</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -4433,10 +4433,10 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>37383.6998943943</v>
+        <v>53084.24410081872</v>
       </c>
       <c r="C369">
-        <v>1883.628481154125</v>
+        <v>3105.88956892603</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -4444,10 +4444,10 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>40637.06992807984</v>
+        <v>50251.68187513953</v>
       </c>
       <c r="C370">
-        <v>26.74415913200619</v>
+        <v>781.087859772842</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -4455,10 +4455,10 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>49375.55786309864</v>
+        <v>58990.16981015833</v>
       </c>
       <c r="C371">
-        <v>4703.717937216577</v>
+        <v>5458.061637857414</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -4466,10 +4466,10 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>38209.03542176858</v>
+        <v>46579.67174516657</v>
       </c>
       <c r="C372">
-        <v>-140.3732186562188</v>
+        <v>-267.4690415444652</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -4477,10 +4477,10 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>39631.17182534326</v>
+        <v>46757.83252507955</v>
       </c>
       <c r="C373">
-        <v>3659.472787686822</v>
+        <v>2650.937441269494</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -4488,10 +4488,10 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>45651.55928652596</v>
+        <v>51534.24436260057</v>
       </c>
       <c r="C374">
-        <v>3843.628043648307</v>
+        <v>1953.653173701897</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -4499,10 +4499,10 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>38859.26279375627</v>
+        <v>43497.97224616919</v>
       </c>
       <c r="C375">
-        <v>7125.751297757019</v>
+        <v>4354.336904281528</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -4510,10 +4510,10 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>40220.90302593219</v>
+        <v>43615.63685468343</v>
       </c>
       <c r="C376">
-        <v>6412.137750556292</v>
+        <v>2759.28383355172</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -4521,10 +4521,10 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>41005.15118288911</v>
+        <v>43155.90938797867</v>
       </c>
       <c r="C377">
-        <v>7949.021319693254</v>
+        <v>3414.7278791596</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -4532,10 +4532,10 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>34320.16339380802</v>
+        <v>36470.92159889758</v>
       </c>
       <c r="C378">
-        <v>6352.981460727739</v>
+        <v>1818.688020194086</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -4543,10 +4543,10 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>41727.45447023433</v>
+        <v>40472.36461838422</v>
       </c>
       <c r="C379">
-        <v>6186.108425118777</v>
+        <v>1799.606769532377</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -4554,10 +4554,10 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>42638.77195283343</v>
+        <v>37977.83404404366</v>
       </c>
       <c r="C380">
-        <v>3093.826180520297</v>
+        <v>-1144.883690118851</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -4565,10 +4565,10 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>41135.25517754129</v>
+        <v>33068.46921181187</v>
       </c>
       <c r="C381">
-        <v>5735.144759383695</v>
+        <v>1644.2266736918</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -4576,10 +4576,10 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>48621.66108893736</v>
+        <v>37149.02706626827</v>
       </c>
       <c r="C382">
-        <v>7976.206205858188</v>
+        <v>4033.079905113547</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -4587,10 +4587,10 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>53746.40859914418</v>
+        <v>38867.92651953543</v>
       </c>
       <c r="C383">
-        <v>6974.484500584566</v>
+        <v>3179.149984787178</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -4598,10 +4598,10 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>51982.43319311169</v>
+        <v>33698.10305656328</v>
       </c>
       <c r="C384">
-        <v>4232.256120502589</v>
+        <v>584.7133896524529</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -4609,10 +4609,10 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>47750.51107731264</v>
+        <v>29466.18094076423</v>
       </c>
       <c r="C385">
-        <v>3731.447975005776</v>
+        <v>83.90524415564096</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -4620,10 +4620,10 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>49672.90118172166</v>
+        <v>30061.64087311758</v>
       </c>
       <c r="C386">
-        <v>5826.480671966618</v>
+        <v>2128.729952032856</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -4631,10 +4631,10 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>55112.29576724998</v>
+        <v>34174.10528659025</v>
       </c>
       <c r="C387">
-        <v>7034.343122801235</v>
+        <v>3286.384413783844</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -4642,10 +4642,10 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>55686.92392981409</v>
+        <v>33421.80327709868</v>
       </c>
       <c r="C388">
-        <v>6410.266543342163</v>
+        <v>2612.099845241145</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -4653,10 +4653,10 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>59099.91698513202</v>
+        <v>35507.86616036096</v>
       </c>
       <c r="C389">
-        <v>7392.707594332656</v>
+        <v>3544.33290714801</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -4664,10 +4664,10 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>59753.58968722978</v>
+        <v>34834.60869040306</v>
       </c>
       <c r="C390">
-        <v>4537.36903116232</v>
+        <v>638.7863548940452</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -4675,10 +4675,10 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>62885.56142855235</v>
+        <v>36639.65025966996</v>
       </c>
       <c r="C391">
-        <v>3916.367104809545</v>
+        <v>-32.42356054235688</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -4686,10 +4686,10 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>59116.96284014962</v>
+        <v>32871.05167126723</v>
       </c>
       <c r="C392">
-        <v>7944.864563593528</v>
+        <v>3996.073898241627</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -4697,10 +4697,10 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>58084.12597524803</v>
+        <v>38480.12605881845</v>
       </c>
       <c r="C393">
-        <v>2283.067213041586</v>
+        <v>-1260.374295228639</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -4708,10 +4708,10 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>58878.1101975241</v>
+        <v>45916.02153354731</v>
       </c>
       <c r="C394">
-        <v>3996.563741503963</v>
+        <v>858.471390315412</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -4719,10 +4719,10 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>57535.92187153865</v>
+        <v>51215.74446001466</v>
       </c>
       <c r="C395">
-        <v>5543.488629630486</v>
+        <v>2810.74543552361</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -4730,10 +4730,10 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>62076.17758602331</v>
+        <v>62397.91142695213</v>
       </c>
       <c r="C396">
-        <v>4868.346761687681</v>
+        <v>2540.95272466248</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -4741,10 +4741,10 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>63363.66874532913</v>
+        <v>70327.31383871075</v>
       </c>
       <c r="C397">
-        <v>4364.531988323131</v>
+        <v>2442.487108379606</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -4752,10 +4752,10 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>59890.32350481891</v>
+        <v>73495.87985065332</v>
       </c>
       <c r="C398">
-        <v>5239.498558347664</v>
+        <v>3722.802835485815</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -4763,10 +4763,10 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>56713.6559299834</v>
+        <v>70319.21227581782</v>
       </c>
       <c r="C399">
-        <v>4505.095378918487</v>
+        <v>2988.399656056637</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -4774,10 +4774,10 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>59094.46301758173</v>
+        <v>76510.44256578114</v>
       </c>
       <c r="C400">
-        <v>3888.392012128198</v>
+        <v>3740.513351901537</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -4785,10 +4785,10 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>63391.78285174872</v>
+        <v>84618.18560231311</v>
       </c>
       <c r="C401">
-        <v>4813.591309204981</v>
+        <v>6034.529711613509</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -4796,10 +4796,10 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>63876.17084394065</v>
+        <v>88912.99679687001</v>
       </c>
       <c r="C402">
-        <v>4722.742578211761</v>
+        <v>7312.498043255477</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -4807,10 +4807,10 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>62336.33467812528</v>
+        <v>91183.58383341963</v>
       </c>
       <c r="C403">
-        <v>3112.572208289364</v>
+        <v>7071.144735968268</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -4818,10 +4818,10 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>59061.25080530006</v>
+        <v>91718.92316295939</v>
       </c>
       <c r="C404">
-        <v>2003.348234307237</v>
+        <v>7330.737824621328</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -4829,10 +4829,10 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>63020.90120452379</v>
+        <v>99488.99676454809</v>
       </c>
       <c r="C405">
-        <v>2539.386662003408</v>
+        <v>9235.593314952686</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -4840,10 +4840,10 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>57183.19907595968</v>
+        <v>93651.29463598398</v>
       </c>
       <c r="C406">
-        <v>3625.372182366878</v>
+        <v>10321.57883531616</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -4851,10 +4851,10 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>61984.11478059773</v>
+        <v>96918.8673606549</v>
       </c>
       <c r="C407">
-        <v>61.64719517129106</v>
+        <v>6017.873491092017</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -4862,10 +4862,10 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>63621.23478610213</v>
+        <v>97022.64438619214</v>
       </c>
       <c r="C408">
-        <v>3644.955474391646</v>
+        <v>8861.201413283816</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -4873,10 +4873,10 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>53740.83314840326</v>
+        <v>85608.89976852613</v>
       </c>
       <c r="C409">
-        <v>1075.005985610457</v>
+        <v>5551.271567474072</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -4884,10 +4884,10 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>60048.04008112622</v>
+        <v>90382.76372128195</v>
       </c>
       <c r="C410">
-        <v>3812.898210928091</v>
+        <v>7549.183435763152</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -4895,10 +4895,10 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>61084.2654120927</v>
+        <v>89885.64607228126</v>
       </c>
       <c r="C411">
-        <v>5909.699250005457</v>
+        <v>8906.004117811963</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -4906,10 +4906,10 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>63515.51518797181</v>
+        <v>90783.5528681932</v>
       </c>
       <c r="C412">
-        <v>4112.369656208321</v>
+        <v>6368.694166986274</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -4917,10 +4917,10 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>54928.76351820827</v>
+        <v>82196.80119842968</v>
       </c>
       <c r="C413">
-        <v>3057.64340128743</v>
+        <v>5313.967912065383</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -4928,10 +4928,10 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>57927.11576741051</v>
+        <v>86867.5403242435</v>
       </c>
       <c r="C414">
-        <v>3060.428916967393</v>
+        <v>5813.348212041275</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -4939,10 +4939,10 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>51924.06483847178</v>
+        <v>82536.87627191635</v>
       </c>
       <c r="C415">
-        <v>4560.616903660799</v>
+        <v>7810.130983030607</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -4950,10 +4950,10 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>62078.43828644638</v>
+        <v>94363.63659650253</v>
       </c>
       <c r="C416">
-        <v>6758.148260840479</v>
+        <v>10504.25712450622</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -4961,10 +4961,10 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>53154.27996964949</v>
+        <v>87111.86515631722</v>
       </c>
       <c r="C417">
-        <v>2430.683218751126</v>
+        <v>6673.386866712793</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -4972,10 +4972,10 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>53876.40947092864</v>
+        <v>89506.38153420793</v>
       </c>
       <c r="C418">
-        <v>6459.218488639255</v>
+        <v>11198.51692089685</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -4983,10 +4983,10 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>58329.16585996158</v>
+        <v>95631.52479985249</v>
       </c>
       <c r="C419">
-        <v>5306.013429390076</v>
+        <v>10541.9066459436</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -4994,10 +4994,10 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>59554.13288888264</v>
+        <v>96856.49182877353</v>
       </c>
       <c r="C420">
-        <v>1503.404482452787</v>
+        <v>6739.297699006307</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -5005,10 +5005,10 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>56588.39408625208</v>
+        <v>89224.97864260947</v>
       </c>
       <c r="C421">
-        <v>1362.480699290335</v>
+        <v>6260.272677647727</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -5016,10 +5016,10 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>56467.15569462239</v>
+        <v>84437.96586744627</v>
       </c>
       <c r="C422">
-        <v>6794.33573070063</v>
+        <v>11354.02647086189</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -5027,10 +5027,10 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>61897.8502905338</v>
+        <v>85202.88607982418</v>
       </c>
       <c r="C423">
-        <v>5530.900049462422</v>
+        <v>9752.489551427559</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -5038,10 +5038,10 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>59948.26068726454</v>
+        <v>78587.52209302138</v>
       </c>
       <c r="C424">
-        <v>8185.059583651468</v>
+        <v>12068.54784742048</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -5049,10 +5049,10 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>65342.01303510051</v>
+        <v>79315.50005732386</v>
       </c>
       <c r="C425">
-        <v>4804.395926813741</v>
+        <v>8349.782952386628</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -5060,10 +5060,10 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>73276.89552166979</v>
+        <v>82584.60816035961</v>
       </c>
       <c r="C426">
-        <v>7308.208323397256</v>
+        <v>10515.49411077402</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -5071,10 +5071,10 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>65593.28482161119</v>
+        <v>74900.99746030101</v>
       </c>
       <c r="C427">
-        <v>2841.397090284496</v>
+        <v>6048.682877661256</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -5082,10 +5082,10 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>65524.20573906788</v>
+        <v>78106.05977772253</v>
       </c>
       <c r="C428">
-        <v>8242.006471878174</v>
+        <v>10941.64062113213</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -5093,10 +5093,10 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>60181.47618929805</v>
+        <v>76037.47162791752</v>
       </c>
       <c r="C429">
-        <v>6216.813105678827</v>
+        <v>8408.795616809984</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -5104,10 +5104,10 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>68094.06653351245</v>
+        <v>87224.20337209676</v>
       </c>
       <c r="C430">
-        <v>2684.072359148683</v>
+        <v>4368.403232157038</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -5115,10 +5115,10 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>61546.363565302</v>
+        <v>83950.64180385113</v>
       </c>
       <c r="C431">
-        <v>6898.041814055153</v>
+        <v>8074.721048940705</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -5126,10 +5126,10 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>59536.79351455303</v>
+        <v>85215.21315306699</v>
       </c>
       <c r="C432">
-        <v>7471.777851993093</v>
+        <v>8140.805448755844</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -5137,10 +5137,10 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>54406.10378713346</v>
+        <v>83358.66482561223</v>
       </c>
       <c r="C433">
-        <v>8876.703785538733</v>
+        <v>9038.079744178682</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -5148,10 +5148,10 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>57991.54608646448</v>
+        <v>86944.10712494326</v>
       </c>
       <c r="C434">
-        <v>4589.27524950019</v>
+        <v>4750.651208140138</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -5159,10 +5159,10 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>55006.56251536043</v>
+        <v>84955.48548116209</v>
       </c>
       <c r="C435">
-        <v>5895.907183971893</v>
+        <v>5981.271344402253</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -5170,10 +5170,10 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>58128.74117962672</v>
+        <v>89074.02607275128</v>
       </c>
       <c r="C436">
-        <v>8321.736217740337</v>
+        <v>8331.08857996111</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -5181,10 +5181,10 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>61496.1658289847</v>
+        <v>93437.81264943213</v>
       </c>
       <c r="C437">
-        <v>4032.911130607272</v>
+        <v>3966.251694618459</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -5192,10 +5192,10 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>49584.71247442965</v>
+        <v>82522.72122219997</v>
       </c>
       <c r="C438">
-        <v>8592.328930746566</v>
+        <v>8449.657696548164</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -5203,10 +5203,10 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>52960.37720965187</v>
+        <v>86894.74788474508</v>
       </c>
       <c r="C439">
-        <v>6712.539256965601</v>
+        <v>6493.85622455761</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -5214,10 +5214,10 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>62595.09479739209</v>
+        <v>97525.8273998082</v>
       </c>
       <c r="C440">
-        <v>5120.197125060966</v>
+        <v>4825.502294443389</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -5225,10 +5225,10 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>60249.59402006613</v>
+        <v>95180.32662248224</v>
       </c>
       <c r="C441">
-        <v>4675.078120869024</v>
+        <v>4380.383290251447</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -5236,10 +5236,10 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>62452.76261491015</v>
+        <v>96991.43444051448</v>
       </c>
       <c r="C442">
-        <v>10258.19726187904</v>
+        <v>9979.747308836944</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -5247,10 +5247,10 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>60519.31538212797</v>
+        <v>94665.92643092052</v>
       </c>
       <c r="C443">
-        <v>10578.87047495929</v>
+        <v>10316.66539949267</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -5258,10 +5258,10 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>58054.52997269398</v>
+        <v>91809.08024467475</v>
       </c>
       <c r="C444">
-        <v>6351.032650364414</v>
+        <v>6105.072452473282</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -5269,10 +5269,10 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>53102.66737883591</v>
+        <v>86465.1568740049</v>
       </c>
       <c r="C445">
-        <v>8509.069228282564</v>
+        <v>8279.353907966915</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -5280,10 +5280,10 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>53222.65442613095</v>
+        <v>86193.08314448816</v>
       </c>
       <c r="C446">
-        <v>7274.233602716659</v>
+        <v>7060.763159976493</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -5291,10 +5291,10 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>62418.68742067326</v>
+        <v>94997.05536221869</v>
       </c>
       <c r="C447">
-        <v>6497.168786886625</v>
+        <v>6299.943221721941</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -5302,10 +5302,10 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>51157.45907616498</v>
+        <v>83735.8270177104</v>
       </c>
       <c r="C448">
-        <v>8669.787381613151</v>
+        <v>8472.561816448466</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -5313,10 +5313,10 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>57177.66613606983</v>
+        <v>87753.30900134533</v>
       </c>
       <c r="C449">
-        <v>5623.706372986051</v>
+        <v>5516.545580953554</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -5324,10 +5324,10 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>60593.88890623314</v>
+        <v>89166.80669523872</v>
       </c>
       <c r="C450">
-        <v>7328.640322769193</v>
+        <v>7311.544303868883</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -5335,10 +5335,10 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>58548.18261974738</v>
+        <v>85118.37533248303</v>
       </c>
       <c r="C451">
-        <v>12971.69838746691</v>
+        <v>13044.66714169879</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -5346,10 +5346,10 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>53927.43855691423</v>
+        <v>78494.90619337998</v>
       </c>
       <c r="C452">
-        <v>5622.115135046117</v>
+        <v>5785.148662410182</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -5357,10 +5357,10 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>50764.41281621427</v>
+        <v>73329.15537641007</v>
       </c>
       <c r="C453">
-        <v>4538.681694321145</v>
+        <v>4791.779994817396</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -5368,10 +5368,10 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>65239.45252838747</v>
+        <v>85801.47001231335</v>
       </c>
       <c r="C454">
-        <v>8125.514594796019</v>
+        <v>8468.67766842446</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -5379,10 +5379,10 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>61118.82399360036</v>
+        <v>81680.84147752624</v>
       </c>
       <c r="C455">
-        <v>9171.834728542159</v>
+        <v>9514.997802170599</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -5390,10 +5390,10 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>63048.93384115398</v>
+        <v>86103.66628879309</v>
       </c>
       <c r="C456">
-        <v>4896.897230022654</v>
+        <v>5307.339609190576</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -5401,10 +5401,10 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>58281.95596686185</v>
+        <v>83829.40337821419</v>
       </c>
       <c r="C457">
-        <v>9752.944744760742</v>
+        <v>10230.66642946814</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -5412,10 +5412,10 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>57485.37809176218</v>
+        <v>85525.54046682775</v>
       </c>
       <c r="C458">
-        <v>7406.571718535741</v>
+        <v>7951.57270878262</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -5423,10 +5423,10 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>52240.39662856345</v>
+        <v>82773.27396734225</v>
       </c>
       <c r="C459">
-        <v>10624.8368794099</v>
+        <v>11237.11717519625</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -5434,10 +5434,10 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>58480.32854386403</v>
+        <v>91505.92084635606</v>
       </c>
       <c r="C460">
-        <v>9682.365767920455</v>
+        <v>10361.92536924629</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -5445,10 +5445,10 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>59498.4825749002</v>
+        <v>95016.78984110546</v>
       </c>
       <c r="C461">
-        <v>11137.68937075529</v>
+        <v>11884.52827762061</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -5456,10 +5456,10 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>60796.20810568325</v>
+        <v>96314.51537188851</v>
       </c>
       <c r="C462">
-        <v>7561.68965696335</v>
+        <v>8308.52856382867</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -5467,10 +5467,10 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>58375.70922102054</v>
+        <v>93435.7473220793</v>
       </c>
       <c r="C463">
-        <v>10747.08968871438</v>
+        <v>11511.84645035507</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -5478,10 +5478,10 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>62836.87199585524</v>
+        <v>97438.6409317675</v>
       </c>
       <c r="C464">
-        <v>6951.046820745594</v>
+        <v>7733.721437161641</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -5489,10 +5489,10 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>54572.32120775638</v>
+        <v>88715.82097852214</v>
       </c>
       <c r="C465">
-        <v>10849.17138227608</v>
+        <v>11649.76385346749</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -5500,10 +5500,10 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>58137.59648441459</v>
+        <v>91822.82709003385</v>
       </c>
       <c r="C466">
-        <v>8961.723816059388</v>
+        <v>9780.234142026164</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -5511,10 +5511,10 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>56330.87765084353</v>
+        <v>89557.83909131629</v>
       </c>
       <c r="C467">
-        <v>9406.207374485137</v>
+        <v>10242.63555522728</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -5522,10 +5522,10 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>51870.60552128337</v>
+        <v>84639.29779660961</v>
       </c>
       <c r="C468">
-        <v>8668.210048838275</v>
+        <v>9522.556084355778</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -5533,10 +5533,10 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>51287.08704831014</v>
+        <v>84055.77932363638</v>
       </c>
       <c r="C469">
-        <v>7884.751300164464</v>
+        <v>8739.097335681967</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -5544,10 +5544,10 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>52974.46063879215</v>
+        <v>85936.92838576488</v>
       </c>
       <c r="C470">
-        <v>6550.973539697271</v>
+        <v>7458.105290661358</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -5555,10 +5555,10 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>54430.78481496309</v>
+        <v>87587.02803358229</v>
       </c>
       <c r="C471">
-        <v>7607.073620605561</v>
+        <v>8566.991087016229</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -5566,10 +5566,10 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>58210.45736708592</v>
+        <v>91560.47605735163</v>
       </c>
       <c r="C472">
-        <v>10806.02503478479</v>
+        <v>11818.72821664205</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -5577,10 +5577,10 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>56602.21447593089</v>
+        <v>90146.00863784307</v>
       </c>
       <c r="C473">
-        <v>9901.379983269248</v>
+        <v>10966.86888057308</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -5588,10 +5588,10 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>58430.57680789614</v>
+        <v>92168.14644145481</v>
       </c>
       <c r="C474">
-        <v>14210.56728628845</v>
+        <v>15328.84189903887</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -5599,10 +5599,10 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>53494.58174420814</v>
+        <v>87425.92684941328</v>
       </c>
       <c r="C475">
-        <v>11240.35027302223</v>
+        <v>12411.41060121924</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -5610,10 +5610,10 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>52627.38519210933</v>
+        <v>86558.73029731447</v>
       </c>
       <c r="C476">
-        <v>9114.439152178835</v>
+        <v>10285.49948037584</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -5621,10 +5621,10 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>53208.53971266622</v>
+        <v>84851.21247758091</v>
       </c>
       <c r="C477">
-        <v>10471.55783741253</v>
+        <v>11586.79039509682</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -5632,10 +5632,10 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>51094.45240401615</v>
+        <v>80448.45282864038</v>
       </c>
       <c r="C478">
-        <v>17142.68283400768</v>
+        <v>18202.08762117925</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -5643,10 +5643,10 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>53386.70333668311</v>
+        <v>80452.0314210169</v>
       </c>
       <c r="C479">
-        <v>9437.214006165719</v>
+        <v>10440.79102282458</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -5654,10 +5654,10 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>46968.4916516933</v>
+        <v>71745.14739573663</v>
       </c>
       <c r="C480">
-        <v>9381.169335678294</v>
+        <v>10328.91858182444</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -5665,10 +5665,10 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>45539.80086588932</v>
+        <v>68027.7842696422</v>
       </c>
       <c r="C481">
-        <v>14239.66813365046</v>
+        <v>15131.58960928388</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -5676,10 +5676,10 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>51650.62125753408</v>
+        <v>71849.93232099651</v>
       </c>
       <c r="C482">
-        <v>9599.94864278205</v>
+        <v>10436.04234790276</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -5687,10 +5687,10 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>52055.7142116466</v>
+        <v>72255.02527510902</v>
       </c>
       <c r="C483">
-        <v>11451.42354179945</v>
+        <v>12287.51724692017</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -5698,10 +5698,10 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>53375.61045116512</v>
+        <v>74374.54019847505</v>
       </c>
       <c r="C484">
-        <v>8820.011844367611</v>
+        <v>9768.345887394529</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -5709,10 +5709,10 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>48323.33560545687</v>
+        <v>70121.88403661428</v>
       </c>
       <c r="C485">
-        <v>13577.90213432573</v>
+        <v>14638.47651525885</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -5720,10 +5720,10 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>52539.16318800995</v>
+        <v>75137.33030301487</v>
       </c>
       <c r="C486">
-        <v>11204.30298199865</v>
+        <v>12377.11770083797</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -5731,10 +5731,10 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>52245.83580079704</v>
+        <v>75643.62159964949</v>
       </c>
       <c r="C487">
-        <v>13085.65490724929</v>
+        <v>14370.70996399483</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -5742,10 +5742,10 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>55830.71412837915</v>
+        <v>80028.11861107909</v>
       </c>
       <c r="C488">
-        <v>11527.71479683753</v>
+        <v>12925.01019148927</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -5753,10 +5753,10 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>54900.73552137436</v>
+        <v>79897.7586879218</v>
       </c>
       <c r="C489">
-        <v>16472.18882881453</v>
+        <v>17981.72456137248</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -5764,10 +5764,10 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>50232.6791724084</v>
+        <v>75229.70233895585</v>
       </c>
       <c r="C490">
-        <v>12171.26887164737</v>
+        <v>13680.80460420532</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -5775,10 +5775,10 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>53536.8462433955</v>
+        <v>78801.34552464608</v>
       </c>
       <c r="C491">
-        <v>16891.09835321725</v>
+        <v>18474.41427332299</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -5786,10 +5786,10 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>56542.55850001283</v>
+        <v>82074.53389596654</v>
       </c>
       <c r="C492">
-        <v>14475.99912852186</v>
+        <v>16133.09523617538</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -5797,10 +5797,10 @@
         <v>491</v>
       </c>
       <c r="B493">
-        <v>53210.92497679951</v>
+        <v>79010.37648745636</v>
       </c>
       <c r="C493">
-        <v>12721.43382541543</v>
+        <v>14452.31012061673</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -5808,10 +5808,10 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>59478.42285126126</v>
+        <v>85545.35047662124</v>
       </c>
       <c r="C494">
-        <v>14258.62402401124</v>
+        <v>16063.28050676032</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -5819,10 +5819,10 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>55238.36732177041</v>
+        <v>81572.77106183354</v>
       </c>
       <c r="C495">
-        <v>14635.59712142861</v>
+        <v>16514.03379172547</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -5830,10 +5830,10 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>55276.19204684389</v>
+        <v>81878.07190161015</v>
       </c>
       <c r="C496">
-        <v>15277.20146114156</v>
+        <v>17229.41831898621</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -5841,10 +5841,10 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>54085.03873899073</v>
+        <v>80686.918593757</v>
       </c>
       <c r="C497">
-        <v>16280.39762955504</v>
+        <v>18232.61448739968</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -5852,10 +5852,10 @@
         <v>496</v>
       </c>
       <c r="B498">
-        <v>50576.0965644785</v>
+        <v>77733.37466360857</v>
       </c>
       <c r="C498">
-        <v>13039.14872400729</v>
+        <v>15065.07589389824</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -5863,10 +5863,10 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>54705.5688845579</v>
+        <v>82418.2452280518</v>
       </c>
       <c r="C499">
-        <v>12391.77791367308</v>
+        <v>14491.41539561034</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -5874,10 +5874,10 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>49454.69600235055</v>
+        <v>77722.77059020827</v>
       </c>
       <c r="C500">
-        <v>15313.65972244631</v>
+        <v>17487.00751642987</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -5885,10 +5885,10 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>55527.67657148407</v>
+        <v>84351.14940370561</v>
       </c>
       <c r="C501">
-        <v>15213.79089473429</v>
+        <v>17460.84900076415</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -5896,10 +5896,10 @@
         <v>500</v>
       </c>
       <c r="B502">
-        <v>58839.61698474448</v>
+        <v>88218.48806132983</v>
       </c>
       <c r="C502">
-        <v>10876.43826677805</v>
+        <v>13197.20668485421</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -5907,10 +5907,10 @@
         <v>501</v>
       </c>
       <c r="B503">
-        <v>48245.33089975739</v>
+        <v>78179.60022070656</v>
       </c>
       <c r="C503">
-        <v>12180.94085407004</v>
+        <v>14575.4195841925</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -5918,10 +5918,10 @@
         <v>502</v>
       </c>
       <c r="B504">
-        <v>59371.35662133628</v>
+        <v>89305.62594228546</v>
       </c>
       <c r="C504">
-        <v>14405.38464826563</v>
+        <v>16799.86337838809</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -5929,10 +5929,10 @@
         <v>503</v>
       </c>
       <c r="B505">
-        <v>58850.38377562574</v>
+        <v>88122.38327564743</v>
       </c>
       <c r="C505">
-        <v>15576.12388443108</v>
+        <v>17929.72455870597</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -5940,10 +5940,10 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>54455.97194228919</v>
+        <v>83065.70162138341</v>
       </c>
       <c r="C506">
-        <v>11798.93858488925</v>
+        <v>14111.66120331659</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -5951,10 +5951,10 @@
         <v>505</v>
       </c>
       <c r="B507">
-        <v>58659.04138632023</v>
+        <v>86606.50124448698</v>
       </c>
       <c r="C507">
-        <v>15407.78537314199</v>
+        <v>17679.62993572176</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -5962,10 +5962,10 @@
         <v>506</v>
       </c>
       <c r="B508">
-        <v>51921.21769379611</v>
+        <v>79206.40773103535</v>
       </c>
       <c r="C508">
-        <v>12935.18428062574</v>
+        <v>15166.15078735794</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -5973,10 +5973,10 @@
         <v>507</v>
       </c>
       <c r="B509">
-        <v>56448.13886648508</v>
+        <v>83071.05908279686</v>
       </c>
       <c r="C509">
-        <v>13358.50233757001</v>
+        <v>15548.59078845465</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -5984,10 +5984,10 @@
         <v>508</v>
       </c>
       <c r="B510">
-        <v>54098.74396116922</v>
+        <v>80059.39435655352</v>
       </c>
       <c r="C510">
-        <v>13539.1669790078</v>
+        <v>15688.37737404487</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -5995,10 +5995,10 @@
         <v>509</v>
       </c>
       <c r="B511">
-        <v>57387.90826391638</v>
+        <v>83348.55865930067</v>
       </c>
       <c r="C511">
-        <v>16097.10270893559</v>
+        <v>18246.31310397266</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -6006,10 +6006,10 @@
         <v>510</v>
       </c>
       <c r="B512">
-        <v>53595.27270501351</v>
+        <v>77328.82751645478</v>
       </c>
       <c r="C512">
-        <v>13558.8476239851</v>
+        <v>15459.80008483377</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -6017,10 +6017,10 @@
         <v>511</v>
       </c>
       <c r="B513">
-        <v>59954.59701179997</v>
+        <v>81461.05623929824</v>
       </c>
       <c r="C513">
-        <v>15104.98442042166</v>
+        <v>16757.67894708192</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -6028,10 +6028,10 @@
         <v>512</v>
       </c>
       <c r="B514">
-        <v>56581.04447035</v>
+        <v>75860.40811390526</v>
       </c>
       <c r="C514">
-        <v>13213.04460524088</v>
+        <v>14617.48119771275</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -6039,10 +6039,10 @@
         <v>513</v>
       </c>
       <c r="B515">
-        <v>59228.18074698968</v>
+        <v>76280.44880660194</v>
       </c>
       <c r="C515">
-        <v>11828.22200717192</v>
+        <v>12984.40066545539</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -6050,10 +6050,10 @@
         <v>514</v>
       </c>
       <c r="B516">
-        <v>56446.78589504761</v>
+        <v>71271.95837071686</v>
       </c>
       <c r="C516">
-        <v>10381.99603837184</v>
+        <v>11289.91676246691</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -6061,10 +6061,10 @@
         <v>515</v>
       </c>
       <c r="B517">
-        <v>60096.42558559</v>
+        <v>72694.50247731624</v>
       </c>
       <c r="C517">
-        <v>13380.00449772598</v>
+        <v>14039.66728763265</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -6072,10 +6072,10 @@
         <v>516</v>
       </c>
       <c r="B518">
-        <v>62073.80217683</v>
+        <v>74671.87906855624</v>
       </c>
       <c r="C518">
-        <v>18658.55527196377</v>
+        <v>19318.21806187043</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -6083,10 +6083,10 @@
         <v>517</v>
       </c>
       <c r="B519">
-        <v>54551.92900584241</v>
+        <v>66755.47454047948</v>
       </c>
       <c r="C519">
-        <v>12174.21529058292</v>
+        <v>12544.93116936526</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -6094,10 +6094,10 @@
         <v>518</v>
       </c>
       <c r="B520">
-        <v>59309.60928539938</v>
+        <v>71118.62346294726</v>
       </c>
       <c r="C520">
-        <v>17497.74542495854</v>
+        <v>17579.51439261655</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -6105,10 +6105,10 @@
         <v>519</v>
       </c>
       <c r="B521">
-        <v>54828.34247836686</v>
+        <v>66242.82529882556</v>
       </c>
       <c r="C521">
-        <v>11780.49530610916</v>
+        <v>11573.31736264285</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -6116,10 +6116,10 @@
         <v>520</v>
       </c>
       <c r="B522">
-        <v>56794.82501844624</v>
+        <v>67814.77648181573</v>
       </c>
       <c r="C522">
-        <v>10074.60617814373</v>
+        <v>9578.481323553089</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -6127,10 +6127,10 @@
         <v>521</v>
       </c>
       <c r="B523">
-        <v>51886.40666862687</v>
+        <v>62511.82677490716</v>
       </c>
       <c r="C523">
-        <v>9436.112076373975</v>
+        <v>8651.040310659009</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -6138,10 +6138,10 @@
         <v>522</v>
       </c>
       <c r="B524">
-        <v>46167.79905972631</v>
+        <v>56398.68780891741</v>
       </c>
       <c r="C524">
-        <v>17512.9167694903</v>
+        <v>16438.89809265101</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -6149,10 +6149,10 @@
         <v>523</v>
       </c>
       <c r="B525">
-        <v>57676.52266175572</v>
+        <v>67907.41141094684</v>
       </c>
       <c r="C525">
-        <v>14724.32561635167</v>
+        <v>13650.30693951237</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -6160,10 +6160,10 @@
         <v>524</v>
       </c>
       <c r="B526">
-        <v>55987.317809569</v>
+        <v>65866.95913945763</v>
       </c>
       <c r="C526">
-        <v>12211.00196927019</v>
+        <v>11943.84015773544</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -6171,10 +6171,10 @@
         <v>525</v>
       </c>
       <c r="B527">
-        <v>53178.82516489951</v>
+        <v>62707.21907548564</v>
       </c>
       <c r="C527">
-        <v>14878.62046738096</v>
+        <v>15418.31552115075</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -6182,10 +6182,10 @@
         <v>526</v>
       </c>
       <c r="B528">
-        <v>55857.23562941883</v>
+        <v>65034.38212070247</v>
       </c>
       <c r="C528">
-        <v>9874.939584689424</v>
+        <v>11221.49150376376</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -6193,10 +6193,10 @@
         <v>527</v>
       </c>
       <c r="B529">
-        <v>57552.15258645363</v>
+        <v>66378.05165843479</v>
       </c>
       <c r="C529">
-        <v>11109.9163138901</v>
+        <v>13263.32509826898</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -6204,10 +6204,10 @@
         <v>528</v>
       </c>
       <c r="B530">
-        <v>60951.05045670158</v>
+        <v>69425.70210938025</v>
       </c>
       <c r="C530">
-        <v>8241.475030288364</v>
+        <v>11201.74067997178</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -6215,10 +6215,10 @@
         <v>529</v>
       </c>
       <c r="B531">
-        <v>56604.01415860132</v>
+        <v>64727.41839197749</v>
       </c>
       <c r="C531">
-        <v>7254.35750906935</v>
+        <v>11021.48002405731</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -6226,10 +6226,10 @@
         <v>530</v>
       </c>
       <c r="B532">
-        <v>60893.95173698139</v>
+        <v>69017.35597035756</v>
       </c>
       <c r="C532">
-        <v>9934.617734198304</v>
+        <v>13701.74024918627</v>
       </c>
     </row>
     <row r="533" spans="1:3">
@@ -6237,10 +6237,10 @@
         <v>531</v>
       </c>
       <c r="B533">
-        <v>59442.14704196295</v>
+        <v>67040.12616749333</v>
       </c>
       <c r="C533">
-        <v>10497.70893361044</v>
+        <v>14431.77753386074</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -6248,10 +6248,10 @@
         <v>532</v>
       </c>
       <c r="B534">
-        <v>60721.71216279716</v>
+        <v>67794.26618048176</v>
       </c>
       <c r="C534">
-        <v>10655.37586824962</v>
+        <v>14756.39055376227</v>
       </c>
     </row>
     <row r="535" spans="1:3">
@@ -6259,10 +6259,10 @@
         <v>533</v>
       </c>
       <c r="B535">
-        <v>59847.88493829824</v>
+        <v>66395.01384813705</v>
       </c>
       <c r="C535">
-        <v>7471.571996738051</v>
+        <v>11739.53276751304</v>
       </c>
     </row>
     <row r="536" spans="1:3">
@@ -6270,10 +6270,10 @@
         <v>534</v>
       </c>
       <c r="B536">
-        <v>59312.43870891687</v>
+        <v>65334.14251090989</v>
       </c>
       <c r="C536">
-        <v>10621.87610818956</v>
+        <v>15056.78296422688</v>
       </c>
     </row>
     <row r="537" spans="1:3">
@@ -6281,10 +6281,10 @@
         <v>535</v>
       </c>
       <c r="B537">
-        <v>57445.57292120379</v>
+        <v>62941.85161535102</v>
       </c>
       <c r="C537">
-        <v>9249.404705182355</v>
+        <v>13851.25764648202</v>
       </c>
     </row>
     <row r="538" spans="1:3">
@@ -6292,10 +6292,10 @@
         <v>536</v>
       </c>
       <c r="B538">
-        <v>61549.31673002833</v>
+        <v>66520.17031632978</v>
       </c>
       <c r="C538">
-        <v>6400.987116704107</v>
+        <v>11169.78614326611</v>
       </c>
     </row>
     <row r="539" spans="1:3">
@@ -6303,10 +6303,10 @@
         <v>537</v>
       </c>
       <c r="B539">
-        <v>58982.6452521034</v>
+        <v>63953.49883840486</v>
       </c>
       <c r="C539">
-        <v>5592.451537934767</v>
+        <v>10361.25056449677</v>
       </c>
     </row>
     <row r="540" spans="1:3">
@@ -6314,10 +6314,10 @@
         <v>538</v>
       </c>
       <c r="B540">
-        <v>61766.8744047822</v>
+        <v>66042.45943951647</v>
       </c>
       <c r="C540">
-        <v>10818.38432237887</v>
+        <v>15491.86489764409</v>
       </c>
     </row>
     <row r="541" spans="1:3">
@@ -6325,10 +6325,10 @@
         <v>539</v>
       </c>
       <c r="B541">
-        <v>62184.68729382657</v>
+        <v>65765.00377699368</v>
       </c>
       <c r="C541">
-        <v>7785.711510525393</v>
+        <v>12363.87363449384</v>
       </c>
     </row>
     <row r="542" spans="1:3">
@@ -6336,10 +6336,10 @@
         <v>540</v>
       </c>
       <c r="B542">
-        <v>57107.59885129325</v>
+        <v>59992.6467828932</v>
       </c>
       <c r="C542">
-        <v>9769.79739093028</v>
+        <v>14252.64106360195</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -6347,10 +6347,10 @@
         <v>541</v>
       </c>
       <c r="B543">
-        <v>65186.09757446936</v>
+        <v>67375.87695450212</v>
       </c>
       <c r="C543">
-        <v>13454.61254330862</v>
+        <v>17842.13776468352</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -6358,10 +6358,10 @@
         <v>542</v>
       </c>
       <c r="B544">
-        <v>60868.83279599437</v>
+        <v>62363.34362445997</v>
       </c>
       <c r="C544">
-        <v>11706.79543952764</v>
+        <v>15999.00220960576</v>
       </c>
     </row>
     <row r="545" spans="1:3">
@@ -6369,10 +6369,10 @@
         <v>543</v>
       </c>
       <c r="B545">
-        <v>62246.47531260279</v>
+        <v>63045.71758950123</v>
       </c>
       <c r="C545">
-        <v>9864.833249547657</v>
+        <v>14061.72156832901</v>
       </c>
     </row>
     <row r="546" spans="1:3">
@@ -6380,10 +6380,10 @@
         <v>544</v>
       </c>
       <c r="B546">
-        <v>57531.69655161291</v>
+        <v>58330.93882851135</v>
       </c>
       <c r="C546">
-        <v>10015.67471858987</v>
+        <v>14212.56303737122</v>
       </c>
     </row>
     <row r="547" spans="1:3">
@@ -6391,10 +6391,10 @@
         <v>545</v>
       </c>
       <c r="B547">
-        <v>64176.36003734604</v>
+        <v>63924.78783063927</v>
       </c>
       <c r="C547">
-        <v>8838.131527708991</v>
+        <v>12498.47534291754</v>
       </c>
     </row>
     <row r="548" spans="1:3">
@@ -6402,10 +6402,10 @@
         <v>546</v>
       </c>
       <c r="B548">
-        <v>57968.21893993877</v>
+        <v>56665.83224962679</v>
       </c>
       <c r="C548">
-        <v>10290.85440788715</v>
+        <v>13414.6537195229</v>
       </c>
     </row>
     <row r="549" spans="1:3">
@@ -6413,10 +6413,10 @@
         <v>547</v>
       </c>
       <c r="B549">
-        <v>66661.50414228604</v>
+        <v>64308.30296836885</v>
       </c>
       <c r="C549">
-        <v>8875.522279984187</v>
+        <v>11462.77708804714</v>
       </c>
     </row>
     <row r="550" spans="1:3">
@@ -6424,10 +6424,10 @@
         <v>548</v>
       </c>
       <c r="B550">
-        <v>62979.42070147894</v>
+        <v>59575.40504395655</v>
       </c>
       <c r="C550">
-        <v>8782.650895034441</v>
+        <v>10833.3611995246</v>
       </c>
     </row>
     <row r="551" spans="1:3">
@@ -6435,10 +6435,10 @@
         <v>549</v>
       </c>
       <c r="B551">
-        <v>68564.77170157507</v>
+        <v>64109.94156044749</v>
       </c>
       <c r="C551">
-        <v>8093.978915327772</v>
+        <v>9608.144716245126</v>
       </c>
     </row>
     <row r="552" spans="1:3">
@@ -6446,10 +6446,10 @@
         <v>550</v>
       </c>
       <c r="B552">
-        <v>63507.75383353138</v>
+        <v>58002.10920879858</v>
       </c>
       <c r="C552">
-        <v>7511.86451691804</v>
+        <v>8489.485814262594</v>
       </c>
     </row>
     <row r="553" spans="1:3">
@@ -6457,10 +6457,10 @@
         <v>551</v>
       </c>
       <c r="B553">
-        <v>63992.71870904585</v>
+        <v>58487.07408431305</v>
       </c>
       <c r="C553">
-        <v>7085.721935139583</v>
+        <v>8063.343232484138</v>
       </c>
     </row>
     <row r="554" spans="1:3">
@@ -6468,10 +6468,10 @@
         <v>552</v>
       </c>
       <c r="B554">
-        <v>67424.18801707654</v>
+        <v>61405.79941025863</v>
       </c>
       <c r="C554">
-        <v>11389.15042353805</v>
+        <v>11633.30743111828</v>
       </c>
     </row>
     <row r="555" spans="1:3">
@@ -6479,10 +6479,10 @@
         <v>553</v>
       </c>
       <c r="B555">
-        <v>56874.511649156</v>
+        <v>50343.37906025301</v>
       </c>
       <c r="C555">
-        <v>8946.053371100012</v>
+        <v>8456.746088915912</v>
       </c>
     </row>
     <row r="556" spans="1:3">
@@ -6490,10 +6490,10 @@
         <v>554</v>
       </c>
       <c r="B556">
-        <v>66393.32193425289</v>
+        <v>59349.44536326479</v>
       </c>
       <c r="C556">
-        <v>8796.794907015017</v>
+        <v>7574.023335066587</v>
       </c>
     </row>
     <row r="557" spans="1:3">
@@ -6501,10 +6501,10 @@
         <v>555</v>
       </c>
       <c r="B557">
-        <v>62170.56205486353</v>
+        <v>54613.94150179034</v>
       </c>
       <c r="C557">
-        <v>9616.779369527048</v>
+        <v>7660.543507814292</v>
       </c>
     </row>
     <row r="558" spans="1:3">
@@ -6512,10 +6512,10 @@
         <v>556</v>
       </c>
       <c r="B558">
-        <v>53828.88684889083</v>
+        <v>45759.52231373253</v>
       </c>
       <c r="C558">
-        <v>16756.85403707923</v>
+        <v>14067.15388560214</v>
       </c>
     </row>
     <row r="559" spans="1:3">
@@ -6523,10 +6523,10 @@
         <v>557</v>
       </c>
       <c r="B559">
-        <v>57653.07614107523</v>
+        <v>49070.96762383184</v>
       </c>
       <c r="C559">
-        <v>10484.42139363042</v>
+        <v>7061.256952389006</v>
       </c>
     </row>
     <row r="560" spans="1:3">
@@ -6534,10 +6534,10 @@
         <v>558</v>
       </c>
       <c r="B560">
-        <v>59700.41773988229</v>
+        <v>51118.3092226389</v>
       </c>
       <c r="C560">
-        <v>6702.706761528317</v>
+        <v>3279.542320286904</v>
       </c>
     </row>
     <row r="561" spans="1:3">
@@ -6545,10 +6545,10 @@
         <v>559</v>
       </c>
       <c r="B561">
-        <v>56191.67506813698</v>
+        <v>46934.1622170022</v>
       </c>
       <c r="C561">
-        <v>6373.323583125826</v>
+        <v>2490.656746077915</v>
       </c>
     </row>
     <row r="562" spans="1:3">
@@ -6556,10 +6556,10 @@
         <v>560</v>
       </c>
       <c r="B562">
-        <v>62597.63789893834</v>
+        <v>52664.72071391217</v>
       </c>
       <c r="C562">
-        <v>7521.09842049897</v>
+        <v>3178.929187644556</v>
       </c>
     </row>
     <row r="563" spans="1:3">
@@ -6567,10 +6567,10 @@
         <v>561</v>
       </c>
       <c r="B563">
-        <v>63204.26078696662</v>
+        <v>52595.93926804906</v>
       </c>
       <c r="C563">
-        <v>6627.339510525138</v>
+        <v>1825.667881864222</v>
       </c>
     </row>
     <row r="564" spans="1:3">
@@ -6578,10 +6578,10 @@
         <v>562</v>
       </c>
       <c r="B564">
-        <v>61147.36252718643</v>
+        <v>49863.63667437749</v>
       </c>
       <c r="C564">
-        <v>7663.326101832875</v>
+        <v>2402.152077365458</v>
       </c>
     </row>
     <row r="565" spans="1:3">
@@ -6589,10 +6589,10 @@
         <v>563</v>
       </c>
       <c r="B565">
-        <v>59682.45972183875</v>
+        <v>47723.3295351384</v>
       </c>
       <c r="C565">
-        <v>6937.216469269188</v>
+        <v>1216.540048995271</v>
       </c>
     </row>
     <row r="566" spans="1:3">
@@ -6600,10 +6600,10 @@
         <v>564</v>
       </c>
       <c r="B566">
-        <v>62634.19655327118</v>
+        <v>49999.66203267944</v>
       </c>
       <c r="C566">
-        <v>14073.2824277302</v>
+        <v>7893.103611649782</v>
       </c>
     </row>
     <row r="567" spans="1:3">
@@ -6611,10 +6611,10 @@
         <v>565</v>
       </c>
       <c r="B567">
-        <v>62737.85717772177</v>
+        <v>50103.32265713003</v>
       </c>
       <c r="C567">
-        <v>7931.249069675401</v>
+        <v>1751.070253594983</v>
       </c>
     </row>
     <row r="568" spans="1:3">
@@ -6622,10 +6622,10 @@
         <v>566</v>
       </c>
       <c r="B568">
-        <v>57960.75210189554</v>
+        <v>44939.18221456856</v>
       </c>
       <c r="C568">
-        <v>7794.076500431912</v>
+        <v>1635.360596367147</v>
       </c>
     </row>
     <row r="569" spans="1:3">
@@ -6633,10 +6633,10 @@
         <v>567</v>
       </c>
       <c r="B569">
-        <v>60985.67079168273</v>
+        <v>47577.0655376205</v>
       </c>
       <c r="C569">
-        <v>10505.06220226414</v>
+        <v>4367.809210215026</v>
       </c>
     </row>
     <row r="570" spans="1:3">
@@ -6644,10 +6644,10 @@
         <v>568</v>
       </c>
       <c r="B570">
-        <v>62483.57153691108</v>
+        <v>48687.93091611362</v>
       </c>
       <c r="C570">
-        <v>12205.45179962552</v>
+        <v>6089.661719592065</v>
       </c>
     </row>
     <row r="571" spans="1:3">
@@ -6655,10 +6655,10 @@
         <v>569</v>
       </c>
       <c r="B571">
-        <v>55593.68663158474</v>
+        <v>41411.01064405202</v>
       </c>
       <c r="C571">
-        <v>9577.500998347148</v>
+        <v>3483.173830329342</v>
       </c>
     </row>
     <row r="572" spans="1:3">
@@ -6666,10 +6666,10 @@
         <v>570</v>
       </c>
       <c r="B572">
-        <v>54307.87938990783</v>
+        <v>39738.16803563987</v>
       </c>
       <c r="C572">
-        <v>10073.77926597024</v>
+        <v>4000.915009968085</v>
       </c>
     </row>
     <row r="573" spans="1:3">
@@ -6677,10 +6677,10 @@
         <v>571</v>
       </c>
       <c r="B573">
-        <v>54224.23211805701</v>
+        <v>39267.48539705381</v>
       </c>
       <c r="C573">
-        <v>13877.23907264479</v>
+        <v>7825.837728658293</v>
       </c>
     </row>
     <row r="574" spans="1:3">
@@ -6688,10 +6688,10 @@
         <v>572</v>
       </c>
       <c r="B574">
-        <v>67201.73392940575</v>
+        <v>52244.98720840254</v>
       </c>
       <c r="C574">
-        <v>6539.314371450263</v>
+        <v>487.9130274637619</v>
       </c>
     </row>
     <row r="575" spans="1:3">
@@ -6699,10 +6699,10 @@
         <v>573</v>
       </c>
       <c r="B575">
-        <v>53292.02857004776</v>
+        <v>38582.66690308798</v>
       </c>
       <c r="C575">
-        <v>13129.59908314246</v>
+        <v>6838.457732853164</v>
       </c>
     </row>
     <row r="576" spans="1:3">
@@ -6710,10 +6710,10 @@
         <v>574</v>
       </c>
       <c r="B576">
-        <v>62181.57604971968</v>
+        <v>47719.59943680332</v>
       </c>
       <c r="C576">
-        <v>10693.17612788721</v>
+        <v>4162.294771295116</v>
       </c>
     </row>
     <row r="577" spans="1:3">
@@ -6721,10 +6721,10 @@
         <v>575</v>
       </c>
       <c r="B577">
-        <v>58855.82970463594</v>
+        <v>44641.23814576301</v>
       </c>
       <c r="C577">
-        <v>5232.846859374296</v>
+        <v>-1537.774503520601</v>
       </c>
     </row>
     <row r="578" spans="1:3">
@@ -6732,10 +6732,10 @@
         <v>576</v>
       </c>
       <c r="B578">
-        <v>57094.82056411276</v>
+        <v>43127.61405928327</v>
       </c>
       <c r="C578">
-        <v>12830.46336816577</v>
+        <v>5820.101998968079</v>
       </c>
     </row>
     <row r="579" spans="1:3">
@@ -6743,10 +6743,10 @@
         <v>577</v>
       </c>
       <c r="B579">
-        <v>57310.9395946165</v>
+        <v>43591.11814383043</v>
       </c>
       <c r="C579">
-        <v>8652.023827251744</v>
+        <v>1401.922451751248</v>
       </c>
     </row>
     <row r="580" spans="1:3">
@@ -6754,10 +6754,10 @@
         <v>578</v>
       </c>
       <c r="B580">
-        <v>53662.70246454881</v>
+        <v>40190.26606780618</v>
       </c>
       <c r="C580">
-        <v>9043.050557725519</v>
+        <v>1553.209175922225</v>
       </c>
     </row>
     <row r="581" spans="1:3">
@@ -6765,10 +6765,10 @@
         <v>579</v>
       </c>
       <c r="B581">
-        <v>59485.3633323336</v>
+        <v>46012.92693559096</v>
       </c>
       <c r="C581">
-        <v>9977.852327271179</v>
+        <v>2488.010945467885</v>
       </c>
     </row>
     <row r="582" spans="1:3">
@@ -6776,10 +6776,10 @@
         <v>580</v>
       </c>
       <c r="B582">
-        <v>55135.51652936886</v>
+        <v>41918.19550114239</v>
       </c>
       <c r="C582">
-        <v>10005.46904577517</v>
+        <v>2420.974203446396</v>
       </c>
     </row>
     <row r="583" spans="1:3">
@@ -6787,10 +6787,10 @@
         <v>581</v>
       </c>
       <c r="B583">
-        <v>61786.17591195516</v>
+        <v>48823.97025224482</v>
       </c>
       <c r="C583">
-        <v>11153.81639561974</v>
+        <v>3474.668092765482</v>
       </c>
     </row>
     <row r="584" spans="1:3">
@@ -6798,10 +6798,10 @@
         <v>582</v>
       </c>
       <c r="B584">
-        <v>53000.17566565856</v>
+        <v>40293.08537446436</v>
       </c>
       <c r="C584">
-        <v>12575.1513982012</v>
+        <v>4801.349634821457</v>
       </c>
     </row>
     <row r="585" spans="1:3">
@@ -6809,10 +6809,10 @@
         <v>583</v>
       </c>
       <c r="B585">
-        <v>53498.77572443656</v>
+        <v>41046.80080175852</v>
       </c>
       <c r="C585">
-        <v>12027.79568523148</v>
+        <v>4159.340461326252</v>
       </c>
     </row>
     <row r="586" spans="1:3">
@@ -6820,10 +6820,10 @@
         <v>584</v>
       </c>
       <c r="B586">
-        <v>53159.34544484007</v>
+        <v>40962.48589067817</v>
       </c>
       <c r="C586">
-        <v>13528.25631077986</v>
+        <v>5565.147626349147</v>
       </c>
     </row>
     <row r="587" spans="1:3">
@@ -6831,10 +6831,10 @@
         <v>585</v>
       </c>
       <c r="B587">
-        <v>51173.923597096</v>
+        <v>39232.17941145023</v>
       </c>
       <c r="C587">
-        <v>11569.04084092858</v>
+        <v>3511.278695972384</v>
       </c>
     </row>
     <row r="588" spans="1:3">
@@ -6842,10 +6842,10 @@
         <v>586</v>
       </c>
       <c r="B588">
-        <v>43164.50049183055</v>
+        <v>31222.75630618478</v>
       </c>
       <c r="C588">
-        <v>9421.840044488481</v>
+        <v>1364.077899532284</v>
       </c>
     </row>
     <row r="589" spans="1:3">
@@ -6853,10 +6853,10 @@
         <v>587</v>
       </c>
       <c r="B589">
-        <v>51159.19915946462</v>
+        <v>39518.48444556671</v>
       </c>
       <c r="C589">
-        <v>6473.082505564878</v>
+        <v>-1203.326418518324</v>
       </c>
     </row>
     <row r="590" spans="1:3">
@@ -6864,10 +6864,10 @@
         <v>588</v>
       </c>
       <c r="B590">
-        <v>49091.62059094673</v>
+        <v>37751.93534879667</v>
       </c>
       <c r="C590">
-        <v>13668.26756911332</v>
+        <v>6373.211865903108</v>
       </c>
     </row>
     <row r="591" spans="1:3">
@@ -6875,10 +6875,10 @@
         <v>589</v>
       </c>
       <c r="B591">
-        <v>46122.41612465513</v>
+        <v>35083.76035425293</v>
       </c>
       <c r="C591">
-        <v>14263.03213174604</v>
+        <v>7349.329649408825</v>
       </c>
     </row>
     <row r="592" spans="1:3">
@@ -6886,10 +6886,10 @@
         <v>590</v>
       </c>
       <c r="B592">
-        <v>49227.30169993199</v>
+        <v>38489.67540127766</v>
       </c>
       <c r="C592">
-        <v>11327.81172311132</v>
+        <v>4795.462461647099</v>
       </c>
     </row>
     <row r="593" spans="1:3">
@@ -6897,10 +6897,10 @@
         <v>591</v>
       </c>
       <c r="B593">
-        <v>51504.7828444263</v>
+        <v>41068.18601751983</v>
       </c>
       <c r="C593">
-        <v>12201.63154826264</v>
+        <v>6050.635507671411</v>
       </c>
     </row>
     <row r="594" spans="1:3">
@@ -6908,10 +6908,10 @@
         <v>592</v>
       </c>
       <c r="B594">
-        <v>48475.43572481406</v>
+        <v>38339.86836965544</v>
       </c>
       <c r="C594">
-        <v>6576.729736079528</v>
+        <v>807.0869163612928</v>
       </c>
     </row>
     <row r="595" spans="1:3">
@@ -6919,10 +6919,10 @@
         <v>593</v>
       </c>
       <c r="B595">
-        <v>52404.25976413039</v>
+        <v>42268.69240897177</v>
       </c>
       <c r="C595">
-        <v>6813.660335950639</v>
+        <v>1044.017516232403</v>
       </c>
     </row>
     <row r="596" spans="1:3">
@@ -6930,10 +6930,10 @@
         <v>594</v>
       </c>
       <c r="B596">
-        <v>43108.9354182528</v>
+        <v>32885.09019632175</v>
       </c>
       <c r="C596">
-        <v>6714.239901972135</v>
+        <v>1362.887521478177</v>
       </c>
     </row>
     <row r="597" spans="1:3">
@@ -6941,10 +6941,10 @@
         <v>595</v>
       </c>
       <c r="B597">
-        <v>45642.28238113901</v>
+        <v>35330.15929243554</v>
       </c>
       <c r="C597">
-        <v>7584.785577936856</v>
+        <v>2651.723636667175</v>
       </c>
     </row>
     <row r="598" spans="1:3">
@@ -6952,10 +6952,10 @@
         <v>596</v>
       </c>
       <c r="B598">
-        <v>45681.14480312262</v>
+        <v>35280.74384764673</v>
       </c>
       <c r="C598">
-        <v>8633.527316249454</v>
+        <v>4118.755814204049</v>
       </c>
     </row>
     <row r="599" spans="1:3">
@@ -6963,10 +6963,10 @@
         <v>597</v>
       </c>
       <c r="B599">
-        <v>44308.43368827364</v>
+        <v>33819.75486602532</v>
       </c>
       <c r="C599">
-        <v>6204.03164660419</v>
+        <v>2107.550583783063</v>
       </c>
     </row>
     <row r="600" spans="1:3">
@@ -6974,10 +6974,10 @@
         <v>598</v>
       </c>
       <c r="B600">
-        <v>51835.97514393042</v>
+        <v>41259.01845490967</v>
       </c>
       <c r="C600">
-        <v>9114.030171104472</v>
+        <v>5435.839547507622</v>
       </c>
     </row>
     <row r="601" spans="1:3">
@@ -6985,10 +6985,10 @@
         <v>599</v>
       </c>
       <c r="B601">
-        <v>47768.1243742199</v>
+        <v>37102.88981842673</v>
       </c>
       <c r="C601">
-        <v>7042.153357455394</v>
+        <v>3782.25317308282</v>
       </c>
     </row>
     <row r="602" spans="1:3">
@@ -6996,10 +6996,10 @@
         <v>600</v>
       </c>
       <c r="B602">
-        <v>42809.20176965733</v>
+        <v>32143.96721386417</v>
       </c>
       <c r="C602">
-        <v>6497.066269731817</v>
+        <v>3237.166085359243</v>
       </c>
     </row>
     <row r="603" spans="1:3">
@@ -7007,10 +7007,10 @@
         <v>601</v>
       </c>
       <c r="B603">
-        <v>34165.68848551002</v>
+        <v>24061.77720851025</v>
       </c>
       <c r="C603">
-        <v>8178.448347947742</v>
+        <v>5091.101747393301</v>
       </c>
     </row>
     <row r="604" spans="1:3">
@@ -7018,10 +7018,10 @@
         <v>602</v>
       </c>
       <c r="B604">
-        <v>44136.67299543688</v>
+        <v>34594.08499723049</v>
       </c>
       <c r="C604">
-        <v>5341.313917552459</v>
+        <v>2426.520900816149</v>
       </c>
     </row>
     <row r="605" spans="1:3">
@@ -7029,10 +7029,10 @@
         <v>603</v>
       </c>
       <c r="B605">
-        <v>51903.58263153827</v>
+        <v>42922.31791212528</v>
       </c>
       <c r="C605">
-        <v>8050.288939814252</v>
+        <v>5308.049506896074</v>
       </c>
     </row>
     <row r="606" spans="1:3">
@@ -7040,10 +7040,10 @@
         <v>604</v>
       </c>
       <c r="B606">
-        <v>50892.55792611086</v>
+        <v>42472.61648549125</v>
       </c>
       <c r="C606">
-        <v>4832.637392315335</v>
+        <v>2262.951543215288</v>
       </c>
     </row>
     <row r="607" spans="1:3">
@@ -7051,10 +7051,10 @@
         <v>605</v>
       </c>
       <c r="B607">
-        <v>41309.51749041074</v>
+        <v>33450.89932858453</v>
       </c>
       <c r="C607">
-        <v>5210.35922748052</v>
+        <v>2813.226962198603</v>
       </c>
     </row>
     <row r="608" spans="1:3">
@@ -7062,10 +7062,10 @@
         <v>606</v>
       </c>
       <c r="B608">
-        <v>48113.37874643001</v>
+        <v>40816.08386339719</v>
       </c>
       <c r="C608">
-        <v>-374.0049413544134</v>
+        <v>-2598.583622818198</v>
       </c>
     </row>
     <row r="609" spans="1:3">
@@ -7073,10 +7073,10 @@
         <v>607</v>
       </c>
       <c r="B609">
-        <v>47593.34469741669</v>
+        <v>40296.04981438386</v>
       </c>
       <c r="C609">
-        <v>2563.658629642647</v>
+        <v>339.0799481788619</v>
       </c>
     </row>
     <row r="610" spans="1:3">
@@ -7084,10 +7084,10 @@
         <v>608</v>
       </c>
       <c r="B610">
-        <v>42772.34354460121</v>
+        <v>35144.95077486642</v>
       </c>
       <c r="C610">
-        <v>2920.85819378268</v>
+        <v>697.7412948246902</v>
       </c>
     </row>
     <row r="611" spans="1:3">
@@ -7095,10 +7095,10 @@
         <v>609</v>
       </c>
       <c r="B611">
-        <v>38228.17336514858</v>
+        <v>30270.68270871183</v>
       </c>
       <c r="C611">
-        <v>3902.831113840934</v>
+        <v>1681.175997388739</v>
       </c>
     </row>
     <row r="612" spans="1:3">
@@ -7106,10 +7106,10 @@
         <v>610</v>
       </c>
       <c r="B612">
-        <v>42500.85713610611</v>
+        <v>34213.2685929674</v>
       </c>
       <c r="C612">
-        <v>3459.173376725439</v>
+        <v>1238.980042779037</v>
       </c>
     </row>
     <row r="613" spans="1:3">
@@ -7117,10 +7117,10 @@
         <v>611</v>
       </c>
       <c r="B613">
-        <v>42310.18677205942</v>
+        <v>33692.50034221874</v>
       </c>
       <c r="C613">
-        <v>758.9273721534673</v>
+        <v>-1459.80417928714</v>
       </c>
     </row>
     <row r="614" spans="1:3">
@@ -7128,10 +7128,10 @@
         <v>612</v>
       </c>
       <c r="B614">
-        <v>39498.25633416967</v>
+        <v>30550.47201762702</v>
       </c>
       <c r="C614">
-        <v>-207.5692634293105</v>
+        <v>-2424.839032364124</v>
       </c>
     </row>
     <row r="615" spans="1:3">
@@ -7139,10 +7139,10 @@
         <v>613</v>
       </c>
       <c r="B615">
-        <v>36962.07400239602</v>
+        <v>27684.19179915141</v>
       </c>
       <c r="C615">
-        <v>1550.391624116891</v>
+        <v>-665.4163623121286</v>
       </c>
     </row>
     <row r="616" spans="1:3">
@@ -7150,10 +7150,10 @@
         <v>614</v>
       </c>
       <c r="B616">
-        <v>41316.69026463895</v>
+        <v>32038.80806139434</v>
       </c>
       <c r="C616">
-        <v>1876.950294488685</v>
+        <v>-338.8576919403338</v>
       </c>
     </row>
     <row r="617" spans="1:3">
@@ -7161,10 +7161,10 @@
         <v>615</v>
       </c>
       <c r="B617">
-        <v>36065.45577472779</v>
+        <v>27049.8145153589</v>
       </c>
       <c r="C617">
-        <v>2223.212079202931</v>
+        <v>160.4922932518317</v>
       </c>
     </row>
     <row r="618" spans="1:3">
@@ -7172,10 +7172,10 @@
         <v>616</v>
       </c>
       <c r="B618">
-        <v>39499.19194013217</v>
+        <v>30745.79162463897</v>
       </c>
       <c r="C618">
-        <v>6242.147568251001</v>
+        <v>4332.515982777823</v>
       </c>
     </row>
     <row r="619" spans="1:3">
@@ -7183,10 +7183,10 @@
         <v>617</v>
       </c>
       <c r="B619">
-        <v>39494.61959175584</v>
+        <v>31003.46022013834</v>
       </c>
       <c r="C619">
-        <v>2066.688993663883</v>
+        <v>310.145608668626</v>
       </c>
     </row>
     <row r="620" spans="1:3">
@@ -7194,10 +7194,10 @@
         <v>618</v>
       </c>
       <c r="B620">
-        <v>36333.34557223423</v>
+        <v>28104.42714449245</v>
       </c>
       <c r="C620">
-        <v>4644.502257530668</v>
+        <v>3041.047073013331</v>
       </c>
     </row>
     <row r="621" spans="1:3">
@@ -7205,10 +7205,10 @@
         <v>619</v>
       </c>
       <c r="B621">
-        <v>38529.76299521426</v>
+        <v>30563.08551134817</v>
       </c>
       <c r="C621">
-        <v>1075.224652180693</v>
+        <v>-375.1423318587237</v>
       </c>
     </row>
     <row r="622" spans="1:3">
@@ -7216,10 +7216,10 @@
         <v>620</v>
       </c>
       <c r="B622">
-        <v>36465.20825671681</v>
+        <v>28760.77171672644</v>
       </c>
       <c r="C622">
-        <v>3842.29163101444</v>
+        <v>2545.012847452944</v>
       </c>
     </row>
     <row r="623" spans="1:3">
@@ -7227,10 +7227,10 @@
         <v>621</v>
       </c>
       <c r="B623">
-        <v>40341.23500308576</v>
+        <v>32636.7984630954</v>
       </c>
       <c r="C623">
-        <v>4772.942139134331</v>
+        <v>3475.663355572835</v>
       </c>
     </row>
     <row r="624" spans="1:3">
@@ -7238,10 +7238,10 @@
         <v>622</v>
       </c>
       <c r="B624">
-        <v>38305.50640480246</v>
+        <v>30866.80830874154</v>
       </c>
       <c r="C624">
-        <v>-1508.719095445254</v>
+        <v>-2770.213991280885</v>
       </c>
     </row>
     <row r="625" spans="1:3">
@@ -7249,10 +7249,10 @@
         <v>623</v>
       </c>
       <c r="B625">
-        <v>39689.20120102806</v>
+        <v>32516.24154889661</v>
       </c>
       <c r="C625">
-        <v>-1727.811712748422</v>
+        <v>-2953.52272085819</v>
       </c>
     </row>
     <row r="626" spans="1:3">
@@ -7260,10 +7260,10 @@
         <v>624</v>
       </c>
       <c r="B626">
-        <v>39976.63923585948</v>
+        <v>33069.4180276575</v>
       </c>
       <c r="C626">
-        <v>3232.109529638195</v>
+        <v>2042.182409254291</v>
       </c>
     </row>
     <row r="627" spans="1:3">
@@ -7271,10 +7271,10 @@
         <v>625</v>
       </c>
       <c r="B627">
-        <v>39232.45214787864</v>
+        <v>32590.96938360612</v>
       </c>
       <c r="C627">
-        <v>808.0512766436088</v>
+        <v>-346.0919560144308</v>
       </c>
     </row>
     <row r="628" spans="1:3">
@@ -7282,10 +7282,10 @@
         <v>626</v>
       </c>
       <c r="B628">
-        <v>38026.69523300292</v>
+        <v>31650.95091265986</v>
       </c>
       <c r="C628">
-        <v>852.1144416886538</v>
+        <v>-266.2449032435218</v>
       </c>
     </row>
     <row r="629" spans="1:3">
@@ -7293,10 +7293,10 @@
         <v>627</v>
       </c>
       <c r="B629">
-        <v>35107.10641463385</v>
+        <v>28997.10053822025</v>
       </c>
       <c r="C629">
-        <v>3363.507475042828</v>
+        <v>2280.932017836516</v>
       </c>
     </row>
     <row r="630" spans="1:3">
@@ -7304,10 +7304,10 @@
         <v>628</v>
       </c>
       <c r="B630">
-        <v>35738.02123404432</v>
+        <v>29628.01535763072</v>
       </c>
       <c r="C630">
-        <v>2462.515694433643</v>
+        <v>1379.940237227331</v>
       </c>
     </row>
     <row r="631" spans="1:3">
@@ -7315,10 +7315,10 @@
         <v>629</v>
       </c>
       <c r="B631">
-        <v>38140.59918780993</v>
+        <v>32592.76024812402</v>
       </c>
       <c r="C631">
-        <v>1145.695608607195</v>
+        <v>221.7812996646858</v>
       </c>
     </row>
     <row r="632" spans="1:3">
@@ -7326,10 +7326,10 @@
         <v>630</v>
       </c>
       <c r="B632">
-        <v>32802.74089062162</v>
+        <v>27817.06888766341</v>
       </c>
       <c r="C632">
-        <v>7183.748931306027</v>
+        <v>6418.495770627321</v>
       </c>
     </row>
     <row r="633" spans="1:3">
@@ -7337,10 +7337,10 @@
         <v>631</v>
       </c>
       <c r="B633">
-        <v>35883.49231299399</v>
+        <v>31459.98724676346</v>
       </c>
       <c r="C633">
-        <v>474.6163210344802</v>
+        <v>-131.9756913804224</v>
       </c>
     </row>
     <row r="634" spans="1:3">
@@ -7348,10 +7348,10 @@
         <v>632</v>
       </c>
       <c r="B634">
-        <v>32790.14265324984</v>
+        <v>28928.80452374701</v>
       </c>
       <c r="C634">
-        <v>-529.9314925858259</v>
+        <v>-977.8623567369254</v>
       </c>
     </row>
     <row r="635" spans="1:3">
@@ -7359,10 +7359,10 @@
         <v>633</v>
       </c>
       <c r="B635">
-        <v>40294.83611267322</v>
+        <v>36995.66491989807</v>
       </c>
       <c r="C635">
-        <v>1598.399245905954</v>
+        <v>1309.129530018657</v>
       </c>
     </row>
     <row r="636" spans="1:3">
@@ -7370,10 +7370,10 @@
         <v>634</v>
       </c>
       <c r="B636">
-        <v>38049.56463494484</v>
+        <v>35312.56037889739</v>
       </c>
       <c r="C636">
-        <v>-2354.463460490565</v>
+        <v>-2485.072028114058</v>
       </c>
     </row>
     <row r="637" spans="1:3">
@@ -7381,10 +7381,10 @@
         <v>635</v>
       </c>
       <c r="B637">
-        <v>37161.31488677438</v>
+        <v>34424.31063072693</v>
       </c>
       <c r="C637">
-        <v>3996.017001234615</v>
+        <v>3865.408433611121</v>
       </c>
     </row>
     <row r="638" spans="1:3">
@@ -7392,10 +7392,10 @@
         <v>636</v>
       </c>
       <c r="B638">
-        <v>32605.95740214512</v>
+        <v>31663.2006653837</v>
       </c>
       <c r="C638">
-        <v>1846.343632311114</v>
+        <v>1713.175946422545</v>
       </c>
     </row>
     <row r="639" spans="1:3">
@@ -7403,10 +7403,10 @@
         <v>637</v>
       </c>
       <c r="B639">
-        <v>34468.22404794242</v>
+        <v>35319.71483046701</v>
       </c>
       <c r="C639">
-        <v>5444.771258359226</v>
+        <v>5309.044454205581</v>
       </c>
     </row>
     <row r="640" spans="1:3">
@@ -7414,10 +7414,10 @@
         <v>638</v>
       </c>
       <c r="B640">
-        <v>37826.69912975121</v>
+        <v>40472.43743156182</v>
       </c>
       <c r="C640">
-        <v>2053.48304052957</v>
+        <v>1915.197118110849</v>
       </c>
     </row>
     <row r="641" spans="1:3">
@@ -7425,10 +7425,10 @@
         <v>639</v>
       </c>
       <c r="B641">
-        <v>31314.85285279716</v>
+        <v>35754.83867389378</v>
       </c>
       <c r="C641">
-        <v>1853.014700194728</v>
+        <v>1712.169659510932</v>
       </c>
     </row>
     <row r="642" spans="1:3">
@@ -7436,10 +7436,10 @@
         <v>640</v>
       </c>
       <c r="B642">
-        <v>36190.59058537833</v>
+        <v>42424.82392576097</v>
       </c>
       <c r="C642">
-        <v>-1352.814417186037</v>
+        <v>-1496.21857613491</v>
       </c>
     </row>
     <row r="643" spans="1:3">
@@ -7447,10 +7447,10 @@
         <v>641</v>
       </c>
       <c r="B643">
-        <v>38525.85185871718</v>
+        <v>46554.33271838583</v>
       </c>
       <c r="C643">
-        <v>546.3382878068594</v>
+        <v>400.3750105929116</v>
       </c>
     </row>
     <row r="644" spans="1:3">
@@ -7458,10 +7458,10 @@
         <v>642</v>
       </c>
       <c r="B644">
-        <v>35092.97808710366</v>
+        <v>43121.45894677231</v>
       </c>
       <c r="C644">
-        <v>3275.139639456494</v>
+        <v>3129.176362242546</v>
       </c>
     </row>
     <row r="645" spans="1:3">
@@ -7469,10 +7469,10 @@
         <v>643</v>
       </c>
       <c r="B645">
-        <v>26610.72125320356</v>
+        <v>35062.37341609341</v>
       </c>
       <c r="C645">
-        <v>374.5730764923896</v>
+        <v>275.8847583620843</v>
       </c>
     </row>
     <row r="646" spans="1:3">
@@ -7480,10 +7480,10 @@
         <v>644</v>
       </c>
       <c r="B646">
-        <v>36675.55536761149</v>
+        <v>45550.37883372256</v>
       </c>
       <c r="C646">
-        <v>740.9242064045403</v>
+        <v>689.5108473578777</v>
       </c>
     </row>
     <row r="647" spans="1:3">
@@ -7491,10 +7491,10 @@
         <v>645</v>
       </c>
       <c r="B647">
-        <v>32365.89648718761</v>
+        <v>41663.89125651989</v>
       </c>
       <c r="C647">
-        <v>3638.526125798756</v>
+        <v>3634.387725835736</v>
       </c>
     </row>
     <row r="648" spans="1:3">
@@ -7502,10 +7502,10 @@
         <v>646</v>
       </c>
       <c r="B648">
-        <v>32192.4451491261</v>
+        <v>41913.61122167958</v>
       </c>
       <c r="C648">
-        <v>3682.716455898855</v>
+        <v>3725.853015019477</v>
       </c>
     </row>
     <row r="649" spans="1:3">
@@ -7513,10 +7513,10 @@
         <v>647</v>
       </c>
       <c r="B649">
-        <v>29708.8338698692</v>
+        <v>39853.17124564388</v>
       </c>
       <c r="C649">
-        <v>3047.001424549152</v>
+        <v>3137.412942753417</v>
       </c>
     </row>
     <row r="650" spans="1:3">
@@ -7524,10 +7524,10 @@
         <v>648</v>
       </c>
       <c r="B650">
-        <v>29342.2108228659</v>
+        <v>39909.71950186179</v>
       </c>
       <c r="C650">
-        <v>5099.79389368489</v>
+        <v>5237.480370972798</v>
       </c>
     </row>
     <row r="651" spans="1:3">
@@ -7535,10 +7535,10 @@
         <v>649</v>
       </c>
       <c r="B651">
-        <v>28957.72956141545</v>
+        <v>39525.23824041135</v>
       </c>
       <c r="C651">
-        <v>1823.120649666664</v>
+        <v>1960.807126954572</v>
       </c>
     </row>
     <row r="652" spans="1:3">
@@ -7546,10 +7546,10 @@
         <v>650</v>
       </c>
       <c r="B652">
-        <v>28303.11057833956</v>
+        <v>38741.05992501412</v>
       </c>
       <c r="C652">
-        <v>-1472.008893869816</v>
+        <v>-1224.059214429387</v>
       </c>
     </row>
     <row r="653" spans="1:3">
@@ -7557,10 +7557,10 @@
         <v>651</v>
       </c>
       <c r="B653">
-        <v>31326.08226306804</v>
+        <v>41634.47227742127</v>
       </c>
       <c r="C653">
-        <v>-1015.348691151273</v>
+        <v>-657.1358095583223</v>
       </c>
     </row>
     <row r="654" spans="1:3">
@@ -7568,10 +7568,10 @@
         <v>652</v>
       </c>
       <c r="B654">
-        <v>30782.59405743038</v>
+        <v>40961.42473946228</v>
       </c>
       <c r="C654">
-        <v>3819.541681236818</v>
+        <v>4288.01776498229</v>
       </c>
     </row>
     <row r="655" spans="1:3">
@@ -7579,10 +7579,10 @@
         <v>653</v>
       </c>
       <c r="B655">
-        <v>36363.54325932079</v>
+        <v>46412.81460903136</v>
       </c>
       <c r="C655">
-        <v>4550.803791830104</v>
+        <v>5129.543077728097</v>
       </c>
     </row>
     <row r="656" spans="1:3">
@@ -7590,10 +7590,10 @@
         <v>654</v>
       </c>
       <c r="B656">
-        <v>32877.37938253806</v>
+        <v>42797.0913999273</v>
       </c>
       <c r="C656">
-        <v>1632.559671280449</v>
+        <v>2321.562159330964</v>
       </c>
     </row>
     <row r="657" spans="1:3">
@@ -7601,10 +7601,10 @@
         <v>655</v>
       </c>
       <c r="B657">
-        <v>27904.83956714637</v>
+        <v>37694.99225221429</v>
       </c>
       <c r="C657">
-        <v>2812.279494902838</v>
+        <v>3611.545185105872</v>
       </c>
     </row>
     <row r="658" spans="1:3">
@@ -7612,10 +7612,10 @@
         <v>656</v>
       </c>
       <c r="B658">
-        <v>29723.3049616888</v>
+        <v>39513.45764675671</v>
       </c>
       <c r="C658">
-        <v>-989.2084214362158</v>
+        <v>-189.9427312331807</v>
       </c>
     </row>
     <row r="659" spans="1:3">
@@ -7623,10 +7623,10 @@
         <v>657</v>
       </c>
       <c r="B659">
-        <v>27066.52432213628</v>
+        <v>37845.7349257617</v>
       </c>
       <c r="C659">
-        <v>2065.435291488029</v>
+        <v>2925.416608026288</v>
       </c>
     </row>
     <row r="660" spans="1:3">
@@ -7634,10 +7634,10 @@
         <v>658</v>
       </c>
       <c r="B660">
-        <v>32742.49128508348</v>
+        <v>44510.7598072664</v>
       </c>
       <c r="C660">
-        <v>1896.637680683663</v>
+        <v>2817.334623557146</v>
       </c>
     </row>
     <row r="661" spans="1:3">
@@ -7645,10 +7645,10 @@
         <v>659</v>
       </c>
       <c r="B661">
-        <v>27012.47074123301</v>
+        <v>39769.79718197343</v>
       </c>
       <c r="C661">
-        <v>-1669.335418916685</v>
+        <v>-687.922849707978</v>
       </c>
     </row>
     <row r="662" spans="1:3">
@@ -7656,10 +7656,10 @@
         <v>660</v>
       </c>
       <c r="B662">
-        <v>28482.45717110654</v>
+        <v>42228.84153040447</v>
       </c>
       <c r="C662">
-        <v>-1586.17999144783</v>
+        <v>-544.0517959038987</v>
       </c>
     </row>
     <row r="663" spans="1:3">
@@ -7667,10 +7667,10 @@
         <v>661</v>
       </c>
       <c r="B663">
-        <v>29196.01073087449</v>
+        <v>43931.45300872991</v>
       </c>
       <c r="C663">
-        <v>1179.896555375336</v>
+        <v>2282.740377254491</v>
       </c>
     </row>
     <row r="664" spans="1:3">
@@ -7678,10 +7678,10 @@
         <v>662</v>
       </c>
       <c r="B664">
-        <v>26433.55980015714</v>
+        <v>42158.05999657007</v>
       </c>
       <c r="C664">
-        <v>-3792.68070307107</v>
+        <v>-2629.121254856691</v>
       </c>
     </row>
     <row r="665" spans="1:3">
@@ -7689,10 +7689,10 @@
         <v>663</v>
       </c>
       <c r="B665">
-        <v>27143.66321464131</v>
+        <v>42868.16341105424</v>
       </c>
       <c r="C665">
-        <v>1790.407487788141</v>
+        <v>2953.96693600252</v>
       </c>
     </row>
     <row r="666" spans="1:3">
@@ -7700,10 +7700,10 @@
         <v>664</v>
       </c>
       <c r="B666">
-        <v>27545.87428030144</v>
+        <v>43791.73819996184</v>
       </c>
       <c r="C666">
-        <v>-1294.939023447065</v>
+        <v>30.49869041669854</v>
       </c>
     </row>
     <row r="667" spans="1:3">
@@ -7711,10 +7711,10 @@
         <v>665</v>
       </c>
       <c r="B667">
-        <v>25523.7168444976</v>
+        <v>42290.94448740548</v>
       </c>
       <c r="C667">
-        <v>2109.517311416753</v>
+        <v>3596.833290929902</v>
       </c>
     </row>
     <row r="668" spans="1:3">
@@ -7722,10 +7722,10 @@
         <v>666</v>
       </c>
       <c r="B668">
-        <v>26629.57440373151</v>
+        <v>43918.16576988686</v>
       </c>
       <c r="C668">
-        <v>-1563.457371437116</v>
+        <v>85.73687372541735</v>
       </c>
     </row>
     <row r="669" spans="1:3">
@@ -7733,10 +7733,10 @@
         <v>667</v>
       </c>
       <c r="B669">
-        <v>32577.62573088134</v>
+        <v>50387.58082028417</v>
       </c>
       <c r="C669">
-        <v>2001.573176987881</v>
+        <v>3812.645687799798</v>
       </c>
     </row>
     <row r="670" spans="1:3">
@@ -7744,10 +7744,10 @@
         <v>668</v>
       </c>
       <c r="B670">
-        <v>24098.70190365816</v>
+        <v>42430.02071630846</v>
       </c>
       <c r="C670">
-        <v>-1640.094185849612</v>
+        <v>332.8565906116905</v>
       </c>
     </row>
     <row r="671" spans="1:3">
@@ -7755,10 +7755,10 @@
         <v>669</v>
       </c>
       <c r="B671">
-        <v>31225.83087326422</v>
+        <v>50078.51340916201</v>
       </c>
       <c r="C671">
-        <v>-5512.006572074093</v>
+        <v>-3377.177529963406</v>
       </c>
     </row>
     <row r="672" spans="1:3">
@@ -7766,10 +7766,10 @@
         <v>670</v>
       </c>
       <c r="B672">
-        <v>24981.10659635879</v>
+        <v>43833.78913225658</v>
       </c>
       <c r="C672">
-        <v>4965.833364131774</v>
+        <v>7100.662406242462</v>
       </c>
     </row>
     <row r="673" spans="1:3">
@@ -7777,10 +7777,10 @@
         <v>671</v>
       </c>
       <c r="B673">
-        <v>20787.44656716243</v>
+        <v>38141.53316644966</v>
       </c>
       <c r="C673">
-        <v>3397.890314245718</v>
+        <v>5543.506798856162</v>
       </c>
     </row>
     <row r="674" spans="1:3">
@@ -7788,10 +7788,10 @@
         <v>672</v>
       </c>
       <c r="B674">
-        <v>16634.56261595248</v>
+        <v>32490.05327862917</v>
       </c>
       <c r="C674">
-        <v>-4135.140010800636</v>
+        <v>-1978.736083690435</v>
       </c>
     </row>
     <row r="675" spans="1:3">
@@ -7799,10 +7799,10 @@
         <v>673</v>
       </c>
       <c r="B675">
-        <v>24855.35207380944</v>
+        <v>39212.24679987559</v>
       </c>
       <c r="C675">
-        <v>2798.649406993976</v>
+        <v>4965.840776603935</v>
       </c>
     </row>
     <row r="676" spans="1:3">
@@ -7810,10 +7810,10 @@
         <v>674</v>
       </c>
       <c r="B676">
-        <v>21397.67393379348</v>
+        <v>34255.97272324908</v>
       </c>
       <c r="C676">
-        <v>4924.536050666726</v>
+        <v>7102.514862776441</v>
       </c>
     </row>
     <row r="677" spans="1:3">
@@ -7821,10 +7821,10 @@
         <v>675</v>
       </c>
       <c r="B677">
-        <v>29767.02365030155</v>
+        <v>41126.72650314661</v>
       </c>
       <c r="C677">
-        <v>-959.3472322731734</v>
+        <v>1229.419022336299</v>
       </c>
     </row>
     <row r="678" spans="1:3">
@@ -7832,10 +7832,10 @@
         <v>676</v>
       </c>
       <c r="B678">
-        <v>21514.14196018303</v>
+        <v>31375.24887641754</v>
       </c>
       <c r="C678">
-        <v>-468.0232659304568</v>
+        <v>1731.530431178773</v>
       </c>
     </row>
     <row r="679" spans="1:3">
@@ -7843,10 +7843,10 @@
         <v>677</v>
       </c>
       <c r="B679">
-        <v>28030.37385515979</v>
+        <v>37891.4807713943</v>
       </c>
       <c r="C679">
-        <v>6497.40937646678</v>
+        <v>8696.963073576011</v>
       </c>
     </row>
     <row r="680" spans="1:3">
@@ -7854,10 +7854,10 @@
         <v>678</v>
       </c>
       <c r="B680">
-        <v>28750.3658224936</v>
+        <v>38783.1737141182</v>
       </c>
       <c r="C680">
-        <v>2996.586405783935</v>
+        <v>5148.968759403178</v>
       </c>
     </row>
     <row r="681" spans="1:3">
@@ -7865,10 +7865,10 @@
         <v>679</v>
       </c>
       <c r="B681">
-        <v>27677.31970039234</v>
+        <v>37881.82856740701</v>
       </c>
       <c r="C681">
-        <v>2049.71420874595</v>
+        <v>4154.925218875206</v>
       </c>
     </row>
     <row r="682" spans="1:3">
@@ -7876,10 +7876,10 @@
         <v>680</v>
       </c>
       <c r="B682">
-        <v>24349.3788074063</v>
+        <v>34725.58864981106</v>
       </c>
       <c r="C682">
-        <v>-888.2919845504023</v>
+        <v>1169.747682088867</v>
       </c>
     </row>
     <row r="683" spans="1:3">
@@ -7887,10 +7887,10 @@
         <v>681</v>
       </c>
       <c r="B683">
-        <v>21937.17867819575</v>
+        <v>32485.08949599059</v>
       </c>
       <c r="C683">
-        <v>3202.122936351574</v>
+        <v>5212.991259500856</v>
       </c>
     </row>
     <row r="684" spans="1:3">
@@ -7898,10 +7898,10 @@
         <v>682</v>
       </c>
       <c r="B684">
-        <v>22631.2219349262</v>
+        <v>33350.83372811112</v>
       </c>
       <c r="C684">
-        <v>-1895.554726665082</v>
+        <v>68.14225299421287</v>
       </c>
     </row>
     <row r="685" spans="1:3">
@@ -7909,10 +7909,10 @@
         <v>683</v>
       </c>
       <c r="B685">
-        <v>19375.61363562623</v>
+        <v>30266.92640420123</v>
       </c>
       <c r="C685">
-        <v>2156.216548540358</v>
+        <v>4072.742184709665</v>
       </c>
     </row>
     <row r="686" spans="1:3">
@@ -7920,10 +7920,10 @@
         <v>684</v>
       </c>
       <c r="B686">
-        <v>23779.43399841551</v>
+        <v>34670.7467669905</v>
       </c>
       <c r="C686">
-        <v>-2201.939513771724</v>
+        <v>-285.4138776024165</v>
       </c>
     </row>
     <row r="687" spans="1:3">
@@ -7931,10 +7931,10 @@
         <v>685</v>
       </c>
       <c r="B687">
-        <v>20796.05920251819</v>
+        <v>32189.78586981458</v>
       </c>
       <c r="C687">
-        <v>-1607.590392057899</v>
+        <v>383.1311730321854</v>
       </c>
     </row>
     <row r="688" spans="1:3">
@@ -7942,10 +7942,10 @@
         <v>686</v>
       </c>
       <c r="B688">
-        <v>28505.62264817553</v>
+        <v>40401.76321419331</v>
       </c>
       <c r="C688">
-        <v>-2256.378784443981</v>
+        <v>-191.4612904331202</v>
       </c>
     </row>
     <row r="689" spans="1:3">
@@ -7953,10 +7953,10 @@
         <v>687</v>
       </c>
       <c r="B689">
-        <v>29627.70266183919</v>
+        <v>42026.25712657837</v>
       </c>
       <c r="C689">
-        <v>3375.196089170624</v>
+        <v>5514.309512102261</v>
       </c>
     </row>
     <row r="690" spans="1:3">
@@ -7964,10 +7964,10 @@
         <v>688</v>
       </c>
       <c r="B690">
-        <v>34875.66048825154</v>
+        <v>47776.62885171212</v>
       </c>
       <c r="C690">
-        <v>-94.41424560083465</v>
+        <v>2118.895106251579</v>
       </c>
     </row>
     <row r="691" spans="1:3">
@@ -7975,10 +7975,10 @@
         <v>689</v>
       </c>
       <c r="B691">
-        <v>29078.00620187345</v>
+        <v>42481.38846405541</v>
       </c>
       <c r="C691">
-        <v>4322.926711361083</v>
+        <v>6610.431992134274</v>
       </c>
     </row>
     <row r="692" spans="1:3">
@@ -7986,10 +7986,10 @@
         <v>690</v>
       </c>
       <c r="B692">
-        <v>28132.82164332244</v>
+        <v>42038.6178042258</v>
       </c>
       <c r="C692">
-        <v>1795.65541367211</v>
+        <v>4157.356623366077</v>
       </c>
     </row>
     <row r="693" spans="1:3">
@@ -7997,10 +7997,10 @@
         <v>691</v>
       </c>
       <c r="B693">
-        <v>31414.91554356868</v>
+        <v>45320.71170447204</v>
       </c>
       <c r="C693">
-        <v>2916.511650776391</v>
+        <v>5278.212860470358</v>
       </c>
     </row>
     <row r="694" spans="1:3">
@@ -8008,10 +8008,10 @@
         <v>692</v>
       </c>
       <c r="B694">
-        <v>37524.96673298463</v>
+        <v>51428.90939836412</v>
       </c>
       <c r="C694">
-        <v>-400.2199379083665</v>
+        <v>1954.669729355949</v>
       </c>
     </row>
     <row r="695" spans="1:3">
@@ -8019,10 +8019,10 @@
         <v>693</v>
       </c>
       <c r="B695">
-        <v>35763.9905597687</v>
+        <v>49666.07972962433</v>
       </c>
       <c r="C695">
-        <v>423.8968592544504</v>
+        <v>2771.974984089114</v>
       </c>
     </row>
     <row r="696" spans="1:3">
@@ -8030,10 +8030,10 @@
         <v>694</v>
       </c>
       <c r="B696">
-        <v>29895.68114979642</v>
+        <v>43795.91682412817</v>
       </c>
       <c r="C696">
-        <v>-3444.399773740807</v>
+        <v>-1103.133191335796</v>
       </c>
     </row>
     <row r="697" spans="1:3">
@@ -8041,10 +8041,10 @@
         <v>695</v>
       </c>
       <c r="B697">
-        <v>33232.33657853076</v>
+        <v>47130.71875733863</v>
       </c>
       <c r="C697">
-        <v>1456.618764973594</v>
+        <v>3791.073804948954</v>
       </c>
     </row>
     <row r="698" spans="1:3">
@@ -8052,10 +8052,10 @@
         <v>696</v>
       </c>
       <c r="B698">
-        <v>39138.13401218113</v>
+        <v>53034.66269546513</v>
       </c>
       <c r="C698">
-        <v>2154.341457080388</v>
+        <v>4481.984954626096</v>
       </c>
     </row>
     <row r="699" spans="1:3">
@@ -8063,10 +8063,10 @@
         <v>697</v>
       </c>
       <c r="B699">
-        <v>33310.59953001931</v>
+        <v>47205.27471777944</v>
       </c>
       <c r="C699">
-        <v>3405.288951075283</v>
+        <v>5726.120906191339</v>
       </c>
     </row>
     <row r="700" spans="1:3">
@@ -8074,10 +8074,10 @@
         <v>698</v>
       </c>
       <c r="B700">
-        <v>36248.37092855869</v>
+        <v>50143.04611631882</v>
       </c>
       <c r="C700">
-        <v>-2246.74309981486</v>
+        <v>74.08885530119596</v>
       </c>
     </row>
     <row r="701" spans="1:3">
@@ -8085,10 +8085,10 @@
         <v>699</v>
       </c>
       <c r="B701">
-        <v>35958.24695991402</v>
+        <v>52625.88507612608</v>
       </c>
       <c r="C701">
-        <v>-5761.499279945242</v>
+        <v>-3420.27161122373</v>
       </c>
     </row>
     <row r="702" spans="1:3">
@@ -8096,10 +8096,10 @@
         <v>700</v>
       </c>
       <c r="B702">
-        <v>34635.72875944553</v>
+        <v>54076.32980410951</v>
       </c>
       <c r="C702">
-        <v>3643.122554062653</v>
+        <v>6004.74593638962</v>
       </c>
     </row>
     <row r="703" spans="1:3">
@@ -8107,10 +8107,10 @@
         <v>701</v>
       </c>
       <c r="B703">
-        <v>42055.34058659796</v>
+        <v>64268.90455971387</v>
       </c>
       <c r="C703">
-        <v>3688.053792967961</v>
+        <v>6070.072888900382</v>
       </c>
     </row>
     <row r="704" spans="1:3">
@@ -8118,10 +8118,10 @@
         <v>702</v>
       </c>
       <c r="B704">
-        <v>34023.08443921318</v>
+        <v>59009.61134078103</v>
       </c>
       <c r="C704">
-        <v>-1218.686274464362</v>
+        <v>1183.728535073515</v>
       </c>
     </row>
     <row r="705" spans="1:3">
@@ -8129,10 +8129,10 @@
         <v>703</v>
       </c>
       <c r="B705">
-        <v>28504.83083020635</v>
+        <v>56264.32066022611</v>
       </c>
       <c r="C705">
-        <v>3906.583258524962</v>
+        <v>6329.393781668294</v>
       </c>
     </row>
     <row r="706" spans="1:3">
@@ -8140,10 +8140,10 @@
         <v>704</v>
       </c>
       <c r="B706">
-        <v>33735.17709183476</v>
+        <v>64267.62985030645</v>
       </c>
       <c r="C706">
-        <v>927.5440166032693</v>
+        <v>3370.750253352056</v>
       </c>
     </row>
     <row r="707" spans="1:3">
@@ -8151,10 +8151,10 @@
         <v>705</v>
       </c>
       <c r="B707">
-        <v>27951.48909551595</v>
+        <v>58483.94185398764</v>
       </c>
       <c r="C707">
-        <v>678.4908579983243</v>
+        <v>3121.697094747111</v>
       </c>
     </row>
     <row r="708" spans="1:3">
@@ -8162,10 +8162,10 @@
         <v>706</v>
       </c>
       <c r="B708">
-        <v>28310.38437972677</v>
+        <v>60461.8204784027</v>
       </c>
       <c r="C708">
-        <v>4379.765860030952</v>
+        <v>7322.005130638665</v>
       </c>
     </row>
     <row r="709" spans="1:3">
@@ -8173,10 +8173,10 @@
         <v>707</v>
       </c>
       <c r="B709">
-        <v>27627.00948060743</v>
+        <v>61397.4289194876</v>
       </c>
       <c r="C709">
-        <v>1145.075834642342</v>
+        <v>4586.348139108979</v>
       </c>
     </row>
     <row r="710" spans="1:3">
@@ -8184,10 +8184,10 @@
         <v>708</v>
       </c>
       <c r="B710">
-        <v>34811.42609883193</v>
+        <v>70200.82887791634</v>
       </c>
       <c r="C710">
-        <v>5310.123882437389</v>
+        <v>9250.429220762951</v>
       </c>
     </row>
     <row r="711" spans="1:3">
@@ -8195,10 +8195,10 @@
         <v>709</v>
       </c>
       <c r="B711">
-        <v>28847.13717376472</v>
+        <v>65855.52329305338</v>
       </c>
       <c r="C711">
-        <v>865.8606717960565</v>
+        <v>5305.199043980544</v>
       </c>
     </row>
     <row r="712" spans="1:3">
@@ -8206,10 +8206,10 @@
         <v>710</v>
       </c>
       <c r="B712">
-        <v>33316.36323434801</v>
+        <v>71943.7326938409</v>
       </c>
       <c r="C712">
-        <v>2279.74398907421</v>
+        <v>7218.115395117622</v>
       </c>
     </row>
     <row r="713" spans="1:3">
@@ -8217,10 +8217,10 @@
         <v>711</v>
       </c>
       <c r="B713">
-        <v>31548.22019590025</v>
+        <v>71794.57299559738</v>
       </c>
       <c r="C713">
-        <v>2863.307517756542</v>
+        <v>8300.711957658879</v>
       </c>
     </row>
     <row r="714" spans="1:3">
@@ -8228,10 +8228,10 @@
         <v>712</v>
       </c>
       <c r="B714">
-        <v>35304.95499265315</v>
+        <v>75551.30779235027</v>
       </c>
       <c r="C714">
-        <v>3717.235834773464</v>
+        <v>9154.640274675801</v>
       </c>
     </row>
     <row r="715" spans="1:3">
@@ -8239,10 +8239,10 @@
         <v>713</v>
       </c>
       <c r="B715">
-        <v>26985.15208856015</v>
+        <v>66463.87833035507</v>
       </c>
       <c r="C715">
-        <v>856.5413429491579</v>
+        <v>6327.167336284685</v>
       </c>
     </row>
     <row r="716" spans="1:3">
@@ -8250,10 +8250,10 @@
         <v>714</v>
       </c>
       <c r="B716">
-        <v>32389.21134470293</v>
+        <v>71100.31102859565</v>
       </c>
       <c r="C716">
-        <v>3447.372755451293</v>
+        <v>8951.220302220008</v>
       </c>
     </row>
     <row r="717" spans="1:3">
@@ -8261,10 +8261,10 @@
         <v>715</v>
       </c>
       <c r="B717">
-        <v>26020.24500743476</v>
+        <v>63963.71813342529</v>
       </c>
       <c r="C717">
-        <v>1804.212014711173</v>
+        <v>7341.281114913081</v>
       </c>
     </row>
     <row r="718" spans="1:3">
@@ -8272,10 +8272,10 @@
         <v>716</v>
       </c>
       <c r="B718">
-        <v>26815.68112712454</v>
+        <v>63991.52769521289</v>
       </c>
       <c r="C718">
-        <v>1778.378533696502</v>
+        <v>7348.669187331599</v>
       </c>
     </row>
     <row r="719" spans="1:3">
@@ -8283,10 +8283,10 @@
         <v>717</v>
       </c>
       <c r="B719">
-        <v>22167.93697763012</v>
+        <v>58576.15698781628</v>
       </c>
       <c r="C719">
-        <v>-14.19957882375024</v>
+        <v>5589.312628244536</v>
       </c>
     </row>
     <row r="720" spans="1:3">
@@ -8294,10 +8294,10 @@
         <v>718</v>
       </c>
       <c r="B720">
-        <v>21574.66828389703</v>
+        <v>57215.261736181</v>
       </c>
       <c r="C720">
-        <v>9.079354901137322</v>
+        <v>5645.813115402612</v>
       </c>
     </row>
     <row r="721" spans="1:3">
@@ -8305,10 +8305,10 @@
         <v>719</v>
       </c>
       <c r="B721">
-        <v>16429.99142161531</v>
+        <v>52070.58487389928</v>
       </c>
       <c r="C721">
-        <v>-159.8715822512852</v>
+        <v>5476.86217825019</v>
       </c>
     </row>
     <row r="722" spans="1:3">
@@ -8316,10 +8316,10 @@
         <v>720</v>
       </c>
       <c r="B722">
-        <v>30164.4570228112</v>
+        <v>67047.14781411077</v>
       </c>
       <c r="C722">
-        <v>975.0637914601659</v>
+        <v>6718.888639568953</v>
       </c>
     </row>
     <row r="723" spans="1:3">
@@ -8327,10 +8327,10 @@
         <v>721</v>
       </c>
       <c r="B723">
-        <v>25397.79114044033</v>
+        <v>63522.57927075551</v>
       </c>
       <c r="C723">
-        <v>293.5229579979357</v>
+        <v>6144.438893714037</v>
       </c>
     </row>
     <row r="724" spans="1:3">
@@ -8338,10 +8338,10 @@
         <v>722</v>
       </c>
       <c r="B724">
-        <v>28746.69315037352</v>
+        <v>68113.57861970429</v>
       </c>
       <c r="C724">
-        <v>-128.8368880955195</v>
+        <v>5829.170135227894</v>
       </c>
     </row>
     <row r="725" spans="1:3">
@@ -8349,10 +8349,10 @@
         <v>723</v>
       </c>
       <c r="B725">
-        <v>34261.1145757462</v>
+        <v>74870.09738409257</v>
       </c>
       <c r="C725">
-        <v>1934.400489194306</v>
+        <v>7999.498600125033</v>
       </c>
     </row>
     <row r="726" spans="1:3">
@@ -8360,10 +8360,10 @@
         <v>724</v>
       </c>
       <c r="B726">
-        <v>38978.5565369256</v>
+        <v>80829.63668428757</v>
       </c>
       <c r="C726">
-        <v>2452.262397821164</v>
+        <v>8624.451596359204</v>
       </c>
     </row>
     <row r="727" spans="1:3">
@@ -8371,10 +8371,10 @@
         <v>725</v>
       </c>
       <c r="B727">
-        <v>33588.70657478277</v>
+        <v>76681.88406116035</v>
       </c>
       <c r="C727">
-        <v>585.7203747426604</v>
+        <v>6865.000660888013</v>
       </c>
     </row>
     <row r="728" spans="1:3">
@@ -8382,10 +8382,10 @@
         <v>726</v>
       </c>
       <c r="B728">
-        <v>34503.05037224182</v>
+        <v>77596.22785861942</v>
       </c>
       <c r="C728">
-        <v>490.636156797541</v>
+        <v>6769.916442942895</v>
       </c>
     </row>
     <row r="729" spans="1:3">
@@ -8393,10 +8393,10 @@
         <v>727</v>
       </c>
       <c r="B729">
-        <v>33580.15248886185</v>
+        <v>76673.32997523944</v>
       </c>
       <c r="C729">
-        <v>-809.5731058722165</v>
+        <v>5469.707180273137</v>
       </c>
     </row>
     <row r="730" spans="1:3">
@@ -8404,10 +8404,10 @@
         <v>728</v>
       </c>
       <c r="B730">
-        <v>36913.01620337734</v>
+        <v>80006.19368975493</v>
       </c>
       <c r="C730">
-        <v>1917.54190640154</v>
+        <v>8196.822192546893</v>
       </c>
     </row>
     <row r="731" spans="1:3">
@@ -8415,10 +8415,10 @@
         <v>729</v>
       </c>
       <c r="B731">
-        <v>33590.80191571473</v>
+        <v>76683.97940209231</v>
       </c>
       <c r="C731">
-        <v>2208.499970128415</v>
+        <v>8487.780256273769</v>
       </c>
     </row>
   </sheetData>

--- a/Stochastic_engine/CA_hydropower/CA_hydro_daily.xlsx
+++ b/Stochastic_engine/CA_hydropower/CA_hydro_daily.xlsx
@@ -396,10 +396,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>67618.4954368195</v>
+        <v>72226.10232088395</v>
       </c>
       <c r="C2">
-        <v>1956.717624981809</v>
+        <v>4600.12305579024</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -407,10 +407,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>63222.75080556339</v>
+        <v>67830.35768962782</v>
       </c>
       <c r="C3">
-        <v>-529.3824517905091</v>
+        <v>2114.022979017923</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>73575.76527553688</v>
+        <v>78183.37215960132</v>
       </c>
       <c r="C4">
-        <v>2005.049895065582</v>
+        <v>4648.455325874013</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>74134.74763874484</v>
+        <v>78742.35452280928</v>
       </c>
       <c r="C5">
-        <v>2547.798863512332</v>
+        <v>5191.204294320763</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>67554.63497912901</v>
+        <v>72162.24186319349</v>
       </c>
       <c r="C6">
-        <v>4107.455807850556</v>
+        <v>6750.861238658988</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>66477.07880125611</v>
+        <v>71888.40608680532</v>
       </c>
       <c r="C7">
-        <v>1386.106812354712</v>
+        <v>2401.478703934533</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>69343.13571196064</v>
+        <v>75558.18339899459</v>
       </c>
       <c r="C8">
-        <v>5451.37067589619</v>
+        <v>4838.709028247402</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>65244.65340002241</v>
+        <v>72263.42148854111</v>
       </c>
       <c r="C9">
-        <v>8359.651382590824</v>
+        <v>6118.956195713426</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>60972.84825222418</v>
+        <v>68795.33674222762</v>
       </c>
       <c r="C10">
-        <v>5930.765789402861</v>
+        <v>2062.037063296854</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>54727.09824344316</v>
+        <v>63353.30713493137</v>
       </c>
       <c r="C11">
-        <v>12630.81436810685</v>
+        <v>7134.052102772233</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>58560.6068905953</v>
+        <v>67990.53618356827</v>
       </c>
       <c r="C12">
-        <v>13040.27699630858</v>
+        <v>5915.481191745357</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>56751.47850453267</v>
+        <v>66181.40779750563</v>
       </c>
       <c r="C13">
-        <v>10470.91224943146</v>
+        <v>3346.116444868231</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>56925.41064395574</v>
+        <v>65913.63624706074</v>
       </c>
       <c r="C14">
-        <v>10931.94688167971</v>
+        <v>4798.202377353602</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>48053.25891078448</v>
+        <v>56599.78082402154</v>
       </c>
       <c r="C15">
-        <v>15227.25337431843</v>
+        <v>10084.56017022944</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>36208.29315059553</v>
+        <v>44313.11137396464</v>
       </c>
       <c r="C16">
-        <v>11728.04578793925</v>
+        <v>7576.403884087385</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>44320.64717561626</v>
+        <v>51983.76170911741</v>
       </c>
       <c r="C17">
-        <v>4513.891748997634</v>
+        <v>1353.301145382882</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -572,10 +572,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>39075.69628499579</v>
+        <v>46297.10712862899</v>
       </c>
       <c r="C18">
-        <v>3987.092380896221</v>
+        <v>1817.553077518588</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -583,10 +583,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32332.68636989967</v>
+        <v>39112.39352366493</v>
       </c>
       <c r="C19">
-        <v>7283.264404487631</v>
+        <v>6104.776401347116</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -594,10 +594,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>35338.70905579596</v>
+        <v>42118.41620956121</v>
       </c>
       <c r="C20">
-        <v>3436.594690406658</v>
+        <v>2258.106687266142</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -605,10 +605,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>40640.33942745476</v>
+        <v>46787.50333856244</v>
       </c>
       <c r="C21">
-        <v>7050.50907439432</v>
+        <v>5731.048161201825</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -616,10 +616,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>37095.65761315684</v>
+        <v>42610.27828160694</v>
       </c>
       <c r="C22">
-        <v>6107.693106585126</v>
+        <v>4647.259283340652</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -627,10 +627,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>40048.74568810008</v>
+        <v>44930.82311389259</v>
       </c>
       <c r="C23">
-        <v>4740.816012183358</v>
+        <v>3139.409278886904</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -638,10 +638,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>45792.49573455431</v>
+        <v>50042.02991768924</v>
       </c>
       <c r="C24">
-        <v>6392.981675321892</v>
+        <v>4650.602031973458</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -649,10 +649,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>42650.08449434071</v>
+        <v>46267.07543481806</v>
       </c>
       <c r="C25">
-        <v>3053.108909678889</v>
+        <v>1169.756356278475</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -660,10 +660,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>47923.80049710461</v>
+        <v>50908.24819492439</v>
       </c>
       <c r="C26">
-        <v>4865.744550514024</v>
+        <v>2841.419087061631</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -671,10 +671,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>51095.68189894749</v>
+        <v>54080.12959676727</v>
       </c>
       <c r="C27">
-        <v>4442.427152463291</v>
+        <v>2418.101689010899</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -682,10 +682,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>47843.46662833841</v>
+        <v>54007.84686927179</v>
       </c>
       <c r="C28">
-        <v>6519.069928602451</v>
+        <v>4902.001586006842</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -693,10 +693,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>55545.06593910616</v>
+        <v>64889.37872315314</v>
       </c>
       <c r="C29">
-        <v>4918.765847411471</v>
+        <v>3708.954625672647</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -704,10 +704,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>57810.46292149141</v>
+        <v>70334.70824865199</v>
       </c>
       <c r="C30">
-        <v>4896.766832402314</v>
+        <v>4094.212731520274</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -715,10 +715,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>50918.656890411</v>
+        <v>66622.83476068519</v>
       </c>
       <c r="C31">
-        <v>5725.365710329369</v>
+        <v>5330.068730304111</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -726,10 +726,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>56078.56191853026</v>
+        <v>74962.67233191805</v>
       </c>
       <c r="C32">
-        <v>2834.910967934821</v>
+        <v>2846.871108766347</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -737,10 +737,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>57012.8459522629</v>
+        <v>79076.88890876427</v>
       </c>
       <c r="C33">
-        <v>-338.1247492397238</v>
+        <v>81.09251244858524</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -748,10 +748,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>56397.36018860987</v>
+        <v>78461.40314511125</v>
       </c>
       <c r="C34">
-        <v>579.1398304852901</v>
+        <v>998.3570921735991</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -759,10 +759,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>56689.92775113631</v>
+        <v>80854.21950061717</v>
       </c>
       <c r="C35">
-        <v>6457.999976894326</v>
+        <v>7462.287829299958</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -770,10 +770,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>60182.76927140227</v>
+        <v>86447.30981386261</v>
       </c>
       <c r="C36">
-        <v>3463.631564551997</v>
+        <v>5052.990007674952</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -781,10 +781,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>56277.05745718615</v>
+        <v>84641.84679262596</v>
       </c>
       <c r="C37">
-        <v>5682.408543382126</v>
+        <v>7856.837577222403</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -792,10 +792,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>65686.31546805755</v>
+        <v>96151.35359647685</v>
       </c>
       <c r="C38">
-        <v>816.3401057967094</v>
+        <v>3575.839730354311</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -803,10 +803,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>62385.91802307244</v>
+        <v>94951.20494447122</v>
       </c>
       <c r="C39">
-        <v>4506.084270476402</v>
+        <v>7850.654485751325</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -814,10 +814,10 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>64644.23762751419</v>
+        <v>99309.77334189245</v>
       </c>
       <c r="C40">
-        <v>8318.881946277883</v>
+        <v>12248.52275227013</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -825,10 +825,10 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>64807.84835435983</v>
+        <v>99473.38406873809</v>
       </c>
       <c r="C41">
-        <v>8645.049771749118</v>
+        <v>12574.69057774136</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -836,10 +836,10 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>63825.62258727467</v>
+        <v>97581.70824840496</v>
       </c>
       <c r="C42">
-        <v>5558.136060580772</v>
+        <v>9534.526839285752</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -847,10 +847,10 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>63624.71579707597</v>
+        <v>96471.3514049583</v>
       </c>
       <c r="C43">
-        <v>4396.267725024285</v>
+        <v>8419.408476442</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -858,10 +858,10 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>67149.00864104957</v>
+        <v>99086.19419568393</v>
       </c>
       <c r="C44">
-        <v>9206.858445437043</v>
+        <v>13276.74916956749</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -869,10 +869,10 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>63768.58573718397</v>
+        <v>94796.32123857035</v>
       </c>
       <c r="C45">
-        <v>9290.372348584249</v>
+        <v>13407.01304542743</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -880,10 +880,10 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>67727.45735353431</v>
+        <v>97845.74280167274</v>
       </c>
       <c r="C46">
-        <v>3896.700919795494</v>
+        <v>8060.091589351415</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -891,10 +891,10 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>66868.65969531606</v>
+        <v>96077.4950902065</v>
       </c>
       <c r="C47">
-        <v>5342.710907470463</v>
+        <v>9552.85154973912</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -902,10 +902,10 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>61260.11131384532</v>
+        <v>90468.94670873576</v>
       </c>
       <c r="C48">
-        <v>8475.872256437395</v>
+        <v>12686.01289870605</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -913,10 +913,10 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>64734.20207520662</v>
+        <v>94851.00414141569</v>
       </c>
       <c r="C49">
-        <v>4424.225445355669</v>
+        <v>9049.773732377271</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -924,10 +924,10 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>60696.46461134145</v>
+        <v>91721.23334886912</v>
       </c>
       <c r="C50">
-        <v>3130.148266516686</v>
+        <v>8171.10419829123</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -935,10 +935,10 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>63796.48325051644</v>
+        <v>95729.21865936273</v>
       </c>
       <c r="C51">
-        <v>4082.272987159596</v>
+        <v>9538.636563687087</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -946,10 +946,10 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>63020.61953258913</v>
+        <v>95861.32161275404</v>
       </c>
       <c r="C52">
-        <v>6216.967476260654</v>
+        <v>12088.73869754109</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -957,10 +957,10 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>64636.31322021292</v>
+        <v>98384.9819716964</v>
       </c>
       <c r="C53">
-        <v>4333.812864431319</v>
+        <v>10620.9917304647</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -968,10 +968,10 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>58937.68397268327</v>
+        <v>93594.31939548539</v>
       </c>
       <c r="C54">
-        <v>2368.627761264403</v>
+        <v>9071.214272050729</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -979,10 +979,10 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>59637.22953021558</v>
+        <v>94293.86495301769</v>
       </c>
       <c r="C55">
-        <v>5681.019924076365</v>
+        <v>12383.60643486269</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -990,10 +990,10 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>64745.42717327526</v>
+        <v>96106.52187686488</v>
       </c>
       <c r="C56">
-        <v>6197.577250935795</v>
+        <v>12450.76756231132</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1001,10 +1001,10 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>62881.159542023</v>
+        <v>90946.71352640013</v>
       </c>
       <c r="C57">
-        <v>6905.324855079409</v>
+        <v>12709.11896704412</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1012,10 +1012,10 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>60003.00988004127</v>
+        <v>84773.02314520591</v>
       </c>
       <c r="C58">
-        <v>3680.068714553109</v>
+        <v>9034.466627107016</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1023,10 +1023,10 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>61774.10619902874</v>
+        <v>83248.57874498087</v>
       </c>
       <c r="C59">
-        <v>6610.727321928271</v>
+        <v>11515.72903507137</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1034,10 +1034,10 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>63688.61808249129</v>
+        <v>81867.54990923092</v>
       </c>
       <c r="C60">
-        <v>6593.916496726435</v>
+        <v>11049.52201045873</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1045,10 +1045,10 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>65904.80987763492</v>
+        <v>80788.20098516202</v>
       </c>
       <c r="C61">
-        <v>7574.896674324154</v>
+        <v>11581.10598864564</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1056,10 +1056,10 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>63727.13310365227</v>
+        <v>78610.52421117939</v>
       </c>
       <c r="C62">
-        <v>7670.234283057907</v>
+        <v>11676.4435973794</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1067,10 +1067,10 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>60781.37104606142</v>
+        <v>75420.5065718651</v>
       </c>
       <c r="C63">
-        <v>2884.548686780381</v>
+        <v>6688.580686344861</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1078,10 +1078,10 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>72104.87935214744</v>
+        <v>86499.75929622767</v>
       </c>
       <c r="C64">
-        <v>8321.011944073758</v>
+        <v>11922.86662888123</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1089,10 +1089,10 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>72387.93642959357</v>
+        <v>86538.56079195034</v>
       </c>
       <c r="C65">
-        <v>6698.163220980605</v>
+        <v>10097.84059103107</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1100,10 +1100,10 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>74316.44415323471</v>
+        <v>88222.81293386803</v>
       </c>
       <c r="C66">
-        <v>4141.440578792715</v>
+        <v>7338.940634086164</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1111,10 +1111,10 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>76913.05211792304</v>
+        <v>90575.16531683292</v>
       </c>
       <c r="C67">
-        <v>8547.155379006883</v>
+        <v>11542.47811954332</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1122,10 +1122,10 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>82081.01316603083</v>
+        <v>95498.87078321724</v>
       </c>
       <c r="C68">
-        <v>8370.656985928556</v>
+        <v>11163.80241170798</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1133,10 +1133,10 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>73123.41525205222</v>
+        <v>86541.27286923863</v>
       </c>
       <c r="C69">
-        <v>4103.46590468966</v>
+        <v>6896.611330469089</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1144,10 +1144,10 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>83865.65202291906</v>
+        <v>98624.24953567749</v>
       </c>
       <c r="C70">
-        <v>3168.92285345157</v>
+        <v>6124.639765918764</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1155,10 +1155,10 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>73196.39178117184</v>
+        <v>89295.72918950228</v>
       </c>
       <c r="C71">
-        <v>9781.552645370142</v>
+        <v>12899.8410445251</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1166,10 +1166,10 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>78977.13713129348</v>
+        <v>96417.21443519593</v>
       </c>
       <c r="C72">
-        <v>5608.849922863333</v>
+        <v>8889.709808706055</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1177,10 +1177,10 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>72727.10358309017</v>
+        <v>91507.92078256463</v>
       </c>
       <c r="C73">
-        <v>7086.586748158205</v>
+        <v>10530.01812068869</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1188,10 +1188,10 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>70450.16043034696</v>
+        <v>90571.71752539344</v>
       </c>
       <c r="C74">
-        <v>5186.692513182688</v>
+        <v>8792.69537240094</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1199,10 +1199,10 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>75327.71511438332</v>
+        <v>96790.01210500181</v>
       </c>
       <c r="C75">
-        <v>8228.42950478284</v>
+        <v>11997.00385068886</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1210,10 +1210,10 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>72632.75095383148</v>
+        <v>94095.04794444997</v>
       </c>
       <c r="C76">
-        <v>8281.145909170928</v>
+        <v>12049.72025507694</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1221,10 +1221,10 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>76047.54507260352</v>
+        <v>97892.45443800402</v>
       </c>
       <c r="C77">
-        <v>7427.402289995148</v>
+        <v>11519.204057468</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1232,10 +1232,10 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>81522.08257029424</v>
+        <v>103749.6043104768</v>
       </c>
       <c r="C78">
-        <v>7075.840823908112</v>
+        <v>11490.87001294779</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1243,10 +1243,10 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>77866.00905037207</v>
+        <v>100476.1431653366</v>
       </c>
       <c r="C79">
-        <v>9928.809057717035</v>
+        <v>14667.06566832355</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1254,10 +1254,10 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>75414.72113468875</v>
+        <v>98407.46762443535</v>
       </c>
       <c r="C80">
-        <v>10947.52606809026</v>
+        <v>16009.01010026361</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1265,10 +1265,10 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>70185.61040524534</v>
+        <v>93560.96926977395</v>
       </c>
       <c r="C81">
-        <v>11201.6930898507</v>
+        <v>16586.40454359088</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1276,10 +1276,10 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>72152.99587200415</v>
+        <v>95910.96711131481</v>
       </c>
       <c r="C82">
-        <v>9024.068125836966</v>
+        <v>14732.00700114398</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1287,10 +1287,10 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>77364.40916061014</v>
+        <v>101122.3803999208</v>
       </c>
       <c r="C83">
-        <v>10801.74499538048</v>
+        <v>16509.6838706875</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1298,10 +1298,10 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>72432.27546296113</v>
+        <v>95974.39675024636</v>
       </c>
       <c r="C84">
-        <v>10541.14717908077</v>
+        <v>16129.73951052864</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1309,10 +1309,10 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>71492.85538754899</v>
+        <v>94819.12672280884</v>
       </c>
       <c r="C85">
-        <v>8111.795618064699</v>
+        <v>13581.04140565342</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1320,10 +1320,10 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>67416.6100352603</v>
+        <v>90527.03141849473</v>
       </c>
       <c r="C86">
-        <v>8219.351338182752</v>
+        <v>13569.25058191232</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1331,10 +1331,10 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>65572.75634947362</v>
+        <v>88467.32778068264</v>
       </c>
       <c r="C87">
-        <v>7920.596829887676</v>
+        <v>13151.1495297581</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1342,10 +1342,10 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>67105.32818802235</v>
+        <v>89784.04966720595</v>
       </c>
       <c r="C88">
-        <v>7172.325414874733</v>
+        <v>12283.53157088601</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1353,10 +1353,10 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>63715.12450352634</v>
+        <v>86177.99603068452</v>
       </c>
       <c r="C89">
-        <v>9463.055002970759</v>
+        <v>14454.91461512289</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1364,10 +1364,10 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>68684.40801663263</v>
+        <v>91147.27954379082</v>
       </c>
       <c r="C90">
-        <v>12182.59208053378</v>
+        <v>17174.45169268591</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1375,10 +1375,10 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>63359.19130710927</v>
+        <v>86286.80061365012</v>
       </c>
       <c r="C91">
-        <v>7464.178908854702</v>
+        <v>12478.73458246324</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1386,10 +1386,10 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>59290.01973895102</v>
+        <v>82682.36682487452</v>
       </c>
       <c r="C92">
-        <v>13142.33488328667</v>
+        <v>18179.58661835163</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1397,10 +1397,10 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>67629.35891449824</v>
+        <v>91486.44377980439</v>
       </c>
       <c r="C93">
-        <v>6001.119174414705</v>
+        <v>11061.06697093608</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1408,10 +1408,10 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>66671.46440531309</v>
+        <v>90993.28705000189</v>
       </c>
       <c r="C94">
-        <v>7080.877936426304</v>
+        <v>12163.52179440409</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1419,10 +1419,10 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>74124.1617627815</v>
+        <v>98910.72218685297</v>
       </c>
       <c r="C95">
-        <v>6749.857393593906</v>
+        <v>11855.19731302811</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1430,10 +1430,10 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>74739.33658342177</v>
+        <v>99990.63478687589</v>
       </c>
       <c r="C96">
-        <v>9967.034799350105</v>
+        <v>15095.07078024073</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1441,10 +1441,10 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>72721.90556267407</v>
+        <v>97973.20376612819</v>
       </c>
       <c r="C97">
-        <v>10328.27807309539</v>
+        <v>15456.31405398601</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1452,10 +1452,10 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>72328.81444429378</v>
+        <v>96678.56272432269</v>
       </c>
       <c r="C98">
-        <v>7679.336181846911</v>
+        <v>12606.0934447243</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1463,10 +1463,10 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>74674.38163229913</v>
+        <v>98122.57998890283</v>
       </c>
       <c r="C99">
-        <v>10766.93873346753</v>
+        <v>15492.41727833168</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1474,10 +1474,10 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>72036.63055388257</v>
+        <v>94583.27898706106</v>
       </c>
       <c r="C100">
-        <v>9291.519238816138</v>
+        <v>13815.71906566706</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1485,10 +1485,10 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>69655.98137314177</v>
+        <v>91301.07988289502</v>
       </c>
       <c r="C101">
-        <v>10547.13711287931</v>
+        <v>14870.05822171699</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1496,10 +1496,10 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>65190.66260498897</v>
+        <v>85934.21119131702</v>
       </c>
       <c r="C102">
-        <v>8907.975677426886</v>
+        <v>13029.61806825134</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1507,10 +1507,10 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>65636.95694991267</v>
+        <v>85478.95561281552</v>
       </c>
       <c r="C103">
-        <v>8752.465098204853</v>
+        <v>12672.82877101607</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1518,10 +1518,10 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>69907.3864169829</v>
+        <v>89749.38507988576</v>
       </c>
       <c r="C104">
-        <v>4908.641440312713</v>
+        <v>8829.005113123934</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1529,10 +1529,10 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>72999.03602310506</v>
+        <v>93377.91978275502</v>
       </c>
       <c r="C105">
-        <v>7262.87303749021</v>
+        <v>11486.31793365868</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1540,10 +1540,10 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>64890.14036848457</v>
+        <v>85805.90922488165</v>
       </c>
       <c r="C106">
-        <v>7766.897473712063</v>
+        <v>12293.42359323779</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1551,10 +1551,10 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>71811.63897816045</v>
+        <v>93264.29293130463</v>
       </c>
       <c r="C107">
-        <v>12501.19495880436</v>
+        <v>17330.80230168733</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1562,10 +1562,10 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>67669.20276317425</v>
+        <v>89658.74181306556</v>
       </c>
       <c r="C108">
-        <v>13098.39769897928</v>
+        <v>18231.08626521951</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1573,10 +1573,10 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>65732.59935516345</v>
+        <v>88259.02350180187</v>
       </c>
       <c r="C109">
-        <v>11233.31658808084</v>
+        <v>16669.08637767831</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1584,10 +1584,10 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>61267.39826824702</v>
+        <v>84330.70751163254</v>
       </c>
       <c r="C110">
-        <v>15294.20039540064</v>
+        <v>21033.05140835536</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1595,10 +1595,10 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>64975.78810169279</v>
+        <v>88039.09734507832</v>
       </c>
       <c r="C111">
-        <v>13053.12994989556</v>
+        <v>18791.98096285028</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1606,10 +1606,10 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>61205.67811445301</v>
+        <v>82191.21267344488</v>
       </c>
       <c r="C112">
-        <v>10862.09536112815</v>
+        <v>15981.45575978737</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1617,10 +1617,10 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>62714.13624634142</v>
+        <v>81621.89612093961</v>
       </c>
       <c r="C113">
-        <v>10476.25087848451</v>
+        <v>14976.12066284822</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1628,10 +1628,10 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>60283.16068376888</v>
+        <v>77113.14587397339</v>
       </c>
       <c r="C114">
-        <v>12521.97095580408</v>
+        <v>16402.35012587229</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1639,10 +1639,10 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>66797.4126570519</v>
+        <v>81549.62316286274</v>
       </c>
       <c r="C115">
-        <v>9839.361534845599</v>
+        <v>13100.25009061829</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1650,10 +1650,10 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>62842.07333066439</v>
+        <v>75516.50915208155</v>
       </c>
       <c r="C116">
-        <v>9653.503292540303</v>
+        <v>12294.90123401749</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1661,10 +1661,10 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>60470.65204420559</v>
+        <v>71067.31318122907</v>
       </c>
       <c r="C117">
-        <v>9994.885342139716</v>
+        <v>12016.79266932139</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1672,10 +1672,10 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>61971.79762734444</v>
+        <v>72568.45876436793</v>
       </c>
       <c r="C118">
-        <v>7946.128273777302</v>
+        <v>9968.035600958978</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1683,10 +1683,10 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>67786.86960890319</v>
+        <v>78142.37123489717</v>
       </c>
       <c r="C119">
-        <v>16972.20566427452</v>
+        <v>18533.96792988852</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1694,10 +1694,10 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>69173.23831688419</v>
+        <v>79287.58043184866</v>
       </c>
       <c r="C120">
-        <v>15841.8457690811</v>
+        <v>16943.46297312743</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1705,10 +1705,10 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>74340.49988332273</v>
+        <v>84213.6824872577</v>
       </c>
       <c r="C121">
-        <v>18062.49773466315</v>
+        <v>18703.96987714179</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1716,10 +1716,10 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>69051.71959144049</v>
+        <v>78683.74268434595</v>
       </c>
       <c r="C122">
-        <v>14950.78186088426</v>
+        <v>15132.10894179523</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1727,10 +1727,10 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>70696.15654242867</v>
+        <v>80087.02012430463</v>
       </c>
       <c r="C123">
-        <v>19383.64868964335</v>
+        <v>19104.83070898665</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1738,10 +1738,10 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>75505.06037152151</v>
+        <v>84654.76444236794</v>
       </c>
       <c r="C124">
-        <v>14581.40069775065</v>
+        <v>13842.43765552627</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1749,10 +1749,10 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>79042.29671434021</v>
+        <v>88192.00078518664</v>
       </c>
       <c r="C125">
-        <v>16062.92299715144</v>
+        <v>15323.95995492706</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1760,10 +1760,10 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>76417.95908598932</v>
+        <v>85121.38869901572</v>
       </c>
       <c r="C126">
-        <v>14722.1513983457</v>
+        <v>14296.16674170808</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1771,10 +1771,10 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>79126.53559619827</v>
+        <v>87383.69075140463</v>
       </c>
       <c r="C127">
-        <v>14440.37689482509</v>
+        <v>14327.37062377422</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1782,10 +1782,10 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>77652.13103869342</v>
+        <v>85463.01173607973</v>
       </c>
       <c r="C128">
-        <v>16255.09572064484</v>
+        <v>16455.06783518072</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1793,10 +1793,10 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>74422.37817577648</v>
+        <v>81786.98441534275</v>
       </c>
       <c r="C129">
-        <v>17599.35800128251</v>
+        <v>18112.30850140514</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1804,10 +1804,10 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>75023.3055619888</v>
+        <v>81941.63734373504</v>
       </c>
       <c r="C130">
-        <v>16678.78139020258</v>
+        <v>17504.71027591197</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1815,10 +1815,10 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>82139.8237358371</v>
+        <v>88611.88105976328</v>
       </c>
       <c r="C131">
-        <v>21790.27406308713</v>
+        <v>22929.18133438327</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1826,10 +1826,10 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>83592.57419891865</v>
+        <v>90064.63152284484</v>
       </c>
       <c r="C132">
-        <v>13996.65193989531</v>
+        <v>15135.55921119144</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1837,10 +1837,10 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>75165.65562282919</v>
+        <v>82039.43861997609</v>
       </c>
       <c r="C133">
-        <v>19838.91513158824</v>
+        <v>21043.99056541168</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1848,10 +1848,10 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>78265.95633842234</v>
+        <v>85541.46500878998</v>
       </c>
       <c r="C134">
-        <v>20428.67741266526</v>
+        <v>21699.92100901601</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1859,10 +1859,10 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>74948.30496468146</v>
+        <v>82625.53930826981</v>
       </c>
       <c r="C135">
-        <v>17416.93093792812</v>
+        <v>18754.34269680618</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1870,10 +1870,10 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>67974.71694551567</v>
+        <v>76053.67696232475</v>
       </c>
       <c r="C136">
-        <v>16734.71245408844</v>
+        <v>18138.2923754938</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1881,10 +1881,10 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>74365.56295698759</v>
+        <v>82846.24864701739</v>
       </c>
       <c r="C137">
-        <v>20721.47806790902</v>
+        <v>22191.22615184169</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1892,10 +1892,10 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>74734.72607274214</v>
+        <v>83617.13743599267</v>
       </c>
       <c r="C138">
-        <v>15833.24599231266</v>
+        <v>17369.16223877263</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1903,10 +1903,10 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>78905.97351697269</v>
+        <v>87788.38488022322</v>
       </c>
       <c r="C139">
-        <v>15917.96588389406</v>
+        <v>17453.88213035404</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1914,10 +1914,10 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>75676.81532377719</v>
+        <v>83276.71041214248</v>
       </c>
       <c r="C140">
-        <v>18493.64795447552</v>
+        <v>20011.27996173702</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1925,10 +1925,10 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>77813.51664952596</v>
+        <v>84130.895463006</v>
       </c>
       <c r="C141">
-        <v>18108.70039502409</v>
+        <v>19608.04816308713</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1936,10 +1936,10 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>78085.55078875337</v>
+        <v>83120.41332734817</v>
       </c>
       <c r="C142">
-        <v>11941.88616749897</v>
+        <v>13422.94969636353</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1947,10 +1947,10 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>77422.71256815791</v>
+        <v>81175.05883186743</v>
       </c>
       <c r="C143">
-        <v>18120.55231912919</v>
+        <v>19583.33160879528</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1958,10 +1958,10 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>83912.69932765877</v>
+        <v>86382.52931648305</v>
       </c>
       <c r="C144">
-        <v>16844.76436757089</v>
+        <v>18289.25941803852</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1969,10 +1969,10 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>82499.795286883</v>
+        <v>83687.10900082203</v>
       </c>
       <c r="C145">
-        <v>18516.72258306696</v>
+        <v>19942.93339433612</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1980,10 +1980,10 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>81058.56318904058</v>
+        <v>82245.87690297961</v>
       </c>
       <c r="C146">
-        <v>15130.13540642526</v>
+        <v>16556.34621769442</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -1991,10 +1991,10 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>84162.66112621299</v>
+        <v>83919.83639509309</v>
       </c>
       <c r="C147">
-        <v>12613.75443254303</v>
+        <v>13660.10446178685</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2002,10 +2002,10 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>76703.03784399189</v>
+        <v>75030.07466781307</v>
       </c>
       <c r="C148">
-        <v>19343.73355945138</v>
+        <v>20010.22280666987</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2013,10 +2013,10 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>77924.90213772577</v>
+        <v>74821.80051648803</v>
       </c>
       <c r="C149">
-        <v>12445.84506167534</v>
+        <v>12732.4735268685</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2024,10 +2024,10 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>85031.65625151461</v>
+        <v>80498.41618521794</v>
       </c>
       <c r="C150">
-        <v>14923.67189499456</v>
+        <v>14830.43957816238</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2035,10 +2035,10 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>80593.11662791582</v>
+        <v>74629.73811656023</v>
       </c>
       <c r="C151">
-        <v>16429.14770710165</v>
+        <v>15956.05460824413</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2046,10 +2046,10 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>82217.39260102081</v>
+        <v>74823.87564460631</v>
       </c>
       <c r="C152">
-        <v>17108.2102871136</v>
+        <v>16255.25640623075</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2057,10 +2057,10 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>81849.42996213899</v>
+        <v>74455.91300572449</v>
       </c>
       <c r="C153">
-        <v>16178.01636817324</v>
+        <v>15325.06248729039</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2068,10 +2068,10 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>84416.12840880769</v>
+        <v>77045.74928433358</v>
       </c>
       <c r="C154">
-        <v>13047.71506134564</v>
+        <v>11864.17772751524</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2079,10 +2079,10 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>76143.31495662779</v>
+        <v>68796.07366409406</v>
       </c>
       <c r="C155">
-        <v>20481.5659103366</v>
+        <v>18967.44512355865</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2090,10 +2090,10 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>75969.70229014012</v>
+        <v>68645.59882954677</v>
       </c>
       <c r="C156">
-        <v>15882.57916886882</v>
+        <v>14037.87492914332</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2101,10 +2101,10 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>80697.21451404448</v>
+        <v>73396.24888539153</v>
       </c>
       <c r="C157">
-        <v>17473.95312567012</v>
+        <v>15298.66543299706</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2112,10 +2112,10 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>81657.03076404589</v>
+        <v>74379.20296733335</v>
       </c>
       <c r="C158">
-        <v>19773.64615228501</v>
+        <v>17267.77500666441</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2123,10 +2123,10 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>75717.93440050821</v>
+        <v>68463.24443573602</v>
       </c>
       <c r="C159">
-        <v>17279.83234511512</v>
+        <v>14443.37774654697</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2134,10 +2134,10 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>68639.33620785607</v>
+        <v>61384.64624308389</v>
       </c>
       <c r="C160">
-        <v>17626.86686922981</v>
+        <v>14790.41227066165</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2145,10 +2145,10 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>75812.02089492636</v>
+        <v>69188.40185051924</v>
       </c>
       <c r="C161">
-        <v>15713.0593173494</v>
+        <v>13058.70323792565</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2156,10 +2156,10 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>79705.29376051326</v>
+        <v>73712.7456364712</v>
       </c>
       <c r="C162">
-        <v>17255.52490325931</v>
+        <v>14783.26734297997</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2167,10 +2167,10 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>71410.65023965364</v>
+        <v>66049.17303597662</v>
       </c>
       <c r="C163">
-        <v>12731.80725416009</v>
+        <v>10441.64821302516</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2178,10 +2178,10 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>80137.2747349353</v>
+        <v>75406.86845162333</v>
       </c>
       <c r="C164">
-        <v>14948.47571187945</v>
+        <v>12840.41518988893</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2189,10 +2189,10 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>73887.67820512583</v>
+        <v>69788.34284217893</v>
       </c>
       <c r="C165">
-        <v>20633.52592878981</v>
+        <v>18707.56392594369</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2200,10 +2200,10 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>71009.55009656913</v>
+        <v>67541.2856539873</v>
       </c>
       <c r="C166">
-        <v>19472.07546339884</v>
+        <v>17728.21197969714</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2211,10 +2211,10 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>69825.44945244753</v>
+        <v>66357.1850098657</v>
       </c>
       <c r="C167">
-        <v>18596.97250444482</v>
+        <v>16853.10902074312</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2222,10 +2222,10 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>74044.87306122811</v>
+        <v>71650.4858854668</v>
       </c>
       <c r="C168">
-        <v>16226.98045891597</v>
+        <v>14628.0866208981</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2233,10 +2233,10 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>67903.93949499133</v>
+        <v>66583.42958605055</v>
       </c>
       <c r="C169">
-        <v>16954.10858645974</v>
+        <v>15500.18439412571</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2244,10 +2244,10 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>70532.88556858318</v>
+        <v>70286.25292646294</v>
       </c>
       <c r="C170">
-        <v>15778.21415439856</v>
+        <v>14469.25960774836</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2255,10 +2255,10 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>71424.35987357184</v>
+        <v>72251.60449827212</v>
       </c>
       <c r="C171">
-        <v>18723.38191831805</v>
+        <v>17559.39701735169</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2266,10 +2266,10 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>75144.16629555807</v>
+        <v>77045.2881870789</v>
       </c>
       <c r="C172">
-        <v>15640.04046899181</v>
+        <v>14621.02521370928</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2277,10 +2277,10 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>70415.63290048047</v>
+        <v>73390.63205882181</v>
       </c>
       <c r="C173">
-        <v>14834.00799547564</v>
+        <v>13959.96238587695</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2288,10 +2288,10 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>63516.73539535404</v>
+        <v>66491.73455369538</v>
       </c>
       <c r="C174">
-        <v>18217.99158400263</v>
+        <v>17343.94597440394</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2299,10 +2299,10 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>64559.18379618224</v>
+        <v>65901.93753488021</v>
       </c>
       <c r="C175">
-        <v>19424.61946092737</v>
+        <v>18405.45180682563</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2310,10 +2310,10 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>69340.90793057031</v>
+        <v>69051.41624962492</v>
       </c>
       <c r="C176">
-        <v>18135.83100748205</v>
+        <v>16971.54130887727</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2321,10 +2321,10 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>72397.84779723315</v>
+        <v>70476.11069664439</v>
       </c>
       <c r="C177">
-        <v>12915.65979787874</v>
+        <v>11606.24805477091</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2332,10 +2332,10 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>64549.27946454906</v>
+        <v>60995.29694431697</v>
       </c>
       <c r="C178">
-        <v>9853.903792798812</v>
+        <v>8399.370005187926</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2343,10 +2343,10 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>69677.24522139842</v>
+        <v>64491.01728152295</v>
       </c>
       <c r="C179">
-        <v>18389.32835455326</v>
+        <v>16789.67252243932</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2354,10 +2354,10 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>69684.59637123582</v>
+        <v>62866.12301171698</v>
       </c>
       <c r="C180">
-        <v>17351.59904333685</v>
+        <v>15606.82116671987</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2365,10 +2365,10 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>70227.1117423937</v>
+        <v>63408.63838287487</v>
       </c>
       <c r="C181">
-        <v>18584.22338878415</v>
+        <v>16839.44551216716</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2376,10 +2376,10 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>66851.62805871265</v>
+        <v>59740.43376748555</v>
       </c>
       <c r="C182">
-        <v>16317.87668156778</v>
+        <v>13915.89030294767</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2387,10 +2387,10 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>73944.47142031076</v>
+        <v>66540.55619737538</v>
       </c>
       <c r="C183">
-        <v>18538.72129757466</v>
+        <v>15479.52641695143</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2398,10 +2398,10 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>71973.07495799917</v>
+        <v>64276.43880335552</v>
       </c>
       <c r="C184">
-        <v>17586.34970024553</v>
+        <v>13869.94631761917</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2409,10 +2409,10 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>68678.11045914549</v>
+        <v>60688.75337279358</v>
       </c>
       <c r="C185">
-        <v>22043.62373120318</v>
+        <v>17670.01184657369</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2420,10 +2420,10 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>70722.64520948019</v>
+        <v>62440.56719142001</v>
       </c>
       <c r="C186">
-        <v>13796.8951990276</v>
+        <v>8766.074812394989</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2431,10 +2431,10 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>71774.91152635041</v>
+        <v>63200.11257658195</v>
       </c>
       <c r="C187">
-        <v>19317.8852169707</v>
+        <v>13629.85632833496</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2442,10 +2442,10 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>70343.88187499731</v>
+        <v>61769.08292522885</v>
       </c>
       <c r="C188">
-        <v>16010.90340857553</v>
+        <v>10322.87451993979</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2453,10 +2453,10 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>65782.89747932462</v>
+        <v>57790.47154563132</v>
       </c>
       <c r="C189">
-        <v>18304.40283170792</v>
+        <v>12199.24415226425</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2464,10 +2464,10 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>75814.07780313597</v>
+        <v>68404.02488551784</v>
       </c>
       <c r="C190">
-        <v>18831.2326968901</v>
+        <v>12308.9442266385</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2475,10 +2475,10 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>66346.5009136366</v>
+        <v>59518.82101209366</v>
       </c>
       <c r="C191">
-        <v>16450.42726850159</v>
+        <v>9511.009007442064</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2486,10 +2486,10 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>65753.82067322974</v>
+        <v>59508.51378776196</v>
       </c>
       <c r="C192">
-        <v>14823.79076820115</v>
+        <v>7467.242716333698</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2497,10 +2497,10 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>68146.96523478476</v>
+        <v>62484.03136539215</v>
       </c>
       <c r="C193">
-        <v>19246.48981077737</v>
+        <v>11472.81196810198</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2508,10 +2508,10 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>63369.58492586702</v>
+        <v>58289.02407254958</v>
       </c>
       <c r="C194">
-        <v>10725.59640472352</v>
+        <v>2534.788771240201</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2519,10 +2519,10 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>64056.76939086039</v>
+        <v>58976.20853754295</v>
       </c>
       <c r="C195">
-        <v>18018.01866760606</v>
+        <v>9827.211034122745</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2530,10 +2530,10 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>62338.20543110128</v>
+        <v>56790.0581742194</v>
       </c>
       <c r="C196">
-        <v>16752.57263067807</v>
+        <v>8539.255543245445</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2541,10 +2541,10 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>61031.88241998227</v>
+        <v>55016.14875953594</v>
       </c>
       <c r="C197">
-        <v>15570.26380856816</v>
+        <v>7334.437267186216</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2552,10 +2552,10 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>60118.6554897657</v>
+        <v>53635.33542575493</v>
       </c>
       <c r="C198">
-        <v>15963.50344637593</v>
+        <v>7705.167451044673</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2563,10 +2563,10 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>56638.86384161169</v>
+        <v>49687.95737403648</v>
       </c>
       <c r="C199">
-        <v>17584.67648285753</v>
+        <v>9303.831033576964</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2574,10 +2574,10 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>59668.01397275894</v>
+        <v>52249.52110161928</v>
       </c>
       <c r="C200">
-        <v>13769.97088419193</v>
+        <v>5466.615980962051</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2585,10 +2585,10 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>62930.87603023235</v>
+        <v>55044.79675552824</v>
       </c>
       <c r="C201">
-        <v>12402.2563206505</v>
+        <v>4076.391963471309</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2596,10 +2596,10 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>62070.21203867152</v>
+        <v>54184.13276396741</v>
       </c>
       <c r="C202">
-        <v>11968.9949519825</v>
+        <v>3643.130594803305</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2607,10 +2607,10 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>59655.39333877966</v>
+        <v>51958.50629806229</v>
       </c>
       <c r="C203">
-        <v>17093.6685638495</v>
+        <v>8793.953311468093</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2618,10 +2618,10 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>54645.30898637773</v>
+        <v>47137.61417964709</v>
       </c>
       <c r="C204">
-        <v>13984.77214363785</v>
+        <v>5711.205996054236</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2629,10 +2629,10 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>59643.86359238099</v>
+        <v>52325.36101963709</v>
       </c>
       <c r="C205">
-        <v>16845.86559160054</v>
+        <v>8598.448548814718</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2640,10 +2640,10 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>54576.38800675712</v>
+        <v>47447.07766799995</v>
       </c>
       <c r="C206">
-        <v>12728.94864924547</v>
+        <v>4507.680711257439</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2651,10 +2651,10 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>58415.51565815315</v>
+        <v>51475.39755338273</v>
       </c>
       <c r="C207">
-        <v>14459.10783624826</v>
+        <v>6263.98900305801</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2662,10 +2662,10 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>58622.51336570492</v>
+        <v>51871.58749492124</v>
       </c>
       <c r="C208">
-        <v>13827.62056507965</v>
+        <v>5658.650836687189</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2673,10 +2673,10 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>61406.93067160329</v>
+        <v>54656.0048008196</v>
       </c>
       <c r="C209">
-        <v>14575.93670377224</v>
+        <v>6406.966975379784</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2684,10 +2684,10 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>51219.28831207388</v>
+        <v>44551.29935640846</v>
       </c>
       <c r="C210">
-        <v>12442.80263551667</v>
+        <v>4043.856925693425</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2695,10 +2695,10 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>55126.34055691883</v>
+        <v>48541.28851637169</v>
       </c>
       <c r="C211">
-        <v>10450.43925399688</v>
+        <v>1821.517562742849</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2706,10 +2706,10 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>52579.65128974318</v>
+        <v>46077.5361643143</v>
       </c>
       <c r="C212">
-        <v>16303.36832143712</v>
+        <v>7444.470648752304</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2717,10 +2717,10 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>52693.53579386143</v>
+        <v>46274.35758355082</v>
       </c>
       <c r="C213">
-        <v>10630.58112769677</v>
+        <v>1541.707473581173</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2728,10 +2728,10 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>58712.19827556688</v>
+        <v>52375.95698037453</v>
       </c>
       <c r="C214">
-        <v>11062.02375734492</v>
+        <v>1743.174121798539</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2739,10 +2739,10 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>61313.19860046298</v>
+        <v>55059.89422038889</v>
       </c>
       <c r="C215">
-        <v>12079.75450274189</v>
+        <v>2530.928885764718</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2750,10 +2750,10 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>50455.98939582933</v>
+        <v>44202.68501575525</v>
       </c>
       <c r="C216">
-        <v>9027.103719038478</v>
+        <v>-521.7218979386948</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2761,10 +2761,10 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>55629.06588829206</v>
+        <v>49284.28915293736</v>
       </c>
       <c r="C217">
-        <v>10572.43558041897</v>
+        <v>1031.169613894425</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2772,10 +2772,10 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>47324.19579547393</v>
+        <v>40887.94670483861</v>
       </c>
       <c r="C218">
-        <v>9446.225915220448</v>
+        <v>-87.48040085147204</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2783,10 +2783,10 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>51022.95909762423</v>
+        <v>44495.2376517083</v>
       </c>
       <c r="C219">
-        <v>12714.91345253535</v>
+        <v>3188.766786916054</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2794,10 +2794,10 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>48138.61529833432</v>
+        <v>41519.42149713777</v>
       </c>
       <c r="C220">
-        <v>9685.682580460743</v>
+        <v>167.0955652940738</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2805,10 +2805,10 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>53758.09118621439</v>
+        <v>47047.42502973722</v>
       </c>
       <c r="C221">
-        <v>14499.76209744695</v>
+        <v>4988.734732732903</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2816,10 +2816,10 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>54284.28252887946</v>
+        <v>47482.14401712167</v>
       </c>
       <c r="C222">
-        <v>16072.86588983626</v>
+        <v>6569.398175574846</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2827,10 +2827,10 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>54570.72802305283</v>
+        <v>47768.58951129505</v>
       </c>
       <c r="C223">
-        <v>15005.40554629637</v>
+        <v>5501.937832034955</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2838,10 +2838,10 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>51202.26325662358</v>
+        <v>44490.92512774132</v>
       </c>
       <c r="C224">
-        <v>13763.05676934848</v>
+        <v>4497.155954275231</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2849,10 +2849,10 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>55678.6378386231</v>
+        <v>49058.10009261634</v>
       </c>
       <c r="C225">
-        <v>13124.05391131891</v>
+        <v>4095.71999543384</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2860,10 +2860,10 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>54352.84730245038</v>
+        <v>47823.10993931913</v>
       </c>
       <c r="C226">
-        <v>12812.12125007338</v>
+        <v>4021.354233376479</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2871,10 +2871,10 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>53029.65904395667</v>
+        <v>46590.72206370093</v>
       </c>
       <c r="C227">
-        <v>13352.31659286398</v>
+        <v>4799.11647535525</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2882,10 +2882,10 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>51171.22339319749</v>
+        <v>44823.08679581725</v>
       </c>
       <c r="C228">
-        <v>13762.79359735516</v>
+        <v>5447.160379034603</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2893,10 +2893,10 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>54951.67304650453</v>
+        <v>48694.33683199981</v>
       </c>
       <c r="C229">
-        <v>11395.34542411274</v>
+        <v>3317.279104980358</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2904,10 +2904,10 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>53354.15950196858</v>
+        <v>47096.82328746387</v>
       </c>
       <c r="C230">
-        <v>11330.15996648116</v>
+        <v>3252.093647348779</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2915,10 +2915,10 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>44181.07653342489</v>
+        <v>37311.05710703699</v>
       </c>
       <c r="C231">
-        <v>13236.70966917669</v>
+        <v>5802.721506030968</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -2926,10 +2926,10 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>49331.06317049459</v>
+        <v>41848.36053222349</v>
       </c>
       <c r="C232">
-        <v>11655.02098691018</v>
+        <v>4865.110979751123</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -2937,10 +2937,10 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>51011.71086048254</v>
+        <v>42916.32501032827</v>
       </c>
       <c r="C233">
-        <v>12558.58014446842</v>
+        <v>6412.748293296022</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -2948,10 +2948,10 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>55626.89134535506</v>
+        <v>46918.8222833176</v>
       </c>
       <c r="C234">
-        <v>8402.902808853414</v>
+        <v>2901.149113667679</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -2959,10 +2959,10 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>50358.36361941855</v>
+        <v>41037.61134549789</v>
       </c>
       <c r="C235">
-        <v>6605.3532539992</v>
+        <v>1747.677714800125</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -2970,10 +2970,10 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>53265.62247779045</v>
+        <v>43332.18699198661</v>
       </c>
       <c r="C236">
-        <v>9975.795532838467</v>
+        <v>5762.198149626052</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -2981,10 +2981,10 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>52048.22584731</v>
+        <v>42114.79036150616</v>
       </c>
       <c r="C237">
-        <v>9389.690161082928</v>
+        <v>5176.092777870514</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -2992,10 +2992,10 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>47731.2701804173</v>
+        <v>38120.27162917349</v>
       </c>
       <c r="C238">
-        <v>7019.962538936374</v>
+        <v>2760.314785742135</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3003,10 +3003,10 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>47377.10502208693</v>
+        <v>38088.54340540314</v>
       </c>
       <c r="C239">
-        <v>8815.865834829032</v>
+        <v>4510.167711652969</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3014,10 +3014,10 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>49705.07028927135</v>
+        <v>40738.94560714758</v>
       </c>
       <c r="C240">
-        <v>7198.391525452759</v>
+        <v>2846.643032294872</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3025,10 +3025,10 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>47321.44040477054</v>
+        <v>38677.75265720679</v>
       </c>
       <c r="C241">
-        <v>6416.725511274311</v>
+        <v>2018.926648134602</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3036,10 +3036,10 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>50696.78227093923</v>
+        <v>42375.53145793551</v>
       </c>
       <c r="C242">
-        <v>11657.10790010755</v>
+        <v>7213.258666986012</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3047,10 +3047,10 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>48553.05376740429</v>
+        <v>40554.2398889606</v>
       </c>
       <c r="C243">
-        <v>7605.918871184779</v>
+        <v>3116.019268081421</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3058,10 +3058,10 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>41728.35182629981</v>
+        <v>33729.53794785612</v>
       </c>
       <c r="C244">
-        <v>5364.377964273928</v>
+        <v>874.4783611705705</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3069,10 +3069,10 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>46728.86021459247</v>
+        <v>38520.48477998746</v>
       </c>
       <c r="C245">
-        <v>6800.872538073062</v>
+        <v>2531.898544136021</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3080,10 +3080,10 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>44598.00217107276</v>
+        <v>36180.06518030642</v>
       </c>
       <c r="C246">
-        <v>8521.398919582194</v>
+        <v>4473.350534811471</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3091,10 +3091,10 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>49832.11853051331</v>
+        <v>41204.61998358566</v>
       </c>
       <c r="C247">
-        <v>9888.733314404853</v>
+        <v>6061.610538800449</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3102,10 +3102,10 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>40594.68183861746</v>
+        <v>31757.62173552847</v>
       </c>
       <c r="C248">
-        <v>2153.355429295083</v>
+        <v>-1452.841737143006</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3113,10 +3113,10 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>40411.77379247983</v>
+        <v>31365.15213322953</v>
       </c>
       <c r="C249">
-        <v>9036.403809619835</v>
+        <v>5651.132252348064</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3124,10 +3124,10 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>48868.24041436693</v>
+        <v>39612.05719895532</v>
       </c>
       <c r="C250">
-        <v>9699.476325575299</v>
+        <v>6535.130377469844</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3135,10 +3135,10 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>46683.48878757936</v>
+        <v>37427.30557216774</v>
       </c>
       <c r="C251">
-        <v>4067.174280798308</v>
+        <v>902.8283326928531</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3146,10 +3146,10 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>47721.65162226988</v>
+        <v>38729.23695510755</v>
       </c>
       <c r="C252">
-        <v>4851.869036128772</v>
+        <v>1688.380828532886</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3157,10 +3157,10 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>49888.62666257346</v>
+        <v>41159.98054366044</v>
       </c>
       <c r="C253">
-        <v>8229.658577990294</v>
+        <v>5067.028110903978</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3168,10 +3168,10 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>47881.39843582262</v>
+        <v>39416.52086515888</v>
       </c>
       <c r="C254">
-        <v>972.3352813383972</v>
+        <v>-2189.43744523835</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3179,10 +3179,10 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>46340.65206849363</v>
+        <v>38139.54304607918</v>
       </c>
       <c r="C255">
-        <v>7378.110350033613</v>
+        <v>4217.195363966435</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3190,10 +3190,10 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>47062.94233277751</v>
+        <v>39125.60185861237</v>
       </c>
       <c r="C256">
-        <v>8679.406033104871</v>
+        <v>5519.348787547262</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3201,10 +3201,10 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>49909.94707813986</v>
+        <v>42236.37515222399</v>
       </c>
       <c r="C257">
-        <v>7737.397081553558</v>
+        <v>4578.197576505516</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3212,10 +3212,10 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>43960.3106396929</v>
+        <v>36286.73871377703</v>
       </c>
       <c r="C258">
-        <v>5329.411696922899</v>
+        <v>2170.212191874858</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3223,10 +3223,10 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>44895.12898013656</v>
+        <v>37707.8217320063</v>
       </c>
       <c r="C259">
-        <v>5624.513535860699</v>
+        <v>2462.855581191995</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3234,10 +3234,10 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>37454.41706053253</v>
+        <v>30753.37449018788</v>
       </c>
       <c r="C260">
-        <v>5077.827854066374</v>
+        <v>1913.711449777009</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3245,10 +3245,10 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>43581.35161782676</v>
+        <v>37366.57372526769</v>
       </c>
       <c r="C261">
-        <v>9069.658797840528</v>
+        <v>5903.0839439305</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3256,10 +3256,10 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>39951.25527787283</v>
+        <v>34222.74206309936</v>
       </c>
       <c r="C262">
-        <v>6576.057271729591</v>
+        <v>3407.023968198902</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3267,10 +3267,10 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>38450.75867592799</v>
+        <v>33208.51013894012</v>
       </c>
       <c r="C263">
-        <v>3944.488834520302</v>
+        <v>772.9970813689499</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3278,10 +3278,10 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>34915.66302132609</v>
+        <v>30159.67916212382</v>
       </c>
       <c r="C264">
-        <v>6335.653268528722</v>
+        <v>3161.703065756708</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3289,10 +3289,10 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>38460.35372746867</v>
+        <v>33704.3698682664</v>
       </c>
       <c r="C265">
-        <v>1894.108688495489</v>
+        <v>-1279.841514276524</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3300,10 +3300,10 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>41231.6748714838</v>
+        <v>36946.72976344931</v>
       </c>
       <c r="C266">
-        <v>6834.351646058631</v>
+        <v>3657.783199177245</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3311,10 +3311,10 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>45553.72425047219</v>
+        <v>41739.81789360548</v>
       </c>
       <c r="C267">
-        <v>5567.211882421211</v>
+        <v>2388.025191430454</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3322,10 +3322,10 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>42683.72990399488</v>
+        <v>39340.86229829594</v>
       </c>
       <c r="C268">
-        <v>6475.79229082484</v>
+        <v>3293.987355724712</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3333,10 +3333,10 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>43154.27468765751</v>
+        <v>40282.44583312635</v>
       </c>
       <c r="C269">
-        <v>7030.800343675689</v>
+        <v>3846.377164466188</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3344,10 +3344,10 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>37195.75093607108</v>
+        <v>34794.9608327077</v>
       </c>
       <c r="C270">
-        <v>5560.136537934677</v>
+        <v>2373.095114615806</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3355,10 +3355,10 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>40681.92215051666</v>
+        <v>38752.17079832106</v>
       </c>
       <c r="C271">
-        <v>2892.655247155652</v>
+        <v>-297.0044202725926</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3366,10 +3366,10 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>33684.07730960743</v>
+        <v>31754.32595741183</v>
       </c>
       <c r="C272">
-        <v>1494.132197886474</v>
+        <v>-1695.52746954177</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3377,10 +3377,10 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>38677.92802219551</v>
+        <v>40137.0908137409</v>
       </c>
       <c r="C273">
-        <v>1813.032319436911</v>
+        <v>-1280.631155488685</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3388,10 +3388,10 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>38336.83190545153</v>
+        <v>43184.9088407379</v>
       </c>
       <c r="C274">
-        <v>4105.96750502555</v>
+        <v>1108.300222602603</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3399,10 +3399,10 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>29262.96569758842</v>
+        <v>37499.95677661579</v>
       </c>
       <c r="C275">
-        <v>5537.834340585487</v>
+        <v>2636.163250665186</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3410,10 +3410,10 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>26557.09961706854</v>
+        <v>38183.0048398369</v>
       </c>
       <c r="C276">
-        <v>8464.021408693377</v>
+        <v>5658.346511275726</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3421,10 +3421,10 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>25825.81820240071</v>
+        <v>40840.63756891005</v>
       </c>
       <c r="C277">
-        <v>2842.617827761964</v>
+        <v>132.9391228469613</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3432,10 +3432,10 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>31241.39490814068</v>
+        <v>49645.12841839101</v>
       </c>
       <c r="C278">
-        <v>4971.895374816422</v>
+        <v>2358.212862404068</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3443,10 +3443,10 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>31468.26003860687</v>
+        <v>49871.99354885719</v>
       </c>
       <c r="C279">
-        <v>4242.542457774573</v>
+        <v>1628.85994536222</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3454,10 +3454,10 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>26328.62047416825</v>
+        <v>44283.21983657815</v>
       </c>
       <c r="C280">
-        <v>2270.670947281661</v>
+        <v>36.35041571134343</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3465,10 +3465,10 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>25661.92222629763</v>
+        <v>43167.38744086711</v>
       </c>
       <c r="C281">
-        <v>2343.096202099673</v>
+        <v>488.1376513713917</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3476,10 +3476,10 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>23777.45230191747</v>
+        <v>40833.78336864653</v>
       </c>
       <c r="C282">
-        <v>6852.805335973839</v>
+        <v>5377.208766087593</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3487,10 +3487,10 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>19290.95290734321</v>
+        <v>35898.14982623183</v>
       </c>
       <c r="C283">
-        <v>4050.936191714043</v>
+        <v>2954.701602669834</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3498,10 +3498,10 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>24376.34941620896</v>
+        <v>40534.41218725716</v>
       </c>
       <c r="C284">
-        <v>3174.761074212789</v>
+        <v>2457.888466010616</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3509,10 +3509,10 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>25331.07740533523</v>
+        <v>41040.00602854301</v>
       </c>
       <c r="C285">
-        <v>4851.618526138223</v>
+        <v>4514.107898778087</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3520,10 +3520,10 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>24066.50488878886</v>
+        <v>39775.43351199664</v>
       </c>
       <c r="C286">
-        <v>4010.85827866006</v>
+        <v>3673.347651299923</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3531,10 +3531,10 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>26005.03605347401</v>
+        <v>41168.50915873185</v>
       </c>
       <c r="C287">
-        <v>4766.048428383297</v>
+        <v>4461.114013202142</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3542,10 +3542,10 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>24855.51848636215</v>
+        <v>39473.53607367002</v>
       </c>
       <c r="C288">
-        <v>493.1459508205112</v>
+        <v>220.7877478183382</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3553,10 +3553,10 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>25433.66510344304</v>
+        <v>39506.22717280097</v>
       </c>
       <c r="C289">
-        <v>5128.565821898541</v>
+        <v>4888.78383107535</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3564,10 +3564,10 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>25311.23661522281</v>
+        <v>38838.3431666308</v>
       </c>
       <c r="C290">
-        <v>6462.902895676764</v>
+        <v>6255.697117032556</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3575,10 +3575,10 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>22821.52963497635</v>
+        <v>35803.18066843438</v>
       </c>
       <c r="C291">
-        <v>5634.369088694285</v>
+        <v>5459.73952222906</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3586,10 +3586,10 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>26773.99315655253</v>
+        <v>39210.18867206061</v>
       </c>
       <c r="C292">
-        <v>5443.04453584728</v>
+        <v>5300.991181561036</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3597,10 +3597,10 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>26815.13754148556</v>
+        <v>39251.33305699364</v>
       </c>
       <c r="C293">
-        <v>6833.086565643537</v>
+        <v>6691.033211357293</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3608,10 +3608,10 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>25564.70383743526</v>
+        <v>38986.85375839734</v>
       </c>
       <c r="C294">
-        <v>2046.906755759494</v>
+        <v>2226.576626411434</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3619,10 +3619,10 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>24384.89423963802</v>
+        <v>38792.99856605409</v>
       </c>
       <c r="C295">
-        <v>216.5126869982851</v>
+        <v>717.9057825884083</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3630,10 +3630,10 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>23522.42926211371</v>
+        <v>38916.48799398378</v>
       </c>
       <c r="C296">
-        <v>3759.734570668205</v>
+        <v>4582.850891196512</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3641,10 +3641,10 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>28148.58031005713</v>
+        <v>44528.59344738119</v>
       </c>
       <c r="C297">
-        <v>-1901.27968709158</v>
+        <v>-756.4401416250907</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -3652,10 +3652,10 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>20691.65209728668</v>
+        <v>38057.61964006473</v>
       </c>
       <c r="C298">
-        <v>3032.070030378058</v>
+        <v>4498.632800782731</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3663,10 +3663,10 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>21868.76890025224</v>
+        <v>40220.69084848429</v>
       </c>
       <c r="C299">
-        <v>3104.498999558009</v>
+        <v>4892.784994900867</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3674,10 +3674,10 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>16946.8277634965</v>
+        <v>35298.74971172854</v>
       </c>
       <c r="C300">
-        <v>2737.206033378543</v>
+        <v>4525.4920287214</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3685,10 +3685,10 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>20346.77224460665</v>
+        <v>38140.01019768092</v>
       </c>
       <c r="C301">
-        <v>2241.54421468304</v>
+        <v>4202.126070383571</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3696,10 +3696,10 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>21399.65470512743</v>
+        <v>38634.20866304393</v>
       </c>
       <c r="C302">
-        <v>-1029.070448290094</v>
+        <v>1103.80726776811</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3707,10 +3707,10 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>22760.24321194282</v>
+        <v>39436.11317470155</v>
       </c>
       <c r="C303">
-        <v>-635.3360290454375</v>
+        <v>1669.837547370439</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -3718,10 +3718,10 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>22318.08241860859</v>
+        <v>38435.26838620956</v>
       </c>
       <c r="C304">
-        <v>-1445.743422201578</v>
+        <v>1031.726014571972</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -3729,10 +3729,10 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>24656.19625267072</v>
+        <v>40214.69822511391</v>
       </c>
       <c r="C305">
-        <v>3290.166697567799</v>
+        <v>5939.931994699022</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -3740,10 +3740,10 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>15442.89719928411</v>
+        <v>30442.71517656952</v>
       </c>
       <c r="C306">
-        <v>5297.273138837209</v>
+        <v>8119.334296326106</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -3751,10 +3751,10 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>21343.32529124104</v>
+        <v>36343.14326852645</v>
       </c>
       <c r="C307">
-        <v>2175.740497321744</v>
+        <v>4997.801654810641</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -3762,10 +3762,10 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>21222.35302845127</v>
+        <v>36613.16515229446</v>
       </c>
       <c r="C308">
-        <v>2499.719291050618</v>
+        <v>5430.030718886675</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -3773,10 +3773,10 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>17283.13989235366</v>
+        <v>33064.94616275463</v>
       </c>
       <c r="C309">
-        <v>-1358.270859641561</v>
+        <v>1680.290838541656</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -3784,10 +3784,10 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>18613.2380930304</v>
+        <v>34786.03850998914</v>
       </c>
       <c r="C310">
-        <v>-394.0345411856231</v>
+        <v>2752.777427344754</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -3795,10 +3795,10 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>20249.05853226407</v>
+        <v>36812.85309578058</v>
       </c>
       <c r="C311">
-        <v>-2162.48828016392</v>
+        <v>1092.573958713618</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -3806,10 +3806,10 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>20196.67525397149</v>
+        <v>37151.46396404577</v>
       </c>
       <c r="C312">
-        <v>4088.529642149262</v>
+        <v>7451.84215137396</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -3817,10 +3817,10 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>17538.93954748413</v>
+        <v>34884.72240411617</v>
       </c>
       <c r="C313">
-        <v>2267.783903482057</v>
+        <v>5739.346683053916</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -3828,10 +3828,10 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>22004.2039949665</v>
+        <v>39349.98685159855</v>
       </c>
       <c r="C314">
-        <v>470.6187446753952</v>
+        <v>3942.181524247254</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -3839,10 +3839,10 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>17464.37861264417</v>
+        <v>35133.97468218945</v>
       </c>
       <c r="C315">
-        <v>3869.278773597367</v>
+        <v>7381.767591477944</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -3850,10 +3850,10 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>18766.85148680218</v>
+        <v>36760.26076926068</v>
       </c>
       <c r="C316">
-        <v>-164.2045334176448</v>
+        <v>3389.210322771651</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -3861,10 +3861,10 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>12688.09871859173</v>
+        <v>31005.32121396344</v>
       </c>
       <c r="C317">
-        <v>-1094.172553870625</v>
+        <v>2500.168340627388</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -3872,10 +3872,10 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>13604.53299859055</v>
+        <v>32245.56870687549</v>
       </c>
       <c r="C318">
-        <v>3490.253771732715</v>
+        <v>7125.520704539445</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -3883,10 +3883,10 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>22218.11966276232</v>
+        <v>41182.96858396049</v>
       </c>
       <c r="C319">
-        <v>1739.712440911105</v>
+        <v>5415.905412026555</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -3894,10 +3894,10 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>15035.17450890582</v>
+        <v>34323.83664301722</v>
       </c>
       <c r="C320">
-        <v>273.3455550521359</v>
+        <v>3990.464564476303</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -3905,10 +3905,10 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>16274.28057414954</v>
+        <v>35562.94270826095</v>
       </c>
       <c r="C321">
-        <v>2124.055005303111</v>
+        <v>5841.174014727279</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -3916,10 +3916,10 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>17583.45259193582</v>
+        <v>38264.64133131729</v>
       </c>
       <c r="C322">
-        <v>2061.554929957858</v>
+        <v>5646.750298884016</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -3927,10 +3927,10 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>21433.53412199059</v>
+        <v>43507.24946664214</v>
       </c>
       <c r="C323">
-        <v>-764.9546251613118</v>
+        <v>2688.317103266836</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -3938,10 +3938,10 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>23853.49652472845</v>
+        <v>47319.73847465007</v>
       </c>
       <c r="C324">
-        <v>202.8104746208118</v>
+        <v>3524.158562550951</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -3949,10 +3949,10 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>20625.10119281492</v>
+        <v>45483.86974800662</v>
       </c>
       <c r="C325">
-        <v>-3899.845237659882</v>
+        <v>-710.4207902277526</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -3960,10 +3960,10 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>27215.44734333969</v>
+        <v>53466.74250380146</v>
       </c>
       <c r="C326">
-        <v>2603.478487310366</v>
+        <v>5660.979294244486</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -3971,10 +3971,10 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>26044.42490732991</v>
+        <v>53688.24667306175</v>
       </c>
       <c r="C327">
-        <v>3151.554467738582</v>
+        <v>6077.131634174691</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -3982,10 +3982,10 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>24044.1501718277</v>
+        <v>51687.97193755955</v>
       </c>
       <c r="C328">
-        <v>-2005.406730774667</v>
+        <v>920.1704356614423</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -3993,10 +3993,10 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>23964.58144482928</v>
+        <v>51331.86256630167</v>
       </c>
       <c r="C329">
-        <v>-2426.596122366818</v>
+        <v>349.3108104664921</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -4004,10 +4004,10 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>28236.17815725983</v>
+        <v>55326.91863447277</v>
       </c>
       <c r="C330">
-        <v>6918.476692821694</v>
+        <v>9544.713392052205</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -4015,10 +4015,10 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>26358.1171042781</v>
+        <v>53172.31693723158</v>
       </c>
       <c r="C331">
-        <v>1752.206193946323</v>
+        <v>4228.772659574035</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -4026,10 +4026,10 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>27992.7994210767</v>
+        <v>54530.45860977074</v>
       </c>
       <c r="C332">
-        <v>-463.9539692437211</v>
+        <v>1862.942262781192</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -4037,10 +4037,10 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>32051.22873646587</v>
+        <v>58312.34728090045</v>
       </c>
       <c r="C333">
-        <v>2801.92253000518</v>
+        <v>4979.148528427294</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -4048,10 +4048,10 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>32542.21269629159</v>
+        <v>58526.79059646672</v>
       </c>
       <c r="C334">
-        <v>985.0039575728952</v>
+        <v>3012.55972239221</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -4059,10 +4059,10 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>29432.74499590545</v>
+        <v>55417.32289608059</v>
       </c>
       <c r="C335">
-        <v>270.8919011637865</v>
+        <v>2298.447665983101</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -4070,10 +4070,10 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>37768.18493512245</v>
+        <v>61644.00685773214</v>
       </c>
       <c r="C336">
-        <v>3161.20489246659</v>
+        <v>5074.462150581391</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -4081,10 +4081,10 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>34842.3611611335</v>
+        <v>56609.42710617775</v>
       </c>
       <c r="C337">
-        <v>2429.333397696827</v>
+        <v>4228.292149107114</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -4092,10 +4092,10 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>39993.8283961854</v>
+        <v>59652.13836366421</v>
       </c>
       <c r="C338">
-        <v>821.8515693859822</v>
+        <v>2506.511814091755</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -4103,10 +4103,10 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>47033.54750242248</v>
+        <v>64583.10149233585</v>
       </c>
       <c r="C339">
-        <v>3814.835323323707</v>
+        <v>5385.197061324965</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -4114,10 +4114,10 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>52702.52956540434</v>
+        <v>68143.32757775226</v>
       </c>
       <c r="C340">
-        <v>2049.519138161482</v>
+        <v>3505.582369458227</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -4125,10 +4125,10 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>44680.08810304348</v>
+        <v>58012.13013782596</v>
       </c>
       <c r="C341">
-        <v>3805.815518744313</v>
+        <v>5147.580243336542</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -4136,10 +4136,10 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>49606.42202377073</v>
+        <v>62938.46405855321</v>
       </c>
       <c r="C342">
-        <v>185.2534821466943</v>
+        <v>1527.018206738924</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -4147,10 +4147,10 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>53423.23772053423</v>
+        <v>66094.8261040646</v>
       </c>
       <c r="C343">
-        <v>2105.059142707425</v>
+        <v>3586.424691070848</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -4158,10 +4158,10 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>61304.04093366365</v>
+        <v>73315.17566594189</v>
       </c>
       <c r="C344">
-        <v>252.9669678891041</v>
+        <v>1873.933340023718</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -4169,10 +4169,10 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>57113.66649093962</v>
+        <v>68464.34757196573</v>
       </c>
       <c r="C345">
-        <v>6654.707295328313</v>
+        <v>8415.274491234119</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -4180,10 +4180,10 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>60473.44188761765</v>
+        <v>71163.66931739164</v>
       </c>
       <c r="C346">
-        <v>3796.006930221387</v>
+        <v>5696.174949898385</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -4191,10 +4191,10 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>57872.03769556354</v>
+        <v>67901.81147408541</v>
       </c>
       <c r="C347">
-        <v>5318.210418196601</v>
+        <v>7357.979261644793</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -4202,10 +4202,10 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>72424.6968358868</v>
+        <v>81794.01696315655</v>
       </c>
       <c r="C348">
-        <v>4034.761675438685</v>
+        <v>6214.131342658068</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -4213,10 +4213,10 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>64323.43069788953</v>
+        <v>73692.75082515928</v>
       </c>
       <c r="C349">
-        <v>4012.439221818103</v>
+        <v>6191.808889037486</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -4224,10 +4224,10 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>65367.90027114335</v>
+        <v>75334.04951732932</v>
       </c>
       <c r="C350">
-        <v>3512.597458148275</v>
+        <v>5832.975024795636</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -4235,10 +4235,10 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>64580.68697255373</v>
+        <v>75143.66533765594</v>
       </c>
       <c r="C351">
-        <v>6426.446346123668</v>
+        <v>8887.831812199007</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -4246,10 +4246,10 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>64646.48096965549</v>
+        <v>75806.28845367393</v>
       </c>
       <c r="C352">
-        <v>4510.289565185436</v>
+        <v>7112.682930688754</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -4257,10 +4257,10 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>61425.47933103226</v>
+        <v>73182.11593396691</v>
       </c>
       <c r="C353">
-        <v>1128.838379623181</v>
+        <v>3872.239644554479</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -4268,10 +4268,10 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>57470.61223046121</v>
+        <v>69824.0779523121</v>
       </c>
       <c r="C354">
-        <v>6562.537853860223</v>
+        <v>9446.947018219502</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -4279,10 +4279,10 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>55767.97419477304</v>
+        <v>68718.26903554016</v>
       </c>
       <c r="C355">
-        <v>2861.912339421949</v>
+        <v>5887.329403209205</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -4290,10 +4290,10 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>55736.72696161174</v>
+        <v>68687.02180237886</v>
       </c>
       <c r="C356">
-        <v>2906.192188198402</v>
+        <v>5931.609251985658</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -4301,10 +4301,10 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>55915.1147781643</v>
+        <v>67869.36506647519</v>
       </c>
       <c r="C357">
-        <v>2428.022386957739</v>
+        <v>5406.379520845632</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -4312,10 +4312,10 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>53379.70654467154</v>
+        <v>64337.91228052623</v>
       </c>
       <c r="C358">
-        <v>-920.4821452156184</v>
+        <v>2010.815058772911</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -4323,10 +4323,10 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>61253.97989524629</v>
+        <v>71216.14107864475</v>
       </c>
       <c r="C359">
-        <v>3403.953605325623</v>
+        <v>6288.190879414787</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -4334,10 +4334,10 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>71053.31725167052</v>
+        <v>80019.43388261278</v>
       </c>
       <c r="C360">
-        <v>5242.735160401996</v>
+        <v>8079.912504591794</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -4345,10 +4345,10 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>67493.88828284458</v>
+        <v>75463.96036133062</v>
       </c>
       <c r="C361">
-        <v>4614.209425217082</v>
+        <v>7404.326839507517</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -4356,10 +4356,10 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>75851.76431007079</v>
+        <v>82825.79183610062</v>
       </c>
       <c r="C362">
-        <v>4765.497702733458</v>
+        <v>7508.555187124527</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -4367,10 +4367,10 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>75426.20546582875</v>
+        <v>82400.23299185857</v>
       </c>
       <c r="C363">
-        <v>4965.619971456136</v>
+        <v>7708.677455847205</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -4378,10 +4378,10 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>73931.34511562594</v>
+        <v>80905.37264165576</v>
       </c>
       <c r="C364">
-        <v>3297.012791737917</v>
+        <v>6040.070276128986</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -4389,10 +4389,10 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>70716.73930065436</v>
+        <v>77117.37308072232</v>
       </c>
       <c r="C365">
-        <v>3123.476290283646</v>
+        <v>5784.655358307543</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -4400,10 +4400,10 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>67261.8426969335</v>
+        <v>73089.0827310396</v>
       </c>
       <c r="C366">
-        <v>1351.633130627496</v>
+        <v>3930.93378228422</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -4411,10 +4411,10 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>58984.95920591557</v>
+        <v>64238.8054940598</v>
       </c>
       <c r="C367">
-        <v>1013.991821265402</v>
+        <v>3511.414056554955</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -4422,10 +4422,10 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>58108.10303928249</v>
+        <v>62788.55558146486</v>
       </c>
       <c r="C368">
-        <v>4475.090246311981</v>
+        <v>6890.634065234362</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -4433,10 +4433,10 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>53084.24410081872</v>
+        <v>57191.30289703922</v>
       </c>
       <c r="C369">
-        <v>3105.88956892603</v>
+        <v>5439.554971481239</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -4444,10 +4444,10 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>50251.68187513953</v>
+        <v>53785.34692539815</v>
       </c>
       <c r="C370">
-        <v>781.087859772842</v>
+        <v>3032.874845960879</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -4455,10 +4455,10 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>58990.16981015833</v>
+        <v>62523.83486041696</v>
       </c>
       <c r="C371">
-        <v>5458.061637857414</v>
+        <v>7709.84862404545</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -4466,10 +4466,10 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>46579.67174516657</v>
+        <v>51092.32718875641</v>
       </c>
       <c r="C372">
-        <v>-267.4690415444652</v>
+        <v>2202.950231822174</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -4477,10 +4477,10 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>46757.83252507955</v>
+        <v>52249.47836200061</v>
       </c>
       <c r="C373">
-        <v>2650.937441269494</v>
+        <v>5339.989001814735</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -4488,10 +4488,10 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>51534.24436260057</v>
+        <v>58004.88059285285</v>
       </c>
       <c r="C374">
-        <v>1953.653173701897</v>
+        <v>4861.337021425739</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -4499,10 +4499,10 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>43497.97224616919</v>
+        <v>50947.59886975268</v>
       </c>
       <c r="C375">
-        <v>4354.336904281528</v>
+        <v>7480.653039183971</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -4510,10 +4510,10 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>43615.63685468343</v>
+        <v>52044.25387159812</v>
       </c>
       <c r="C376">
-        <v>2759.28383355172</v>
+        <v>6104.232255632764</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -4521,10 +4521,10 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>43155.90938797867</v>
+        <v>52563.51679822458</v>
       </c>
       <c r="C377">
-        <v>3414.7278791596</v>
+        <v>6978.308588419245</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -4532,10 +4532,10 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>36470.92159889758</v>
+        <v>45878.52900914349</v>
       </c>
       <c r="C378">
-        <v>1818.688020194086</v>
+        <v>5382.268729453731</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -4543,10 +4543,10 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>40472.36461838422</v>
+        <v>53986.99952798021</v>
       </c>
       <c r="C379">
-        <v>1799.606769532377</v>
+        <v>5396.488371265403</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -4554,10 +4554,10 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>37977.83404404366</v>
+        <v>55599.49645298972</v>
       </c>
       <c r="C380">
-        <v>-1144.883690118851</v>
+        <v>2485.298804087555</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -4565,10 +4565,10 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>33068.46921181187</v>
+        <v>54797.159120108</v>
       </c>
       <c r="C381">
-        <v>1644.2266736918</v>
+        <v>5307.710060371587</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -4576,10 +4576,10 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>37149.02706626827</v>
+        <v>62984.74447391448</v>
       </c>
       <c r="C382">
-        <v>4033.079905113547</v>
+        <v>7729.864184266714</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -4587,10 +4587,10 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>38867.92651953543</v>
+        <v>68810.67142653173</v>
       </c>
       <c r="C383">
-        <v>3179.149984787178</v>
+        <v>6909.235156413727</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -4598,10 +4598,10 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>33698.10305656328</v>
+        <v>67747.87546290965</v>
       </c>
       <c r="C384">
-        <v>584.7133896524529</v>
+        <v>4348.099453752382</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -4609,10 +4609,10 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>29466.18094076423</v>
+        <v>63515.95334711061</v>
       </c>
       <c r="C385">
-        <v>83.90524415564096</v>
+        <v>3847.29130825557</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -4620,10 +4620,10 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>30061.64087311758</v>
+        <v>64359.48287289521</v>
       </c>
       <c r="C386">
-        <v>2128.729952032856</v>
+        <v>6007.803808910594</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -4631,10 +4631,10 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>34174.10528659025</v>
+        <v>68720.01687979912</v>
       </c>
       <c r="C387">
-        <v>3286.384413783844</v>
+        <v>7281.146063439392</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -4642,10 +4642,10 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>33421.80327709868</v>
+        <v>68215.7844637388</v>
       </c>
       <c r="C388">
-        <v>2612.099845241145</v>
+        <v>6722.549287674503</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -4653,10 +4653,10 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>35507.86616036096</v>
+        <v>70549.91694043232</v>
       </c>
       <c r="C389">
-        <v>3544.33290714801</v>
+        <v>7770.470142359178</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -4664,10 +4664,10 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>34834.60869040306</v>
+        <v>70124.72906390567</v>
       </c>
       <c r="C390">
-        <v>638.7863548940452</v>
+        <v>4980.611382883022</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -4675,10 +4675,10 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>36639.65025966996</v>
+        <v>72177.8402266038</v>
       </c>
       <c r="C391">
-        <v>-32.42356054235688</v>
+        <v>4425.08926022443</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -4686,10 +4686,10 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>32871.05167126723</v>
+        <v>68409.24163820107</v>
       </c>
       <c r="C392">
-        <v>3996.073898241627</v>
+        <v>8453.586719008414</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -4697,10 +4697,10 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>38480.12605881845</v>
+        <v>67285.10684426055</v>
       </c>
       <c r="C393">
-        <v>-1260.374295228639</v>
+        <v>2834.788599702365</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -4708,10 +4708,10 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>45916.02153354731</v>
+        <v>67987.79313749765</v>
       </c>
       <c r="C394">
-        <v>858.471390315412</v>
+        <v>4591.284359410636</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -4719,10 +4719,10 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>51215.74446001466</v>
+        <v>66554.30688247322</v>
       </c>
       <c r="C395">
-        <v>2810.74543552361</v>
+        <v>6181.208478783052</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -4730,10 +4730,10 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>62397.91142695213</v>
+        <v>71003.26466791893</v>
       </c>
       <c r="C396">
-        <v>2540.95272466248</v>
+        <v>5549.065842086141</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -4741,10 +4741,10 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>70327.31383871075</v>
+        <v>72199.45789818579</v>
       </c>
       <c r="C397">
-        <v>2442.487108379606</v>
+        <v>5088.250299967485</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -4752,10 +4752,10 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>73495.87985065332</v>
+        <v>68634.81472863659</v>
       </c>
       <c r="C398">
-        <v>3722.802835485815</v>
+        <v>6006.216101237912</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -4763,10 +4763,10 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>70319.21227581782</v>
+        <v>65458.14715380109</v>
       </c>
       <c r="C399">
-        <v>2988.399656056637</v>
+        <v>5271.812921808735</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -4774,10 +4774,10 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>76510.44256578114</v>
+        <v>67388.30456104809</v>
       </c>
       <c r="C400">
-        <v>3740.513351901537</v>
+        <v>5424.229063640658</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -4785,10 +4785,10 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>84618.18560231311</v>
+        <v>71234.97471486377</v>
       </c>
       <c r="C401">
-        <v>6034.529711613509</v>
+        <v>7118.547869339654</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -4796,10 +4796,10 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>88912.99679687001</v>
+        <v>71268.71302670437</v>
       </c>
       <c r="C402">
-        <v>7312.498043255477</v>
+        <v>7796.818646968646</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -4807,10 +4807,10 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>91183.58383341963</v>
+        <v>69278.22718053768</v>
       </c>
       <c r="C403">
-        <v>7071.144735968268</v>
+        <v>6955.767785668462</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -4818,10 +4818,10 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>91718.92316295939</v>
+        <v>65552.49362736112</v>
       </c>
       <c r="C404">
-        <v>7330.737824621328</v>
+        <v>6615.663320308549</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -4829,10 +4829,10 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>99488.99676454809</v>
+        <v>69061.49434623352</v>
       </c>
       <c r="C405">
-        <v>9235.593314952686</v>
+        <v>7920.821256626932</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -4840,10 +4840,10 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>93651.29463598398</v>
+        <v>63223.79221766941</v>
       </c>
       <c r="C406">
-        <v>10321.57883531616</v>
+        <v>9006.806776990403</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -4851,10 +4851,10 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>96918.8673606549</v>
+        <v>68709.43026253118</v>
       </c>
       <c r="C407">
-        <v>6017.873491092017</v>
+        <v>6107.008068945911</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -4862,10 +4862,10 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>97022.64438619214</v>
+        <v>71031.27260825929</v>
       </c>
       <c r="C408">
-        <v>8861.201413283816</v>
+        <v>10354.24262731736</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -4873,10 +4873,10 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>85608.89976852613</v>
+        <v>61835.59331078413</v>
       </c>
       <c r="C409">
-        <v>5551.271567474072</v>
+        <v>8448.219417687269</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -4884,10 +4884,10 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>90382.76372128195</v>
+        <v>68827.52258373081</v>
       </c>
       <c r="C410">
-        <v>7549.183435763152</v>
+        <v>11850.037922156</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -4895,10 +4895,10 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>89885.64607228126</v>
+        <v>70548.47025492098</v>
       </c>
       <c r="C411">
-        <v>8906.004117811963</v>
+        <v>14610.76524038446</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -4906,10 +4906,10 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>90783.5528681932</v>
+        <v>73664.4423710238</v>
       </c>
       <c r="C412">
-        <v>6368.694166986274</v>
+        <v>13477.36192573842</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -4917,10 +4917,10 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>82196.80119842968</v>
+        <v>65077.69070126027</v>
       </c>
       <c r="C413">
-        <v>5313.967912065383</v>
+        <v>12422.63567081753</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -4928,10 +4928,10 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>86867.5403242435</v>
+        <v>68596.14963196589</v>
       </c>
       <c r="C414">
-        <v>5813.348212041275</v>
+        <v>12621.88399141095</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -4939,10 +4939,10 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>82536.87627191635</v>
+        <v>63113.20538453054</v>
       </c>
       <c r="C415">
-        <v>7810.130983030607</v>
+        <v>14318.53478301781</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -4950,10 +4950,10 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>94363.63659650253</v>
+        <v>73787.68551400855</v>
       </c>
       <c r="C416">
-        <v>10504.25712450622</v>
+        <v>16712.52894511095</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -4961,10 +4961,10 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>87111.86515631722</v>
+        <v>65383.63387871504</v>
       </c>
       <c r="C417">
-        <v>6673.386866712793</v>
+        <v>12581.52670793505</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -4972,10 +4972,10 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>89506.38153420793</v>
+        <v>66625.87006149757</v>
       </c>
       <c r="C418">
-        <v>11198.51692089685</v>
+        <v>16806.52478273663</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -4983,10 +4983,10 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>95631.52479985249</v>
+        <v>71598.73313203393</v>
       </c>
       <c r="C419">
-        <v>10541.9066459436</v>
+        <v>15849.78252840091</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -4994,10 +4994,10 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>96856.49182877353</v>
+        <v>72823.70016095498</v>
       </c>
       <c r="C420">
-        <v>6739.297699006307</v>
+        <v>12047.17358146362</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -5005,10 +5005,10 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>89224.97864260947</v>
+        <v>69042.19397764535</v>
       </c>
       <c r="C421">
-        <v>6260.272677647727</v>
+        <v>12126.8368620378</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -5016,10 +5016,10 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>84437.96586744627</v>
+        <v>68105.1882053366</v>
       </c>
       <c r="C422">
-        <v>11354.02647086189</v>
+        <v>17779.27895718472</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -5027,10 +5027,10 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>85202.88607982418</v>
+        <v>72720.11542056894</v>
       </c>
       <c r="C423">
-        <v>9752.489551427559</v>
+        <v>16736.43033968315</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -5038,10 +5038,10 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>78587.52209302138</v>
+        <v>69954.7584366206</v>
       </c>
       <c r="C424">
-        <v>12068.54784742048</v>
+        <v>19611.17693760882</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -5049,10 +5049,10 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>79315.50005732386</v>
+        <v>74532.74340377751</v>
       </c>
       <c r="C425">
-        <v>8349.782952386628</v>
+        <v>16451.10034450773</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -5060,10 +5060,10 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>82584.60816035961</v>
+        <v>81651.85850966771</v>
       </c>
       <c r="C426">
-        <v>10515.49411077402</v>
+        <v>19175.49980482787</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -5071,10 +5071,10 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>74900.99746030101</v>
+        <v>73968.24780960911</v>
       </c>
       <c r="C427">
-        <v>6048.682877661256</v>
+        <v>14708.68857171511</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -5082,10 +5082,10 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>78106.05977772253</v>
+        <v>74622.36573473411</v>
       </c>
       <c r="C428">
-        <v>10941.64062113213</v>
+        <v>20017.20330481723</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -5093,10 +5093,10 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>76037.47162791752</v>
+        <v>70002.83319263256</v>
       </c>
       <c r="C429">
-        <v>8408.795616809984</v>
+        <v>17899.91529012633</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -5104,10 +5104,10 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>87224.20337209676</v>
+        <v>78638.62054451529</v>
       </c>
       <c r="C430">
-        <v>4368.403232157038</v>
+        <v>14275.07989510463</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -5115,10 +5115,10 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>83950.64180385113</v>
+        <v>72814.11458397313</v>
       </c>
       <c r="C431">
-        <v>8074.721048940705</v>
+        <v>18396.95470151955</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -5126,10 +5126,10 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>85215.21315306699</v>
+        <v>71527.74154089244</v>
       </c>
       <c r="C432">
-        <v>8140.805448755844</v>
+        <v>18878.59609096594</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -5137,10 +5137,10 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>83358.66482561223</v>
+        <v>67120.24882114115</v>
       </c>
       <c r="C433">
-        <v>9038.079744178682</v>
+        <v>20191.42737602002</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -5148,10 +5148,10 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>86944.10712494326</v>
+        <v>70705.69112047218</v>
       </c>
       <c r="C434">
-        <v>4750.651208140138</v>
+        <v>15903.99883998148</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -5159,10 +5159,10 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>84955.48548116209</v>
+        <v>67828.28601353383</v>
       </c>
       <c r="C435">
-        <v>5981.271344402253</v>
+        <v>17019.75566809903</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -5170,10 +5170,10 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>89074.02607275128</v>
+        <v>71058.04314196584</v>
       </c>
       <c r="C436">
-        <v>8331.08857996111</v>
+        <v>19254.70959551334</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -5181,10 +5181,10 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>93437.81264943213</v>
+        <v>74533.04625548952</v>
       </c>
       <c r="C437">
-        <v>3966.251694618459</v>
+        <v>14775.00940202612</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -5192,10 +5192,10 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>82522.72122219997</v>
+        <v>62729.17136510017</v>
       </c>
       <c r="C438">
-        <v>8449.657696548164</v>
+        <v>19143.55209581127</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -5203,10 +5203,10 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>86894.74788474508</v>
+        <v>66212.41456448811</v>
       </c>
       <c r="C439">
-        <v>6493.85622455761</v>
+        <v>17072.88731567616</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -5214,10 +5214,10 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>97525.8273998082</v>
+        <v>75954.71061639405</v>
       </c>
       <c r="C440">
-        <v>4825.502294443389</v>
+        <v>15289.67007741739</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -5225,10 +5225,10 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>95180.32662248224</v>
+        <v>73609.20983906809</v>
       </c>
       <c r="C441">
-        <v>4380.383290251447</v>
+        <v>14844.55107322544</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -5236,10 +5236,10 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>96991.43444051448</v>
+        <v>77103.23274488148</v>
       </c>
       <c r="C442">
-        <v>9979.747308836944</v>
+        <v>20987.760928053</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -5247,10 +5247,10 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>94665.92643092052</v>
+        <v>76460.63982306866</v>
       </c>
       <c r="C443">
-        <v>10316.66539949267</v>
+        <v>21868.52485495079</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -5258,10 +5258,10 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>91809.08024467475</v>
+        <v>75286.70872460405</v>
       </c>
       <c r="C444">
-        <v>6105.072452473282</v>
+        <v>18200.77774417345</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -5269,10 +5269,10 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>86465.1568740049</v>
+        <v>71625.70044171534</v>
       </c>
       <c r="C445">
-        <v>8279.353907966915</v>
+        <v>20918.90503590915</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -5280,10 +5280,10 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>86193.08314448816</v>
+        <v>73036.54179997975</v>
       </c>
       <c r="C446">
-        <v>7060.763159976493</v>
+        <v>20244.16012416078</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -5291,10 +5291,10 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>94997.05536221869</v>
+        <v>83523.42910549142</v>
       </c>
       <c r="C447">
-        <v>6299.943221721941</v>
+        <v>20027.18602214829</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -5302,10 +5302,10 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>83735.8270177104</v>
+        <v>72262.20076098313</v>
       </c>
       <c r="C448">
-        <v>8472.561816448466</v>
+        <v>22199.80461687481</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -5313,10 +5313,10 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>87753.30900134533</v>
+        <v>78695.81144729446</v>
       </c>
       <c r="C449">
-        <v>5516.545580953554</v>
+        <v>19297.86458279402</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -5324,10 +5324,10 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>89166.80669523872</v>
+        <v>82525.43784386425</v>
       </c>
       <c r="C450">
-        <v>7311.544303868883</v>
+        <v>21146.93950712348</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -5335,10 +5335,10 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>85118.37533248303</v>
+        <v>80893.13518378497</v>
       </c>
       <c r="C451">
-        <v>13044.66714169879</v>
+        <v>26934.1385463675</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -5346,10 +5346,10 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>78494.90619337998</v>
+        <v>76685.7947473583</v>
       </c>
       <c r="C452">
-        <v>5785.148662410182</v>
+        <v>19728.69626849302</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -5357,10 +5357,10 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>73329.15537641007</v>
+        <v>73936.17263306481</v>
       </c>
       <c r="C453">
-        <v>4791.779994817396</v>
+        <v>18789.40380231436</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -5368,10 +5368,10 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>85801.47001231335</v>
+        <v>88824.61597164451</v>
       </c>
       <c r="C454">
-        <v>8468.67766842446</v>
+        <v>22520.37767733555</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -5379,10 +5379,10 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>81680.84147752624</v>
+        <v>84703.98743685739</v>
       </c>
       <c r="C455">
-        <v>9514.997802170599</v>
+        <v>23566.69781108169</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -5390,10 +5390,10 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>86103.66628879309</v>
+        <v>86043.73787200998</v>
       </c>
       <c r="C456">
-        <v>5307.339609190576</v>
+        <v>18954.98618435519</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -5401,10 +5401,10 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>83829.40337821419</v>
+        <v>80686.40058531682</v>
       </c>
       <c r="C457">
-        <v>10230.66642946814</v>
+        <v>23474.25957088628</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -5412,10 +5412,10 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>85525.54046682775</v>
+        <v>79299.46329781611</v>
       </c>
       <c r="C458">
-        <v>7951.57270878262</v>
+        <v>20791.11241645429</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -5423,10 +5423,10 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>82773.27396734225</v>
+        <v>73464.12242221633</v>
       </c>
       <c r="C459">
-        <v>11237.11717519625</v>
+        <v>23672.60344912145</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -5434,10 +5434,10 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>91505.92084635606</v>
+        <v>79113.69492511588</v>
       </c>
       <c r="C460">
-        <v>10361.92536924629</v>
+        <v>22393.35820942501</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -5445,10 +5445,10 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>95016.78984110546</v>
+        <v>79541.489543751</v>
       </c>
       <c r="C461">
-        <v>11884.52827762061</v>
+        <v>23511.90768405285</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -5456,10 +5456,10 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>96314.51537188851</v>
+        <v>80839.21507453405</v>
       </c>
       <c r="C462">
-        <v>8308.52856382867</v>
+        <v>19935.90797026091</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -5467,10 +5467,10 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>93435.7473220793</v>
+        <v>79029.58217789308</v>
       </c>
       <c r="C463">
-        <v>11511.84645035507</v>
+        <v>23315.29555265129</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -5478,10 +5478,10 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>97438.6409317675</v>
+        <v>84101.61094074954</v>
       </c>
       <c r="C464">
-        <v>7733.721437161641</v>
+        <v>19713.24023532183</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -5489,10 +5489,10 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>88715.82097852214</v>
+        <v>76447.92614067241</v>
       </c>
       <c r="C465">
-        <v>11649.76385346749</v>
+        <v>23805.35234749166</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -5500,10 +5500,10 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>91822.82709003385</v>
+        <v>80624.06740535237</v>
       </c>
       <c r="C466">
-        <v>9780.234142026164</v>
+        <v>22111.89233191431</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -5511,10 +5511,10 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>89557.83909131629</v>
+        <v>79428.21455980303</v>
       </c>
       <c r="C467">
-        <v>10242.63555522728</v>
+        <v>22750.3634409794</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -5522,10 +5522,10 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>84639.29779660961</v>
+        <v>75578.80841826461</v>
       </c>
       <c r="C468">
-        <v>9522.556084355778</v>
+        <v>22206.35366597187</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -5533,10 +5533,10 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>84055.77932363638</v>
+        <v>74995.28994529138</v>
       </c>
       <c r="C469">
-        <v>8739.097335681967</v>
+        <v>21422.89491729806</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -5544,10 +5544,10 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>85936.92838576488</v>
+        <v>77504.14907573356</v>
       </c>
       <c r="C470">
-        <v>7458.105290661358</v>
+        <v>19694.57313924515</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -5555,10 +5555,10 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>87587.02803358229</v>
+        <v>79781.95879186464</v>
       </c>
       <c r="C471">
-        <v>8566.991087016229</v>
+        <v>20356.12920256773</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -5566,10 +5566,10 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>91560.47605735163</v>
+        <v>84383.11688394766</v>
       </c>
       <c r="C472">
-        <v>11818.72821664205</v>
+        <v>23160.53659916125</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -5577,10 +5577,10 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>90146.00863784307</v>
+        <v>83596.35953275277</v>
       </c>
       <c r="C473">
-        <v>10966.86888057308</v>
+        <v>21861.34753005999</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -5588,10 +5588,10 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>92168.14644145481</v>
+        <v>86246.20740467819</v>
       </c>
       <c r="C474">
-        <v>15328.84189903887</v>
+        <v>25775.99081549347</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -5599,10 +5599,10 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>87425.92684941328</v>
+        <v>82131.69788095035</v>
       </c>
       <c r="C475">
-        <v>12411.41060121924</v>
+        <v>22411.22978464154</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -5610,10 +5610,10 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>86558.73029731447</v>
+        <v>81264.50132885153</v>
       </c>
       <c r="C476">
-        <v>10285.49948037584</v>
+        <v>20285.31866379815</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -5621,10 +5621,10 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>84851.21247758091</v>
+        <v>82496.93540990853</v>
       </c>
       <c r="C477">
-        <v>11586.79039509682</v>
+        <v>21694.60661652304</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -5632,10 +5632,10 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>80448.45282864038</v>
+        <v>81034.12766175855</v>
       </c>
       <c r="C478">
-        <v>18202.08762117925</v>
+        <v>28417.90088060939</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -5643,10 +5643,10 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>80452.0314210169</v>
+        <v>83977.65815492562</v>
       </c>
       <c r="C479">
-        <v>10440.79102282458</v>
+        <v>20764.60132025863</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -5654,10 +5654,10 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>71745.14739573663</v>
+        <v>78210.72603043591</v>
       </c>
       <c r="C480">
-        <v>10328.91858182444</v>
+        <v>20760.72591726241</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -5665,10 +5665,10 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>68027.7842696422</v>
+        <v>77433.31480513205</v>
       </c>
       <c r="C481">
-        <v>15131.58960928388</v>
+        <v>25671.39398272578</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -5676,10 +5676,10 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>71849.93232099651</v>
+        <v>84195.41475727693</v>
       </c>
       <c r="C482">
-        <v>10436.04234790276</v>
+        <v>21083.84375934857</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -5687,10 +5687,10 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>72255.02527510902</v>
+        <v>84600.50771138944</v>
       </c>
       <c r="C483">
-        <v>12287.51724692017</v>
+        <v>22935.31865836598</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -5698,10 +5698,10 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>74374.54019847505</v>
+        <v>85355.57017831976</v>
       </c>
       <c r="C484">
-        <v>9768.345887394529</v>
+        <v>19666.75161381995</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -5709,10 +5709,10 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>70121.88403661428</v>
+        <v>79738.46156002329</v>
       </c>
       <c r="C485">
-        <v>14638.47651525885</v>
+        <v>23787.48655666387</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -5720,10 +5720,10 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>75137.33030301487</v>
+        <v>83389.45536998818</v>
       </c>
       <c r="C486">
-        <v>12377.11770083797</v>
+        <v>20776.73205722261</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -5731,10 +5731,10 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>75643.62159964949</v>
+        <v>82531.29421018706</v>
       </c>
       <c r="C487">
-        <v>14370.70996399483</v>
+        <v>22020.92863535907</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -5742,10 +5742,10 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>80028.11861107909</v>
+        <v>85551.33876518095</v>
       </c>
       <c r="C488">
-        <v>12925.01019148927</v>
+        <v>19825.83317783312</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -5753,10 +5753,10 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>79897.7586879218</v>
+        <v>84056.52638558796</v>
       </c>
       <c r="C489">
-        <v>17981.72456137248</v>
+        <v>24133.15186269593</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -5764,10 +5764,10 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>75229.70233895585</v>
+        <v>79388.47003662201</v>
       </c>
       <c r="C490">
-        <v>13680.80460420532</v>
+        <v>19832.23190552877</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -5775,10 +5775,10 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>78801.34552464608</v>
+        <v>83105.56046267078</v>
       </c>
       <c r="C491">
-        <v>18474.41427332299</v>
+        <v>24472.0086922756</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -5786,10 +5786,10 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>82074.53389596654</v>
+        <v>86524.19607434979</v>
       </c>
       <c r="C492">
-        <v>16133.09523617538</v>
+        <v>21976.85677275716</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -5797,10 +5797,10 @@
         <v>491</v>
       </c>
       <c r="B493">
-        <v>79010.37648745636</v>
+        <v>83605.48590619817</v>
       </c>
       <c r="C493">
-        <v>14452.31012061673</v>
+        <v>20142.23877482768</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -5808,10 +5808,10 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>85545.35047662124</v>
+        <v>90285.9071357216</v>
       </c>
       <c r="C494">
-        <v>16063.28050676032</v>
+        <v>21599.37627860044</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -5819,10 +5819,10 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>81572.77106183354</v>
+        <v>86458.77496129245</v>
       </c>
       <c r="C495">
-        <v>16514.03379172547</v>
+        <v>21896.29668119476</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -5830,10 +5830,10 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>81878.07190161015</v>
+        <v>86909.52304142763</v>
       </c>
       <c r="C496">
-        <v>17229.41831898621</v>
+        <v>22457.84832608466</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -5841,10 +5841,10 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>80686.918593757</v>
+        <v>85718.36973357448</v>
       </c>
       <c r="C497">
-        <v>18232.61448739968</v>
+        <v>23461.04449449813</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -5852,10 +5852,10 @@
         <v>496</v>
       </c>
       <c r="B498">
-        <v>77733.37466360857</v>
+        <v>81746.08599953739</v>
       </c>
       <c r="C498">
-        <v>15065.07589389824</v>
+        <v>19401.82206366304</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -5863,10 +5863,10 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>82418.2452280518</v>
+        <v>85412.21676009196</v>
       </c>
       <c r="C499">
-        <v>14491.41539561034</v>
+        <v>17936.47772804149</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -5874,10 +5874,10 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>77722.77059020827</v>
+        <v>79698.00231835977</v>
       </c>
       <c r="C500">
-        <v>17487.00751642987</v>
+        <v>20040.38601152738</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -5885,10 +5885,10 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>84351.14940370561</v>
+        <v>85307.64132796843</v>
       </c>
       <c r="C501">
-        <v>17460.84900076415</v>
+        <v>19122.54365852801</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -5896,10 +5896,10 @@
         <v>500</v>
       </c>
       <c r="B502">
-        <v>88218.48806132983</v>
+        <v>88156.24018170401</v>
       </c>
       <c r="C502">
-        <v>13197.20668485421</v>
+        <v>13967.21750528443</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -5907,10 +5907,10 @@
         <v>501</v>
       </c>
       <c r="B503">
-        <v>78179.60022070656</v>
+        <v>77098.61253719205</v>
       </c>
       <c r="C503">
-        <v>14575.4195841925</v>
+        <v>14453.74656728908</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -5918,10 +5918,10 @@
         <v>502</v>
       </c>
       <c r="B504">
-        <v>89305.62594228546</v>
+        <v>88224.63825877095</v>
       </c>
       <c r="C504">
-        <v>16799.86337838809</v>
+        <v>16678.19036148467</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -5929,10 +5929,10 @@
         <v>503</v>
       </c>
       <c r="B505">
-        <v>88122.38327564743</v>
+        <v>87611.29790555727</v>
       </c>
       <c r="C505">
-        <v>17929.72455870597</v>
+        <v>17829.98233400444</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -5940,10 +5940,10 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>83065.70162138341</v>
+        <v>83124.51856471758</v>
       </c>
       <c r="C506">
-        <v>14111.66120331659</v>
+        <v>14033.84977081694</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -5951,10 +5951,10 @@
         <v>505</v>
       </c>
       <c r="B507">
-        <v>86606.50124448698</v>
+        <v>87235.22050124547</v>
       </c>
       <c r="C507">
-        <v>17679.62993572176</v>
+        <v>17623.749295424</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -5962,10 +5962,10 @@
         <v>506</v>
       </c>
       <c r="B508">
-        <v>79206.40773103535</v>
+        <v>80405.02930121819</v>
       </c>
       <c r="C508">
-        <v>15166.15078735794</v>
+        <v>15132.20093926208</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -5973,10 +5973,10 @@
         <v>507</v>
       </c>
       <c r="B509">
-        <v>83071.05908279686</v>
+        <v>84839.58296640404</v>
       </c>
       <c r="C509">
-        <v>15548.59078845465</v>
+        <v>15536.57173256067</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -5984,10 +5984,10 @@
         <v>508</v>
       </c>
       <c r="B510">
-        <v>80059.39435655352</v>
+        <v>82397.82055358504</v>
       </c>
       <c r="C510">
-        <v>15688.37737404487</v>
+        <v>15698.28911035278</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -5995,10 +5995,10 @@
         <v>509</v>
       </c>
       <c r="B511">
-        <v>83348.55865930067</v>
+        <v>85686.9848563322</v>
       </c>
       <c r="C511">
-        <v>18246.31310397266</v>
+        <v>18256.22484028058</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -6006,10 +6006,10 @@
         <v>510</v>
       </c>
       <c r="B512">
-        <v>77328.82751645478</v>
+        <v>81941.26031726992</v>
       </c>
       <c r="C512">
-        <v>15459.80008483377</v>
+        <v>15715.09471549226</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -6017,10 +6017,10 @@
         <v>511</v>
       </c>
       <c r="B513">
-        <v>81461.05623929824</v>
+        <v>88347.495643897</v>
       </c>
       <c r="C513">
-        <v>16757.67894708192</v>
+        <v>17258.35647209099</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -6028,10 +6028,10 @@
         <v>512</v>
       </c>
       <c r="B514">
-        <v>75860.40811390526</v>
+        <v>85020.85412228764</v>
       </c>
       <c r="C514">
-        <v>14617.48119771275</v>
+        <v>15363.54161707238</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -6039,10 +6039,10 @@
         <v>513</v>
       </c>
       <c r="B515">
-        <v>76280.44880660194</v>
+        <v>87714.90141876791</v>
       </c>
       <c r="C515">
-        <v>12984.40066545539</v>
+        <v>13975.8439791656</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -6050,10 +6050,10 @@
         <v>514</v>
       </c>
       <c r="B516">
-        <v>71271.95837071686</v>
+        <v>84980.41758666644</v>
       </c>
       <c r="C516">
-        <v>11289.91676246691</v>
+        <v>12526.74297052769</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -6061,10 +6061,10 @@
         <v>515</v>
       </c>
       <c r="B517">
-        <v>72694.50247731624</v>
+        <v>88676.96829704943</v>
       </c>
       <c r="C517">
-        <v>14039.66728763265</v>
+        <v>15521.87639004401</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -6072,10 +6072,10 @@
         <v>516</v>
       </c>
       <c r="B518">
-        <v>74671.87906855624</v>
+        <v>90654.34488828943</v>
       </c>
       <c r="C518">
-        <v>19318.21806187043</v>
+        <v>20800.42716428179</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -6083,10 +6083,10 @@
         <v>517</v>
       </c>
       <c r="B519">
-        <v>66755.47454047948</v>
+        <v>84388.69598568935</v>
       </c>
       <c r="C519">
-        <v>12544.93116936526</v>
+        <v>14412.2532331399</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -6094,10 +6094,10 @@
         <v>518</v>
       </c>
       <c r="B520">
-        <v>71118.62346294726</v>
+        <v>90402.60053363383</v>
       </c>
       <c r="C520">
-        <v>17579.51439261655</v>
+        <v>19831.94941775448</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -6105,10 +6105,10 @@
         <v>519</v>
       </c>
       <c r="B521">
-        <v>66242.82529882556</v>
+        <v>87177.55799498882</v>
       </c>
       <c r="C521">
-        <v>11573.31736264285</v>
+        <v>14210.86534914406</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -6116,10 +6116,10 @@
         <v>520</v>
       </c>
       <c r="B522">
-        <v>67814.77648181573</v>
+        <v>90400.26480345569</v>
       </c>
       <c r="C522">
-        <v>9578.481323553089</v>
+        <v>12601.1422714176</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -6127,10 +6127,10 @@
         <v>521</v>
       </c>
       <c r="B523">
-        <v>62511.82677490716</v>
+        <v>86748.07072202383</v>
       </c>
       <c r="C523">
-        <v>8651.040310659009</v>
+        <v>12058.8142198868</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -6138,10 +6138,10 @@
         <v>522</v>
       </c>
       <c r="B524">
-        <v>56398.68780891741</v>
+        <v>82285.68738151077</v>
       </c>
       <c r="C524">
-        <v>16438.89809265101</v>
+        <v>20231.78496324209</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -6149,10 +6149,10 @@
         <v>523</v>
       </c>
       <c r="B525">
-        <v>67907.41141094684</v>
+        <v>93794.41098354019</v>
       </c>
       <c r="C525">
-        <v>13650.30693951237</v>
+        <v>17443.19381010345</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -6160,10 +6160,10 @@
         <v>524</v>
       </c>
       <c r="B526">
-        <v>65866.95913945763</v>
+        <v>91287.04729479367</v>
       </c>
       <c r="C526">
-        <v>11943.84015773544</v>
+        <v>15575.55087233561</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -6171,10 +6171,10 @@
         <v>525</v>
       </c>
       <c r="B527">
-        <v>62707.21907548564</v>
+        <v>87660.39581356439</v>
       </c>
       <c r="C527">
-        <v>15418.31552115075</v>
+        <v>18888.85007976001</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -6182,10 +6182,10 @@
         <v>526</v>
       </c>
       <c r="B528">
-        <v>65034.38212070247</v>
+        <v>89520.64744152389</v>
       </c>
       <c r="C528">
-        <v>11221.49150376376</v>
+        <v>14530.84990638209</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -6193,10 +6193,10 @@
         <v>527</v>
       </c>
       <c r="B529">
-        <v>66378.05165843479</v>
+        <v>90397.40556199892</v>
       </c>
       <c r="C529">
-        <v>13263.32509826898</v>
+        <v>16411.50734489639</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -6204,10 +6204,10 @@
         <v>528</v>
       </c>
       <c r="B530">
-        <v>69425.70210938025</v>
+        <v>92978.14459568706</v>
       </c>
       <c r="C530">
-        <v>11201.74067997178</v>
+        <v>14188.74677060829</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -6215,10 +6215,10 @@
         <v>529</v>
       </c>
       <c r="B531">
-        <v>64727.41839197749</v>
+        <v>87812.949461027</v>
       </c>
       <c r="C531">
-        <v>11021.48002405731</v>
+        <v>13847.3099587029</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -6226,10 +6226,10 @@
         <v>530</v>
       </c>
       <c r="B532">
-        <v>69017.35597035756</v>
+        <v>92102.88703940707</v>
       </c>
       <c r="C532">
-        <v>13701.74024918627</v>
+        <v>16527.57018383185</v>
       </c>
     </row>
     <row r="533" spans="1:3">
@@ -6237,10 +6237,10 @@
         <v>531</v>
       </c>
       <c r="B533">
-        <v>67040.12616749333</v>
+        <v>90660.76067799129</v>
       </c>
       <c r="C533">
-        <v>14431.77753386074</v>
+        <v>17092.63455395863</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -6248,10 +6248,10 @@
         <v>532</v>
       </c>
       <c r="B534">
-        <v>67794.26618048176</v>
+        <v>91950.00413242815</v>
       </c>
       <c r="C534">
-        <v>14756.39055376227</v>
+        <v>17252.27465931247</v>
       </c>
     </row>
     <row r="535" spans="1:3">
@@ -6259,10 +6259,10 @@
         <v>533</v>
       </c>
       <c r="B535">
-        <v>66395.01384813705</v>
+        <v>91085.8552415319</v>
       </c>
       <c r="C535">
-        <v>11739.53276751304</v>
+        <v>14070.44395851555</v>
       </c>
     </row>
     <row r="536" spans="1:3">
@@ -6270,10 +6270,10 @@
         <v>534</v>
       </c>
       <c r="B536">
-        <v>65334.14251090989</v>
+        <v>90560.08734575317</v>
       </c>
       <c r="C536">
-        <v>15056.78296422688</v>
+        <v>17222.7212406817</v>
       </c>
     </row>
     <row r="537" spans="1:3">
@@ -6281,10 +6281,10 @@
         <v>535</v>
       </c>
       <c r="B537">
-        <v>62941.85161535102</v>
+        <v>88702.89989164274</v>
       </c>
       <c r="C537">
-        <v>13851.25764648202</v>
+        <v>15852.22300838915</v>
       </c>
     </row>
     <row r="538" spans="1:3">
@@ -6292,10 +6292,10 @@
         <v>536</v>
       </c>
       <c r="B538">
-        <v>66520.17031632978</v>
+        <v>92816.32203406995</v>
       </c>
       <c r="C538">
-        <v>11169.78614326611</v>
+        <v>13005.77859062555</v>
       </c>
     </row>
     <row r="539" spans="1:3">
@@ -6303,10 +6303,10 @@
         <v>537</v>
       </c>
       <c r="B539">
-        <v>63953.49883840486</v>
+        <v>90249.65055614502</v>
       </c>
       <c r="C539">
-        <v>10361.25056449677</v>
+        <v>12197.24301185621</v>
       </c>
     </row>
     <row r="540" spans="1:3">
@@ -6314,10 +6314,10 @@
         <v>538</v>
       </c>
       <c r="B540">
-        <v>66042.45943951647</v>
+        <v>93021.39423856643</v>
       </c>
       <c r="C540">
-        <v>15491.86489764409</v>
+        <v>17430.08380392524</v>
       </c>
     </row>
     <row r="541" spans="1:3">
@@ -6325,10 +6325,10 @@
         <v>539</v>
       </c>
       <c r="B541">
-        <v>65765.00377699368</v>
+        <v>93426.72165735341</v>
       </c>
       <c r="C541">
-        <v>12363.87363449384</v>
+        <v>14404.3189996967</v>
       </c>
     </row>
     <row r="542" spans="1:3">
@@ -6336,10 +6336,10 @@
         <v>540</v>
       </c>
       <c r="B542">
-        <v>59992.6467828932</v>
+        <v>88337.14774456271</v>
       </c>
       <c r="C542">
-        <v>14252.64106360195</v>
+        <v>16395.31288772653</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -6347,10 +6347,10 @@
         <v>541</v>
       </c>
       <c r="B543">
-        <v>67375.87695450212</v>
+        <v>96403.16099748143</v>
       </c>
       <c r="C543">
-        <v>17842.13776468352</v>
+        <v>20087.0360477298</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -6358,10 +6358,10 @@
         <v>542</v>
       </c>
       <c r="B544">
-        <v>62363.34362445997</v>
+        <v>92073.4107487491</v>
       </c>
       <c r="C544">
-        <v>15999.00220960576</v>
+        <v>18346.12695157376</v>
       </c>
     </row>
     <row r="545" spans="1:3">
@@ -6369,10 +6369,10 @@
         <v>543</v>
       </c>
       <c r="B545">
-        <v>63045.71758950123</v>
+        <v>93438.56779510013</v>
       </c>
       <c r="C545">
-        <v>14061.72156832901</v>
+        <v>16511.07276921871</v>
       </c>
     </row>
     <row r="546" spans="1:3">
@@ -6380,10 +6380,10 @@
         <v>544</v>
       </c>
       <c r="B546">
-        <v>58330.93882851135</v>
+        <v>88723.78903411025</v>
       </c>
       <c r="C546">
-        <v>14212.56303737122</v>
+        <v>16661.91423826093</v>
       </c>
     </row>
     <row r="547" spans="1:3">
@@ -6391,10 +6391,10 @@
         <v>545</v>
       </c>
       <c r="B547">
-        <v>63924.78783063927</v>
+        <v>94329.06077056192</v>
       </c>
       <c r="C547">
-        <v>12498.47534291754</v>
+        <v>15495.02529578667</v>
       </c>
     </row>
     <row r="548" spans="1:3">
@@ -6402,10 +6402,10 @@
         <v>546</v>
       </c>
       <c r="B548">
-        <v>56665.83224962679</v>
+        <v>87081.52792387319</v>
       </c>
       <c r="C548">
-        <v>13414.6537195229</v>
+        <v>16958.40242437146</v>
       </c>
     </row>
     <row r="549" spans="1:3">
@@ -6413,10 +6413,10 @@
         <v>547</v>
       </c>
       <c r="B549">
-        <v>64308.30296836885</v>
+        <v>94735.42137693899</v>
       </c>
       <c r="C549">
-        <v>11462.77708804714</v>
+        <v>15553.72454487514</v>
       </c>
     </row>
     <row r="550" spans="1:3">
@@ -6424,10 +6424,10 @@
         <v>548</v>
       </c>
       <c r="B550">
-        <v>59575.40504395655</v>
+        <v>90013.94618685043</v>
       </c>
       <c r="C550">
-        <v>10833.3611995246</v>
+        <v>15471.50740833203</v>
       </c>
     </row>
     <row r="551" spans="1:3">
@@ -6435,10 +6435,10 @@
         <v>549</v>
       </c>
       <c r="B551">
-        <v>64109.94156044749</v>
+        <v>94559.90543766512</v>
       </c>
       <c r="C551">
-        <v>9608.144716245126</v>
+        <v>14793.48967703199</v>
       </c>
     </row>
     <row r="552" spans="1:3">
@@ -6446,10 +6446,10 @@
         <v>550</v>
       </c>
       <c r="B552">
-        <v>58002.10920879858</v>
+        <v>88463.49582033996</v>
       </c>
       <c r="C552">
-        <v>8489.485814262594</v>
+        <v>14222.02952702889</v>
       </c>
     </row>
     <row r="553" spans="1:3">
@@ -6457,10 +6457,10 @@
         <v>551</v>
       </c>
       <c r="B553">
-        <v>58487.07408431305</v>
+        <v>88948.46069585443</v>
       </c>
       <c r="C553">
-        <v>8063.343232484138</v>
+        <v>13795.88694525043</v>
       </c>
     </row>
     <row r="554" spans="1:3">
@@ -6468,10 +6468,10 @@
         <v>552</v>
       </c>
       <c r="B554">
-        <v>61405.79941025863</v>
+        <v>92996.03369350143</v>
       </c>
       <c r="C554">
-        <v>11633.30743111828</v>
+        <v>18101.88625696862</v>
       </c>
     </row>
     <row r="555" spans="1:3">
@@ -6479,10 +6479,10 @@
         <v>553</v>
       </c>
       <c r="B555">
-        <v>50343.37906025301</v>
+        <v>83062.46101519723</v>
       </c>
       <c r="C555">
-        <v>8456.746088915912</v>
+        <v>15661.36002785031</v>
       </c>
     </row>
     <row r="556" spans="1:3">
@@ -6490,10 +6490,10 @@
         <v>554</v>
       </c>
       <c r="B556">
-        <v>59349.44536326479</v>
+        <v>93197.37498991042</v>
       </c>
       <c r="C556">
-        <v>7574.023335066587</v>
+        <v>15514.67238708504</v>
       </c>
     </row>
     <row r="557" spans="1:3">
@@ -6501,10 +6501,10 @@
         <v>555</v>
       </c>
       <c r="B557">
-        <v>54613.94150179034</v>
+        <v>89590.71880013739</v>
       </c>
       <c r="C557">
-        <v>7660.543507814292</v>
+        <v>16337.2276729168</v>
       </c>
     </row>
     <row r="558" spans="1:3">
@@ -6512,10 +6512,10 @@
         <v>556</v>
       </c>
       <c r="B558">
-        <v>45759.52231373253</v>
+        <v>81865.147283781</v>
       </c>
       <c r="C558">
-        <v>14067.15388560214</v>
+        <v>23479.87316378871</v>
       </c>
     </row>
     <row r="559" spans="1:3">
@@ -6523,10 +6523,10 @@
         <v>557</v>
       </c>
       <c r="B559">
-        <v>49070.96762383184</v>
+        <v>86305.44026558171</v>
       </c>
       <c r="C559">
-        <v>7061.256952389006</v>
+        <v>17210.01134365963</v>
       </c>
     </row>
     <row r="560" spans="1:3">
@@ -6534,10 +6534,10 @@
         <v>558</v>
       </c>
       <c r="B560">
-        <v>51118.3092226389</v>
+        <v>88352.78186438876</v>
       </c>
       <c r="C560">
-        <v>3279.542320286904</v>
+        <v>13428.29671155753</v>
       </c>
     </row>
     <row r="561" spans="1:3">
@@ -6545,10 +6545,10 @@
         <v>559</v>
       </c>
       <c r="B561">
-        <v>46934.1622170022</v>
+        <v>84858.7617395062</v>
       </c>
       <c r="C561">
-        <v>2490.656746077915</v>
+        <v>13103.16894882536</v>
       </c>
     </row>
     <row r="562" spans="1:3">
@@ -6556,10 +6556,10 @@
         <v>560</v>
       </c>
       <c r="B562">
-        <v>52664.72071391217</v>
+        <v>91279.44711717028</v>
       </c>
       <c r="C562">
-        <v>3178.929187644556</v>
+        <v>14255.19920186883</v>
       </c>
     </row>
     <row r="563" spans="1:3">
@@ -6567,10 +6567,10 @@
         <v>561</v>
       </c>
       <c r="B563">
-        <v>52595.93926804906</v>
+        <v>91900.79255206129</v>
       </c>
       <c r="C563">
-        <v>1825.667881864222</v>
+        <v>13365.69570756532</v>
       </c>
     </row>
     <row r="564" spans="1:3">
@@ -6578,10 +6578,10 @@
         <v>562</v>
       </c>
       <c r="B564">
-        <v>49863.63667437749</v>
+        <v>89858.61683914383</v>
       </c>
       <c r="C564">
-        <v>2402.152077365458</v>
+        <v>14405.93771454338</v>
       </c>
     </row>
     <row r="565" spans="1:3">
@@ -6589,10 +6589,10 @@
         <v>563</v>
       </c>
       <c r="B565">
-        <v>47723.3295351384</v>
+        <v>88408.43658065889</v>
       </c>
       <c r="C565">
-        <v>1216.540048995271</v>
+        <v>13684.08349765002</v>
       </c>
     </row>
     <row r="566" spans="1:3">
@@ -6600,10 +6600,10 @@
         <v>564</v>
       </c>
       <c r="B566">
-        <v>49999.66203267944</v>
+        <v>91374.89595895403</v>
       </c>
       <c r="C566">
-        <v>7893.103611649782</v>
+        <v>20824.40487178136</v>
       </c>
     </row>
     <row r="567" spans="1:3">
@@ -6611,10 +6611,10 @@
         <v>565</v>
       </c>
       <c r="B567">
-        <v>50103.32265713003</v>
+        <v>91478.55658340463</v>
       </c>
       <c r="C567">
-        <v>1751.070253594983</v>
+        <v>14682.37151372656</v>
       </c>
     </row>
     <row r="568" spans="1:3">
@@ -6622,10 +6622,10 @@
         <v>566</v>
       </c>
       <c r="B568">
-        <v>44939.18221456856</v>
+        <v>86655.76857618676</v>
       </c>
       <c r="C568">
-        <v>1635.360596367147</v>
+        <v>14484.50263154619</v>
       </c>
     </row>
     <row r="569" spans="1:3">
@@ -6633,10 +6633,10 @@
         <v>567</v>
       </c>
       <c r="B569">
-        <v>47577.0655376205</v>
+        <v>89635.00433458232</v>
       </c>
       <c r="C569">
-        <v>4367.809210215026</v>
+        <v>17134.79202044154</v>
       </c>
     </row>
     <row r="570" spans="1:3">
@@ -6644,10 +6644,10 @@
         <v>568</v>
       </c>
       <c r="B570">
-        <v>48687.93091611362</v>
+        <v>91087.22214841904</v>
       </c>
       <c r="C570">
-        <v>6089.661719592065</v>
+        <v>18774.48530486604</v>
       </c>
     </row>
     <row r="571" spans="1:3">
@@ -6655,10 +6655,10 @@
         <v>569</v>
       </c>
       <c r="B571">
-        <v>41411.01064405202</v>
+        <v>84151.65431170106</v>
       </c>
       <c r="C571">
-        <v>3483.173830329342</v>
+        <v>16085.83819065079</v>
       </c>
     </row>
     <row r="572" spans="1:3">
@@ -6666,10 +6666,10 @@
         <v>570</v>
       </c>
       <c r="B572">
-        <v>39738.16803563987</v>
+        <v>82820.16413863251</v>
       </c>
       <c r="C572">
-        <v>4000.915009968085</v>
+        <v>16521.420145337</v>
       </c>
     </row>
     <row r="573" spans="1:3">
@@ -6677,10 +6677,10 @@
         <v>571</v>
       </c>
       <c r="B573">
-        <v>39267.48539705381</v>
+        <v>82690.83393539005</v>
       </c>
       <c r="C573">
-        <v>7825.837728658293</v>
+        <v>20264.18363907468</v>
       </c>
     </row>
     <row r="574" spans="1:3">
@@ -6688,10 +6688,10 @@
         <v>572</v>
       </c>
       <c r="B574">
-        <v>52244.98720840254</v>
+        <v>95668.33574673877</v>
       </c>
       <c r="C574">
-        <v>487.9130274637619</v>
+        <v>12926.25893788015</v>
       </c>
     </row>
     <row r="575" spans="1:3">
@@ -6699,10 +6699,10 @@
         <v>573</v>
       </c>
       <c r="B575">
-        <v>38582.66690308798</v>
+        <v>82272.16285326271</v>
       </c>
       <c r="C575">
-        <v>6838.457732853164</v>
+        <v>19518.24673703223</v>
       </c>
     </row>
     <row r="576" spans="1:3">
@@ -6710,10 +6710,10 @@
         <v>574</v>
       </c>
       <c r="B576">
-        <v>47719.59943680332</v>
+        <v>91675.24279881653</v>
       </c>
       <c r="C576">
-        <v>4162.294771295116</v>
+        <v>17083.52686923687</v>
       </c>
     </row>
     <row r="577" spans="1:3">
@@ -6721,10 +6721,10 @@
         <v>575</v>
       </c>
       <c r="B577">
-        <v>44641.23814576301</v>
+        <v>88863.02891961469</v>
       </c>
       <c r="C577">
-        <v>-1537.774503520601</v>
+        <v>11624.90068818384</v>
       </c>
     </row>
     <row r="578" spans="1:3">
@@ -6732,10 +6732,10 @@
         <v>576</v>
       </c>
       <c r="B578">
-        <v>43127.61405928327</v>
+        <v>87615.55224497346</v>
       </c>
       <c r="C578">
-        <v>5820.101998968079</v>
+        <v>19224.2202844352</v>
       </c>
     </row>
     <row r="579" spans="1:3">
@@ -6743,10 +6743,10 @@
         <v>577</v>
       </c>
       <c r="B579">
-        <v>43591.11814383043</v>
+        <v>88345.20374135909</v>
       </c>
       <c r="C579">
-        <v>1401.922451751248</v>
+        <v>15047.48383098105</v>
       </c>
     </row>
     <row r="580" spans="1:3">
@@ -6754,10 +6754,10 @@
         <v>578</v>
       </c>
       <c r="B580">
-        <v>40190.26606780618</v>
+        <v>85210.49907717331</v>
       </c>
       <c r="C580">
-        <v>1553.209175922225</v>
+        <v>15440.21364891472</v>
       </c>
     </row>
     <row r="581" spans="1:3">
@@ -6765,10 +6765,10 @@
         <v>579</v>
       </c>
       <c r="B581">
-        <v>46012.92693559096</v>
+        <v>91033.15994495811</v>
       </c>
       <c r="C581">
-        <v>2488.010945467885</v>
+        <v>16375.01541846038</v>
       </c>
     </row>
     <row r="582" spans="1:3">
@@ -6776,10 +6776,10 @@
         <v>580</v>
       </c>
       <c r="B582">
-        <v>41918.19550114239</v>
+        <v>86901.04402503313</v>
       </c>
       <c r="C582">
-        <v>2420.974203446396</v>
+        <v>16405.20778191599</v>
       </c>
     </row>
     <row r="583" spans="1:3">
@@ -6787,10 +6787,10 @@
         <v>581</v>
       </c>
       <c r="B583">
-        <v>48823.97025224482</v>
+        <v>93769.43429065915</v>
       </c>
       <c r="C583">
-        <v>3474.668092765482</v>
+        <v>17556.13077671217</v>
       </c>
     </row>
     <row r="584" spans="1:3">
@@ -6798,10 +6798,10 @@
         <v>582</v>
       </c>
       <c r="B584">
-        <v>40293.08537446436</v>
+        <v>85201.16492740228</v>
       </c>
       <c r="C584">
-        <v>4801.349634821457</v>
+        <v>18980.04142424524</v>
       </c>
     </row>
     <row r="585" spans="1:3">
@@ -6809,10 +6809,10 @@
         <v>583</v>
       </c>
       <c r="B585">
-        <v>41046.80080175852</v>
+        <v>85917.49586922003</v>
       </c>
       <c r="C585">
-        <v>4159.340461326252</v>
+        <v>18435.26135622714</v>
       </c>
     </row>
     <row r="586" spans="1:3">
@@ -6820,10 +6820,10 @@
         <v>584</v>
       </c>
       <c r="B586">
-        <v>40962.48589067817</v>
+        <v>85795.79647266326</v>
       </c>
       <c r="C586">
-        <v>5565.147626349147</v>
+        <v>19938.29762672713</v>
       </c>
     </row>
     <row r="587" spans="1:3">
@@ -6831,10 +6831,10 @@
         <v>585</v>
       </c>
       <c r="B587">
-        <v>39232.17941145023</v>
+        <v>84028.1055079589</v>
       </c>
       <c r="C587">
-        <v>3511.278695972384</v>
+        <v>17981.65780182746</v>
       </c>
     </row>
     <row r="588" spans="1:3">
@@ -6842,10 +6842,10 @@
         <v>586</v>
       </c>
       <c r="B588">
-        <v>31222.75630618478</v>
+        <v>76018.68240269345</v>
       </c>
       <c r="C588">
-        <v>1364.077899532284</v>
+        <v>15834.45700538736</v>
       </c>
     </row>
     <row r="589" spans="1:3">
@@ -6853,10 +6853,10 @@
         <v>587</v>
       </c>
       <c r="B589">
-        <v>39518.48444556671</v>
+        <v>83896.11977349657</v>
       </c>
       <c r="C589">
-        <v>-1203.326418518324</v>
+        <v>13301.8720857356</v>
       </c>
     </row>
     <row r="590" spans="1:3">
@@ -6864,10 +6864,10 @@
         <v>588</v>
       </c>
       <c r="B590">
-        <v>37751.93534879667</v>
+        <v>81711.2799081477</v>
       </c>
       <c r="C590">
-        <v>6373.211865903108</v>
+        <v>20913.22976855587</v>
       </c>
     </row>
     <row r="591" spans="1:3">
@@ -6875,10 +6875,10 @@
         <v>589</v>
       </c>
       <c r="B591">
-        <v>35083.76035425293</v>
+        <v>78624.81414502514</v>
       </c>
       <c r="C591">
-        <v>7349.329649408825</v>
+        <v>21924.16695046043</v>
       </c>
     </row>
     <row r="592" spans="1:3">
@@ -6886,10 +6886,10 @@
         <v>590</v>
       </c>
       <c r="B592">
-        <v>38489.67540127766</v>
+        <v>81612.43842347103</v>
       </c>
       <c r="C592">
-        <v>4795.462461647099</v>
+        <v>19405.11916109755</v>
       </c>
     </row>
     <row r="593" spans="1:3">
@@ -6897,10 +6897,10 @@
         <v>591</v>
       </c>
       <c r="B593">
-        <v>41068.18601751983</v>
+        <v>83772.65827113439</v>
       </c>
       <c r="C593">
-        <v>6050.635507671411</v>
+        <v>20695.1116055207</v>
       </c>
     </row>
     <row r="594" spans="1:3">
@@ -6908,10 +6908,10 @@
         <v>592</v>
       </c>
       <c r="B594">
-        <v>38339.86836965544</v>
+        <v>80626.0498546912</v>
       </c>
       <c r="C594">
-        <v>807.0869163612928</v>
+        <v>15486.38241260943</v>
       </c>
     </row>
     <row r="595" spans="1:3">
@@ -6919,10 +6919,10 @@
         <v>593</v>
       </c>
       <c r="B595">
-        <v>42268.69240897177</v>
+        <v>84554.87389400753</v>
       </c>
       <c r="C595">
-        <v>1044.017516232403</v>
+        <v>15723.31301248054</v>
       </c>
     </row>
     <row r="596" spans="1:3">
@@ -6930,10 +6930,10 @@
         <v>594</v>
       </c>
       <c r="B596">
-        <v>32885.09019632175</v>
+        <v>74548.12608162813</v>
       </c>
       <c r="C596">
-        <v>1362.887521478177</v>
+        <v>16021.43327123775</v>
       </c>
     </row>
     <row r="597" spans="1:3">
@@ -6941,10 +6941,10 @@
         <v>595</v>
       </c>
       <c r="B597">
-        <v>35330.15929243554</v>
+        <v>76370.04957801253</v>
       </c>
       <c r="C597">
-        <v>2651.723636667175</v>
+        <v>17289.51963993819</v>
       </c>
     </row>
     <row r="598" spans="1:3">
@@ -6952,10 +6952,10 @@
         <v>596</v>
       </c>
       <c r="B598">
-        <v>35280.74384764673</v>
+        <v>75697.48853349437</v>
       </c>
       <c r="C598">
-        <v>4118.755814204049</v>
+        <v>18735.80207098649</v>
       </c>
     </row>
     <row r="599" spans="1:3">
@@ -6963,10 +6963,10 @@
         <v>597</v>
       </c>
       <c r="B599">
-        <v>33819.75486602532</v>
+        <v>73613.35395214359</v>
       </c>
       <c r="C599">
-        <v>2107.550583783063</v>
+        <v>16703.84709407695</v>
       </c>
     </row>
     <row r="600" spans="1:3">
@@ -6974,10 +6974,10 @@
         <v>598</v>
       </c>
       <c r="B600">
-        <v>41259.01845490967</v>
+        <v>80429.47194129857</v>
       </c>
       <c r="C600">
-        <v>5435.839547507622</v>
+        <v>20011.38631131294</v>
       </c>
     </row>
     <row r="601" spans="1:3">
@@ -6985,10 +6985,10 @@
         <v>599</v>
       </c>
       <c r="B601">
-        <v>37102.88981842673</v>
+        <v>75650.19770508628</v>
       </c>
       <c r="C601">
-        <v>3782.25317308282</v>
+        <v>18337.05019039958</v>
       </c>
     </row>
     <row r="602" spans="1:3">
@@ -6996,10 +6996,10 @@
         <v>600</v>
       </c>
       <c r="B602">
-        <v>32143.96721386417</v>
+        <v>70691.27510052371</v>
       </c>
       <c r="C602">
-        <v>3237.166085359243</v>
+        <v>17791.963102676</v>
       </c>
     </row>
     <row r="603" spans="1:3">
@@ -7007,10 +7007,10 @@
         <v>601</v>
       </c>
       <c r="B603">
-        <v>24061.77720851025</v>
+        <v>62165.17775397005</v>
       </c>
       <c r="C603">
-        <v>5091.101747393301</v>
+        <v>19515.57397619154</v>
       </c>
     </row>
     <row r="604" spans="1:3">
@@ -7018,10 +7018,10 @@
         <v>602</v>
       </c>
       <c r="B604">
-        <v>34594.08499723049</v>
+        <v>72253.57820149059</v>
       </c>
       <c r="C604">
-        <v>2426.520900816149</v>
+        <v>16720.66834109588</v>
       </c>
     </row>
     <row r="605" spans="1:3">
@@ -7029,10 +7029,10 @@
         <v>603</v>
       </c>
       <c r="B605">
-        <v>42922.31791212528</v>
+        <v>80137.90377518565</v>
       </c>
       <c r="C605">
-        <v>5308.049506896074</v>
+        <v>19471.87215865729</v>
       </c>
     </row>
     <row r="606" spans="1:3">
@@ -7040,10 +7040,10 @@
         <v>604</v>
       </c>
       <c r="B606">
-        <v>42472.61648549125</v>
+        <v>79244.29500735187</v>
       </c>
       <c r="C606">
-        <v>2262.951543215288</v>
+        <v>16296.44940645798</v>
       </c>
     </row>
     <row r="607" spans="1:3">
@@ -7051,10 +7051,10 @@
         <v>605</v>
       </c>
       <c r="B607">
-        <v>33450.89932858453</v>
+        <v>69778.67050924542</v>
       </c>
       <c r="C607">
-        <v>2813.226962198603</v>
+        <v>16716.40003692278</v>
       </c>
     </row>
     <row r="608" spans="1:3">
@@ -7062,10 +7062,10 @@
         <v>606</v>
       </c>
       <c r="B608">
-        <v>40816.08386339719</v>
+        <v>76699.94770285834</v>
       </c>
       <c r="C608">
-        <v>-2598.583622818198</v>
+        <v>11174.26466338747</v>
       </c>
     </row>
     <row r="609" spans="1:3">
@@ -7073,10 +7073,10 @@
         <v>607</v>
       </c>
       <c r="B609">
-        <v>40296.04981438386</v>
+        <v>76179.91365384503</v>
       </c>
       <c r="C609">
-        <v>339.0799481788619</v>
+        <v>14111.92823438453</v>
       </c>
     </row>
     <row r="610" spans="1:3">
@@ -7084,10 +7084,10 @@
         <v>608</v>
       </c>
       <c r="B610">
-        <v>35144.95077486642</v>
+        <v>71409.47086197622</v>
       </c>
       <c r="C610">
-        <v>697.7412948246902</v>
+        <v>14330.7549254913</v>
       </c>
     </row>
     <row r="611" spans="1:3">
@@ -7095,10 +7095,10 @@
         <v>609</v>
       </c>
       <c r="B611">
-        <v>30270.68270871183</v>
+        <v>66915.85904347031</v>
       </c>
       <c r="C611">
-        <v>1681.175997388739</v>
+        <v>15174.3549725163</v>
       </c>
     </row>
     <row r="612" spans="1:3">
@@ -7106,10 +7106,10 @@
         <v>610</v>
       </c>
       <c r="B612">
-        <v>34213.2685929674</v>
+        <v>71239.10117537453</v>
       </c>
       <c r="C612">
-        <v>1238.980042779037</v>
+        <v>14592.32436236755</v>
       </c>
     </row>
     <row r="613" spans="1:3">
@@ -7117,10 +7117,10 @@
         <v>611</v>
       </c>
       <c r="B613">
-        <v>33692.50034221874</v>
+        <v>71098.98917227452</v>
       </c>
       <c r="C613">
-        <v>-1459.80417928714</v>
+        <v>11753.70548476232</v>
       </c>
     </row>
     <row r="614" spans="1:3">
@@ -7128,10 +7128,10 @@
         <v>612</v>
       </c>
       <c r="B614">
-        <v>30550.47201762702</v>
+        <v>68337.61709533147</v>
       </c>
       <c r="C614">
-        <v>-2424.839032364124</v>
+        <v>10648.83597614629</v>
       </c>
     </row>
     <row r="615" spans="1:3">
@@ -7139,10 +7139,10 @@
         <v>613</v>
       </c>
       <c r="B615">
-        <v>27684.19179915141</v>
+        <v>65851.99312450452</v>
       </c>
       <c r="C615">
-        <v>-665.4163623121286</v>
+        <v>12268.42399065923</v>
       </c>
     </row>
     <row r="616" spans="1:3">
@@ -7150,10 +7150,10 @@
         <v>614</v>
       </c>
       <c r="B616">
-        <v>32038.80806139434</v>
+        <v>70206.60938674744</v>
       </c>
       <c r="C616">
-        <v>-338.8576919403338</v>
+        <v>12594.98266103103</v>
       </c>
     </row>
     <row r="617" spans="1:3">
@@ -7161,10 +7161,10 @@
         <v>615</v>
       </c>
       <c r="B617">
-        <v>27049.8145153589</v>
+        <v>64892.09424624784</v>
       </c>
       <c r="C617">
-        <v>160.4922932518317</v>
+        <v>12581.51938714038</v>
       </c>
     </row>
     <row r="618" spans="1:3">
@@ -7172,10 +7172,10 @@
         <v>616</v>
       </c>
       <c r="B618">
-        <v>30745.79162463897</v>
+        <v>68262.54976106377</v>
       </c>
       <c r="C618">
-        <v>4332.515982777823</v>
+        <v>16240.72981758356</v>
       </c>
     </row>
     <row r="619" spans="1:3">
@@ -7183,10 +7183,10 @@
         <v>617</v>
       </c>
       <c r="B619">
-        <v>31003.46022013834</v>
+        <v>68194.69676209899</v>
       </c>
       <c r="C619">
-        <v>310.145608668626</v>
+        <v>11705.54618439155</v>
       </c>
     </row>
     <row r="620" spans="1:3">
@@ -7194,10 +7194,10 @@
         <v>618</v>
       </c>
       <c r="B620">
-        <v>28104.42714449245</v>
+        <v>64970.14209198895</v>
       </c>
       <c r="C620">
-        <v>3041.047073013331</v>
+        <v>13923.63438965344</v>
       </c>
     </row>
     <row r="621" spans="1:3">
@@ -7205,10 +7205,10 @@
         <v>619</v>
       </c>
       <c r="B621">
-        <v>30563.08551134817</v>
+        <v>67103.27886438053</v>
       </c>
       <c r="C621">
-        <v>-375.1423318587237</v>
+        <v>9994.631725698573</v>
       </c>
     </row>
     <row r="622" spans="1:3">
@@ -7216,10 +7216,10 @@
         <v>620</v>
       </c>
       <c r="B622">
-        <v>28760.77171672644</v>
+        <v>64975.44347529466</v>
       </c>
       <c r="C622">
-        <v>2545.012847452944</v>
+        <v>12401.97364592743</v>
       </c>
     </row>
     <row r="623" spans="1:3">
@@ -7227,10 +7227,10 @@
         <v>621</v>
       </c>
       <c r="B623">
-        <v>32636.7984630954</v>
+        <v>68851.47022166362</v>
       </c>
       <c r="C623">
-        <v>3475.663355572835</v>
+        <v>13332.62415404732</v>
       </c>
     </row>
     <row r="624" spans="1:3">
@@ -7238,10 +7238,10 @@
         <v>622</v>
       </c>
       <c r="B624">
-        <v>30866.80830874154</v>
+        <v>66343.40877621122</v>
       </c>
       <c r="C624">
-        <v>-2770.213991280885</v>
+        <v>7104.707118857344</v>
       </c>
     </row>
     <row r="625" spans="1:3">
@@ -7249,10 +7249,10 @@
         <v>623</v>
       </c>
       <c r="B625">
-        <v>32516.24154889661</v>
+        <v>67254.77072526774</v>
       </c>
       <c r="C625">
-        <v>-2953.52272085819</v>
+        <v>6939.358700943782</v>
       </c>
     </row>
     <row r="626" spans="1:3">
@@ -7260,10 +7260,10 @@
         <v>624</v>
       </c>
       <c r="B626">
-        <v>33069.4180276575</v>
+        <v>67069.87591293007</v>
       </c>
       <c r="C626">
-        <v>2042.182409254291</v>
+        <v>11953.02414272001</v>
       </c>
     </row>
     <row r="627" spans="1:3">
@@ -7271,10 +7271,10 @@
         <v>625</v>
       </c>
       <c r="B627">
-        <v>32590.96938360612</v>
+        <v>65853.35597778016</v>
       </c>
       <c r="C627">
-        <v>-346.0919560144308</v>
+        <v>9582.710089115026</v>
       </c>
     </row>
     <row r="628" spans="1:3">
@@ -7282,10 +7282,10 @@
         <v>626</v>
       </c>
       <c r="B628">
-        <v>31650.95091265986</v>
+        <v>64175.26621573535</v>
       </c>
       <c r="C628">
-        <v>-266.2449032435218</v>
+        <v>9680.517453549677</v>
       </c>
     </row>
     <row r="629" spans="1:3">
@@ -7293,10 +7293,10 @@
         <v>627</v>
       </c>
       <c r="B629">
-        <v>28997.10053822025</v>
+        <v>60783.34455019719</v>
       </c>
       <c r="C629">
-        <v>2280.932017836516</v>
+        <v>12245.65468629346</v>
       </c>
     </row>
     <row r="630" spans="1:3">
@@ -7304,10 +7304,10 @@
         <v>628</v>
       </c>
       <c r="B630">
-        <v>29628.01535763072</v>
+        <v>61414.25936960766</v>
       </c>
       <c r="C630">
-        <v>1379.940237227331</v>
+        <v>11344.66290568428</v>
       </c>
     </row>
     <row r="631" spans="1:3">
@@ -7315,10 +7315,10 @@
         <v>629</v>
       </c>
       <c r="B631">
-        <v>32592.76024812402</v>
+        <v>62900.48641340178</v>
       </c>
       <c r="C631">
-        <v>221.7812996646858</v>
+        <v>9652.015259305783</v>
       </c>
     </row>
     <row r="632" spans="1:3">
@@ -7326,10 +7326,10 @@
         <v>630</v>
       </c>
       <c r="B632">
-        <v>27817.06888766341</v>
+        <v>56646.27720624198</v>
       </c>
       <c r="C632">
-        <v>6418.495770627321</v>
+        <v>15314.24102145257</v>
       </c>
     </row>
     <row r="633" spans="1:3">
@@ -7337,10 +7337,10 @@
         <v>631</v>
       </c>
       <c r="B633">
-        <v>31459.98724676346</v>
+        <v>58810.67771864286</v>
       </c>
       <c r="C633">
-        <v>-131.9756913804224</v>
+        <v>8229.28085062898</v>
       </c>
     </row>
     <row r="634" spans="1:3">
@@ -7348,10 +7348,10 @@
         <v>632</v>
       </c>
       <c r="B634">
-        <v>28928.80452374701</v>
+        <v>54800.97714892722</v>
       </c>
       <c r="C634">
-        <v>-977.8623567369254</v>
+        <v>6848.905476456627</v>
       </c>
     </row>
     <row r="635" spans="1:3">
@@ -7359,10 +7359,10 @@
         <v>633</v>
       </c>
       <c r="B635">
-        <v>36995.66491989807</v>
+        <v>61389.31969837911</v>
       </c>
       <c r="C635">
-        <v>1309.129530018657</v>
+        <v>8601.408654396362</v>
       </c>
     </row>
     <row r="636" spans="1:3">
@@ -7370,10 +7370,10 @@
         <v>634</v>
       </c>
       <c r="B636">
-        <v>35312.56037889739</v>
+        <v>58227.69731067924</v>
       </c>
       <c r="C636">
-        <v>-2485.072028114058</v>
+        <v>4272.718387447799</v>
       </c>
     </row>
     <row r="637" spans="1:3">
@@ -7381,10 +7381,10 @@
         <v>635</v>
       </c>
       <c r="B637">
-        <v>34424.31063072693</v>
+        <v>57339.44756250879</v>
       </c>
       <c r="C637">
-        <v>3865.408433611121</v>
+        <v>10623.19884917298</v>
       </c>
     </row>
     <row r="638" spans="1:3">
@@ -7392,10 +7392,10 @@
         <v>636</v>
       </c>
       <c r="B638">
-        <v>31663.2006653837</v>
+        <v>51358.99916617318</v>
       </c>
       <c r="C638">
-        <v>1713.175946422545</v>
+        <v>8264.368075087907</v>
       </c>
     </row>
     <row r="639" spans="1:3">
@@ -7403,10 +7403,10 @@
         <v>637</v>
       </c>
       <c r="B639">
-        <v>35319.71483046701</v>
+        <v>51796.17490026413</v>
       </c>
       <c r="C639">
-        <v>5309.044454205581</v>
+        <v>11653.63829597445</v>
       </c>
     </row>
     <row r="640" spans="1:3">
@@ -7414,10 +7414,10 @@
         <v>638</v>
       </c>
       <c r="B640">
-        <v>40472.43743156182</v>
+        <v>53729.55907036657</v>
       </c>
       <c r="C640">
-        <v>1915.197118110849</v>
+        <v>8053.192672983224</v>
       </c>
     </row>
     <row r="641" spans="1:3">
@@ -7425,10 +7425,10 @@
         <v>639</v>
       </c>
       <c r="B641">
-        <v>35754.83867389378</v>
+        <v>45792.62188170617</v>
       </c>
       <c r="C641">
-        <v>1712.169659510932</v>
+        <v>7643.566927486813</v>
       </c>
     </row>
     <row r="642" spans="1:3">
@@ -7436,10 +7436,10 @@
         <v>640</v>
       </c>
       <c r="B642">
-        <v>42424.82392576097</v>
+        <v>49243.26870258099</v>
       </c>
       <c r="C642">
-        <v>-1496.21857613491</v>
+        <v>4228.580404944478</v>
       </c>
     </row>
     <row r="643" spans="1:3">
@@ -7447,10 +7447,10 @@
         <v>641</v>
       </c>
       <c r="B643">
-        <v>46554.33271838583</v>
+        <v>50153.43906421349</v>
       </c>
       <c r="C643">
-        <v>400.3750105929116</v>
+        <v>5918.575704775805</v>
       </c>
     </row>
     <row r="644" spans="1:3">
@@ -7458,10 +7458,10 @@
         <v>642</v>
       </c>
       <c r="B644">
-        <v>43121.45894677231</v>
+        <v>46720.56529259997</v>
       </c>
       <c r="C644">
-        <v>3129.176362242546</v>
+        <v>8647.377056425441</v>
       </c>
     </row>
     <row r="645" spans="1:3">
@@ -7469,10 +7469,10 @@
         <v>643</v>
       </c>
       <c r="B645">
-        <v>35062.37341609341</v>
+        <v>37467.79839031542</v>
       </c>
       <c r="C645">
-        <v>275.8847583620843</v>
+        <v>5579.416878130442</v>
       </c>
     </row>
     <row r="646" spans="1:3">
@@ -7480,10 +7480,10 @@
         <v>644</v>
       </c>
       <c r="B646">
-        <v>45550.37883372256</v>
+        <v>46762.12243633893</v>
       </c>
       <c r="C646">
-        <v>689.5108473578777</v>
+        <v>5778.374392711698</v>
       </c>
     </row>
     <row r="647" spans="1:3">
@@ -7491,10 +7491,10 @@
         <v>645</v>
       </c>
       <c r="B647">
-        <v>41663.89125651989</v>
+        <v>41681.95348753061</v>
       </c>
       <c r="C647">
-        <v>3634.387725835736</v>
+        <v>8508.58269677502</v>
       </c>
     </row>
     <row r="648" spans="1:3">
@@ -7502,10 +7502,10 @@
         <v>646</v>
       </c>
       <c r="B648">
-        <v>41913.61122167958</v>
+        <v>40737.99208108465</v>
       </c>
       <c r="C648">
-        <v>3725.853015019477</v>
+        <v>8385.379411544223</v>
       </c>
     </row>
     <row r="649" spans="1:3">
@@ -7513,10 +7513,10 @@
         <v>647</v>
       </c>
       <c r="B649">
-        <v>39853.17124564388</v>
+        <v>37483.8707334433</v>
       </c>
       <c r="C649">
-        <v>3137.412942753417</v>
+        <v>7582.270764863626</v>
       </c>
     </row>
     <row r="650" spans="1:3">
@@ -7524,10 +7524,10 @@
         <v>648</v>
       </c>
       <c r="B650">
-        <v>39909.71950186179</v>
+        <v>36346.73761805556</v>
       </c>
       <c r="C650">
-        <v>5237.480370972798</v>
+        <v>9467.669618668469</v>
       </c>
     </row>
     <row r="651" spans="1:3">
@@ -7535,10 +7535,10 @@
         <v>649</v>
       </c>
       <c r="B651">
-        <v>39525.23824041135</v>
+        <v>35962.25635660511</v>
       </c>
       <c r="C651">
-        <v>1960.807126954572</v>
+        <v>6190.996374650244</v>
       </c>
     </row>
     <row r="652" spans="1:3">
@@ -7546,10 +7546,10 @@
         <v>650</v>
       </c>
       <c r="B652">
-        <v>38741.05992501412</v>
+        <v>35060.4149445509</v>
       </c>
       <c r="C652">
-        <v>-1224.059214429387</v>
+        <v>2745.167917374748</v>
       </c>
     </row>
     <row r="653" spans="1:3">
@@ -7557,10 +7557,10 @@
         <v>651</v>
       </c>
       <c r="B653">
-        <v>41634.47227742127</v>
+        <v>37836.16420030108</v>
       </c>
       <c r="C653">
-        <v>-657.1358095583223</v>
+        <v>3051.129206354276</v>
       </c>
     </row>
     <row r="654" spans="1:3">
@@ -7568,10 +7568,10 @@
         <v>652</v>
       </c>
       <c r="B654">
-        <v>40961.42473946228</v>
+        <v>37045.45356568511</v>
       </c>
       <c r="C654">
-        <v>4288.01776498229</v>
+        <v>7735.320665003353</v>
       </c>
     </row>
     <row r="655" spans="1:3">
@@ -7579,10 +7579,10 @@
         <v>653</v>
       </c>
       <c r="B655">
-        <v>46412.81460903136</v>
+        <v>42379.18033859721</v>
       </c>
       <c r="C655">
-        <v>5129.543077728097</v>
+        <v>8315.883861857623</v>
       </c>
     </row>
     <row r="656" spans="1:3">
@@ -7590,10 +7590,10 @@
         <v>654</v>
       </c>
       <c r="B656">
-        <v>42797.0913999273</v>
+        <v>38645.79403283617</v>
       </c>
       <c r="C656">
-        <v>2321.562159330964</v>
+        <v>5246.940827568952</v>
       </c>
     </row>
     <row r="657" spans="1:3">
@@ -7601,10 +7601,10 @@
         <v>655</v>
       </c>
       <c r="B657">
-        <v>37694.99225221429</v>
+        <v>33426.03178846618</v>
       </c>
       <c r="C657">
-        <v>3611.545185105872</v>
+        <v>6275.961737452326</v>
       </c>
     </row>
     <row r="658" spans="1:3">
@@ -7612,10 +7612,10 @@
         <v>656</v>
       </c>
       <c r="B658">
-        <v>39513.45764675671</v>
+        <v>35244.49718300861</v>
       </c>
       <c r="C658">
-        <v>-189.9427312331807</v>
+        <v>2474.473821113273</v>
       </c>
     </row>
     <row r="659" spans="1:3">
@@ -7623,10 +7623,10 @@
         <v>657</v>
       </c>
       <c r="B659">
-        <v>37845.7349257617</v>
+        <v>33101.27648452133</v>
       </c>
       <c r="C659">
-        <v>2925.416608026288</v>
+        <v>5491.060544139012</v>
       </c>
     </row>
     <row r="660" spans="1:3">
@@ -7634,10 +7634,10 @@
         <v>658</v>
       </c>
       <c r="B660">
-        <v>44510.7598072664</v>
+        <v>39290.80338853377</v>
       </c>
       <c r="C660">
-        <v>2817.334623557146</v>
+        <v>5284.205943436141</v>
       </c>
     </row>
     <row r="661" spans="1:3">
@@ -7645,10 +7645,10 @@
         <v>659</v>
       </c>
       <c r="B661">
-        <v>39769.79718197343</v>
+        <v>34074.34278574854</v>
       </c>
       <c r="C661">
-        <v>-687.922849707978</v>
+        <v>1680.175853937288</v>
       </c>
     </row>
     <row r="662" spans="1:3">
@@ -7656,10 +7656,10 @@
         <v>660</v>
       </c>
       <c r="B662">
-        <v>42228.84153040447</v>
+        <v>36057.88915668731</v>
       </c>
       <c r="C662">
-        <v>-544.0517959038987</v>
+        <v>1725.274291507639</v>
       </c>
     </row>
     <row r="663" spans="1:3">
@@ -7667,10 +7667,10 @@
         <v>661</v>
       </c>
       <c r="B663">
-        <v>43931.45300872991</v>
+        <v>37285.00265752049</v>
       </c>
       <c r="C663">
-        <v>2282.740377254491</v>
+        <v>4453.293848432299</v>
       </c>
     </row>
     <row r="664" spans="1:3">
@@ -7678,10 +7678,10 @@
         <v>662</v>
       </c>
       <c r="B664">
-        <v>42158.05999657007</v>
+        <v>35036.11166786838</v>
       </c>
       <c r="C664">
-        <v>-2629.121254856691</v>
+        <v>-557.3403999126108</v>
       </c>
     </row>
     <row r="665" spans="1:3">
@@ -7689,10 +7689,10 @@
         <v>663</v>
       </c>
       <c r="B665">
-        <v>42868.16341105424</v>
+        <v>35746.21508235254</v>
       </c>
       <c r="C665">
-        <v>2953.96693600252</v>
+        <v>5025.7477909466</v>
       </c>
     </row>
     <row r="666" spans="1:3">
@@ -7700,10 +7700,10 @@
         <v>664</v>
       </c>
       <c r="B666">
-        <v>43791.73819996184</v>
+        <v>36366.65245438043</v>
       </c>
       <c r="C666">
-        <v>30.49869041669854</v>
+        <v>1706.63878372111</v>
       </c>
     </row>
     <row r="667" spans="1:3">
@@ -7711,10 +7711,10 @@
         <v>665</v>
       </c>
       <c r="B667">
-        <v>42290.94448740548</v>
+        <v>34562.72132494434</v>
       </c>
       <c r="C667">
-        <v>3596.833290929902</v>
+        <v>4877.332622594646</v>
       </c>
     </row>
     <row r="668" spans="1:3">
@@ -7722,10 +7722,10 @@
         <v>666</v>
       </c>
       <c r="B668">
-        <v>43918.16576988686</v>
+        <v>35886.805190546</v>
       </c>
       <c r="C668">
-        <v>85.73687372541735</v>
+        <v>970.5954437504934</v>
       </c>
     </row>
     <row r="669" spans="1:3">
@@ -7733,10 +7733,10 @@
         <v>667</v>
       </c>
       <c r="B669">
-        <v>50387.58082028417</v>
+        <v>42053.0828240636</v>
       </c>
       <c r="C669">
-        <v>3812.645687799798</v>
+        <v>4301.863496185207</v>
       </c>
     </row>
     <row r="670" spans="1:3">
@@ -7744,10 +7744,10 @@
         <v>668</v>
       </c>
       <c r="B670">
-        <v>42430.02071630846</v>
+        <v>33792.38530320817</v>
       </c>
       <c r="C670">
-        <v>332.8565906116905</v>
+        <v>426.4336373574297</v>
       </c>
     </row>
     <row r="671" spans="1:3">
@@ -7755,10 +7755,10 @@
         <v>669</v>
       </c>
       <c r="B671">
-        <v>50078.51340916201</v>
+        <v>41137.74057918198</v>
       </c>
       <c r="C671">
-        <v>-3377.177529963406</v>
+        <v>-3679.241244857335</v>
       </c>
     </row>
     <row r="672" spans="1:3">
@@ -7766,10 +7766,10 @@
         <v>670</v>
       </c>
       <c r="B672">
-        <v>43833.78913225658</v>
+        <v>34893.01630227656</v>
       </c>
       <c r="C672">
-        <v>7100.662406242462</v>
+        <v>6798.598691348532</v>
       </c>
     </row>
     <row r="673" spans="1:3">
@@ -7777,10 +7777,10 @@
         <v>671</v>
       </c>
       <c r="B673">
-        <v>38141.53316644966</v>
+        <v>31158.83467488326</v>
       </c>
       <c r="C673">
-        <v>5543.506798856162</v>
+        <v>5615.348562482142</v>
       </c>
     </row>
     <row r="674" spans="1:3">
@@ -7788,10 +7788,10 @@
         <v>672</v>
       </c>
       <c r="B674">
-        <v>32490.05327862917</v>
+        <v>27465.42912547637</v>
       </c>
       <c r="C674">
-        <v>-1978.736083690435</v>
+        <v>-1532.988841544547</v>
       </c>
     </row>
     <row r="675" spans="1:3">
@@ -7799,10 +7799,10 @@
         <v>673</v>
       </c>
       <c r="B675">
-        <v>39212.24679987559</v>
+        <v>36145.6969851364</v>
       </c>
       <c r="C675">
-        <v>4965.840776603935</v>
+        <v>5785.493497269731</v>
       </c>
     </row>
     <row r="676" spans="1:3">
@@ -7810,10 +7810,10 @@
         <v>674</v>
       </c>
       <c r="B676">
-        <v>34255.97272324908</v>
+        <v>33147.49724692351</v>
       </c>
       <c r="C676">
-        <v>7102.514862776441</v>
+        <v>8296.073061962146</v>
       </c>
     </row>
     <row r="677" spans="1:3">
@@ -7821,10 +7821,10 @@
         <v>675</v>
       </c>
       <c r="B677">
-        <v>41126.72650314661</v>
+        <v>41976.32536523465</v>
       </c>
       <c r="C677">
-        <v>1229.419022336299</v>
+        <v>2796.882700041913</v>
       </c>
     </row>
     <row r="678" spans="1:3">
@@ -7832,10 +7832,10 @@
         <v>676</v>
       </c>
       <c r="B678">
-        <v>31375.24887641754</v>
+        <v>34182.92207691918</v>
       </c>
       <c r="C678">
-        <v>1731.530431178773</v>
+        <v>3672.899587404294</v>
       </c>
     </row>
     <row r="679" spans="1:3">
@@ -7843,10 +7843,10 @@
         <v>677</v>
       </c>
       <c r="B679">
-        <v>37891.4807713943</v>
+        <v>40699.15397189595</v>
       </c>
       <c r="C679">
-        <v>8696.963073576011</v>
+        <v>10638.33222980153</v>
       </c>
     </row>
     <row r="680" spans="1:3">
@@ -7854,10 +7854,10 @@
         <v>678</v>
       </c>
       <c r="B680">
-        <v>38783.1737141182</v>
+        <v>41293.50198747303</v>
       </c>
       <c r="C680">
-        <v>5148.968759403178</v>
+        <v>6675.860032183717</v>
       </c>
     </row>
     <row r="681" spans="1:3">
@@ -7865,10 +7865,10 @@
         <v>679</v>
       </c>
       <c r="B681">
-        <v>37881.82856740701</v>
+        <v>40094.81191361503</v>
       </c>
       <c r="C681">
-        <v>4154.925218875206</v>
+        <v>5267.338608210761</v>
       </c>
     </row>
     <row r="682" spans="1:3">
@@ -7876,10 +7876,10 @@
         <v>680</v>
       </c>
       <c r="B682">
-        <v>34725.58864981106</v>
+        <v>36641.22706887225</v>
       </c>
       <c r="C682">
-        <v>1169.747682088867</v>
+        <v>1867.683187979439</v>
       </c>
     </row>
     <row r="683" spans="1:3">
@@ -7887,10 +7887,10 @@
         <v>681</v>
       </c>
       <c r="B683">
-        <v>32485.08949599059</v>
+        <v>34103.38298790497</v>
       </c>
       <c r="C683">
-        <v>5212.991259500856</v>
+        <v>5496.448881946446</v>
       </c>
     </row>
     <row r="684" spans="1:3">
@@ -7898,10 +7898,10 @@
         <v>682</v>
       </c>
       <c r="B684">
-        <v>33350.83372811112</v>
+        <v>34671.78229287868</v>
       </c>
       <c r="C684">
-        <v>68.14225299421287</v>
+        <v>-62.87800800517925</v>
       </c>
     </row>
     <row r="685" spans="1:3">
@@ -7909,10 +7909,10 @@
         <v>683</v>
       </c>
       <c r="B685">
-        <v>30266.92640420123</v>
+        <v>31290.53004182198</v>
       </c>
       <c r="C685">
-        <v>4072.742184709665</v>
+        <v>3527.244040265291</v>
       </c>
     </row>
     <row r="686" spans="1:3">
@@ -7920,10 +7920,10 @@
         <v>684</v>
       </c>
       <c r="B686">
-        <v>34670.7467669905</v>
+        <v>35694.35040461126</v>
       </c>
       <c r="C686">
-        <v>-285.4138776024165</v>
+        <v>-830.9120220467912</v>
       </c>
     </row>
     <row r="687" spans="1:3">
@@ -7931,10 +7931,10 @@
         <v>685</v>
       </c>
       <c r="B687">
-        <v>32189.78586981458</v>
+        <v>33222.92086112298</v>
       </c>
       <c r="C687">
-        <v>383.1311730321854</v>
+        <v>-204.0751041363401</v>
       </c>
     </row>
     <row r="688" spans="1:3">
@@ -7942,10 +7942,10 @@
         <v>686</v>
       </c>
       <c r="B688">
-        <v>40401.76321419331</v>
+        <v>41444.42955918938</v>
       </c>
       <c r="C688">
-        <v>-191.4612904331202</v>
+        <v>-820.3757003257965</v>
       </c>
     </row>
     <row r="689" spans="1:3">
@@ -7953,10 +7953,10 @@
         <v>687</v>
       </c>
       <c r="B689">
-        <v>42026.25712657837</v>
+        <v>43078.4548252621</v>
       </c>
       <c r="C689">
-        <v>5514.309512102261</v>
+        <v>4843.686969485433</v>
       </c>
     </row>
     <row r="690" spans="1:3">
@@ -7964,10 +7964,10 @@
         <v>688</v>
       </c>
       <c r="B690">
-        <v>47776.62885171212</v>
+        <v>48838.3579040835</v>
       </c>
       <c r="C690">
-        <v>2118.895106251579</v>
+        <v>1406.564430910601</v>
       </c>
     </row>
     <row r="691" spans="1:3">
@@ -7975,10 +7975,10 @@
         <v>689</v>
       </c>
       <c r="B691">
-        <v>42481.38846405541</v>
+        <v>43552.64887011446</v>
       </c>
       <c r="C691">
-        <v>6610.431992134274</v>
+        <v>5856.393184069144</v>
       </c>
     </row>
     <row r="692" spans="1:3">
@@ -7986,10 +7986,10 @@
         <v>690</v>
       </c>
       <c r="B692">
-        <v>42038.6178042258</v>
+        <v>43119.40956397251</v>
       </c>
       <c r="C692">
-        <v>4157.356623366077</v>
+        <v>3361.609682576796</v>
       </c>
     </row>
     <row r="693" spans="1:3">
@@ -7997,10 +7997,10 @@
         <v>691</v>
       </c>
       <c r="B693">
-        <v>45320.71170447204</v>
+        <v>46401.50346421875</v>
       </c>
       <c r="C693">
-        <v>5278.212860470358</v>
+        <v>4482.465919681078</v>
       </c>
     </row>
     <row r="694" spans="1:3">
@@ -8008,10 +8008,10 @@
         <v>692</v>
       </c>
       <c r="B694">
-        <v>51428.90939836412</v>
+        <v>53493.42954341092</v>
       </c>
       <c r="C694">
-        <v>1954.669729355949</v>
+        <v>1403.866242642736</v>
       </c>
     </row>
     <row r="695" spans="1:3">
@@ -8019,10 +8019,10 @@
         <v>693</v>
       </c>
       <c r="B695">
-        <v>49666.07972962433</v>
+        <v>52714.32825997123</v>
       </c>
       <c r="C695">
-        <v>2771.974984089114</v>
+        <v>2466.114951451968</v>
       </c>
     </row>
     <row r="696" spans="1:3">
@@ -8030,10 +8030,10 @@
         <v>694</v>
       </c>
       <c r="B696">
-        <v>43795.91682412817</v>
+        <v>47827.89373977517</v>
       </c>
       <c r="C696">
-        <v>-1103.133191335796</v>
+        <v>-1164.049769896873</v>
       </c>
     </row>
     <row r="697" spans="1:3">
@@ -8041,10 +8041,10 @@
         <v>695</v>
       </c>
       <c r="B697">
-        <v>47130.71875733863</v>
+        <v>52146.42405828574</v>
       </c>
       <c r="C697">
-        <v>3791.073804948954</v>
+        <v>3975.100680463944</v>
       </c>
     </row>
     <row r="698" spans="1:3">
@@ -8052,10 +8052,10 @@
         <v>696</v>
       </c>
       <c r="B698">
-        <v>53034.66269546513</v>
+        <v>59034.09638171234</v>
       </c>
       <c r="C698">
-        <v>4481.984954626096</v>
+        <v>4910.955284217152</v>
       </c>
     </row>
     <row r="699" spans="1:3">
@@ -8063,10 +8063,10 @@
         <v>697</v>
       </c>
       <c r="B699">
-        <v>47205.27471777944</v>
+        <v>54188.43678932676</v>
       </c>
       <c r="C699">
-        <v>5726.120906191339</v>
+        <v>6400.034689858463</v>
       </c>
     </row>
     <row r="700" spans="1:3">
@@ -8074,10 +8074,10 @@
         <v>698</v>
       </c>
       <c r="B700">
-        <v>50143.04611631882</v>
+        <v>57126.20818786613</v>
       </c>
       <c r="C700">
-        <v>74.08885530119596</v>
+        <v>748.0026389683203</v>
       </c>
     </row>
     <row r="701" spans="1:3">
@@ -8085,10 +8085,10 @@
         <v>699</v>
       </c>
       <c r="B701">
-        <v>52625.88507612608</v>
+        <v>58354.75115688844</v>
       </c>
       <c r="C701">
-        <v>-3420.27161122373</v>
+        <v>-2338.388003328279</v>
       </c>
     </row>
     <row r="702" spans="1:3">
@@ -8096,10 +8096,10 @@
         <v>700</v>
       </c>
       <c r="B702">
-        <v>54076.32980410951</v>
+        <v>58550.89989408692</v>
       </c>
       <c r="C702">
-        <v>6004.74593638962</v>
+        <v>7494.599368513399</v>
       </c>
     </row>
     <row r="703" spans="1:3">
@@ -8107,10 +8107,10 @@
         <v>701</v>
       </c>
       <c r="B703">
-        <v>64268.90455971387</v>
+        <v>67489.17865890634</v>
       </c>
       <c r="C703">
-        <v>6070.072888900382</v>
+        <v>7967.896145252489</v>
       </c>
     </row>
     <row r="704" spans="1:3">
@@ -8118,10 +8118,10 @@
         <v>702</v>
       </c>
       <c r="B704">
-        <v>59009.61134078103</v>
+        <v>60975.58944918854</v>
       </c>
       <c r="C704">
-        <v>1183.728535073515</v>
+        <v>3489.52161565395</v>
       </c>
     </row>
     <row r="705" spans="1:3">
@@ -8129,10 +8129,10 @@
         <v>703</v>
       </c>
       <c r="B705">
-        <v>56264.32066022611</v>
+        <v>56976.00277784868</v>
       </c>
       <c r="C705">
-        <v>6329.393781668294</v>
+        <v>9043.156686477054</v>
       </c>
     </row>
     <row r="706" spans="1:3">
@@ -8140,10 +8140,10 @@
         <v>704</v>
       </c>
       <c r="B706">
-        <v>64267.62985030645</v>
+        <v>63725.01597714407</v>
       </c>
       <c r="C706">
-        <v>3370.750253352056</v>
+        <v>6492.482982389145</v>
       </c>
     </row>
     <row r="707" spans="1:3">
@@ -8151,10 +8151,10 @@
         <v>705</v>
       </c>
       <c r="B707">
-        <v>58483.94185398764</v>
+        <v>57941.32798082526</v>
       </c>
       <c r="C707">
-        <v>3121.697094747111</v>
+        <v>6243.4298237842</v>
       </c>
     </row>
     <row r="708" spans="1:3">
@@ -8162,10 +8162,10 @@
         <v>706</v>
       </c>
       <c r="B708">
-        <v>60461.8204784027</v>
+        <v>56780.75262510365</v>
       </c>
       <c r="C708">
-        <v>7322.005130638665</v>
+        <v>9877.679772128367</v>
       </c>
     </row>
     <row r="709" spans="1:3">
@@ -8173,10 +8173,10 @@
         <v>707</v>
       </c>
       <c r="B709">
-        <v>61397.4289194876</v>
+        <v>54577.9070860519</v>
       </c>
       <c r="C709">
-        <v>4586.348139108979</v>
+        <v>6575.964693051295</v>
       </c>
     </row>
     <row r="710" spans="1:3">
@@ -8184,10 +8184,10 @@
         <v>708</v>
       </c>
       <c r="B710">
-        <v>70200.82887791634</v>
+        <v>60242.85306434399</v>
       </c>
       <c r="C710">
-        <v>9250.429220762951</v>
+        <v>10673.98768715788</v>
       </c>
     </row>
     <row r="711" spans="1:3">
@@ -8195,10 +8195,10 @@
         <v>709</v>
       </c>
       <c r="B711">
-        <v>65855.52329305338</v>
+        <v>52759.09349934436</v>
       </c>
       <c r="C711">
-        <v>5305.199043980544</v>
+        <v>6162.699422828088</v>
       </c>
     </row>
     <row r="712" spans="1:3">
@@ -8206,10 +8206,10 @@
         <v>710</v>
       </c>
       <c r="B712">
-        <v>71943.7326938409</v>
+        <v>55708.84891999522</v>
       </c>
       <c r="C712">
-        <v>7218.115395117622</v>
+        <v>7509.55768641778</v>
       </c>
     </row>
     <row r="713" spans="1:3">
@@ -8217,10 +8217,10 @@
         <v>711</v>
       </c>
       <c r="B713">
-        <v>71794.57299559738</v>
+        <v>52421.23524161505</v>
       </c>
       <c r="C713">
-        <v>8300.711957658879</v>
+        <v>8026.096161411651</v>
       </c>
     </row>
     <row r="714" spans="1:3">
@@ -8228,10 +8228,10 @@
         <v>712</v>
       </c>
       <c r="B714">
-        <v>75551.30779235027</v>
+        <v>56177.97003836795</v>
       </c>
       <c r="C714">
-        <v>9154.640274675801</v>
+        <v>8880.024478428573</v>
       </c>
     </row>
     <row r="715" spans="1:3">
@@ -8239,10 +8239,10 @@
         <v>713</v>
       </c>
       <c r="B715">
-        <v>66463.87833035507</v>
+        <v>47031.42077598536</v>
       </c>
       <c r="C715">
-        <v>6327.167336284685</v>
+        <v>5672.745033944414</v>
       </c>
     </row>
     <row r="716" spans="1:3">
@@ -8250,10 +8250,10 @@
         <v>714</v>
       </c>
       <c r="B716">
-        <v>71100.31102859565</v>
+        <v>51608.73367383853</v>
       </c>
       <c r="C716">
-        <v>8951.220302220008</v>
+        <v>7916.991493786695</v>
       </c>
     </row>
     <row r="717" spans="1:3">
@@ -8261,10 +8261,10 @@
         <v>715</v>
       </c>
       <c r="B717">
-        <v>63963.71813342529</v>
+        <v>44413.02097828076</v>
       </c>
       <c r="C717">
-        <v>7341.281114913081</v>
+        <v>5927.245800386723</v>
       </c>
     </row>
     <row r="718" spans="1:3">
@@ -8272,10 +8272,10 @@
         <v>716</v>
       </c>
       <c r="B718">
-        <v>63991.52769521289</v>
+        <v>44381.71073968094</v>
       </c>
       <c r="C718">
-        <v>7348.669187331599</v>
+        <v>5554.827366712198</v>
       </c>
     </row>
     <row r="719" spans="1:3">
@@ -8283,10 +8283,10 @@
         <v>717</v>
       </c>
       <c r="B719">
-        <v>58576.15698781628</v>
+        <v>38907.22023189692</v>
       </c>
       <c r="C719">
-        <v>5589.312628244536</v>
+        <v>3415.66430153209</v>
       </c>
     </row>
     <row r="720" spans="1:3">
@@ -8294,10 +8294,10 @@
         <v>718</v>
       </c>
       <c r="B720">
-        <v>57215.261736181</v>
+        <v>37487.20517987423</v>
       </c>
       <c r="C720">
-        <v>5645.813115402612</v>
+        <v>3092.358282597124</v>
       </c>
     </row>
     <row r="721" spans="1:3">
@@ -8305,10 +8305,10 @@
         <v>719</v>
       </c>
       <c r="B721">
-        <v>52070.58487389928</v>
+        <v>32342.52831759251</v>
       </c>
       <c r="C721">
-        <v>5476.86217825019</v>
+        <v>2923.407345444702</v>
       </c>
     </row>
     <row r="722" spans="1:3">
@@ -8316,10 +8316,10 @@
         <v>720</v>
       </c>
       <c r="B722">
-        <v>67047.14781411077</v>
+        <v>45772.21628322277</v>
       </c>
       <c r="C722">
-        <v>6718.888639568953</v>
+        <v>3802.815126391085</v>
       </c>
     </row>
     <row r="723" spans="1:3">
@@ -8327,10 +8327,10 @@
         <v>721</v>
       </c>
       <c r="B723">
-        <v>63522.57927075551</v>
+        <v>40700.77276528627</v>
       </c>
       <c r="C723">
-        <v>6144.438893714037</v>
+        <v>2865.746700163786</v>
       </c>
     </row>
     <row r="724" spans="1:3">
@@ -8338,10 +8338,10 @@
         <v>722</v>
       </c>
       <c r="B724">
-        <v>68113.57861970429</v>
+        <v>43744.89713965384</v>
       </c>
       <c r="C724">
-        <v>5829.170135227894</v>
+        <v>2187.859261305263</v>
       </c>
     </row>
     <row r="725" spans="1:3">
@@ -8349,10 +8349,10 @@
         <v>723</v>
       </c>
       <c r="B725">
-        <v>74870.09738409257</v>
+        <v>48954.54092946088</v>
       </c>
       <c r="C725">
-        <v>7999.498600125033</v>
+        <v>3995.569045830021</v>
       </c>
     </row>
     <row r="726" spans="1:3">
@@ -8360,10 +8360,10 @@
         <v>724</v>
       </c>
       <c r="B726">
-        <v>80829.63668428757</v>
+        <v>53367.20525507464</v>
       </c>
       <c r="C726">
-        <v>8624.451596359204</v>
+        <v>4257.90336169181</v>
       </c>
     </row>
     <row r="727" spans="1:3">
@@ -8371,10 +8371,10 @@
         <v>725</v>
       </c>
       <c r="B727">
-        <v>76681.88406116035</v>
+        <v>47672.57765736619</v>
       </c>
       <c r="C727">
-        <v>6865.000660888013</v>
+        <v>2135.833745848239</v>
       </c>
     </row>
     <row r="728" spans="1:3">
@@ -8382,10 +8382,10 @@
         <v>726</v>
       </c>
       <c r="B728">
-        <v>77596.22785861942</v>
+        <v>48586.92145482524</v>
       </c>
       <c r="C728">
-        <v>6769.916442942895</v>
+        <v>2040.74952790312</v>
       </c>
     </row>
     <row r="729" spans="1:3">
@@ -8393,10 +8393,10 @@
         <v>727</v>
       </c>
       <c r="B729">
-        <v>76673.32997523944</v>
+        <v>47664.02357144527</v>
       </c>
       <c r="C729">
-        <v>5469.707180273137</v>
+        <v>740.5402652333619</v>
       </c>
     </row>
     <row r="730" spans="1:3">
@@ -8404,10 +8404,10 @@
         <v>728</v>
       </c>
       <c r="B730">
-        <v>80006.19368975493</v>
+        <v>50996.88728596076</v>
       </c>
       <c r="C730">
-        <v>8196.822192546893</v>
+        <v>3467.655277507119</v>
       </c>
     </row>
     <row r="731" spans="1:3">
@@ -8415,10 +8415,10 @@
         <v>729</v>
       </c>
       <c r="B731">
-        <v>76683.97940209231</v>
+        <v>47674.67299829815</v>
       </c>
       <c r="C731">
-        <v>8487.780256273769</v>
+        <v>3758.613341233994</v>
       </c>
     </row>
   </sheetData>

--- a/Stochastic_engine/CA_hydropower/CA_hydro_daily.xlsx
+++ b/Stochastic_engine/CA_hydropower/CA_hydro_daily.xlsx
@@ -396,10 +396,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>72226.10232088395</v>
+        <v>75227.73202417904</v>
       </c>
       <c r="C2">
-        <v>4600.12305579024</v>
+        <v>9179.049278686878</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -407,10 +407,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>67830.35768962782</v>
+        <v>70831.98739292292</v>
       </c>
       <c r="C3">
-        <v>2114.022979017923</v>
+        <v>6692.94920191456</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>78183.37215960132</v>
+        <v>81185.00186289642</v>
       </c>
       <c r="C4">
-        <v>4648.455325874013</v>
+        <v>9227.381548770651</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>78742.35452280928</v>
+        <v>81743.98422610438</v>
       </c>
       <c r="C5">
-        <v>5191.204294320763</v>
+        <v>9770.130517217402</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>72162.24186319349</v>
+        <v>75163.87156648857</v>
       </c>
       <c r="C6">
-        <v>6750.861238658988</v>
+        <v>11329.78746155562</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>71888.40608680532</v>
+        <v>76710.78369981058</v>
       </c>
       <c r="C7">
-        <v>2401.478703934533</v>
+        <v>6722.130788816768</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>75558.18339899459</v>
+        <v>82201.30892171004</v>
       </c>
       <c r="C8">
-        <v>4838.709028247402</v>
+        <v>8901.086975115235</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>72263.42148854111</v>
+        <v>80727.29492096673</v>
       </c>
       <c r="C9">
-        <v>6118.956195713426</v>
+        <v>9923.06000456686</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>68795.33674222762</v>
+        <v>79079.95808436345</v>
       </c>
       <c r="C10">
-        <v>2062.037063296854</v>
+        <v>5607.866734135883</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>63353.30713493137</v>
+        <v>75458.67638677736</v>
       </c>
       <c r="C11">
-        <v>7134.052102772233</v>
+        <v>10421.60763559686</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>67990.53618356827</v>
+        <v>81916.65334512442</v>
       </c>
       <c r="C12">
-        <v>5915.481191745357</v>
+        <v>8944.76258655558</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>66181.40779750563</v>
+        <v>80107.52495906178</v>
       </c>
       <c r="C13">
-        <v>3346.116444868231</v>
+        <v>6375.397839678453</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>65913.63624706074</v>
+        <v>81363.02622357909</v>
       </c>
       <c r="C14">
-        <v>4798.202377353602</v>
+        <v>7748.637778146842</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>56599.78082402154</v>
+        <v>73572.44361550205</v>
       </c>
       <c r="C15">
-        <v>10084.56017022944</v>
+        <v>12956.1495770057</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>44313.11137396464</v>
+        <v>62809.04698040733</v>
       </c>
       <c r="C16">
-        <v>7576.403884087385</v>
+        <v>10369.14729684666</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>51983.76170911741</v>
+        <v>72002.97013052227</v>
       </c>
       <c r="C17">
-        <v>1353.301145382882</v>
+        <v>4067.198564125172</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -572,10 +572,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>46297.10712862899</v>
+        <v>67839.58836499603</v>
       </c>
       <c r="C18">
-        <v>1817.553077518588</v>
+        <v>4452.604502243894</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -583,10 +583,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>39112.39352366493</v>
+        <v>62178.14757499415</v>
       </c>
       <c r="C19">
-        <v>6104.776401347116</v>
+        <v>8660.981832055439</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -594,10 +594,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>42118.41620956121</v>
+        <v>65184.17026089043</v>
       </c>
       <c r="C20">
-        <v>2258.106687266142</v>
+        <v>4814.312117974466</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -605,10 +605,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>46787.50333856244</v>
+        <v>69034.47829013687</v>
       </c>
       <c r="C21">
-        <v>5731.048161201825</v>
+        <v>8211.764385716548</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -616,10 +616,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>42610.27828160694</v>
+        <v>64038.47413342657</v>
       </c>
       <c r="C22">
-        <v>4647.259283340652</v>
+        <v>7052.486301661776</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -627,10 +627,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>44930.82311389259</v>
+        <v>65540.23986595744</v>
       </c>
       <c r="C23">
-        <v>3139.409278886904</v>
+        <v>5469.14709101443</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -638,10 +638,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>50042.02991768924</v>
+        <v>69832.66756999929</v>
       </c>
       <c r="C24">
-        <v>4650.602031973458</v>
+        <v>6904.850637907385</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -649,10 +649,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>46267.07543481806</v>
+        <v>65238.93398737331</v>
       </c>
       <c r="C25">
-        <v>1169.756356278475</v>
+        <v>3348.515756018803</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -660,10 +660,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>50908.24819492439</v>
+        <v>69061.32764772486</v>
       </c>
       <c r="C26">
-        <v>2841.419087061631</v>
+        <v>4944.68928060836</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -671,10 +671,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>54080.12959676727</v>
+        <v>72233.20904956774</v>
       </c>
       <c r="C27">
-        <v>2418.101689010899</v>
+        <v>4521.371882557627</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -682,10 +682,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>54007.84686927179</v>
+        <v>69341.73347530907</v>
       </c>
       <c r="C28">
-        <v>4902.001586006842</v>
+        <v>7013.112628810304</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -693,10 +693,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>64889.37872315314</v>
+        <v>77404.07248242723</v>
       </c>
       <c r="C29">
-        <v>3708.954625672647</v>
+        <v>5827.906517732841</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -704,10 +704,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>70334.70824865199</v>
+        <v>80030.2091611629</v>
       </c>
       <c r="C30">
-        <v>4094.212731520274</v>
+        <v>6221.005472837202</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -715,10 +715,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>66622.83476068519</v>
+        <v>73499.14282643292</v>
       </c>
       <c r="C31">
-        <v>5330.068730304111</v>
+        <v>7464.702320877774</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -726,10 +726,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>74962.67233191805</v>
+        <v>79019.78755090259</v>
       </c>
       <c r="C32">
-        <v>2846.871108766347</v>
+        <v>4989.345548596742</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -737,10 +737,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>79076.88890876427</v>
+        <v>80314.81128098564</v>
       </c>
       <c r="C33">
-        <v>81.09251244858524</v>
+        <v>2231.407801535714</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -748,10 +748,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>78461.40314511125</v>
+        <v>79699.32551733262</v>
       </c>
       <c r="C34">
-        <v>998.3570921735991</v>
+        <v>3148.672381260728</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -759,10 +759,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>80854.21950061717</v>
+        <v>78060.64930779279</v>
       </c>
       <c r="C35">
-        <v>7462.287829299958</v>
+        <v>8186.793507405428</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -770,10 +770,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>86447.30981386261</v>
+        <v>79622.24705599247</v>
       </c>
       <c r="C36">
-        <v>5052.990007674952</v>
+        <v>4351.686074798764</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -781,10 +781,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>84641.84679262596</v>
+        <v>73785.29146971006</v>
       </c>
       <c r="C37">
-        <v>7856.837577222403</v>
+        <v>5729.724033364557</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -792,10 +792,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>96151.35359647685</v>
+        <v>81263.30570851521</v>
       </c>
       <c r="C38">
-        <v>3575.839730354311</v>
+        <v>22.91657551480512</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -803,10 +803,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>94951.20494447122</v>
+        <v>76031.66449146382</v>
       </c>
       <c r="C39">
-        <v>7850.654485751325</v>
+        <v>2871.921719930162</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -814,10 +814,10 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>99309.77334189245</v>
+        <v>76358.74032383929</v>
       </c>
       <c r="C40">
-        <v>12248.52275227013</v>
+        <v>5843.980375467307</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -825,10 +825,10 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>99473.38406873809</v>
+        <v>76522.35105068493</v>
       </c>
       <c r="C41">
-        <v>12574.69057774136</v>
+        <v>6170.148200938542</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -836,10 +836,10 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>97581.70824840496</v>
+        <v>75275.74358160378</v>
       </c>
       <c r="C42">
-        <v>9534.526839285752</v>
+        <v>3649.49793713187</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -847,10 +847,10 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>96471.3514049583</v>
+        <v>74810.45508940909</v>
       </c>
       <c r="C43">
-        <v>8419.408476442</v>
+        <v>3053.893048937058</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -858,10 +858,10 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>99086.19419568393</v>
+        <v>78070.3662313867</v>
       </c>
       <c r="C44">
-        <v>13276.74916956749</v>
+        <v>8430.74721671149</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -869,10 +869,10 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>94796.32123857035</v>
+        <v>74425.56162552511</v>
       </c>
       <c r="C45">
-        <v>13407.01304542743</v>
+        <v>9080.524567220373</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -880,10 +880,10 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>97845.74280167274</v>
+        <v>78120.05153987945</v>
       </c>
       <c r="C46">
-        <v>8060.091589351415</v>
+        <v>4253.116585793292</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -891,10 +891,10 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>96077.4950902065</v>
+        <v>76996.8721796652</v>
       </c>
       <c r="C47">
-        <v>9552.85154973912</v>
+        <v>6265.390020829936</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -902,10 +902,10 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>90468.94670873576</v>
+        <v>71388.32379819445</v>
       </c>
       <c r="C48">
-        <v>12686.01289870605</v>
+        <v>9398.551369796867</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -913,10 +913,10 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>94851.00414141569</v>
+        <v>75339.60677885257</v>
       </c>
       <c r="C49">
-        <v>9049.773732377271</v>
+        <v>5516.647686650055</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -924,10 +924,10 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>91721.23334886912</v>
+        <v>71779.06153428419</v>
       </c>
       <c r="C50">
-        <v>8171.10419829123</v>
+        <v>4392.313635745985</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -935,10 +935,10 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>95729.21865936273</v>
+        <v>75356.272392756</v>
       </c>
       <c r="C51">
-        <v>9538.636563687087</v>
+        <v>5514.181484323807</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -946,10 +946,10 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>95861.32161275404</v>
+        <v>75057.6008941255</v>
       </c>
       <c r="C52">
-        <v>12088.73869754109</v>
+        <v>7818.61910135978</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -957,10 +957,10 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>98384.9819716964</v>
+        <v>77150.48680104606</v>
       </c>
       <c r="C53">
-        <v>10620.9917304647</v>
+        <v>6105.207617465358</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -968,10 +968,10 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>93594.31939548539</v>
+        <v>71929.04977281325</v>
       </c>
       <c r="C54">
-        <v>9071.214272050729</v>
+        <v>4309.765642233355</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -979,10 +979,10 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>94293.86495301769</v>
+        <v>72628.59533034555</v>
       </c>
       <c r="C55">
-        <v>12383.60643486269</v>
+        <v>7622.157805045317</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -990,10 +990,10 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>96106.52187686488</v>
+        <v>77339.98754017547</v>
       </c>
       <c r="C56">
-        <v>12450.76756231132</v>
+        <v>8745.76983546669</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1001,10 +1001,10 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>90946.71352640013</v>
+        <v>75078.91447569344</v>
       </c>
       <c r="C57">
-        <v>12709.11896704412</v>
+        <v>10060.57214317224</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1012,10 +1012,10 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>84773.02314520591</v>
+        <v>71803.95938048196</v>
       </c>
       <c r="C58">
-        <v>9034.466627107016</v>
+        <v>7442.370706207883</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1023,10 +1023,10 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>83248.57874498087</v>
+        <v>73178.25026623966</v>
       </c>
       <c r="C59">
-        <v>11515.72903507137</v>
+        <v>10980.08401714499</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1034,10 +1034,10 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>81867.54990923092</v>
+        <v>74695.95671647246</v>
       </c>
       <c r="C60">
-        <v>11049.52201045873</v>
+        <v>11570.32789550509</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1045,10 +1045,10 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>80788.20098516202</v>
+        <v>76515.34307838633</v>
       </c>
       <c r="C61">
-        <v>11581.10598864564</v>
+        <v>13158.36277666475</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1056,10 +1056,10 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>78610.52421117939</v>
+        <v>74337.66630440368</v>
       </c>
       <c r="C62">
-        <v>11676.4435973794</v>
+        <v>13253.7003853985</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1067,10 +1067,10 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>75420.5065718651</v>
+        <v>69763.52892884485</v>
       </c>
       <c r="C63">
-        <v>6688.580686344861</v>
+        <v>8071.267671750135</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1078,10 +1078,10 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>86499.75929622767</v>
+        <v>79458.66191696288</v>
       </c>
       <c r="C64">
-        <v>11922.86662888123</v>
+        <v>13110.98381167267</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1089,10 +1089,10 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>86538.56079195034</v>
+        <v>78113.34367644103</v>
       </c>
       <c r="C65">
-        <v>10097.84059103107</v>
+        <v>11091.38797120868</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1100,10 +1100,10 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>88222.81293386803</v>
+        <v>78413.47608211418</v>
       </c>
       <c r="C66">
-        <v>7338.940634086164</v>
+        <v>8137.918211649945</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1111,10 +1111,10 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>90575.16531683292</v>
+        <v>79381.70872883454</v>
       </c>
       <c r="C67">
-        <v>11542.47811954332</v>
+        <v>12146.88589449327</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1122,10 +1122,10 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>95498.87078321724</v>
+        <v>82921.29445897434</v>
       </c>
       <c r="C68">
-        <v>11163.80241170798</v>
+        <v>11573.6403840441</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1133,10 +1133,10 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>86541.27286923863</v>
+        <v>73963.69654499574</v>
       </c>
       <c r="C69">
-        <v>6896.611330469089</v>
+        <v>7306.449302805207</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1144,10 +1144,10 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>98624.24953567749</v>
+        <v>85928.17974560853</v>
       </c>
       <c r="C70">
-        <v>6124.639765918764</v>
+        <v>6209.711886915229</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1155,10 +1155,10 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>89295.72918950228</v>
+        <v>76481.16593360726</v>
       </c>
       <c r="C71">
-        <v>12899.8410445251</v>
+        <v>12660.14731418191</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1166,10 +1166,10 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>96417.21443519593</v>
+        <v>83484.15771347485</v>
       </c>
       <c r="C72">
-        <v>8889.709808706055</v>
+        <v>8325.250227023218</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1177,10 +1177,10 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>91507.92078256463</v>
+        <v>78456.37059501748</v>
       </c>
       <c r="C73">
-        <v>10530.01812068869</v>
+        <v>9640.792687666202</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1188,10 +1188,10 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>90571.71752539344</v>
+        <v>77401.67387202024</v>
       </c>
       <c r="C74">
-        <v>8792.69537240094</v>
+        <v>7578.704088038798</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1199,10 +1199,10 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>96790.01210500181</v>
+        <v>83501.47498580253</v>
       </c>
       <c r="C75">
-        <v>11997.00385068886</v>
+        <v>10458.24671498706</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1210,10 +1210,10 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>94095.04794444997</v>
+        <v>80806.51082525069</v>
       </c>
       <c r="C76">
-        <v>12049.72025507694</v>
+        <v>10510.96311937515</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1221,10 +1221,10 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>97892.45443800402</v>
+        <v>84552.47391105986</v>
       </c>
       <c r="C77">
-        <v>11519.204057468</v>
+        <v>9553.47765245291</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1232,10 +1232,10 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>103749.6043104768</v>
+        <v>90358.18037578772</v>
       </c>
       <c r="C78">
-        <v>11490.87001294779</v>
+        <v>9098.174338619414</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1243,10 +1243,10 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>100476.1431653366</v>
+        <v>87033.27582290268</v>
       </c>
       <c r="C79">
-        <v>14667.06566832355</v>
+        <v>11847.40072468188</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1254,10 +1254,10 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>98407.46762443535</v>
+        <v>84913.15687425649</v>
       </c>
       <c r="C80">
-        <v>16009.01010026361</v>
+        <v>12762.37588730864</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1265,10 +1265,10 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>93560.96926977395</v>
+        <v>80015.21511185021</v>
       </c>
       <c r="C81">
-        <v>16586.40454359088</v>
+        <v>12912.80106132262</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1276,10 +1276,10 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>95910.96711131481</v>
+        <v>82313.76954564617</v>
       </c>
       <c r="C82">
-        <v>14732.00700114398</v>
+        <v>10631.43424956243</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1287,10 +1287,10 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>101122.3803999208</v>
+        <v>87525.18283425216</v>
       </c>
       <c r="C83">
-        <v>16509.6838706875</v>
+        <v>12409.11111910594</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1298,10 +1298,10 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>95974.39675024636</v>
+        <v>85015.45144239809</v>
       </c>
       <c r="C84">
-        <v>16129.73951052864</v>
+        <v>12636.10452393792</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1309,10 +1309,10 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>94819.12672280884</v>
+        <v>86498.43367278091</v>
       </c>
       <c r="C85">
-        <v>13581.04140565342</v>
+        <v>10694.34418405354</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1320,10 +1320,10 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>90527.03141849473</v>
+        <v>84844.5906262872</v>
       </c>
       <c r="C86">
-        <v>13569.25058191232</v>
+        <v>11289.49112530328</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1331,10 +1331,10 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>88467.32778068264</v>
+        <v>85423.13924629548</v>
       </c>
       <c r="C87">
-        <v>13151.1495297581</v>
+        <v>11478.32783813989</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1342,10 +1342,10 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>89784.04966720595</v>
+        <v>89378.11339063919</v>
       </c>
       <c r="C88">
-        <v>12283.53157088601</v>
+        <v>11217.64764425864</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1353,10 +1353,10 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>86177.99603068452</v>
+        <v>88410.31201193812</v>
       </c>
       <c r="C89">
-        <v>14454.91461512289</v>
+        <v>13995.96845348635</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1364,10 +1364,10 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>91147.27954379082</v>
+        <v>93379.59552504442</v>
       </c>
       <c r="C90">
-        <v>17174.45169268591</v>
+        <v>16715.50553104938</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1375,10 +1375,10 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>86286.80061365012</v>
+        <v>88480.15969267316</v>
       </c>
       <c r="C91">
-        <v>12478.73458246324</v>
+        <v>13316.0841888887</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1386,10 +1386,10 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>82682.36682487452</v>
+        <v>84836.76900166702</v>
       </c>
       <c r="C92">
-        <v>18179.58661835163</v>
+        <v>20313.23199283906</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1397,10 +1397,10 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>91486.44377980439</v>
+        <v>93601.88905436636</v>
       </c>
       <c r="C93">
-        <v>11061.06697093608</v>
+        <v>14491.0081134855</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1408,10 +1408,10 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>90993.28705000189</v>
+        <v>93069.77542233329</v>
       </c>
       <c r="C94">
-        <v>12163.52179440409</v>
+        <v>16889.7587050155</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1419,10 +1419,10 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>98910.72218685297</v>
+        <v>100948.2536569538</v>
       </c>
       <c r="C95">
-        <v>11855.19731302811</v>
+        <v>17877.72999170151</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1430,10 +1430,10 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>99990.63478687589</v>
+        <v>101989.2093547462</v>
       </c>
       <c r="C96">
-        <v>15095.07078024073</v>
+        <v>22413.89922697611</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1441,10 +1441,10 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>97973.20376612819</v>
+        <v>99971.77833399847</v>
       </c>
       <c r="C97">
-        <v>15456.31405398601</v>
+        <v>22775.14250072139</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1452,10 +1452,10 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>96678.56272432269</v>
+        <v>99106.14008937175</v>
       </c>
       <c r="C98">
-        <v>12606.0934447243</v>
+        <v>19892.07587100267</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1463,10 +1463,10 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>98122.57998890283</v>
+        <v>100979.1601511307</v>
       </c>
       <c r="C99">
-        <v>15492.41727833168</v>
+        <v>22745.55368415303</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1474,10 +1474,10 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>94583.27898706106</v>
+        <v>97868.86194646767</v>
       </c>
       <c r="C100">
-        <v>13815.71906566706</v>
+        <v>21036.0094510314</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1485,10 +1485,10 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>91301.07988289502</v>
+        <v>95015.66563948043</v>
       </c>
       <c r="C101">
-        <v>14870.05822171699</v>
+        <v>22057.50258662432</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1496,10 +1496,10 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>85934.21119131702</v>
+        <v>90077.79974508123</v>
       </c>
       <c r="C102">
-        <v>13029.61806825134</v>
+        <v>20184.21641270164</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1507,10 +1507,10 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>85478.95561281552</v>
+        <v>90051.54696375849</v>
       </c>
       <c r="C103">
-        <v>12672.82877101607</v>
+        <v>19794.58109500936</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1518,10 +1518,10 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>89749.38507988576</v>
+        <v>94321.97643082873</v>
       </c>
       <c r="C104">
-        <v>8829.005113123934</v>
+        <v>15950.75743711722</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1529,10 +1529,10 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>93377.91978275502</v>
+        <v>97125.43612249702</v>
       </c>
       <c r="C105">
-        <v>11486.31793365868</v>
+        <v>18056.98807282149</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1540,10 +1540,10 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>85805.90922488165</v>
+        <v>88728.35055342267</v>
       </c>
       <c r="C106">
-        <v>12293.42359323779</v>
+        <v>18313.01154757011</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1551,10 +1551,10 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>93264.29293130463</v>
+        <v>95361.65924864469</v>
       </c>
       <c r="C107">
-        <v>17330.80230168733</v>
+        <v>22799.30807118918</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1562,10 +1562,10 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>89658.74181306556</v>
+        <v>90931.03311920461</v>
       </c>
       <c r="C108">
-        <v>18231.08626521951</v>
+        <v>23148.50984989088</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1573,10 +1573,10 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>88259.02350180187</v>
+        <v>88706.23979673997</v>
       </c>
       <c r="C109">
-        <v>16669.08637767831</v>
+        <v>21035.4277775192</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1584,10 +1584,10 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>84330.70751163254</v>
+        <v>83952.84879536967</v>
       </c>
       <c r="C110">
-        <v>21033.05140835536</v>
+        <v>24848.31062336578</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1595,10 +1595,10 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>88039.09734507832</v>
+        <v>87661.23862881545</v>
       </c>
       <c r="C111">
-        <v>18791.98096285028</v>
+        <v>22607.2401778607</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1606,10 +1606,10 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>82191.21267344488</v>
+        <v>83126.90658347096</v>
       </c>
       <c r="C112">
-        <v>15981.45575978737</v>
+        <v>20483.00071003171</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1617,10 +1617,10 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>81621.89612093961</v>
+        <v>83871.14265725463</v>
       </c>
       <c r="C113">
-        <v>14976.12066284822</v>
+        <v>20163.95134832648</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1628,10 +1628,10 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>77113.14587397339</v>
+        <v>80675.94503657738</v>
       </c>
       <c r="C114">
-        <v>16402.35012587229</v>
+        <v>22276.46654658447</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1639,10 +1639,10 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>81549.62316286274</v>
+        <v>86425.97495175569</v>
       </c>
       <c r="C115">
-        <v>13100.25009061829</v>
+        <v>19660.6522465644</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1650,10 +1650,10 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>75516.50915208155</v>
+        <v>81706.41356726344</v>
       </c>
       <c r="C116">
-        <v>12294.90123401749</v>
+        <v>19541.58912519752</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1661,10 +1661,10 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>71067.31318122907</v>
+        <v>78570.77022269991</v>
       </c>
       <c r="C117">
-        <v>12016.79266932139</v>
+        <v>19949.76629573536</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1672,10 +1672,10 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>72568.45876436793</v>
+        <v>80071.91580583877</v>
       </c>
       <c r="C118">
-        <v>9968.035600958978</v>
+        <v>17901.00922737295</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1683,10 +1683,10 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>78142.37123489717</v>
+        <v>82269.67326939708</v>
       </c>
       <c r="C119">
-        <v>18533.96792988852</v>
+        <v>25476.05783258911</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1694,10 +1694,10 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>79287.58043184866</v>
+        <v>80038.72745937765</v>
       </c>
       <c r="C120">
-        <v>16943.46297312743</v>
+        <v>22894.66915211466</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1705,10 +1705,10 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>84213.6824872577</v>
+        <v>81588.67450781575</v>
       </c>
       <c r="C121">
-        <v>18703.96987714179</v>
+        <v>23664.29233241565</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1716,10 +1716,10 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>78683.74268434595</v>
+        <v>72682.57969793308</v>
       </c>
       <c r="C122">
-        <v>15132.10894179523</v>
+        <v>19101.54767335572</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1727,10 +1727,10 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>80087.02012430463</v>
+        <v>70709.70213092082</v>
       </c>
       <c r="C123">
-        <v>19104.83070898665</v>
+        <v>22083.38571683377</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1738,10 +1738,10 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>84654.76444236794</v>
+        <v>71901.29144201323</v>
       </c>
       <c r="C124">
-        <v>13842.43765552627</v>
+        <v>15830.10893966002</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1749,10 +1749,10 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>88192.00078518664</v>
+        <v>75438.52778483192</v>
       </c>
       <c r="C125">
-        <v>15323.95995492706</v>
+        <v>17311.63123906081</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1760,10 +1760,10 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>85121.38869901572</v>
+        <v>73542.37739742897</v>
       </c>
       <c r="C126">
-        <v>14296.16674170808</v>
+        <v>15887.85246549136</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1771,10 +1771,10 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>87383.69075140463</v>
+        <v>76979.14114858584</v>
       </c>
       <c r="C127">
-        <v>14327.37062377422</v>
+        <v>15523.07078720704</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1782,10 +1782,10 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>85463.01173607973</v>
+        <v>76232.9238320289</v>
       </c>
       <c r="C128">
-        <v>16455.06783518072</v>
+        <v>17254.78243826308</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1793,10 +1793,10 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>81786.98441534275</v>
+        <v>73731.35821005987</v>
       </c>
       <c r="C129">
-        <v>18112.30850140514</v>
+        <v>18516.03754413703</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1804,10 +1804,10 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>81941.63734373504</v>
+        <v>75060.47283722012</v>
       </c>
       <c r="C130">
-        <v>17504.71027591197</v>
+        <v>17512.45375829339</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1815,10 +1815,10 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>88611.88105976328</v>
+        <v>82905.17825201631</v>
       </c>
       <c r="C131">
-        <v>22929.18133438327</v>
+        <v>22540.93925641423</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1826,10 +1826,10 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>90064.63152284484</v>
+        <v>84357.92871509786</v>
       </c>
       <c r="C132">
-        <v>15135.55921119144</v>
+        <v>14747.31713322241</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1837,10 +1837,10 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>82039.43861997609</v>
+        <v>74908.45320643495</v>
       </c>
       <c r="C133">
-        <v>21043.99056541168</v>
+        <v>20589.58032491534</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1848,10 +1848,10 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>85541.46500878998</v>
+        <v>76986.19698945463</v>
       </c>
       <c r="C134">
-        <v>21699.92100901601</v>
+        <v>21179.34260599236</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1859,10 +1859,10 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>82625.53930826981</v>
+        <v>72645.98868314027</v>
       </c>
       <c r="C135">
-        <v>18754.34269680618</v>
+        <v>18167.59613125522</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1870,10 +1870,10 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>76053.67696232475</v>
+        <v>64649.84373140104</v>
       </c>
       <c r="C136">
-        <v>18138.2923754938</v>
+        <v>17485.37764741553</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1881,10 +1881,10 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>82846.24864701739</v>
+        <v>70018.13281029949</v>
       </c>
       <c r="C137">
-        <v>22191.22615184169</v>
+        <v>21472.14326123612</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1892,10 +1892,10 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>83617.13743599267</v>
+        <v>69364.73899348058</v>
       </c>
       <c r="C138">
-        <v>17369.16223877263</v>
+        <v>16583.91118563975</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1903,10 +1903,10 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>87788.38488022322</v>
+        <v>73535.98643771114</v>
       </c>
       <c r="C139">
-        <v>17453.88213035404</v>
+        <v>16668.63107722116</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1914,10 +1914,10 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>83276.71041214248</v>
+        <v>68504.79898265743</v>
       </c>
       <c r="C140">
-        <v>20011.27996173702</v>
+        <v>19244.31314780262</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1925,10 +1925,10 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>84130.895463006</v>
+        <v>68839.47104654802</v>
       </c>
       <c r="C141">
-        <v>19608.04816308713</v>
+        <v>18859.36558835119</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1936,10 +1936,10 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>83120.41332734817</v>
+        <v>67309.47592391724</v>
       </c>
       <c r="C142">
-        <v>13422.94969636353</v>
+        <v>12692.55136082607</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1947,10 +1947,10 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>81175.05883186743</v>
+        <v>64844.60844146356</v>
       </c>
       <c r="C143">
-        <v>19583.33160879528</v>
+        <v>18871.21751245629</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1958,10 +1958,10 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>86382.52931648305</v>
+        <v>69532.56593910624</v>
       </c>
       <c r="C144">
-        <v>18289.25941803852</v>
+        <v>17595.42956089798</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1969,10 +1969,10 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>83687.10900082203</v>
+        <v>66317.63263647228</v>
       </c>
       <c r="C145">
-        <v>19942.93339433612</v>
+        <v>19267.38777639406</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1980,10 +1980,10 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>82245.87690297961</v>
+        <v>64876.40053862986</v>
       </c>
       <c r="C146">
-        <v>16556.34621769442</v>
+        <v>15880.80059975236</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -1991,10 +1991,10 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>83919.83639509309</v>
+        <v>66505.50622729174</v>
       </c>
       <c r="C147">
-        <v>13660.10446178685</v>
+        <v>13494.77284648505</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2002,10 +2002,10 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>75030.07466781307</v>
+        <v>57570.89069656012</v>
       </c>
       <c r="C148">
-        <v>20010.22280666987</v>
+        <v>20355.10519400833</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2013,10 +2013,10 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>74821.80051648803</v>
+        <v>57317.76274178352</v>
       </c>
       <c r="C149">
-        <v>12732.4735268685</v>
+        <v>13587.56991684722</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2024,10 +2024,10 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>80498.41618521794</v>
+        <v>62949.52460706182</v>
       </c>
       <c r="C150">
-        <v>14830.43957816238</v>
+        <v>16195.74997078137</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2035,10 +2035,10 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>74629.73811656023</v>
+        <v>57035.99273495252</v>
       </c>
       <c r="C151">
-        <v>15956.05460824413</v>
+        <v>17831.57900350338</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2046,10 +2046,10 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>74823.87564460631</v>
+        <v>57185.276459547</v>
       </c>
       <c r="C152">
-        <v>16255.25640623075</v>
+        <v>18640.99480413027</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2057,10 +2057,10 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>74455.91300572449</v>
+        <v>56817.31382066519</v>
       </c>
       <c r="C153">
-        <v>15325.06248729039</v>
+        <v>17710.80088518991</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2068,10 +2068,10 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>77045.74928433358</v>
+        <v>60266.60198627489</v>
       </c>
       <c r="C154">
-        <v>11864.17772751524</v>
+        <v>14580.49957836231</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2079,10 +2079,10 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>68796.07366409406</v>
+        <v>52876.37825303597</v>
       </c>
       <c r="C155">
-        <v>18967.44512355865</v>
+        <v>22014.35042735327</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2090,10 +2090,10 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>68645.59882954677</v>
+        <v>53585.35530548929</v>
       </c>
       <c r="C156">
-        <v>14037.87492914332</v>
+        <v>17415.36368588549</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2101,10 +2101,10 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>73396.24888539153</v>
+        <v>59195.45724833466</v>
       </c>
       <c r="C157">
-        <v>15298.66543299706</v>
+        <v>19006.73764268678</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2112,10 +2112,10 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>74379.20296733335</v>
+        <v>61037.86321727708</v>
       </c>
       <c r="C158">
-        <v>17267.77500666441</v>
+        <v>21306.43066930168</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2123,10 +2123,10 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>68463.24443573602</v>
+        <v>55981.35657268039</v>
       </c>
       <c r="C159">
-        <v>14443.37774654697</v>
+        <v>18812.61686213179</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2134,10 +2134,10 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>61384.64624308389</v>
+        <v>48902.75838002825</v>
       </c>
       <c r="C160">
-        <v>14790.41227066165</v>
+        <v>19159.65138624647</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2145,10 +2145,10 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>69188.40185051924</v>
+        <v>56959.44690544328</v>
       </c>
       <c r="C161">
-        <v>13058.70323792565</v>
+        <v>17206.23815160531</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2156,10 +2156,10 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>73712.7456364712</v>
+        <v>61736.72360937493</v>
       </c>
       <c r="C162">
-        <v>14783.26734297997</v>
+        <v>18709.09805475446</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2167,10 +2167,10 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>66049.17303597662</v>
+        <v>54326.08392686005</v>
       </c>
       <c r="C163">
-        <v>10441.64821302516</v>
+        <v>14145.77472289447</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2178,10 +2178,10 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>75406.86845162333</v>
+        <v>63936.71226048647</v>
       </c>
       <c r="C164">
-        <v>12840.41518988893</v>
+        <v>16322.83749785308</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2189,10 +2189,10 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>69788.34284217893</v>
+        <v>58571.11956902173</v>
       </c>
       <c r="C165">
-        <v>18707.56392594369</v>
+        <v>21968.28203200267</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2200,10 +2200,10 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>67541.2856539873</v>
+        <v>56576.9952988098</v>
       </c>
       <c r="C166">
-        <v>17728.21197969714</v>
+        <v>20767.22588385095</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2211,10 +2211,10 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>66357.1850098657</v>
+        <v>55392.8946546882</v>
       </c>
       <c r="C167">
-        <v>16853.10902074312</v>
+        <v>19892.12292489692</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2222,10 +2222,10 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>71650.4858854668</v>
+        <v>59826.06659499818</v>
       </c>
       <c r="C168">
-        <v>14628.0866208981</v>
+        <v>17340.63333557485</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2233,10 +2233,10 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>66583.42958605055</v>
+        <v>53898.88136029081</v>
       </c>
       <c r="C169">
-        <v>15500.18439412571</v>
+        <v>17886.2639193254</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2244,10 +2244,10 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>70286.25292646294</v>
+        <v>56741.5757654121</v>
       </c>
       <c r="C170">
-        <v>14469.25960774836</v>
+        <v>16528.87194347099</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2255,10 +2255,10 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>72251.60449827212</v>
+        <v>57846.79840193015</v>
       </c>
       <c r="C171">
-        <v>17559.39701735169</v>
+        <v>19292.54216359726</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2266,10 +2266,10 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>77045.2881870789</v>
+        <v>61780.35315544582</v>
       </c>
       <c r="C172">
-        <v>14621.02521370928</v>
+        <v>16027.70317047779</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2277,10 +2277,10 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>73390.63205882181</v>
+        <v>57265.56809189764</v>
       </c>
       <c r="C173">
-        <v>13959.96238587695</v>
+        <v>15040.1731531684</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2288,10 +2288,10 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>66491.73455369538</v>
+        <v>50366.6705867712</v>
       </c>
       <c r="C174">
-        <v>17343.94597440394</v>
+        <v>18424.15674169539</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2299,10 +2299,10 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>65901.93753488021</v>
+        <v>52214.67453430047</v>
       </c>
       <c r="C175">
-        <v>18405.45180682563</v>
+        <v>19598.90779391339</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2310,10 +2310,10 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>69051.41624962492</v>
+        <v>57801.95421538963</v>
       </c>
       <c r="C176">
-        <v>16971.54130887727</v>
+        <v>18278.24251576133</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2321,10 +2321,10 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>70476.11069664439</v>
+        <v>61664.44962875354</v>
       </c>
       <c r="C177">
-        <v>11606.24805477091</v>
+        <v>13026.19448145126</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2332,10 +2332,10 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>60995.29694431697</v>
+        <v>54621.43684277058</v>
       </c>
       <c r="C178">
-        <v>8399.370005187926</v>
+        <v>9932.561651664591</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2343,10 +2343,10 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>64491.01728152295</v>
+        <v>60554.95814632101</v>
       </c>
       <c r="C179">
-        <v>16789.67252243932</v>
+        <v>18436.10938871229</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2354,10 +2354,10 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>62866.12301171698</v>
+        <v>61367.86484285949</v>
       </c>
       <c r="C180">
-        <v>15606.82116671987</v>
+        <v>17366.50325278914</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2365,10 +2365,10 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>63408.63838287487</v>
+        <v>61910.38021401737</v>
       </c>
       <c r="C181">
-        <v>16839.44551216716</v>
+        <v>18599.12759823644</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2376,10 +2376,10 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>59740.43376748555</v>
+        <v>58633.57973908581</v>
       </c>
       <c r="C182">
-        <v>13915.89030294767</v>
+        <v>16332.78089102007</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2387,10 +2387,10 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>66540.55619737538</v>
+        <v>65825.10630943339</v>
       </c>
       <c r="C183">
-        <v>15479.52641695143</v>
+        <v>18553.62550702695</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2398,10 +2398,10 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>64276.43880335552</v>
+        <v>63952.39305587129</v>
       </c>
       <c r="C184">
-        <v>13869.94631761917</v>
+        <v>17601.25390969782</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2409,10 +2409,10 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>60688.75337279358</v>
+        <v>60756.1117657671</v>
       </c>
       <c r="C185">
-        <v>17670.01184657369</v>
+        <v>22058.52794065546</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2420,10 +2420,10 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>62440.56719142001</v>
+        <v>62899.32972485128</v>
       </c>
       <c r="C186">
-        <v>8766.074812394989</v>
+        <v>13811.79940847988</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2431,10 +2431,10 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>63200.11257658195</v>
+        <v>64050.27925047098</v>
       </c>
       <c r="C187">
-        <v>13629.85632833496</v>
+        <v>19332.78942642298</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2442,10 +2442,10 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>61769.08292522885</v>
+        <v>62619.24959911788</v>
       </c>
       <c r="C188">
-        <v>10322.87451993979</v>
+        <v>16025.80761802781</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2453,10 +2453,10 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>57790.47154563132</v>
+        <v>58718.16787741423</v>
       </c>
       <c r="C189">
-        <v>12199.24415226425</v>
+        <v>18319.30704116021</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2464,10 +2464,10 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>68404.02488551784</v>
+        <v>69409.25087519464</v>
       </c>
       <c r="C190">
-        <v>12308.9442266385</v>
+        <v>18846.13690634238</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2475,10 +2475,10 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>59518.82101209366</v>
+        <v>60601.57665966434</v>
       </c>
       <c r="C191">
-        <v>9511.009007442064</v>
+        <v>16465.33147795387</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2486,10 +2486,10 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>59508.51378776196</v>
+        <v>60668.79909322652</v>
       </c>
       <c r="C192">
-        <v>7467.242716333698</v>
+        <v>14838.69497765343</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2497,10 +2497,10 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>62484.03136539215</v>
+        <v>63721.84632875059</v>
       </c>
       <c r="C193">
-        <v>11472.81196810198</v>
+        <v>19261.39402022965</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2508,10 +2508,10 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>58289.02407254958</v>
+        <v>59604.3686938019</v>
       </c>
       <c r="C194">
-        <v>2534.788771240201</v>
+        <v>10740.5006141758</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2519,10 +2519,10 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>58976.20853754295</v>
+        <v>60291.55315879527</v>
       </c>
       <c r="C195">
-        <v>9827.211034122745</v>
+        <v>18032.92287705834</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2530,10 +2530,10 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>56790.0581742194</v>
+        <v>58628.12637287705</v>
       </c>
       <c r="C196">
-        <v>8539.255543245445</v>
+        <v>16757.9219122595</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2541,10 +2541,10 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>55016.14875953594</v>
+        <v>57376.94053559894</v>
       </c>
       <c r="C197">
-        <v>7334.437267186216</v>
+        <v>15566.05816227872</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2552,10 +2552,10 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>53635.33542575493</v>
+        <v>56518.85077922326</v>
       </c>
       <c r="C198">
-        <v>7705.167451044673</v>
+        <v>15949.74287221564</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2563,10 +2563,10 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>49687.95737403648</v>
+        <v>53094.19630491015</v>
       </c>
       <c r="C199">
-        <v>9303.831033576964</v>
+        <v>17561.36098082638</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2574,10 +2574,10 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>52249.52110161928</v>
+        <v>56178.48360989829</v>
       </c>
       <c r="C200">
-        <v>5466.615980962051</v>
+        <v>13737.10045428992</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2585,10 +2585,10 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>55044.79675552824</v>
+        <v>59496.48284121259</v>
       </c>
       <c r="C201">
-        <v>4076.391963471309</v>
+        <v>12359.83096287763</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2596,10 +2596,10 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>54184.13276396741</v>
+        <v>58635.81884965176</v>
       </c>
       <c r="C202">
-        <v>3643.130594803305</v>
+        <v>11926.56959420963</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2607,10 +2607,10 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>51958.50629806229</v>
+        <v>56538.42604857157</v>
       </c>
       <c r="C203">
-        <v>8793.953311468093</v>
+        <v>17035.26779094106</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2618,10 +2618,10 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>47137.61417964709</v>
+        <v>51845.7675949813</v>
       </c>
       <c r="C204">
-        <v>5711.205996054236</v>
+        <v>13910.39595559383</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2629,10 +2629,10 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>52325.36101963709</v>
+        <v>57161.74809979623</v>
       </c>
       <c r="C205">
-        <v>8598.448548814718</v>
+        <v>16755.51398842096</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2640,10 +2640,10 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>47447.07766799995</v>
+        <v>52411.69841298402</v>
       </c>
       <c r="C206">
-        <v>4507.680711257439</v>
+        <v>12622.62163093032</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2651,10 +2651,10 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>51475.39755338273</v>
+        <v>56568.25196319172</v>
       </c>
       <c r="C207">
-        <v>6263.98900305801</v>
+        <v>14336.80540279753</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2662,10 +2662,10 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>51871.58749492124</v>
+        <v>57092.67556955516</v>
       </c>
       <c r="C208">
-        <v>5658.650836687189</v>
+        <v>13689.34271649335</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2673,10 +2673,10 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>54656.0048008196</v>
+        <v>59877.09287545353</v>
       </c>
       <c r="C209">
-        <v>6406.966975379784</v>
+        <v>14437.65885518595</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2684,10 +2684,10 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>44551.29935640846</v>
+        <v>49770.0965654657</v>
       </c>
       <c r="C210">
-        <v>4043.856925693425</v>
+        <v>12166.42631176103</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2695,10 +2695,10 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>48541.28851637169</v>
+        <v>53757.79485985225</v>
       </c>
       <c r="C211">
-        <v>1821.517562742849</v>
+        <v>10035.9644550719</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2706,10 +2706,10 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>46077.5361643143</v>
+        <v>51291.75164221818</v>
       </c>
       <c r="C212">
-        <v>7444.470648752304</v>
+        <v>15750.7950473428</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2717,10 +2717,10 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>46274.35758355082</v>
+        <v>51486.28219587802</v>
       </c>
       <c r="C213">
-        <v>1541.707473581173</v>
+        <v>9939.909378433111</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2728,10 +2728,10 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>52375.95698037453</v>
+        <v>57585.59072712505</v>
       </c>
       <c r="C214">
-        <v>1743.174121798539</v>
+        <v>10233.25353291192</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2739,10 +2739,10 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>55059.89422038889</v>
+        <v>60267.23710156274</v>
       </c>
       <c r="C215">
-        <v>2530.928885764718</v>
+        <v>11112.88580313954</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2750,10 +2750,10 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>44202.68501575525</v>
+        <v>49410.02789692909</v>
       </c>
       <c r="C216">
-        <v>-521.7218979386948</v>
+        <v>8060.235019436127</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2761,10 +2761,10 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>49284.28915293736</v>
+        <v>54516.90217234434</v>
       </c>
       <c r="C217">
-        <v>1031.169613894425</v>
+        <v>9337.093478356192</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2772,10 +2772,10 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>40887.94670483861</v>
+        <v>46145.82986247872</v>
       </c>
       <c r="C218">
-        <v>-87.48040085147204</v>
+        <v>7942.410410697239</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2783,10 +2783,10 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>44495.2376517083</v>
+        <v>49778.39094758155</v>
       </c>
       <c r="C219">
-        <v>3188.766786916054</v>
+        <v>10942.62454555171</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2794,10 +2794,10 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>41519.42149713777</v>
+        <v>46827.84493124414</v>
       </c>
       <c r="C220">
-        <v>167.0955652940738</v>
+        <v>7644.920271016677</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2805,10 +2805,10 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>47047.42502973722</v>
+        <v>52381.11860207673</v>
       </c>
       <c r="C221">
-        <v>4988.734732732903</v>
+        <v>12190.52638554245</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2816,10 +2816,10 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>47482.14401712167</v>
+        <v>52841.10772769431</v>
       </c>
       <c r="C222">
-        <v>6569.398175574846</v>
+        <v>13495.15677547134</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2827,10 +2827,10 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>47768.58951129505</v>
+        <v>53127.55322186769</v>
       </c>
       <c r="C223">
-        <v>5501.937832034955</v>
+        <v>12427.69643193145</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2838,10 +2838,10 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>44490.92512774132</v>
+        <v>49829.06859345391</v>
       </c>
       <c r="C224">
-        <v>4497.155954275231</v>
+        <v>11285.78847697741</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2849,10 +2849,10 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>49058.10009261634</v>
+        <v>54375.4233134689</v>
       </c>
       <c r="C225">
-        <v>4095.71999543384</v>
+        <v>10747.22644094171</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2860,10 +2860,10 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>47823.10993931913</v>
+        <v>53119.61291531165</v>
       </c>
       <c r="C226">
-        <v>4021.354233376479</v>
+        <v>10535.73460169003</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2871,10 +2871,10 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>46590.72206370093</v>
+        <v>51866.40479483342</v>
       </c>
       <c r="C227">
-        <v>4799.11647535525</v>
+        <v>11176.37076647449</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2882,10 +2882,10 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>44823.08679581725</v>
+        <v>50077.94928208971</v>
       </c>
       <c r="C228">
-        <v>5447.160379034603</v>
+        <v>11687.28859295954</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2893,10 +2893,10 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>48694.33683199981</v>
+        <v>53928.37907341222</v>
       </c>
       <c r="C229">
-        <v>3317.279104980358</v>
+        <v>9420.281241710974</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2904,10 +2904,10 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>47096.82328746387</v>
+        <v>52330.86552887627</v>
       </c>
       <c r="C230">
-        <v>3252.093647348779</v>
+        <v>9355.095784079394</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2915,10 +2915,10 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>37311.05710703699</v>
+        <v>42952.99311708406</v>
       </c>
       <c r="C231">
-        <v>5802.721506030968</v>
+        <v>11552.09151666754</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -2926,10 +2926,10 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>41848.36053222349</v>
+        <v>47898.19031090522</v>
       </c>
       <c r="C232">
-        <v>4865.110979751123</v>
+        <v>10260.84886429364</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -2937,10 +2937,10 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>42916.32501032827</v>
+        <v>49374.04855764466</v>
       </c>
       <c r="C233">
-        <v>6412.748293296022</v>
+        <v>11454.85405174449</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -2948,10 +2948,10 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>46918.8222833176</v>
+        <v>53784.43959926865</v>
       </c>
       <c r="C234">
-        <v>2901.149113667679</v>
+        <v>7589.622746022098</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -2959,10 +2959,10 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>41037.61134549789</v>
+        <v>48311.12243008361</v>
       </c>
       <c r="C235">
-        <v>1747.677714800125</v>
+        <v>6082.519221060495</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -2970,10 +2970,10 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>43332.18699198661</v>
+        <v>51013.59184520698</v>
       </c>
       <c r="C236">
-        <v>5762.198149626052</v>
+        <v>9743.407529792372</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -2981,10 +2981,10 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>42114.79036150616</v>
+        <v>49796.19521472653</v>
       </c>
       <c r="C237">
-        <v>5176.092777870514</v>
+        <v>9157.302158036833</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -2992,10 +2992,10 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>38120.27162917349</v>
+        <v>45316.65479767069</v>
       </c>
       <c r="C238">
-        <v>2760.314785742135</v>
+        <v>6669.31624088864</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3003,10 +3003,10 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>38088.54340540314</v>
+        <v>44799.90488917715</v>
       </c>
       <c r="C239">
-        <v>4510.167711652969</v>
+        <v>8346.96124177966</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3014,10 +3014,10 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>40738.94560714758</v>
+        <v>46965.2854061984</v>
       </c>
       <c r="C240">
-        <v>2846.643032294872</v>
+        <v>6611.22863740175</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3025,10 +3025,10 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>38677.75265720679</v>
+        <v>44419.07077153443</v>
       </c>
       <c r="C241">
-        <v>2018.926648134602</v>
+        <v>5711.304328221665</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3036,10 +3036,10 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>42375.53145793551</v>
+        <v>47631.82788753996</v>
       </c>
       <c r="C242">
-        <v>7213.258666986012</v>
+        <v>10833.42842205326</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3047,10 +3047,10 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>40554.2398889606</v>
+        <v>45325.51463384186</v>
       </c>
       <c r="C243">
-        <v>3116.019268081421</v>
+        <v>6663.981098128857</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3058,10 +3058,10 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>33729.53794785612</v>
+        <v>38500.81269273738</v>
       </c>
       <c r="C244">
-        <v>874.4783611705705</v>
+        <v>4422.440191218006</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3069,10 +3069,10 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>38520.48477998746</v>
+        <v>43368.56451784748</v>
       </c>
       <c r="C245">
-        <v>2531.898544136021</v>
+        <v>6057.394965399625</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3080,10 +3080,10 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>36180.06518030642</v>
+        <v>41104.94991114521</v>
       </c>
       <c r="C246">
-        <v>4473.350534811471</v>
+        <v>7976.381547291244</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3091,10 +3091,10 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>41204.61998358566</v>
+        <v>46206.3097074032</v>
       </c>
       <c r="C247">
-        <v>6061.610538800449</v>
+        <v>9542.176142496388</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3102,10 +3102,10 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>31757.62173552847</v>
+        <v>36836.11645232479</v>
       </c>
       <c r="C248">
-        <v>-1452.841737143006</v>
+        <v>2005.258457769102</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3113,10 +3113,10 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>31365.15213322953</v>
+        <v>36520.45184300462</v>
       </c>
       <c r="C249">
-        <v>5651.132252348064</v>
+        <v>9086.767038476341</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3124,10 +3124,10 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>39612.05719895532</v>
+        <v>44844.16190170917</v>
       </c>
       <c r="C250">
-        <v>6535.130377469844</v>
+        <v>9948.299754814288</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3135,10 +3135,10 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>37427.30557216774</v>
+        <v>42659.41027492159</v>
       </c>
       <c r="C251">
-        <v>902.8283326928531</v>
+        <v>4315.997710037298</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3146,10 +3146,10 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>38729.23695510755</v>
+        <v>43592.93003289941</v>
       </c>
       <c r="C252">
-        <v>1688.380828532886</v>
+        <v>5050.767451090651</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3157,10 +3157,10 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>41159.98054366044</v>
+        <v>45655.26199649031</v>
       </c>
       <c r="C253">
-        <v>5067.028110903978</v>
+        <v>8378.631978675061</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3168,10 +3168,10 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>39416.52086515888</v>
+        <v>43543.39069302677</v>
       </c>
       <c r="C254">
-        <v>-2189.43744523835</v>
+        <v>1071.383667746053</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3179,10 +3179,10 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>38139.54304607918</v>
+        <v>41898.00124898509</v>
       </c>
       <c r="C255">
-        <v>4217.195363966435</v>
+        <v>7427.233722164157</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3190,10 +3190,10 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>39125.60185861237</v>
+        <v>42515.64843655628</v>
       </c>
       <c r="C256">
-        <v>5519.348787547262</v>
+        <v>8678.604390958304</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3201,10 +3201,10 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>42236.37515222399</v>
+        <v>45258.01010520593</v>
       </c>
       <c r="C257">
-        <v>4578.197576505516</v>
+        <v>7686.670425129878</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3212,10 +3212,10 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>36286.73871377703</v>
+        <v>39308.37366675897</v>
       </c>
       <c r="C258">
-        <v>2170.212191874858</v>
+        <v>5278.685040499219</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3223,10 +3223,10 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>37707.8217320063</v>
+        <v>39165.14926585933</v>
       </c>
       <c r="C259">
-        <v>2462.855581191995</v>
+        <v>5588.388450687896</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3234,10 +3234,10 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>30753.37449018788</v>
+        <v>30646.39460491201</v>
       </c>
       <c r="C260">
-        <v>1913.711449777009</v>
+        <v>5056.304340144448</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3245,10 +3245,10 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>37366.57372526769</v>
+        <v>35695.28642086293</v>
       </c>
       <c r="C261">
-        <v>5903.0839439305</v>
+        <v>9062.736855169478</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3256,10 +3256,10 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>34222.74206309936</v>
+        <v>30987.14733956569</v>
       </c>
       <c r="C262">
-        <v>3407.023968198902</v>
+        <v>6583.736900309419</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3267,10 +3267,10 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>33208.51013894012</v>
+        <v>28408.60799627755</v>
       </c>
       <c r="C263">
-        <v>772.9970813689499</v>
+        <v>3966.770034351006</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3278,10 +3278,10 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>30159.67916212382</v>
+        <v>23795.46960033236</v>
       </c>
       <c r="C264">
-        <v>3161.703065756708</v>
+        <v>6372.536039610302</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3289,10 +3289,10 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>33704.3698682664</v>
+        <v>27340.16030647493</v>
       </c>
       <c r="C265">
-        <v>-1279.841514276524</v>
+        <v>1930.991459577069</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3300,10 +3300,10 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>36946.72976344931</v>
+        <v>30455.7943965808</v>
       </c>
       <c r="C266">
-        <v>3657.783199177245</v>
+        <v>6880.274463592757</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3311,10 +3311,10 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>41739.81789360548</v>
+        <v>35122.15672165994</v>
       </c>
       <c r="C267">
-        <v>2388.025191430454</v>
+        <v>5622.174746407883</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3322,10 +3322,10 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>39340.86229829594</v>
+        <v>32596.47532127337</v>
       </c>
       <c r="C268">
-        <v>3293.987355724712</v>
+        <v>6539.795201264056</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3333,10 +3333,10 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>40282.44583312635</v>
+        <v>33411.33305102676</v>
       </c>
       <c r="C269">
-        <v>3846.377164466188</v>
+        <v>7103.843300567451</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3344,10 +3344,10 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>34794.9608327077</v>
+        <v>27797.12224553106</v>
       </c>
       <c r="C270">
-        <v>2373.095114615806</v>
+        <v>5642.219541278985</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3355,10 +3355,10 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>38752.17079832106</v>
+        <v>31627.60640606738</v>
       </c>
       <c r="C271">
-        <v>-297.0044202725926</v>
+        <v>2983.778296952504</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3366,10 +3366,10 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>31754.32595741183</v>
+        <v>24629.76156515816</v>
       </c>
       <c r="C272">
-        <v>-1695.52746954177</v>
+        <v>1585.255247683327</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3377,10 +3377,10 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>40137.0908137409</v>
+        <v>31626.59436661783</v>
       </c>
       <c r="C273">
-        <v>-1280.631155488685</v>
+        <v>1920.413549703027</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3388,10 +3388,10 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>43184.9088407379</v>
+        <v>33288.48033874545</v>
       </c>
       <c r="C274">
-        <v>1108.300222602603</v>
+        <v>4229.60691576093</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3399,10 +3399,10 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>37499.95677661579</v>
+        <v>26217.59621975394</v>
       </c>
       <c r="C275">
-        <v>2636.163250665186</v>
+        <v>5677.731931790128</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3410,10 +3410,10 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>38183.0048398369</v>
+        <v>25514.71222810567</v>
       </c>
       <c r="C276">
-        <v>5658.346511275726</v>
+        <v>8620.177180367282</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3421,10 +3421,10 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>40840.63756891005</v>
+        <v>26786.41290230945</v>
       </c>
       <c r="C277">
-        <v>132.9391228469613</v>
+        <v>3015.031779905133</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3432,10 +3432,10 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>49645.12841839101</v>
+        <v>34204.97169692102</v>
       </c>
       <c r="C278">
-        <v>2358.212862404068</v>
+        <v>5160.567507428854</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3443,10 +3443,10 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>49871.99354885719</v>
+        <v>34431.8368273872</v>
       </c>
       <c r="C279">
-        <v>1628.85994536222</v>
+        <v>4431.214590387005</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3454,10 +3454,10 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>44283.21983657815</v>
+        <v>29807.8368464094</v>
       </c>
       <c r="C280">
-        <v>36.35041571134343</v>
+        <v>2626.601092941535</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3465,10 +3465,10 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>43167.38744086711</v>
+        <v>29656.77818199958</v>
       </c>
       <c r="C281">
-        <v>488.1376513713917</v>
+        <v>2866.284360806988</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3476,10 +3476,10 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>40833.78336864653</v>
+        <v>28287.94784108023</v>
       </c>
       <c r="C282">
-        <v>5377.208766087593</v>
+        <v>7543.251507728594</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3487,10 +3487,10 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>35898.14982623183</v>
+        <v>24317.08802996678</v>
       </c>
       <c r="C283">
-        <v>2954.701602669834</v>
+        <v>4908.64037651624</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3498,10 +3498,10 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>40534.41218725716</v>
+        <v>29918.12412229333</v>
       </c>
       <c r="C284">
-        <v>2457.888466010616</v>
+        <v>4199.723272062429</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3509,10 +3509,10 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>41040.00602854301</v>
+        <v>31388.49169488041</v>
       </c>
       <c r="C285">
-        <v>4514.107898778087</v>
+        <v>6043.838737035303</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3520,10 +3520,10 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>39775.43351199664</v>
+        <v>30123.91917833404</v>
       </c>
       <c r="C286">
-        <v>3673.347651299923</v>
+        <v>5203.07848955714</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3531,10 +3531,10 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>41168.50915873185</v>
+        <v>32209.03592829013</v>
       </c>
       <c r="C287">
-        <v>4461.114013202142</v>
+        <v>5826.041785384239</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3542,10 +3542,10 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>39473.53607367002</v>
+        <v>31206.10394644921</v>
       </c>
       <c r="C288">
-        <v>220.7877478183382</v>
+        <v>1420.912453925315</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3553,10 +3553,10 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>39506.22717280097</v>
+        <v>31930.83614880105</v>
       </c>
       <c r="C289">
-        <v>4888.78383107535</v>
+        <v>5924.105471107207</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3564,10 +3564,10 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>38838.3431666308</v>
+        <v>31954.99324585177</v>
       </c>
       <c r="C290">
-        <v>6255.697117032556</v>
+        <v>7126.215690989291</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3575,10 +3575,10 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>35803.18066843438</v>
+        <v>29611.87185087625</v>
       </c>
       <c r="C291">
-        <v>5459.73952222906</v>
+        <v>6165.455030110673</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3586,10 +3586,10 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>39210.18867206061</v>
+        <v>33710.92095772337</v>
       </c>
       <c r="C292">
-        <v>5300.991181561036</v>
+        <v>5841.903623367529</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3597,10 +3597,10 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>39251.33305699364</v>
+        <v>33752.0653426564</v>
       </c>
       <c r="C293">
-        <v>6691.033211357293</v>
+        <v>7231.945653163786</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3608,10 +3608,10 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>38986.85375839734</v>
+        <v>33619.58688741132</v>
       </c>
       <c r="C294">
-        <v>2226.576626411434</v>
+        <v>2591.918264052856</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3619,10 +3619,10 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>38792.99856605409</v>
+        <v>33557.73253841931</v>
       </c>
       <c r="C295">
-        <v>717.9057825884083</v>
+        <v>907.6766160647603</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3630,10 +3630,10 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>38916.48799398378</v>
+        <v>33813.22280970022</v>
       </c>
       <c r="C296">
-        <v>4582.850891196512</v>
+        <v>4597.050920507793</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3641,10 +3641,10 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>44528.59344738119</v>
+        <v>39557.32910644886</v>
       </c>
       <c r="C297">
-        <v>-756.4401416250907</v>
+        <v>-917.8109164788798</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -3652,10 +3652,10 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>38057.61964006473</v>
+        <v>33218.35614248363</v>
       </c>
       <c r="C298">
-        <v>4498.632800782731</v>
+        <v>4161.691221763872</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3663,10 +3663,10 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>40220.69084848429</v>
+        <v>35513.42819425441</v>
       </c>
       <c r="C299">
-        <v>4892.784994900867</v>
+        <v>4380.272611716937</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3674,10 +3674,10 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>35298.74971172854</v>
+        <v>30591.48705749866</v>
       </c>
       <c r="C300">
-        <v>4525.4920287214</v>
+        <v>4012.97964553747</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3685,10 +3685,10 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>38140.01019768092</v>
+        <v>33962.80669372475</v>
       </c>
       <c r="C301">
-        <v>4202.126070383571</v>
+        <v>3948.286410172193</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3696,10 +3696,10 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>38634.20866304393</v>
+        <v>34987.06430936146</v>
       </c>
       <c r="C302">
-        <v>1103.80726776811</v>
+        <v>1108.640330529284</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3707,10 +3707,10 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>39436.11317470155</v>
+        <v>36319.02797129277</v>
       </c>
       <c r="C303">
-        <v>1669.837547370439</v>
+        <v>1933.343333104166</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -3718,10 +3718,10 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>38435.26838620956</v>
+        <v>35848.24233307447</v>
       </c>
       <c r="C304">
-        <v>1031.726014571972</v>
+        <v>1553.904523278251</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -3729,10 +3729,10 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>40214.69822511391</v>
+        <v>38157.73132225253</v>
       </c>
       <c r="C305">
-        <v>5939.931994699022</v>
+        <v>6720.783226377852</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -3740,10 +3740,10 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>30442.71517656952</v>
+        <v>28915.80742398185</v>
       </c>
       <c r="C306">
-        <v>8119.334296326106</v>
+        <v>9158.858250977488</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -3751,10 +3751,10 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>36343.14326852645</v>
+        <v>34816.23551593877</v>
       </c>
       <c r="C307">
-        <v>4997.801654810641</v>
+        <v>6037.325609462022</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -3762,10 +3762,10 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>36613.16515229446</v>
+        <v>34955.44565341173</v>
       </c>
       <c r="C308">
-        <v>5430.030718886675</v>
+        <v>6833.330906378088</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -3773,10 +3773,10 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>33064.94616275463</v>
+        <v>31276.41491757687</v>
       </c>
       <c r="C309">
-        <v>1680.290838541656</v>
+        <v>3447.367258873099</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -3784,10 +3784,10 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>34786.03850998914</v>
+        <v>32866.69551851635</v>
       </c>
       <c r="C310">
-        <v>2752.777427344754</v>
+        <v>4883.630080516228</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -3795,10 +3795,10 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>36812.85309578058</v>
+        <v>34762.69835801274</v>
       </c>
       <c r="C311">
-        <v>1092.573958713618</v>
+        <v>3587.202844725121</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -3806,10 +3806,10 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>37151.46396404577</v>
+        <v>34970.4974799829</v>
       </c>
       <c r="C312">
-        <v>7451.84215137396</v>
+        <v>10310.2472702255</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -3817,10 +3817,10 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>34884.72240411617</v>
+        <v>32572.94417375827</v>
       </c>
       <c r="C313">
-        <v>5739.346683053916</v>
+        <v>8961.528034745481</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -3828,10 +3828,10 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>39349.98685159855</v>
+        <v>37038.20862124065</v>
       </c>
       <c r="C314">
-        <v>3942.181524247254</v>
+        <v>7164.362875938819</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -3839,10 +3839,10 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>35133.97468218945</v>
+        <v>33454.39264916402</v>
       </c>
       <c r="C315">
-        <v>7381.767591477944</v>
+        <v>10581.96503491158</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -3850,10 +3850,10 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>36760.26076926068</v>
+        <v>35712.87493356773</v>
       </c>
       <c r="C316">
-        <v>3389.210322771651</v>
+        <v>6567.42385794736</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -3861,10 +3861,10 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>31005.32121396344</v>
+        <v>30590.13157560298</v>
       </c>
       <c r="C317">
-        <v>2500.168340627388</v>
+        <v>5656.397967545171</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -3872,10 +3872,10 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>32245.56870687549</v>
+        <v>32462.5752658475</v>
       </c>
       <c r="C318">
-        <v>7125.520704539445</v>
+        <v>10259.7664231993</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -3883,10 +3883,10 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>41182.96858396049</v>
+        <v>42032.17134026498</v>
       </c>
       <c r="C319">
-        <v>5415.905412026555</v>
+        <v>8528.167222428483</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -3894,10 +3894,10 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>34323.83664301722</v>
+        <v>35805.23559665419</v>
       </c>
       <c r="C320">
-        <v>3990.464564476303</v>
+        <v>7080.742466620304</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -3905,10 +3905,10 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>35562.94270826095</v>
+        <v>37044.34166189791</v>
       </c>
       <c r="C321">
-        <v>5841.174014727279</v>
+        <v>8931.45191687128</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -3916,10 +3916,10 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>38264.64133131729</v>
+        <v>39143.5526542448</v>
       </c>
       <c r="C322">
-        <v>5646.750298884016</v>
+        <v>8959.035313826642</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -3927,10 +3927,10 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>43507.24946664214</v>
+        <v>43783.6731588602</v>
       </c>
       <c r="C323">
-        <v>2688.317103266836</v>
+        <v>6222.609231008088</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -3938,10 +3938,10 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>47319.73847465007</v>
+        <v>46993.67453615867</v>
       </c>
       <c r="C324">
-        <v>3524.158562550951</v>
+        <v>7280.457803090827</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -3949,10 +3949,10 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>45483.86974800662</v>
+        <v>44555.31817880576</v>
       </c>
       <c r="C325">
-        <v>-710.4207902277526</v>
+        <v>3267.88556311075</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -3960,10 +3960,10 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>53466.74250380146</v>
+        <v>51935.70330389115</v>
       </c>
       <c r="C326">
-        <v>5660.979294244486</v>
+        <v>9861.292760381613</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -3971,10 +3971,10 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>53688.24667306175</v>
+        <v>51554.71984244199</v>
       </c>
       <c r="C327">
-        <v>6077.131634174691</v>
+        <v>10499.45221311044</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -3982,10 +3982,10 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>51687.97193755955</v>
+        <v>49554.44510693978</v>
       </c>
       <c r="C328">
-        <v>920.1704356614423</v>
+        <v>5342.491014597194</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -3993,10 +3993,10 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>51331.86256630167</v>
+        <v>49174.28753807178</v>
       </c>
       <c r="C329">
-        <v>349.3108104664921</v>
+        <v>4479.648007779746</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -4004,10 +4004,10 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>55326.91863447277</v>
+        <v>53145.29540863274</v>
       </c>
       <c r="C330">
-        <v>9544.713392052205</v>
+        <v>13383.06720774296</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -4015,10 +4015,10 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>53172.31693723158</v>
+        <v>50966.64551378142</v>
       </c>
       <c r="C331">
-        <v>4228.772659574035</v>
+        <v>7775.143093642292</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -4026,10 +4026,10 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>54530.45860977074</v>
+        <v>52300.73898871044</v>
       </c>
       <c r="C332">
-        <v>1862.942262781192</v>
+        <v>5117.32931522695</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -4037,10 +4037,10 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>58312.34728090045</v>
+        <v>56058.57946223002</v>
       </c>
       <c r="C333">
-        <v>4979.148528427294</v>
+        <v>7941.552199250555</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -4048,10 +4048,10 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>58526.79059646672</v>
+        <v>56248.97458018614</v>
       </c>
       <c r="C334">
-        <v>3012.55972239221</v>
+        <v>5682.980011592972</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -4059,10 +4059,10 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>55417.32289608059</v>
+        <v>53139.50687980001</v>
       </c>
       <c r="C335">
-        <v>2298.447665983101</v>
+        <v>4968.867955183863</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -4070,10 +4070,10 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>61644.00685773214</v>
+        <v>58266.71502167764</v>
       </c>
       <c r="C336">
-        <v>5074.462150581391</v>
+        <v>7389.76725260248</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -4081,10 +4081,10 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>56609.42710617775</v>
+        <v>52132.65945034933</v>
       </c>
       <c r="C337">
-        <v>4228.292149107114</v>
+        <v>6188.482063948531</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -4092,10 +4092,10 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>59652.13836366421</v>
+        <v>54075.89488806187</v>
       </c>
       <c r="C338">
-        <v>2506.511814091755</v>
+        <v>4111.5865417535</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -4103,10 +4103,10 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>64583.10149233585</v>
+        <v>57907.38219695959</v>
       </c>
       <c r="C339">
-        <v>5385.197061324965</v>
+        <v>6635.156601807037</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -4114,10 +4114,10 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>68143.32757775226</v>
+        <v>60368.13246260208</v>
       </c>
       <c r="C340">
-        <v>3505.582369458227</v>
+        <v>4400.426722760627</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -4125,10 +4125,10 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>58012.13013782596</v>
+        <v>49137.45920290186</v>
       </c>
       <c r="C341">
-        <v>5147.580243336542</v>
+        <v>5687.309409459271</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -4136,10 +4136,10 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>62938.46405855321</v>
+        <v>54063.79312362911</v>
       </c>
       <c r="C342">
-        <v>1527.018206738924</v>
+        <v>2066.747372861653</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -4147,10 +4147,10 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>66094.8261040646</v>
+        <v>55055.78530447176</v>
       </c>
       <c r="C343">
-        <v>3586.424691070848</v>
+        <v>3676.390103214642</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -4158,10 +4158,10 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>73315.17566594189</v>
+        <v>60111.76500168032</v>
       </c>
       <c r="C344">
-        <v>1873.933340023718</v>
+        <v>1514.134998188578</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -4169,10 +4169,10 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>68464.34757196573</v>
+        <v>53096.56704303541</v>
       </c>
       <c r="C345">
-        <v>8415.274491234119</v>
+        <v>7605.712395420045</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -4180,10 +4180,10 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>71163.66931739164</v>
+        <v>53631.51892379257</v>
       </c>
       <c r="C346">
-        <v>5696.174949898385</v>
+        <v>4436.849100105378</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -4191,10 +4191,10 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>67901.81147408541</v>
+        <v>48205.2912158176</v>
       </c>
       <c r="C347">
-        <v>7357.979261644793</v>
+        <v>5648.889657872851</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -4202,10 +4202,10 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>81794.01696315655</v>
+        <v>59933.12684022</v>
       </c>
       <c r="C348">
-        <v>6214.131342658068</v>
+        <v>4055.277984907192</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -4213,10 +4213,10 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>73692.75082515928</v>
+        <v>51831.86070222273</v>
       </c>
       <c r="C349">
-        <v>6191.808889037486</v>
+        <v>4032.95553128661</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -4224,10 +4224,10 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>75334.04951732932</v>
+        <v>51905.2825314213</v>
       </c>
       <c r="C350">
-        <v>5832.975024795636</v>
+        <v>3790.139327510324</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -4235,10 +4235,10 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>75143.66533765594</v>
+        <v>50147.02148877644</v>
       </c>
       <c r="C351">
-        <v>8887.831812199007</v>
+        <v>6961.01377537926</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -4246,10 +4246,10 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>75806.28845367393</v>
+        <v>49241.76774182298</v>
       </c>
       <c r="C352">
-        <v>7112.682930688754</v>
+        <v>5301.88255433457</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -4257,10 +4257,10 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>73182.11593396691</v>
+        <v>45049.7183591445</v>
       </c>
       <c r="C353">
-        <v>3872.239644554479</v>
+        <v>2177.456928665858</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -4268,10 +4268,10 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>69824.0779523121</v>
+        <v>40123.80351451821</v>
       </c>
       <c r="C354">
-        <v>9446.947018219502</v>
+        <v>7868.181962796441</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -4279,10 +4279,10 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>68718.26903554016</v>
+        <v>37450.11773477479</v>
       </c>
       <c r="C355">
-        <v>5887.329403209205</v>
+        <v>4424.582008251711</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -4290,10 +4290,10 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>68687.02180237886</v>
+        <v>37418.8705016135</v>
       </c>
       <c r="C356">
-        <v>5931.609251985658</v>
+        <v>4468.861857028164</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -4301,10 +4301,10 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>67869.36506647519</v>
+        <v>36685.26558317276</v>
       </c>
       <c r="C357">
-        <v>5406.379520845632</v>
+        <v>3617.160541329066</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -4312,10 +4312,10 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>64337.91228052623</v>
+        <v>33237.8646146867</v>
       </c>
       <c r="C358">
-        <v>2010.815058772911</v>
+        <v>-104.8755053027262</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -4323,10 +4323,10 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>71216.14107864475</v>
+        <v>40200.14523026816</v>
       </c>
       <c r="C359">
-        <v>6288.190879414787</v>
+        <v>3846.028730780081</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -4334,10 +4334,10 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>80019.43388261278</v>
+        <v>49087.48985169911</v>
       </c>
       <c r="C360">
-        <v>8079.912504591794</v>
+        <v>5311.278771398019</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -4345,10 +4345,10 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>75463.96036133062</v>
+        <v>44616.06814787987</v>
       </c>
       <c r="C361">
-        <v>7404.326839507517</v>
+        <v>4309.221521754672</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -4356,10 +4356,10 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>82825.79183610062</v>
+        <v>52061.9514401128</v>
       </c>
       <c r="C362">
-        <v>7508.555187124527</v>
+        <v>4086.978284812613</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -4367,10 +4367,10 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>82400.23299185857</v>
+        <v>51636.39259587076</v>
       </c>
       <c r="C363">
-        <v>7708.677455847205</v>
+        <v>4287.100553535292</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -4378,10 +4378,10 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>80905.37264165576</v>
+        <v>50141.53224566795</v>
       </c>
       <c r="C364">
-        <v>6040.070276128986</v>
+        <v>2618.493373817073</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -4389,10 +4389,10 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>77117.37308072232</v>
+        <v>51611.50103371816</v>
       </c>
       <c r="C365">
-        <v>5784.655358307543</v>
+        <v>3001.897072341698</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -4400,10 +4400,10 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>73089.0827310396</v>
+        <v>52841.17903301911</v>
       </c>
       <c r="C366">
-        <v>3930.93378228422</v>
+        <v>1786.994112664443</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -4411,10 +4411,10 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>64238.8054940598</v>
+        <v>49248.870145023</v>
       </c>
       <c r="C367">
-        <v>3511.414056554955</v>
+        <v>2006.293003281245</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -4422,10 +4422,10 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>62788.55558146486</v>
+        <v>53056.58858141174</v>
       </c>
       <c r="C368">
-        <v>6890.634065234362</v>
+        <v>6024.33162830672</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -4433,10 +4433,10 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>57191.30289703922</v>
+        <v>52717.30424596979</v>
       </c>
       <c r="C369">
-        <v>5439.554971481239</v>
+        <v>5212.071150899665</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -4444,10 +4444,10 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>53785.34692539815</v>
+        <v>54569.3166233124</v>
       </c>
       <c r="C370">
-        <v>3032.874845960879</v>
+        <v>3444.209641725373</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -4455,10 +4455,10 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>62523.83486041696</v>
+        <v>63307.80455833121</v>
       </c>
       <c r="C371">
-        <v>7709.84862404545</v>
+        <v>8121.183419809945</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -4466,10 +4466,10 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>51092.32718875641</v>
+        <v>50923.9918642405</v>
       </c>
       <c r="C372">
-        <v>2202.950231822174</v>
+        <v>2719.704432916757</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -4477,10 +4477,10 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>52249.47836200061</v>
+        <v>51128.83801505456</v>
       </c>
       <c r="C373">
-        <v>5339.989001814735</v>
+        <v>5962.162608239407</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -4488,10 +4488,10 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>58004.88059285285</v>
+        <v>55931.93522347663</v>
       </c>
       <c r="C374">
-        <v>4861.337021425739</v>
+        <v>5588.9300331805</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -4499,10 +4499,10 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>50947.59886975268</v>
+        <v>47922.34847794632</v>
       </c>
       <c r="C375">
-        <v>7480.653039183971</v>
+        <v>8313.665456268822</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -4510,10 +4510,10 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>52044.25387159812</v>
+        <v>48066.69845736161</v>
       </c>
       <c r="C376">
-        <v>6104.232255632764</v>
+        <v>7042.664078047704</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -4521,10 +4521,10 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>52563.51679822458</v>
+        <v>47633.65636155791</v>
       </c>
       <c r="C377">
-        <v>6978.308588419245</v>
+        <v>8022.159816164273</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -4532,10 +4532,10 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>45878.52900914349</v>
+        <v>40948.66857247682</v>
       </c>
       <c r="C378">
-        <v>5382.268729453731</v>
+        <v>6426.119957198759</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -4543,10 +4543,10 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>53986.99952798021</v>
+        <v>47163.32321484548</v>
       </c>
       <c r="C379">
-        <v>5396.488371265403</v>
+        <v>6155.648061440157</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -4554,10 +4554,10 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>55599.49645298972</v>
+        <v>46882.00426338692</v>
       </c>
       <c r="C380">
-        <v>2485.298804087555</v>
+        <v>2959.766956692037</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -4565,10 +4565,10 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>54797.159120108</v>
+        <v>44185.85105403715</v>
       </c>
       <c r="C381">
-        <v>5307.710060371587</v>
+        <v>5497.486675405794</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -4576,10 +4576,10 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>62984.74447391448</v>
+        <v>50479.62053137556</v>
       </c>
       <c r="C382">
-        <v>7729.864184266714</v>
+        <v>7634.949261730649</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -4587,10 +4587,10 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>68810.67142653173</v>
+        <v>54411.73160752475</v>
       </c>
       <c r="C383">
-        <v>6909.235156413727</v>
+        <v>6529.628696307386</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -4598,10 +4598,10 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>67747.87546290965</v>
+        <v>51455.1197674346</v>
       </c>
       <c r="C384">
-        <v>4348.099453752382</v>
+        <v>3683.801456075769</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -4609,10 +4609,10 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>63515.95334711061</v>
+        <v>47223.19765163556</v>
       </c>
       <c r="C385">
-        <v>3847.29130825557</v>
+        <v>3182.993310578957</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -4620,10 +4620,10 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>64359.48287289521</v>
+        <v>50014.91006648711</v>
       </c>
       <c r="C386">
-        <v>6007.803808910594</v>
+        <v>5229.578801140562</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -4631,10 +4631,10 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>68720.01687979912</v>
+        <v>56323.62696245799</v>
       </c>
       <c r="C387">
-        <v>7281.146063439392</v>
+        <v>6388.994045575942</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -4642,10 +4642,10 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>68215.7844637388</v>
+        <v>57767.57743546464</v>
       </c>
       <c r="C388">
-        <v>6722.549287674503</v>
+        <v>5716.470259717633</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -4653,10 +4653,10 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>70549.91694043232</v>
+        <v>62049.89280122513</v>
       </c>
       <c r="C389">
-        <v>7770.470142359178</v>
+        <v>6650.464104308889</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -4664,10 +4664,10 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>70124.72906390567</v>
+        <v>63572.88781376545</v>
       </c>
       <c r="C390">
-        <v>4980.611382883022</v>
+        <v>3746.678334739314</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -4675,10 +4675,10 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>72177.8402266038</v>
+        <v>67574.18186553055</v>
       </c>
       <c r="C391">
-        <v>4425.08926022443</v>
+        <v>3077.229201987303</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -4686,10 +4686,10 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>68409.24163820107</v>
+        <v>63805.58327712783</v>
       </c>
       <c r="C392">
-        <v>8453.586719008414</v>
+        <v>7105.726660771286</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -4697,10 +4697,10 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>67285.10684426055</v>
+        <v>65469.4223503485</v>
       </c>
       <c r="C393">
-        <v>2834.788599702365</v>
+        <v>3772.578507658522</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -4708,10 +4708,10 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>67987.79313749765</v>
+        <v>68960.08251074681</v>
       </c>
       <c r="C394">
-        <v>4591.284359410636</v>
+        <v>7814.724233560074</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -4719,10 +4719,10 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>66554.30688247322</v>
+        <v>70314.5701228836</v>
       </c>
       <c r="C395">
-        <v>6181.208478783052</v>
+        <v>11690.29831912577</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -4730,10 +4730,10 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>71003.26466791893</v>
+        <v>77551.50177549051</v>
       </c>
       <c r="C396">
-        <v>5549.065842086141</v>
+        <v>13343.80564862214</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -4741,10 +4741,10 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>72199.45789818579</v>
+        <v>81535.66887291858</v>
       </c>
       <c r="C397">
-        <v>5088.250299967485</v>
+        <v>15168.64007269677</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -4752,10 +4752,10 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>68634.81472863659</v>
+        <v>80758.99957053061</v>
       </c>
       <c r="C398">
-        <v>6006.216101237912</v>
+        <v>18372.25584016048</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -4763,10 +4763,10 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>65458.14715380109</v>
+        <v>77582.3319956951</v>
       </c>
       <c r="C399">
-        <v>5271.812921808735</v>
+        <v>17637.8526607313</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -4774,10 +4774,10 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>67388.30456104809</v>
+        <v>82176.81580562556</v>
       </c>
       <c r="C400">
-        <v>5424.229063640658</v>
+        <v>17015.62294204567</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -4785,10 +4785,10 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>71234.97471486377</v>
+        <v>88687.81236212469</v>
       </c>
       <c r="C401">
-        <v>7118.547869339654</v>
+        <v>17935.29588722712</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -4796,10 +4796,10 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>71268.71302670437</v>
+        <v>91385.87707664877</v>
       </c>
       <c r="C402">
-        <v>7796.818646968646</v>
+        <v>17838.92080433857</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -4807,10 +4807,10 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>69278.22718053768</v>
+        <v>92059.71763316554</v>
       </c>
       <c r="C403">
-        <v>6955.767785668462</v>
+        <v>16223.22408252083</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -4818,10 +4818,10 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>65552.49362736112</v>
+        <v>90998.31048267244</v>
       </c>
       <c r="C404">
-        <v>6615.663320308549</v>
+        <v>15108.47375664337</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -4829,10 +4829,10 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>69061.49434623352</v>
+        <v>97171.63760422829</v>
       </c>
       <c r="C405">
-        <v>7920.821256626932</v>
+        <v>15638.9858324442</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -4840,10 +4840,10 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>63223.79221766941</v>
+        <v>91333.93547566418</v>
       </c>
       <c r="C406">
-        <v>9006.806776990403</v>
+        <v>16724.97135280767</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -4851,10 +4851,10 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>68709.43026253118</v>
+        <v>95299.32118900432</v>
       </c>
       <c r="C407">
-        <v>6107.008068945911</v>
+        <v>11657.61544741231</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -4862,10 +4862,10 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>71031.27260825929</v>
+        <v>96100.9112032108</v>
       </c>
       <c r="C408">
-        <v>10354.24262731736</v>
+        <v>13737.2928084329</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -4873,10 +4873,10 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>61835.59331078413</v>
+        <v>85384.979574214</v>
       </c>
       <c r="C409">
-        <v>8448.219417687269</v>
+        <v>9663.71240145194</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -4884,10 +4884,10 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>68827.52258373081</v>
+        <v>90856.65651563906</v>
       </c>
       <c r="C410">
-        <v>11850.037922156</v>
+        <v>10897.9737085698</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -4895,10 +4895,10 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>70548.47025492098</v>
+        <v>91057.3518553076</v>
       </c>
       <c r="C411">
-        <v>14610.76524038446</v>
+        <v>11491.1438294474</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -4906,10 +4906,10 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>73664.4423710238</v>
+        <v>92653.07163988877</v>
       </c>
       <c r="C412">
-        <v>13477.36192573842</v>
+        <v>8190.183317450493</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -4917,10 +4917,10 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>65077.69070126027</v>
+        <v>84066.31997012525</v>
       </c>
       <c r="C413">
-        <v>12422.63567081753</v>
+        <v>7135.457062529602</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -4928,10 +4928,10 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>68596.14963196589</v>
+        <v>86644.51516764212</v>
       </c>
       <c r="C414">
-        <v>12621.88399141095</v>
+        <v>7212.140549044494</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -4939,10 +4939,10 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>63113.20538453054</v>
+        <v>80221.30718701806</v>
       </c>
       <c r="C415">
-        <v>14318.53478301781</v>
+        <v>8786.226506572826</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -4950,10 +4950,10 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>73787.68551400855</v>
+        <v>89955.52358330731</v>
       </c>
       <c r="C416">
-        <v>16712.52894511095</v>
+        <v>11057.65583458743</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -4961,10 +4961,10 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>65383.63387871504</v>
+        <v>80611.20821482506</v>
       </c>
       <c r="C417">
-        <v>12581.52670793505</v>
+        <v>6804.08876333301</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -4972,10 +4972,10 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>66625.87006149757</v>
+        <v>80913.18066441886</v>
       </c>
       <c r="C418">
-        <v>16806.52478273663</v>
+        <v>10906.52200405607</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -4983,10 +4983,10 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>71598.73313203393</v>
+        <v>84945.78000176647</v>
       </c>
       <c r="C419">
-        <v>15849.78252840091</v>
+        <v>9827.214915641816</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -4994,10 +4994,10 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>72823.70016095498</v>
+        <v>86170.74703068752</v>
       </c>
       <c r="C420">
-        <v>12047.17358146362</v>
+        <v>6024.605968704527</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -5005,10 +5005,10 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>69042.19397764535</v>
+        <v>84175.85793242138</v>
       </c>
       <c r="C421">
-        <v>12126.8368620378</v>
+        <v>7040.349725218472</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -5016,10 +5016,10 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>68105.1882053366</v>
+        <v>85025.46924515611</v>
       </c>
       <c r="C422">
-        <v>17779.27895718472</v>
+        <v>13628.87229630516</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -5027,10 +5027,10 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>72720.11542056894</v>
+        <v>91427.01354543195</v>
       </c>
       <c r="C423">
-        <v>16736.43033968315</v>
+        <v>13522.10415474335</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -5038,10 +5038,10 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>69954.7584366206</v>
+        <v>90448.27364652709</v>
       </c>
       <c r="C424">
-        <v>19611.17693760882</v>
+        <v>17332.9312286088</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -5049,10 +5049,10 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>74532.74340377751</v>
+        <v>96812.8756987275</v>
       </c>
       <c r="C425">
-        <v>16451.10034450773</v>
+        <v>15108.93511144746</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -5060,10 +5060,10 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>81651.85850966771</v>
+        <v>105718.6078896612</v>
       </c>
       <c r="C426">
-        <v>19175.49980482787</v>
+        <v>18769.41504770737</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -5071,10 +5071,10 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>73968.24780960911</v>
+        <v>98034.99718960258</v>
       </c>
       <c r="C427">
-        <v>14708.68857171511</v>
+        <v>14302.60381459461</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -5082,10 +5082,10 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>74622.36573473411</v>
+        <v>95776.56989421956</v>
       </c>
       <c r="C428">
-        <v>20017.20330481723</v>
+        <v>19594.33675295034</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -5093,10 +5093,10 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>70002.83319263256</v>
+        <v>88244.49213161001</v>
       </c>
       <c r="C429">
-        <v>17899.91529012633</v>
+        <v>17460.26694351304</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -5104,10 +5104,10 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>78638.62054451529</v>
+        <v>93967.73426298473</v>
       </c>
       <c r="C430">
-        <v>14275.07989510463</v>
+        <v>13818.64975374495</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -5115,10 +5115,10 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>72814.11458397313</v>
+        <v>85230.68308193456</v>
       </c>
       <c r="C431">
-        <v>18396.95470151955</v>
+        <v>17923.74276541347</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -5126,10 +5126,10 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>71527.74154089244</v>
+        <v>81031.76481834588</v>
       </c>
       <c r="C432">
-        <v>18878.59609096594</v>
+        <v>18388.60236011345</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -5137,10 +5137,10 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>67120.24882114115</v>
+        <v>73711.72687808659</v>
       </c>
       <c r="C433">
-        <v>20191.42737602002</v>
+        <v>19684.65185042115</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -5148,10 +5148,10 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>70705.69112047218</v>
+        <v>77297.16917741761</v>
       </c>
       <c r="C434">
-        <v>15903.99883998148</v>
+        <v>15397.2233143826</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -5159,10 +5159,10 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>67828.28601353383</v>
+        <v>74301.14575267347</v>
       </c>
       <c r="C435">
-        <v>17019.75566809903</v>
+        <v>16495.01453692285</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -5170,10 +5170,10 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>71058.04314196584</v>
+        <v>77412.28456329969</v>
       </c>
       <c r="C436">
-        <v>19254.70959551334</v>
+        <v>18712.00285875984</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -5181,10 +5181,10 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>74533.04625548952</v>
+        <v>80768.66935901757</v>
       </c>
       <c r="C437">
-        <v>14775.00940202612</v>
+        <v>14214.33705969532</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -5192,10 +5192,10 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>62729.17136510017</v>
+        <v>68846.17615082244</v>
       </c>
       <c r="C438">
-        <v>19143.55209581127</v>
+        <v>18564.91414790316</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -5203,10 +5203,10 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>66212.41456448811</v>
+        <v>72210.80103240459</v>
       </c>
       <c r="C439">
-        <v>17072.88731567616</v>
+        <v>16476.28376219075</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -5214,10 +5214,10 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>75954.71061639405</v>
+        <v>81834.47876650475</v>
       </c>
       <c r="C440">
-        <v>15289.67007741739</v>
+        <v>14675.10091835466</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -5225,10 +5225,10 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>73609.20983906809</v>
+        <v>79488.97798917879</v>
       </c>
       <c r="C441">
-        <v>14844.55107322544</v>
+        <v>14229.98191416272</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -5236,10 +5236,10 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>77103.23274488148</v>
+        <v>82920.72559550827</v>
       </c>
       <c r="C442">
-        <v>20987.760928053</v>
+        <v>19686.45875756469</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -5247,10 +5247,10 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>76460.63982306866</v>
+        <v>82215.85737421155</v>
       </c>
       <c r="C443">
-        <v>21868.52485495079</v>
+        <v>19880.4896730369</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -5258,10 +5258,10 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>75286.70872460405</v>
+        <v>80979.65097626304</v>
       </c>
       <c r="C444">
-        <v>18200.77774417345</v>
+        <v>15526.00955083399</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -5269,10 +5269,10 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>71625.70044171534</v>
+        <v>77256.36739389042</v>
       </c>
       <c r="C445">
-        <v>20918.90503590915</v>
+        <v>17557.40383114411</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -5280,10 +5280,10 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>73036.54179997975</v>
+        <v>78604.93345267094</v>
       </c>
       <c r="C446">
-        <v>20244.16012416078</v>
+        <v>16195.92590797017</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -5291,10 +5291,10 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>83523.42910549142</v>
+        <v>89029.54545869872</v>
       </c>
       <c r="C447">
-        <v>20027.18602214829</v>
+        <v>15292.21879453209</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -5302,10 +5302,10 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>72262.20076098313</v>
+        <v>77768.31711419043</v>
       </c>
       <c r="C448">
-        <v>22199.80461687481</v>
+        <v>17464.83738925862</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -5313,10 +5313,10 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>78695.81144729446</v>
+        <v>83713.70104135222</v>
       </c>
       <c r="C449">
-        <v>19297.86458279402</v>
+        <v>14853.85441299229</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -5324,10 +5324,10 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>82525.43784386425</v>
+        <v>87055.10067877249</v>
       </c>
       <c r="C450">
-        <v>21146.93950712348</v>
+        <v>16993.88639513619</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -5335,10 +5335,10 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>80893.13518378497</v>
+        <v>84934.57125954369</v>
       </c>
       <c r="C451">
-        <v>26934.1385463675</v>
+        <v>23072.04249219468</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -5346,10 +5346,10 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>76685.7947473583</v>
+        <v>80239.00406396751</v>
       </c>
       <c r="C452">
-        <v>19728.69626849302</v>
+        <v>16157.55727213465</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -5357,10 +5357,10 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>73936.17263306481</v>
+        <v>77001.15519052447</v>
       </c>
       <c r="C453">
-        <v>18789.40380231436</v>
+        <v>15509.22186377044</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -5368,10 +5368,10 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>88824.61597164451</v>
+        <v>91401.37176995464</v>
       </c>
       <c r="C454">
-        <v>22520.37767733555</v>
+        <v>19531.15279660608</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -5379,10 +5379,10 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>84703.98743685739</v>
+        <v>87280.74323516752</v>
       </c>
       <c r="C455">
-        <v>23566.69781108169</v>
+        <v>20577.47293035222</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -5390,10 +5390,10 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>86043.73787200998</v>
+        <v>88816.11782029535</v>
       </c>
       <c r="C456">
-        <v>18954.98618435519</v>
+        <v>16463.96545041397</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -5401,10 +5401,10 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>80686.40058531682</v>
+        <v>83654.40468357744</v>
       </c>
       <c r="C457">
-        <v>23474.25957088628</v>
+        <v>21481.4429837333</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -5412,10 +5412,10 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>79299.46329781611</v>
+        <v>82463.09154605199</v>
       </c>
       <c r="C458">
-        <v>20791.11241645429</v>
+        <v>19296.49997608956</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -5423,10 +5423,10 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>73464.12242221633</v>
+        <v>76823.37482042745</v>
       </c>
       <c r="C459">
-        <v>23672.60344912145</v>
+        <v>22676.19515554496</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -5434,10 +5434,10 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>79113.69492511588</v>
+        <v>82668.57147330225</v>
       </c>
       <c r="C460">
-        <v>22393.35820942501</v>
+        <v>21895.15406263676</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -5445,7 +5445,7 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>79541.489543751</v>
+        <v>83291.99024191263</v>
       </c>
       <c r="C461">
         <v>23511.90768405285</v>
@@ -5456,7 +5456,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>80839.21507453405</v>
+        <v>84589.71577269568</v>
       </c>
       <c r="C462">
         <v>19935.90797026091</v>
@@ -5467,10 +5467,10 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>79029.58217789308</v>
+        <v>82660.88880571723</v>
       </c>
       <c r="C463">
-        <v>23315.29555265129</v>
+        <v>22877.02480358148</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -5478,10 +5478,10 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>84101.61094074954</v>
+        <v>87613.7234982362</v>
       </c>
       <c r="C464">
-        <v>19713.24023532183</v>
+        <v>18836.69873718222</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -5489,10 +5489,10 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>76447.92614067241</v>
+        <v>79840.84462782163</v>
       </c>
       <c r="C465">
-        <v>23805.35234749166</v>
+        <v>22490.54010028224</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -5500,10 +5500,10 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>80624.06740535237</v>
+        <v>83897.79182216412</v>
       </c>
       <c r="C466">
-        <v>22111.89233191431</v>
+        <v>20358.80933563508</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -5511,10 +5511,10 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>79428.21455980303</v>
+        <v>82582.74490627734</v>
       </c>
       <c r="C467">
-        <v>22750.3634409794</v>
+        <v>20559.00969563036</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -5522,10 +5522,10 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>75578.80841826461</v>
+        <v>78614.14469440143</v>
       </c>
       <c r="C468">
-        <v>22206.35366597187</v>
+        <v>19576.72917155303</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -5533,10 +5533,10 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>74995.28994529138</v>
+        <v>78030.6262214282</v>
       </c>
       <c r="C469">
-        <v>21422.89491729806</v>
+        <v>18793.27042287922</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -5544,10 +5544,10 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>77504.14907573356</v>
+        <v>80205.51573921548</v>
       </c>
       <c r="C470">
-        <v>19694.57313924515</v>
+        <v>17064.94864482631</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -5555,10 +5555,10 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>79781.95879186464</v>
+        <v>82149.35584269164</v>
       </c>
       <c r="C471">
-        <v>20356.12920256773</v>
+        <v>17726.50470814888</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -5566,10 +5566,10 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>84383.11688394766</v>
+        <v>86416.54432211973</v>
       </c>
       <c r="C472">
-        <v>23160.53659916125</v>
+        <v>20530.91210474241</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -5577,10 +5577,10 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>83596.35953275277</v>
+        <v>85295.81735826997</v>
       </c>
       <c r="C473">
-        <v>21861.34753005999</v>
+        <v>19231.72303564114</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -5588,10 +5588,10 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>86246.20740467819</v>
+        <v>87611.69561754046</v>
       </c>
       <c r="C474">
-        <v>25775.99081549347</v>
+        <v>23146.36632107463</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -5599,10 +5599,10 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>82131.69788095035</v>
+        <v>83163.21648115769</v>
       </c>
       <c r="C475">
-        <v>22411.22978464154</v>
+        <v>19781.6052902227</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -5610,10 +5610,10 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>81264.50132885153</v>
+        <v>82296.01992905888</v>
       </c>
       <c r="C476">
-        <v>20285.31866379815</v>
+        <v>17655.6941693793</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -5621,10 +5621,10 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>82496.93540990853</v>
+        <v>82786.54341074097</v>
       </c>
       <c r="C477">
-        <v>21694.60661652304</v>
+        <v>19064.9821221042</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -5632,10 +5632,10 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>81034.12766175855</v>
+        <v>80581.82506321606</v>
       </c>
       <c r="C478">
-        <v>28417.90088060939</v>
+        <v>25788.27638619055</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -5643,10 +5643,10 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>83977.65815492562</v>
+        <v>82783.44495700821</v>
       </c>
       <c r="C479">
-        <v>20764.60132025863</v>
+        <v>18134.97682583979</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -5654,10 +5654,10 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>78210.72603043591</v>
+        <v>76274.60223314358</v>
       </c>
       <c r="C480">
-        <v>20760.72591726241</v>
+        <v>18131.10142284357</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -5665,10 +5665,10 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>77433.31480513205</v>
+        <v>74755.28040846478</v>
       </c>
       <c r="C481">
-        <v>25671.39398272578</v>
+        <v>23041.76948830693</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -5676,10 +5676,10 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>84195.41475727693</v>
+        <v>80775.46976123472</v>
       </c>
       <c r="C482">
-        <v>21083.84375934857</v>
+        <v>18454.21926492973</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -5687,10 +5687,10 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>84600.50771138944</v>
+        <v>81180.56271534723</v>
       </c>
       <c r="C483">
-        <v>22935.31865836598</v>
+        <v>20305.69416394713</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -5698,10 +5698,10 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>85355.57017831976</v>
+        <v>82192.54298938229</v>
       </c>
       <c r="C484">
-        <v>19666.75161381995</v>
+        <v>17037.1271194011</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -5709,10 +5709,10 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>79738.46156002329</v>
+        <v>76832.35217819056</v>
       </c>
       <c r="C485">
-        <v>23787.48655666387</v>
+        <v>21157.86206224503</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -5720,10 +5720,10 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>83389.45536998818</v>
+        <v>80740.26379526015</v>
       </c>
       <c r="C486">
-        <v>20776.73205722261</v>
+        <v>18147.10756280376</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -5731,10 +5731,10 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>82531.29421018706</v>
+        <v>80139.02044256378</v>
       </c>
       <c r="C487">
-        <v>22020.92863535907</v>
+        <v>19391.30414094022</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -5742,10 +5742,10 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>85551.33876518095</v>
+        <v>83415.9828046624</v>
       </c>
       <c r="C488">
-        <v>19825.83317783312</v>
+        <v>17196.20868341427</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -5753,10 +5753,10 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>84056.52638558796</v>
+        <v>82178.08823217414</v>
       </c>
       <c r="C489">
-        <v>24133.15186269593</v>
+        <v>21503.52736827709</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -5764,10 +5764,10 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>79388.47003662201</v>
+        <v>77510.03188320818</v>
       </c>
       <c r="C490">
-        <v>19832.23190552877</v>
+        <v>17202.60741110993</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -5775,10 +5775,10 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>83105.56046267078</v>
+        <v>81237.88888039062</v>
       </c>
       <c r="C491">
-        <v>24472.0086922756</v>
+        <v>21842.38419785676</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -5786,10 +5786,10 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>86524.19607434979</v>
+        <v>84667.29106320327</v>
       </c>
       <c r="C492">
-        <v>21976.85677275716</v>
+        <v>19347.23227833832</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -5797,10 +5797,10 @@
         <v>491</v>
       </c>
       <c r="B493">
-        <v>83605.48590619817</v>
+        <v>81759.3474661853</v>
       </c>
       <c r="C493">
-        <v>20142.23877482768</v>
+        <v>17512.61428040883</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -5808,10 +5808,10 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>90285.9071357216</v>
+        <v>88450.53526684237</v>
       </c>
       <c r="C494">
-        <v>21599.37627860044</v>
+        <v>18969.75178418159</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -5819,10 +5819,10 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>86458.77496129245</v>
+        <v>84634.16966354687</v>
       </c>
       <c r="C495">
-        <v>21896.29668119476</v>
+        <v>19266.67218677591</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -5830,10 +5830,10 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>86909.52304142763</v>
+        <v>85095.68431481568</v>
       </c>
       <c r="C496">
-        <v>22457.84832608466</v>
+        <v>19828.22383166581</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -5841,10 +5841,10 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>85718.36973357448</v>
+        <v>83904.53100696253</v>
       </c>
       <c r="C497">
-        <v>23461.04449449813</v>
+        <v>20831.42000007928</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -5852,10 +5852,10 @@
         <v>496</v>
       </c>
       <c r="B498">
-        <v>81746.08599953739</v>
+        <v>80307.98517568031</v>
       </c>
       <c r="C498">
-        <v>19401.82206366304</v>
+        <v>17626.55579946337</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -5863,10 +5863,10 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>85412.21676009196</v>
+        <v>84349.85383898976</v>
       </c>
       <c r="C499">
-        <v>17936.47772804149</v>
+        <v>17015.569694061</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -5874,10 +5874,10 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>79698.00231835977</v>
+        <v>79011.37730001242</v>
       </c>
       <c r="C500">
-        <v>20040.38601152738</v>
+        <v>19973.83620776606</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -5885,10 +5885,10 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>85307.64132796843</v>
+        <v>84996.75421237599</v>
       </c>
       <c r="C501">
-        <v>19122.54365852801</v>
+        <v>19910.35208498587</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -5896,10 +5896,10 @@
         <v>500</v>
       </c>
       <c r="B502">
-        <v>88156.24018170401</v>
+        <v>88221.09096886643</v>
       </c>
       <c r="C502">
-        <v>13967.21750528443</v>
+        <v>15609.38416196146</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -5907,10 +5907,10 @@
         <v>501</v>
       </c>
       <c r="B503">
-        <v>77098.61253719205</v>
+        <v>77539.20122710936</v>
       </c>
       <c r="C503">
-        <v>14453.74656728908</v>
+        <v>16950.27145418529</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -5918,10 +5918,10 @@
         <v>502</v>
       </c>
       <c r="B504">
-        <v>88224.63825877095</v>
+        <v>88665.22694868826</v>
       </c>
       <c r="C504">
-        <v>16678.19036148467</v>
+        <v>19174.71524838088</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -5929,10 +5929,10 @@
         <v>503</v>
       </c>
       <c r="B505">
-        <v>87611.29790555727</v>
+        <v>86729.70355787672</v>
       </c>
       <c r="C505">
-        <v>17829.98233400444</v>
+        <v>20326.50722090065</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -5940,10 +5940,10 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>83124.51856471758</v>
+        <v>80920.7411794392</v>
       </c>
       <c r="C506">
-        <v>14033.84977081694</v>
+        <v>16530.37465771315</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -5951,10 +5951,10 @@
         <v>505</v>
       </c>
       <c r="B507">
-        <v>87235.22050124547</v>
+        <v>83709.26007836925</v>
       </c>
       <c r="C507">
-        <v>17623.749295424</v>
+        <v>20120.27418232021</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -5962,10 +5962,10 @@
         <v>506</v>
       </c>
       <c r="B508">
-        <v>80405.02930121819</v>
+        <v>75556.88584074413</v>
       </c>
       <c r="C508">
-        <v>15132.20093926208</v>
+        <v>17628.72582615829</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -5973,10 +5973,10 @@
         <v>507</v>
       </c>
       <c r="B509">
-        <v>84839.58296640404</v>
+        <v>78669.25646833211</v>
       </c>
       <c r="C509">
-        <v>15536.57173256067</v>
+        <v>18033.09661945688</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -5984,10 +5984,10 @@
         <v>508</v>
       </c>
       <c r="B510">
-        <v>82397.82055358504</v>
+        <v>74905.31101791529</v>
       </c>
       <c r="C510">
-        <v>15698.28911035278</v>
+        <v>18194.81399724899</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -5995,10 +5995,10 @@
         <v>509</v>
       </c>
       <c r="B511">
-        <v>85686.9848563322</v>
+        <v>78194.47532066244</v>
       </c>
       <c r="C511">
-        <v>18256.22484028058</v>
+        <v>20752.74972717679</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -6006,10 +6006,10 @@
         <v>510</v>
       </c>
       <c r="B512">
-        <v>81941.26031726992</v>
+        <v>73668.06707703409</v>
       </c>
       <c r="C512">
-        <v>15715.09471549226</v>
+        <v>18211.61960238847</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -6017,10 +6017,10 @@
         <v>511</v>
       </c>
       <c r="B513">
-        <v>88347.495643897</v>
+        <v>79293.61869909512</v>
       </c>
       <c r="C513">
-        <v>17258.35647209099</v>
+        <v>19754.88135898719</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -6028,10 +6028,10 @@
         <v>512</v>
       </c>
       <c r="B514">
-        <v>85020.85412228764</v>
+        <v>75186.29347291969</v>
       </c>
       <c r="C514">
-        <v>15363.54161707238</v>
+        <v>17860.06650396859</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -6039,10 +6039,10 @@
         <v>513</v>
       </c>
       <c r="B515">
-        <v>87714.90141876791</v>
+        <v>77099.65706483391</v>
       </c>
       <c r="C515">
-        <v>13975.8439791656</v>
+        <v>16472.36886606181</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -6050,10 +6050,10 @@
         <v>514</v>
       </c>
       <c r="B516">
-        <v>84980.41758666644</v>
+        <v>73584.48952816639</v>
       </c>
       <c r="C516">
-        <v>12526.74297052769</v>
+        <v>15023.2678574239</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -6061,10 +6061,10 @@
         <v>515</v>
       </c>
       <c r="B517">
-        <v>88676.96829704943</v>
+        <v>76500.35653398331</v>
       </c>
       <c r="C517">
-        <v>15521.87639004401</v>
+        <v>18018.40127694021</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -6072,10 +6072,10 @@
         <v>516</v>
       </c>
       <c r="B518">
-        <v>90654.34488828943</v>
+        <v>78477.73312522331</v>
       </c>
       <c r="C518">
-        <v>20800.42716428179</v>
+        <v>23296.952051178</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -6083,10 +6083,10 @@
         <v>517</v>
       </c>
       <c r="B519">
-        <v>84388.69598568935</v>
+        <v>71964.43745125056</v>
       </c>
       <c r="C519">
-        <v>14412.2532331399</v>
+        <v>16908.77812003611</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -6094,10 +6094,10 @@
         <v>518</v>
       </c>
       <c r="B520">
-        <v>90402.60053363383</v>
+        <v>77730.69522782235</v>
       </c>
       <c r="C520">
-        <v>19831.94941775448</v>
+        <v>22328.47430465069</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -6105,10 +6105,10 @@
         <v>519</v>
       </c>
       <c r="B521">
-        <v>87177.55799498882</v>
+        <v>74258.00591780464</v>
       </c>
       <c r="C521">
-        <v>14210.86534914406</v>
+        <v>16707.39023604027</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -6116,10 +6116,10 @@
         <v>520</v>
       </c>
       <c r="B522">
-        <v>90400.26480345569</v>
+        <v>77233.06595489882</v>
       </c>
       <c r="C522">
-        <v>12601.1422714176</v>
+        <v>15097.6671583138</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -6127,10 +6127,10 @@
         <v>521</v>
       </c>
       <c r="B523">
-        <v>86748.07072202383</v>
+        <v>73333.22510209425</v>
       </c>
       <c r="C523">
-        <v>12058.8142198868</v>
+        <v>14555.33910678301</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -6138,10 +6138,10 @@
         <v>522</v>
       </c>
       <c r="B524">
-        <v>82285.68738151077</v>
+        <v>68623.19499020852</v>
       </c>
       <c r="C524">
-        <v>20231.78496324209</v>
+        <v>22728.3098501383</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -6149,10 +6149,10 @@
         <v>523</v>
       </c>
       <c r="B525">
-        <v>93794.41098354019</v>
+        <v>80131.91859223794</v>
       </c>
       <c r="C525">
-        <v>17443.19381010345</v>
+        <v>19939.71869699966</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -6160,10 +6160,10 @@
         <v>524</v>
       </c>
       <c r="B526">
-        <v>91287.04729479367</v>
+        <v>78110.37500725663</v>
       </c>
       <c r="C526">
-        <v>15575.55087233561</v>
+        <v>18072.07575923182</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -6171,10 +6171,10 @@
         <v>525</v>
       </c>
       <c r="B527">
-        <v>87660.39581356439</v>
+        <v>74969.54362979255</v>
       </c>
       <c r="C527">
-        <v>18888.85007976001</v>
+        <v>21385.37496665621</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -6182,10 +6182,10 @@
         <v>526</v>
       </c>
       <c r="B528">
-        <v>89520.64744152389</v>
+        <v>77315.61536151728</v>
       </c>
       <c r="C528">
-        <v>14530.84990638209</v>
+        <v>17027.3747932783</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -6193,10 +6193,10 @@
         <v>527</v>
       </c>
       <c r="B529">
-        <v>90397.40556199892</v>
+        <v>78678.1935857575</v>
       </c>
       <c r="C529">
-        <v>16411.50734489639</v>
+        <v>18908.0322317926</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -6204,10 +6204,10 @@
         <v>528</v>
       </c>
       <c r="B530">
-        <v>92978.14459568706</v>
+        <v>81744.75272321086</v>
       </c>
       <c r="C530">
-        <v>14188.74677060829</v>
+        <v>16685.27165750449</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -6215,10 +6215,10 @@
         <v>529</v>
       </c>
       <c r="B531">
-        <v>87812.949461027</v>
+        <v>77065.37769231602</v>
       </c>
       <c r="C531">
-        <v>13847.3099587029</v>
+        <v>16343.83484559911</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -6226,10 +6226,10 @@
         <v>530</v>
       </c>
       <c r="B532">
-        <v>92102.88703940707</v>
+        <v>81355.31527069608</v>
       </c>
       <c r="C532">
-        <v>16527.57018383185</v>
+        <v>19024.09507072806</v>
       </c>
     </row>
     <row r="533" spans="1:3">
@@ -6237,10 +6237,10 @@
         <v>531</v>
       </c>
       <c r="B533">
-        <v>90660.76067799129</v>
+        <v>78368.39016514557</v>
       </c>
       <c r="C533">
-        <v>17092.63455395863</v>
+        <v>19589.15944085484</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -6248,10 +6248,10 @@
         <v>532</v>
       </c>
       <c r="B534">
-        <v>91950.00413242815</v>
+        <v>78112.83487544773</v>
       </c>
       <c r="C534">
-        <v>17252.27465931247</v>
+        <v>19748.79954620868</v>
       </c>
     </row>
     <row r="535" spans="1:3">
@@ -6259,10 +6259,10 @@
         <v>533</v>
       </c>
       <c r="B535">
-        <v>91085.8552415319</v>
+        <v>75703.88724041675</v>
       </c>
       <c r="C535">
-        <v>14070.44395851555</v>
+        <v>16566.96884541176</v>
       </c>
     </row>
     <row r="536" spans="1:3">
@@ -6270,10 +6270,10 @@
         <v>534</v>
       </c>
       <c r="B536">
-        <v>90560.08734575317</v>
+        <v>73633.3206005033</v>
       </c>
       <c r="C536">
-        <v>17222.7212406817</v>
+        <v>19719.24612757791</v>
       </c>
     </row>
     <row r="537" spans="1:3">
@@ -6281,10 +6281,10 @@
         <v>535</v>
       </c>
       <c r="B537">
-        <v>88702.89989164274</v>
+        <v>70231.33440225817</v>
       </c>
       <c r="C537">
-        <v>15852.22300838915</v>
+        <v>18348.74789528536</v>
       </c>
     </row>
     <row r="538" spans="1:3">
@@ -6292,10 +6292,10 @@
         <v>536</v>
       </c>
       <c r="B538">
-        <v>92816.32203406995</v>
+        <v>72799.95780055068</v>
       </c>
       <c r="C538">
-        <v>13005.77859062555</v>
+        <v>15502.30347752176</v>
       </c>
     </row>
     <row r="539" spans="1:3">
@@ -6303,10 +6303,10 @@
         <v>537</v>
       </c>
       <c r="B539">
-        <v>90249.65055614502</v>
+        <v>70233.28632262575</v>
       </c>
       <c r="C539">
-        <v>12197.24301185621</v>
+        <v>14693.76789875242</v>
       </c>
     </row>
     <row r="540" spans="1:3">
@@ -6314,10 +6314,10 @@
         <v>538</v>
       </c>
       <c r="B540">
-        <v>93021.39423856643</v>
+        <v>72796.9645597999</v>
       </c>
       <c r="C540">
-        <v>17430.08380392524</v>
+        <v>19926.60869082145</v>
       </c>
     </row>
     <row r="541" spans="1:3">
@@ -6325,10 +6325,10 @@
         <v>539</v>
       </c>
       <c r="B541">
-        <v>93426.72165735341</v>
+        <v>72994.22653333962</v>
       </c>
       <c r="C541">
-        <v>14404.3189996967</v>
+        <v>16900.84388659291</v>
       </c>
     </row>
     <row r="542" spans="1:3">
@@ -6336,10 +6336,10 @@
         <v>540</v>
       </c>
       <c r="B542">
-        <v>88337.14774456271</v>
+        <v>67696.58717530167</v>
       </c>
       <c r="C542">
-        <v>16395.31288772653</v>
+        <v>18891.83777462273</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -6347,10 +6347,10 @@
         <v>541</v>
       </c>
       <c r="B543">
-        <v>96403.16099748143</v>
+        <v>75554.53498297311</v>
       </c>
       <c r="C543">
-        <v>20087.0360477298</v>
+        <v>22583.56093462601</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -6358,10 +6358,10 @@
         <v>542</v>
       </c>
       <c r="B544">
-        <v>92073.4107487491</v>
+        <v>71016.7192889935</v>
       </c>
       <c r="C544">
-        <v>18346.12695157376</v>
+        <v>20842.65183846997</v>
       </c>
     </row>
     <row r="545" spans="1:3">
@@ -6369,10 +6369,10 @@
         <v>543</v>
       </c>
       <c r="B545">
-        <v>93438.56779510013</v>
+        <v>72173.81089009726</v>
       </c>
       <c r="C545">
-        <v>16511.07276921871</v>
+        <v>19007.59765611492</v>
       </c>
     </row>
     <row r="546" spans="1:3">
@@ -6380,10 +6380,10 @@
         <v>544</v>
       </c>
       <c r="B546">
-        <v>88723.78903411025</v>
+        <v>67459.03212910738</v>
       </c>
       <c r="C546">
-        <v>16661.91423826093</v>
+        <v>19158.43912515714</v>
       </c>
     </row>
     <row r="547" spans="1:3">
@@ -6391,10 +6391,10 @@
         <v>545</v>
       </c>
       <c r="B547">
-        <v>94329.06077056192</v>
+        <v>73893.43339626923</v>
       </c>
       <c r="C547">
-        <v>15495.02529578667</v>
+        <v>17931.97072827955</v>
       </c>
     </row>
     <row r="548" spans="1:3">
@@ -6402,10 +6402,10 @@
         <v>546</v>
       </c>
       <c r="B548">
-        <v>87081.52792387319</v>
+        <v>67475.03008029069</v>
       </c>
       <c r="C548">
-        <v>16958.40242437146</v>
+        <v>19335.768402461</v>
       </c>
     </row>
     <row r="549" spans="1:3">
@@ -6413,10 +6413,10 @@
         <v>547</v>
       </c>
       <c r="B549">
-        <v>94735.42137693899</v>
+        <v>75958.05306406665</v>
       </c>
       <c r="C549">
-        <v>15553.72454487514</v>
+        <v>17871.51106856134</v>
       </c>
     </row>
     <row r="550" spans="1:3">
@@ -6424,10 +6424,10 @@
         <v>548</v>
       </c>
       <c r="B550">
-        <v>90013.94618685043</v>
+        <v>72065.70740468829</v>
       </c>
       <c r="C550">
-        <v>15471.50740833203</v>
+        <v>17729.71447761489</v>
       </c>
     </row>
     <row r="551" spans="1:3">
@@ -6435,10 +6435,10 @@
         <v>549</v>
       </c>
       <c r="B551">
-        <v>94559.90543766512</v>
+        <v>77440.79618621315</v>
       </c>
       <c r="C551">
-        <v>14793.48967703199</v>
+        <v>16992.11729191152</v>
       </c>
     </row>
     <row r="552" spans="1:3">
@@ -6446,10 +6446,10 @@
         <v>550</v>
       </c>
       <c r="B552">
-        <v>88463.49582033996</v>
+        <v>72173.51609959817</v>
       </c>
       <c r="C552">
-        <v>14222.02952702889</v>
+        <v>16361.07768750508</v>
       </c>
     </row>
     <row r="553" spans="1:3">
@@ -6457,10 +6457,10 @@
         <v>551</v>
       </c>
       <c r="B553">
-        <v>88948.46069585443</v>
+        <v>72658.48097511264</v>
       </c>
       <c r="C553">
-        <v>13795.88694525043</v>
+        <v>15934.93510572663</v>
       </c>
     </row>
     <row r="554" spans="1:3">
@@ -6468,10 +6468,10 @@
         <v>552</v>
       </c>
       <c r="B554">
-        <v>92996.03369350143</v>
+        <v>76065.839699081</v>
       </c>
       <c r="C554">
-        <v>18101.88625696862</v>
+        <v>20240.93441744482</v>
       </c>
     </row>
     <row r="555" spans="1:3">
@@ -6479,10 +6479,10 @@
         <v>553</v>
       </c>
       <c r="B555">
-        <v>83062.46101519723</v>
+        <v>65492.05274709816</v>
       </c>
       <c r="C555">
-        <v>15661.36002785031</v>
+        <v>17800.40818832651</v>
       </c>
     </row>
     <row r="556" spans="1:3">
@@ -6490,10 +6490,10 @@
         <v>554</v>
       </c>
       <c r="B556">
-        <v>93197.37498991042</v>
+        <v>74986.75244813273</v>
       </c>
       <c r="C556">
-        <v>15514.67238708504</v>
+        <v>17653.72054756124</v>
       </c>
     </row>
     <row r="557" spans="1:3">
@@ -6501,10 +6501,10 @@
         <v>555</v>
       </c>
       <c r="B557">
-        <v>89590.71880013739</v>
+        <v>70739.88198468105</v>
       </c>
       <c r="C557">
-        <v>16337.2276729168</v>
+        <v>18476.275833393</v>
       </c>
     </row>
     <row r="558" spans="1:3">
@@ -6512,10 +6512,10 @@
         <v>556</v>
       </c>
       <c r="B558">
-        <v>81865.147283781</v>
+        <v>62374.09619464602</v>
       </c>
       <c r="C558">
-        <v>23479.87316378871</v>
+        <v>25618.9213242649</v>
       </c>
     </row>
     <row r="559" spans="1:3">
@@ -6523,10 +6523,10 @@
         <v>557</v>
       </c>
       <c r="B559">
-        <v>86305.44026558171</v>
+        <v>66174.17490276809</v>
       </c>
       <c r="C559">
-        <v>17210.01134365963</v>
+        <v>19349.05950413582</v>
       </c>
     </row>
     <row r="560" spans="1:3">
@@ -6534,10 +6534,10 @@
         <v>558</v>
       </c>
       <c r="B560">
-        <v>88352.78186438876</v>
+        <v>68221.51650157514</v>
       </c>
       <c r="C560">
-        <v>13428.29671155753</v>
+        <v>15567.34487203372</v>
       </c>
     </row>
     <row r="561" spans="1:3">
@@ -6545,10 +6545,10 @@
         <v>559</v>
       </c>
       <c r="B561">
-        <v>84858.7617395062</v>
+        <v>64741.75609786451</v>
       </c>
       <c r="C561">
-        <v>13103.16894882536</v>
+        <v>15242.21710930156</v>
       </c>
     </row>
     <row r="562" spans="1:3">
@@ -6556,10 +6556,10 @@
         <v>560</v>
       </c>
       <c r="B562">
-        <v>91279.44711717028</v>
+        <v>71176.70119670054</v>
       </c>
       <c r="C562">
-        <v>14255.19920186883</v>
+        <v>16394.24736234502</v>
       </c>
     </row>
     <row r="563" spans="1:3">
@@ -6567,10 +6567,10 @@
         <v>561</v>
       </c>
       <c r="B563">
-        <v>91900.79255206129</v>
+        <v>71812.30635276348</v>
       </c>
       <c r="C563">
-        <v>13365.69570756532</v>
+        <v>15504.74386804152</v>
       </c>
     </row>
     <row r="564" spans="1:3">
@@ -6578,10 +6578,10 @@
         <v>562</v>
       </c>
       <c r="B564">
-        <v>89858.61683914383</v>
+        <v>69784.39036101796</v>
       </c>
       <c r="C564">
-        <v>14405.93771454338</v>
+        <v>16544.98587501958</v>
       </c>
     </row>
     <row r="565" spans="1:3">
@@ -6589,10 +6589,10 @@
         <v>563</v>
       </c>
       <c r="B565">
-        <v>88408.43658065889</v>
+        <v>68348.46982370495</v>
       </c>
       <c r="C565">
-        <v>13684.08349765002</v>
+        <v>15823.13165812622</v>
       </c>
     </row>
     <row r="566" spans="1:3">
@@ -6600,10 +6600,10 @@
         <v>564</v>
       </c>
       <c r="B566">
-        <v>91374.89595895403</v>
+        <v>71329.18892317201</v>
       </c>
       <c r="C566">
-        <v>20824.40487178136</v>
+        <v>22963.45303225755</v>
       </c>
     </row>
     <row r="567" spans="1:3">
@@ -6611,10 +6611,10 @@
         <v>565</v>
       </c>
       <c r="B567">
-        <v>91478.55658340463</v>
+        <v>71432.84954762261</v>
       </c>
       <c r="C567">
-        <v>14682.37151372656</v>
+        <v>16821.41967420275</v>
       </c>
     </row>
     <row r="568" spans="1:3">
@@ -6622,10 +6622,10 @@
         <v>566</v>
       </c>
       <c r="B568">
-        <v>86655.76857618676</v>
+        <v>66705.90929309178</v>
       </c>
       <c r="C568">
-        <v>14484.50263154619</v>
+        <v>16692.09482823974</v>
       </c>
     </row>
     <row r="569" spans="1:3">
@@ -6633,10 +6633,10 @@
         <v>567</v>
       </c>
       <c r="B569">
-        <v>89635.00433458232</v>
+        <v>69780.9928041744</v>
       </c>
       <c r="C569">
-        <v>17134.79202044154</v>
+        <v>19410.92825335243</v>
       </c>
     </row>
     <row r="570" spans="1:3">
@@ -6644,10 +6644,10 @@
         <v>568</v>
       </c>
       <c r="B570">
-        <v>91087.22214841904</v>
+        <v>71329.05837069816</v>
       </c>
       <c r="C570">
-        <v>18774.48530486604</v>
+        <v>21119.16557399429</v>
       </c>
     </row>
     <row r="571" spans="1:3">
@@ -6655,10 +6655,10 @@
         <v>569</v>
       </c>
       <c r="B571">
-        <v>84151.65431170106</v>
+        <v>64489.33828666721</v>
       </c>
       <c r="C571">
-        <v>16085.83819065079</v>
+        <v>18499.06249599639</v>
       </c>
     </row>
     <row r="572" spans="1:3">
@@ -6666,10 +6666,10 @@
         <v>570</v>
       </c>
       <c r="B572">
-        <v>82820.16413863251</v>
+        <v>63253.69586628572</v>
       </c>
       <c r="C572">
-        <v>16521.420145337</v>
+        <v>19003.18848689995</v>
       </c>
     </row>
     <row r="573" spans="1:3">
@@ -6677,10 +6677,10 @@
         <v>571</v>
       </c>
       <c r="B573">
-        <v>82690.83393539005</v>
+        <v>63220.2134157303</v>
       </c>
       <c r="C573">
-        <v>20264.18363907468</v>
+        <v>22814.49601685498</v>
       </c>
     </row>
     <row r="574" spans="1:3">
@@ -6688,10 +6688,10 @@
         <v>572</v>
       </c>
       <c r="B574">
-        <v>95668.33574673877</v>
+        <v>76197.71522707902</v>
       </c>
       <c r="C574">
-        <v>12926.25893788015</v>
+        <v>15476.57131566045</v>
       </c>
     </row>
     <row r="575" spans="1:3">
@@ -6699,10 +6699,10 @@
         <v>573</v>
       </c>
       <c r="B575">
-        <v>82272.16285326271</v>
+        <v>63120.52327636915</v>
       </c>
       <c r="C575">
-        <v>19518.24673703223</v>
+        <v>21940.44291397681</v>
       </c>
     </row>
     <row r="576" spans="1:3">
@@ -6710,10 +6710,10 @@
         <v>574</v>
       </c>
       <c r="B576">
-        <v>91675.24279881653</v>
+        <v>72842.58416468916</v>
       </c>
       <c r="C576">
-        <v>17083.52686923687</v>
+        <v>19377.60684534571</v>
       </c>
     </row>
     <row r="577" spans="1:3">
@@ -6721,10 +6721,10 @@
         <v>575</v>
       </c>
       <c r="B577">
-        <v>88863.02891961469</v>
+        <v>70349.35122825352</v>
       </c>
       <c r="C577">
-        <v>11624.90068818384</v>
+        <v>13790.86446345695</v>
       </c>
     </row>
     <row r="578" spans="1:3">
@@ -6732,10 +6732,10 @@
         <v>576</v>
       </c>
       <c r="B578">
-        <v>87615.55224497346</v>
+        <v>69420.85549637848</v>
       </c>
       <c r="C578">
-        <v>19224.2202844352</v>
+        <v>21262.06785887258</v>
       </c>
     </row>
     <row r="579" spans="1:3">
@@ -6743,10 +6743,10 @@
         <v>577</v>
       </c>
       <c r="B579">
-        <v>88345.20374135909</v>
+        <v>70469.48793553031</v>
       </c>
       <c r="C579">
-        <v>15047.48383098105</v>
+        <v>16957.2152045827</v>
       </c>
     </row>
     <row r="580" spans="1:3">
@@ -6754,10 +6754,10 @@
         <v>578</v>
       </c>
       <c r="B580">
-        <v>85210.49907717331</v>
+        <v>67653.76421411075</v>
       </c>
       <c r="C580">
-        <v>15440.21364891472</v>
+        <v>17221.82882168063</v>
       </c>
     </row>
     <row r="581" spans="1:3">
@@ -6765,10 +6765,10 @@
         <v>579</v>
       </c>
       <c r="B581">
-        <v>91033.15994495811</v>
+        <v>73476.42508189555</v>
       </c>
       <c r="C581">
-        <v>16375.01541846038</v>
+        <v>18156.63059122629</v>
       </c>
     </row>
     <row r="582" spans="1:3">
@@ -6776,10 +6776,10 @@
         <v>580</v>
       </c>
       <c r="B582">
-        <v>86901.04402503313</v>
+        <v>68492.55922960251</v>
       </c>
       <c r="C582">
-        <v>16405.20778191599</v>
+        <v>17790.30505533901</v>
       </c>
     </row>
     <row r="583" spans="1:3">
@@ -6787,10 +6787,10 @@
         <v>581</v>
       </c>
       <c r="B583">
-        <v>93769.43429065915</v>
+        <v>74509.19956286049</v>
       </c>
       <c r="C583">
-        <v>17556.13077671217</v>
+        <v>18544.71015079231</v>
       </c>
     </row>
     <row r="584" spans="1:3">
@@ -6798,10 +6798,10 @@
         <v>582</v>
       </c>
       <c r="B584">
-        <v>85201.16492740228</v>
+        <v>65089.18026723558</v>
       </c>
       <c r="C584">
-        <v>18980.04142424524</v>
+        <v>19572.10289898249</v>
       </c>
     </row>
     <row r="585" spans="1:3">
@@ -6809,10 +6809,10 @@
         <v>583</v>
       </c>
       <c r="B585">
-        <v>85917.49586922003</v>
+        <v>64953.76127668528</v>
       </c>
       <c r="C585">
-        <v>18435.26135622714</v>
+        <v>18630.80493162149</v>
       </c>
     </row>
     <row r="586" spans="1:3">
@@ -6820,10 +6820,10 @@
         <v>584</v>
       </c>
       <c r="B586">
-        <v>85795.79647266326</v>
+        <v>63980.31194776049</v>
       </c>
       <c r="C586">
-        <v>19938.29762672713</v>
+        <v>19737.32330277859</v>
       </c>
     </row>
     <row r="587" spans="1:3">
@@ -6831,10 +6831,10 @@
         <v>585</v>
       </c>
       <c r="B587">
-        <v>84028.1055079589</v>
+        <v>61360.8710506881</v>
       </c>
       <c r="C587">
-        <v>17981.65780182746</v>
+        <v>17384.16557853603</v>
       </c>
     </row>
     <row r="588" spans="1:3">
@@ -6842,10 +6842,10 @@
         <v>586</v>
       </c>
       <c r="B588">
-        <v>76018.68240269345</v>
+        <v>53351.44794542265</v>
       </c>
       <c r="C588">
-        <v>15834.45700538736</v>
+        <v>15236.96478209594</v>
       </c>
     </row>
     <row r="589" spans="1:3">
@@ -6853,10 +6853,10 @@
         <v>587</v>
       </c>
       <c r="B589">
-        <v>83896.11977349657</v>
+        <v>60775.8844229069</v>
       </c>
       <c r="C589">
-        <v>13301.8720857356</v>
+        <v>12187.91062991309</v>
       </c>
     </row>
     <row r="590" spans="1:3">
@@ -6864,10 +6864,10 @@
         <v>588</v>
       </c>
       <c r="B590">
-        <v>81711.2799081477</v>
+        <v>58138.04366423917</v>
       </c>
       <c r="C590">
-        <v>20913.22976855587</v>
+        <v>19282.7990802023</v>
       </c>
     </row>
     <row r="591" spans="1:3">
@@ -6875,10 +6875,10 @@
         <v>589</v>
       </c>
       <c r="B591">
-        <v>78624.81414502514</v>
+        <v>54598.57700779775</v>
       </c>
       <c r="C591">
-        <v>21924.16695046043</v>
+        <v>19777.26702957578</v>
       </c>
     </row>
     <row r="592" spans="1:3">
@@ -6886,10 +6886,10 @@
         <v>590</v>
       </c>
       <c r="B592">
-        <v>81612.43842347103</v>
+        <v>57133.20039292477</v>
       </c>
       <c r="C592">
-        <v>19405.11916109755</v>
+        <v>16741.75000768183</v>
       </c>
     </row>
     <row r="593" spans="1:3">
@@ -6897,10 +6897,10 @@
         <v>591</v>
       </c>
       <c r="B593">
-        <v>83772.65827113439</v>
+        <v>58840.41934726926</v>
       </c>
       <c r="C593">
-        <v>20695.1116055207</v>
+        <v>17515.2732195739</v>
       </c>
     </row>
     <row r="594" spans="1:3">
@@ -6908,10 +6908,10 @@
         <v>592</v>
       </c>
       <c r="B594">
-        <v>80626.0498546912</v>
+        <v>55240.8100375072</v>
       </c>
       <c r="C594">
-        <v>15486.38241260943</v>
+        <v>11790.07479413155</v>
       </c>
     </row>
     <row r="595" spans="1:3">
@@ -6919,10 +6919,10 @@
         <v>593</v>
       </c>
       <c r="B595">
-        <v>84554.87389400753</v>
+        <v>59169.63407682352</v>
       </c>
       <c r="C595">
-        <v>15723.31301248054</v>
+        <v>12027.00539400266</v>
       </c>
     </row>
     <row r="596" spans="1:3">
@@ -6930,10 +6930,10 @@
         <v>594</v>
       </c>
       <c r="B596">
-        <v>74548.12608162813</v>
+        <v>49531.50726172322</v>
       </c>
       <c r="C596">
-        <v>16021.43327123775</v>
+        <v>11928.63835858001</v>
       </c>
     </row>
     <row r="597" spans="1:3">
@@ -6941,10 +6941,10 @@
         <v>595</v>
       </c>
       <c r="B597">
-        <v>76370.04957801253</v>
+        <v>51722.05175538672</v>
       </c>
       <c r="C597">
-        <v>17289.51963993819</v>
+        <v>12800.23743310059</v>
       </c>
     </row>
     <row r="598" spans="1:3">
@@ -6952,10 +6952,10 @@
         <v>596</v>
       </c>
       <c r="B598">
-        <v>75697.48853349437</v>
+        <v>51418.11170814763</v>
       </c>
       <c r="C598">
-        <v>18735.80207098649</v>
+        <v>13850.03256996903</v>
       </c>
     </row>
     <row r="599" spans="1:3">
@@ -6963,10 +6963,10 @@
         <v>597</v>
       </c>
       <c r="B599">
-        <v>73613.35395214359</v>
+        <v>49702.59812407594</v>
       </c>
       <c r="C599">
-        <v>16703.84709407695</v>
+        <v>11421.59029887962</v>
       </c>
     </row>
     <row r="600" spans="1:3">
@@ -6974,10 +6974,10 @@
         <v>598</v>
       </c>
       <c r="B600">
-        <v>80429.47194129857</v>
+        <v>56887.33711051002</v>
       </c>
       <c r="C600">
-        <v>20011.38631131294</v>
+        <v>14332.64222193575</v>
       </c>
     </row>
     <row r="601" spans="1:3">
@@ -6985,10 +6985,10 @@
         <v>599</v>
       </c>
       <c r="B601">
-        <v>75650.19770508628</v>
+        <v>52476.6838715768</v>
       </c>
       <c r="C601">
-        <v>18337.05019039958</v>
+        <v>12261.81880684253</v>
       </c>
     </row>
     <row r="602" spans="1:3">
@@ -6996,10 +6996,10 @@
         <v>600</v>
       </c>
       <c r="B602">
-        <v>70691.27510052371</v>
+        <v>47517.76126701423</v>
       </c>
       <c r="C602">
-        <v>17791.963102676</v>
+        <v>11716.73171911895</v>
       </c>
     </row>
     <row r="603" spans="1:3">
@@ -7007,10 +7007,10 @@
         <v>601</v>
       </c>
       <c r="B603">
-        <v>62165.17775397005</v>
+        <v>39625.34559893359</v>
       </c>
       <c r="C603">
-        <v>19515.57397619154</v>
+        <v>13713.85327168576</v>
       </c>
     </row>
     <row r="604" spans="1:3">
@@ -7018,10 +7018,10 @@
         <v>602</v>
       </c>
       <c r="B604">
-        <v>72253.57820149059</v>
+        <v>50347.42772492713</v>
       </c>
       <c r="C604">
-        <v>16720.66834109588</v>
+        <v>11192.45831564137</v>
       </c>
     </row>
     <row r="605" spans="1:3">
@@ -7029,10 +7029,10 @@
         <v>603</v>
       </c>
       <c r="B605">
-        <v>80137.90377518565</v>
+        <v>58865.4349770952</v>
       </c>
       <c r="C605">
-        <v>19471.87215865729</v>
+        <v>14217.17281225405</v>
       </c>
     </row>
     <row r="606" spans="1:3">
@@ -7040,10 +7040,10 @@
         <v>604</v>
       </c>
       <c r="B606">
-        <v>79244.29500735187</v>
+        <v>58605.50788773444</v>
       </c>
       <c r="C606">
-        <v>16296.44940645798</v>
+        <v>11315.26073910602</v>
       </c>
     </row>
     <row r="607" spans="1:3">
@@ -7051,10 +7051,10 @@
         <v>605</v>
       </c>
       <c r="B607">
-        <v>69778.67050924542</v>
+        <v>49773.565068101</v>
       </c>
       <c r="C607">
-        <v>16716.40003692278</v>
+        <v>12008.72204862209</v>
       </c>
     </row>
     <row r="608" spans="1:3">
@@ -7062,10 +7062,10 @@
         <v>606</v>
       </c>
       <c r="B608">
-        <v>76699.94770285834</v>
+        <v>57328.52394018694</v>
       </c>
       <c r="C608">
-        <v>11174.26466338747</v>
+        <v>6740.097354138052</v>
       </c>
     </row>
     <row r="609" spans="1:3">
@@ -7073,10 +7073,10 @@
         <v>607</v>
       </c>
       <c r="B609">
-        <v>76179.91365384503</v>
+        <v>56808.48989117362</v>
       </c>
       <c r="C609">
-        <v>14111.92823438453</v>
+        <v>9677.760925135111</v>
       </c>
     </row>
     <row r="610" spans="1:3">
@@ -7084,10 +7084,10 @@
         <v>608</v>
       </c>
       <c r="B610">
-        <v>71409.47086197622</v>
+        <v>52675.99753326123</v>
       </c>
       <c r="C610">
-        <v>14330.7549254913</v>
+        <v>10335.0651811306</v>
       </c>
     </row>
     <row r="611" spans="1:3">
@@ -7095,10 +7095,10 @@
         <v>609</v>
       </c>
       <c r="B611">
-        <v>66915.85904347031</v>
+        <v>48820.33614871171</v>
       </c>
       <c r="C611">
-        <v>15174.3549725163</v>
+        <v>11617.14279304431</v>
       </c>
     </row>
     <row r="612" spans="1:3">
@@ -7106,10 +7106,10 @@
         <v>610</v>
       </c>
       <c r="B612">
-        <v>71239.10117537453</v>
+        <v>53781.52871457233</v>
       </c>
       <c r="C612">
-        <v>14592.32436236755</v>
+        <v>11473.58974778427</v>
       </c>
     </row>
     <row r="613" spans="1:3">
@@ -7117,10 +7117,10 @@
         <v>611</v>
       </c>
       <c r="B613">
-        <v>71098.98917227452</v>
+        <v>54279.36714542873</v>
       </c>
       <c r="C613">
-        <v>11753.70548476232</v>
+        <v>9073.448435067758</v>
       </c>
     </row>
     <row r="614" spans="1:3">
@@ -7128,10 +7128,10 @@
         <v>612</v>
       </c>
       <c r="B614">
-        <v>68337.61709533147</v>
+        <v>52155.94550244208</v>
       </c>
       <c r="C614">
-        <v>10648.83597614629</v>
+        <v>8407.056491340434</v>
       </c>
     </row>
     <row r="615" spans="1:3">
@@ -7139,10 +7139,10 @@
         <v>613</v>
       </c>
       <c r="B615">
-        <v>65851.99312450452</v>
+        <v>50308.27196557153</v>
       </c>
       <c r="C615">
-        <v>12268.42399065923</v>
+        <v>10465.12207074209</v>
       </c>
     </row>
     <row r="616" spans="1:3">
@@ -7150,10 +7150,10 @@
         <v>614</v>
       </c>
       <c r="B616">
-        <v>70206.60938674744</v>
+        <v>54662.88822781445</v>
       </c>
       <c r="C616">
-        <v>12594.98266103103</v>
+        <v>10791.68074111389</v>
       </c>
     </row>
     <row r="617" spans="1:3">
@@ -7161,10 +7161,10 @@
         <v>615</v>
       </c>
       <c r="B617">
-        <v>64892.09424624784</v>
+        <v>48654.13325443664</v>
       </c>
       <c r="C617">
-        <v>12581.51938714038</v>
+        <v>11059.61075323467</v>
       </c>
     </row>
     <row r="618" spans="1:3">
@@ -7172,10 +7172,10 @@
         <v>616</v>
       </c>
       <c r="B618">
-        <v>68262.54976106377</v>
+        <v>51330.34893637434</v>
       </c>
       <c r="C618">
-        <v>16240.72981758356</v>
+        <v>15000.21446968927</v>
       </c>
     </row>
     <row r="619" spans="1:3">
@@ -7183,10 +7183,10 @@
         <v>617</v>
       </c>
       <c r="B619">
-        <v>68194.69676209899</v>
+        <v>50568.25610453134</v>
       </c>
       <c r="C619">
-        <v>11705.54618439155</v>
+        <v>10746.42412250868</v>
       </c>
     </row>
     <row r="620" spans="1:3">
@@ -7194,10 +7194,10 @@
         <v>618</v>
       </c>
       <c r="B620">
-        <v>64970.14209198895</v>
+        <v>46649.46160154307</v>
       </c>
       <c r="C620">
-        <v>13923.63438965344</v>
+        <v>13245.905613782</v>
       </c>
     </row>
     <row r="621" spans="1:3">
@@ -7205,10 +7205,10 @@
         <v>619</v>
       </c>
       <c r="B621">
-        <v>67103.27886438053</v>
+        <v>48088.35854105643</v>
       </c>
       <c r="C621">
-        <v>9994.631725698573</v>
+        <v>9598.296235838554</v>
       </c>
     </row>
     <row r="622" spans="1:3">
@@ -7216,10 +7216,10 @@
         <v>620</v>
       </c>
       <c r="B622">
-        <v>64975.44347529466</v>
+        <v>45266.28331909231</v>
       </c>
       <c r="C622">
-        <v>12401.97364592743</v>
+        <v>12287.03144207883</v>
       </c>
     </row>
     <row r="623" spans="1:3">
@@ -7227,10 +7227,10 @@
         <v>621</v>
       </c>
       <c r="B623">
-        <v>68851.47022166362</v>
+        <v>49142.31006546126</v>
       </c>
       <c r="C623">
-        <v>13332.62415404732</v>
+        <v>13217.68195019872</v>
       </c>
     </row>
     <row r="624" spans="1:3">
@@ -7238,10 +7238,10 @@
         <v>622</v>
       </c>
       <c r="B624">
-        <v>66343.40877621122</v>
+        <v>46610.65087085759</v>
       </c>
       <c r="C624">
-        <v>7104.707118857344</v>
+        <v>6803.051843901106</v>
       </c>
     </row>
     <row r="625" spans="1:3">
@@ -7249,10 +7249,10 @@
         <v>623</v>
       </c>
       <c r="B625">
-        <v>67254.77072526774</v>
+        <v>47498.41507076284</v>
       </c>
       <c r="C625">
-        <v>6939.358700943782</v>
+        <v>6450.990354879901</v>
       </c>
     </row>
     <row r="626" spans="1:3">
@@ -7260,10 +7260,10 @@
         <v>624</v>
       </c>
       <c r="B626">
-        <v>67069.87591293007</v>
+        <v>47289.92250927389</v>
       </c>
       <c r="C626">
-        <v>11953.02414272001</v>
+        <v>11277.94272554848</v>
       </c>
     </row>
     <row r="627" spans="1:3">
@@ -7271,10 +7271,10 @@
         <v>625</v>
       </c>
       <c r="B627">
-        <v>65853.35597778016</v>
+        <v>46049.80482497269</v>
       </c>
       <c r="C627">
-        <v>9582.710089115026</v>
+        <v>8720.915600835862</v>
       </c>
     </row>
     <row r="628" spans="1:3">
@@ -7282,10 +7282,10 @@
         <v>626</v>
       </c>
       <c r="B628">
-        <v>64175.26621573535</v>
+        <v>44348.1173137766</v>
       </c>
       <c r="C628">
-        <v>9680.517453549677</v>
+        <v>8632.009894162871</v>
       </c>
     </row>
     <row r="629" spans="1:3">
@@ -7293,10 +7293,10 @@
         <v>627</v>
       </c>
       <c r="B629">
-        <v>60783.34455019719</v>
+        <v>40932.59789908717</v>
       </c>
       <c r="C629">
-        <v>12245.65468629346</v>
+        <v>11010.43405579901</v>
       </c>
     </row>
     <row r="630" spans="1:3">
@@ -7304,10 +7304,10 @@
         <v>628</v>
       </c>
       <c r="B630">
-        <v>61414.25936960766</v>
+        <v>41563.51271849764</v>
       </c>
       <c r="C630">
-        <v>11344.66290568428</v>
+        <v>10109.44227518983</v>
       </c>
     </row>
     <row r="631" spans="1:3">
@@ -7315,10 +7315,10 @@
         <v>629</v>
       </c>
       <c r="B631">
-        <v>62900.48641340178</v>
+        <v>43467.96911096895</v>
       </c>
       <c r="C631">
-        <v>9652.015259305783</v>
+        <v>9106.41566906407</v>
       </c>
     </row>
     <row r="632" spans="1:3">
@@ -7326,10 +7326,10 @@
         <v>630</v>
       </c>
       <c r="B632">
-        <v>56646.27720624198</v>
+        <v>37631.98925248634</v>
       </c>
       <c r="C632">
-        <v>15314.24102145257</v>
+        <v>15458.26247146359</v>
       </c>
     </row>
     <row r="633" spans="1:3">
@@ -7337,10 +7337,10 @@
         <v>631</v>
       </c>
       <c r="B633">
-        <v>58810.67771864286</v>
+        <v>40214.6191135644</v>
       </c>
       <c r="C633">
-        <v>8229.28085062898</v>
+        <v>9062.923340892739</v>
       </c>
     </row>
     <row r="634" spans="1:3">
@@ -7348,10 +7348,10 @@
         <v>632</v>
       </c>
       <c r="B634">
-        <v>54800.97714892722</v>
+        <v>36623.14789252595</v>
       </c>
       <c r="C634">
-        <v>6848.905476456627</v>
+        <v>8372.169006973123</v>
       </c>
     </row>
     <row r="635" spans="1:3">
@@ -7359,10 +7359,10 @@
         <v>633</v>
       </c>
       <c r="B635">
-        <v>61389.31969837911</v>
+        <v>43629.71979065502</v>
       </c>
       <c r="C635">
-        <v>8601.408654396362</v>
+        <v>10814.29322516559</v>
       </c>
     </row>
     <row r="636" spans="1:3">
@@ -7370,10 +7370,10 @@
         <v>634</v>
       </c>
       <c r="B636">
-        <v>58227.69731067924</v>
+        <v>40886.32675163234</v>
       </c>
       <c r="C636">
-        <v>4272.718387447799</v>
+        <v>7175.223998469768</v>
       </c>
     </row>
     <row r="637" spans="1:3">
@@ -7381,10 +7381,10 @@
         <v>635</v>
       </c>
       <c r="B637">
-        <v>57339.44756250879</v>
+        <v>39998.07700346188</v>
       </c>
       <c r="C637">
-        <v>10623.19884917298</v>
+        <v>13525.70446019495</v>
       </c>
     </row>
     <row r="638" spans="1:3">
@@ -7392,10 +7392,10 @@
         <v>636</v>
       </c>
       <c r="B638">
-        <v>51358.99916617318</v>
+        <v>33658.23136562673</v>
       </c>
       <c r="C638">
-        <v>8264.368075087907</v>
+        <v>10935.55133778306</v>
       </c>
     </row>
     <row r="639" spans="1:3">
@@ -7403,10 +7403,10 @@
         <v>637</v>
       </c>
       <c r="B639">
-        <v>51796.17490026413</v>
+        <v>33736.00985821813</v>
       </c>
       <c r="C639">
-        <v>11653.63829597445</v>
+        <v>14093.49921034279</v>
       </c>
     </row>
     <row r="640" spans="1:3">
@@ -7414,10 +7414,10 @@
         <v>638</v>
       </c>
       <c r="B640">
-        <v>53729.55907036657</v>
+        <v>35309.99678682102</v>
       </c>
       <c r="C640">
-        <v>8053.192672983224</v>
+        <v>10261.73123902475</v>
       </c>
     </row>
     <row r="641" spans="1:3">
@@ -7425,10 +7425,10 @@
         <v>639</v>
       </c>
       <c r="B641">
-        <v>45792.62188170617</v>
+        <v>27013.66235666107</v>
       </c>
       <c r="C641">
-        <v>7643.566927486813</v>
+        <v>9620.783145201518</v>
       </c>
     </row>
     <row r="642" spans="1:3">
@@ -7436,10 +7436,10 @@
         <v>640</v>
       </c>
       <c r="B642">
-        <v>49243.26870258099</v>
+        <v>30104.91193603633</v>
       </c>
       <c r="C642">
-        <v>4228.580404944478</v>
+        <v>5974.474274332366</v>
       </c>
     </row>
     <row r="643" spans="1:3">
@@ -7447,10 +7447,10 @@
         <v>641</v>
       </c>
       <c r="B643">
-        <v>50153.43906421349</v>
+        <v>30655.68505616927</v>
       </c>
       <c r="C643">
-        <v>5918.575704775805</v>
+        <v>7433.147225836878</v>
       </c>
     </row>
     <row r="644" spans="1:3">
@@ -7458,10 +7458,10 @@
         <v>642</v>
       </c>
       <c r="B644">
-        <v>46720.56529259997</v>
+        <v>27222.81128455576</v>
       </c>
       <c r="C644">
-        <v>8647.377056425441</v>
+        <v>10161.94857748651</v>
       </c>
     </row>
     <row r="645" spans="1:3">
@@ -7469,10 +7469,10 @@
         <v>643</v>
       </c>
       <c r="B645">
-        <v>37467.79839031542</v>
+        <v>18824.66054400351</v>
       </c>
       <c r="C645">
-        <v>5579.416878130442</v>
+        <v>6523.860593001458</v>
       </c>
     </row>
     <row r="646" spans="1:3">
@@ -7480,10 +7480,10 @@
         <v>644</v>
       </c>
       <c r="B646">
-        <v>46762.12243633893</v>
+        <v>28973.6007517593</v>
       </c>
       <c r="C646">
-        <v>5778.374392711698</v>
+        <v>6152.690301392659</v>
       </c>
     </row>
     <row r="647" spans="1:3">
@@ -7491,10 +7491,10 @@
         <v>645</v>
       </c>
       <c r="B647">
-        <v>41681.95348753061</v>
+        <v>24748.04796468326</v>
       </c>
       <c r="C647">
-        <v>8508.58269677502</v>
+        <v>8312.770799265925</v>
       </c>
     </row>
     <row r="648" spans="1:3">
@@ -7502,10 +7502,10 @@
         <v>646</v>
       </c>
       <c r="B648">
-        <v>40737.99208108465</v>
+        <v>24658.7027199696</v>
       </c>
       <c r="C648">
-        <v>8385.379411544223</v>
+        <v>7619.439707845075</v>
       </c>
     </row>
     <row r="649" spans="1:3">
@@ -7513,10 +7513,10 @@
         <v>647</v>
       </c>
       <c r="B649">
-        <v>37483.8707334433</v>
+        <v>22259.19753406054</v>
       </c>
       <c r="C649">
-        <v>7582.270764863626</v>
+        <v>6246.203254974424</v>
       </c>
     </row>
     <row r="650" spans="1:3">
@@ -7524,10 +7524,10 @@
         <v>648</v>
       </c>
       <c r="B650">
-        <v>36346.73761805556</v>
+        <v>21976.68058040508</v>
       </c>
       <c r="C650">
-        <v>9467.669618668469</v>
+        <v>7561.474302589213</v>
       </c>
     </row>
     <row r="651" spans="1:3">
@@ -7535,10 +7535,10 @@
         <v>649</v>
       </c>
       <c r="B651">
-        <v>35962.25635660511</v>
+        <v>21592.19931895463</v>
       </c>
       <c r="C651">
-        <v>6190.996374650244</v>
+        <v>4284.801058570986</v>
       </c>
     </row>
     <row r="652" spans="1:3">
@@ -7546,10 +7546,10 @@
         <v>650</v>
       </c>
       <c r="B652">
-        <v>35060.4149445509</v>
+        <v>21529.02825838819</v>
       </c>
       <c r="C652">
-        <v>2745.167917374748</v>
+        <v>730.1571784975299</v>
       </c>
     </row>
     <row r="653" spans="1:3">
@@ -7557,10 +7557,10 @@
         <v>651</v>
       </c>
       <c r="B653">
-        <v>37836.16420030108</v>
+        <v>25143.44786562612</v>
       </c>
       <c r="C653">
-        <v>3051.129206354276</v>
+        <v>927.3030446790954</v>
       </c>
     </row>
     <row r="654" spans="1:3">
@@ -7568,10 +7568,10 @@
         <v>652</v>
       </c>
       <c r="B654">
-        <v>37045.45356568511</v>
+        <v>25191.40758249792</v>
       </c>
       <c r="C654">
-        <v>7735.320665003353</v>
+        <v>5502.67908053021</v>
       </c>
     </row>
     <row r="655" spans="1:3">
@@ -7579,10 +7579,10 @@
         <v>653</v>
       </c>
       <c r="B655">
-        <v>42379.18033859721</v>
+        <v>31363.80470689778</v>
       </c>
       <c r="C655">
-        <v>8315.883861857623</v>
+        <v>5974.426854586518</v>
       </c>
     </row>
     <row r="656" spans="1:3">
@@ -7590,10 +7590,10 @@
         <v>654</v>
       </c>
       <c r="B656">
-        <v>38645.79403283617</v>
+        <v>28469.0887526245</v>
       </c>
       <c r="C656">
-        <v>5246.940827568952</v>
+        <v>2796.668397499886</v>
       </c>
     </row>
     <row r="657" spans="1:3">
@@ -7601,10 +7601,10 @@
         <v>655</v>
       </c>
       <c r="B657">
-        <v>33426.03178846618</v>
+        <v>24087.99685974227</v>
       </c>
       <c r="C657">
-        <v>6275.961737452326</v>
+        <v>3716.873884585296</v>
       </c>
     </row>
     <row r="658" spans="1:3">
@@ -7612,10 +7612,10 @@
         <v>656</v>
       </c>
       <c r="B658">
-        <v>35244.49718300861</v>
+        <v>25906.4622542847</v>
       </c>
       <c r="C658">
-        <v>2474.473821113273</v>
+        <v>-84.61403175375722</v>
       </c>
     </row>
     <row r="659" spans="1:3">
@@ -7623,10 +7623,10 @@
         <v>657</v>
       </c>
       <c r="B659">
-        <v>33101.27648452133</v>
+        <v>23310.67164836483</v>
       </c>
       <c r="C659">
-        <v>5491.060544139012</v>
+        <v>3092.348556552151</v>
       </c>
     </row>
     <row r="660" spans="1:3">
@@ -7634,10 +7634,10 @@
         <v>658</v>
       </c>
       <c r="B660">
-        <v>39290.80338853377</v>
+        <v>29047.6286449447</v>
       </c>
       <c r="C660">
-        <v>5284.205943436141</v>
+        <v>3045.869821129448</v>
       </c>
     </row>
     <row r="661" spans="1:3">
@@ -7645,10 +7645,10 @@
         <v>659</v>
       </c>
       <c r="B661">
-        <v>34074.34278574854</v>
+        <v>23378.59813472688</v>
       </c>
       <c r="C661">
-        <v>1680.175853937288</v>
+        <v>-397.7844030892365</v>
       </c>
     </row>
     <row r="662" spans="1:3">
@@ -7656,10 +7656,10 @@
         <v>660</v>
       </c>
       <c r="B662">
-        <v>36057.88915668731</v>
+        <v>24909.57459823306</v>
       </c>
       <c r="C662">
-        <v>1725.274291507639</v>
+        <v>-192.3101002387184</v>
       </c>
     </row>
     <row r="663" spans="1:3">
@@ -7667,10 +7667,10 @@
         <v>661</v>
       </c>
       <c r="B663">
-        <v>37285.00265752049</v>
+        <v>25684.11819163366</v>
       </c>
       <c r="C663">
-        <v>4453.293848432299</v>
+        <v>2696.08532196611</v>
       </c>
     </row>
     <row r="664" spans="1:3">
@@ -7678,10 +7678,10 @@
         <v>662</v>
       </c>
       <c r="B664">
-        <v>35036.11166786838</v>
+        <v>22982.65729454898</v>
       </c>
       <c r="C664">
-        <v>-557.3403999126108</v>
+        <v>-2154.173061098632</v>
       </c>
     </row>
     <row r="665" spans="1:3">
@@ -7689,10 +7689,10 @@
         <v>663</v>
       </c>
       <c r="B665">
-        <v>35746.21508235254</v>
+        <v>23692.76070903315</v>
       </c>
       <c r="C665">
-        <v>5025.7477909466</v>
+        <v>3428.915129760579</v>
       </c>
     </row>
     <row r="666" spans="1:3">
@@ -7700,10 +7700,10 @@
         <v>664</v>
       </c>
       <c r="B666">
-        <v>36366.65245438043</v>
+        <v>24428.05530659371</v>
       </c>
       <c r="C666">
-        <v>1706.63878372111</v>
+        <v>178.7670388694251</v>
       </c>
     </row>
     <row r="667" spans="1:3">
@@ -7711,10 +7711,10 @@
         <v>665</v>
       </c>
       <c r="B667">
-        <v>34562.72132494434</v>
+        <v>22738.98140269031</v>
       </c>
       <c r="C667">
-        <v>4877.332622594646</v>
+        <v>3418.421794077296</v>
       </c>
     </row>
     <row r="668" spans="1:3">
@@ -7722,10 +7722,10 @@
         <v>666</v>
       </c>
       <c r="B668">
-        <v>35886.805190546</v>
+        <v>24177.92249382465</v>
       </c>
       <c r="C668">
-        <v>970.5954437504934</v>
+        <v>-419.3544684325207</v>
       </c>
     </row>
     <row r="669" spans="1:3">
@@ -7733,10 +7733,10 @@
         <v>667</v>
       </c>
       <c r="B669">
-        <v>42053.0828240636</v>
+        <v>30459.05735287492</v>
       </c>
       <c r="C669">
-        <v>4301.863496185207</v>
+        <v>2980.874500336529</v>
       </c>
     </row>
     <row r="670" spans="1:3">
@@ -7744,10 +7744,10 @@
         <v>668</v>
       </c>
       <c r="B670">
-        <v>33792.38530320817</v>
+        <v>22313.21705755218</v>
       </c>
       <c r="C670">
-        <v>426.4336373574297</v>
+        <v>-825.5944421569118</v>
       </c>
     </row>
     <row r="671" spans="1:3">
@@ -7755,10 +7755,10 @@
         <v>669</v>
       </c>
       <c r="B671">
-        <v>41137.74057918198</v>
+        <v>29773.42955905868</v>
       </c>
       <c r="C671">
-        <v>-3679.241244857335</v>
+        <v>-4862.30840803734</v>
       </c>
     </row>
     <row r="672" spans="1:3">
@@ -7766,10 +7766,10 @@
         <v>670</v>
       </c>
       <c r="B672">
-        <v>34893.01630227656</v>
+        <v>23528.70528215325</v>
       </c>
       <c r="C672">
-        <v>6798.598691348532</v>
+        <v>5615.531528168527</v>
       </c>
     </row>
     <row r="673" spans="1:3">
@@ -7777,10 +7777,10 @@
         <v>671</v>
       </c>
       <c r="B673">
-        <v>31158.83467488326</v>
+        <v>19237.19625624834</v>
       </c>
       <c r="C673">
-        <v>5615.348562482142</v>
+        <v>3952.298426954848</v>
       </c>
     </row>
     <row r="674" spans="1:3">
@@ -7788,10 +7788,10 @@
         <v>672</v>
       </c>
       <c r="B674">
-        <v>27465.42912547637</v>
+        <v>14986.46330832984</v>
       </c>
       <c r="C674">
-        <v>-1532.988841544547</v>
+        <v>-3676.021949419131</v>
       </c>
     </row>
     <row r="675" spans="1:3">
@@ -7799,10 +7799,10 @@
         <v>673</v>
       </c>
       <c r="B675">
-        <v>36145.6969851364</v>
+        <v>23109.40376947826</v>
       </c>
       <c r="C675">
-        <v>5785.493497269731</v>
+        <v>3162.477417047858</v>
       </c>
     </row>
     <row r="676" spans="1:3">
@@ -7810,10 +7810,10 @@
         <v>674</v>
       </c>
       <c r="B676">
-        <v>33147.49724692351</v>
+        <v>19553.87663275375</v>
       </c>
       <c r="C676">
-        <v>8296.073061962146</v>
+        <v>5193.074009392983</v>
       </c>
     </row>
     <row r="677" spans="1:3">
@@ -7821,10 +7821,10 @@
         <v>675</v>
       </c>
       <c r="B677">
-        <v>41976.32536523465</v>
+        <v>27825.37735255328</v>
       </c>
       <c r="C677">
-        <v>2796.882700041913</v>
+        <v>-786.0993248745388</v>
       </c>
     </row>
     <row r="678" spans="1:3">
@@ -7832,10 +7832,10 @@
         <v>676</v>
       </c>
       <c r="B678">
-        <v>34182.92207691918</v>
+        <v>19474.64666572621</v>
       </c>
       <c r="C678">
-        <v>3672.899587404294</v>
+        <v>-390.0654098594462</v>
       </c>
     </row>
     <row r="679" spans="1:3">
@@ -7843,10 +7843,10 @@
         <v>677</v>
       </c>
       <c r="B679">
-        <v>40699.15397189595</v>
+        <v>25990.87856070296</v>
       </c>
       <c r="C679">
-        <v>10638.33222980153</v>
+        <v>6575.367232537791</v>
       </c>
     </row>
     <row r="680" spans="1:3">
@@ -7854,10 +7854,10 @@
         <v>678</v>
       </c>
       <c r="B680">
-        <v>41293.50198747303</v>
+        <v>26445.28701089832</v>
       </c>
       <c r="C680">
-        <v>6675.860032183717</v>
+        <v>3178.390870477146</v>
       </c>
     </row>
     <row r="681" spans="1:3">
@@ -7865,10 +7865,10 @@
         <v>679</v>
       </c>
       <c r="B681">
-        <v>40094.81191361503</v>
+        <v>25106.65737165858</v>
       </c>
       <c r="C681">
-        <v>5267.338608210761</v>
+        <v>2335.36528206136</v>
       </c>
     </row>
     <row r="682" spans="1:3">
@@ -7876,10 +7876,10 @@
         <v>680</v>
       </c>
       <c r="B682">
-        <v>36641.22706887225</v>
+        <v>21513.13296153408</v>
       </c>
       <c r="C682">
-        <v>1867.683187979439</v>
+        <v>-498.7943026127928</v>
       </c>
     </row>
     <row r="683" spans="1:3">
@@ -7887,10 +7887,10 @@
         <v>681</v>
       </c>
       <c r="B683">
-        <v>34103.38298790497</v>
+        <v>18835.34931518506</v>
       </c>
       <c r="C683">
-        <v>5496.448881946446</v>
+        <v>3695.467226911383</v>
       </c>
     </row>
     <row r="684" spans="1:3">
@@ -7898,10 +7898,10 @@
         <v>682</v>
       </c>
       <c r="B684">
-        <v>34671.78229287868</v>
+        <v>19263.80905477705</v>
       </c>
       <c r="C684">
-        <v>-62.87800800517925</v>
+        <v>-1298.363827483073</v>
       </c>
     </row>
     <row r="685" spans="1:3">
@@ -7909,10 +7909,10 @@
         <v>683</v>
       </c>
       <c r="B685">
-        <v>31290.53004182198</v>
+        <v>15742.61723833861</v>
       </c>
       <c r="C685">
-        <v>3527.244040265291</v>
+        <v>2857.254056344566</v>
       </c>
     </row>
     <row r="686" spans="1:3">
@@ -7920,10 +7920,10 @@
         <v>684</v>
       </c>
       <c r="B686">
-        <v>35694.35040461126</v>
+        <v>20146.43760112789</v>
       </c>
       <c r="C686">
-        <v>-830.9120220467912</v>
+        <v>-1500.902005967516</v>
       </c>
     </row>
     <row r="687" spans="1:3">
@@ -7931,10 +7931,10 @@
         <v>685</v>
       </c>
       <c r="B687">
-        <v>33222.92086112298</v>
+        <v>16362.36959764167</v>
       </c>
       <c r="C687">
-        <v>-204.0751041363401</v>
+        <v>-980.1289211931796</v>
       </c>
     </row>
     <row r="688" spans="1:3">
@@ -7942,10 +7942,10 @@
         <v>686</v>
       </c>
       <c r="B688">
-        <v>41444.42955918938</v>
+        <v>23271.23983571011</v>
       </c>
       <c r="C688">
-        <v>-820.3757003257965</v>
+        <v>-1702.493350518751</v>
       </c>
     </row>
     <row r="689" spans="1:3">
@@ -7953,10 +7953,10 @@
         <v>687</v>
       </c>
       <c r="B689">
-        <v>43078.4548252621</v>
+        <v>23592.62664178487</v>
       </c>
       <c r="C689">
-        <v>4843.686969485433</v>
+        <v>3855.505486156365</v>
       </c>
     </row>
     <row r="690" spans="1:3">
@@ -7964,10 +7964,10 @@
         <v>688</v>
       </c>
       <c r="B690">
-        <v>48838.3579040835</v>
+        <v>28039.89126060832</v>
       </c>
       <c r="C690">
-        <v>1406.564430910601</v>
+        <v>312.3191144454179</v>
       </c>
     </row>
     <row r="691" spans="1:3">
@@ -7975,10 +7975,10 @@
         <v>689</v>
       </c>
       <c r="B691">
-        <v>43552.64887011446</v>
+        <v>21441.54376664132</v>
       </c>
       <c r="C691">
-        <v>5856.393184069144</v>
+        <v>4656.084034467847</v>
       </c>
     </row>
     <row r="692" spans="1:3">
@@ -7986,10 +7986,10 @@
         <v>690</v>
       </c>
       <c r="B692">
-        <v>43119.40956397251</v>
+        <v>19695.66600050141</v>
       </c>
       <c r="C692">
-        <v>3361.609682576796</v>
+        <v>2055.236699839384</v>
       </c>
     </row>
     <row r="693" spans="1:3">
@@ -7997,10 +7997,10 @@
         <v>691</v>
       </c>
       <c r="B693">
-        <v>46401.50346421875</v>
+        <v>22977.75990074766</v>
       </c>
       <c r="C693">
-        <v>4482.465919681078</v>
+        <v>3176.092936943665</v>
       </c>
     </row>
     <row r="694" spans="1:3">
@@ -8008,10 +8008,10 @@
         <v>692</v>
       </c>
       <c r="B694">
-        <v>53493.42954341092</v>
+        <v>29208.25035852953</v>
       </c>
       <c r="C694">
-        <v>1403.866242642736</v>
+        <v>-179.983088028494</v>
       </c>
     </row>
     <row r="695" spans="1:3">
@@ -8019,10 +8019,10 @@
         <v>693</v>
       </c>
       <c r="B695">
-        <v>52714.32825997123</v>
+        <v>27567.71345367951</v>
       </c>
       <c r="C695">
-        <v>2466.114951451968</v>
+        <v>604.789272846921</v>
       </c>
     </row>
     <row r="696" spans="1:3">
@@ -8030,10 +8030,10 @@
         <v>694</v>
       </c>
       <c r="B696">
-        <v>47827.89373977517</v>
+        <v>21819.84331207314</v>
       </c>
       <c r="C696">
-        <v>-1164.049769896873</v>
+        <v>-3302.851796435738</v>
       </c>
     </row>
     <row r="697" spans="1:3">
@@ -8041,10 +8041,10 @@
         <v>695</v>
       </c>
       <c r="B697">
-        <v>52146.42405828574</v>
+        <v>25276.9380091734</v>
       </c>
       <c r="C697">
-        <v>3975.100680463944</v>
+        <v>1558.822305991261</v>
       </c>
     </row>
     <row r="698" spans="1:3">
@@ -8052,10 +8052,10 @@
         <v>696</v>
       </c>
       <c r="B698">
-        <v>59034.09638171234</v>
+        <v>31303.17471118969</v>
       </c>
       <c r="C698">
-        <v>4910.955284217152</v>
+        <v>2217.200561810653</v>
       </c>
     </row>
     <row r="699" spans="1:3">
@@ -8063,10 +8063,10 @@
         <v>697</v>
       </c>
       <c r="B699">
-        <v>54188.43678932676</v>
+        <v>25596.0794973938</v>
       </c>
       <c r="C699">
-        <v>6400.034689858463</v>
+        <v>3428.803619518146</v>
       </c>
     </row>
     <row r="700" spans="1:3">
@@ -8074,10 +8074,10 @@
         <v>698</v>
       </c>
       <c r="B700">
-        <v>57126.20818786613</v>
+        <v>28533.85089593317</v>
       </c>
       <c r="C700">
-        <v>748.0026389683203</v>
+        <v>-2223.228431371997</v>
       </c>
     </row>
     <row r="701" spans="1:3">
@@ -8085,10 +8085,10 @@
         <v>699</v>
       </c>
       <c r="B701">
-        <v>58354.75115688844</v>
+        <v>29258.5154336603</v>
       </c>
       <c r="C701">
-        <v>-2338.388003328279</v>
+        <v>-5909.946683266003</v>
       </c>
     </row>
     <row r="702" spans="1:3">
@@ -8096,10 +8096,10 @@
         <v>700</v>
       </c>
       <c r="B702">
-        <v>58550.89989408692</v>
+        <v>28950.78573956362</v>
       </c>
       <c r="C702">
-        <v>7494.599368513399</v>
+        <v>3322.713078978266</v>
       </c>
     </row>
     <row r="703" spans="1:3">
@@ -8107,10 +8107,10 @@
         <v>701</v>
       </c>
       <c r="B703">
-        <v>67489.17865890634</v>
+        <v>37385.18607308785</v>
       </c>
       <c r="C703">
-        <v>7967.896145252489</v>
+        <v>3195.68224611995</v>
       </c>
     </row>
     <row r="704" spans="1:3">
@@ -8118,10 +8118,10 @@
         <v>702</v>
       </c>
       <c r="B704">
-        <v>60975.58944918854</v>
+        <v>30367.71843207488</v>
       </c>
       <c r="C704">
-        <v>3489.52161565395</v>
+        <v>-1883.019893075998</v>
       </c>
     </row>
     <row r="705" spans="1:3">
@@ -8129,10 +8129,10 @@
         <v>703</v>
       </c>
       <c r="B705">
-        <v>56976.00277784868</v>
+        <v>25864.25332943985</v>
       </c>
       <c r="C705">
-        <v>9043.156686477054</v>
+        <v>3070.287568149702</v>
       </c>
     </row>
     <row r="706" spans="1:3">
@@ -8140,10 +8140,10 @@
         <v>704</v>
       </c>
       <c r="B706">
-        <v>63725.01597714407</v>
+        <v>32109.38809744006</v>
       </c>
       <c r="C706">
-        <v>6492.482982389145</v>
+        <v>-80.71374553561509</v>
       </c>
     </row>
     <row r="707" spans="1:3">
@@ -8151,10 +8151,10 @@
         <v>705</v>
       </c>
       <c r="B707">
-        <v>57941.32798082526</v>
+        <v>26325.70010112124</v>
       </c>
       <c r="C707">
-        <v>6243.4298237842</v>
+        <v>-329.7669041405601</v>
       </c>
     </row>
     <row r="708" spans="1:3">
@@ -8162,10 +8162,10 @@
         <v>706</v>
       </c>
       <c r="B708">
-        <v>56780.75262510365</v>
+        <v>25047.56828881894</v>
       </c>
       <c r="C708">
-        <v>9877.679772128367</v>
+        <v>3527.84870365629</v>
       </c>
     </row>
     <row r="709" spans="1:3">
@@ -8173,10 +8173,10 @@
         <v>707</v>
       </c>
       <c r="B709">
-        <v>54577.9070860519</v>
+        <v>22727.1662931865</v>
       </c>
       <c r="C709">
-        <v>6575.964693051295</v>
+        <v>449.4992840319006</v>
       </c>
     </row>
     <row r="710" spans="1:3">
@@ -8184,10 +8184,10 @@
         <v>708</v>
       </c>
       <c r="B710">
-        <v>60242.85306434399</v>
+        <v>28274.55581489788</v>
       </c>
       <c r="C710">
-        <v>10673.98768715788</v>
+        <v>4770.887937591169</v>
       </c>
     </row>
     <row r="711" spans="1:3">
@@ -8195,10 +8195,10 @@
         <v>709</v>
       </c>
       <c r="B711">
-        <v>52759.09349934436</v>
+        <v>20673.23979331755</v>
       </c>
       <c r="C711">
-        <v>6162.699422828088</v>
+        <v>482.9653327140591</v>
       </c>
     </row>
     <row r="712" spans="1:3">
@@ -8206,10 +8206,10 @@
         <v>710</v>
       </c>
       <c r="B712">
-        <v>55708.84891999522</v>
+        <v>23505.43875738771</v>
       </c>
       <c r="C712">
-        <v>7509.55768641778</v>
+        <v>2053.189255756434</v>
       </c>
     </row>
     <row r="713" spans="1:3">
@@ -8217,10 +8217,10 @@
         <v>711</v>
       </c>
       <c r="B713">
-        <v>52421.23524161505</v>
+        <v>20100.26862242684</v>
       </c>
       <c r="C713">
-        <v>8026.096161411651</v>
+        <v>2793.093390202987</v>
       </c>
     </row>
     <row r="714" spans="1:3">
@@ -8228,10 +8228,10 @@
         <v>712</v>
       </c>
       <c r="B714">
-        <v>56177.97003836795</v>
+        <v>23857.00341917974</v>
       </c>
       <c r="C714">
-        <v>8880.024478428573</v>
+        <v>3647.02170721991</v>
       </c>
     </row>
     <row r="715" spans="1:3">
@@ -8239,10 +8239,10 @@
         <v>713</v>
       </c>
       <c r="B715">
-        <v>47031.42077598536</v>
+        <v>16723.70230862778</v>
       </c>
       <c r="C715">
-        <v>5672.745033944414</v>
+        <v>1004.73591944284</v>
       </c>
     </row>
     <row r="716" spans="1:3">
@@ -8250,10 +8250,10 @@
         <v>714</v>
       </c>
       <c r="B716">
-        <v>51608.73367383853</v>
+        <v>23314.2633583116</v>
       </c>
       <c r="C716">
-        <v>7916.991493786695</v>
+        <v>3813.97603599221</v>
       </c>
     </row>
     <row r="717" spans="1:3">
@@ -8261,10 +8261,10 @@
         <v>715</v>
       </c>
       <c r="B717">
-        <v>44413.02097828076</v>
+        <v>18131.79881458448</v>
       </c>
       <c r="C717">
-        <v>5927.245800386723</v>
+        <v>2389.223999299328</v>
       </c>
     </row>
     <row r="718" spans="1:3">
@@ -8272,10 +8272,10 @@
         <v>716</v>
       </c>
       <c r="B718">
-        <v>44381.71073968094</v>
+        <v>20113.7367278153</v>
       </c>
       <c r="C718">
-        <v>5554.827366712198</v>
+        <v>2581.799222331892</v>
       </c>
     </row>
     <row r="719" spans="1:3">
@@ -8283,10 +8283,10 @@
         <v>717</v>
       </c>
       <c r="B719">
-        <v>38907.22023189692</v>
+        <v>16652.49437186193</v>
       </c>
       <c r="C719">
-        <v>3415.66430153209</v>
+        <v>1007.629813858877</v>
       </c>
     </row>
     <row r="720" spans="1:3">
@@ -8294,10 +8294,10 @@
         <v>718</v>
       </c>
       <c r="B720">
-        <v>37487.20517987423</v>
+        <v>17245.72747166989</v>
       </c>
       <c r="C720">
-        <v>3092.358282597124</v>
+        <v>1249.317451631001</v>
       </c>
     </row>
     <row r="721" spans="1:3">
@@ -8305,10 +8305,10 @@
         <v>719</v>
       </c>
       <c r="B721">
-        <v>32342.52831759251</v>
+        <v>12101.05060938817</v>
       </c>
       <c r="C721">
-        <v>2923.407345444702</v>
+        <v>1080.366514478578</v>
       </c>
     </row>
     <row r="722" spans="1:3">
@@ -8316,10 +8316,10 @@
         <v>720</v>
       </c>
       <c r="B722">
-        <v>45772.21628322277</v>
+        <v>23906.79679153287</v>
       </c>
       <c r="C722">
-        <v>3802.815126391085</v>
+        <v>2077.973395497567</v>
       </c>
     </row>
     <row r="723" spans="1:3">
@@ -8327,10 +8327,10 @@
         <v>721</v>
       </c>
       <c r="B723">
-        <v>40700.77276528627</v>
+        <v>17211.41149011082</v>
       </c>
       <c r="C723">
-        <v>2865.746700163786</v>
+        <v>1259.104069342875</v>
       </c>
     </row>
     <row r="724" spans="1:3">
@@ -8338,10 +8338,10 @@
         <v>722</v>
       </c>
       <c r="B724">
-        <v>43744.89713965384</v>
+        <v>18631.59408099282</v>
       </c>
       <c r="C724">
-        <v>2187.859261305263</v>
+        <v>699.4157305569586</v>
       </c>
     </row>
     <row r="725" spans="1:3">
@@ -8349,10 +8349,10 @@
         <v>723</v>
       </c>
       <c r="B725">
-        <v>48954.54092946088</v>
+        <v>22217.29608731431</v>
       </c>
       <c r="C725">
-        <v>3995.569045830021</v>
+        <v>2625.324615154322</v>
       </c>
     </row>
     <row r="726" spans="1:3">
@@ -8360,10 +8360,10 @@
         <v>724</v>
       </c>
       <c r="B726">
-        <v>53367.20525507464</v>
+        <v>25006.01862944253</v>
       </c>
       <c r="C726">
-        <v>4257.90336169181</v>
+        <v>3005.858031088718</v>
       </c>
     </row>
     <row r="727" spans="1:3">
@@ -8371,10 +8371,10 @@
         <v>725</v>
       </c>
       <c r="B727">
-        <v>47672.57765736619</v>
+        <v>17687.44924824851</v>
       </c>
       <c r="C727">
-        <v>2135.833745848239</v>
+        <v>1001.987515317752</v>
       </c>
     </row>
     <row r="728" spans="1:3">
@@ -8382,10 +8382,10 @@
         <v>726</v>
       </c>
       <c r="B728">
-        <v>48586.92145482524</v>
+        <v>18601.79304570757</v>
       </c>
       <c r="C728">
-        <v>2040.74952790312</v>
+        <v>906.9032973726331</v>
       </c>
     </row>
     <row r="729" spans="1:3">
@@ -8393,10 +8393,10 @@
         <v>727</v>
       </c>
       <c r="B729">
-        <v>47664.02357144527</v>
+        <v>17678.8951623276</v>
       </c>
       <c r="C729">
-        <v>740.5402652333619</v>
+        <v>-393.3059652971244</v>
       </c>
     </row>
     <row r="730" spans="1:3">
@@ -8404,10 +8404,10 @@
         <v>728</v>
       </c>
       <c r="B730">
-        <v>50996.88728596076</v>
+        <v>21011.75887684309</v>
       </c>
       <c r="C730">
-        <v>3467.655277507119</v>
+        <v>2333.809046976633</v>
       </c>
     </row>
     <row r="731" spans="1:3">
@@ -8415,10 +8415,10 @@
         <v>729</v>
       </c>
       <c r="B731">
-        <v>47674.67299829815</v>
+        <v>17689.54458918047</v>
       </c>
       <c r="C731">
-        <v>3758.613341233994</v>
+        <v>2624.767110703508</v>
       </c>
     </row>
   </sheetData>

--- a/Stochastic_engine/CA_hydropower/CA_hydro_daily.xlsx
+++ b/Stochastic_engine/CA_hydropower/CA_hydro_daily.xlsx
@@ -390,10 +390,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>56561.2932677866</v>
+        <v>84520.99609447303</v>
       </c>
       <c r="C2" t="n">
-        <v>2280.948198163705</v>
+        <v>7769.351327655068</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -401,10 +401,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>56759.52784990181</v>
+        <v>84719.23067658822</v>
       </c>
       <c r="C3" t="n">
-        <v>1681.346934234914</v>
+        <v>7169.750063726278</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -412,10 +412,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>44324.23234700112</v>
+        <v>72283.93517368754</v>
       </c>
       <c r="C4" t="n">
-        <v>1117.055711037461</v>
+        <v>6605.458840528825</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -423,10 +423,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>54880.95568382747</v>
+        <v>82840.65851051389</v>
       </c>
       <c r="C5" t="n">
-        <v>3242.860349350516</v>
+        <v>8731.26347884188</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -434,10 +434,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>53445.29549798109</v>
+        <v>81404.99832466751</v>
       </c>
       <c r="C6" t="n">
-        <v>2147.166536779068</v>
+        <v>7635.569666270431</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -445,10 +445,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>59943.28930543589</v>
+        <v>82758.55337458261</v>
       </c>
       <c r="C7" t="n">
-        <v>2253.108175450698</v>
+        <v>6760.605194000944</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -456,10 +456,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>55396.38056431891</v>
+        <v>73067.20587592592</v>
       </c>
       <c r="C8" t="n">
-        <v>3620.405954980893</v>
+        <v>7146.996862590022</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -467,10 +467,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>54276.41693002801</v>
+        <v>66802.80348409532</v>
       </c>
       <c r="C9" t="n">
-        <v>4091.013422617943</v>
+        <v>6636.698219285955</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -478,10 +478,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>56005.78864023212</v>
+        <v>63387.73643675974</v>
       </c>
       <c r="C10" t="n">
-        <v>2667.444284665543</v>
+        <v>4232.222970392436</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -489,10 +489,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>52054.58980926182</v>
+        <v>54292.09884824973</v>
       </c>
       <c r="C11" t="n">
-        <v>2321.322903624529</v>
+        <v>2905.195478410306</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -500,10 +500,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>51469.44855031429</v>
+        <v>48562.5188317625</v>
       </c>
       <c r="C12" t="n">
-        <v>3102.724563527997</v>
+        <v>2705.691027372656</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -511,10 +511,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>57315.31837667995</v>
+        <v>54408.38865812816</v>
       </c>
       <c r="C13" t="n">
-        <v>921.3293290194611</v>
+        <v>524.2957928641204</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -522,10 +522,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>55662.53453878782</v>
+        <v>49735.58870629907</v>
       </c>
       <c r="C14" t="n">
-        <v>921.9917363459303</v>
+        <v>699.7038216401543</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -533,10 +533,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>58226.21629602832</v>
+        <v>49279.2543496026</v>
       </c>
       <c r="C15" t="n">
-        <v>4841.037527741608</v>
+        <v>4793.495234485395</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -544,10 +544,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>61104.10257513353</v>
+        <v>49137.12451477085</v>
       </c>
       <c r="C16" t="n">
-        <v>2674.112382748015</v>
+        <v>2801.315710941368</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -555,10 +555,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>64844.87597746471</v>
+        <v>49857.88180316507</v>
       </c>
       <c r="C17" t="n">
-        <v>4300.737579828587</v>
+        <v>4602.686529471503</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -566,10 +566,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>70641.53310272243</v>
+        <v>52634.52281448583</v>
       </c>
       <c r="C18" t="n">
-        <v>2847.347984846155</v>
+        <v>3324.042555938636</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -577,10 +577,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>62355.35260001708</v>
+        <v>41328.3261978435</v>
       </c>
       <c r="C19" t="n">
-        <v>2815.296907090225</v>
+        <v>3466.737099632271</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -588,10 +588,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>64381.19497983655</v>
+        <v>43354.16857766296</v>
       </c>
       <c r="C20" t="n">
-        <v>1834.89589707356</v>
+        <v>2486.336089615605</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -599,10 +599,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>63542.4513249614</v>
+        <v>46860.12974375045</v>
       </c>
       <c r="C21" t="n">
-        <v>3894.290420833845</v>
+        <v>5264.94422004745</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -610,10 +610,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>65792.54806354096</v>
+        <v>53454.93130329264</v>
       </c>
       <c r="C22" t="n">
-        <v>6569.07887217282</v>
+        <v>8658.946278057983</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -621,10 +621,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>59060.18974602465</v>
+        <v>51067.27780673894</v>
       </c>
       <c r="C23" t="n">
-        <v>3853.676673398011</v>
+        <v>6662.757685954733</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -632,10 +632,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>58242.41932365931</v>
+        <v>54594.21220533623</v>
       </c>
       <c r="C24" t="n">
-        <v>2038.012652828345</v>
+        <v>5566.307272056625</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -643,10 +643,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>61042.51942115584</v>
+        <v>61739.01712379538</v>
       </c>
       <c r="C25" t="n">
-        <v>2523.28841403044</v>
+        <v>6770.796639930279</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -654,10 +654,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>54612.67023696513</v>
+        <v>59653.8727605673</v>
       </c>
       <c r="C26" t="n">
-        <v>3981.116749011929</v>
+        <v>8947.838581583326</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -665,10 +665,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>56394.42561406211</v>
+        <v>61435.62813766429</v>
       </c>
       <c r="C27" t="n">
-        <v>1117.180932608644</v>
+        <v>6083.902765180041</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -676,10 +676,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>56209.42937731056</v>
+        <v>58108.03515911924</v>
       </c>
       <c r="C28" t="n">
-        <v>-2951.331386432224</v>
+        <v>506.1054403410699</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -687,10 +687,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>63007.01881509175</v>
+        <v>61763.02785510696</v>
       </c>
       <c r="C29" t="n">
-        <v>5328.615070758493</v>
+        <v>7276.766891733686</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -698,10 +698,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>65637.08156624665</v>
+        <v>61250.49386446837</v>
       </c>
       <c r="C30" t="n">
-        <v>5875.179987238538</v>
+        <v>6314.046802415629</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -709,10 +709,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>61853.19323361502</v>
+        <v>54324.00879004326</v>
       </c>
       <c r="C31" t="n">
-        <v>8359.899667746271</v>
+        <v>7289.481477125262</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -720,10 +720,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>68051.71992996108</v>
+        <v>57379.93874459585</v>
       </c>
       <c r="C32" t="n">
-        <v>9252.558145599261</v>
+        <v>6672.85494918015</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -731,10 +731,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>72408.26345604572</v>
+        <v>58593.88552888703</v>
       </c>
       <c r="C33" t="n">
-        <v>11180.88142940324</v>
+        <v>7091.893227186023</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -742,10 +742,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>73938.7987585564</v>
+        <v>60124.4208313977</v>
       </c>
       <c r="C34" t="n">
-        <v>7405.623306348137</v>
+        <v>3316.635104130924</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -753,10 +753,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>74845.23057375409</v>
+        <v>62372.18465340208</v>
       </c>
       <c r="C35" t="n">
-        <v>6330.260264174387</v>
+        <v>3391.329518714203</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -764,10 +764,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>75372.75071010507</v>
+        <v>64241.03679655978</v>
       </c>
       <c r="C36" t="n">
-        <v>8167.530909038464</v>
+        <v>6378.65762033531</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -775,10 +775,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>79456.0837867701</v>
+        <v>69665.70188003154</v>
       </c>
       <c r="C37" t="n">
-        <v>7155.89402655753</v>
+        <v>6517.078194611405</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -786,10 +786,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>76190.20213563318</v>
+        <v>67741.15223570135</v>
       </c>
       <c r="C38" t="n">
-        <v>11127.44197298071</v>
+        <v>11638.68359779161</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -797,10 +797,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>82418.93293840595</v>
+        <v>75311.2150452808</v>
       </c>
       <c r="C39" t="n">
-        <v>11548.80957048312</v>
+        <v>13210.10865205105</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -808,10 +808,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>74534.25069221914</v>
+        <v>68767.86480590071</v>
       </c>
       <c r="C40" t="n">
-        <v>6492.494527429219</v>
+        <v>9303.851065754177</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -819,10 +819,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>81423.78014493929</v>
+        <v>75657.39425862086</v>
       </c>
       <c r="C41" t="n">
-        <v>6222.006278718442</v>
+        <v>9033.362817043402</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -830,10 +830,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>80763.94285786961</v>
+        <v>74054.42385976795</v>
       </c>
       <c r="C42" t="n">
-        <v>11394.27739340748</v>
+        <v>14137.31035186715</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -841,10 +841,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>73732.31223066922</v>
+        <v>66079.66012078433</v>
       </c>
       <c r="C43" t="n">
-        <v>5288.689009615927</v>
+        <v>7963.398388210307</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -852,10 +852,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>76046.37306940861</v>
+        <v>67450.58784774051</v>
       </c>
       <c r="C44" t="n">
-        <v>4502.363536919304</v>
+        <v>7108.749335648393</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -863,10 +863,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>69358.6120218487</v>
+        <v>59819.69368839739</v>
       </c>
       <c r="C45" t="n">
-        <v>5576.848632195149</v>
+        <v>8114.910851058948</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -874,10 +874,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>69767.44547674502</v>
+        <v>59285.39403151048</v>
       </c>
       <c r="C46" t="n">
-        <v>4134.256790878927</v>
+        <v>6603.995429877435</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -885,10 +885,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>71100.56251002313</v>
+        <v>59675.37795300534</v>
       </c>
       <c r="C47" t="n">
-        <v>3822.350046624494</v>
+        <v>6223.76510575771</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -896,10 +896,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>64624.78000616046</v>
+        <v>53199.59544914269</v>
       </c>
       <c r="C48" t="n">
-        <v>4342.217885694296</v>
+        <v>6743.632944827513</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -907,10 +907,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>68381.74592283332</v>
+        <v>58708.5194006142</v>
       </c>
       <c r="C49" t="n">
-        <v>6649.597076496651</v>
+        <v>9267.688526073922</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -918,10 +918,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>68852.45118729364</v>
+        <v>60931.18269987318</v>
       </c>
       <c r="C50" t="n">
-        <v>6681.343358880593</v>
+        <v>9516.111198901919</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -929,10 +929,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>63150.15391637395</v>
+        <v>56980.84346375216</v>
       </c>
       <c r="C51" t="n">
-        <v>8753.032253113864</v>
+        <v>11804.47648357924</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -940,10 +940,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>71059.20608650015</v>
+        <v>66641.85366867702</v>
       </c>
       <c r="C52" t="n">
-        <v>2963.547794881962</v>
+        <v>6231.668415791399</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -951,10 +951,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>64016.81185301141</v>
+        <v>61351.41746998695</v>
       </c>
       <c r="C53" t="n">
-        <v>5562.062578998587</v>
+        <v>9046.859590352078</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -962,10 +962,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>63888.49304346304</v>
+        <v>62975.05669523727</v>
       </c>
       <c r="C54" t="n">
-        <v>6442.02175481527</v>
+        <v>10143.49515661282</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -973,10 +973,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>65471.61977323933</v>
+        <v>64558.18342501356</v>
       </c>
       <c r="C55" t="n">
-        <v>6399.466822289649</v>
+        <v>10100.9402240872</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -984,10 +984,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>63421.15733180588</v>
+        <v>63038.43159487349</v>
       </c>
       <c r="C56" t="n">
-        <v>2420.697759417576</v>
+        <v>5483.109086006084</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -995,10 +995,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>66825.54742487513</v>
+        <v>66973.5322992361</v>
       </c>
       <c r="C57" t="n">
-        <v>5761.693134883387</v>
+        <v>8185.042386262855</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1006,10 +1006,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>62734.54832575945</v>
+        <v>63413.24381141383</v>
       </c>
       <c r="C58" t="n">
-        <v>3781.931304646697</v>
+        <v>5566.218480817126</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1017,10 +1017,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>65763.67204171971</v>
+        <v>66973.07813866744</v>
       </c>
       <c r="C59" t="n">
-        <v>9478.366612966523</v>
+        <v>10623.59171392791</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1028,10 +1028,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>67754.31216294186</v>
+        <v>69494.42887118297</v>
       </c>
       <c r="C60" t="n">
-        <v>8309.604011543242</v>
+        <v>8815.767037295593</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1039,10 +1039,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>66718.64246334376</v>
+        <v>68989.46978287822</v>
       </c>
       <c r="C61" t="n">
-        <v>2449.880763290724</v>
+        <v>2316.981713834036</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1050,10 +1050,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>59778.77051296144</v>
+        <v>62049.59783249591</v>
       </c>
       <c r="C62" t="n">
-        <v>12202.0226172457</v>
+        <v>12069.12356778901</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1061,10 +1061,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>61326.84193900046</v>
+        <v>64498.11230661275</v>
       </c>
       <c r="C63" t="n">
-        <v>8412.584756628385</v>
+        <v>8722.474689110884</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1072,10 +1072,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>70127.54734963544</v>
+        <v>74199.26076532551</v>
       </c>
       <c r="C64" t="n">
-        <v>8407.627683879211</v>
+        <v>9160.306598300898</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1083,10 +1083,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>71591.86269762216</v>
+        <v>76564.01916139002</v>
       </c>
       <c r="C65" t="n">
-        <v>7868.032280428173</v>
+        <v>9063.500176789048</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1094,10 +1094,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>74153.63586687163</v>
+        <v>80026.23537871728</v>
       </c>
       <c r="C66" t="n">
-        <v>8799.859480632973</v>
+        <v>10438.11635893304</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1105,10 +1105,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>68103.14931600184</v>
+        <v>74876.19187592533</v>
       </c>
       <c r="C67" t="n">
-        <v>6489.30518759271</v>
+        <v>8570.351047831962</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1116,10 +1116,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>71115.27247207958</v>
+        <v>78788.75808008085</v>
       </c>
       <c r="C68" t="n">
-        <v>8406.141154961409</v>
+        <v>10929.97599713985</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1127,10 +1127,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>72789.22263664423</v>
+        <v>80462.7082446455</v>
       </c>
       <c r="C69" t="n">
-        <v>7198.677534103596</v>
+        <v>9722.512376282037</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1138,10 +1138,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>68319.13852944119</v>
+        <v>79205.59577066575</v>
       </c>
       <c r="C70" t="n">
-        <v>8708.88192663729</v>
+        <v>11419.19337501158</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1149,10 +1149,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>66648.27677158934</v>
+        <v>80747.70564603717</v>
       </c>
       <c r="C71" t="n">
-        <v>3221.140292926588</v>
+        <v>6117.928347496738</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1160,10 +1160,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>68726.96517003354</v>
+        <v>86039.36567770463</v>
       </c>
       <c r="C72" t="n">
-        <v>2342.144721675278</v>
+        <v>5425.409382441281</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1171,10 +1171,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>66285.55258839494</v>
+        <v>86810.92472928931</v>
       </c>
       <c r="C73" t="n">
-        <v>7992.661673240624</v>
+        <v>11262.40294020248</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1182,10 +1182,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>59885.20049240983</v>
+        <v>83623.54426652746</v>
       </c>
       <c r="C74" t="n">
-        <v>6264.598138692256</v>
+        <v>9720.816011849969</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1193,10 +1193,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>62982.98370332819</v>
+        <v>89934.29911066908</v>
       </c>
       <c r="C75" t="n">
-        <v>6903.34626566714</v>
+        <v>10546.04074502071</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1204,10 +1204,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>64220.75626736507</v>
+        <v>91172.07167470596</v>
       </c>
       <c r="C76" t="n">
-        <v>5340.696007972566</v>
+        <v>8983.390487326133</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1215,10 +1215,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>63637.71881072497</v>
+        <v>90874.00100995596</v>
       </c>
       <c r="C77" t="n">
-        <v>809.9003377847775</v>
+        <v>4793.634445572015</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1226,10 +1226,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>64089.55486668144</v>
+        <v>91610.80385780253</v>
       </c>
       <c r="C78" t="n">
-        <v>6892.285521537293</v>
+        <v>11217.0592577582</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1237,10 +1237,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>56486.81127389892</v>
+        <v>84293.0270569101</v>
       </c>
       <c r="C79" t="n">
-        <v>7502.57584455405</v>
+        <v>12168.38920920863</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1248,10 +1248,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>61276.59693176922</v>
+        <v>89367.77950667049</v>
       </c>
       <c r="C80" t="n">
-        <v>3321.830105373661</v>
+        <v>8328.683098461908</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1259,10 +1259,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>59096.72884555177</v>
+        <v>87472.87821234313</v>
       </c>
       <c r="C81" t="n">
-        <v>7500.926701814442</v>
+        <v>12848.81932333636</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1270,10 +1270,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>61345.52730399591</v>
+        <v>90006.64346267737</v>
       </c>
       <c r="C82" t="n">
-        <v>4152.708759442265</v>
+        <v>9841.641009397852</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1281,10 +1281,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>70484.20687956901</v>
+        <v>99145.32303825047</v>
       </c>
       <c r="C83" t="n">
-        <v>7870.842890686894</v>
+        <v>13559.77514064248</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1292,10 +1292,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>59627.31371944316</v>
+        <v>86121.48166612122</v>
       </c>
       <c r="C84" t="n">
-        <v>4612.787877399692</v>
+        <v>9762.547840776431</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1303,10 +1303,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>59720.61908352307</v>
+        <v>84047.83881819776</v>
       </c>
       <c r="C85" t="n">
-        <v>8542.245328174695</v>
+        <v>13152.83300497259</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1314,10 +1314,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>62908.36797524067</v>
+        <v>85068.63949791197</v>
       </c>
       <c r="C86" t="n">
-        <v>7321.102131204456</v>
+        <v>11392.5175214235</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1325,10 +1325,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>63139.58484620629</v>
+        <v>83132.9081568742</v>
       </c>
       <c r="C87" t="n">
-        <v>2714.429988552096</v>
+        <v>6246.673092192295</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1336,10 +1336,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>65199.72399534035</v>
+        <v>83026.09909400489</v>
       </c>
       <c r="C88" t="n">
-        <v>2345.092542798446</v>
+        <v>5338.163359859798</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1347,10 +1347,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>66251.75654605325</v>
+        <v>81911.18343271439</v>
       </c>
       <c r="C89" t="n">
-        <v>11363.95635756666</v>
+        <v>13817.85488804916</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1358,10 +1358,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>63478.27283631016</v>
+        <v>79137.69972297129</v>
       </c>
       <c r="C90" t="n">
-        <v>5637.839062998705</v>
+        <v>8091.737593481208</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1369,10 +1369,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>65936.92187317139</v>
+        <v>78859.80545831601</v>
       </c>
       <c r="C91" t="n">
-        <v>5687.114744736013</v>
+        <v>7112.935485883452</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1380,10 +1380,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>70141.76335860076</v>
+        <v>80328.10364222887</v>
       </c>
       <c r="C92" t="n">
-        <v>8468.295234252979</v>
+        <v>8866.038186065354</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1391,10 +1391,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>69202.06055940274</v>
+        <v>76651.85754151436</v>
       </c>
       <c r="C93" t="n">
-        <v>10221.57462029467</v>
+        <v>9591.239782771978</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1402,10 +1402,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>69126.5855804469</v>
+        <v>73839.83926104203</v>
       </c>
       <c r="C94" t="n">
-        <v>10374.63285872203</v>
+        <v>8716.220231864274</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1413,10 +1413,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>79084.67584319161</v>
+        <v>81061.38622227023</v>
       </c>
       <c r="C95" t="n">
-        <v>9600.791202725777</v>
+        <v>6914.300786532958</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1424,10 +1424,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>76013.33505212312</v>
+        <v>75253.50212968525</v>
       </c>
       <c r="C96" t="n">
-        <v>10561.16463471691</v>
+        <v>6846.596429189026</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1435,10 +1435,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>82427.79926932813</v>
+        <v>81667.96634689026</v>
       </c>
       <c r="C97" t="n">
-        <v>8584.782390735931</v>
+        <v>4870.214185208046</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1446,10 +1446,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>72524.35173408283</v>
+        <v>71157.2030483853</v>
       </c>
       <c r="C98" t="n">
-        <v>8248.169239690933</v>
+        <v>4373.469070821846</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1457,10 +1457,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>70948.76084329287</v>
+        <v>68974.2963943357</v>
       </c>
       <c r="C99" t="n">
-        <v>10650.27747096192</v>
+        <v>6615.445338751632</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1468,10 +1468,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>76161.60413300862</v>
+        <v>73579.82392079181</v>
       </c>
       <c r="C100" t="n">
-        <v>10825.43912469138</v>
+        <v>6630.475029139889</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1479,10 +1479,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>71009.83829405434</v>
+        <v>67820.74231857788</v>
       </c>
       <c r="C101" t="n">
-        <v>9052.590583521078</v>
+        <v>4697.494524628383</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1490,10 +1490,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>61858.79510748515</v>
+        <v>58062.38336874905</v>
       </c>
       <c r="C102" t="n">
-        <v>8475.483455190522</v>
+        <v>3960.255432956624</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1501,10 +1501,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>66222.48345883451</v>
+        <v>61818.75595683875</v>
       </c>
       <c r="C103" t="n">
-        <v>9836.20672790597</v>
+        <v>5160.84674233087</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1512,10 +1512,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>67256.09171141677</v>
+        <v>62852.36420942102</v>
       </c>
       <c r="C104" t="n">
-        <v>11585.42893414339</v>
+        <v>6910.06894856829</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1523,10 +1523,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>66104.96160523215</v>
+        <v>62609.20162074119</v>
       </c>
       <c r="C105" t="n">
-        <v>8277.226318708916</v>
+        <v>3572.075894206178</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1534,10 +1534,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>62652.65886669402</v>
+        <v>60064.86639970782</v>
       </c>
       <c r="C106" t="n">
-        <v>12564.35611673295</v>
+        <v>7829.415253302576</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1545,10 +1545,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>62826.62858770901</v>
+        <v>61146.80363822757</v>
       </c>
       <c r="C107" t="n">
-        <v>12338.68232335029</v>
+        <v>7573.951020992286</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1556,10 +1556,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>58289.95584038863</v>
+        <v>57518.09840841196</v>
       </c>
       <c r="C108" t="n">
-        <v>5856.521971126582</v>
+        <v>1062.000229840937</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1567,10 +1567,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>64559.03307373121</v>
+        <v>64695.14315925932</v>
       </c>
       <c r="C109" t="n">
-        <v>15701.49000579503</v>
+        <v>10877.17782558174</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1578,10 +1578,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>59592.98203038898</v>
+        <v>60637.05963342186</v>
       </c>
       <c r="C110" t="n">
-        <v>12408.56031933615</v>
+        <v>7554.457700195235</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1589,10 +1589,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>58346.62012255816</v>
+        <v>59390.69772559104</v>
       </c>
       <c r="C111" t="n">
-        <v>17232.92139910233</v>
+        <v>12378.81877996141</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1600,10 +1600,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>56793.43939559806</v>
+        <v>58711.87466999689</v>
       </c>
       <c r="C112" t="n">
-        <v>13809.65327874977</v>
+        <v>9200.617310428177</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1611,10 +1611,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>60271.0859338437</v>
+        <v>63063.87887960847</v>
       </c>
       <c r="C113" t="n">
-        <v>10926.94912937365</v>
+        <v>6562.979811871374</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1622,10 +1622,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>57638.69445425914</v>
+        <v>61305.84507138985</v>
       </c>
       <c r="C114" t="n">
-        <v>10599.31140925064</v>
+        <v>6480.408742567679</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1633,10 +1633,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>57647.55425420197</v>
+        <v>62189.06254269862</v>
       </c>
       <c r="C115" t="n">
-        <v>8410.327581807975</v>
+        <v>4536.491565944336</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1644,10 +1644,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>57607.32521228874</v>
+        <v>63023.19117215133</v>
       </c>
       <c r="C116" t="n">
-        <v>12058.59805663352</v>
+        <v>8429.8286915892</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1655,10 +1655,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>53899.71955142615</v>
+        <v>60189.94318265469</v>
       </c>
       <c r="C117" t="n">
-        <v>13603.53762266746</v>
+        <v>10219.83490844246</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1666,10 +1666,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>49589.99156254213</v>
+        <v>55880.21519377067</v>
       </c>
       <c r="C118" t="n">
-        <v>13665.44359541559</v>
+        <v>10281.74088119058</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1677,10 +1677,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>52624.75865722263</v>
+        <v>61433.07699928267</v>
       </c>
       <c r="C119" t="n">
-        <v>13836.38338496062</v>
+        <v>10936.00963420752</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1688,10 +1688,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>56329.02520708437</v>
+        <v>67655.43825997593</v>
       </c>
       <c r="C120" t="n">
-        <v>11927.81045560811</v>
+        <v>9510.7656683269</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1699,10 +1699,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>54440.51632524203</v>
+        <v>68285.02408896512</v>
       </c>
       <c r="C121" t="n">
-        <v>11051.75590878046</v>
+        <v>9118.040084971153</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1710,10 +1710,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>51598.40936478959</v>
+        <v>67961.01183934418</v>
       </c>
       <c r="C122" t="n">
-        <v>11380.41354653239</v>
+        <v>9930.026686194979</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1721,10 +1721,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>54102.32245454293</v>
+        <v>72983.01963992901</v>
       </c>
       <c r="C123" t="n">
-        <v>13060.52408575495</v>
+        <v>12093.46618888943</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1732,10 +1732,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>61163.38027869629</v>
+        <v>82562.17217491393</v>
       </c>
       <c r="C124" t="n">
-        <v>15377.1427403764</v>
+        <v>14893.41380698278</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1743,10 +1743,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>58420.2390491354</v>
+        <v>79819.03094535304</v>
       </c>
       <c r="C125" t="n">
-        <v>11918.95303323397</v>
+        <v>11435.22409984034</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1754,10 +1754,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>63857.82363244293</v>
+        <v>84156.63822094782</v>
       </c>
       <c r="C126" t="n">
-        <v>17079.64259739569</v>
+        <v>16732.60001472542</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1765,10 +1765,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>54680.83135744297</v>
+        <v>73879.66863823509</v>
       </c>
       <c r="C127" t="n">
-        <v>17070.3629627711</v>
+        <v>16860.00673082417</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1776,10 +1776,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>62358.02339084767</v>
+        <v>80456.88336392706</v>
       </c>
       <c r="C128" t="n">
-        <v>15960.5560053299</v>
+        <v>15886.88612410631</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1787,10 +1787,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>61744.57612478012</v>
+        <v>78743.45879014673</v>
       </c>
       <c r="C129" t="n">
-        <v>14895.04747817009</v>
+        <v>14958.06394766985</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1798,10 +1798,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>56882.16861908648</v>
+        <v>72781.07397674034</v>
       </c>
       <c r="C130" t="n">
-        <v>17773.55959136353</v>
+        <v>17973.26241158663</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1809,10 +1809,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>68790.47215238122</v>
+        <v>83589.40020232233</v>
       </c>
       <c r="C131" t="n">
-        <v>15779.61360635713</v>
+        <v>16116.00277730357</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1820,10 +1820,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>66630.20907160021</v>
+        <v>81429.13712154132</v>
       </c>
       <c r="C132" t="n">
-        <v>20806.4170014744</v>
+        <v>21142.80617242085</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1831,10 +1831,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>67411.32798225824</v>
+        <v>82714.95012230026</v>
       </c>
       <c r="C133" t="n">
-        <v>12935.03992077842</v>
+        <v>13696.2704958993</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1842,10 +1842,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>66730.10195214652</v>
+        <v>82538.41818228945</v>
       </c>
       <c r="C134" t="n">
-        <v>15757.79680856278</v>
+        <v>16943.86878785809</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1853,10 +1853,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>70425.01938119625</v>
+        <v>86738.02970144009</v>
       </c>
       <c r="C135" t="n">
-        <v>19586.0939546483</v>
+        <v>21197.00733811804</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1864,10 +1864,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>68143.9613155254</v>
+        <v>84961.66572587016</v>
       </c>
       <c r="C136" t="n">
-        <v>14374.87728371777</v>
+        <v>16410.63207136195</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1875,10 +1875,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>63569.8184476177</v>
+        <v>80892.21694806337</v>
       </c>
       <c r="C137" t="n">
-        <v>14990.59200035391</v>
+        <v>17451.18819217251</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1886,10 +1886,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>71516.3169513043</v>
+        <v>89343.40954185088</v>
       </c>
       <c r="C138" t="n">
-        <v>16681.00073379274</v>
+        <v>19566.43832978577</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1897,10 +1897,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>73111.48626788499</v>
+        <v>90938.57885843157</v>
       </c>
       <c r="C139" t="n">
-        <v>13474.67341943108</v>
+        <v>16360.11101542411</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1908,10 +1908,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>71586.74748337487</v>
+        <v>89934.78345181349</v>
       </c>
       <c r="C140" t="n">
-        <v>13525.93450275766</v>
+        <v>15973.69963533733</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1919,10 +1919,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>66009.39422321701</v>
+        <v>84878.37356954768</v>
       </c>
       <c r="C141" t="n">
-        <v>13503.01113784635</v>
+        <v>15513.10380701266</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1930,10 +1930,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>58047.46264128679</v>
+        <v>77437.38536550949</v>
       </c>
       <c r="C142" t="n">
-        <v>17787.98103396062</v>
+        <v>19360.40123971358</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1941,10 +1941,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>55959.10269621367</v>
+        <v>75869.96879832841</v>
       </c>
       <c r="C143" t="n">
-        <v>14021.79354769044</v>
+        <v>15156.54129003004</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1952,10 +1952,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>64810.75698537916</v>
+        <v>85242.56646538593</v>
       </c>
       <c r="C144" t="n">
-        <v>14969.29515978386</v>
+        <v>15666.3704387101</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1963,10 +1963,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>54387.3898855974</v>
+        <v>75340.1427434962</v>
       </c>
       <c r="C145" t="n">
-        <v>18332.08174449829</v>
+        <v>18591.48456001117</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1974,10 +1974,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>60431.14461406576</v>
+        <v>81383.89747196456</v>
       </c>
       <c r="C146" t="n">
-        <v>17825.41434323488</v>
+        <v>18084.81715874777</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -1985,10 +1985,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>61141.89916471784</v>
+        <v>82339.58012875893</v>
       </c>
       <c r="C147" t="n">
-        <v>18464.12007350099</v>
+        <v>18924.2495386681</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -1996,10 +1996,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>60123.76128545582</v>
+        <v>81566.3703556392</v>
       </c>
       <c r="C148" t="n">
-        <v>16599.67333716683</v>
+        <v>17260.52945198816</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2007,10 +2007,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>59556.20703846654</v>
+        <v>81243.74421479218</v>
       </c>
       <c r="C149" t="n">
-        <v>11710.02514438354</v>
+        <v>12571.6079088591</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2018,10 +2018,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>55692.52351602159</v>
+        <v>77624.98879848952</v>
       </c>
       <c r="C150" t="n">
-        <v>12406.6596802172</v>
+        <v>13468.96909434699</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2029,10 +2029,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>57278.16238548956</v>
+        <v>79455.55577409976</v>
       </c>
       <c r="C151" t="n">
-        <v>13298.12761383413</v>
+        <v>14561.16367761815</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2040,10 +2040,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>51747.47029915925</v>
+        <v>74169.79179391175</v>
       </c>
       <c r="C152" t="n">
-        <v>15981.80321968153</v>
+        <v>17445.56593311978</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2051,10 +2051,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>56418.153254458</v>
+        <v>78840.47474921049</v>
       </c>
       <c r="C153" t="n">
-        <v>11356.85278516715</v>
+        <v>12820.6154986054</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2062,10 +2062,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>61836.18337465073</v>
+        <v>84455.10753370356</v>
       </c>
       <c r="C154" t="n">
-        <v>15944.82328440869</v>
+        <v>18390.41642242018</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2073,10 +2073,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>55936.70663991964</v>
+        <v>78752.23346327282</v>
       </c>
       <c r="C155" t="n">
-        <v>14249.8279607252</v>
+        <v>17677.25152330993</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2084,10 +2084,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>54851.81039559514</v>
+        <v>77863.93988324866</v>
       </c>
       <c r="C156" t="n">
-        <v>9194.050983995672</v>
+        <v>13603.30497115364</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2095,10 +2095,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>57980.42022065711</v>
+        <v>81189.15237261094</v>
       </c>
       <c r="C157" t="n">
-        <v>13895.99412001069</v>
+        <v>19287.07853174191</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2106,10 +2106,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>54282.67575762521</v>
+        <v>77688.01057387939</v>
       </c>
       <c r="C158" t="n">
-        <v>16738.72074630796</v>
+        <v>23111.63558261242</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2117,10 +2117,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>52085.24132124054</v>
+        <v>75687.17880179507</v>
       </c>
       <c r="C159" t="n">
-        <v>12405.33104344658</v>
+        <v>19760.07630432427</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2128,10 +2128,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>51257.2027419849</v>
+        <v>74859.14022253943</v>
       </c>
       <c r="C160" t="n">
-        <v>15571.78811218337</v>
+        <v>22926.53337306107</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2139,10 +2139,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>54393.74829693449</v>
+        <v>78892.56898765145</v>
       </c>
       <c r="C161" t="n">
-        <v>12096.07591585889</v>
+        <v>19388.07821045306</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2150,10 +2150,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>49990.7794422857</v>
+        <v>75386.48334316512</v>
       </c>
       <c r="C162" t="n">
-        <v>12618.97779420527</v>
+        <v>19848.2371225159</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2161,10 +2161,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>51190.92131960126</v>
+        <v>77483.50843064312</v>
       </c>
       <c r="C163" t="n">
-        <v>14110.50574827231</v>
+        <v>21277.02211029941</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2172,10 +2172,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>51853.83601368139</v>
+        <v>79043.3063348857</v>
       </c>
       <c r="C164" t="n">
-        <v>9414.837748802813</v>
+        <v>16518.61114454639</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2183,10 +2183,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>51397.46529825591</v>
+        <v>79483.81882962266</v>
       </c>
       <c r="C165" t="n">
-        <v>7712.414501636917</v>
+        <v>14753.44493109696</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2194,10 +2194,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>50042.40190551897</v>
+        <v>79025.63864704818</v>
       </c>
       <c r="C166" t="n">
-        <v>10639.82479137061</v>
+        <v>17618.11225454713</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2205,10 +2205,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>58155.42559240981</v>
+        <v>87138.66233393901</v>
       </c>
       <c r="C167" t="n">
-        <v>13007.15755510488</v>
+        <v>19985.4450182814</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2216,10 +2216,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>51398.8385165207</v>
+        <v>80057.05834440319</v>
       </c>
       <c r="C168" t="n">
-        <v>6893.758367200664</v>
+        <v>13842.61828639012</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2227,10 +2227,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>58125.09177972916</v>
+        <v>86458.29469396497</v>
       </c>
       <c r="C169" t="n">
-        <v>8927.635649399221</v>
+        <v>15847.06802460162</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2238,10 +2238,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>52384.04462599874</v>
+        <v>80392.23062658786</v>
       </c>
       <c r="C170" t="n">
-        <v>9494.984782024127</v>
+        <v>16384.98961323948</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2249,10 +2249,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>56166.09013130181</v>
+        <v>83849.25921824422</v>
       </c>
       <c r="C171" t="n">
-        <v>9049.980717633194</v>
+        <v>15910.55800486149</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2260,10 +2260,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>50414.81125367687</v>
+        <v>77772.96342697259</v>
       </c>
       <c r="C172" t="n">
-        <v>10139.25760754609</v>
+        <v>16970.40735078733</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2271,10 +2271,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>52280.54491179077</v>
+        <v>79313.68017143979</v>
       </c>
       <c r="C173" t="n">
-        <v>11570.02320445464</v>
+        <v>18371.74540370881</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2282,10 +2282,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>50350.1130174236</v>
+        <v>77383.24827707262</v>
       </c>
       <c r="C174" t="n">
-        <v>7099.783944516914</v>
+        <v>13901.50614377109</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2293,10 +2293,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>51498.62493660545</v>
+        <v>78235.03613363057</v>
       </c>
       <c r="C175" t="n">
-        <v>9975.298527832263</v>
+        <v>17179.86815751233</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2304,10 +2304,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>58805.34909641475</v>
+        <v>85245.03623081597</v>
       </c>
       <c r="C176" t="n">
-        <v>8561.807223870523</v>
+        <v>16169.22428397647</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2315,10 +2315,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>48844.70634207559</v>
+        <v>74987.66941385291</v>
       </c>
       <c r="C177" t="n">
-        <v>6802.909436424076</v>
+        <v>14813.17392695592</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2326,10 +2326,10 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>60129.10461530932</v>
+        <v>85975.34362446275</v>
       </c>
       <c r="C178" t="n">
-        <v>5574.722130864759</v>
+        <v>13987.83405182249</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2337,10 +2337,10 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>56718.14486342886</v>
+        <v>82267.65980995838</v>
       </c>
       <c r="C179" t="n">
-        <v>2259.665235160835</v>
+        <v>11075.62458654445</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2348,10 +2348,10 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>60123.17199373214</v>
+        <v>85375.96287763776</v>
       </c>
       <c r="C180" t="n">
-        <v>9572.305943587719</v>
+        <v>18791.11272539722</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2359,10 +2359,10 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>54251.43191899166</v>
+        <v>79504.22280289729</v>
       </c>
       <c r="C181" t="n">
-        <v>6467.950245287826</v>
+        <v>15686.75702709733</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2370,10 +2370,10 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>55162.80069634136</v>
+        <v>79666.67787986269</v>
       </c>
       <c r="C182" t="n">
-        <v>7210.481412172979</v>
+        <v>16911.54049278348</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2381,10 +2381,10 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>59204.14768442391</v>
+        <v>82959.11116756096</v>
       </c>
       <c r="C183" t="n">
-        <v>5522.364216206011</v>
+        <v>15705.67559561751</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2392,10 +2392,10 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>59852.88749514952</v>
+        <v>82858.93727790231</v>
       </c>
       <c r="C184" t="n">
-        <v>358.9677808200222</v>
+        <v>11024.53145903251</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2403,10 +2403,10 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>57247.24607333362</v>
+        <v>79504.3821557021</v>
       </c>
       <c r="C185" t="n">
-        <v>8821.046054992938</v>
+        <v>19968.86203200642</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2414,10 +2414,10 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>58358.84011912956</v>
+        <v>79867.06250111377</v>
       </c>
       <c r="C186" t="n">
-        <v>3712.691157038214</v>
+        <v>15342.75943285269</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2425,10 +2425,10 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>62762.52203717349</v>
+        <v>83521.8307187734</v>
       </c>
       <c r="C187" t="n">
-        <v>4087.063578083283</v>
+        <v>16199.38415269875</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2436,10 +2436,10 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>63641.45826520991</v>
+        <v>84400.76694680983</v>
       </c>
       <c r="C188" t="n">
-        <v>6333.610205917803</v>
+        <v>18445.93078053327</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2447,10 +2447,10 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>59241.8597706869</v>
+        <v>80386.31454496777</v>
       </c>
       <c r="C189" t="n">
-        <v>1040.005859777908</v>
+        <v>13344.88884207179</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2458,10 +2458,10 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>56265.309798748</v>
+        <v>77794.91066570986</v>
       </c>
       <c r="C190" t="n">
-        <v>4594.731640946324</v>
+        <v>17092.17703091862</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2469,10 +2469,10 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>55382.38275663162</v>
+        <v>77297.12971627446</v>
       </c>
       <c r="C191" t="n">
-        <v>4557.222428907289</v>
+        <v>17247.230226558</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2480,10 +2480,10 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>60204.45317061953</v>
+        <v>82504.34622294334</v>
       </c>
       <c r="C192" t="n">
-        <v>5089.125706403025</v>
+        <v>17971.69591173216</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2491,10 +2491,10 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>60027.22479860192</v>
+        <v>82712.2639436067</v>
       </c>
       <c r="C193" t="n">
-        <v>4282.221677332925</v>
+        <v>17357.35429034047</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2502,10 +2502,10 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>53332.11238445346</v>
+        <v>76402.29762213919</v>
       </c>
       <c r="C194" t="n">
-        <v>4527.969713351657</v>
+        <v>17795.66473403762</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2513,10 +2513,10 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>56338.28282425267</v>
+        <v>79408.4680619384</v>
       </c>
       <c r="C195" t="n">
-        <v>-544.7040717272153</v>
+        <v>12722.99094895875</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2524,10 +2524,10 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>54197.79002544164</v>
+        <v>77400.03797849518</v>
       </c>
       <c r="C196" t="n">
-        <v>5824.097638160133</v>
+        <v>19147.81537471823</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2535,10 +2535,10 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>54129.38952459767</v>
+        <v>77463.70019301902</v>
       </c>
       <c r="C197" t="n">
-        <v>1551.241559979827</v>
+        <v>14930.98201241005</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2546,10 +2546,10 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>52963.56862458245</v>
+        <v>76429.94200837162</v>
       </c>
       <c r="C198" t="n">
-        <v>7151.381650330349</v>
+        <v>20587.1448186327</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2557,10 +2557,10 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>52782.68075017473</v>
+        <v>76381.11684933172</v>
       </c>
       <c r="C199" t="n">
-        <v>6037.640834096535</v>
+        <v>19529.42671827102</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2568,10 +2568,10 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>49667.95039838106</v>
+        <v>73398.44921290585</v>
       </c>
       <c r="C200" t="n">
-        <v>3831.197203330761</v>
+        <v>17379.00580337737</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2579,10 +2579,10 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>46653.02415538688</v>
+        <v>70515.58568527951</v>
       </c>
       <c r="C201" t="n">
-        <v>1936.928558359937</v>
+        <v>15540.75987427868</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2590,10 +2590,10 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>47073.41932475031</v>
+        <v>70935.98085464293</v>
       </c>
       <c r="C202" t="n">
-        <v>6307.897489587049</v>
+        <v>19911.72880550579</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2601,10 +2601,10 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>47189.31452648398</v>
+        <v>71253.674248697</v>
       </c>
       <c r="C203" t="n">
-        <v>3450.686018651686</v>
+        <v>17072.93652001906</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2612,10 +2612,10 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>43714.77672446654</v>
+        <v>67980.934639</v>
       </c>
       <c r="C204" t="n">
-        <v>-1629.784645493381</v>
+        <v>12010.88504132262</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2623,10 +2623,10 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>47466.85782589736</v>
+        <v>71934.81393275123</v>
       </c>
       <c r="C205" t="n">
-        <v>2523.286419352652</v>
+        <v>16182.37529161728</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2634,10 +2634,10 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>44351.85080626373</v>
+        <v>69021.60510543802</v>
       </c>
       <c r="C206" t="n">
-        <v>3172.655166562967</v>
+        <v>16850.16322427622</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2645,10 +2645,10 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>40107.10171936015</v>
+        <v>64978.65421085485</v>
       </c>
       <c r="C207" t="n">
-        <v>3133.090981270856</v>
+        <v>16829.01822443274</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2656,10 +2656,10 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>45867.83461512229</v>
+        <v>70941.1852989374</v>
       </c>
       <c r="C208" t="n">
-        <v>2937.465599431896</v>
+        <v>16651.8120280424</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2667,10 +2667,10 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>41325.41251214439</v>
+        <v>66398.76319595952</v>
       </c>
       <c r="C209" t="n">
-        <v>4261.07478215023</v>
+        <v>17975.42121076074</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2678,10 +2678,10 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>51079.17529527146</v>
+        <v>76621.53153394326</v>
       </c>
       <c r="C210" t="n">
-        <v>6011.110186310641</v>
+        <v>19848.16531189457</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2689,10 +2689,10 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>43086.15921114176</v>
+        <v>69097.52100467018</v>
       </c>
       <c r="C211" t="n">
-        <v>2388.979310821448</v>
+        <v>16348.74313337879</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2700,10 +2700,10 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>41276.95879286611</v>
+        <v>67757.32614125119</v>
       </c>
       <c r="C212" t="n">
-        <v>-2125.171638815224</v>
+        <v>11957.30088071553</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2711,10 +2711,10 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>36200.87889491134</v>
+        <v>63150.2517981531</v>
       </c>
       <c r="C213" t="n">
-        <v>3699.400589549267</v>
+        <v>17904.58180605344</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2722,10 +2722,10 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>40776.96481052003</v>
+        <v>68195.34326861844</v>
       </c>
       <c r="C214" t="n">
-        <v>1860.218735022066</v>
+        <v>16188.10864849965</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2733,10 +2733,10 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>35958.84331746864</v>
+        <v>63846.2273304237</v>
       </c>
       <c r="C215" t="n">
-        <v>-247.6119705010403</v>
+        <v>14202.98663994996</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2744,10 +2744,10 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>39490.60247907593</v>
+        <v>67377.98649203098</v>
       </c>
       <c r="C216" t="n">
-        <v>-4125.786382637641</v>
+        <v>10324.81222781336</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2755,10 +2755,10 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>40415.8121059319</v>
+        <v>66803.33539434215</v>
       </c>
       <c r="C217" t="n">
-        <v>-1951.837641300897</v>
+        <v>12521.50494365641</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2766,10 +2766,10 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>32715.51010684302</v>
+        <v>57603.17267070847</v>
       </c>
       <c r="C218" t="n">
-        <v>389.0824968790912</v>
+        <v>14885.16905634271</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2777,10 +2777,10 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>36850.11715742011</v>
+        <v>60237.91899674074</v>
       </c>
       <c r="C219" t="n">
-        <v>4116.541402258275</v>
+        <v>18635.3719362282</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2788,10 +2788,10 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>41950.12264442622</v>
+        <v>63838.06375920204</v>
       </c>
       <c r="C220" t="n">
-        <v>939.9449797159318</v>
+        <v>15481.51948819217</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2799,10 +2799,10 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>37478.49086910561</v>
+        <v>57866.57125933663</v>
       </c>
       <c r="C221" t="n">
-        <v>-988.3042754229748</v>
+        <v>13576.01420755956</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2810,10 +2810,10 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>36917.413643598</v>
+        <v>55805.63330928422</v>
       </c>
       <c r="C222" t="n">
-        <v>1317.036625312895</v>
+        <v>15904.09908280175</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2821,10 +2821,10 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>42195.22448848626</v>
+        <v>61083.44415417248</v>
       </c>
       <c r="C223" t="n">
-        <v>-1252.447532247705</v>
+        <v>13334.61492524115</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2832,10 +2832,10 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>31874.11563782472</v>
+        <v>50409.7670961835</v>
       </c>
       <c r="C224" t="n">
-        <v>2309.170241842678</v>
+        <v>16445.40032578343</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2843,10 +2843,10 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>36289.77000093712</v>
+        <v>54472.85325196844</v>
       </c>
       <c r="C225" t="n">
-        <v>885.2951796386448</v>
+        <v>14570.69289003129</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2854,10 +2854,10 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>33722.69031824268</v>
+        <v>51553.20536194657</v>
       </c>
       <c r="C226" t="n">
-        <v>1545.413973933058</v>
+        <v>14779.9793107776</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2865,10 +2865,10 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>41336.5254858101</v>
+        <v>58814.47232218653</v>
       </c>
       <c r="C227" t="n">
-        <v>-3207.380656054338</v>
+        <v>9576.352307242098</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2876,10 +2876,10 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>34673.37097879407</v>
+        <v>51798.74960784305</v>
       </c>
       <c r="C228" t="n">
-        <v>4723.113144489147</v>
+        <v>17056.01373423748</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2887,10 +2887,10 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>39215.32764098674</v>
+        <v>55988.13806270827</v>
       </c>
       <c r="C229" t="n">
-        <v>-2905.129483926034</v>
+        <v>8976.938732274193</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2898,10 +2898,10 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>37043.75171282766</v>
+        <v>53816.56213454919</v>
       </c>
       <c r="C230" t="n">
-        <v>733.1902281123093</v>
+        <v>12615.25844431254</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2909,10 +2909,10 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>35782.30524631114</v>
+        <v>52361.98110084274</v>
       </c>
       <c r="C231" t="n">
-        <v>1498.876709706723</v>
+        <v>12970.70434469862</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -2920,10 +2920,10 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>36685.19827804189</v>
+        <v>53071.73956538357</v>
       </c>
       <c r="C232" t="n">
-        <v>175.1222987908661</v>
+        <v>11236.70935257443</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -2931,10 +2931,10 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>35771.13436331044</v>
+        <v>51964.54108346217</v>
       </c>
       <c r="C233" t="n">
-        <v>1253.902285857858</v>
+        <v>11905.24875843309</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -2942,10 +2942,10 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>30278.01708251118</v>
+        <v>46278.28923547299</v>
       </c>
       <c r="C234" t="n">
-        <v>1780.189430934</v>
+        <v>12021.2953223009</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -2953,10 +2953,10 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>28513.8820379281</v>
+        <v>44321.01962369998</v>
       </c>
       <c r="C235" t="n">
-        <v>2580.313849376261</v>
+        <v>12411.17915953483</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -2964,10 +2964,10 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>28707.2602187786</v>
+        <v>44321.26323736055</v>
       </c>
       <c r="C236" t="n">
-        <v>-628.9014564932215</v>
+        <v>8791.723272457019</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -2975,10 +2975,10 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>31907.55149717364</v>
+        <v>47521.5545157556</v>
       </c>
       <c r="C237" t="n">
-        <v>-1720.802801571192</v>
+        <v>7699.821927379047</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -2986,10 +2986,10 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>35998.06279790628</v>
+        <v>50613.97750235621</v>
       </c>
       <c r="C238" t="n">
-        <v>2125.96858844274</v>
+        <v>11053.27296972162</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -2997,10 +2997,10 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>36853.91946007355</v>
+        <v>50471.74585039143</v>
       </c>
       <c r="C239" t="n">
-        <v>941.0084895975806</v>
+        <v>9374.992523205103</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3008,10 +3008,10 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>30890.21281161593</v>
+        <v>43509.95088780178</v>
       </c>
       <c r="C240" t="n">
-        <v>1610.939564180696</v>
+        <v>9551.603250116859</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3019,10 +3019,10 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>25724.43213448139</v>
+        <v>37346.08189653519</v>
       </c>
       <c r="C241" t="n">
-        <v>2561.568492205991</v>
+        <v>10008.9118304708</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3030,10 +3030,10 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>27854.09730720695</v>
+        <v>38477.65875512872</v>
       </c>
       <c r="C242" t="n">
-        <v>2799.231741524094</v>
+        <v>9753.254732117544</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3041,10 +3041,10 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>26461.6158633858</v>
+        <v>36087.08899717553</v>
       </c>
       <c r="C243" t="n">
-        <v>3564.2900480917</v>
+        <v>10024.99269101379</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3052,10 +3052,10 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>30834.87673858784</v>
+        <v>40460.34987237758</v>
       </c>
       <c r="C244" t="n">
-        <v>4699.297298080596</v>
+        <v>11159.99994100269</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3063,10 +3063,10 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>25426.83305520675</v>
+        <v>34012.78682835187</v>
       </c>
       <c r="C245" t="n">
-        <v>4134.587663233813</v>
+        <v>10288.27082277544</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3074,10 +3074,10 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>28504.60071102477</v>
+        <v>36051.03512352528</v>
       </c>
       <c r="C246" t="n">
-        <v>3031.653566229026</v>
+        <v>8878.317242390191</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3085,10 +3085,10 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>32017.80522280677</v>
+        <v>38524.72027466267</v>
       </c>
       <c r="C247" t="n">
-        <v>5189.800672448295</v>
+        <v>10729.444865229</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3096,10 +3096,10 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>32435.68401712052</v>
+        <v>37903.0797083318</v>
       </c>
       <c r="C248" t="n">
-        <v>-231.5369269030023</v>
+        <v>5001.087782497238</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3107,10 +3107,10 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>29803.40256788086</v>
+        <v>34231.27889844753</v>
       </c>
       <c r="C249" t="n">
-        <v>1261.678187884874</v>
+        <v>6187.28341390465</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3118,10 +3118,10 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>31368.61174031151</v>
+        <v>34756.96871023357</v>
       </c>
       <c r="C250" t="n">
-        <v>5258.283441920308</v>
+        <v>9876.869184559622</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3129,10 +3129,10 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>28634.41211143709</v>
+        <v>32022.76908135915</v>
       </c>
       <c r="C251" t="n">
-        <v>5560.90820194366</v>
+        <v>10179.49394458297</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3140,10 +3140,10 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>29596.4209019054</v>
+        <v>32710.6042181603</v>
       </c>
       <c r="C252" t="n">
-        <v>1345.931135979919</v>
+        <v>5982.09390125186</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3151,10 +3151,10 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>22444.16354383194</v>
+        <v>25284.17320641969</v>
       </c>
       <c r="C253" t="n">
-        <v>-1888.385474542815</v>
+        <v>2765.354313361754</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3162,10 +3162,10 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>25495.53381679076</v>
+        <v>28061.36982571134</v>
       </c>
       <c r="C254" t="n">
-        <v>4186.114902651794</v>
+        <v>8857.431713188991</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3173,10 +3173,10 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>26328.72335414317</v>
+        <v>28620.38570939658</v>
       </c>
       <c r="C255" t="n">
-        <v>832.8199608900651</v>
+        <v>5521.71379405989</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3184,10 +3184,10 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>25815.34557729496</v>
+        <v>27832.83427888121</v>
       </c>
       <c r="C256" t="n">
-        <v>-1275.691002134833</v>
+        <v>3430.779853667618</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3195,10 +3195,10 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>27241.09520829731</v>
+        <v>28984.4102562164</v>
       </c>
       <c r="C257" t="n">
-        <v>-364.3701767855725</v>
+        <v>4359.677701649507</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3206,10 +3206,10 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>26764.77542328529</v>
+        <v>28508.09047120438</v>
       </c>
       <c r="C258" t="n">
-        <v>-4656.25990341545</v>
+        <v>67.7879750196289</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3217,10 +3217,10 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>24663.3277170333</v>
+        <v>25857.42981370167</v>
       </c>
       <c r="C259" t="n">
-        <v>-4578.219602330473</v>
+        <v>-63.08480187231999</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3228,10 +3228,10 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>27648.68758893626</v>
+        <v>28293.5767343539</v>
       </c>
       <c r="C260" t="n">
-        <v>1805.262306979763</v>
+        <v>6111.48402946099</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3239,10 +3239,10 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>25826.60140995015</v>
+        <v>25922.27760411707</v>
       </c>
       <c r="C261" t="n">
-        <v>-1147.830167698951</v>
+        <v>2949.478476805351</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3250,10 +3250,10 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>23861.96647927428</v>
+        <v>23408.42972219047</v>
       </c>
       <c r="C262" t="n">
-        <v>-2091.065012079334</v>
+        <v>1797.330554448043</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3261,10 +3261,10 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>18211.4913335373</v>
+        <v>17208.74162520277</v>
       </c>
       <c r="C263" t="n">
-        <v>918.8226411757194</v>
+        <v>4598.305129726172</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3272,10 +3272,10 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>25295.04753337607</v>
+        <v>23743.08487379081</v>
       </c>
       <c r="C264" t="n">
-        <v>2882.89749205059</v>
+        <v>6353.466902624117</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3283,10 +3283,10 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>28366.14688204556</v>
+        <v>26814.1842224603</v>
       </c>
       <c r="C265" t="n">
-        <v>-796.4913201490104</v>
+        <v>2674.078090424518</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3294,10 +3294,10 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>24013.7120941325</v>
+        <v>22931.95743536289</v>
       </c>
       <c r="C266" t="n">
-        <v>-555.8622652935569</v>
+        <v>2866.722426796021</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3305,10 +3305,10 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>24583.3933154688</v>
+        <v>23971.84665751484</v>
       </c>
       <c r="C267" t="n">
-        <v>346.0731588299266</v>
+        <v>3720.673132435555</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3316,10 +3316,10 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>28735.85448997184</v>
+        <v>28594.51583283352</v>
       </c>
       <c r="C268" t="n">
-        <v>2952.533311912317</v>
+        <v>6279.148567033994</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3327,10 +3327,10 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>20019.11388058923</v>
+        <v>20347.98322426657</v>
       </c>
       <c r="C269" t="n">
-        <v>-1494.911368468527</v>
+        <v>1783.719168169202</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3338,10 +3338,10 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>26178.55431177662</v>
+        <v>26977.63165626961</v>
       </c>
       <c r="C270" t="n">
-        <v>-1025.53356798455</v>
+        <v>2205.112250169228</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3349,10 +3349,10 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>20868.20348645372</v>
+        <v>22137.48883176236</v>
       </c>
       <c r="C271" t="n">
-        <v>-1447.004243059146</v>
+        <v>1735.656856610683</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3360,10 +3360,10 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>24714.65030718334</v>
+        <v>25983.93565249198</v>
       </c>
       <c r="C272" t="n">
-        <v>-310.7984144486237</v>
+        <v>2871.862685221205</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3371,10 +3371,10 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>23900.42284652839</v>
+        <v>24993.34504767775</v>
       </c>
       <c r="C273" t="n">
-        <v>2193.850317641768</v>
+        <v>5002.629341328848</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3382,10 +3382,10 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>29828.12844007743</v>
+        <v>30744.68749706749</v>
       </c>
       <c r="C274" t="n">
-        <v>464.1267980294515</v>
+        <v>2899.023745733784</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3393,10 +3393,10 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>17117.40886010442</v>
+        <v>17857.60477293519</v>
       </c>
       <c r="C275" t="n">
-        <v>2663.023773905513</v>
+        <v>4724.038645627097</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3404,10 +3404,10 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>25172.40882332733</v>
+        <v>25736.2415919988</v>
       </c>
       <c r="C276" t="n">
-        <v>-987.9723857735073</v>
+        <v>699.1604099653296</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3415,10 +3415,10 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>27975.9745301243</v>
+        <v>28363.44415463648</v>
       </c>
       <c r="C277" t="n">
-        <v>2099.332562754459</v>
+        <v>3412.583282510548</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3426,10 +3426,10 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>25216.47874467304</v>
+        <v>25427.58522502593</v>
       </c>
       <c r="C278" t="n">
-        <v>1800.740125695504</v>
+        <v>2740.108769468845</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3437,10 +3437,10 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>24138.8832204185</v>
+        <v>24349.98970077138</v>
       </c>
       <c r="C279" t="n">
-        <v>-1603.153569366337</v>
+        <v>-663.7849255929964</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3448,10 +3448,10 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>29159.74724964214</v>
+        <v>29566.31600248155</v>
       </c>
       <c r="C280" t="n">
-        <v>40.94063946612982</v>
+        <v>1132.460420251075</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3459,10 +3459,10 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>22595.46565130583</v>
+        <v>23197.49667663177</v>
       </c>
       <c r="C281" t="n">
-        <v>31.96536314623609</v>
+        <v>1275.636280942784</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3470,10 +3470,10 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>21939.1482454447</v>
+        <v>22736.64154325716</v>
       </c>
       <c r="C282" t="n">
-        <v>4856.438859800285</v>
+        <v>6252.260914608438</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3481,10 +3481,10 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>28689.27161649676</v>
+        <v>29682.22718679576</v>
       </c>
       <c r="C283" t="n">
-        <v>2828.507126197973</v>
+        <v>4376.48031801773</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3492,10 +3492,10 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>22636.82952483503</v>
+        <v>23825.24736762055</v>
       </c>
       <c r="C284" t="n">
-        <v>-803.2310930264573</v>
+        <v>896.8932358049028</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3503,10 +3503,10 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>27279.30229028174</v>
+        <v>28663.18240555378</v>
       </c>
       <c r="C285" t="n">
-        <v>-540.6612763300342</v>
+        <v>1311.61418951293</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3514,10 +3514,10 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>28184.21093507032</v>
+        <v>29568.09105034237</v>
       </c>
       <c r="C286" t="n">
-        <v>-48.9474553320216</v>
+        <v>1803.328010510943</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3525,10 +3525,10 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>20273.09952860603</v>
+        <v>21223.26534064367</v>
       </c>
       <c r="C287" t="n">
-        <v>608.9761337968046</v>
+        <v>2282.7405740963</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3536,10 +3536,10 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>27127.90293798768</v>
+        <v>27644.35444679091</v>
       </c>
       <c r="C288" t="n">
-        <v>-1365.020769156163</v>
+        <v>130.2326455998646</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3547,10 +3547,10 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>26618.48436686702</v>
+        <v>26701.22157243584</v>
       </c>
       <c r="C289" t="n">
-        <v>603.0591282393748</v>
+        <v>1919.801517451933</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3558,10 +3558,10 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>22390.16188444964</v>
+        <v>22039.18478678405</v>
       </c>
       <c r="C290" t="n">
-        <v>1340.950715741353</v>
+        <v>2479.182079410442</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3569,10 +3569,10 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>26188.63274959334</v>
+        <v>25403.94134869335</v>
       </c>
       <c r="C291" t="n">
-        <v>-661.2001301646025</v>
+        <v>298.5202079610185</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3580,10 +3580,10 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>21966.10550869502</v>
+        <v>20747.69980456061</v>
       </c>
       <c r="C292" t="n">
-        <v>521.3846340090537</v>
+        <v>1302.593946591206</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3591,10 +3591,10 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>23106.70116464665</v>
+        <v>21888.29546051224</v>
       </c>
       <c r="C293" t="n">
-        <v>295.7622632917614</v>
+        <v>1076.971575873913</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3602,10 +3602,10 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>18704.55279615623</v>
+        <v>17280.66864620811</v>
       </c>
       <c r="C294" t="n">
-        <v>1526.510522771696</v>
+        <v>2216.489650412336</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3613,10 +3613,10 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>25446.70464916679</v>
+        <v>23817.34205340495</v>
       </c>
       <c r="C295" t="n">
-        <v>4248.724499013531</v>
+        <v>4847.473441712661</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3624,10 +3624,10 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>26277.41705406219</v>
+        <v>24442.57601248663</v>
       </c>
       <c r="C296" t="n">
-        <v>1552.326574768572</v>
+        <v>2059.84533252619</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3635,10 +3635,10 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>27489.76031881337</v>
+        <v>25449.4408314241</v>
       </c>
       <c r="C297" t="n">
-        <v>1192.877673485898</v>
+        <v>1609.166246302005</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -3646,10 +3646,10 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>25813.52661010933</v>
+        <v>23567.72867690635</v>
       </c>
       <c r="C298" t="n">
-        <v>1381.093531869288</v>
+        <v>1706.151919743883</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3657,10 +3657,10 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>26117.86832978033</v>
+        <v>23666.59195076364</v>
       </c>
       <c r="C299" t="n">
-        <v>-2021.629043744399</v>
+        <v>-1787.800840811315</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3668,10 +3668,10 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>25090.31387059745</v>
+        <v>22639.03749158076</v>
       </c>
       <c r="C300" t="n">
-        <v>-310.1977089797424</v>
+        <v>-76.36950604665867</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3679,10 +3679,10 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>27455.66396116963</v>
+        <v>26067.37846834449</v>
       </c>
       <c r="C301" t="n">
-        <v>4807.680693886266</v>
+        <v>5137.312872963909</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3690,10 +3690,10 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>20352.4883550236</v>
+        <v>20027.19374839003</v>
       </c>
       <c r="C302" t="n">
-        <v>5521.454815875116</v>
+        <v>5946.890971097319</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3701,10 +3701,10 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>21602.45122645344</v>
+        <v>22340.14750601142</v>
       </c>
       <c r="C303" t="n">
-        <v>1161.492144448938</v>
+        <v>1682.732275815701</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -3712,10 +3712,10 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>27166.54779551073</v>
+        <v>28967.23496126027</v>
       </c>
       <c r="C304" t="n">
-        <v>1334.062833872951</v>
+        <v>1951.106941384274</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -3723,10 +3723,10 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>25173.26881496676</v>
+        <v>28036.94686690786</v>
       </c>
       <c r="C305" t="n">
-        <v>-1909.057641903803</v>
+        <v>-1196.209558247919</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -3734,10 +3734,10 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>22591.63839490562</v>
+        <v>26518.30733303827</v>
       </c>
       <c r="C306" t="n">
-        <v>2927.507709301564</v>
+        <v>3736.159769102007</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -3745,10 +3745,10 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>27692.88179288415</v>
+        <v>31619.5507310168</v>
       </c>
       <c r="C307" t="n">
-        <v>2933.631987709644</v>
+        <v>3742.284047510087</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -3756,10 +3756,10 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>24046.53419584068</v>
+        <v>28794.86058642083</v>
       </c>
       <c r="C308" t="n">
-        <v>2491.767130496719</v>
+        <v>3291.63163498136</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -3767,10 +3767,10 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>25848.66765607579</v>
+        <v>31418.65149910344</v>
       </c>
       <c r="C309" t="n">
-        <v>735.4687655130153</v>
+        <v>1526.545714681854</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -3778,10 +3778,10 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>33630.31243608536</v>
+        <v>40021.95373156053</v>
       </c>
       <c r="C310" t="n">
-        <v>293.1797274417966</v>
+        <v>1075.469121294834</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -3789,10 +3789,10 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>28077.37286825126</v>
+        <v>35290.67161617392</v>
       </c>
       <c r="C311" t="n">
-        <v>5885.036329549492</v>
+        <v>6658.538168086727</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -3800,10 +3800,10 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>29064.69956946759</v>
+        <v>37099.65576983775</v>
       </c>
       <c r="C312" t="n">
-        <v>-1637.867244942833</v>
+        <v>-873.1529617213996</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -3811,10 +3811,10 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>24630.47720504618</v>
+        <v>33487.09085786384</v>
       </c>
       <c r="C313" t="n">
-        <v>752.8283117319111</v>
+        <v>1508.755039637543</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -3822,10 +3822,10 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>25484.35883384275</v>
+        <v>34340.97248666042</v>
       </c>
       <c r="C314" t="n">
-        <v>582.2196479997392</v>
+        <v>1338.146375905371</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -3833,10 +3833,10 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>25452.04902893675</v>
+        <v>34896.68676176926</v>
       </c>
       <c r="C315" t="n">
-        <v>3419.404905911059</v>
+        <v>4193.305942902491</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -3844,10 +3844,10 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>21388.51158168542</v>
+        <v>31421.17339453279</v>
       </c>
       <c r="C316" t="n">
-        <v>401.8985104464846</v>
+        <v>1193.773856523715</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -3855,10 +3855,10 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>30230.16950155521</v>
+        <v>40850.85539441742</v>
       </c>
       <c r="C317" t="n">
-        <v>332.4211543898668</v>
+        <v>1142.270809552897</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -3866,10 +3866,10 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>29671.49730461038</v>
+        <v>40880.20727748745</v>
       </c>
       <c r="C318" t="n">
-        <v>5773.247524415629</v>
+        <v>6601.071488664458</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -3877,10 +3877,10 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>32131.79265824288</v>
+        <v>43928.5267111348</v>
       </c>
       <c r="C319" t="n">
-        <v>7165.277286807388</v>
+        <v>8011.075560142017</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -3888,10 +3888,10 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>28210.41358121411</v>
+        <v>40595.17171412089</v>
       </c>
       <c r="C320" t="n">
-        <v>1232.844729444594</v>
+        <v>2096.617311865021</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -3899,10 +3899,10 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>22925.09590544968</v>
+        <v>35309.85403835645</v>
       </c>
       <c r="C321" t="n">
-        <v>1645.814214747842</v>
+        <v>2509.586797168269</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -3910,10 +3910,10 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>27973.08489191759</v>
+        <v>40967.80836395449</v>
       </c>
       <c r="C322" t="n">
-        <v>-1251.557643107469</v>
+        <v>-580.880269324502</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -3921,10 +3921,10 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>38397.43921048175</v>
+        <v>52002.12802164879</v>
       </c>
       <c r="C323" t="n">
-        <v>-1834.685578369187</v>
+        <v>-1357.103413223679</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -3932,10 +3932,10 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>41053.16848771442</v>
+        <v>55267.82263801162</v>
       </c>
       <c r="C324" t="n">
-        <v>6188.473257831929</v>
+        <v>6472.960214339977</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -3943,10 +3943,10 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>42511.93925815025</v>
+        <v>57336.55874757759</v>
       </c>
       <c r="C325" t="n">
-        <v>6048.910637548466</v>
+        <v>6140.302385419054</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -3954,10 +3954,10 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>45127.5333843656</v>
+        <v>60562.11821292308</v>
       </c>
       <c r="C326" t="n">
-        <v>428.1315801044966</v>
+        <v>326.4281193376246</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -3965,10 +3965,10 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>46302.95873209445</v>
+        <v>62347.50889978207</v>
       </c>
       <c r="C327" t="n">
-        <v>8257.513770062884</v>
+        <v>7962.715100658551</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -3976,10 +3976,10 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>48081.65641130789</v>
+        <v>64126.20657899551</v>
       </c>
       <c r="C328" t="n">
-        <v>-520.2576021745153</v>
+        <v>-815.0562715788474</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -3987,10 +3987,10 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>53652.02916530508</v>
+        <v>68168.45835337962</v>
       </c>
       <c r="C329" t="n">
-        <v>2346.065390668935</v>
+        <v>2000.630600618627</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -3998,10 +3998,10 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>46789.50519461974</v>
+        <v>59777.81340308121</v>
       </c>
       <c r="C330" t="n">
-        <v>731.2935767089839</v>
+        <v>335.2226660126989</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -4009,10 +4009,10 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>53005.9754582544</v>
+        <v>64466.16268710281</v>
       </c>
       <c r="C331" t="n">
-        <v>814.4181754884316</v>
+        <v>367.7111441461711</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -4020,10 +4020,10 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>48117.50584027075</v>
+        <v>58049.57208950608</v>
       </c>
       <c r="C332" t="n">
-        <v>4493.035365509404</v>
+        <v>3995.692213521167</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -4031,10 +4031,10 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>41262.58808566294</v>
+        <v>49666.5333552852</v>
       </c>
       <c r="C333" t="n">
-        <v>3476.663439469279</v>
+        <v>2928.684166835066</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -4042,10 +4042,10 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>55770.37614765675</v>
+        <v>62646.20043766592</v>
       </c>
       <c r="C334" t="n">
-        <v>3813.549297784949</v>
+        <v>3214.93390450476</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -4053,10 +4053,10 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>51467.80520907167</v>
+        <v>58343.62949908085</v>
       </c>
       <c r="C335" t="n">
-        <v>2998.308566390302</v>
+        <v>2399.693173110113</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -4064,10 +4064,10 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>50173.12903419472</v>
+        <v>56177.69273468071</v>
       </c>
       <c r="C336" t="n">
-        <v>4610.492126318039</v>
+        <v>3988.235580198045</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -4075,10 +4075,10 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>48830.07879980643</v>
+        <v>53963.38191076925</v>
       </c>
       <c r="C337" t="n">
-        <v>4307.464422304224</v>
+        <v>3661.566723344426</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -4086,10 +4086,10 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>44100.42734531693</v>
+        <v>48362.46986675657</v>
       </c>
       <c r="C338" t="n">
-        <v>5423.756463220505</v>
+        <v>4754.217611420901</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -4097,10 +4097,10 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>46603.98946086298</v>
+        <v>49994.77139277944</v>
       </c>
       <c r="C339" t="n">
-        <v>5904.350323944806</v>
+        <v>5211.170319305399</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -4108,10 +4108,10 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>49354.30214161785</v>
+        <v>51873.82348401113</v>
       </c>
       <c r="C340" t="n">
-        <v>3090.145377167218</v>
+        <v>2373.324219688006</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -4119,10 +4119,10 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>43115.20116287685</v>
+        <v>44763.46191574695</v>
       </c>
       <c r="C341" t="n">
-        <v>7475.843860148834</v>
+        <v>6735.381549829817</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -4130,10 +4130,10 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>41401.41681026969</v>
+        <v>43049.67756313978</v>
       </c>
       <c r="C342" t="n">
-        <v>3599.719256668714</v>
+        <v>2859.256946349697</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -4141,10 +4141,10 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>50251.47586734977</v>
+        <v>51596.66522666518</v>
       </c>
       <c r="C343" t="n">
-        <v>6771.294629404943</v>
+        <v>6420.986116269858</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -4152,10 +4152,10 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>50642.70014223459</v>
+        <v>51684.81810799531</v>
       </c>
       <c r="C344" t="n">
-        <v>4868.95778500518</v>
+        <v>4908.803069054027</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -4163,10 +4163,10 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>57874.55443490302</v>
+        <v>58613.60100710904</v>
       </c>
       <c r="C345" t="n">
-        <v>924.0364108187387</v>
+        <v>1354.035492051518</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -4174,10 +4174,10 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>61443.42231624138</v>
+        <v>61879.39749489272</v>
       </c>
       <c r="C346" t="n">
-        <v>7660.116910113162</v>
+        <v>8480.269788529873</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -4185,10 +4185,10 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>55765.12371819364</v>
+        <v>55898.02750329028</v>
       </c>
       <c r="C347" t="n">
-        <v>5051.196828459352</v>
+        <v>6261.503504059996</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -4196,10 +4196,10 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>61999.18020708282</v>
+        <v>61829.01259862477</v>
       </c>
       <c r="C348" t="n">
-        <v>1672.147808510099</v>
+        <v>3272.608281294675</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -4207,10 +4207,10 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>60621.29963556743</v>
+        <v>60451.13202710937</v>
       </c>
       <c r="C349" t="n">
-        <v>2510.313514638175</v>
+        <v>4110.77398742275</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -4218,10 +4218,10 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>51172.85389317764</v>
+        <v>51756.61659184244</v>
       </c>
       <c r="C350" t="n">
-        <v>2404.386351545138</v>
+        <v>3924.37863319364</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -4229,10 +4229,10 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>49988.12730276035</v>
+        <v>51325.82030854799</v>
       </c>
       <c r="C351" t="n">
-        <v>8810.658729708906</v>
+        <v>10250.18282022133</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -4240,10 +4240,10 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>48209.39955095847</v>
+        <v>50301.02286386898</v>
       </c>
       <c r="C352" t="n">
-        <v>6768.878699509788</v>
+        <v>8127.93459888614</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -4251,10 +4251,10 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>45322.62346104356</v>
+        <v>48168.17708107692</v>
       </c>
       <c r="C353" t="n">
-        <v>4191.743661476651</v>
+        <v>5470.33136971693</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -4262,10 +4262,10 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>40520.16075028317</v>
+        <v>44119.64467743938</v>
       </c>
       <c r="C354" t="n">
-        <v>6174.041052416765</v>
+        <v>7372.160569520967</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -4273,10 +4273,10 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>31712.33780767998</v>
+        <v>36065.75204195905</v>
       </c>
       <c r="C355" t="n">
-        <v>7886.278578807237</v>
+        <v>9003.929904775367</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -4284,10 +4284,10 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>40387.90329409428</v>
+        <v>44741.31752837335</v>
       </c>
       <c r="C356" t="n">
-        <v>4551.515075265043</v>
+        <v>5669.166401233172</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -4295,10 +4295,10 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>37947.65900468986</v>
+        <v>44101.1289187947</v>
       </c>
       <c r="C357" t="n">
-        <v>4334.907778585442</v>
+        <v>5707.657683901187</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -4306,10 +4306,10 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>41912.45846916733</v>
+        <v>49865.98406309792</v>
       </c>
       <c r="C358" t="n">
-        <v>1173.016843198553</v>
+        <v>2800.865327861916</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -4317,10 +4317,10 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>38942.40241253909</v>
+        <v>48695.98368629544</v>
       </c>
       <c r="C359" t="n">
-        <v>3364.890228748112</v>
+        <v>5247.837292759092</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -4328,10 +4328,10 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>50392.8889260631</v>
+        <v>61946.5258796452</v>
       </c>
       <c r="C360" t="n">
-        <v>3523.197979100457</v>
+        <v>5661.243622459054</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -4339,10 +4339,10 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>42238.66033169643</v>
+        <v>55592.35296510429</v>
       </c>
       <c r="C361" t="n">
-        <v>6221.841998520092</v>
+        <v>8614.986221226303</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -4350,10 +4350,10 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>46092.80126739965</v>
+        <v>61246.54958063327</v>
       </c>
       <c r="C362" t="n">
-        <v>3954.562110387575</v>
+        <v>6602.804912441404</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -4361,10 +4361,10 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>42079.33425588052</v>
+        <v>57233.08256911414</v>
       </c>
       <c r="C363" t="n">
-        <v>7162.30832935071</v>
+        <v>9810.551131404538</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -4372,10 +4372,10 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>49787.51709986667</v>
+        <v>64941.26541310029</v>
       </c>
       <c r="C364" t="n">
-        <v>6946.374069757192</v>
+        <v>9594.61687181102</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -4383,10 +4383,10 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>40101.18755578061</v>
+        <v>55254.93586901423</v>
       </c>
       <c r="C365" t="n">
-        <v>5341.284354422157</v>
+        <v>7989.527156475985</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -4394,10 +4394,10 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>33841.26724178648</v>
+        <v>48995.0155550201</v>
       </c>
       <c r="C366" t="n">
-        <v>2952.049353220208</v>
+        <v>5600.292155274036</v>
       </c>
     </row>
   </sheetData>

--- a/Stochastic_engine/CA_hydropower/CA_hydro_daily.xlsx
+++ b/Stochastic_engine/CA_hydropower/CA_hydro_daily.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>PGE_valley</t>
   </si>
@@ -27,22 +26,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -57,26 +60,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -364,18 +376,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C366"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
@@ -386,4021 +392,4021 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>84520.99609447303</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>7769.351327655068</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>84719.23067658822</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>7169.750063726278</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>72283.93517368754</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>6605.458840528825</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>82840.65851051389</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>8731.26347884188</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>81404.99832466751</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>7635.569666270431</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>82758.55337458261</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>6760.605194000944</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>73067.20587592592</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>7146.996862590022</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>66802.80348409532</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>6636.698219285955</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>63387.73643675974</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>4232.222970392436</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>54292.09884824973</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>2905.195478410306</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1" t="n">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>48562.5188317625</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>2705.691027372656</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>54408.38865812816</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>524.2957928641204</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1" t="n">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>49735.58870629907</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>699.7038216401543</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>49279.2543496026</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>4793.495234485395</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1" t="n">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>49137.12451477085</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>2801.315710941368</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>49857.88180316507</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>4602.686529471503</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1" t="n">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>52634.52281448583</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>3324.042555938636</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1" t="n">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>41328.3261978435</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>3466.737099632271</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1" t="n">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>43354.16857766296</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>2486.336089615605</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1" t="n">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>46860.12974375045</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>5264.94422004745</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1" t="n">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>53454.93130329264</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>8658.946278057983</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1" t="n">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>51067.27780673894</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>6662.757685954733</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1" t="n">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>54594.21220533623</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>5566.307272056625</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1" t="n">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>61739.01712379538</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>6770.796639930279</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1" t="n">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>59653.8727605673</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>8947.838581583326</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1" t="n">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>61435.62813766429</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>6083.902765180041</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1" t="n">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>58108.03515911924</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>506.1054403410699</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1" t="n">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>61763.02785510696</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>7276.766891733686</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1" t="n">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>61250.49386446837</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>6314.046802415629</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1" t="n">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>54324.00879004326</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>7289.481477125262</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1" t="n">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>57379.93874459585</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>6672.85494918015</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1" t="n">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>58593.88552888703</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>7091.893227186023</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1" t="n">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>60124.4208313977</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>3316.635104130924</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1" t="n">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>62372.18465340208</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>3391.329518714203</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="1" t="n">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>64241.03679655978</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>6378.65762033531</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="1" t="n">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>69665.70188003154</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>6517.078194611405</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1" t="n">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>67741.15223570135</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>11638.68359779161</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1" t="n">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>75311.2150452808</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>13210.10865205105</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1" t="n">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>68767.86480590071</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>9303.851065754177</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1" t="n">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>75657.39425862086</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>9033.362817043402</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1" t="n">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>74054.42385976795</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>14137.31035186715</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1" t="n">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>66079.66012078433</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>7963.398388210307</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1" t="n">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>67450.58784774051</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>7108.749335648393</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1" t="n">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>59819.69368839739</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>8114.910851058948</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1" t="n">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>59285.39403151048</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>6603.995429877435</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="1" t="n">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>59675.37795300534</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>6223.76510575771</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1" t="n">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>53199.59544914269</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>6743.632944827513</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1" t="n">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>58708.5194006142</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>9267.688526073922</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1" t="n">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>60931.18269987318</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>9516.111198901919</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1" t="n">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>56980.84346375216</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>11804.47648357924</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="1" t="n">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>66641.85366867702</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>6231.668415791399</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="1" t="n">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>61351.41746998695</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>9046.859590352078</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="1" t="n">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>62975.05669523727</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>10143.49515661282</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="1" t="n">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>64558.18342501356</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>10100.9402240872</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="1" t="n">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>63038.43159487349</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>5483.109086006084</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="1" t="n">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>66973.5322992361</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>8185.042386262855</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="1" t="n">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>63413.24381141383</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>5566.218480817126</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="1" t="n">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>66973.07813866744</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>10623.59171392791</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="1" t="n">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>69494.42887118297</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>8815.767037295593</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="1" t="n">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>68989.46978287822</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>2316.981713834036</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="1" t="n">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>62049.59783249591</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>12069.12356778901</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="1" t="n">
+      <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>64498.11230661275</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>8722.474689110884</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="1" t="n">
+      <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>74199.26076532551</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>9160.306598300898</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="1" t="n">
+      <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>76564.01916139002</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>9063.500176789048</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="1" t="n">
+      <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>80026.23537871728</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>10438.11635893304</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="1" t="n">
+      <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>74876.19187592533</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>8570.351047831962</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="1" t="n">
+      <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>78788.75808008085</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>10929.97599713985</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="1" t="n">
+      <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>80462.7082446455</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>9722.512376282037</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="1" t="n">
+      <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>79205.59577066575</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>11419.19337501158</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="1" t="n">
+      <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>80747.70564603717</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>6117.928347496738</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="1" t="n">
+      <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>86039.36567770463</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>5425.409382441281</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="1" t="n">
+      <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>86810.92472928931</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>11262.40294020248</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="1" t="n">
+      <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>83623.54426652746</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>9720.816011849969</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="1" t="n">
+      <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>89934.29911066908</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>10546.04074502071</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="1" t="n">
+      <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>91172.07167470596</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>8983.390487326133</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="1" t="n">
+      <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>90874.00100995596</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>4793.634445572015</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="1" t="n">
+      <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>91610.80385780253</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>11217.0592577582</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="1" t="n">
+      <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>84293.0270569101</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>12168.38920920863</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="1" t="n">
+      <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>89367.77950667049</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>8328.683098461908</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="1" t="n">
+      <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>87472.87821234313</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>12848.81932333636</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="1" t="n">
+      <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>90006.64346267737</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>9841.641009397852</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="1" t="n">
+      <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>99145.32303825047</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>13559.77514064248</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="1" t="n">
+      <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>86121.48166612122</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>9762.547840776431</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="1" t="n">
+      <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>84047.83881819776</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>13152.83300497259</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="1" t="n">
+      <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>85068.63949791197</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>11392.5175214235</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="1" t="n">
+      <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>83132.9081568742</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>6246.673092192295</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="1" t="n">
+      <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>83026.09909400489</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>5338.163359859798</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="1" t="n">
+      <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>81911.18343271439</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>13817.85488804916</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="1" t="n">
+      <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>79137.69972297129</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>8091.737593481208</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="1" t="n">
+      <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>78859.80545831601</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>7112.935485883452</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="1" t="n">
+      <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>80328.10364222887</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>8866.038186065354</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="1" t="n">
+      <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>76651.85754151436</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>9591.239782771978</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="1" t="n">
+      <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>73839.83926104203</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>8716.220231864274</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="1" t="n">
+      <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>81061.38622227023</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>6914.300786532958</v>
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="1" t="n">
+      <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>75253.50212968525</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>6846.596429189026</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="1" t="n">
+      <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>81667.96634689026</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>4870.214185208046</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="1" t="n">
+      <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>71157.2030483853</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>4373.469070821846</v>
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="1" t="n">
+      <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>68974.2963943357</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>6615.445338751632</v>
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="1" t="n">
+      <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>73579.82392079181</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100">
         <v>6630.475029139889</v>
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="1" t="n">
+      <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>67820.74231857788</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101">
         <v>4697.494524628383</v>
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="1" t="n">
+      <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>58062.38336874905</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>3960.255432956624</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="1" t="n">
+      <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>61818.75595683875</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103">
         <v>5160.84674233087</v>
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="1" t="n">
+      <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>62852.36420942102</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104">
         <v>6910.06894856829</v>
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="1" t="n">
+      <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>62609.20162074119</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105">
         <v>3572.075894206178</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="1" t="n">
+      <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>60064.86639970782</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106">
         <v>7829.415253302576</v>
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="1" t="n">
+      <c r="A107" s="1">
         <v>105</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>61146.80363822757</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107">
         <v>7573.951020992286</v>
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="1" t="n">
+      <c r="A108" s="1">
         <v>106</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>57518.09840841196</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108">
         <v>1062.000229840937</v>
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="1" t="n">
+      <c r="A109" s="1">
         <v>107</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>64695.14315925932</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109">
         <v>10877.17782558174</v>
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="1" t="n">
+      <c r="A110" s="1">
         <v>108</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>60637.05963342186</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110">
         <v>7554.457700195235</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="1" t="n">
+      <c r="A111" s="1">
         <v>109</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>59390.69772559104</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111">
         <v>12378.81877996141</v>
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="1" t="n">
+      <c r="A112" s="1">
         <v>110</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>58711.87466999689</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112">
         <v>9200.617310428177</v>
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="1" t="n">
+      <c r="A113" s="1">
         <v>111</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>63063.87887960847</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113">
         <v>6562.979811871374</v>
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="1" t="n">
+      <c r="A114" s="1">
         <v>112</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>61305.84507138985</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114">
         <v>6480.408742567679</v>
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="1" t="n">
+      <c r="A115" s="1">
         <v>113</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>62189.06254269862</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115">
         <v>4536.491565944336</v>
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="1" t="n">
+      <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>63023.19117215133</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116">
         <v>8429.8286915892</v>
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="1" t="n">
+      <c r="A117" s="1">
         <v>115</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>60189.94318265469</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117">
         <v>10219.83490844246</v>
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="1" t="n">
+      <c r="A118" s="1">
         <v>116</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>55880.21519377067</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118">
         <v>10281.74088119058</v>
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="1" t="n">
+      <c r="A119" s="1">
         <v>117</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>61433.07699928267</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119">
         <v>10936.00963420752</v>
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="1" t="n">
+      <c r="A120" s="1">
         <v>118</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>67655.43825997593</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120">
         <v>9510.7656683269</v>
       </c>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="1" t="n">
+      <c r="A121" s="1">
         <v>119</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>68285.02408896512</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121">
         <v>9118.040084971153</v>
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="1" t="n">
+      <c r="A122" s="1">
         <v>120</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>67961.01183934418</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122">
         <v>9930.026686194979</v>
       </c>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="1" t="n">
+      <c r="A123" s="1">
         <v>121</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123">
         <v>72983.01963992901</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123">
         <v>12093.46618888943</v>
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="1" t="n">
+      <c r="A124" s="1">
         <v>122</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>82562.17217491393</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124">
         <v>14893.41380698278</v>
       </c>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="1" t="n">
+      <c r="A125" s="1">
         <v>123</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>79819.03094535304</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125">
         <v>11435.22409984034</v>
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="1" t="n">
+      <c r="A126" s="1">
         <v>124</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>84156.63822094782</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126">
         <v>16732.60001472542</v>
       </c>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="1" t="n">
+      <c r="A127" s="1">
         <v>125</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127">
         <v>73879.66863823509</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127">
         <v>16860.00673082417</v>
       </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="1" t="n">
+      <c r="A128" s="1">
         <v>126</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128">
         <v>80456.88336392706</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128">
         <v>15886.88612410631</v>
       </c>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="1" t="n">
+      <c r="A129" s="1">
         <v>127</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129">
         <v>78743.45879014673</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129">
         <v>14958.06394766985</v>
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="1" t="n">
+      <c r="A130" s="1">
         <v>128</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130">
         <v>72781.07397674034</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130">
         <v>17973.26241158663</v>
       </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="1" t="n">
+      <c r="A131" s="1">
         <v>129</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131">
         <v>83589.40020232233</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C131">
         <v>16116.00277730357</v>
       </c>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="1" t="n">
+      <c r="A132" s="1">
         <v>130</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132">
         <v>81429.13712154132</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132">
         <v>21142.80617242085</v>
       </c>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="1" t="n">
+      <c r="A133" s="1">
         <v>131</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133">
         <v>82714.95012230026</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C133">
         <v>13696.2704958993</v>
       </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="1" t="n">
+      <c r="A134" s="1">
         <v>132</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134">
         <v>82538.41818228945</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C134">
         <v>16943.86878785809</v>
       </c>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="1" t="n">
+      <c r="A135" s="1">
         <v>133</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135">
         <v>86738.02970144009</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C135">
         <v>21197.00733811804</v>
       </c>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="1" t="n">
+      <c r="A136" s="1">
         <v>134</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136">
         <v>84961.66572587016</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C136">
         <v>16410.63207136195</v>
       </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="1" t="n">
+      <c r="A137" s="1">
         <v>135</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137">
         <v>80892.21694806337</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C137">
         <v>17451.18819217251</v>
       </c>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="1" t="n">
+      <c r="A138" s="1">
         <v>136</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138">
         <v>89343.40954185088</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C138">
         <v>19566.43832978577</v>
       </c>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" s="1" t="n">
+      <c r="A139" s="1">
         <v>137</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139">
         <v>90938.57885843157</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C139">
         <v>16360.11101542411</v>
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="1" t="n">
+      <c r="A140" s="1">
         <v>138</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140">
         <v>89934.78345181349</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C140">
         <v>15973.69963533733</v>
       </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" s="1" t="n">
+      <c r="A141" s="1">
         <v>139</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141">
         <v>84878.37356954768</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C141">
         <v>15513.10380701266</v>
       </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" s="1" t="n">
+      <c r="A142" s="1">
         <v>140</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142">
         <v>77437.38536550949</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C142">
         <v>19360.40123971358</v>
       </c>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143" s="1" t="n">
+      <c r="A143" s="1">
         <v>141</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143">
         <v>75869.96879832841</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C143">
         <v>15156.54129003004</v>
       </c>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" s="1" t="n">
+      <c r="A144" s="1">
         <v>142</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144">
         <v>85242.56646538593</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C144">
         <v>15666.3704387101</v>
       </c>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="1" t="n">
+      <c r="A145" s="1">
         <v>143</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145">
         <v>75340.1427434962</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C145">
         <v>18591.48456001117</v>
       </c>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" s="1" t="n">
+      <c r="A146" s="1">
         <v>144</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146">
         <v>81383.89747196456</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C146">
         <v>18084.81715874777</v>
       </c>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147" s="1" t="n">
+      <c r="A147" s="1">
         <v>145</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147">
         <v>82339.58012875893</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C147">
         <v>18924.2495386681</v>
       </c>
     </row>
     <row r="148" spans="1:3">
-      <c r="A148" s="1" t="n">
+      <c r="A148" s="1">
         <v>146</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148">
         <v>81566.3703556392</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C148">
         <v>17260.52945198816</v>
       </c>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149" s="1" t="n">
+      <c r="A149" s="1">
         <v>147</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149">
         <v>81243.74421479218</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C149">
         <v>12571.6079088591</v>
       </c>
     </row>
     <row r="150" spans="1:3">
-      <c r="A150" s="1" t="n">
+      <c r="A150" s="1">
         <v>148</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150">
         <v>77624.98879848952</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C150">
         <v>13468.96909434699</v>
       </c>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151" s="1" t="n">
+      <c r="A151" s="1">
         <v>149</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151">
         <v>79455.55577409976</v>
       </c>
-      <c r="C151" t="n">
+      <c r="C151">
         <v>14561.16367761815</v>
       </c>
     </row>
     <row r="152" spans="1:3">
-      <c r="A152" s="1" t="n">
+      <c r="A152" s="1">
         <v>150</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152">
         <v>74169.79179391175</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C152">
         <v>17445.56593311978</v>
       </c>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153" s="1" t="n">
+      <c r="A153" s="1">
         <v>151</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B153">
         <v>78840.47474921049</v>
       </c>
-      <c r="C153" t="n">
+      <c r="C153">
         <v>12820.6154986054</v>
       </c>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154" s="1" t="n">
+      <c r="A154" s="1">
         <v>152</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154">
         <v>84455.10753370356</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C154">
         <v>18390.41642242018</v>
       </c>
     </row>
     <row r="155" spans="1:3">
-      <c r="A155" s="1" t="n">
+      <c r="A155" s="1">
         <v>153</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155">
         <v>78752.23346327282</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C155">
         <v>17677.25152330993</v>
       </c>
     </row>
     <row r="156" spans="1:3">
-      <c r="A156" s="1" t="n">
+      <c r="A156" s="1">
         <v>154</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156">
         <v>77863.93988324866</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C156">
         <v>13603.30497115364</v>
       </c>
     </row>
     <row r="157" spans="1:3">
-      <c r="A157" s="1" t="n">
+      <c r="A157" s="1">
         <v>155</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157">
         <v>81189.15237261094</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C157">
         <v>19287.07853174191</v>
       </c>
     </row>
     <row r="158" spans="1:3">
-      <c r="A158" s="1" t="n">
+      <c r="A158" s="1">
         <v>156</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158">
         <v>77688.01057387939</v>
       </c>
-      <c r="C158" t="n">
+      <c r="C158">
         <v>23111.63558261242</v>
       </c>
     </row>
     <row r="159" spans="1:3">
-      <c r="A159" s="1" t="n">
+      <c r="A159" s="1">
         <v>157</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159">
         <v>75687.17880179507</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C159">
         <v>19760.07630432427</v>
       </c>
     </row>
     <row r="160" spans="1:3">
-      <c r="A160" s="1" t="n">
+      <c r="A160" s="1">
         <v>158</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160">
         <v>74859.14022253943</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C160">
         <v>22926.53337306107</v>
       </c>
     </row>
     <row r="161" spans="1:3">
-      <c r="A161" s="1" t="n">
+      <c r="A161" s="1">
         <v>159</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161">
         <v>78892.56898765145</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C161">
         <v>19388.07821045306</v>
       </c>
     </row>
     <row r="162" spans="1:3">
-      <c r="A162" s="1" t="n">
+      <c r="A162" s="1">
         <v>160</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162">
         <v>75386.48334316512</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C162">
         <v>19848.2371225159</v>
       </c>
     </row>
     <row r="163" spans="1:3">
-      <c r="A163" s="1" t="n">
+      <c r="A163" s="1">
         <v>161</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163">
         <v>77483.50843064312</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C163">
         <v>21277.02211029941</v>
       </c>
     </row>
     <row r="164" spans="1:3">
-      <c r="A164" s="1" t="n">
+      <c r="A164" s="1">
         <v>162</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164">
         <v>79043.3063348857</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C164">
         <v>16518.61114454639</v>
       </c>
     </row>
     <row r="165" spans="1:3">
-      <c r="A165" s="1" t="n">
+      <c r="A165" s="1">
         <v>163</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165">
         <v>79483.81882962266</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C165">
         <v>14753.44493109696</v>
       </c>
     </row>
     <row r="166" spans="1:3">
-      <c r="A166" s="1" t="n">
+      <c r="A166" s="1">
         <v>164</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166">
         <v>79025.63864704818</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C166">
         <v>17618.11225454713</v>
       </c>
     </row>
     <row r="167" spans="1:3">
-      <c r="A167" s="1" t="n">
+      <c r="A167" s="1">
         <v>165</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B167">
         <v>87138.66233393901</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C167">
         <v>19985.4450182814</v>
       </c>
     </row>
     <row r="168" spans="1:3">
-      <c r="A168" s="1" t="n">
+      <c r="A168" s="1">
         <v>166</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B168">
         <v>80057.05834440319</v>
       </c>
-      <c r="C168" t="n">
+      <c r="C168">
         <v>13842.61828639012</v>
       </c>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169" s="1" t="n">
+      <c r="A169" s="1">
         <v>167</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B169">
         <v>86458.29469396497</v>
       </c>
-      <c r="C169" t="n">
+      <c r="C169">
         <v>15847.06802460162</v>
       </c>
     </row>
     <row r="170" spans="1:3">
-      <c r="A170" s="1" t="n">
+      <c r="A170" s="1">
         <v>168</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B170">
         <v>80392.23062658786</v>
       </c>
-      <c r="C170" t="n">
+      <c r="C170">
         <v>16384.98961323948</v>
       </c>
     </row>
     <row r="171" spans="1:3">
-      <c r="A171" s="1" t="n">
+      <c r="A171" s="1">
         <v>169</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B171">
         <v>83849.25921824422</v>
       </c>
-      <c r="C171" t="n">
+      <c r="C171">
         <v>15910.55800486149</v>
       </c>
     </row>
     <row r="172" spans="1:3">
-      <c r="A172" s="1" t="n">
+      <c r="A172" s="1">
         <v>170</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B172">
         <v>77772.96342697259</v>
       </c>
-      <c r="C172" t="n">
+      <c r="C172">
         <v>16970.40735078733</v>
       </c>
     </row>
     <row r="173" spans="1:3">
-      <c r="A173" s="1" t="n">
+      <c r="A173" s="1">
         <v>171</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B173">
         <v>79313.68017143979</v>
       </c>
-      <c r="C173" t="n">
+      <c r="C173">
         <v>18371.74540370881</v>
       </c>
     </row>
     <row r="174" spans="1:3">
-      <c r="A174" s="1" t="n">
+      <c r="A174" s="1">
         <v>172</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B174">
         <v>77383.24827707262</v>
       </c>
-      <c r="C174" t="n">
+      <c r="C174">
         <v>13901.50614377109</v>
       </c>
     </row>
     <row r="175" spans="1:3">
-      <c r="A175" s="1" t="n">
+      <c r="A175" s="1">
         <v>173</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B175">
         <v>78235.03613363057</v>
       </c>
-      <c r="C175" t="n">
+      <c r="C175">
         <v>17179.86815751233</v>
       </c>
     </row>
     <row r="176" spans="1:3">
-      <c r="A176" s="1" t="n">
+      <c r="A176" s="1">
         <v>174</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176">
         <v>85245.03623081597</v>
       </c>
-      <c r="C176" t="n">
+      <c r="C176">
         <v>16169.22428397647</v>
       </c>
     </row>
     <row r="177" spans="1:3">
-      <c r="A177" s="1" t="n">
+      <c r="A177" s="1">
         <v>175</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B177">
         <v>74987.66941385291</v>
       </c>
-      <c r="C177" t="n">
+      <c r="C177">
         <v>14813.17392695592</v>
       </c>
     </row>
     <row r="178" spans="1:3">
-      <c r="A178" s="1" t="n">
+      <c r="A178" s="1">
         <v>176</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B178">
         <v>85975.34362446275</v>
       </c>
-      <c r="C178" t="n">
+      <c r="C178">
         <v>13987.83405182249</v>
       </c>
     </row>
     <row r="179" spans="1:3">
-      <c r="A179" s="1" t="n">
+      <c r="A179" s="1">
         <v>177</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B179">
         <v>82267.65980995838</v>
       </c>
-      <c r="C179" t="n">
+      <c r="C179">
         <v>11075.62458654445</v>
       </c>
     </row>
     <row r="180" spans="1:3">
-      <c r="A180" s="1" t="n">
+      <c r="A180" s="1">
         <v>178</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B180">
         <v>85375.96287763776</v>
       </c>
-      <c r="C180" t="n">
+      <c r="C180">
         <v>18791.11272539722</v>
       </c>
     </row>
     <row r="181" spans="1:3">
-      <c r="A181" s="1" t="n">
+      <c r="A181" s="1">
         <v>179</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B181">
         <v>79504.22280289729</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C181">
         <v>15686.75702709733</v>
       </c>
     </row>
     <row r="182" spans="1:3">
-      <c r="A182" s="1" t="n">
+      <c r="A182" s="1">
         <v>180</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B182">
         <v>79666.67787986269</v>
       </c>
-      <c r="C182" t="n">
+      <c r="C182">
         <v>16911.54049278348</v>
       </c>
     </row>
     <row r="183" spans="1:3">
-      <c r="A183" s="1" t="n">
+      <c r="A183" s="1">
         <v>181</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B183">
         <v>82959.11116756096</v>
       </c>
-      <c r="C183" t="n">
+      <c r="C183">
         <v>15705.67559561751</v>
       </c>
     </row>
     <row r="184" spans="1:3">
-      <c r="A184" s="1" t="n">
+      <c r="A184" s="1">
         <v>182</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B184">
         <v>82858.93727790231</v>
       </c>
-      <c r="C184" t="n">
+      <c r="C184">
         <v>11024.53145903251</v>
       </c>
     </row>
     <row r="185" spans="1:3">
-      <c r="A185" s="1" t="n">
+      <c r="A185" s="1">
         <v>183</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B185">
         <v>79504.3821557021</v>
       </c>
-      <c r="C185" t="n">
+      <c r="C185">
         <v>19968.86203200642</v>
       </c>
     </row>
     <row r="186" spans="1:3">
-      <c r="A186" s="1" t="n">
+      <c r="A186" s="1">
         <v>184</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B186">
         <v>79867.06250111377</v>
       </c>
-      <c r="C186" t="n">
+      <c r="C186">
         <v>15342.75943285269</v>
       </c>
     </row>
     <row r="187" spans="1:3">
-      <c r="A187" s="1" t="n">
+      <c r="A187" s="1">
         <v>185</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B187">
         <v>83521.8307187734</v>
       </c>
-      <c r="C187" t="n">
+      <c r="C187">
         <v>16199.38415269875</v>
       </c>
     </row>
     <row r="188" spans="1:3">
-      <c r="A188" s="1" t="n">
+      <c r="A188" s="1">
         <v>186</v>
       </c>
-      <c r="B188" t="n">
+      <c r="B188">
         <v>84400.76694680983</v>
       </c>
-      <c r="C188" t="n">
+      <c r="C188">
         <v>18445.93078053327</v>
       </c>
     </row>
     <row r="189" spans="1:3">
-      <c r="A189" s="1" t="n">
+      <c r="A189" s="1">
         <v>187</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B189">
         <v>80386.31454496777</v>
       </c>
-      <c r="C189" t="n">
+      <c r="C189">
         <v>13344.88884207179</v>
       </c>
     </row>
     <row r="190" spans="1:3">
-      <c r="A190" s="1" t="n">
+      <c r="A190" s="1">
         <v>188</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B190">
         <v>77794.91066570986</v>
       </c>
-      <c r="C190" t="n">
+      <c r="C190">
         <v>17092.17703091862</v>
       </c>
     </row>
     <row r="191" spans="1:3">
-      <c r="A191" s="1" t="n">
+      <c r="A191" s="1">
         <v>189</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B191">
         <v>77297.12971627446</v>
       </c>
-      <c r="C191" t="n">
+      <c r="C191">
         <v>17247.230226558</v>
       </c>
     </row>
     <row r="192" spans="1:3">
-      <c r="A192" s="1" t="n">
+      <c r="A192" s="1">
         <v>190</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B192">
         <v>82504.34622294334</v>
       </c>
-      <c r="C192" t="n">
+      <c r="C192">
         <v>17971.69591173216</v>
       </c>
     </row>
     <row r="193" spans="1:3">
-      <c r="A193" s="1" t="n">
+      <c r="A193" s="1">
         <v>191</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B193">
         <v>82712.2639436067</v>
       </c>
-      <c r="C193" t="n">
+      <c r="C193">
         <v>17357.35429034047</v>
       </c>
     </row>
     <row r="194" spans="1:3">
-      <c r="A194" s="1" t="n">
+      <c r="A194" s="1">
         <v>192</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B194">
         <v>76402.29762213919</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C194">
         <v>17795.66473403762</v>
       </c>
     </row>
     <row r="195" spans="1:3">
-      <c r="A195" s="1" t="n">
+      <c r="A195" s="1">
         <v>193</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B195">
         <v>79408.4680619384</v>
       </c>
-      <c r="C195" t="n">
+      <c r="C195">
         <v>12722.99094895875</v>
       </c>
     </row>
     <row r="196" spans="1:3">
-      <c r="A196" s="1" t="n">
+      <c r="A196" s="1">
         <v>194</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B196">
         <v>77400.03797849518</v>
       </c>
-      <c r="C196" t="n">
+      <c r="C196">
         <v>19147.81537471823</v>
       </c>
     </row>
     <row r="197" spans="1:3">
-      <c r="A197" s="1" t="n">
+      <c r="A197" s="1">
         <v>195</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B197">
         <v>77463.70019301902</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C197">
         <v>14930.98201241005</v>
       </c>
     </row>
     <row r="198" spans="1:3">
-      <c r="A198" s="1" t="n">
+      <c r="A198" s="1">
         <v>196</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B198">
         <v>76429.94200837162</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C198">
         <v>20587.1448186327</v>
       </c>
     </row>
     <row r="199" spans="1:3">
-      <c r="A199" s="1" t="n">
+      <c r="A199" s="1">
         <v>197</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B199">
         <v>76381.11684933172</v>
       </c>
-      <c r="C199" t="n">
+      <c r="C199">
         <v>19529.42671827102</v>
       </c>
     </row>
     <row r="200" spans="1:3">
-      <c r="A200" s="1" t="n">
+      <c r="A200" s="1">
         <v>198</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B200">
         <v>73398.44921290585</v>
       </c>
-      <c r="C200" t="n">
+      <c r="C200">
         <v>17379.00580337737</v>
       </c>
     </row>
     <row r="201" spans="1:3">
-      <c r="A201" s="1" t="n">
+      <c r="A201" s="1">
         <v>199</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B201">
         <v>70515.58568527951</v>
       </c>
-      <c r="C201" t="n">
+      <c r="C201">
         <v>15540.75987427868</v>
       </c>
     </row>
     <row r="202" spans="1:3">
-      <c r="A202" s="1" t="n">
+      <c r="A202" s="1">
         <v>200</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B202">
         <v>70935.98085464293</v>
       </c>
-      <c r="C202" t="n">
+      <c r="C202">
         <v>19911.72880550579</v>
       </c>
     </row>
     <row r="203" spans="1:3">
-      <c r="A203" s="1" t="n">
+      <c r="A203" s="1">
         <v>201</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B203">
         <v>71253.674248697</v>
       </c>
-      <c r="C203" t="n">
+      <c r="C203">
         <v>17072.93652001906</v>
       </c>
     </row>
     <row r="204" spans="1:3">
-      <c r="A204" s="1" t="n">
+      <c r="A204" s="1">
         <v>202</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B204">
         <v>67980.934639</v>
       </c>
-      <c r="C204" t="n">
+      <c r="C204">
         <v>12010.88504132262</v>
       </c>
     </row>
     <row r="205" spans="1:3">
-      <c r="A205" s="1" t="n">
+      <c r="A205" s="1">
         <v>203</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B205">
         <v>71934.81393275123</v>
       </c>
-      <c r="C205" t="n">
+      <c r="C205">
         <v>16182.37529161728</v>
       </c>
     </row>
     <row r="206" spans="1:3">
-      <c r="A206" s="1" t="n">
+      <c r="A206" s="1">
         <v>204</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B206">
         <v>69021.60510543802</v>
       </c>
-      <c r="C206" t="n">
+      <c r="C206">
         <v>16850.16322427622</v>
       </c>
     </row>
     <row r="207" spans="1:3">
-      <c r="A207" s="1" t="n">
+      <c r="A207" s="1">
         <v>205</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B207">
         <v>64978.65421085485</v>
       </c>
-      <c r="C207" t="n">
+      <c r="C207">
         <v>16829.01822443274</v>
       </c>
     </row>
     <row r="208" spans="1:3">
-      <c r="A208" s="1" t="n">
+      <c r="A208" s="1">
         <v>206</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B208">
         <v>70941.1852989374</v>
       </c>
-      <c r="C208" t="n">
+      <c r="C208">
         <v>16651.8120280424</v>
       </c>
     </row>
     <row r="209" spans="1:3">
-      <c r="A209" s="1" t="n">
+      <c r="A209" s="1">
         <v>207</v>
       </c>
-      <c r="B209" t="n">
+      <c r="B209">
         <v>66398.76319595952</v>
       </c>
-      <c r="C209" t="n">
+      <c r="C209">
         <v>17975.42121076074</v>
       </c>
     </row>
     <row r="210" spans="1:3">
-      <c r="A210" s="1" t="n">
+      <c r="A210" s="1">
         <v>208</v>
       </c>
-      <c r="B210" t="n">
+      <c r="B210">
         <v>76621.53153394326</v>
       </c>
-      <c r="C210" t="n">
+      <c r="C210">
         <v>19848.16531189457</v>
       </c>
     </row>
     <row r="211" spans="1:3">
-      <c r="A211" s="1" t="n">
+      <c r="A211" s="1">
         <v>209</v>
       </c>
-      <c r="B211" t="n">
+      <c r="B211">
         <v>69097.52100467018</v>
       </c>
-      <c r="C211" t="n">
+      <c r="C211">
         <v>16348.74313337879</v>
       </c>
     </row>
     <row r="212" spans="1:3">
-      <c r="A212" s="1" t="n">
+      <c r="A212" s="1">
         <v>210</v>
       </c>
-      <c r="B212" t="n">
+      <c r="B212">
         <v>67757.32614125119</v>
       </c>
-      <c r="C212" t="n">
+      <c r="C212">
         <v>11957.30088071553</v>
       </c>
     </row>
     <row r="213" spans="1:3">
-      <c r="A213" s="1" t="n">
+      <c r="A213" s="1">
         <v>211</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B213">
         <v>63150.2517981531</v>
       </c>
-      <c r="C213" t="n">
+      <c r="C213">
         <v>17904.58180605344</v>
       </c>
     </row>
     <row r="214" spans="1:3">
-      <c r="A214" s="1" t="n">
+      <c r="A214" s="1">
         <v>212</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B214">
         <v>68195.34326861844</v>
       </c>
-      <c r="C214" t="n">
+      <c r="C214">
         <v>16188.10864849965</v>
       </c>
     </row>
     <row r="215" spans="1:3">
-      <c r="A215" s="1" t="n">
+      <c r="A215" s="1">
         <v>213</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B215">
         <v>63846.2273304237</v>
       </c>
-      <c r="C215" t="n">
+      <c r="C215">
         <v>14202.98663994996</v>
       </c>
     </row>
     <row r="216" spans="1:3">
-      <c r="A216" s="1" t="n">
+      <c r="A216" s="1">
         <v>214</v>
       </c>
-      <c r="B216" t="n">
+      <c r="B216">
         <v>67377.98649203098</v>
       </c>
-      <c r="C216" t="n">
+      <c r="C216">
         <v>10324.81222781336</v>
       </c>
     </row>
     <row r="217" spans="1:3">
-      <c r="A217" s="1" t="n">
+      <c r="A217" s="1">
         <v>215</v>
       </c>
-      <c r="B217" t="n">
+      <c r="B217">
         <v>66803.33539434215</v>
       </c>
-      <c r="C217" t="n">
+      <c r="C217">
         <v>12521.50494365641</v>
       </c>
     </row>
     <row r="218" spans="1:3">
-      <c r="A218" s="1" t="n">
+      <c r="A218" s="1">
         <v>216</v>
       </c>
-      <c r="B218" t="n">
+      <c r="B218">
         <v>57603.17267070847</v>
       </c>
-      <c r="C218" t="n">
+      <c r="C218">
         <v>14885.16905634271</v>
       </c>
     </row>
     <row r="219" spans="1:3">
-      <c r="A219" s="1" t="n">
+      <c r="A219" s="1">
         <v>217</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B219">
         <v>60237.91899674074</v>
       </c>
-      <c r="C219" t="n">
+      <c r="C219">
         <v>18635.3719362282</v>
       </c>
     </row>
     <row r="220" spans="1:3">
-      <c r="A220" s="1" t="n">
+      <c r="A220" s="1">
         <v>218</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B220">
         <v>63838.06375920204</v>
       </c>
-      <c r="C220" t="n">
+      <c r="C220">
         <v>15481.51948819217</v>
       </c>
     </row>
     <row r="221" spans="1:3">
-      <c r="A221" s="1" t="n">
+      <c r="A221" s="1">
         <v>219</v>
       </c>
-      <c r="B221" t="n">
+      <c r="B221">
         <v>57866.57125933663</v>
       </c>
-      <c r="C221" t="n">
+      <c r="C221">
         <v>13576.01420755956</v>
       </c>
     </row>
     <row r="222" spans="1:3">
-      <c r="A222" s="1" t="n">
+      <c r="A222" s="1">
         <v>220</v>
       </c>
-      <c r="B222" t="n">
+      <c r="B222">
         <v>55805.63330928422</v>
       </c>
-      <c r="C222" t="n">
+      <c r="C222">
         <v>15904.09908280175</v>
       </c>
     </row>
     <row r="223" spans="1:3">
-      <c r="A223" s="1" t="n">
+      <c r="A223" s="1">
         <v>221</v>
       </c>
-      <c r="B223" t="n">
+      <c r="B223">
         <v>61083.44415417248</v>
       </c>
-      <c r="C223" t="n">
+      <c r="C223">
         <v>13334.61492524115</v>
       </c>
     </row>
     <row r="224" spans="1:3">
-      <c r="A224" s="1" t="n">
+      <c r="A224" s="1">
         <v>222</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B224">
         <v>50409.7670961835</v>
       </c>
-      <c r="C224" t="n">
+      <c r="C224">
         <v>16445.40032578343</v>
       </c>
     </row>
     <row r="225" spans="1:3">
-      <c r="A225" s="1" t="n">
+      <c r="A225" s="1">
         <v>223</v>
       </c>
-      <c r="B225" t="n">
+      <c r="B225">
         <v>54472.85325196844</v>
       </c>
-      <c r="C225" t="n">
+      <c r="C225">
         <v>14570.69289003129</v>
       </c>
     </row>
     <row r="226" spans="1:3">
-      <c r="A226" s="1" t="n">
+      <c r="A226" s="1">
         <v>224</v>
       </c>
-      <c r="B226" t="n">
+      <c r="B226">
         <v>51553.20536194657</v>
       </c>
-      <c r="C226" t="n">
+      <c r="C226">
         <v>14779.9793107776</v>
       </c>
     </row>
     <row r="227" spans="1:3">
-      <c r="A227" s="1" t="n">
+      <c r="A227" s="1">
         <v>225</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B227">
         <v>58814.47232218653</v>
       </c>
-      <c r="C227" t="n">
+      <c r="C227">
         <v>9576.352307242098</v>
       </c>
     </row>
     <row r="228" spans="1:3">
-      <c r="A228" s="1" t="n">
+      <c r="A228" s="1">
         <v>226</v>
       </c>
-      <c r="B228" t="n">
+      <c r="B228">
         <v>51798.74960784305</v>
       </c>
-      <c r="C228" t="n">
+      <c r="C228">
         <v>17056.01373423748</v>
       </c>
     </row>
     <row r="229" spans="1:3">
-      <c r="A229" s="1" t="n">
+      <c r="A229" s="1">
         <v>227</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B229">
         <v>55988.13806270827</v>
       </c>
-      <c r="C229" t="n">
+      <c r="C229">
         <v>8976.938732274193</v>
       </c>
     </row>
     <row r="230" spans="1:3">
-      <c r="A230" s="1" t="n">
+      <c r="A230" s="1">
         <v>228</v>
       </c>
-      <c r="B230" t="n">
+      <c r="B230">
         <v>53816.56213454919</v>
       </c>
-      <c r="C230" t="n">
+      <c r="C230">
         <v>12615.25844431254</v>
       </c>
     </row>
     <row r="231" spans="1:3">
-      <c r="A231" s="1" t="n">
+      <c r="A231" s="1">
         <v>229</v>
       </c>
-      <c r="B231" t="n">
+      <c r="B231">
         <v>52361.98110084274</v>
       </c>
-      <c r="C231" t="n">
+      <c r="C231">
         <v>12970.70434469862</v>
       </c>
     </row>
     <row r="232" spans="1:3">
-      <c r="A232" s="1" t="n">
+      <c r="A232" s="1">
         <v>230</v>
       </c>
-      <c r="B232" t="n">
+      <c r="B232">
         <v>53071.73956538357</v>
       </c>
-      <c r="C232" t="n">
+      <c r="C232">
         <v>11236.70935257443</v>
       </c>
     </row>
     <row r="233" spans="1:3">
-      <c r="A233" s="1" t="n">
+      <c r="A233" s="1">
         <v>231</v>
       </c>
-      <c r="B233" t="n">
+      <c r="B233">
         <v>51964.54108346217</v>
       </c>
-      <c r="C233" t="n">
+      <c r="C233">
         <v>11905.24875843309</v>
       </c>
     </row>
     <row r="234" spans="1:3">
-      <c r="A234" s="1" t="n">
+      <c r="A234" s="1">
         <v>232</v>
       </c>
-      <c r="B234" t="n">
+      <c r="B234">
         <v>46278.28923547299</v>
       </c>
-      <c r="C234" t="n">
+      <c r="C234">
         <v>12021.2953223009</v>
       </c>
     </row>
     <row r="235" spans="1:3">
-      <c r="A235" s="1" t="n">
+      <c r="A235" s="1">
         <v>233</v>
       </c>
-      <c r="B235" t="n">
+      <c r="B235">
         <v>44321.01962369998</v>
       </c>
-      <c r="C235" t="n">
+      <c r="C235">
         <v>12411.17915953483</v>
       </c>
     </row>
     <row r="236" spans="1:3">
-      <c r="A236" s="1" t="n">
+      <c r="A236" s="1">
         <v>234</v>
       </c>
-      <c r="B236" t="n">
+      <c r="B236">
         <v>44321.26323736055</v>
       </c>
-      <c r="C236" t="n">
+      <c r="C236">
         <v>8791.723272457019</v>
       </c>
     </row>
     <row r="237" spans="1:3">
-      <c r="A237" s="1" t="n">
+      <c r="A237" s="1">
         <v>235</v>
       </c>
-      <c r="B237" t="n">
+      <c r="B237">
         <v>47521.5545157556</v>
       </c>
-      <c r="C237" t="n">
+      <c r="C237">
         <v>7699.821927379047</v>
       </c>
     </row>
     <row r="238" spans="1:3">
-      <c r="A238" s="1" t="n">
+      <c r="A238" s="1">
         <v>236</v>
       </c>
-      <c r="B238" t="n">
+      <c r="B238">
         <v>50613.97750235621</v>
       </c>
-      <c r="C238" t="n">
+      <c r="C238">
         <v>11053.27296972162</v>
       </c>
     </row>
     <row r="239" spans="1:3">
-      <c r="A239" s="1" t="n">
+      <c r="A239" s="1">
         <v>237</v>
       </c>
-      <c r="B239" t="n">
+      <c r="B239">
         <v>50471.74585039143</v>
       </c>
-      <c r="C239" t="n">
+      <c r="C239">
         <v>9374.992523205103</v>
       </c>
     </row>
     <row r="240" spans="1:3">
-      <c r="A240" s="1" t="n">
+      <c r="A240" s="1">
         <v>238</v>
       </c>
-      <c r="B240" t="n">
+      <c r="B240">
         <v>43509.95088780178</v>
       </c>
-      <c r="C240" t="n">
+      <c r="C240">
         <v>9551.603250116859</v>
       </c>
     </row>
     <row r="241" spans="1:3">
-      <c r="A241" s="1" t="n">
+      <c r="A241" s="1">
         <v>239</v>
       </c>
-      <c r="B241" t="n">
+      <c r="B241">
         <v>37346.08189653519</v>
       </c>
-      <c r="C241" t="n">
+      <c r="C241">
         <v>10008.9118304708</v>
       </c>
     </row>
     <row r="242" spans="1:3">
-      <c r="A242" s="1" t="n">
+      <c r="A242" s="1">
         <v>240</v>
       </c>
-      <c r="B242" t="n">
+      <c r="B242">
         <v>38477.65875512872</v>
       </c>
-      <c r="C242" t="n">
+      <c r="C242">
         <v>9753.254732117544</v>
       </c>
     </row>
     <row r="243" spans="1:3">
-      <c r="A243" s="1" t="n">
+      <c r="A243" s="1">
         <v>241</v>
       </c>
-      <c r="B243" t="n">
+      <c r="B243">
         <v>36087.08899717553</v>
       </c>
-      <c r="C243" t="n">
+      <c r="C243">
         <v>10024.99269101379</v>
       </c>
     </row>
     <row r="244" spans="1:3">
-      <c r="A244" s="1" t="n">
+      <c r="A244" s="1">
         <v>242</v>
       </c>
-      <c r="B244" t="n">
+      <c r="B244">
         <v>40460.34987237758</v>
       </c>
-      <c r="C244" t="n">
+      <c r="C244">
         <v>11159.99994100269</v>
       </c>
     </row>
     <row r="245" spans="1:3">
-      <c r="A245" s="1" t="n">
+      <c r="A245" s="1">
         <v>243</v>
       </c>
-      <c r="B245" t="n">
+      <c r="B245">
         <v>34012.78682835187</v>
       </c>
-      <c r="C245" t="n">
+      <c r="C245">
         <v>10288.27082277544</v>
       </c>
     </row>
     <row r="246" spans="1:3">
-      <c r="A246" s="1" t="n">
+      <c r="A246" s="1">
         <v>244</v>
       </c>
-      <c r="B246" t="n">
+      <c r="B246">
         <v>36051.03512352528</v>
       </c>
-      <c r="C246" t="n">
+      <c r="C246">
         <v>8878.317242390191</v>
       </c>
     </row>
     <row r="247" spans="1:3">
-      <c r="A247" s="1" t="n">
+      <c r="A247" s="1">
         <v>245</v>
       </c>
-      <c r="B247" t="n">
+      <c r="B247">
         <v>38524.72027466267</v>
       </c>
-      <c r="C247" t="n">
+      <c r="C247">
         <v>10729.444865229</v>
       </c>
     </row>
     <row r="248" spans="1:3">
-      <c r="A248" s="1" t="n">
+      <c r="A248" s="1">
         <v>246</v>
       </c>
-      <c r="B248" t="n">
+      <c r="B248">
         <v>37903.0797083318</v>
       </c>
-      <c r="C248" t="n">
+      <c r="C248">
         <v>5001.087782497238</v>
       </c>
     </row>
     <row r="249" spans="1:3">
-      <c r="A249" s="1" t="n">
+      <c r="A249" s="1">
         <v>247</v>
       </c>
-      <c r="B249" t="n">
+      <c r="B249">
         <v>34231.27889844753</v>
       </c>
-      <c r="C249" t="n">
+      <c r="C249">
         <v>6187.28341390465</v>
       </c>
     </row>
     <row r="250" spans="1:3">
-      <c r="A250" s="1" t="n">
+      <c r="A250" s="1">
         <v>248</v>
       </c>
-      <c r="B250" t="n">
+      <c r="B250">
         <v>34756.96871023357</v>
       </c>
-      <c r="C250" t="n">
+      <c r="C250">
         <v>9876.869184559622</v>
       </c>
     </row>
     <row r="251" spans="1:3">
-      <c r="A251" s="1" t="n">
+      <c r="A251" s="1">
         <v>249</v>
       </c>
-      <c r="B251" t="n">
+      <c r="B251">
         <v>32022.76908135915</v>
       </c>
-      <c r="C251" t="n">
+      <c r="C251">
         <v>10179.49394458297</v>
       </c>
     </row>
     <row r="252" spans="1:3">
-      <c r="A252" s="1" t="n">
+      <c r="A252" s="1">
         <v>250</v>
       </c>
-      <c r="B252" t="n">
+      <c r="B252">
         <v>32710.6042181603</v>
       </c>
-      <c r="C252" t="n">
+      <c r="C252">
         <v>5982.09390125186</v>
       </c>
     </row>
     <row r="253" spans="1:3">
-      <c r="A253" s="1" t="n">
+      <c r="A253" s="1">
         <v>251</v>
       </c>
-      <c r="B253" t="n">
+      <c r="B253">
         <v>25284.17320641969</v>
       </c>
-      <c r="C253" t="n">
+      <c r="C253">
         <v>2765.354313361754</v>
       </c>
     </row>
     <row r="254" spans="1:3">
-      <c r="A254" s="1" t="n">
+      <c r="A254" s="1">
         <v>252</v>
       </c>
-      <c r="B254" t="n">
+      <c r="B254">
         <v>28061.36982571134</v>
       </c>
-      <c r="C254" t="n">
+      <c r="C254">
         <v>8857.431713188991</v>
       </c>
     </row>
     <row r="255" spans="1:3">
-      <c r="A255" s="1" t="n">
+      <c r="A255" s="1">
         <v>253</v>
       </c>
-      <c r="B255" t="n">
+      <c r="B255">
         <v>28620.38570939658</v>
       </c>
-      <c r="C255" t="n">
+      <c r="C255">
         <v>5521.71379405989</v>
       </c>
     </row>
     <row r="256" spans="1:3">
-      <c r="A256" s="1" t="n">
+      <c r="A256" s="1">
         <v>254</v>
       </c>
-      <c r="B256" t="n">
+      <c r="B256">
         <v>27832.83427888121</v>
       </c>
-      <c r="C256" t="n">
+      <c r="C256">
         <v>3430.779853667618</v>
       </c>
     </row>
     <row r="257" spans="1:3">
-      <c r="A257" s="1" t="n">
+      <c r="A257" s="1">
         <v>255</v>
       </c>
-      <c r="B257" t="n">
+      <c r="B257">
         <v>28984.4102562164</v>
       </c>
-      <c r="C257" t="n">
+      <c r="C257">
         <v>4359.677701649507</v>
       </c>
     </row>
     <row r="258" spans="1:3">
-      <c r="A258" s="1" t="n">
+      <c r="A258" s="1">
         <v>256</v>
       </c>
-      <c r="B258" t="n">
+      <c r="B258">
         <v>28508.09047120438</v>
       </c>
-      <c r="C258" t="n">
+      <c r="C258">
         <v>67.7879750196289</v>
       </c>
     </row>
     <row r="259" spans="1:3">
-      <c r="A259" s="1" t="n">
+      <c r="A259" s="1">
         <v>257</v>
       </c>
-      <c r="B259" t="n">
+      <c r="B259">
         <v>25857.42981370167</v>
       </c>
-      <c r="C259" t="n">
+      <c r="C259">
         <v>-63.08480187231999</v>
       </c>
     </row>
     <row r="260" spans="1:3">
-      <c r="A260" s="1" t="n">
+      <c r="A260" s="1">
         <v>258</v>
       </c>
-      <c r="B260" t="n">
+      <c r="B260">
         <v>28293.5767343539</v>
       </c>
-      <c r="C260" t="n">
+      <c r="C260">
         <v>6111.48402946099</v>
       </c>
     </row>
     <row r="261" spans="1:3">
-      <c r="A261" s="1" t="n">
+      <c r="A261" s="1">
         <v>259</v>
       </c>
-      <c r="B261" t="n">
+      <c r="B261">
         <v>25922.27760411707</v>
       </c>
-      <c r="C261" t="n">
+      <c r="C261">
         <v>2949.478476805351</v>
       </c>
     </row>
     <row r="262" spans="1:3">
-      <c r="A262" s="1" t="n">
+      <c r="A262" s="1">
         <v>260</v>
       </c>
-      <c r="B262" t="n">
+      <c r="B262">
         <v>23408.42972219047</v>
       </c>
-      <c r="C262" t="n">
+      <c r="C262">
         <v>1797.330554448043</v>
       </c>
     </row>
     <row r="263" spans="1:3">
-      <c r="A263" s="1" t="n">
+      <c r="A263" s="1">
         <v>261</v>
       </c>
-      <c r="B263" t="n">
+      <c r="B263">
         <v>17208.74162520277</v>
       </c>
-      <c r="C263" t="n">
+      <c r="C263">
         <v>4598.305129726172</v>
       </c>
     </row>
     <row r="264" spans="1:3">
-      <c r="A264" s="1" t="n">
+      <c r="A264" s="1">
         <v>262</v>
       </c>
-      <c r="B264" t="n">
+      <c r="B264">
         <v>23743.08487379081</v>
       </c>
-      <c r="C264" t="n">
+      <c r="C264">
         <v>6353.466902624117</v>
       </c>
     </row>
     <row r="265" spans="1:3">
-      <c r="A265" s="1" t="n">
+      <c r="A265" s="1">
         <v>263</v>
       </c>
-      <c r="B265" t="n">
+      <c r="B265">
         <v>26814.1842224603</v>
       </c>
-      <c r="C265" t="n">
+      <c r="C265">
         <v>2674.078090424518</v>
       </c>
     </row>
     <row r="266" spans="1:3">
-      <c r="A266" s="1" t="n">
+      <c r="A266" s="1">
         <v>264</v>
       </c>
-      <c r="B266" t="n">
+      <c r="B266">
         <v>22931.95743536289</v>
       </c>
-      <c r="C266" t="n">
+      <c r="C266">
         <v>2866.722426796021</v>
       </c>
     </row>
     <row r="267" spans="1:3">
-      <c r="A267" s="1" t="n">
+      <c r="A267" s="1">
         <v>265</v>
       </c>
-      <c r="B267" t="n">
+      <c r="B267">
         <v>23971.84665751484</v>
       </c>
-      <c r="C267" t="n">
+      <c r="C267">
         <v>3720.673132435555</v>
       </c>
     </row>
     <row r="268" spans="1:3">
-      <c r="A268" s="1" t="n">
+      <c r="A268" s="1">
         <v>266</v>
       </c>
-      <c r="B268" t="n">
+      <c r="B268">
         <v>28594.51583283352</v>
       </c>
-      <c r="C268" t="n">
+      <c r="C268">
         <v>6279.148567033994</v>
       </c>
     </row>
     <row r="269" spans="1:3">
-      <c r="A269" s="1" t="n">
+      <c r="A269" s="1">
         <v>267</v>
       </c>
-      <c r="B269" t="n">
+      <c r="B269">
         <v>20347.98322426657</v>
       </c>
-      <c r="C269" t="n">
+      <c r="C269">
         <v>1783.719168169202</v>
       </c>
     </row>
     <row r="270" spans="1:3">
-      <c r="A270" s="1" t="n">
+      <c r="A270" s="1">
         <v>268</v>
       </c>
-      <c r="B270" t="n">
+      <c r="B270">
         <v>26977.63165626961</v>
       </c>
-      <c r="C270" t="n">
+      <c r="C270">
         <v>2205.112250169228</v>
       </c>
     </row>
     <row r="271" spans="1:3">
-      <c r="A271" s="1" t="n">
+      <c r="A271" s="1">
         <v>269</v>
       </c>
-      <c r="B271" t="n">
+      <c r="B271">
         <v>22137.48883176236</v>
       </c>
-      <c r="C271" t="n">
+      <c r="C271">
         <v>1735.656856610683</v>
       </c>
     </row>
     <row r="272" spans="1:3">
-      <c r="A272" s="1" t="n">
+      <c r="A272" s="1">
         <v>270</v>
       </c>
-      <c r="B272" t="n">
+      <c r="B272">
         <v>25983.93565249198</v>
       </c>
-      <c r="C272" t="n">
+      <c r="C272">
         <v>2871.862685221205</v>
       </c>
     </row>
     <row r="273" spans="1:3">
-      <c r="A273" s="1" t="n">
+      <c r="A273" s="1">
         <v>271</v>
       </c>
-      <c r="B273" t="n">
+      <c r="B273">
         <v>24993.34504767775</v>
       </c>
-      <c r="C273" t="n">
+      <c r="C273">
         <v>5002.629341328848</v>
       </c>
     </row>
     <row r="274" spans="1:3">
-      <c r="A274" s="1" t="n">
+      <c r="A274" s="1">
         <v>272</v>
       </c>
-      <c r="B274" t="n">
+      <c r="B274">
         <v>30744.68749706749</v>
       </c>
-      <c r="C274" t="n">
+      <c r="C274">
         <v>2899.023745733784</v>
       </c>
     </row>
     <row r="275" spans="1:3">
-      <c r="A275" s="1" t="n">
+      <c r="A275" s="1">
         <v>273</v>
       </c>
-      <c r="B275" t="n">
+      <c r="B275">
         <v>17857.60477293519</v>
       </c>
-      <c r="C275" t="n">
+      <c r="C275">
         <v>4724.038645627097</v>
       </c>
     </row>
     <row r="276" spans="1:3">
-      <c r="A276" s="1" t="n">
+      <c r="A276" s="1">
         <v>274</v>
       </c>
-      <c r="B276" t="n">
+      <c r="B276">
         <v>25736.2415919988</v>
       </c>
-      <c r="C276" t="n">
+      <c r="C276">
         <v>699.1604099653296</v>
       </c>
     </row>
     <row r="277" spans="1:3">
-      <c r="A277" s="1" t="n">
+      <c r="A277" s="1">
         <v>275</v>
       </c>
-      <c r="B277" t="n">
+      <c r="B277">
         <v>28363.44415463648</v>
       </c>
-      <c r="C277" t="n">
+      <c r="C277">
         <v>3412.583282510548</v>
       </c>
     </row>
     <row r="278" spans="1:3">
-      <c r="A278" s="1" t="n">
+      <c r="A278" s="1">
         <v>276</v>
       </c>
-      <c r="B278" t="n">
+      <c r="B278">
         <v>25427.58522502593</v>
       </c>
-      <c r="C278" t="n">
+      <c r="C278">
         <v>2740.108769468845</v>
       </c>
     </row>
     <row r="279" spans="1:3">
-      <c r="A279" s="1" t="n">
+      <c r="A279" s="1">
         <v>277</v>
       </c>
-      <c r="B279" t="n">
+      <c r="B279">
         <v>24349.98970077138</v>
       </c>
-      <c r="C279" t="n">
+      <c r="C279">
         <v>-663.7849255929964</v>
       </c>
     </row>
     <row r="280" spans="1:3">
-      <c r="A280" s="1" t="n">
+      <c r="A280" s="1">
         <v>278</v>
       </c>
-      <c r="B280" t="n">
+      <c r="B280">
         <v>29566.31600248155</v>
       </c>
-      <c r="C280" t="n">
+      <c r="C280">
         <v>1132.460420251075</v>
       </c>
     </row>
     <row r="281" spans="1:3">
-      <c r="A281" s="1" t="n">
+      <c r="A281" s="1">
         <v>279</v>
       </c>
-      <c r="B281" t="n">
+      <c r="B281">
         <v>23197.49667663177</v>
       </c>
-      <c r="C281" t="n">
+      <c r="C281">
         <v>1275.636280942784</v>
       </c>
     </row>
     <row r="282" spans="1:3">
-      <c r="A282" s="1" t="n">
+      <c r="A282" s="1">
         <v>280</v>
       </c>
-      <c r="B282" t="n">
+      <c r="B282">
         <v>22736.64154325716</v>
       </c>
-      <c r="C282" t="n">
+      <c r="C282">
         <v>6252.260914608438</v>
       </c>
     </row>
     <row r="283" spans="1:3">
-      <c r="A283" s="1" t="n">
+      <c r="A283" s="1">
         <v>281</v>
       </c>
-      <c r="B283" t="n">
+      <c r="B283">
         <v>29682.22718679576</v>
       </c>
-      <c r="C283" t="n">
+      <c r="C283">
         <v>4376.48031801773</v>
       </c>
     </row>
     <row r="284" spans="1:3">
-      <c r="A284" s="1" t="n">
+      <c r="A284" s="1">
         <v>282</v>
       </c>
-      <c r="B284" t="n">
+      <c r="B284">
         <v>23825.24736762055</v>
       </c>
-      <c r="C284" t="n">
+      <c r="C284">
         <v>896.8932358049028</v>
       </c>
     </row>
     <row r="285" spans="1:3">
-      <c r="A285" s="1" t="n">
+      <c r="A285" s="1">
         <v>283</v>
       </c>
-      <c r="B285" t="n">
+      <c r="B285">
         <v>28663.18240555378</v>
       </c>
-      <c r="C285" t="n">
+      <c r="C285">
         <v>1311.61418951293</v>
       </c>
     </row>
     <row r="286" spans="1:3">
-      <c r="A286" s="1" t="n">
+      <c r="A286" s="1">
         <v>284</v>
       </c>
-      <c r="B286" t="n">
+      <c r="B286">
         <v>29568.09105034237</v>
       </c>
-      <c r="C286" t="n">
+      <c r="C286">
         <v>1803.328010510943</v>
       </c>
     </row>
     <row r="287" spans="1:3">
-      <c r="A287" s="1" t="n">
+      <c r="A287" s="1">
         <v>285</v>
       </c>
-      <c r="B287" t="n">
+      <c r="B287">
         <v>21223.26534064367</v>
       </c>
-      <c r="C287" t="n">
+      <c r="C287">
         <v>2282.7405740963</v>
       </c>
     </row>
     <row r="288" spans="1:3">
-      <c r="A288" s="1" t="n">
+      <c r="A288" s="1">
         <v>286</v>
       </c>
-      <c r="B288" t="n">
+      <c r="B288">
         <v>27644.35444679091</v>
       </c>
-      <c r="C288" t="n">
+      <c r="C288">
         <v>130.2326455998646</v>
       </c>
     </row>
     <row r="289" spans="1:3">
-      <c r="A289" s="1" t="n">
+      <c r="A289" s="1">
         <v>287</v>
       </c>
-      <c r="B289" t="n">
+      <c r="B289">
         <v>26701.22157243584</v>
       </c>
-      <c r="C289" t="n">
+      <c r="C289">
         <v>1919.801517451933</v>
       </c>
     </row>
     <row r="290" spans="1:3">
-      <c r="A290" s="1" t="n">
+      <c r="A290" s="1">
         <v>288</v>
       </c>
-      <c r="B290" t="n">
+      <c r="B290">
         <v>22039.18478678405</v>
       </c>
-      <c r="C290" t="n">
+      <c r="C290">
         <v>2479.182079410442</v>
       </c>
     </row>
     <row r="291" spans="1:3">
-      <c r="A291" s="1" t="n">
+      <c r="A291" s="1">
         <v>289</v>
       </c>
-      <c r="B291" t="n">
+      <c r="B291">
         <v>25403.94134869335</v>
       </c>
-      <c r="C291" t="n">
+      <c r="C291">
         <v>298.5202079610185</v>
       </c>
     </row>
     <row r="292" spans="1:3">
-      <c r="A292" s="1" t="n">
+      <c r="A292" s="1">
         <v>290</v>
       </c>
-      <c r="B292" t="n">
+      <c r="B292">
         <v>20747.69980456061</v>
       </c>
-      <c r="C292" t="n">
+      <c r="C292">
         <v>1302.593946591206</v>
       </c>
     </row>
     <row r="293" spans="1:3">
-      <c r="A293" s="1" t="n">
+      <c r="A293" s="1">
         <v>291</v>
       </c>
-      <c r="B293" t="n">
+      <c r="B293">
         <v>21888.29546051224</v>
       </c>
-      <c r="C293" t="n">
+      <c r="C293">
         <v>1076.971575873913</v>
       </c>
     </row>
     <row r="294" spans="1:3">
-      <c r="A294" s="1" t="n">
+      <c r="A294" s="1">
         <v>292</v>
       </c>
-      <c r="B294" t="n">
+      <c r="B294">
         <v>17280.66864620811</v>
       </c>
-      <c r="C294" t="n">
+      <c r="C294">
         <v>2216.489650412336</v>
       </c>
     </row>
     <row r="295" spans="1:3">
-      <c r="A295" s="1" t="n">
+      <c r="A295" s="1">
         <v>293</v>
       </c>
-      <c r="B295" t="n">
+      <c r="B295">
         <v>23817.34205340495</v>
       </c>
-      <c r="C295" t="n">
+      <c r="C295">
         <v>4847.473441712661</v>
       </c>
     </row>
     <row r="296" spans="1:3">
-      <c r="A296" s="1" t="n">
+      <c r="A296" s="1">
         <v>294</v>
       </c>
-      <c r="B296" t="n">
+      <c r="B296">
         <v>24442.57601248663</v>
       </c>
-      <c r="C296" t="n">
+      <c r="C296">
         <v>2059.84533252619</v>
       </c>
     </row>
     <row r="297" spans="1:3">
-      <c r="A297" s="1" t="n">
+      <c r="A297" s="1">
         <v>295</v>
       </c>
-      <c r="B297" t="n">
+      <c r="B297">
         <v>25449.4408314241</v>
       </c>
-      <c r="C297" t="n">
+      <c r="C297">
         <v>1609.166246302005</v>
       </c>
     </row>
     <row r="298" spans="1:3">
-      <c r="A298" s="1" t="n">
+      <c r="A298" s="1">
         <v>296</v>
       </c>
-      <c r="B298" t="n">
+      <c r="B298">
         <v>23567.72867690635</v>
       </c>
-      <c r="C298" t="n">
+      <c r="C298">
         <v>1706.151919743883</v>
       </c>
     </row>
     <row r="299" spans="1:3">
-      <c r="A299" s="1" t="n">
+      <c r="A299" s="1">
         <v>297</v>
       </c>
-      <c r="B299" t="n">
+      <c r="B299">
         <v>23666.59195076364</v>
       </c>
-      <c r="C299" t="n">
+      <c r="C299">
         <v>-1787.800840811315</v>
       </c>
     </row>
     <row r="300" spans="1:3">
-      <c r="A300" s="1" t="n">
+      <c r="A300" s="1">
         <v>298</v>
       </c>
-      <c r="B300" t="n">
+      <c r="B300">
         <v>22639.03749158076</v>
       </c>
-      <c r="C300" t="n">
+      <c r="C300">
         <v>-76.36950604665867</v>
       </c>
     </row>
     <row r="301" spans="1:3">
-      <c r="A301" s="1" t="n">
+      <c r="A301" s="1">
         <v>299</v>
       </c>
-      <c r="B301" t="n">
+      <c r="B301">
         <v>26067.37846834449</v>
       </c>
-      <c r="C301" t="n">
+      <c r="C301">
         <v>5137.312872963909</v>
       </c>
     </row>
     <row r="302" spans="1:3">
-      <c r="A302" s="1" t="n">
+      <c r="A302" s="1">
         <v>300</v>
       </c>
-      <c r="B302" t="n">
+      <c r="B302">
         <v>20027.19374839003</v>
       </c>
-      <c r="C302" t="n">
+      <c r="C302">
         <v>5946.890971097319</v>
       </c>
     </row>
     <row r="303" spans="1:3">
-      <c r="A303" s="1" t="n">
+      <c r="A303" s="1">
         <v>301</v>
       </c>
-      <c r="B303" t="n">
+      <c r="B303">
         <v>22340.14750601142</v>
       </c>
-      <c r="C303" t="n">
+      <c r="C303">
         <v>1682.732275815701</v>
       </c>
     </row>
     <row r="304" spans="1:3">
-      <c r="A304" s="1" t="n">
+      <c r="A304" s="1">
         <v>302</v>
       </c>
-      <c r="B304" t="n">
+      <c r="B304">
         <v>28967.23496126027</v>
       </c>
-      <c r="C304" t="n">
+      <c r="C304">
         <v>1951.106941384274</v>
       </c>
     </row>
     <row r="305" spans="1:3">
-      <c r="A305" s="1" t="n">
+      <c r="A305" s="1">
         <v>303</v>
       </c>
-      <c r="B305" t="n">
+      <c r="B305">
         <v>28036.94686690786</v>
       </c>
-      <c r="C305" t="n">
+      <c r="C305">
         <v>-1196.209558247919</v>
       </c>
     </row>
     <row r="306" spans="1:3">
-      <c r="A306" s="1" t="n">
+      <c r="A306" s="1">
         <v>304</v>
       </c>
-      <c r="B306" t="n">
+      <c r="B306">
         <v>26518.30733303827</v>
       </c>
-      <c r="C306" t="n">
+      <c r="C306">
         <v>3736.159769102007</v>
       </c>
     </row>
     <row r="307" spans="1:3">
-      <c r="A307" s="1" t="n">
+      <c r="A307" s="1">
         <v>305</v>
       </c>
-      <c r="B307" t="n">
+      <c r="B307">
         <v>31619.5507310168</v>
       </c>
-      <c r="C307" t="n">
+      <c r="C307">
         <v>3742.284047510087</v>
       </c>
     </row>
     <row r="308" spans="1:3">
-      <c r="A308" s="1" t="n">
+      <c r="A308" s="1">
         <v>306</v>
       </c>
-      <c r="B308" t="n">
+      <c r="B308">
         <v>28794.86058642083</v>
       </c>
-      <c r="C308" t="n">
+      <c r="C308">
         <v>3291.63163498136</v>
       </c>
     </row>
     <row r="309" spans="1:3">
-      <c r="A309" s="1" t="n">
+      <c r="A309" s="1">
         <v>307</v>
       </c>
-      <c r="B309" t="n">
+      <c r="B309">
         <v>31418.65149910344</v>
       </c>
-      <c r="C309" t="n">
+      <c r="C309">
         <v>1526.545714681854</v>
       </c>
     </row>
     <row r="310" spans="1:3">
-      <c r="A310" s="1" t="n">
+      <c r="A310" s="1">
         <v>308</v>
       </c>
-      <c r="B310" t="n">
+      <c r="B310">
         <v>40021.95373156053</v>
       </c>
-      <c r="C310" t="n">
+      <c r="C310">
         <v>1075.469121294834</v>
       </c>
     </row>
     <row r="311" spans="1:3">
-      <c r="A311" s="1" t="n">
+      <c r="A311" s="1">
         <v>309</v>
       </c>
-      <c r="B311" t="n">
+      <c r="B311">
         <v>35290.67161617392</v>
       </c>
-      <c r="C311" t="n">
+      <c r="C311">
         <v>6658.538168086727</v>
       </c>
     </row>
     <row r="312" spans="1:3">
-      <c r="A312" s="1" t="n">
+      <c r="A312" s="1">
         <v>310</v>
       </c>
-      <c r="B312" t="n">
+      <c r="B312">
         <v>37099.65576983775</v>
       </c>
-      <c r="C312" t="n">
+      <c r="C312">
         <v>-873.1529617213996</v>
       </c>
     </row>
     <row r="313" spans="1:3">
-      <c r="A313" s="1" t="n">
+      <c r="A313" s="1">
         <v>311</v>
       </c>
-      <c r="B313" t="n">
+      <c r="B313">
         <v>33487.09085786384</v>
       </c>
-      <c r="C313" t="n">
+      <c r="C313">
         <v>1508.755039637543</v>
       </c>
     </row>
     <row r="314" spans="1:3">
-      <c r="A314" s="1" t="n">
+      <c r="A314" s="1">
         <v>312</v>
       </c>
-      <c r="B314" t="n">
+      <c r="B314">
         <v>34340.97248666042</v>
       </c>
-      <c r="C314" t="n">
+      <c r="C314">
         <v>1338.146375905371</v>
       </c>
     </row>
     <row r="315" spans="1:3">
-      <c r="A315" s="1" t="n">
+      <c r="A315" s="1">
         <v>313</v>
       </c>
-      <c r="B315" t="n">
+      <c r="B315">
         <v>34896.68676176926</v>
       </c>
-      <c r="C315" t="n">
+      <c r="C315">
         <v>4193.305942902491</v>
       </c>
     </row>
     <row r="316" spans="1:3">
-      <c r="A316" s="1" t="n">
+      <c r="A316" s="1">
         <v>314</v>
       </c>
-      <c r="B316" t="n">
+      <c r="B316">
         <v>31421.17339453279</v>
       </c>
-      <c r="C316" t="n">
+      <c r="C316">
         <v>1193.773856523715</v>
       </c>
     </row>
     <row r="317" spans="1:3">
-      <c r="A317" s="1" t="n">
+      <c r="A317" s="1">
         <v>315</v>
       </c>
-      <c r="B317" t="n">
+      <c r="B317">
         <v>40850.85539441742</v>
       </c>
-      <c r="C317" t="n">
+      <c r="C317">
         <v>1142.270809552897</v>
       </c>
     </row>
     <row r="318" spans="1:3">
-      <c r="A318" s="1" t="n">
+      <c r="A318" s="1">
         <v>316</v>
       </c>
-      <c r="B318" t="n">
+      <c r="B318">
         <v>40880.20727748745</v>
       </c>
-      <c r="C318" t="n">
+      <c r="C318">
         <v>6601.071488664458</v>
       </c>
     </row>
     <row r="319" spans="1:3">
-      <c r="A319" s="1" t="n">
+      <c r="A319" s="1">
         <v>317</v>
       </c>
-      <c r="B319" t="n">
+      <c r="B319">
         <v>43928.5267111348</v>
       </c>
-      <c r="C319" t="n">
+      <c r="C319">
         <v>8011.075560142017</v>
       </c>
     </row>
     <row r="320" spans="1:3">
-      <c r="A320" s="1" t="n">
+      <c r="A320" s="1">
         <v>318</v>
       </c>
-      <c r="B320" t="n">
+      <c r="B320">
         <v>40595.17171412089</v>
       </c>
-      <c r="C320" t="n">
+      <c r="C320">
         <v>2096.617311865021</v>
       </c>
     </row>
     <row r="321" spans="1:3">
-      <c r="A321" s="1" t="n">
+      <c r="A321" s="1">
         <v>319</v>
       </c>
-      <c r="B321" t="n">
+      <c r="B321">
         <v>35309.85403835645</v>
       </c>
-      <c r="C321" t="n">
+      <c r="C321">
         <v>2509.586797168269</v>
       </c>
     </row>
     <row r="322" spans="1:3">
-      <c r="A322" s="1" t="n">
+      <c r="A322" s="1">
         <v>320</v>
       </c>
-      <c r="B322" t="n">
+      <c r="B322">
         <v>40967.80836395449</v>
       </c>
-      <c r="C322" t="n">
+      <c r="C322">
         <v>-580.880269324502</v>
       </c>
     </row>
     <row r="323" spans="1:3">
-      <c r="A323" s="1" t="n">
+      <c r="A323" s="1">
         <v>321</v>
       </c>
-      <c r="B323" t="n">
+      <c r="B323">
         <v>52002.12802164879</v>
       </c>
-      <c r="C323" t="n">
+      <c r="C323">
         <v>-1357.103413223679</v>
       </c>
     </row>
     <row r="324" spans="1:3">
-      <c r="A324" s="1" t="n">
+      <c r="A324" s="1">
         <v>322</v>
       </c>
-      <c r="B324" t="n">
+      <c r="B324">
         <v>55267.82263801162</v>
       </c>
-      <c r="C324" t="n">
+      <c r="C324">
         <v>6472.960214339977</v>
       </c>
     </row>
     <row r="325" spans="1:3">
-      <c r="A325" s="1" t="n">
+      <c r="A325" s="1">
         <v>323</v>
       </c>
-      <c r="B325" t="n">
+      <c r="B325">
         <v>57336.55874757759</v>
       </c>
-      <c r="C325" t="n">
+      <c r="C325">
         <v>6140.302385419054</v>
       </c>
     </row>
     <row r="326" spans="1:3">
-      <c r="A326" s="1" t="n">
+      <c r="A326" s="1">
         <v>324</v>
       </c>
-      <c r="B326" t="n">
+      <c r="B326">
         <v>60562.11821292308</v>
       </c>
-      <c r="C326" t="n">
+      <c r="C326">
         <v>326.4281193376246</v>
       </c>
     </row>
     <row r="327" spans="1:3">
-      <c r="A327" s="1" t="n">
+      <c r="A327" s="1">
         <v>325</v>
       </c>
-      <c r="B327" t="n">
+      <c r="B327">
         <v>62347.50889978207</v>
       </c>
-      <c r="C327" t="n">
+      <c r="C327">
         <v>7962.715100658551</v>
       </c>
     </row>
     <row r="328" spans="1:3">
-      <c r="A328" s="1" t="n">
+      <c r="A328" s="1">
         <v>326</v>
       </c>
-      <c r="B328" t="n">
+      <c r="B328">
         <v>64126.20657899551</v>
       </c>
-      <c r="C328" t="n">
+      <c r="C328">
         <v>-815.0562715788474</v>
       </c>
     </row>
     <row r="329" spans="1:3">
-      <c r="A329" s="1" t="n">
+      <c r="A329" s="1">
         <v>327</v>
       </c>
-      <c r="B329" t="n">
+      <c r="B329">
         <v>68168.45835337962</v>
       </c>
-      <c r="C329" t="n">
+      <c r="C329">
         <v>2000.630600618627</v>
       </c>
     </row>
     <row r="330" spans="1:3">
-      <c r="A330" s="1" t="n">
+      <c r="A330" s="1">
         <v>328</v>
       </c>
-      <c r="B330" t="n">
+      <c r="B330">
         <v>59777.81340308121</v>
       </c>
-      <c r="C330" t="n">
+      <c r="C330">
         <v>335.2226660126989</v>
       </c>
     </row>
     <row r="331" spans="1:3">
-      <c r="A331" s="1" t="n">
+      <c r="A331" s="1">
         <v>329</v>
       </c>
-      <c r="B331" t="n">
+      <c r="B331">
         <v>64466.16268710281</v>
       </c>
-      <c r="C331" t="n">
+      <c r="C331">
         <v>367.7111441461711</v>
       </c>
     </row>
     <row r="332" spans="1:3">
-      <c r="A332" s="1" t="n">
+      <c r="A332" s="1">
         <v>330</v>
       </c>
-      <c r="B332" t="n">
+      <c r="B332">
         <v>58049.57208950608</v>
       </c>
-      <c r="C332" t="n">
+      <c r="C332">
         <v>3995.692213521167</v>
       </c>
     </row>
     <row r="333" spans="1:3">
-      <c r="A333" s="1" t="n">
+      <c r="A333" s="1">
         <v>331</v>
       </c>
-      <c r="B333" t="n">
+      <c r="B333">
         <v>49666.5333552852</v>
       </c>
-      <c r="C333" t="n">
+      <c r="C333">
         <v>2928.684166835066</v>
       </c>
     </row>
     <row r="334" spans="1:3">
-      <c r="A334" s="1" t="n">
+      <c r="A334" s="1">
         <v>332</v>
       </c>
-      <c r="B334" t="n">
+      <c r="B334">
         <v>62646.20043766592</v>
       </c>
-      <c r="C334" t="n">
+      <c r="C334">
         <v>3214.93390450476</v>
       </c>
     </row>
     <row r="335" spans="1:3">
-      <c r="A335" s="1" t="n">
+      <c r="A335" s="1">
         <v>333</v>
       </c>
-      <c r="B335" t="n">
+      <c r="B335">
         <v>58343.62949908085</v>
       </c>
-      <c r="C335" t="n">
+      <c r="C335">
         <v>2399.693173110113</v>
       </c>
     </row>
     <row r="336" spans="1:3">
-      <c r="A336" s="1" t="n">
+      <c r="A336" s="1">
         <v>334</v>
       </c>
-      <c r="B336" t="n">
+      <c r="B336">
         <v>56177.69273468071</v>
       </c>
-      <c r="C336" t="n">
+      <c r="C336">
         <v>3988.235580198045</v>
       </c>
     </row>
     <row r="337" spans="1:3">
-      <c r="A337" s="1" t="n">
+      <c r="A337" s="1">
         <v>335</v>
       </c>
-      <c r="B337" t="n">
+      <c r="B337">
         <v>53963.38191076925</v>
       </c>
-      <c r="C337" t="n">
+      <c r="C337">
         <v>3661.566723344426</v>
       </c>
     </row>
     <row r="338" spans="1:3">
-      <c r="A338" s="1" t="n">
+      <c r="A338" s="1">
         <v>336</v>
       </c>
-      <c r="B338" t="n">
+      <c r="B338">
         <v>48362.46986675657</v>
       </c>
-      <c r="C338" t="n">
+      <c r="C338">
         <v>4754.217611420901</v>
       </c>
     </row>
     <row r="339" spans="1:3">
-      <c r="A339" s="1" t="n">
+      <c r="A339" s="1">
         <v>337</v>
       </c>
-      <c r="B339" t="n">
+      <c r="B339">
         <v>49994.77139277944</v>
       </c>
-      <c r="C339" t="n">
+      <c r="C339">
         <v>5211.170319305399</v>
       </c>
     </row>
     <row r="340" spans="1:3">
-      <c r="A340" s="1" t="n">
+      <c r="A340" s="1">
         <v>338</v>
       </c>
-      <c r="B340" t="n">
+      <c r="B340">
         <v>51873.82348401113</v>
       </c>
-      <c r="C340" t="n">
+      <c r="C340">
         <v>2373.324219688006</v>
       </c>
     </row>
     <row r="341" spans="1:3">
-      <c r="A341" s="1" t="n">
+      <c r="A341" s="1">
         <v>339</v>
       </c>
-      <c r="B341" t="n">
+      <c r="B341">
         <v>44763.46191574695</v>
       </c>
-      <c r="C341" t="n">
+      <c r="C341">
         <v>6735.381549829817</v>
       </c>
     </row>
     <row r="342" spans="1:3">
-      <c r="A342" s="1" t="n">
+      <c r="A342" s="1">
         <v>340</v>
       </c>
-      <c r="B342" t="n">
+      <c r="B342">
         <v>43049.67756313978</v>
       </c>
-      <c r="C342" t="n">
+      <c r="C342">
         <v>2859.256946349697</v>
       </c>
     </row>
     <row r="343" spans="1:3">
-      <c r="A343" s="1" t="n">
+      <c r="A343" s="1">
         <v>341</v>
       </c>
-      <c r="B343" t="n">
+      <c r="B343">
         <v>51596.66522666518</v>
       </c>
-      <c r="C343" t="n">
+      <c r="C343">
         <v>6420.986116269858</v>
       </c>
     </row>
     <row r="344" spans="1:3">
-      <c r="A344" s="1" t="n">
+      <c r="A344" s="1">
         <v>342</v>
       </c>
-      <c r="B344" t="n">
+      <c r="B344">
         <v>51684.81810799531</v>
       </c>
-      <c r="C344" t="n">
+      <c r="C344">
         <v>4908.803069054027</v>
       </c>
     </row>
     <row r="345" spans="1:3">
-      <c r="A345" s="1" t="n">
+      <c r="A345" s="1">
         <v>343</v>
       </c>
-      <c r="B345" t="n">
+      <c r="B345">
         <v>58613.60100710904</v>
       </c>
-      <c r="C345" t="n">
+      <c r="C345">
         <v>1354.035492051518</v>
       </c>
     </row>
     <row r="346" spans="1:3">
-      <c r="A346" s="1" t="n">
+      <c r="A346" s="1">
         <v>344</v>
       </c>
-      <c r="B346" t="n">
+      <c r="B346">
         <v>61879.39749489272</v>
       </c>
-      <c r="C346" t="n">
+      <c r="C346">
         <v>8480.269788529873</v>
       </c>
     </row>
     <row r="347" spans="1:3">
-      <c r="A347" s="1" t="n">
+      <c r="A347" s="1">
         <v>345</v>
       </c>
-      <c r="B347" t="n">
+      <c r="B347">
         <v>55898.02750329028</v>
       </c>
-      <c r="C347" t="n">
+      <c r="C347">
         <v>6261.503504059996</v>
       </c>
     </row>
     <row r="348" spans="1:3">
-      <c r="A348" s="1" t="n">
+      <c r="A348" s="1">
         <v>346</v>
       </c>
-      <c r="B348" t="n">
+      <c r="B348">
         <v>61829.01259862477</v>
       </c>
-      <c r="C348" t="n">
+      <c r="C348">
         <v>3272.608281294675</v>
       </c>
     </row>
     <row r="349" spans="1:3">
-      <c r="A349" s="1" t="n">
+      <c r="A349" s="1">
         <v>347</v>
       </c>
-      <c r="B349" t="n">
+      <c r="B349">
         <v>60451.13202710937</v>
       </c>
-      <c r="C349" t="n">
+      <c r="C349">
         <v>4110.77398742275</v>
       </c>
     </row>
     <row r="350" spans="1:3">
-      <c r="A350" s="1" t="n">
+      <c r="A350" s="1">
         <v>348</v>
       </c>
-      <c r="B350" t="n">
+      <c r="B350">
         <v>51756.61659184244</v>
       </c>
-      <c r="C350" t="n">
+      <c r="C350">
         <v>3924.37863319364</v>
       </c>
     </row>
     <row r="351" spans="1:3">
-      <c r="A351" s="1" t="n">
+      <c r="A351" s="1">
         <v>349</v>
       </c>
-      <c r="B351" t="n">
+      <c r="B351">
         <v>51325.82030854799</v>
       </c>
-      <c r="C351" t="n">
+      <c r="C351">
         <v>10250.18282022133</v>
       </c>
     </row>
     <row r="352" spans="1:3">
-      <c r="A352" s="1" t="n">
+      <c r="A352" s="1">
         <v>350</v>
       </c>
-      <c r="B352" t="n">
+      <c r="B352">
         <v>50301.02286386898</v>
       </c>
-      <c r="C352" t="n">
+      <c r="C352">
         <v>8127.93459888614</v>
       </c>
     </row>
     <row r="353" spans="1:3">
-      <c r="A353" s="1" t="n">
+      <c r="A353" s="1">
         <v>351</v>
       </c>
-      <c r="B353" t="n">
+      <c r="B353">
         <v>48168.17708107692</v>
       </c>
-      <c r="C353" t="n">
+      <c r="C353">
         <v>5470.33136971693</v>
       </c>
     </row>
     <row r="354" spans="1:3">
-      <c r="A354" s="1" t="n">
+      <c r="A354" s="1">
         <v>352</v>
       </c>
-      <c r="B354" t="n">
+      <c r="B354">
         <v>44119.64467743938</v>
       </c>
-      <c r="C354" t="n">
+      <c r="C354">
         <v>7372.160569520967</v>
       </c>
     </row>
     <row r="355" spans="1:3">
-      <c r="A355" s="1" t="n">
+      <c r="A355" s="1">
         <v>353</v>
       </c>
-      <c r="B355" t="n">
+      <c r="B355">
         <v>36065.75204195905</v>
       </c>
-      <c r="C355" t="n">
+      <c r="C355">
         <v>9003.929904775367</v>
       </c>
     </row>
     <row r="356" spans="1:3">
-      <c r="A356" s="1" t="n">
+      <c r="A356" s="1">
         <v>354</v>
       </c>
-      <c r="B356" t="n">
+      <c r="B356">
         <v>44741.31752837335</v>
       </c>
-      <c r="C356" t="n">
+      <c r="C356">
         <v>5669.166401233172</v>
       </c>
     </row>
     <row r="357" spans="1:3">
-      <c r="A357" s="1" t="n">
+      <c r="A357" s="1">
         <v>355</v>
       </c>
-      <c r="B357" t="n">
+      <c r="B357">
         <v>44101.1289187947</v>
       </c>
-      <c r="C357" t="n">
+      <c r="C357">
         <v>5707.657683901187</v>
       </c>
     </row>
     <row r="358" spans="1:3">
-      <c r="A358" s="1" t="n">
+      <c r="A358" s="1">
         <v>356</v>
       </c>
-      <c r="B358" t="n">
+      <c r="B358">
         <v>49865.98406309792</v>
       </c>
-      <c r="C358" t="n">
+      <c r="C358">
         <v>2800.865327861916</v>
       </c>
     </row>
     <row r="359" spans="1:3">
-      <c r="A359" s="1" t="n">
+      <c r="A359" s="1">
         <v>357</v>
       </c>
-      <c r="B359" t="n">
+      <c r="B359">
         <v>48695.98368629544</v>
       </c>
-      <c r="C359" t="n">
+      <c r="C359">
         <v>5247.837292759092</v>
       </c>
     </row>
     <row r="360" spans="1:3">
-      <c r="A360" s="1" t="n">
+      <c r="A360" s="1">
         <v>358</v>
       </c>
-      <c r="B360" t="n">
+      <c r="B360">
         <v>61946.5258796452</v>
       </c>
-      <c r="C360" t="n">
+      <c r="C360">
         <v>5661.243622459054</v>
       </c>
     </row>
     <row r="361" spans="1:3">
-      <c r="A361" s="1" t="n">
+      <c r="A361" s="1">
         <v>359</v>
       </c>
-      <c r="B361" t="n">
+      <c r="B361">
         <v>55592.35296510429</v>
       </c>
-      <c r="C361" t="n">
+      <c r="C361">
         <v>8614.986221226303</v>
       </c>
     </row>
     <row r="362" spans="1:3">
-      <c r="A362" s="1" t="n">
+      <c r="A362" s="1">
         <v>360</v>
       </c>
-      <c r="B362" t="n">
+      <c r="B362">
         <v>61246.54958063327</v>
       </c>
-      <c r="C362" t="n">
+      <c r="C362">
         <v>6602.804912441404</v>
       </c>
     </row>
     <row r="363" spans="1:3">
-      <c r="A363" s="1" t="n">
+      <c r="A363" s="1">
         <v>361</v>
       </c>
-      <c r="B363" t="n">
+      <c r="B363">
         <v>57233.08256911414</v>
       </c>
-      <c r="C363" t="n">
+      <c r="C363">
         <v>9810.551131404538</v>
       </c>
     </row>
     <row r="364" spans="1:3">
-      <c r="A364" s="1" t="n">
+      <c r="A364" s="1">
         <v>362</v>
       </c>
-      <c r="B364" t="n">
+      <c r="B364">
         <v>64941.26541310029</v>
       </c>
-      <c r="C364" t="n">
+      <c r="C364">
         <v>9594.61687181102</v>
       </c>
     </row>
     <row r="365" spans="1:3">
-      <c r="A365" s="1" t="n">
+      <c r="A365" s="1">
         <v>363</v>
       </c>
-      <c r="B365" t="n">
+      <c r="B365">
         <v>55254.93586901423</v>
       </c>
-      <c r="C365" t="n">
+      <c r="C365">
         <v>7989.527156475985</v>
       </c>
     </row>
     <row r="366" spans="1:3">
-      <c r="A366" s="1" t="n">
+      <c r="A366" s="1">
         <v>364</v>
       </c>
-      <c r="B366" t="n">
+      <c r="B366">
         <v>48995.0155550201</v>
       </c>
-      <c r="C366" t="n">
+      <c r="C366">
         <v>5600.292155274036</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>